--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A58B00-3A94-4974-A013-8082487EF758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF21546A-ECD5-4970-A35F-8CC09D181421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -98,6 +98,21 @@
   </si>
   <si>
     <t>Sand</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MaxCount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計図</t>
+    <rPh sb="0" eb="3">
+      <t>セッケイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/blueprint</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -166,14 +181,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:E6" totalsRowShown="0">
-  <autoFilter ref="A1:E6" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:F7" totalsRowShown="0">
+  <autoFilter ref="A1:F7" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Name"/>
     <tableColumn id="3" xr3:uid="{E73967F7-5D00-455D-9AEC-4ABDD41A14F5}" name="IconResourcesPath"/>
     <tableColumn id="4" xr3:uid="{612AE7D3-B358-4052-A7EF-BCB3EB411FAA}" name="Type"/>
     <tableColumn id="5" xr3:uid="{69810B33-DB51-4131-A821-B92E515A015E}" name="ReferenceID"/>
+    <tableColumn id="6" xr3:uid="{D9675E64-C728-47B7-A6B8-825DAA591A46}" name="MaxCount"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -476,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -488,7 +504,7 @@
     <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -504,8 +520,11 @@
       <c r="E1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>101</v>
       </c>
@@ -521,8 +540,11 @@
       <c r="E2">
         <v>1001</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>102</v>
       </c>
@@ -538,8 +560,11 @@
       <c r="E3">
         <v>1002</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>103</v>
       </c>
@@ -555,8 +580,11 @@
       <c r="E4">
         <v>1003</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F4">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>104</v>
       </c>
@@ -572,8 +600,11 @@
       <c r="E5">
         <v>1004</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F5">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>3000</v>
       </c>
@@ -585,6 +616,26 @@
       </c>
       <c r="D6">
         <v>50</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>3001</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>51</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -599,10 +650,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0258133-42E6-4606-8D6B-87E692C81D88}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -632,6 +683,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B4">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF21546A-ECD5-4970-A35F-8CC09D181421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710A3BC1-B005-4380-9591-498DF6241A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
@@ -69,14 +69,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Rock2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Grass</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Textures/rock</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -113,6 +105,14 @@
   </si>
   <si>
     <t>Textures/blueprint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Soil</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WoodNormal</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -495,7 +495,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -521,7 +521,7 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -532,7 +532,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -549,10 +549,10 @@
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -569,10 +569,10 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -589,10 +589,10 @@
         <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -612,7 +612,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>50</v>
@@ -626,10 +626,10 @@
         <v>3001</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7">
         <v>51</v>
@@ -688,7 +688,7 @@
         <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pckanri_018/Desktop/CraftStory/Config/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710A3BC1-B005-4380-9591-498DF6241A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF00981-172A-5B44-8EF8-A9CF4AD8339B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="8320" yWindow="2360" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -65,31 +65,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Rock</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Textures/rock</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Textures/rock2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Textures/grass</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Textures/pen</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Textures/sand</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sand</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -108,19 +84,136 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Soil</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>WoodNormal</t>
-    <phoneticPr fontId="1"/>
+    <t>石のブロック</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木のブロックA</t>
+    <rPh sb="0" eb="1">
+      <t>キノブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木のブロックB</t>
+    <rPh sb="0" eb="1">
+      <t>キノブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木のブロックC</t>
+    <rPh sb="0" eb="1">
+      <t>キノブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>土のブロック</t>
+    <rPh sb="0" eb="1">
+      <t>ツチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>草土のブロック</t>
+    <rPh sb="0" eb="1">
+      <t>クサテ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">ツチ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石レンガのブロック</t>
+    <rPh sb="0" eb="1">
+      <t>イシレn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>砂のブロック</t>
+    <rPh sb="0" eb="1">
+      <t>スナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銅のブロック</t>
+    <rPh sb="0" eb="1">
+      <t>ドウノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銀のブロック</t>
+    <rPh sb="0" eb="1">
+      <t>ギn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金のブロック</t>
+    <rPh sb="0" eb="1">
+      <t>キn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>葉のブロック</t>
+    <rPh sb="0" eb="1">
+      <t>ハノブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/block_2d_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/block_2d_002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/block_2d_003</t>
+  </si>
+  <si>
+    <t>Textures/block_2d_004</t>
+  </si>
+  <si>
+    <t>Textures/block_2d_005</t>
+  </si>
+  <si>
+    <t>Textures/block_2d_006</t>
+  </si>
+  <si>
+    <t>Textures/block_2d_007</t>
+  </si>
+  <si>
+    <t>Textures/block_2d_008</t>
+  </si>
+  <si>
+    <t>Textures/block_2d_009</t>
+  </si>
+  <si>
+    <t>Textures/block_2d_010</t>
+  </si>
+  <si>
+    <t>Textures/block_2d_011</t>
+  </si>
+  <si>
+    <t>Textures/block_2d_012</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,8 +274,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:F7" totalsRowShown="0">
-  <autoFilter ref="A1:F7" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Name"/>
@@ -492,19 +585,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -521,18 +614,18 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -541,18 +634,18 @@
         <v>1001</v>
       </c>
       <c r="F2">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -561,18 +654,18 @@
         <v>1002</v>
       </c>
       <c r="F3">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -581,18 +674,18 @@
         <v>1003</v>
       </c>
       <c r="F4">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -601,40 +694,200 @@
         <v>1004</v>
       </c>
       <c r="F5">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1005</v>
+      </c>
+      <c r="F6">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1006</v>
+      </c>
+      <c r="F7">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1007</v>
+      </c>
+      <c r="F8">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1008</v>
+      </c>
+      <c r="F9">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1009</v>
+      </c>
+      <c r="F10">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>110</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1010</v>
+      </c>
+      <c r="F11">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>111</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1011</v>
+      </c>
+      <c r="F12">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>112</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1012</v>
+      </c>
+      <c r="F13">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
         <v>3000</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6">
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14">
         <v>50</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7">
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
         <v>3001</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7">
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15">
         <v>51</v>
       </c>
-      <c r="F7">
+      <c r="F15">
         <v>1</v>
       </c>
     </row>
@@ -656,18 +909,18 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="5.875" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -675,7 +928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3">
       <c r="B3">
         <v>50</v>
       </c>
@@ -683,12 +936,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3">
       <c r="B4">
         <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pckanri_018/Desktop/CraftStory/Config/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF00981-172A-5B44-8EF8-A9CF4AD8339B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59EB879-9F0F-4595-9453-10091B2932EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8320" yWindow="2360" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -207,13 +207,32 @@
   </si>
   <si>
     <t>Textures/block_2d_012</t>
+  </si>
+  <si>
+    <t>石材</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/rock</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木材</t>
+    <rPh sb="0" eb="2">
+      <t>モクザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/sand</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,8 +293,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:F17" totalsRowShown="0">
+  <autoFilter ref="A1:F17" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Name"/>
@@ -585,19 +604,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -617,7 +636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>101</v>
       </c>
@@ -637,7 +656,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>102</v>
       </c>
@@ -657,7 +676,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>103</v>
       </c>
@@ -677,7 +696,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>104</v>
       </c>
@@ -697,7 +716,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>105</v>
       </c>
@@ -717,7 +736,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>106</v>
       </c>
@@ -737,7 +756,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>107</v>
       </c>
@@ -757,7 +776,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>108</v>
       </c>
@@ -777,7 +796,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>109</v>
       </c>
@@ -797,7 +816,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>110</v>
       </c>
@@ -817,7 +836,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>111</v>
       </c>
@@ -837,7 +856,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>112</v>
       </c>
@@ -857,37 +876,71 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14">
+        <v>1001</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>1002</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16">
         <v>3000</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>4</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
         <v>7</v>
       </c>
-      <c r="D14">
+      <c r="D16">
         <v>50</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17">
         <v>3001</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C17" t="s">
         <v>10</v>
       </c>
-      <c r="D15">
+      <c r="D17">
         <v>51</v>
       </c>
-      <c r="F15">
+      <c r="F17">
         <v>1</v>
       </c>
     </row>
@@ -909,18 +962,18 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="5.83203125" customWidth="1"/>
+    <col min="2" max="2" width="5.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B2">
         <v>1</v>
       </c>
@@ -928,7 +981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>50</v>
       </c>
@@ -936,7 +989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>51</v>
       </c>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59EB879-9F0F-4595-9453-10091B2932EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD654A33-1403-4414-9F02-D2D8B3AB15D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="1500" yWindow="600" windowWidth="21540" windowHeight="12360" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -203,14 +194,7 @@
     <t>Textures/block_2d_010</t>
   </si>
   <si>
-    <t>Textures/block_2d_011</t>
-  </si>
-  <si>
     <t>Textures/block_2d_012</t>
-  </si>
-  <si>
-    <t>石材</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Textures/rock</t>
@@ -225,6 +209,117 @@
   </si>
   <si>
     <t>Textures/sand</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>葉</t>
+    <rPh sb="0" eb="1">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石材</t>
+    <rPh sb="0" eb="2">
+      <t>セキザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銅鉱石</t>
+    <rPh sb="0" eb="3">
+      <t>ドウコウセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉄鉱石</t>
+    <rPh sb="0" eb="3">
+      <t>テッコウセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銀鉱石</t>
+    <rPh sb="0" eb="3">
+      <t>ギンコウセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金鉱石</t>
+    <rPh sb="0" eb="3">
+      <t>キンコウセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銅の延棒</t>
+    <rPh sb="0" eb="1">
+      <t>ドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ノベボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉄の延棒</t>
+    <rPh sb="0" eb="1">
+      <t>テツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ノベボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銀の延棒</t>
+    <rPh sb="0" eb="1">
+      <t>ギン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ノベボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金の延棒</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ノベボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>土</t>
+    <rPh sb="0" eb="1">
+      <t>ツチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>砂</t>
+    <rPh sb="0" eb="1">
+      <t>スナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業台</t>
+    <rPh sb="0" eb="3">
+      <t>サギョウダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かまど</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/block_2d_011</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -293,8 +388,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:F17" totalsRowShown="0">
-  <autoFilter ref="A1:F17" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:F30" totalsRowShown="0">
+  <autoFilter ref="A1:F30" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Name"/>
@@ -604,19 +699,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -636,311 +731,532 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4">
         <v>101</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>1001</v>
       </c>
-      <c r="F2">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3">
+      <c r="F4">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5">
         <v>102</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>1002</v>
       </c>
-      <c r="F3">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4">
+      <c r="F5">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6">
         <v>103</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>1003</v>
       </c>
-      <c r="F4">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5">
+      <c r="F6">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7">
         <v>104</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>1004</v>
       </c>
-      <c r="F5">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6">
+      <c r="F7">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8">
         <v>105</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>1005</v>
       </c>
-      <c r="F6">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7">
+      <c r="F8">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9">
         <v>106</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>1006</v>
       </c>
-      <c r="F7">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8">
+      <c r="F9">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10">
         <v>107</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>1007</v>
       </c>
-      <c r="F8">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9">
+      <c r="F10">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11">
         <v>108</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>1008</v>
       </c>
-      <c r="F9">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10">
+      <c r="F11">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12">
         <v>109</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1009</v>
+      </c>
+      <c r="F12">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>110</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1010</v>
+      </c>
+      <c r="F13">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>111</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1011</v>
+      </c>
+      <c r="F14">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>112</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1012</v>
+      </c>
+      <c r="F15">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>1001</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>1002</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>1003</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>1004</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>1005</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>1006</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>1007</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>1008</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24">
         <v>1009</v>
       </c>
-      <c r="F10">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>110</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25">
         <v>1010</v>
       </c>
-      <c r="F11">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>111</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26">
         <v>1011</v>
       </c>
-      <c r="F12">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>112</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
         <v>34</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27">
         <v>1012</v>
       </c>
-      <c r="F13">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>1001</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
         <v>36</v>
       </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>1002</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16">
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>1013</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29">
         <v>3000</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B29" t="s">
         <v>4</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C29" t="s">
         <v>7</v>
       </c>
-      <c r="D16">
+      <c r="D29">
         <v>50</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17">
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30">
         <v>3001</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B30" t="s">
         <v>9</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C30" t="s">
         <v>10</v>
       </c>
-      <c r="D17">
+      <c r="D30">
         <v>51</v>
       </c>
-      <c r="F17">
+      <c r="F30">
         <v>1</v>
       </c>
     </row>
@@ -962,18 +1278,18 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="5.875" customWidth="1"/>
+    <col min="2" max="2" width="5.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>1</v>
       </c>
@@ -981,7 +1297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>50</v>
       </c>
@@ -989,7 +1305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>51</v>
       </c>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD654A33-1403-4414-9F02-D2D8B3AB15D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC79496-7BC0-4925-8135-31187D701F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="600" windowWidth="21540" windowHeight="12360" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="576" yWindow="1224" windowWidth="19896" windowHeight="9888" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Textures/blueprint</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>石のブロック</t>
     <rPh sb="0" eb="1">
       <t xml:space="preserve">イシ </t>
@@ -195,10 +191,6 @@
   </si>
   <si>
     <t>Textures/block_2d_012</t>
-  </si>
-  <si>
-    <t>Textures/rock</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>木材</t>
@@ -208,10 +200,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Textures/sand</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>葉</t>
     <rPh sb="0" eb="1">
       <t>ハ</t>
@@ -320,6 +308,73 @@
   </si>
   <si>
     <t>Textures/block_2d_011</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/icon_2D_workbench</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/icon_2D_kamado</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/matter_2d_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/matter_2d_002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/matter_2d_003</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_004</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_005</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_006</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_007</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_008</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_009</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_010</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_011</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_012</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_013</t>
+  </si>
+  <si>
+    <t>空の設計図</t>
+    <rPh sb="0" eb="1">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>セッケイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/icon_2D_blueprint_01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/icon_2D_blueprint_02</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -388,8 +443,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:F30" totalsRowShown="0">
-  <autoFilter ref="A1:F30" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:F31" totalsRowShown="0">
+  <autoFilter ref="A1:F31" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Name"/>
@@ -699,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -736,10 +791,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
         <v>49</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -753,10 +808,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
         <v>50</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -770,10 +825,10 @@
         <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -790,10 +845,10 @@
         <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -810,10 +865,10 @@
         <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -830,10 +885,10 @@
         <v>104</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -850,10 +905,10 @@
         <v>105</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -870,10 +925,10 @@
         <v>106</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -890,10 +945,10 @@
         <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -910,10 +965,10 @@
         <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -930,10 +985,10 @@
         <v>109</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -950,10 +1005,10 @@
         <v>110</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -970,10 +1025,10 @@
         <v>111</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -990,10 +1045,10 @@
         <v>112</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1010,10 +1065,10 @@
         <v>1001</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1027,10 +1082,10 @@
         <v>1002</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1044,10 +1099,10 @@
         <v>1003</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1061,10 +1116,10 @@
         <v>1004</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1078,10 +1133,10 @@
         <v>1005</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -1095,10 +1150,10 @@
         <v>1006</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1112,10 +1167,10 @@
         <v>1007</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1129,10 +1184,10 @@
         <v>1008</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -1146,10 +1201,10 @@
         <v>1009</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -1163,10 +1218,10 @@
         <v>1010</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -1180,10 +1235,10 @@
         <v>1011</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -1197,10 +1252,10 @@
         <v>1012</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -1214,10 +1269,10 @@
         <v>1013</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -1248,15 +1303,32 @@
         <v>3001</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="D30">
         <v>51</v>
       </c>
       <c r="F30">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>3002</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31">
+        <v>52</v>
+      </c>
+      <c r="F31">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC79496-7BC0-4925-8135-31187D701F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358002B8-C6D9-4EDD-B769-5E43A57E3033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="576" yWindow="1224" windowWidth="19896" windowHeight="9888" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -375,6 +375,22 @@
   </si>
   <si>
     <t>Textures/icon_2D_blueprint_02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/currency_2d_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラフトシード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリスタル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/currency_2d_002</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -443,8 +459,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:F31" totalsRowShown="0">
-  <autoFilter ref="A1:F31" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:F33" totalsRowShown="0">
+  <autoFilter ref="A1:F33" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Name"/>
@@ -754,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1330,6 +1346,40 @@
       </c>
       <c r="F31">
         <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>10000</v>
+      </c>
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32">
+        <v>100</v>
+      </c>
+      <c r="F32">
+        <v>9999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>10001</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33">
+        <v>101</v>
+      </c>
+      <c r="F33">
+        <v>9999999</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC79496-7BC0-4925-8135-31187D701F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97241504-67AA-43BC-8DA6-DC1137C4A619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="576" yWindow="1224" windowWidth="19896" windowHeight="9888" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -757,16 +757,16 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="17.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -786,7 +786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -797,13 +797,16 @@
         <v>49</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="E2">
+        <v>1000</v>
       </c>
       <c r="F2">
         <v>999</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -814,13 +817,16 @@
         <v>50</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1001</v>
+      </c>
+      <c r="E3">
+        <v>1001</v>
       </c>
       <c r="F3">
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>101</v>
       </c>
@@ -840,7 +846,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>102</v>
       </c>
@@ -860,7 +866,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>103</v>
       </c>
@@ -880,7 +886,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>104</v>
       </c>
@@ -900,7 +906,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>105</v>
       </c>
@@ -920,7 +926,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>106</v>
       </c>
@@ -940,7 +946,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>107</v>
       </c>
@@ -960,7 +966,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>108</v>
       </c>
@@ -980,7 +986,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>109</v>
       </c>
@@ -1000,7 +1006,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>110</v>
       </c>
@@ -1020,7 +1026,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>111</v>
       </c>
@@ -1040,7 +1046,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>112</v>
       </c>
@@ -1060,7 +1066,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1001</v>
       </c>
@@ -1077,7 +1083,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1002</v>
       </c>
@@ -1094,7 +1100,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1003</v>
       </c>
@@ -1111,7 +1117,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>1004</v>
       </c>
@@ -1128,7 +1134,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1005</v>
       </c>
@@ -1145,7 +1151,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1006</v>
       </c>
@@ -1162,7 +1168,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1007</v>
       </c>
@@ -1179,7 +1185,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>1008</v>
       </c>
@@ -1196,7 +1202,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>1009</v>
       </c>
@@ -1213,7 +1219,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>1010</v>
       </c>
@@ -1230,7 +1236,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>1011</v>
       </c>
@@ -1247,7 +1253,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>1012</v>
       </c>
@@ -1264,7 +1270,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>1013</v>
       </c>
@@ -1281,7 +1287,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>3000</v>
       </c>
@@ -1298,7 +1304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>3001</v>
       </c>
@@ -1315,7 +1321,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>3002</v>
       </c>
@@ -1350,18 +1356,18 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="5.8984375" customWidth="1"/>
+    <col min="2" max="2" width="5.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B2">
         <v>1</v>
       </c>
@@ -1369,7 +1375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>50</v>
       </c>
@@ -1377,7 +1383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>51</v>
       </c>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97241504-67AA-43BC-8DA6-DC1137C4A619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC79496-7BC0-4925-8135-31187D701F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="576" yWindow="1224" windowWidth="19896" windowHeight="9888" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -757,16 +757,16 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -786,7 +786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -797,16 +797,13 @@
         <v>49</v>
       </c>
       <c r="D2">
-        <v>1000</v>
-      </c>
-      <c r="E2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>999</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -817,16 +814,13 @@
         <v>50</v>
       </c>
       <c r="D3">
-        <v>1001</v>
-      </c>
-      <c r="E3">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>101</v>
       </c>
@@ -846,7 +840,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>102</v>
       </c>
@@ -866,7 +860,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>103</v>
       </c>
@@ -886,7 +880,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>104</v>
       </c>
@@ -906,7 +900,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>105</v>
       </c>
@@ -926,7 +920,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>106</v>
       </c>
@@ -946,7 +940,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>107</v>
       </c>
@@ -966,7 +960,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>108</v>
       </c>
@@ -986,7 +980,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>109</v>
       </c>
@@ -1006,7 +1000,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>110</v>
       </c>
@@ -1026,7 +1020,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>111</v>
       </c>
@@ -1046,7 +1040,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>112</v>
       </c>
@@ -1066,7 +1060,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1001</v>
       </c>
@@ -1083,7 +1077,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1002</v>
       </c>
@@ -1100,7 +1094,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1003</v>
       </c>
@@ -1117,7 +1111,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1004</v>
       </c>
@@ -1134,7 +1128,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1005</v>
       </c>
@@ -1151,7 +1145,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1006</v>
       </c>
@@ -1168,7 +1162,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1007</v>
       </c>
@@ -1185,7 +1179,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>1008</v>
       </c>
@@ -1202,7 +1196,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>1009</v>
       </c>
@@ -1219,7 +1213,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>1010</v>
       </c>
@@ -1236,7 +1230,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>1011</v>
       </c>
@@ -1253,7 +1247,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>1012</v>
       </c>
@@ -1270,7 +1264,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>1013</v>
       </c>
@@ -1287,7 +1281,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>3000</v>
       </c>
@@ -1304,7 +1298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>3001</v>
       </c>
@@ -1321,7 +1315,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>3002</v>
       </c>
@@ -1356,18 +1350,18 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="5.875" customWidth="1"/>
+    <col min="2" max="2" width="5.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>1</v>
       </c>
@@ -1375,7 +1369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>50</v>
       </c>
@@ -1383,7 +1377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>51</v>
       </c>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97241504-67AA-43BC-8DA6-DC1137C4A619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCB471A-11A3-4BA7-A8F1-F5AFEF8A9B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -375,6 +375,25 @@
   </si>
   <si>
     <t>Textures/icon_2D_blueprint_02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/currency_2d_001</t>
+  </si>
+  <si>
+    <t>Coin1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Coin3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Coin2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/currency_2d_001</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -443,8 +462,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:F31" totalsRowShown="0">
-  <autoFilter ref="A1:F31" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:F34" totalsRowShown="0">
+  <autoFilter ref="A1:F34" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Name"/>
@@ -754,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1336,6 +1355,57 @@
       </c>
       <c r="F31">
         <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>9000</v>
+      </c>
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32">
+        <v>90</v>
+      </c>
+      <c r="F32">
+        <v>9999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>9001</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33">
+        <v>91</v>
+      </c>
+      <c r="F33">
+        <v>9999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>9002</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34">
+        <v>92</v>
+      </c>
+      <c r="F34">
+        <v>9999999</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCB471A-11A3-4BA7-A8F1-F5AFEF8A9B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE637AEB-98B9-48AF-9AFB-9643F1EE7431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="4560" yWindow="2535" windowWidth="21600" windowHeight="11385" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -378,22 +378,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Coin1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Coin3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Coin2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Textures/currency_2d_001</t>
-  </si>
-  <si>
-    <t>Coin1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Coin3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Coin2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Textures/currency_2d_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/currency_2d_002</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -775,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1362,10 +1363,10 @@
         <v>9000</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D32">
         <v>90</v>
@@ -1379,10 +1380,10 @@
         <v>9001</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D33">
         <v>91</v>
@@ -1396,10 +1397,10 @@
         <v>9002</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D34">
         <v>92</v>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE637AEB-98B9-48AF-9AFB-9643F1EE7431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A605C7C-AEEB-4ACB-BB14-82309A9F6DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="2535" windowWidth="21600" windowHeight="11385" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -776,17 +776,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -806,7 +804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -826,7 +824,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -846,7 +844,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>101</v>
       </c>
@@ -866,7 +864,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>102</v>
       </c>
@@ -886,7 +884,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>103</v>
       </c>
@@ -906,7 +904,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>104</v>
       </c>
@@ -926,7 +924,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>105</v>
       </c>
@@ -946,7 +944,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>106</v>
       </c>
@@ -966,7 +964,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>107</v>
       </c>
@@ -986,7 +984,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>108</v>
       </c>
@@ -1006,7 +1004,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>109</v>
       </c>
@@ -1026,7 +1024,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>110</v>
       </c>
@@ -1046,7 +1044,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>111</v>
       </c>
@@ -1066,7 +1064,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>112</v>
       </c>
@@ -1086,7 +1084,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1001</v>
       </c>
@@ -1103,7 +1101,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1002</v>
       </c>
@@ -1120,7 +1118,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1003</v>
       </c>
@@ -1137,7 +1135,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1004</v>
       </c>
@@ -1154,7 +1152,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1005</v>
       </c>
@@ -1171,7 +1169,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1006</v>
       </c>
@@ -1188,7 +1186,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1007</v>
       </c>
@@ -1205,7 +1203,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>1008</v>
       </c>
@@ -1222,7 +1220,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>1009</v>
       </c>
@@ -1239,7 +1237,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>1010</v>
       </c>
@@ -1256,7 +1254,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>1011</v>
       </c>
@@ -1273,7 +1271,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>1012</v>
       </c>
@@ -1290,7 +1288,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>1013</v>
       </c>
@@ -1307,7 +1305,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>3000</v>
       </c>
@@ -1318,13 +1316,13 @@
         <v>7</v>
       </c>
       <c r="D29">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>3001</v>
       </c>
@@ -1335,13 +1333,13 @@
         <v>65</v>
       </c>
       <c r="D30">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F30">
         <v>9999</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>3002</v>
       </c>
@@ -1358,7 +1356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>9000</v>
       </c>
@@ -1375,7 +1373,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>9001</v>
       </c>
@@ -1392,7 +1390,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>9002</v>
       </c>
@@ -1427,18 +1425,18 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="5.875" customWidth="1"/>
+    <col min="2" max="2" width="5.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>1</v>
       </c>
@@ -1446,7 +1444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>50</v>
       </c>
@@ -1454,7 +1452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>51</v>
       </c>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A605C7C-AEEB-4ACB-BB14-82309A9F6DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0132B9-0612-4B0E-A3F8-4F5DD3D98558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="1344" yWindow="0" windowWidth="20796" windowHeight="12360" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -378,23 +378,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Coin1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Coin3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Coin2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Textures/currency_2d_001</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Textures/currency_2d_002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラフトシード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリスタル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポイント</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -776,7 +776,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1361,10 +1363,10 @@
         <v>9000</v>
       </c>
       <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" t="s">
         <v>67</v>
-      </c>
-      <c r="C32" t="s">
-        <v>70</v>
       </c>
       <c r="D32">
         <v>90</v>
@@ -1378,10 +1380,10 @@
         <v>9001</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D33">
         <v>91</v>
@@ -1395,10 +1397,10 @@
         <v>9002</v>
       </c>
       <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
         <v>68</v>
-      </c>
-      <c r="C34" t="s">
-        <v>71</v>
       </c>
       <c r="D34">
         <v>92</v>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0132B9-0612-4B0E-A3F8-4F5DD3D98558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028F1C2A-95CF-4495-B48F-B606407225A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1344" yWindow="0" windowWidth="20796" windowHeight="12360" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -395,6 +395,10 @@
   </si>
   <si>
     <t>ポイント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/icon_noimg</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -463,8 +467,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:F34" totalsRowShown="0">
-  <autoFilter ref="A1:F34" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:F35" totalsRowShown="0">
+  <autoFilter ref="A1:F35" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Name"/>
@@ -774,19 +778,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="17.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -806,312 +810,309 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>46</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>49</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>1000</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>1000</v>
-      </c>
-      <c r="F2">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3">
-        <v>1001</v>
-      </c>
-      <c r="E3">
-        <v>1001</v>
       </c>
       <c r="F3">
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="E4">
         <v>1001</v>
       </c>
       <c r="F4">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1001</v>
+      </c>
+      <c r="F5">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
         <v>102</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>1002</v>
       </c>
-      <c r="F5">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6">
+      <c r="F6">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7">
         <v>103</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>1003</v>
       </c>
-      <c r="F6">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7">
+      <c r="F7">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8">
         <v>104</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>1004</v>
       </c>
-      <c r="F7">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8">
+      <c r="F8">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9">
         <v>105</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>1005</v>
       </c>
-      <c r="F8">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9">
+      <c r="F9">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10">
         <v>106</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>1006</v>
       </c>
-      <c r="F9">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10">
+      <c r="F10">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11">
         <v>107</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>28</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>1007</v>
       </c>
-      <c r="F10">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11">
+      <c r="F11">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12">
         <v>108</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>29</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
         <v>1008</v>
       </c>
-      <c r="F11">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12">
+      <c r="F12">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13">
         <v>109</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>48</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
         <v>1009</v>
       </c>
-      <c r="F12">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13">
+      <c r="F13">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14">
         <v>110</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
         <v>1010</v>
       </c>
-      <c r="F13">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14">
+      <c r="F14">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15">
         <v>111</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>30</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
         <v>1011</v>
       </c>
-      <c r="F14">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15">
+      <c r="F15">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16">
         <v>112</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>21</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>32</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
         <v>1012</v>
       </c>
-      <c r="F15">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16">
+      <c r="F16">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17">
         <v>1001</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>51</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <v>1002</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1120,15 +1121,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1137,15 +1138,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1154,15 +1155,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -1171,15 +1172,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1188,15 +1189,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1205,15 +1206,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -1222,15 +1223,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -1239,15 +1240,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -1256,15 +1257,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -1273,15 +1274,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -1290,15 +1291,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -1307,105 +1308,122 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29">
+        <v>1013</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30">
         <v>3000</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>4</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>7</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <v>100</v>
       </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A30">
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31">
         <v>3001</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>64</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>65</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <v>50</v>
       </c>
-      <c r="F30">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31">
+      <c r="F31">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32">
         <v>3002</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>9</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>66</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <v>52</v>
       </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32">
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33">
         <v>9000</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>69</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>67</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>90</v>
-      </c>
-      <c r="F32">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33">
-        <v>9001</v>
-      </c>
-      <c r="B33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33">
-        <v>91</v>
       </c>
       <c r="F33">
         <v>9999999</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>9002</v>
+        <v>9001</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
         <v>68</v>
       </c>
       <c r="D34">
+        <v>91</v>
+      </c>
+      <c r="F34">
+        <v>9999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>9002</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35">
         <v>92</v>
       </c>
-      <c r="F34">
+      <c r="F35">
         <v>9999999</v>
       </c>
     </row>
@@ -1427,18 +1445,18 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="5.8984375" customWidth="1"/>
+    <col min="2" max="2" width="5.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B2">
         <v>1</v>
       </c>
@@ -1446,7 +1464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>50</v>
       </c>
@@ -1454,7 +1472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>51</v>
       </c>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028F1C2A-95CF-4495-B48F-B606407225A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D98CD56-D27C-46AB-A2B1-35E7A8D323CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -399,6 +399,10 @@
   </si>
   <si>
     <t>Textures/icon_noimg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/matter_2d_011</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -780,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1418,7 +1422,7 @@
         <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D35">
         <v>92</v>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D98CD56-D27C-46AB-A2B1-35E7A8D323CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936E753A-5AF2-439A-B2A4-FC7A7751E319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
@@ -402,7 +402,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Textures/matter_2d_011</t>
+    <t>Textures/icon_2D_point</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -785,7 +785,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936E753A-5AF2-439A-B2A4-FC7A7751E319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC80E61-F704-4E9A-9104-86DEC0AC48F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="-27645" yWindow="840" windowWidth="21600" windowHeight="11325" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -404,6 +404,54 @@
   <si>
     <t>Textures/icon_2D_point</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白砂のブロック</t>
+    <rPh sb="0" eb="2">
+      <t>シロスナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガラスブロック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緑のガラスブロック</t>
+    <rPh sb="0" eb="1">
+      <t>ミドリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金のガラスブロック</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緑鉄のブロック</t>
+    <rPh sb="0" eb="2">
+      <t>リョクテツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/block_2d_013</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/block_2d_014</t>
+  </si>
+  <si>
+    <t>Textures/block_2d_015</t>
+  </si>
+  <si>
+    <t>Textures/block_2d_016</t>
+  </si>
+  <si>
+    <t>Textures/block_2d_017</t>
   </si>
 </sst>
 </file>
@@ -471,8 +519,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:F35" totalsRowShown="0">
-  <autoFilter ref="A1:F35" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:F40" totalsRowShown="0">
+  <autoFilter ref="A1:F40" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Name"/>
@@ -782,19 +830,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -814,7 +862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -828,7 +876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -848,7 +896,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -868,7 +916,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>101</v>
       </c>
@@ -888,7 +936,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>102</v>
       </c>
@@ -908,7 +956,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>103</v>
       </c>
@@ -928,7 +976,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>104</v>
       </c>
@@ -948,7 +996,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>105</v>
       </c>
@@ -968,7 +1016,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>106</v>
       </c>
@@ -988,7 +1036,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>107</v>
       </c>
@@ -1008,7 +1056,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>108</v>
       </c>
@@ -1028,7 +1076,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>109</v>
       </c>
@@ -1048,7 +1096,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>110</v>
       </c>
@@ -1068,7 +1116,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>111</v>
       </c>
@@ -1088,7 +1136,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>112</v>
       </c>
@@ -1108,100 +1156,115 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17">
+        <v>113</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1013</v>
+      </c>
+      <c r="F17">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>114</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1014</v>
+      </c>
+      <c r="F18">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>115</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1015</v>
+      </c>
+      <c r="F19">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>116</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1016</v>
+      </c>
+      <c r="F20">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>117</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1017</v>
+      </c>
+      <c r="F21">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22">
         <v>1001</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B22" t="s">
         <v>33</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C22" t="s">
         <v>51</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18">
-        <v>1002</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19">
-        <v>1003</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20">
-        <v>1004</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21">
-        <v>1005</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22">
-        <v>1006</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" t="s">
-        <v>56</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1210,15 +1273,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -1227,15 +1290,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -1244,15 +1307,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -1261,15 +1324,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -1278,15 +1341,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -1295,15 +1358,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -1312,15 +1375,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -1329,105 +1392,190 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30">
+        <v>1009</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>1010</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>1011</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>1012</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>1013</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35">
         <v>3000</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B35" t="s">
         <v>4</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C35" t="s">
         <v>7</v>
       </c>
-      <c r="D30">
+      <c r="D35">
         <v>100</v>
       </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31">
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36">
         <v>3001</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B36" t="s">
         <v>64</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C36" t="s">
         <v>65</v>
       </c>
-      <c r="D31">
+      <c r="D36">
         <v>50</v>
       </c>
-      <c r="F31">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32">
+      <c r="F36">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37">
         <v>3002</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B37" t="s">
         <v>9</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C37" t="s">
         <v>66</v>
       </c>
-      <c r="D32">
+      <c r="D37">
         <v>52</v>
       </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33">
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38">
         <v>9000</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B38" t="s">
         <v>69</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C38" t="s">
         <v>67</v>
       </c>
-      <c r="D33">
+      <c r="D38">
         <v>90</v>
       </c>
-      <c r="F33">
+      <c r="F38">
         <v>9999999</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39">
         <v>9001</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B39" t="s">
         <v>70</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C39" t="s">
         <v>68</v>
       </c>
-      <c r="D34">
+      <c r="D39">
         <v>91</v>
       </c>
-      <c r="F34">
+      <c r="F39">
         <v>9999999</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40">
         <v>9002</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B40" t="s">
         <v>71</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C40" t="s">
         <v>73</v>
       </c>
-      <c r="D35">
+      <c r="D40">
         <v>92</v>
       </c>
-      <c r="F35">
+      <c r="F40">
         <v>9999999</v>
       </c>
     </row>
@@ -1449,18 +1597,18 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="5.875" customWidth="1"/>
+    <col min="2" max="2" width="5.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>1</v>
       </c>
@@ -1468,7 +1616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>50</v>
       </c>
@@ -1476,7 +1624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>51</v>
       </c>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC80E61-F704-4E9A-9104-86DEC0AC48F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3958CEC1-79AE-40B4-A6A7-B5BBA4372170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27645" yWindow="840" windowWidth="21600" windowHeight="11325" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="5955" yWindow="2700" windowWidth="21600" windowHeight="11385" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="88">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -452,6 +452,22 @@
   </si>
   <si>
     <t>Textures/block_2d_017</t>
+  </si>
+  <si>
+    <t>ドア01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドア02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/object_3d_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/object_3d_002</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -519,8 +535,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:F40" totalsRowShown="0">
-  <autoFilter ref="A1:F40" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:F42" totalsRowShown="0">
+  <autoFilter ref="A1:F42" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Name"/>
@@ -830,19 +846,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="17.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -862,7 +879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -876,7 +893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -890,13 +907,13 @@
         <v>1000</v>
       </c>
       <c r="E3">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="F3">
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -910,395 +927,401 @@
         <v>1001</v>
       </c>
       <c r="E4">
-        <v>1001</v>
+        <v>5001</v>
       </c>
       <c r="F4">
         <v>999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5">
+        <v>2000</v>
+      </c>
+      <c r="E5">
+        <v>5002</v>
+      </c>
+      <c r="F5">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6">
+        <v>2000</v>
+      </c>
+      <c r="E6">
+        <v>5003</v>
+      </c>
+      <c r="F6">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7">
         <v>101</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>1001</v>
       </c>
-      <c r="F5">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6">
+      <c r="F7">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8">
         <v>102</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>1002</v>
       </c>
-      <c r="F6">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7">
+      <c r="F8">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9">
         <v>103</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>1003</v>
       </c>
-      <c r="F7">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8">
+      <c r="F9">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10">
         <v>104</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>1004</v>
       </c>
-      <c r="F8">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9">
+      <c r="F10">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11">
         <v>105</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>1005</v>
       </c>
-      <c r="F9">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10">
+      <c r="F11">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12">
         <v>106</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
         <v>1006</v>
       </c>
-      <c r="F10">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11">
+      <c r="F12">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13">
         <v>107</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>28</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
         <v>1007</v>
       </c>
-      <c r="F11">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12">
+      <c r="F13">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14">
         <v>108</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" t="s">
         <v>29</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
         <v>1008</v>
       </c>
-      <c r="F12">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13">
+      <c r="F14">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15">
         <v>109</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>48</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
         <v>1009</v>
       </c>
-      <c r="F13">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14">
+      <c r="F15">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16">
         <v>110</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
         <v>31</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
         <v>1010</v>
       </c>
-      <c r="F14">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15">
+      <c r="F16">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17">
         <v>111</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C17" t="s">
         <v>30</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
         <v>1011</v>
       </c>
-      <c r="F15">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16">
+      <c r="F17">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18">
         <v>112</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" t="s">
         <v>32</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
         <v>1012</v>
       </c>
-      <c r="F16">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17">
+      <c r="F18">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19">
         <v>113</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>74</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C19" t="s">
         <v>79</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
         <v>1013</v>
       </c>
-      <c r="F17">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18">
+      <c r="F19">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20">
         <v>114</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>75</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
         <v>80</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
         <v>1014</v>
       </c>
-      <c r="F18">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19">
+      <c r="F20">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21">
         <v>115</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>76</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>81</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
         <v>1015</v>
       </c>
-      <c r="F19">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20">
+      <c r="F21">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22">
         <v>116</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
         <v>77</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C22" t="s">
         <v>82</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
         <v>1016</v>
       </c>
-      <c r="F20">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21">
+      <c r="F22">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23">
         <v>117</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>78</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C23" t="s">
         <v>83</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
         <v>1017</v>
       </c>
-      <c r="F21">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22">
+      <c r="F23">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24">
         <v>1001</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>33</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C24" t="s">
         <v>51</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23">
-        <v>1002</v>
-      </c>
-      <c r="B23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24">
-        <v>1003</v>
-      </c>
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" t="s">
-        <v>53</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -1307,15 +1330,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -1324,15 +1347,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -1341,15 +1364,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -1358,15 +1381,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -1375,15 +1398,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -1392,15 +1415,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -1409,15 +1432,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -1426,15 +1449,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -1443,15 +1466,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -1460,15 +1483,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -1477,105 +1500,139 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35">
+        <v>1012</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>1013</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37">
         <v>3000</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
         <v>4</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C37" t="s">
         <v>7</v>
       </c>
-      <c r="D35">
+      <c r="D37">
         <v>100</v>
       </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A36">
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38">
         <v>3001</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
         <v>64</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C38" t="s">
         <v>65</v>
       </c>
-      <c r="D36">
+      <c r="D38">
         <v>50</v>
       </c>
-      <c r="F36">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A37">
+      <c r="F38">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39">
         <v>3002</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
         <v>9</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C39" t="s">
         <v>66</v>
       </c>
-      <c r="D37">
+      <c r="D39">
         <v>52</v>
       </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A38">
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40">
         <v>9000</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B40" t="s">
         <v>69</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C40" t="s">
         <v>67</v>
       </c>
-      <c r="D38">
+      <c r="D40">
         <v>90</v>
       </c>
-      <c r="F38">
+      <c r="F40">
         <v>9999999</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A39">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41">
         <v>9001</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" t="s">
         <v>70</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C41" t="s">
         <v>68</v>
       </c>
-      <c r="D39">
+      <c r="D41">
         <v>91</v>
       </c>
-      <c r="F39">
+      <c r="F41">
         <v>9999999</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A40">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42">
         <v>9002</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B42" t="s">
         <v>71</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C42" t="s">
         <v>73</v>
       </c>
-      <c r="D40">
+      <c r="D42">
         <v>92</v>
       </c>
-      <c r="F40">
+      <c r="F42">
         <v>9999999</v>
       </c>
     </row>
@@ -1597,18 +1654,18 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="5.8984375" customWidth="1"/>
+    <col min="2" max="2" width="5.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B2">
         <v>1</v>
       </c>
@@ -1616,7 +1673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>50</v>
       </c>
@@ -1624,7 +1681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>51</v>
       </c>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3958CEC1-79AE-40B4-A6A7-B5BBA4372170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778568CB-A6B4-4FBC-AAE7-A8425336B29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5955" yWindow="2700" windowWidth="21600" windowHeight="11385" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="4950" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -467,6 +467,10 @@
   </si>
   <si>
     <t>Textures/object_3d_002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BagType</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -535,13 +539,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:F42" totalsRowShown="0">
-  <autoFilter ref="A1:F42" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:G42" totalsRowShown="0">
+  <autoFilter ref="A1:G42" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Name"/>
     <tableColumn id="3" xr3:uid="{E73967F7-5D00-455D-9AEC-4ABDD41A14F5}" name="IconResourcesPath"/>
     <tableColumn id="4" xr3:uid="{612AE7D3-B358-4052-A7EF-BCB3EB411FAA}" name="Type"/>
+    <tableColumn id="7" xr3:uid="{5EB6F68E-6448-49F1-A9C2-F9852FA1684B}" name="BagType"/>
     <tableColumn id="5" xr3:uid="{69810B33-DB51-4131-A821-B92E515A015E}" name="ReferenceID"/>
     <tableColumn id="6" xr3:uid="{D9675E64-C728-47B7-A6B8-825DAA591A46}" name="MaxCount"/>
   </tableColumns>
@@ -846,20 +851,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -873,13 +878,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -889,11 +897,11 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -907,13 +915,16 @@
         <v>1000</v>
       </c>
       <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
         <v>5000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -927,13 +938,16 @@
         <v>1001</v>
       </c>
       <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
         <v>5001</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -947,13 +961,16 @@
         <v>2000</v>
       </c>
       <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
         <v>5002</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -967,13 +984,16 @@
         <v>2000</v>
       </c>
       <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
         <v>5003</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>999</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>101</v>
       </c>
@@ -987,13 +1007,16 @@
         <v>1</v>
       </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>1001</v>
       </c>
-      <c r="F7">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G7">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>102</v>
       </c>
@@ -1007,13 +1030,16 @@
         <v>1</v>
       </c>
       <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>1002</v>
       </c>
-      <c r="F8">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G8">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>103</v>
       </c>
@@ -1027,13 +1053,16 @@
         <v>1</v>
       </c>
       <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
         <v>1003</v>
       </c>
-      <c r="F9">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G9">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>104</v>
       </c>
@@ -1047,13 +1076,16 @@
         <v>1</v>
       </c>
       <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>1004</v>
       </c>
-      <c r="F10">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G10">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>105</v>
       </c>
@@ -1067,13 +1099,16 @@
         <v>1</v>
       </c>
       <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>1005</v>
       </c>
-      <c r="F11">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G11">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>106</v>
       </c>
@@ -1087,13 +1122,16 @@
         <v>1</v>
       </c>
       <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
         <v>1006</v>
       </c>
-      <c r="F12">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G12">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>107</v>
       </c>
@@ -1107,13 +1145,16 @@
         <v>1</v>
       </c>
       <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
         <v>1007</v>
       </c>
-      <c r="F13">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G13">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>108</v>
       </c>
@@ -1127,13 +1168,16 @@
         <v>1</v>
       </c>
       <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
         <v>1008</v>
       </c>
-      <c r="F14">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G14">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>109</v>
       </c>
@@ -1147,13 +1191,16 @@
         <v>1</v>
       </c>
       <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
         <v>1009</v>
       </c>
-      <c r="F15">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G15">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>110</v>
       </c>
@@ -1167,13 +1214,16 @@
         <v>1</v>
       </c>
       <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
         <v>1010</v>
       </c>
-      <c r="F16">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G16">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>111</v>
       </c>
@@ -1187,13 +1237,16 @@
         <v>1</v>
       </c>
       <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
         <v>1011</v>
       </c>
-      <c r="F17">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G17">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>112</v>
       </c>
@@ -1207,13 +1260,16 @@
         <v>1</v>
       </c>
       <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
         <v>1012</v>
       </c>
-      <c r="F18">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G18">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>113</v>
       </c>
@@ -1227,13 +1283,16 @@
         <v>1</v>
       </c>
       <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
         <v>1013</v>
       </c>
-      <c r="F19">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G19">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>114</v>
       </c>
@@ -1247,13 +1306,16 @@
         <v>1</v>
       </c>
       <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
         <v>1014</v>
       </c>
-      <c r="F20">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G20">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>115</v>
       </c>
@@ -1267,13 +1329,16 @@
         <v>1</v>
       </c>
       <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
         <v>1015</v>
       </c>
-      <c r="F21">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G21">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>116</v>
       </c>
@@ -1287,13 +1352,16 @@
         <v>1</v>
       </c>
       <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
         <v>1016</v>
       </c>
-      <c r="F22">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G22">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>117</v>
       </c>
@@ -1307,13 +1375,16 @@
         <v>1</v>
       </c>
       <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
         <v>1017</v>
       </c>
-      <c r="F23">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G23">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>1001</v>
       </c>
@@ -1326,11 +1397,14 @@
       <c r="D24">
         <v>2</v>
       </c>
-      <c r="F24">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>1002</v>
       </c>
@@ -1343,11 +1417,14 @@
       <c r="D25">
         <v>2</v>
       </c>
-      <c r="F25">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>1003</v>
       </c>
@@ -1360,11 +1437,14 @@
       <c r="D26">
         <v>2</v>
       </c>
-      <c r="F26">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>1004</v>
       </c>
@@ -1377,11 +1457,14 @@
       <c r="D27">
         <v>2</v>
       </c>
-      <c r="F27">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>1005</v>
       </c>
@@ -1394,11 +1477,14 @@
       <c r="D28">
         <v>2</v>
       </c>
-      <c r="F28">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>1006</v>
       </c>
@@ -1411,11 +1497,14 @@
       <c r="D29">
         <v>2</v>
       </c>
-      <c r="F29">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>1007</v>
       </c>
@@ -1428,11 +1517,14 @@
       <c r="D30">
         <v>2</v>
       </c>
-      <c r="F30">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>1008</v>
       </c>
@@ -1445,11 +1537,14 @@
       <c r="D31">
         <v>2</v>
       </c>
-      <c r="F31">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>1009</v>
       </c>
@@ -1462,11 +1557,14 @@
       <c r="D32">
         <v>2</v>
       </c>
-      <c r="F32">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>1010</v>
       </c>
@@ -1479,11 +1577,14 @@
       <c r="D33">
         <v>2</v>
       </c>
-      <c r="F33">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>1011</v>
       </c>
@@ -1496,11 +1597,14 @@
       <c r="D34">
         <v>2</v>
       </c>
-      <c r="F34">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>1012</v>
       </c>
@@ -1513,11 +1617,14 @@
       <c r="D35">
         <v>2</v>
       </c>
-      <c r="F35">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>1013</v>
       </c>
@@ -1530,11 +1637,14 @@
       <c r="D36">
         <v>2</v>
       </c>
-      <c r="F36">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>3000</v>
       </c>
@@ -1547,11 +1657,14 @@
       <c r="D37">
         <v>100</v>
       </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>3001</v>
       </c>
@@ -1564,11 +1677,14 @@
       <c r="D38">
         <v>50</v>
       </c>
-      <c r="F38">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>3002</v>
       </c>
@@ -1581,11 +1697,14 @@
       <c r="D39">
         <v>52</v>
       </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>9000</v>
       </c>
@@ -1598,11 +1717,11 @@
       <c r="D40">
         <v>90</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>9999999</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>9001</v>
       </c>
@@ -1615,11 +1734,11 @@
       <c r="D41">
         <v>91</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>9999999</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>9002</v>
       </c>
@@ -1632,7 +1751,7 @@
       <c r="D42">
         <v>92</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>9999999</v>
       </c>
     </row>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778568CB-A6B4-4FBC-AAE7-A8425336B29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1E7A1B-3CED-41BC-986F-47400E788550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4950" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
@@ -853,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -915,7 +915,7 @@
         <v>1000</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>5000</v>
@@ -938,7 +938,7 @@
         <v>1001</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>5001</v>
@@ -961,7 +961,7 @@
         <v>2000</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>5002</v>
@@ -984,7 +984,7 @@
         <v>2000</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>5003</v>
@@ -1398,7 +1398,7 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G24">
         <v>9999</v>
@@ -1418,7 +1418,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G25">
         <v>9999</v>
@@ -1438,7 +1438,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26">
         <v>9999</v>
@@ -1458,7 +1458,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27">
         <v>9999</v>
@@ -1478,7 +1478,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28">
         <v>9999</v>
@@ -1498,7 +1498,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29">
         <v>9999</v>
@@ -1518,7 +1518,7 @@
         <v>2</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G30">
         <v>9999</v>
@@ -1538,7 +1538,7 @@
         <v>2</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G31">
         <v>9999</v>
@@ -1558,7 +1558,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G32">
         <v>9999</v>
@@ -1578,7 +1578,7 @@
         <v>2</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G33">
         <v>9999</v>
@@ -1598,7 +1598,7 @@
         <v>2</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G34">
         <v>9999</v>
@@ -1618,7 +1618,7 @@
         <v>2</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G35">
         <v>9999</v>
@@ -1638,7 +1638,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G36">
         <v>9999</v>
@@ -1658,7 +1658,7 @@
         <v>100</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1678,7 +1678,7 @@
         <v>50</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G38">
         <v>9999</v>
@@ -1698,7 +1698,7 @@
         <v>52</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G39">
         <v>1</v>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1E7A1B-3CED-41BC-986F-47400E788550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F929F4-BC0F-4D14-8813-BAC890C1184F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4950" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -471,6 +471,20 @@
   </si>
   <si>
     <t>BagType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トーチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/object_3d_002</t>
+  </si>
+  <si>
+    <t>水</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -539,8 +553,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:G42" totalsRowShown="0">
-  <autoFilter ref="A1:G42" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:G44" totalsRowShown="0">
+  <autoFilter ref="A1:G44" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Name"/>
@@ -851,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -995,22 +1009,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2100</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1001</v>
+        <v>5100</v>
       </c>
       <c r="G7">
         <v>9999</v>
@@ -1018,13 +1032,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1033,7 +1047,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="G8">
         <v>9999</v>
@@ -1041,13 +1055,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1056,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="G9">
         <v>9999</v>
@@ -1064,13 +1078,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1079,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G10">
         <v>9999</v>
@@ -1087,13 +1101,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1102,7 +1116,7 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="G11">
         <v>9999</v>
@@ -1110,13 +1124,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1125,7 +1139,7 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="G12">
         <v>9999</v>
@@ -1133,13 +1147,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1148,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="G13">
         <v>9999</v>
@@ -1156,13 +1170,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1171,7 +1185,7 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="G14">
         <v>9999</v>
@@ -1179,13 +1193,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1194,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G15">
         <v>9999</v>
@@ -1202,13 +1216,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1217,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="G16">
         <v>9999</v>
@@ -1225,13 +1239,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1240,7 +1254,7 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="G17">
         <v>9999</v>
@@ -1248,13 +1262,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1263,7 +1277,7 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="G18">
         <v>9999</v>
@@ -1271,13 +1285,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1286,7 +1300,7 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="G19">
         <v>9999</v>
@@ -1294,13 +1308,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1309,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="G20">
         <v>9999</v>
@@ -1317,13 +1331,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1332,7 +1346,7 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="G21">
         <v>9999</v>
@@ -1340,13 +1354,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1355,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G22">
         <v>9999</v>
@@ -1363,13 +1377,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1378,7 +1392,7 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="G23">
         <v>9999</v>
@@ -1386,19 +1400,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>1001</v>
+        <v>117</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1017</v>
       </c>
       <c r="G24">
         <v>9999</v>
@@ -1406,19 +1423,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>1002</v>
+        <v>118</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1018</v>
       </c>
       <c r="G25">
         <v>9999</v>
@@ -1426,13 +1446,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -1446,13 +1466,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -1466,13 +1486,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -1486,13 +1506,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -1506,13 +1526,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -1526,13 +1546,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -1546,13 +1566,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -1566,13 +1586,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -1586,13 +1606,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -1606,13 +1626,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -1626,13 +1646,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -1646,39 +1666,39 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>3000</v>
+        <v>1012</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="D37">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="E37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>3001</v>
+        <v>1013</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D38">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="E38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G38">
         <v>9999</v>
@@ -1686,16 +1706,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>3002</v>
+        <v>3000</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="D39">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="E39">
         <v>4</v>
@@ -1706,52 +1726,92 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>9000</v>
+        <v>3001</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D40">
-        <v>90</v>
+        <v>50</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
       </c>
       <c r="G40">
-        <v>9999999</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>9001</v>
+        <v>3002</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D41">
-        <v>91</v>
+        <v>52</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
       </c>
       <c r="G41">
-        <v>9999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42">
+        <v>9000</v>
+      </c>
+      <c r="B42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42">
+        <v>90</v>
+      </c>
+      <c r="G42">
+        <v>9999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>9001</v>
+      </c>
+      <c r="B43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43">
+        <v>91</v>
+      </c>
+      <c r="G43">
+        <v>9999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A44">
         <v>9002</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B44" t="s">
         <v>71</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C44" t="s">
         <v>73</v>
       </c>
-      <c r="D42">
+      <c r="D44">
         <v>92</v>
       </c>
-      <c r="G42">
+      <c r="G44">
         <v>9999999</v>
       </c>
     </row>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F929F4-BC0F-4D14-8813-BAC890C1184F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C915AEDC-0FAE-4BA4-A8DC-0F5BC7CA424A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -454,14 +454,6 @@
     <t>Textures/block_2d_017</t>
   </si>
   <si>
-    <t>ドア01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ドア02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Textures/object_3d_001</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -474,17 +466,32 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>トーチ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Textures/object_3d_002</t>
-  </si>
-  <si>
     <t>水</t>
     <rPh sb="0" eb="1">
       <t>ミズ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>両空きドア</t>
+    <rPh sb="0" eb="1">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たいまつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/object_3d_003</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -867,18 +874,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -892,7 +899,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
@@ -901,7 +908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -915,7 +922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -938,7 +945,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -961,15 +968,15 @@
         <v>999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
         <v>84</v>
-      </c>
-      <c r="C5" t="s">
-        <v>86</v>
       </c>
       <c r="D5">
         <v>2000</v>
@@ -984,15 +991,15 @@
         <v>999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" t="s">
         <v>85</v>
-      </c>
-      <c r="C6" t="s">
-        <v>87</v>
       </c>
       <c r="D6">
         <v>2000</v>
@@ -1007,15 +1014,15 @@
         <v>999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D7">
         <v>2100</v>
@@ -1030,7 +1037,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>101</v>
       </c>
@@ -1053,7 +1060,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>102</v>
       </c>
@@ -1076,7 +1083,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>103</v>
       </c>
@@ -1099,7 +1106,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>104</v>
       </c>
@@ -1122,7 +1129,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>105</v>
       </c>
@@ -1145,7 +1152,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>106</v>
       </c>
@@ -1168,7 +1175,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>107</v>
       </c>
@@ -1191,7 +1198,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>108</v>
       </c>
@@ -1214,7 +1221,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>109</v>
       </c>
@@ -1237,7 +1244,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>110</v>
       </c>
@@ -1260,7 +1267,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>111</v>
       </c>
@@ -1283,7 +1290,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>112</v>
       </c>
@@ -1306,7 +1313,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>113</v>
       </c>
@@ -1329,7 +1336,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>114</v>
       </c>
@@ -1352,7 +1359,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>115</v>
       </c>
@@ -1375,7 +1382,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>116</v>
       </c>
@@ -1398,7 +1405,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>117</v>
       </c>
@@ -1421,12 +1428,12 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>118</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
         <v>83</v>
@@ -1444,7 +1451,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>1001</v>
       </c>
@@ -1464,7 +1471,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>1002</v>
       </c>
@@ -1484,7 +1491,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>1003</v>
       </c>
@@ -1504,7 +1511,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>1004</v>
       </c>
@@ -1524,7 +1531,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>1005</v>
       </c>
@@ -1544,7 +1551,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>1006</v>
       </c>
@@ -1564,7 +1571,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>1007</v>
       </c>
@@ -1584,7 +1591,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>1008</v>
       </c>
@@ -1604,7 +1611,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>1009</v>
       </c>
@@ -1624,7 +1631,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>1010</v>
       </c>
@@ -1644,7 +1651,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>1011</v>
       </c>
@@ -1664,7 +1671,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>1012</v>
       </c>
@@ -1684,7 +1691,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>1013</v>
       </c>
@@ -1704,7 +1711,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>3000</v>
       </c>
@@ -1724,7 +1731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>3001</v>
       </c>
@@ -1744,7 +1751,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>3002</v>
       </c>
@@ -1764,7 +1771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>9000</v>
       </c>
@@ -1781,7 +1788,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>9001</v>
       </c>
@@ -1798,7 +1805,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>9002</v>
       </c>
@@ -1833,18 +1840,18 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="5.875" customWidth="1"/>
+    <col min="2" max="2" width="5.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>1</v>
       </c>
@@ -1852,7 +1859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>50</v>
       </c>
@@ -1860,7 +1867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>51</v>
       </c>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C915AEDC-0FAE-4BA4-A8DC-0F5BC7CA424A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857B7178-709A-4D14-B382-D8E6851D0A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="4500" yWindow="2505" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="説明" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -874,18 +874,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="17.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -908,7 +908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -922,7 +922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -945,7 +945,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -968,7 +968,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -991,7 +991,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>101</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>102</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>103</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>104</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>105</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>106</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>107</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>108</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>109</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>110</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>111</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>112</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>113</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>114</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>115</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>116</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>117</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>118</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>1001</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>1002</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>1003</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>1004</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>1005</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>1006</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>1007</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>1008</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>1009</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>1010</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>1011</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>1012</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>1013</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>3000</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>3001</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>3002</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>9000</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>9001</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>9002</v>
       </c>
@@ -1836,22 +1836,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0258133-42E6-4606-8D6B-87E692C81D88}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="5.8984375" customWidth="1"/>
+    <col min="2" max="2" width="5.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B2">
         <v>1</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>50</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>51</v>
       </c>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857B7178-709A-4D14-B382-D8E6851D0A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6616E06-5B89-41AD-88D9-8F1DB0D8FD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4500" yWindow="2505" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="99">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -45,10 +45,6 @@
   </si>
   <si>
     <t>ビルダーペンシル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブロック</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -492,6 +488,74 @@
   </si>
   <si>
     <t>Textures/object_3d_003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全アイテムの設定ファイルです。</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>唯一のID</t>
+    <rPh sb="0" eb="2">
+      <t>ユイイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムの名前</t>
+    <rPh sb="5" eb="7">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムのアイコンパス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムのタイプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>持ち物の分類タグ</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Entity設定ファイルのID（関連するEntityがある場合）</t>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大の数</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カズ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -499,7 +563,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,21 +579,73 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -538,8 +654,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -875,7 +1000,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -899,13 +1024,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -913,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -927,10 +1052,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3">
         <v>1000</v>
@@ -950,10 +1075,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4">
         <v>1001</v>
@@ -973,10 +1098,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5">
         <v>2000</v>
@@ -996,10 +1121,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6">
         <v>2000</v>
@@ -1019,10 +1144,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
         <v>90</v>
-      </c>
-      <c r="C7" t="s">
-        <v>91</v>
       </c>
       <c r="D7">
         <v>2100</v>
@@ -1042,10 +1167,10 @@
         <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1065,10 +1190,10 @@
         <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1088,10 +1213,10 @@
         <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1111,10 +1236,10 @@
         <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1134,10 +1259,10 @@
         <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1157,10 +1282,10 @@
         <v>106</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1180,10 +1305,10 @@
         <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1203,10 +1328,10 @@
         <v>108</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1226,10 +1351,10 @@
         <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1249,10 +1374,10 @@
         <v>110</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1272,10 +1397,10 @@
         <v>111</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1295,10 +1420,10 @@
         <v>112</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1318,10 +1443,10 @@
         <v>113</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1341,10 +1466,10 @@
         <v>114</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1364,10 +1489,10 @@
         <v>115</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1387,10 +1512,10 @@
         <v>116</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1410,10 +1535,10 @@
         <v>117</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1433,10 +1558,10 @@
         <v>118</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1456,10 +1581,10 @@
         <v>1001</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -1476,10 +1601,10 @@
         <v>1002</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -1496,10 +1621,10 @@
         <v>1003</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -1516,10 +1641,10 @@
         <v>1004</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -1536,10 +1661,10 @@
         <v>1005</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -1556,10 +1681,10 @@
         <v>1006</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -1576,10 +1701,10 @@
         <v>1007</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -1596,10 +1721,10 @@
         <v>1008</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -1616,10 +1741,10 @@
         <v>1009</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -1636,10 +1761,10 @@
         <v>1010</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -1656,10 +1781,10 @@
         <v>1011</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -1676,10 +1801,10 @@
         <v>1012</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -1696,10 +1821,10 @@
         <v>1013</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -1719,7 +1844,7 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D39">
         <v>100</v>
@@ -1736,10 +1861,10 @@
         <v>3001</v>
       </c>
       <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" t="s">
         <v>64</v>
-      </c>
-      <c r="C40" t="s">
-        <v>65</v>
       </c>
       <c r="D40">
         <v>50</v>
@@ -1756,10 +1881,10 @@
         <v>3002</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D41">
         <v>52</v>
@@ -1776,10 +1901,10 @@
         <v>9000</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D42">
         <v>90</v>
@@ -1793,10 +1918,10 @@
         <v>9001</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D43">
         <v>91</v>
@@ -1810,10 +1935,10 @@
         <v>9002</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D44">
         <v>92</v>
@@ -1834,49 +1959,96 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0258133-42E6-4606-8D6B-87E692C81D88}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="1" max="1" width="20.125" customWidth="1"/>
     <col min="2" max="2" width="5.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B3">
-        <v>50</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B4">
-        <v>51</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6616E06-5B89-41AD-88D9-8F1DB0D8FD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24051E65-3D28-418C-9750-BC63EACB9A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="2505" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="100">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -556,6 +556,10 @@
     <rPh sb="3" eb="4">
       <t>カズ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CanDelete</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -685,9 +689,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:G44" totalsRowShown="0">
-  <autoFilter ref="A1:G44" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:H44" totalsRowShown="0">
+  <autoFilter ref="A1:H44" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Name"/>
     <tableColumn id="3" xr3:uid="{E73967F7-5D00-455D-9AEC-4ABDD41A14F5}" name="IconResourcesPath"/>
@@ -695,6 +699,7 @@
     <tableColumn id="7" xr3:uid="{5EB6F68E-6448-49F1-A9C2-F9852FA1684B}" name="BagType"/>
     <tableColumn id="5" xr3:uid="{69810B33-DB51-4131-A821-B92E515A015E}" name="ReferenceID"/>
     <tableColumn id="6" xr3:uid="{D9675E64-C728-47B7-A6B8-825DAA591A46}" name="MaxCount"/>
+    <tableColumn id="8" xr3:uid="{E035C9EE-C351-4391-BA6C-A5414AC3961A}" name="CanDelete"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -997,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1010,7 +1015,7 @@
     <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1032,8 +1037,11 @@
       <c r="G1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1047,7 +1055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1070,7 +1078,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1093,7 +1101,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1116,7 +1124,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1139,7 +1147,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1162,7 +1170,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>101</v>
       </c>
@@ -1185,7 +1193,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>102</v>
       </c>
@@ -1208,7 +1216,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>103</v>
       </c>
@@ -1231,7 +1239,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>104</v>
       </c>
@@ -1254,7 +1262,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>105</v>
       </c>
@@ -1277,7 +1285,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>106</v>
       </c>
@@ -1300,7 +1308,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>107</v>
       </c>
@@ -1323,7 +1331,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>108</v>
       </c>
@@ -1346,7 +1354,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>109</v>
       </c>
@@ -1716,7 +1724,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>1008</v>
       </c>
@@ -1736,7 +1744,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>1009</v>
       </c>
@@ -1756,7 +1764,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>1010</v>
       </c>
@@ -1776,7 +1784,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>1011</v>
       </c>
@@ -1796,7 +1804,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>1012</v>
       </c>
@@ -1816,7 +1824,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>1013</v>
       </c>
@@ -1836,7 +1844,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>3000</v>
       </c>
@@ -1856,7 +1864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>3001</v>
       </c>
@@ -1876,7 +1884,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>3002</v>
       </c>
@@ -1895,8 +1903,11 @@
       <c r="G41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>9000</v>
       </c>
@@ -1913,7 +1924,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>9001</v>
       </c>
@@ -1930,7 +1941,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>9002</v>
       </c>
@@ -1961,7 +1972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0258133-42E6-4606-8D6B-87E692C81D88}">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24051E65-3D28-418C-9750-BC63EACB9A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5C47EA-C6FA-40D7-822F-0EF8A992D13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="105">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -560,6 +560,32 @@
   </si>
   <si>
     <t>CanDelete</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花01</t>
+    <rPh sb="0" eb="1">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/block_2d_017</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/crapas_2d_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花02</t>
+    <rPh sb="0" eb="1">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/crapas_2d_002</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -689,8 +715,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:H44" totalsRowShown="0">
-  <autoFilter ref="A1:H44" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:H46" totalsRowShown="0">
+  <autoFilter ref="A1:H46" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Name"/>
@@ -1002,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1569,7 +1595,7 @@
         <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1586,19 +1612,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>1001</v>
+        <v>500</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1500</v>
       </c>
       <c r="G26">
         <v>9999</v>
@@ -1606,19 +1635,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>1002</v>
+        <v>501</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1501</v>
       </c>
       <c r="G27">
         <v>9999</v>
@@ -1626,13 +1658,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -1646,13 +1678,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -1666,13 +1698,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -1686,13 +1718,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -1706,13 +1738,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -1726,13 +1758,13 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -1746,13 +1778,13 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -1766,13 +1798,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -1786,13 +1818,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -1806,13 +1838,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -1826,13 +1858,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -1846,39 +1878,39 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>3000</v>
+        <v>1012</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="D39">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>3001</v>
+        <v>1013</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D40">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="E40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G40">
         <v>9999</v>
@@ -1886,16 +1918,16 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>3002</v>
+        <v>3000</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="D41">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="E41">
         <v>4</v>
@@ -1903,58 +1935,98 @@
       <c r="G41">
         <v>1</v>
       </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>9000</v>
+        <v>3001</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D42">
-        <v>90</v>
+        <v>50</v>
+      </c>
+      <c r="E42">
+        <v>4</v>
       </c>
       <c r="G42">
-        <v>9999999</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>9001</v>
+        <v>3002</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D43">
-        <v>91</v>
+        <v>52</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
       </c>
       <c r="G43">
-        <v>9999999</v>
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44">
+        <v>9000</v>
+      </c>
+      <c r="B44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44">
+        <v>90</v>
+      </c>
+      <c r="G44">
+        <v>9999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>9001</v>
+      </c>
+      <c r="B45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45">
+        <v>91</v>
+      </c>
+      <c r="G45">
+        <v>9999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A46">
         <v>9002</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B46" t="s">
         <v>70</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C46" t="s">
         <v>72</v>
       </c>
-      <c r="D44">
+      <c r="D46">
         <v>92</v>
       </c>
-      <c r="G44">
+      <c r="G46">
         <v>9999999</v>
       </c>
     </row>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5C47EA-C6FA-40D7-822F-0EF8A992D13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA491F50-F5BE-40BF-9E76-DEC37C735305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="24525" windowHeight="12975" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="116">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -586,6 +586,82 @@
   </si>
   <si>
     <t>Textures/crapas_2d_002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花03</t>
+    <rPh sb="0" eb="1">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/crapas_2d_003</t>
+  </si>
+  <si>
+    <t>花04</t>
+    <rPh sb="0" eb="1">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花05</t>
+    <rPh sb="0" eb="1">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花06</t>
+    <rPh sb="0" eb="1">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花07</t>
+    <rPh sb="0" eb="1">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花08</t>
+    <rPh sb="0" eb="1">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花09</t>
+    <rPh sb="0" eb="1">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花10</t>
+    <rPh sb="0" eb="1">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>草01</t>
+    <rPh sb="0" eb="1">
+      <t>クサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>巨大花01</t>
+    <rPh sb="0" eb="2">
+      <t>キョダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハナ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -715,8 +791,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:H46" totalsRowShown="0">
-  <autoFilter ref="A1:H46" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:H56" totalsRowShown="0">
+  <autoFilter ref="A1:H56" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Name"/>
@@ -1028,10 +1104,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1658,19 +1737,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>1001</v>
+        <v>502</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1502</v>
       </c>
       <c r="G28">
         <v>9999</v>
@@ -1678,19 +1760,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>1002</v>
+        <v>503</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1503</v>
       </c>
       <c r="G29">
         <v>9999</v>
@@ -1698,19 +1783,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>1003</v>
+        <v>504</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1504</v>
       </c>
       <c r="G30">
         <v>9999</v>
@@ -1718,19 +1806,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>1004</v>
+        <v>505</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1505</v>
       </c>
       <c r="G31">
         <v>9999</v>
@@ -1738,133 +1829,151 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>1005</v>
+        <v>506</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1506</v>
       </c>
       <c r="G32">
         <v>9999</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>1006</v>
+        <v>507</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1507</v>
       </c>
       <c r="G33">
         <v>9999</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>1007</v>
+        <v>508</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1508</v>
       </c>
       <c r="G34">
         <v>9999</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>1008</v>
+        <v>509</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1509</v>
       </c>
       <c r="G35">
         <v>9999</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>1009</v>
+        <v>550</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1550</v>
       </c>
       <c r="G36">
         <v>9999</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>1010</v>
+        <v>600</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="C37" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1600</v>
       </c>
       <c r="G37">
         <v>9999</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -1876,15 +1985,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -1896,15 +2005,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -1916,117 +2025,317 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41">
+        <v>1004</v>
+      </c>
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>1005</v>
+      </c>
+      <c r="B42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>1006</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>1007</v>
+      </c>
+      <c r="B44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="G44">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>1008</v>
+      </c>
+      <c r="B45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>1009</v>
+      </c>
+      <c r="B46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>1010</v>
+      </c>
+      <c r="B47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>1011</v>
+      </c>
+      <c r="B48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>1012</v>
+      </c>
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>1013</v>
+      </c>
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A51">
         <v>3000</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B51" t="s">
         <v>4</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C51" t="s">
         <v>6</v>
       </c>
-      <c r="D41">
+      <c r="D51">
         <v>100</v>
       </c>
-      <c r="E41">
+      <c r="E51">
         <v>4</v>
       </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A42">
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A52">
         <v>3001</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B52" t="s">
         <v>63</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C52" t="s">
         <v>64</v>
       </c>
-      <c r="D42">
+      <c r="D52">
         <v>50</v>
       </c>
-      <c r="E42">
+      <c r="E52">
         <v>4</v>
       </c>
-      <c r="G42">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A43">
+      <c r="G52">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A53">
         <v>3002</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B53" t="s">
         <v>8</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C53" t="s">
         <v>65</v>
       </c>
-      <c r="D43">
+      <c r="D53">
         <v>52</v>
       </c>
-      <c r="E43">
+      <c r="E53">
         <v>4</v>
       </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A44">
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A54">
         <v>9000</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B54" t="s">
         <v>68</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C54" t="s">
         <v>66</v>
       </c>
-      <c r="D44">
+      <c r="D54">
         <v>90</v>
       </c>
-      <c r="G44">
+      <c r="G54">
         <v>9999999</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A45">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A55">
         <v>9001</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B55" t="s">
         <v>69</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C55" t="s">
         <v>67</v>
       </c>
-      <c r="D45">
+      <c r="D55">
         <v>91</v>
       </c>
-      <c r="G45">
+      <c r="G55">
         <v>9999999</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A46">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A56">
         <v>9002</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B56" t="s">
         <v>70</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C56" t="s">
         <v>72</v>
       </c>
-      <c r="D46">
+      <c r="D56">
         <v>92</v>
       </c>
-      <c r="G46">
+      <c r="G56">
         <v>9999999</v>
       </c>
     </row>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA491F50-F5BE-40BF-9E76-DEC37C735305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D13C09-E248-4EC7-B107-CA27906DC9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="24525" windowHeight="12975" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="2565" yWindow="2625" windowWidth="24525" windowHeight="12975" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="143">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -574,10 +574,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Textures/crapas_2d_001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>花02</t>
     <rPh sb="0" eb="1">
       <t>ハナ</t>
@@ -585,18 +581,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Textures/crapas_2d_002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>花03</t>
     <rPh sb="0" eb="1">
       <t>ハナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Textures/crapas_2d_003</t>
   </si>
   <si>
     <t>花04</t>
@@ -663,6 +652,162 @@
       <t>ハナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_1_small</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_2_small</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_3_small</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_4_small</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_5_small</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_6_small</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_7_small</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_8_small</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_9_small</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_10_small</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>巨大花02</t>
+    <rPh sb="0" eb="2">
+      <t>キョダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>巨大花03</t>
+    <rPh sb="0" eb="2">
+      <t>キョダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>巨大花04</t>
+    <rPh sb="0" eb="2">
+      <t>キョダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>巨大花05</t>
+    <rPh sb="0" eb="2">
+      <t>キョダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>巨大花06</t>
+    <rPh sb="0" eb="2">
+      <t>キョダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>巨大花07</t>
+    <rPh sb="0" eb="2">
+      <t>キョダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>巨大花08</t>
+    <rPh sb="0" eb="2">
+      <t>キョダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>巨大花09</t>
+    <rPh sb="0" eb="2">
+      <t>キョダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>巨大花10</t>
+    <rPh sb="0" eb="2">
+      <t>キョダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_1_medium</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_2_medium</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_3_medium</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_4_medium</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_5_medium</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_6_medium</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_7_medium</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_8_medium</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_9_medium</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_10_medium</t>
   </si>
 </sst>
 </file>
@@ -791,8 +936,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:H56" totalsRowShown="0">
-  <autoFilter ref="A1:H56" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:H65" totalsRowShown="0">
+  <autoFilter ref="A1:H65" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Name"/>
@@ -1104,13 +1249,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
+      <selection pane="bottomRight" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1697,7 +1842,7 @@
         <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -1717,10 +1862,10 @@
         <v>501</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -1740,10 +1885,10 @@
         <v>502</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -1763,10 +1908,10 @@
         <v>503</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -1786,10 +1931,10 @@
         <v>504</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -1809,10 +1954,10 @@
         <v>505</v>
       </c>
       <c r="B31" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -1832,10 +1977,10 @@
         <v>506</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -1855,10 +2000,10 @@
         <v>507</v>
       </c>
       <c r="B33" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="D33">
         <v>3</v>
@@ -1878,10 +2023,10 @@
         <v>508</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C34" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -1901,10 +2046,10 @@
         <v>509</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -1924,10 +2069,10 @@
         <v>550</v>
       </c>
       <c r="B36" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C36" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="D36">
         <v>4</v>
@@ -1944,22 +2089,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>600</v>
+        <v>551</v>
       </c>
       <c r="B37" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37">
-        <v>1600</v>
+        <v>1551</v>
       </c>
       <c r="G37">
         <v>9999</v>
@@ -1967,19 +2112,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>1001</v>
+        <v>552</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1552</v>
       </c>
       <c r="G38">
         <v>9999</v>
@@ -1987,19 +2135,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>1002</v>
+        <v>553</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1553</v>
       </c>
       <c r="G39">
         <v>9999</v>
@@ -2007,19 +2158,22 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>1003</v>
+        <v>554</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1554</v>
       </c>
       <c r="G40">
         <v>9999</v>
@@ -2027,19 +2181,22 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>1004</v>
+        <v>555</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1555</v>
       </c>
       <c r="G41">
         <v>9999</v>
@@ -2047,19 +2204,22 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>1005</v>
+        <v>556</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="C42" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E42">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1556</v>
       </c>
       <c r="G42">
         <v>9999</v>
@@ -2067,19 +2227,22 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>1006</v>
+        <v>557</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1557</v>
       </c>
       <c r="G43">
         <v>9999</v>
@@ -2087,19 +2250,22 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>1007</v>
+        <v>558</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1558</v>
       </c>
       <c r="G44">
         <v>9999</v>
@@ -2107,19 +2273,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>1008</v>
+        <v>559</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E45">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1559</v>
       </c>
       <c r="G45">
         <v>9999</v>
@@ -2127,19 +2296,22 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>1009</v>
+        <v>600</v>
       </c>
       <c r="B46" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="C46" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E46">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1600</v>
       </c>
       <c r="G46">
         <v>9999</v>
@@ -2147,13 +2319,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="B47" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C47" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -2167,13 +2339,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="B48" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -2187,13 +2359,13 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C49" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -2207,13 +2379,13 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>1013</v>
+        <v>1004</v>
       </c>
       <c r="B50" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -2227,39 +2399,39 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>3000</v>
+        <v>1005</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D51">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="E51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>3001</v>
+        <v>1006</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C52" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D52">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="E52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G52">
         <v>9999</v>
@@ -2267,75 +2439,255 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>3002</v>
+        <v>1007</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D53">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="E53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="H53">
-        <v>1</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>9000</v>
+        <v>1008</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="C54" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D54">
-        <v>90</v>
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
       </c>
       <c r="G54">
-        <v>9999999</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>9001</v>
+        <v>1009</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C55" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D55">
-        <v>91</v>
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
       </c>
       <c r="G55">
-        <v>9999999</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56">
+        <v>1010</v>
+      </c>
+      <c r="B56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>1011</v>
+      </c>
+      <c r="B57" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="G57">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>1012</v>
+      </c>
+      <c r="B58" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="G58">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>1013</v>
+      </c>
+      <c r="B59" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" t="s">
+        <v>62</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+      <c r="G59">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>3000</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60">
+        <v>100</v>
+      </c>
+      <c r="E60">
+        <v>4</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>3001</v>
+      </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61">
+        <v>50</v>
+      </c>
+      <c r="E61">
+        <v>4</v>
+      </c>
+      <c r="G61">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>3002</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62">
+        <v>52</v>
+      </c>
+      <c r="E62">
+        <v>4</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>9000</v>
+      </c>
+      <c r="B63" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" t="s">
+        <v>66</v>
+      </c>
+      <c r="D63">
+        <v>90</v>
+      </c>
+      <c r="G63">
+        <v>9999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>9001</v>
+      </c>
+      <c r="B64" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64">
+        <v>91</v>
+      </c>
+      <c r="G64">
+        <v>9999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A65">
         <v>9002</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B65" t="s">
         <v>70</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C65" t="s">
         <v>72</v>
       </c>
-      <c r="D56">
+      <c r="D65">
         <v>92</v>
       </c>
-      <c r="G56">
+      <c r="G65">
         <v>9999999</v>
       </c>
     </row>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D13C09-E248-4EC7-B107-CA27906DC9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5482BD9-C87B-49D4-9093-1A4CD7A520EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2565" yWindow="2625" windowWidth="24525" windowHeight="12975" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="2205" yWindow="2880" windowWidth="24525" windowHeight="12975" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -563,251 +563,203 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>花01</t>
-    <rPh sb="0" eb="1">
-      <t>ハナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Textures/block_2d_017</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>花02</t>
-    <rPh sb="0" eb="1">
-      <t>ハナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>花03</t>
-    <rPh sb="0" eb="1">
-      <t>ハナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>花04</t>
-    <rPh sb="0" eb="1">
-      <t>ハナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>花05</t>
-    <rPh sb="0" eb="1">
-      <t>ハナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>花06</t>
-    <rPh sb="0" eb="1">
-      <t>ハナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>花07</t>
-    <rPh sb="0" eb="1">
-      <t>ハナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>花08</t>
-    <rPh sb="0" eb="1">
-      <t>ハナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>花09</t>
-    <rPh sb="0" eb="1">
-      <t>ハナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>花10</t>
-    <rPh sb="0" eb="1">
-      <t>ハナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>草01</t>
+    <t>Textures/object_2d_13_1_small</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_2_small</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_3_small</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_4_small</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_5_small</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_6_small</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_7_small</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_8_small</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_9_small</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_10_small</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_1_medium</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_2_medium</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_3_medium</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_4_medium</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_5_medium</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_6_medium</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_7_medium</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_8_medium</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_9_medium</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_10_medium</t>
+  </si>
+  <si>
+    <t>黄色のコスモス</t>
+    <rPh sb="0" eb="2">
+      <t>キイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピンクのコスモス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白のコスモス</t>
+    <rPh sb="0" eb="1">
+      <t>シロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オレンジのコスモス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤のコスモス</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紫のコスモス</t>
+    <rPh sb="0" eb="1">
+      <t>ムラサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青のコスモス</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黒のコスモス</t>
+    <rPh sb="0" eb="1">
+      <t>クロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水色のコスモス</t>
+    <rPh sb="0" eb="2">
+      <t>ミズイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黄色のコスモス中</t>
+    <rPh sb="0" eb="2">
+      <t>キイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピンクのコスモス中</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白のコスモス中</t>
+    <rPh sb="0" eb="1">
+      <t>シロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オレンジのコスモス中</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤のコスモス中</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紫のコスモス中</t>
+    <rPh sb="0" eb="1">
+      <t>ムラサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青のコスモス中</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水色のコスモス中</t>
+    <rPh sb="0" eb="2">
+      <t>ミズイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黒のコスモス中</t>
+    <rPh sb="0" eb="1">
+      <t>クロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>草</t>
     <rPh sb="0" eb="1">
       <t>クサ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>巨大花01</t>
-    <rPh sb="0" eb="2">
-      <t>キョダイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ハナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Textures/object_2d_13_1_small</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Textures/object_2d_13_2_small</t>
-  </si>
-  <si>
-    <t>Textures/object_2d_13_3_small</t>
-  </si>
-  <si>
-    <t>Textures/object_2d_13_4_small</t>
-  </si>
-  <si>
-    <t>Textures/object_2d_13_5_small</t>
-  </si>
-  <si>
-    <t>Textures/object_2d_13_6_small</t>
-  </si>
-  <si>
-    <t>Textures/object_2d_13_7_small</t>
-  </si>
-  <si>
-    <t>Textures/object_2d_13_8_small</t>
-  </si>
-  <si>
-    <t>Textures/object_2d_13_9_small</t>
-  </si>
-  <si>
-    <t>Textures/object_2d_13_10_small</t>
-  </si>
-  <si>
-    <t>Textures/object_2d_14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>巨大花02</t>
-    <rPh sb="0" eb="2">
-      <t>キョダイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ハナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>巨大花03</t>
-    <rPh sb="0" eb="2">
-      <t>キョダイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ハナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>巨大花04</t>
-    <rPh sb="0" eb="2">
-      <t>キョダイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ハナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>巨大花05</t>
-    <rPh sb="0" eb="2">
-      <t>キョダイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ハナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>巨大花06</t>
-    <rPh sb="0" eb="2">
-      <t>キョダイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ハナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>巨大花07</t>
-    <rPh sb="0" eb="2">
-      <t>キョダイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ハナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>巨大花08</t>
-    <rPh sb="0" eb="2">
-      <t>キョダイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ハナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>巨大花09</t>
-    <rPh sb="0" eb="2">
-      <t>キョダイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ハナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>巨大花10</t>
-    <rPh sb="0" eb="2">
-      <t>キョダイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ハナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Textures/object_2d_13_1_medium</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Textures/object_2d_13_2_medium</t>
-  </si>
-  <si>
-    <t>Textures/object_2d_13_3_medium</t>
-  </si>
-  <si>
-    <t>Textures/object_2d_13_4_medium</t>
-  </si>
-  <si>
-    <t>Textures/object_2d_13_5_medium</t>
-  </si>
-  <si>
-    <t>Textures/object_2d_13_6_medium</t>
-  </si>
-  <si>
-    <t>Textures/object_2d_13_7_medium</t>
-  </si>
-  <si>
-    <t>Textures/object_2d_13_8_medium</t>
-  </si>
-  <si>
-    <t>Textures/object_2d_13_9_medium</t>
-  </si>
-  <si>
-    <t>Textures/object_2d_13_10_medium</t>
+    <t>黄緑のコスモス中</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黄緑のコスモス</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1252,10 +1204,10 @@
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E36" sqref="E36"/>
+      <selection pane="bottomRight" activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1819,7 +1771,7 @@
         <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1839,10 +1791,10 @@
         <v>500</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="C26" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -1862,10 +1814,10 @@
         <v>501</v>
       </c>
       <c r="B27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" t="s">
         <v>102</v>
-      </c>
-      <c r="C27" t="s">
-        <v>114</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -1885,10 +1837,10 @@
         <v>502</v>
       </c>
       <c r="B28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" t="s">
         <v>103</v>
-      </c>
-      <c r="C28" t="s">
-        <v>115</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -1908,10 +1860,10 @@
         <v>503</v>
       </c>
       <c r="B29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" t="s">
         <v>104</v>
-      </c>
-      <c r="C29" t="s">
-        <v>116</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -1931,10 +1883,10 @@
         <v>504</v>
       </c>
       <c r="B30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" t="s">
         <v>105</v>
-      </c>
-      <c r="C30" t="s">
-        <v>117</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -1954,10 +1906,10 @@
         <v>505</v>
       </c>
       <c r="B31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" t="s">
         <v>106</v>
-      </c>
-      <c r="C31" t="s">
-        <v>118</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -1977,10 +1929,10 @@
         <v>506</v>
       </c>
       <c r="B32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" t="s">
         <v>107</v>
-      </c>
-      <c r="C32" t="s">
-        <v>119</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -2000,10 +1952,10 @@
         <v>507</v>
       </c>
       <c r="B33" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" t="s">
         <v>108</v>
-      </c>
-      <c r="C33" t="s">
-        <v>120</v>
       </c>
       <c r="D33">
         <v>3</v>
@@ -2023,10 +1975,10 @@
         <v>508</v>
       </c>
       <c r="B34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" t="s">
         <v>109</v>
-      </c>
-      <c r="C34" t="s">
-        <v>121</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -2046,10 +1998,10 @@
         <v>509</v>
       </c>
       <c r="B35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" t="s">
         <v>110</v>
-      </c>
-      <c r="C35" t="s">
-        <v>122</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -2069,10 +2021,10 @@
         <v>550</v>
       </c>
       <c r="B36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" t="s">
         <v>112</v>
-      </c>
-      <c r="C36" t="s">
-        <v>133</v>
       </c>
       <c r="D36">
         <v>4</v>
@@ -2092,10 +2044,10 @@
         <v>551</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C37" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="D37">
         <v>4</v>
@@ -2115,10 +2067,10 @@
         <v>552</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C38" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="D38">
         <v>4</v>
@@ -2138,10 +2090,10 @@
         <v>553</v>
       </c>
       <c r="B39" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C39" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="D39">
         <v>4</v>
@@ -2161,10 +2113,10 @@
         <v>554</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C40" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="D40">
         <v>4</v>
@@ -2184,10 +2136,10 @@
         <v>555</v>
       </c>
       <c r="B41" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C41" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="D41">
         <v>4</v>
@@ -2207,10 +2159,10 @@
         <v>556</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C42" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="D42">
         <v>4</v>
@@ -2230,10 +2182,10 @@
         <v>557</v>
       </c>
       <c r="B43" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="D43">
         <v>4</v>
@@ -2253,10 +2205,10 @@
         <v>558</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C44" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="D44">
         <v>4</v>
@@ -2276,10 +2228,10 @@
         <v>559</v>
       </c>
       <c r="B45" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C45" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="D45">
         <v>4</v>
@@ -2299,10 +2251,10 @@
         <v>600</v>
       </c>
       <c r="B46" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" t="s">
         <v>111</v>
-      </c>
-      <c r="C46" t="s">
-        <v>123</v>
       </c>
       <c r="D46">
         <v>5</v>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5482BD9-C87B-49D4-9093-1A4CD7A520EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA63571E-B027-4C9A-8727-AC5D6DC41C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2880" windowWidth="24525" windowHeight="12975" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="2205" yWindow="2625" windowWidth="24525" windowHeight="12975" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1204,10 +1204,10 @@
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L34" sqref="L34"/>
+      <selection pane="bottomRight" activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1800,7 +1800,7 @@
         <v>3</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1500</v>
@@ -1823,7 +1823,7 @@
         <v>3</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
         <v>1501</v>
@@ -1846,7 +1846,7 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
         <v>1502</v>
@@ -1869,7 +1869,7 @@
         <v>3</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
         <v>1503</v>
@@ -1892,7 +1892,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
         <v>1504</v>
@@ -1915,7 +1915,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
         <v>1505</v>
@@ -1938,7 +1938,7 @@
         <v>3</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1506</v>
@@ -1961,7 +1961,7 @@
         <v>3</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1507</v>
@@ -1984,7 +1984,7 @@
         <v>3</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1508</v>
@@ -2007,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1509</v>
@@ -2030,7 +2030,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1550</v>
@@ -2053,7 +2053,7 @@
         <v>4</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1551</v>
@@ -2076,7 +2076,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38">
         <v>1552</v>
@@ -2099,7 +2099,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39">
         <v>1553</v>
@@ -2122,7 +2122,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40">
         <v>1554</v>
@@ -2145,7 +2145,7 @@
         <v>4</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41">
         <v>1555</v>
@@ -2168,7 +2168,7 @@
         <v>4</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42">
         <v>1556</v>
@@ -2191,7 +2191,7 @@
         <v>4</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43">
         <v>1557</v>
@@ -2214,7 +2214,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44">
         <v>1558</v>
@@ -2237,7 +2237,7 @@
         <v>4</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45">
         <v>1559</v>
@@ -2260,7 +2260,7 @@
         <v>5</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46">
         <v>1600</v>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA63571E-B027-4C9A-8727-AC5D6DC41C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F81576-2C00-44E6-9F1E-D2A454E3E875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2625" windowWidth="24525" windowHeight="12975" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="148">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -760,13 +760,53 @@
   <si>
     <t>黄緑のコスモス</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>葉ブロック：赤</t>
+  </si>
+  <si>
+    <t>葉ブロック：オレンジ</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ハ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>葉ブロック：黄色</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ハ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キイロ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>葉ブロック：水色</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ハ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ミズ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>葉ブロック：うすピンク色</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ハ </t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ミズ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -788,6 +828,20 @@
       <color theme="0"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -857,7 +911,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -868,6 +922,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -888,8 +945,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:H65" totalsRowShown="0">
-  <autoFilter ref="A1:H65" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:H70" totalsRowShown="0">
+  <autoFilter ref="A1:H70" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Name"/>
@@ -1201,13 +1258,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I47" sqref="I47"/>
+      <selection pane="bottomRight" activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1788,22 +1845,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>500</v>
+        <v>119</v>
       </c>
       <c r="B26" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1500</v>
+        <v>1019</v>
       </c>
       <c r="G26">
         <v>9999</v>
@@ -1811,22 +1868,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>501</v>
-      </c>
-      <c r="B27" t="s">
-        <v>123</v>
+        <v>120</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1501</v>
+        <v>1020</v>
       </c>
       <c r="G27">
         <v>9999</v>
@@ -1834,22 +1891,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>502</v>
-      </c>
-      <c r="B28" t="s">
-        <v>124</v>
+        <v>121</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1502</v>
+        <v>1021</v>
       </c>
       <c r="G28">
         <v>9999</v>
@@ -1857,22 +1914,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>503</v>
-      </c>
-      <c r="B29" t="s">
-        <v>125</v>
+        <v>122</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1503</v>
+        <v>1022</v>
       </c>
       <c r="G29">
         <v>9999</v>
@@ -1880,22 +1937,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>504</v>
-      </c>
-      <c r="B30" t="s">
-        <v>126</v>
+        <v>123</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1504</v>
+        <v>1023</v>
       </c>
       <c r="G30">
         <v>9999</v>
@@ -1903,13 +1960,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B31" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -1918,7 +1975,7 @@
         <v>2</v>
       </c>
       <c r="F31">
-        <v>1505</v>
+        <v>1500</v>
       </c>
       <c r="G31">
         <v>9999</v>
@@ -1926,13 +1983,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B32" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -1941,7 +1998,7 @@
         <v>2</v>
       </c>
       <c r="F32">
-        <v>1506</v>
+        <v>1501</v>
       </c>
       <c r="G32">
         <v>9999</v>
@@ -1949,13 +2006,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B33" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D33">
         <v>3</v>
@@ -1964,7 +2021,7 @@
         <v>2</v>
       </c>
       <c r="F33">
-        <v>1507</v>
+        <v>1502</v>
       </c>
       <c r="G33">
         <v>9999</v>
@@ -1972,13 +2029,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B34" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C34" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -1987,7 +2044,7 @@
         <v>2</v>
       </c>
       <c r="F34">
-        <v>1508</v>
+        <v>1503</v>
       </c>
       <c r="G34">
         <v>9999</v>
@@ -1995,13 +2052,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -2010,7 +2067,7 @@
         <v>2</v>
       </c>
       <c r="F35">
-        <v>1509</v>
+        <v>1504</v>
       </c>
       <c r="G35">
         <v>9999</v>
@@ -2018,22 +2075,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>550</v>
+        <v>505</v>
       </c>
       <c r="B36" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E36">
         <v>2</v>
       </c>
       <c r="F36">
-        <v>1550</v>
+        <v>1505</v>
       </c>
       <c r="G36">
         <v>9999</v>
@@ -2041,22 +2098,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>551</v>
+        <v>506</v>
       </c>
       <c r="B37" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E37">
         <v>2</v>
       </c>
       <c r="F37">
-        <v>1551</v>
+        <v>1506</v>
       </c>
       <c r="G37">
         <v>9999</v>
@@ -2064,22 +2121,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>552</v>
+        <v>507</v>
       </c>
       <c r="B38" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E38">
         <v>2</v>
       </c>
       <c r="F38">
-        <v>1552</v>
+        <v>1507</v>
       </c>
       <c r="G38">
         <v>9999</v>
@@ -2087,22 +2144,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>553</v>
+        <v>508</v>
       </c>
       <c r="B39" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E39">
         <v>2</v>
       </c>
       <c r="F39">
-        <v>1553</v>
+        <v>1508</v>
       </c>
       <c r="G39">
         <v>9999</v>
@@ -2110,22 +2167,22 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>554</v>
+        <v>509</v>
       </c>
       <c r="B40" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E40">
         <v>2</v>
       </c>
       <c r="F40">
-        <v>1554</v>
+        <v>1509</v>
       </c>
       <c r="G40">
         <v>9999</v>
@@ -2133,13 +2190,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B41" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D41">
         <v>4</v>
@@ -2148,7 +2205,7 @@
         <v>2</v>
       </c>
       <c r="F41">
-        <v>1555</v>
+        <v>1550</v>
       </c>
       <c r="G41">
         <v>9999</v>
@@ -2156,13 +2213,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B42" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D42">
         <v>4</v>
@@ -2171,7 +2228,7 @@
         <v>2</v>
       </c>
       <c r="F42">
-        <v>1556</v>
+        <v>1551</v>
       </c>
       <c r="G42">
         <v>9999</v>
@@ -2179,13 +2236,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="B43" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C43" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D43">
         <v>4</v>
@@ -2194,7 +2251,7 @@
         <v>2</v>
       </c>
       <c r="F43">
-        <v>1557</v>
+        <v>1552</v>
       </c>
       <c r="G43">
         <v>9999</v>
@@ -2202,13 +2259,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B44" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C44" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D44">
         <v>4</v>
@@ -2217,7 +2274,7 @@
         <v>2</v>
       </c>
       <c r="F44">
-        <v>1558</v>
+        <v>1553</v>
       </c>
       <c r="G44">
         <v>9999</v>
@@ -2225,13 +2282,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B45" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C45" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D45">
         <v>4</v>
@@ -2240,7 +2297,7 @@
         <v>2</v>
       </c>
       <c r="F45">
-        <v>1559</v>
+        <v>1554</v>
       </c>
       <c r="G45">
         <v>9999</v>
@@ -2248,22 +2305,22 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>600</v>
+        <v>555</v>
       </c>
       <c r="B46" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C46" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E46">
         <v>2</v>
       </c>
       <c r="F46">
-        <v>1600</v>
+        <v>1555</v>
       </c>
       <c r="G46">
         <v>9999</v>
@@ -2271,19 +2328,22 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>1001</v>
+        <v>556</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>1556</v>
       </c>
       <c r="G47">
         <v>9999</v>
@@ -2291,93 +2351,105 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>1002</v>
+        <v>557</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="C48" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>1557</v>
       </c>
       <c r="G48">
         <v>9999</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>1003</v>
+        <v>558</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="C49" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E49">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>1558</v>
       </c>
       <c r="G49">
         <v>9999</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>1004</v>
+        <v>559</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>1559</v>
       </c>
       <c r="G50">
         <v>9999</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>1005</v>
+        <v>600</v>
       </c>
       <c r="B51" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="C51" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E51">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>1600</v>
       </c>
       <c r="G51">
         <v>9999</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -2389,15 +2461,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="B53" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C53" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -2409,15 +2481,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C54" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -2429,15 +2501,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="B55" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C55" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -2449,15 +2521,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="B56" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C56" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -2469,15 +2541,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="B57" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C57" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -2489,15 +2561,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="B58" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C58" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -2509,15 +2581,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="B59" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C59" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -2529,117 +2601,217 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60">
+        <v>1009</v>
+      </c>
+      <c r="B60" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+      <c r="G60">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>1010</v>
+      </c>
+      <c r="B61" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>1011</v>
+      </c>
+      <c r="B62" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="G62">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>1012</v>
+      </c>
+      <c r="B63" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+      <c r="G63">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>1013</v>
+      </c>
+      <c r="B64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" t="s">
+        <v>62</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="G64">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A65">
         <v>3000</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B65" t="s">
         <v>4</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C65" t="s">
         <v>6</v>
       </c>
-      <c r="D60">
+      <c r="D65">
         <v>100</v>
       </c>
-      <c r="E60">
+      <c r="E65">
         <v>4</v>
       </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A61">
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A66">
         <v>3001</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B66" t="s">
         <v>63</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C66" t="s">
         <v>64</v>
       </c>
-      <c r="D61">
+      <c r="D66">
         <v>50</v>
       </c>
-      <c r="E61">
+      <c r="E66">
         <v>4</v>
       </c>
-      <c r="G61">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A62">
+      <c r="G66">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A67">
         <v>3002</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B67" t="s">
         <v>8</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C67" t="s">
         <v>65</v>
       </c>
-      <c r="D62">
+      <c r="D67">
         <v>52</v>
       </c>
-      <c r="E62">
+      <c r="E67">
         <v>4</v>
       </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="H62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A63">
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A68">
         <v>9000</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B68" t="s">
         <v>68</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C68" t="s">
         <v>66</v>
       </c>
-      <c r="D63">
+      <c r="D68">
         <v>90</v>
       </c>
-      <c r="G63">
+      <c r="G68">
         <v>9999999</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A64">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A69">
         <v>9001</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B69" t="s">
         <v>69</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C69" t="s">
         <v>67</v>
       </c>
-      <c r="D64">
+      <c r="D69">
         <v>91</v>
       </c>
-      <c r="G64">
+      <c r="G69">
         <v>9999999</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A65">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A70">
         <v>9002</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B70" t="s">
         <v>70</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C70" t="s">
         <v>72</v>
       </c>
-      <c r="D65">
+      <c r="D70">
         <v>92</v>
       </c>
-      <c r="G65">
+      <c r="G70">
         <v>9999999</v>
       </c>
     </row>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F81576-2C00-44E6-9F1E-D2A454E3E875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C28209-B2D2-40BB-AF76-530C528B163F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="1440" yWindow="1305" windowWidth="24525" windowHeight="12975" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="156">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -800,6 +800,32 @@
       <t>ミズ</t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>葉ブロック：</t>
+  </si>
+  <si>
+    <t>Textures/block_2d_023</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/block_2d_024</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/block_2d_028</t>
+  </si>
+  <si>
+    <t>Textures/block_2d_029</t>
+  </si>
+  <si>
+    <t>Textures/block_2d_025</t>
+  </si>
+  <si>
+    <t>Textures/block_2d_026</t>
+  </si>
+  <si>
+    <t>Textures/block_2d_027</t>
   </si>
 </sst>
 </file>
@@ -945,8 +971,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:H70" totalsRowShown="0">
-  <autoFilter ref="A1:H70" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:H72" totalsRowShown="0">
+  <autoFilter ref="A1:H72" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Name"/>
@@ -1258,13 +1284,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L28" sqref="L28"/>
+      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1845,13 +1871,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B26" t="s">
         <v>143</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1860,7 +1886,7 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="G26">
         <v>9999</v>
@@ -1868,13 +1894,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>144</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1883,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="G27">
         <v>9999</v>
@@ -1891,13 +1917,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>145</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>153</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1906,7 +1932,7 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="G28">
         <v>9999</v>
@@ -1914,13 +1940,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>146</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1929,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="G29">
         <v>9999</v>
@@ -1937,13 +1963,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>147</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>155</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1952,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="G30">
         <v>9999</v>
@@ -1960,22 +1986,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>500</v>
-      </c>
-      <c r="B31" t="s">
-        <v>122</v>
+        <v>128</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1500</v>
+        <v>1028</v>
       </c>
       <c r="G31">
         <v>9999</v>
@@ -1983,22 +2009,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>501</v>
-      </c>
-      <c r="B32" t="s">
-        <v>123</v>
+        <v>129</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1501</v>
+        <v>1029</v>
       </c>
       <c r="G32">
         <v>9999</v>
@@ -2006,13 +2032,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D33">
         <v>3</v>
@@ -2021,7 +2047,7 @@
         <v>2</v>
       </c>
       <c r="F33">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="G33">
         <v>9999</v>
@@ -2029,13 +2055,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -2044,7 +2070,7 @@
         <v>2</v>
       </c>
       <c r="F34">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="G34">
         <v>9999</v>
@@ -2052,13 +2078,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C35" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -2067,7 +2093,7 @@
         <v>2</v>
       </c>
       <c r="F35">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="G35">
         <v>9999</v>
@@ -2075,13 +2101,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -2090,7 +2116,7 @@
         <v>2</v>
       </c>
       <c r="F36">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="G36">
         <v>9999</v>
@@ -2098,13 +2124,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B37" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C37" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -2113,7 +2139,7 @@
         <v>2</v>
       </c>
       <c r="F37">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="G37">
         <v>9999</v>
@@ -2121,13 +2147,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B38" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D38">
         <v>3</v>
@@ -2136,7 +2162,7 @@
         <v>2</v>
       </c>
       <c r="F38">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="G38">
         <v>9999</v>
@@ -2144,13 +2170,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B39" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D39">
         <v>3</v>
@@ -2159,7 +2185,7 @@
         <v>2</v>
       </c>
       <c r="F39">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="G39">
         <v>9999</v>
@@ -2167,13 +2193,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B40" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D40">
         <v>3</v>
@@ -2182,7 +2208,7 @@
         <v>2</v>
       </c>
       <c r="F40">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="G40">
         <v>9999</v>
@@ -2190,22 +2216,22 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>550</v>
+        <v>508</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E41">
         <v>2</v>
       </c>
       <c r="F41">
-        <v>1550</v>
+        <v>1508</v>
       </c>
       <c r="G41">
         <v>9999</v>
@@ -2213,22 +2239,22 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>551</v>
+        <v>509</v>
       </c>
       <c r="B42" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C42" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E42">
         <v>2</v>
       </c>
       <c r="F42">
-        <v>1551</v>
+        <v>1509</v>
       </c>
       <c r="G42">
         <v>9999</v>
@@ -2236,13 +2262,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C43" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D43">
         <v>4</v>
@@ -2251,7 +2277,7 @@
         <v>2</v>
       </c>
       <c r="F43">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="G43">
         <v>9999</v>
@@ -2259,13 +2285,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B44" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C44" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D44">
         <v>4</v>
@@ -2274,7 +2300,7 @@
         <v>2</v>
       </c>
       <c r="F44">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="G44">
         <v>9999</v>
@@ -2282,13 +2308,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D45">
         <v>4</v>
@@ -2297,7 +2323,7 @@
         <v>2</v>
       </c>
       <c r="F45">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="G45">
         <v>9999</v>
@@ -2305,13 +2331,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B46" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C46" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D46">
         <v>4</v>
@@ -2320,7 +2346,7 @@
         <v>2</v>
       </c>
       <c r="F46">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="G46">
         <v>9999</v>
@@ -2328,13 +2354,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B47" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C47" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D47">
         <v>4</v>
@@ -2343,7 +2369,7 @@
         <v>2</v>
       </c>
       <c r="F47">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="G47">
         <v>9999</v>
@@ -2351,13 +2377,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B48" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C48" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D48">
         <v>4</v>
@@ -2366,7 +2392,7 @@
         <v>2</v>
       </c>
       <c r="F48">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="G48">
         <v>9999</v>
@@ -2374,13 +2400,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B49" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C49" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D49">
         <v>4</v>
@@ -2389,7 +2415,7 @@
         <v>2</v>
       </c>
       <c r="F49">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="G49">
         <v>9999</v>
@@ -2397,13 +2423,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B50" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C50" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D50">
         <v>4</v>
@@ -2412,7 +2438,7 @@
         <v>2</v>
       </c>
       <c r="F50">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="G50">
         <v>9999</v>
@@ -2420,22 +2446,22 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>600</v>
+        <v>558</v>
       </c>
       <c r="B51" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C51" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E51">
         <v>2</v>
       </c>
       <c r="F51">
-        <v>1600</v>
+        <v>1558</v>
       </c>
       <c r="G51">
         <v>9999</v>
@@ -2443,19 +2469,22 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>1001</v>
+        <v>559</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="C52" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>1559</v>
       </c>
       <c r="G52">
         <v>9999</v>
@@ -2463,19 +2492,22 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>1002</v>
+        <v>600</v>
       </c>
       <c r="B53" t="s">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="C53" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>1600</v>
       </c>
       <c r="G53">
         <v>9999</v>
@@ -2483,13 +2515,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C54" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -2503,13 +2535,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B55" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C55" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -2523,13 +2555,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B56" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C56" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -2543,13 +2575,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C57" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -2563,13 +2595,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B58" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C58" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -2583,13 +2615,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B59" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C59" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -2603,13 +2635,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B60" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -2623,13 +2655,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B61" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C61" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -2643,13 +2675,13 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B62" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C62" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -2663,13 +2695,13 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B63" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C63" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -2683,13 +2715,13 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B64" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C64" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -2703,39 +2735,39 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>3000</v>
+        <v>1012</v>
       </c>
       <c r="B65" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="D65">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="E65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>3001</v>
+        <v>1013</v>
       </c>
       <c r="B66" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C66" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D66">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="E66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G66">
         <v>9999</v>
@@ -2743,16 +2775,16 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>3002</v>
+        <v>3000</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="D67">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="E67">
         <v>4</v>
@@ -2760,58 +2792,98 @@
       <c r="G67">
         <v>1</v>
       </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>9000</v>
+        <v>3001</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C68" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D68">
-        <v>90</v>
+        <v>50</v>
+      </c>
+      <c r="E68">
+        <v>4</v>
       </c>
       <c r="G68">
-        <v>9999999</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>9001</v>
+        <v>3002</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D69">
-        <v>91</v>
+        <v>52</v>
+      </c>
+      <c r="E69">
+        <v>4</v>
       </c>
       <c r="G69">
-        <v>9999999</v>
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70">
+        <v>9000</v>
+      </c>
+      <c r="B70" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" t="s">
+        <v>66</v>
+      </c>
+      <c r="D70">
+        <v>90</v>
+      </c>
+      <c r="G70">
+        <v>9999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>9001</v>
+      </c>
+      <c r="B71" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D71">
+        <v>91</v>
+      </c>
+      <c r="G71">
+        <v>9999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A72">
         <v>9002</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B72" t="s">
         <v>70</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C72" t="s">
         <v>72</v>
       </c>
-      <c r="D70">
+      <c r="D72">
         <v>92</v>
       </c>
-      <c r="G70">
+      <c r="G72">
         <v>9999999</v>
       </c>
     </row>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C28209-B2D2-40BB-AF76-530C528B163F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE339F5-423A-4524-A089-E9A9A53A4F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1305" windowWidth="24525" windowHeight="12975" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="2385" yWindow="2100" windowWidth="24525" windowHeight="12975" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="157">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -802,9 +802,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>葉ブロック：</t>
-  </si>
-  <si>
     <t>Textures/block_2d_023</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -826,6 +823,17 @@
   </si>
   <si>
     <t>Textures/block_2d_027</t>
+  </si>
+  <si>
+    <t>葉ブロック：黄緑</t>
+    <rPh sb="6" eb="8">
+      <t>キミドリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>葉ブロック：エメグリ</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1290,7 +1298,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
+      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1877,7 +1885,7 @@
         <v>143</v>
       </c>
       <c r="C26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1900,7 +1908,7 @@
         <v>144</v>
       </c>
       <c r="C27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1923,7 +1931,7 @@
         <v>145</v>
       </c>
       <c r="C28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1946,7 +1954,7 @@
         <v>146</v>
       </c>
       <c r="C29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1969,7 +1977,7 @@
         <v>147</v>
       </c>
       <c r="C30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1989,10 +1997,10 @@
         <v>128</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2012,10 +2020,10 @@
         <v>129</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D32">
         <v>1</v>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE339F5-423A-4524-A089-E9A9A53A4F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1B947E-5310-4DB1-A962-B4F9424878E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2385" yWindow="2100" windowWidth="24525" windowHeight="12975" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
@@ -762,77 +762,69 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>葉ブロック：赤</t>
-  </si>
-  <si>
-    <t>葉ブロック：オレンジ</t>
-    <rPh sb="0" eb="1">
+    <t>Textures/block_2d_023</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/block_2d_024</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/block_2d_028</t>
+  </si>
+  <si>
+    <t>Textures/block_2d_029</t>
+  </si>
+  <si>
+    <t>Textures/block_2d_025</t>
+  </si>
+  <si>
+    <t>Textures/block_2d_026</t>
+  </si>
+  <si>
+    <t>Textures/block_2d_027</t>
+  </si>
+  <si>
+    <t>赤の葉ブロック</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オレンジの葉ブロック</t>
+    <rPh sb="5" eb="6">
       <t xml:space="preserve">ハ </t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>葉ブロック：黄色</t>
-    <rPh sb="0" eb="1">
+    <t>黄色の葉ブロック</t>
+    <rPh sb="3" eb="4">
       <t xml:space="preserve">ハ </t>
     </rPh>
-    <rPh sb="6" eb="8">
-      <t>キイロ</t>
-    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>葉ブロック：水色</t>
-    <rPh sb="0" eb="1">
+    <t>水色の葉ブロック</t>
+    <rPh sb="3" eb="4">
       <t xml:space="preserve">ハ </t>
     </rPh>
-    <rPh sb="6" eb="8">
-      <t>ミズ</t>
-    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>葉ブロック：うすピンク色</t>
-    <rPh sb="0" eb="1">
+    <t>うすピンク色の葉ブロック</t>
+    <rPh sb="7" eb="8">
       <t xml:space="preserve">ハ </t>
     </rPh>
-    <rPh sb="11" eb="12">
-      <t>ミズ</t>
-    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>Textures/block_2d_023</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Textures/block_2d_024</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Textures/block_2d_028</t>
-  </si>
-  <si>
-    <t>Textures/block_2d_029</t>
-  </si>
-  <si>
-    <t>Textures/block_2d_025</t>
-  </si>
-  <si>
-    <t>Textures/block_2d_026</t>
-  </si>
-  <si>
-    <t>Textures/block_2d_027</t>
-  </si>
-  <si>
-    <t>葉ブロック：黄緑</t>
-    <rPh sb="6" eb="8">
-      <t>キミドリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>葉ブロック：エメグリ</t>
+    <t>黄緑の葉ブロック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エメグリの葉ブロック</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1298,7 +1290,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
+      <selection pane="bottomRight" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1882,10 +1874,10 @@
         <v>123</v>
       </c>
       <c r="B26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" t="s">
         <v>143</v>
-      </c>
-      <c r="C26" t="s">
-        <v>148</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1905,10 +1897,10 @@
         <v>124</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" t="s">
         <v>144</v>
-      </c>
-      <c r="C27" t="s">
-        <v>149</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1928,10 +1920,10 @@
         <v>125</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C28" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1951,10 +1943,10 @@
         <v>126</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C29" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1974,10 +1966,10 @@
         <v>127</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C30" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2000,7 +1992,7 @@
         <v>155</v>
       </c>
       <c r="C31" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2023,7 +2015,7 @@
         <v>156</v>
       </c>
       <c r="C32" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D32">
         <v>1</v>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1B947E-5310-4DB1-A962-B4F9424878E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8138A44-A6D0-447E-828F-A20EA65527E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="2100" windowWidth="24525" windowHeight="12975" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="24525" windowHeight="12975" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -813,19 +813,19 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>うすピンク色の葉ブロック</t>
-    <rPh sb="7" eb="8">
+    <t>黄緑の葉ブロック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エメグリの葉ブロック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピンク色の葉ブロック</t>
+    <rPh sb="5" eb="6">
       <t xml:space="preserve">ハ </t>
     </rPh>
     <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>黄緑の葉ブロック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エメグリの葉ブロック</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1290,7 +1290,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I31" sqref="I31"/>
+      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1966,7 +1966,7 @@
         <v>127</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C30" t="s">
         <v>149</v>
@@ -1989,7 +1989,7 @@
         <v>128</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C31" t="s">
         <v>145</v>
@@ -2012,7 +2012,7 @@
         <v>129</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C32" t="s">
         <v>146</v>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8138A44-A6D0-447E-828F-A20EA65527E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCB5678-09FB-43BF-94B2-7C5430F6B7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="24525" windowHeight="12975" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="-195" yWindow="930" windowWidth="24525" windowHeight="12975" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="159">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -826,6 +826,17 @@
       <t xml:space="preserve">ハ </t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>掲示板</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/object_2d_15</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -971,8 +982,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:H72" totalsRowShown="0">
-  <autoFilter ref="A1:H72" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:H73" totalsRowShown="0">
+  <autoFilter ref="A1:H73" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Name"/>
@@ -1284,13 +1295,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2838,33 +2849,39 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>9000</v>
+        <v>3003</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>157</v>
       </c>
       <c r="C70" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="D70">
-        <v>90</v>
+        <v>53</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>6000</v>
       </c>
       <c r="G70">
-        <v>9999999</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>9001</v>
+        <v>9000</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D71">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G71">
         <v>9999999</v>
@@ -2872,18 +2889,35 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72">
+        <v>9001</v>
+      </c>
+      <c r="B72" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" t="s">
+        <v>67</v>
+      </c>
+      <c r="D72">
+        <v>91</v>
+      </c>
+      <c r="G72">
+        <v>9999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A73">
         <v>9002</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>70</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>72</v>
       </c>
-      <c r="D72">
+      <c r="D73">
         <v>92</v>
       </c>
-      <c r="G72">
+      <c r="G73">
         <v>9999999</v>
       </c>
     </row>
@@ -2902,7 +2936,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCB5678-09FB-43BF-94B2-7C5430F6B7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF2AFB4-8C48-4302-B537-F3C61CF42680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="930" windowWidth="24525" windowHeight="12975" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="203">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -837,6 +846,162 @@
   <si>
     <t>Textures/object_2d_15</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/object_2d_031</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/object_2d_032</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_033</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_034</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_035</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_036</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_037</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_038</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_039</t>
+  </si>
+  <si>
+    <t>ランタン</t>
+  </si>
+  <si>
+    <t>あみあみライト</t>
+  </si>
+  <si>
+    <t>キャンドルライト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黄色の灯ブロック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤の灯ブロック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青の灯ブロック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橙の灯ブロック</t>
+  </si>
+  <si>
+    <t>紫の灯ブロック</t>
+  </si>
+  <si>
+    <t>白の灯ブロック</t>
+  </si>
+  <si>
+    <t>おしゃれな本棚</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/object_3d_018</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/object_2d_019</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/object_3d_020</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回転ソファチェア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>茶のデスク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/object_2d_022</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/object_2d_021</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/object_2d_023</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_024</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_025</t>
+  </si>
+  <si>
+    <t>白のデスク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黒のデスク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緑のデスク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黄色のデスク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>茶のソファ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白のソファ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黒のソファ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緑のソファ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黄色のソファ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/object_2d_026</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/object_2d_027</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_028</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_029</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_030</t>
   </si>
 </sst>
 </file>
@@ -982,8 +1147,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:H73" totalsRowShown="0">
-  <autoFilter ref="A1:H73" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:H95" totalsRowShown="0">
+  <autoFilter ref="A1:H95" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Name"/>
@@ -1295,13 +1460,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="J87" sqref="J87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1468,22 +1633,22 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>168</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2101</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1001</v>
+        <v>5101</v>
       </c>
       <c r="G8">
         <v>9999</v>
@@ -1491,22 +1656,22 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2101</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1002</v>
+        <v>5102</v>
       </c>
       <c r="G9">
         <v>9999</v>
@@ -1514,22 +1679,22 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2101</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1003</v>
+        <v>5103</v>
       </c>
       <c r="G10">
         <v>9999</v>
@@ -1537,13 +1702,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1552,7 +1717,7 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="G11">
         <v>9999</v>
@@ -1560,13 +1725,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1575,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="G12">
         <v>9999</v>
@@ -1583,13 +1748,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1598,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="G13">
         <v>9999</v>
@@ -1606,13 +1771,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1621,7 +1786,7 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="G14">
         <v>9999</v>
@@ -1629,13 +1794,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1644,7 +1809,7 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="G15">
         <v>9999</v>
@@ -1652,13 +1817,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1667,7 +1832,7 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="G16">
         <v>9999</v>
@@ -1675,13 +1840,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1690,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="G17">
         <v>9999</v>
@@ -1698,13 +1863,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1713,7 +1878,7 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="G18">
         <v>9999</v>
@@ -1721,13 +1886,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1736,7 +1901,7 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="G19">
         <v>9999</v>
@@ -1744,13 +1909,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1759,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="G20">
         <v>9999</v>
@@ -1767,13 +1932,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1782,7 +1947,7 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="G21">
         <v>9999</v>
@@ -1790,13 +1955,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1805,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G22">
         <v>9999</v>
@@ -1813,13 +1978,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1828,7 +1993,7 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="G23">
         <v>9999</v>
@@ -1836,13 +2001,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1851,7 +2016,7 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="G24">
         <v>9999</v>
@@ -1859,13 +2024,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1874,7 +2039,7 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="G25">
         <v>9999</v>
@@ -1882,13 +2047,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B26" t="s">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1897,7 +2062,7 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="G26">
         <v>9999</v>
@@ -1905,13 +2070,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>124</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>151</v>
+        <v>117</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1920,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="G27">
         <v>9999</v>
@@ -1928,13 +2093,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>125</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>152</v>
+        <v>118</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1943,7 +2108,7 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="G28">
         <v>9999</v>
@@ -1951,13 +2116,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>126</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>153</v>
+        <v>123</v>
+      </c>
+      <c r="B29" t="s">
+        <v>150</v>
       </c>
       <c r="C29" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1966,7 +2131,7 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="G29">
         <v>9999</v>
@@ -1974,13 +2139,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C30" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1989,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="G30">
         <v>9999</v>
@@ -1997,13 +2162,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C31" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2012,7 +2177,7 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="G31">
         <v>9999</v>
@@ -2020,13 +2185,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C32" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2035,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="G32">
         <v>9999</v>
@@ -2043,22 +2208,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>500</v>
-      </c>
-      <c r="B33" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="C33" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1500</v>
+        <v>1027</v>
       </c>
       <c r="G33">
         <v>9999</v>
@@ -2066,22 +2231,22 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>501</v>
-      </c>
-      <c r="B34" t="s">
-        <v>123</v>
+        <v>128</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1501</v>
+        <v>1028</v>
       </c>
       <c r="G34">
         <v>9999</v>
@@ -2089,22 +2254,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>502</v>
-      </c>
-      <c r="B35" t="s">
-        <v>124</v>
+        <v>129</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1502</v>
+        <v>1029</v>
       </c>
       <c r="G35">
         <v>9999</v>
@@ -2112,22 +2277,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>503</v>
+        <v>134</v>
       </c>
       <c r="B36" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>162</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1503</v>
+        <v>1034</v>
       </c>
       <c r="G36">
         <v>9999</v>
@@ -2135,22 +2300,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>504</v>
+        <v>135</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="C37" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1504</v>
+        <v>1035</v>
       </c>
       <c r="G37">
         <v>9999</v>
@@ -2158,22 +2323,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>505</v>
+        <v>136</v>
       </c>
       <c r="B38" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>1505</v>
+        <v>1036</v>
       </c>
       <c r="G38">
         <v>9999</v>
@@ -2181,22 +2346,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>506</v>
+        <v>137</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="C39" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>1506</v>
+        <v>1037</v>
       </c>
       <c r="G39">
         <v>9999</v>
@@ -2204,22 +2369,22 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>507</v>
+        <v>138</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="C40" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>1507</v>
+        <v>1038</v>
       </c>
       <c r="G40">
         <v>9999</v>
@@ -2227,22 +2392,22 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>508</v>
+        <v>139</v>
       </c>
       <c r="B41" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="C41" t="s">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>1508</v>
+        <v>1039</v>
       </c>
       <c r="G41">
         <v>9999</v>
@@ -2250,13 +2415,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C42" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D42">
         <v>3</v>
@@ -2265,7 +2430,7 @@
         <v>2</v>
       </c>
       <c r="F42">
-        <v>1509</v>
+        <v>1500</v>
       </c>
       <c r="G42">
         <v>9999</v>
@@ -2273,22 +2438,22 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>550</v>
+        <v>501</v>
       </c>
       <c r="B43" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C43" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E43">
         <v>2</v>
       </c>
       <c r="F43">
-        <v>1550</v>
+        <v>1501</v>
       </c>
       <c r="G43">
         <v>9999</v>
@@ -2296,22 +2461,22 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>551</v>
+        <v>502</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C44" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E44">
         <v>2</v>
       </c>
       <c r="F44">
-        <v>1551</v>
+        <v>1502</v>
       </c>
       <c r="G44">
         <v>9999</v>
@@ -2319,22 +2484,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>552</v>
+        <v>503</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C45" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E45">
         <v>2</v>
       </c>
       <c r="F45">
-        <v>1552</v>
+        <v>1503</v>
       </c>
       <c r="G45">
         <v>9999</v>
@@ -2342,22 +2507,22 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>553</v>
+        <v>504</v>
       </c>
       <c r="B46" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C46" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E46">
         <v>2</v>
       </c>
       <c r="F46">
-        <v>1553</v>
+        <v>1504</v>
       </c>
       <c r="G46">
         <v>9999</v>
@@ -2365,22 +2530,22 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>554</v>
+        <v>505</v>
       </c>
       <c r="B47" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C47" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E47">
         <v>2</v>
       </c>
       <c r="F47">
-        <v>1554</v>
+        <v>1505</v>
       </c>
       <c r="G47">
         <v>9999</v>
@@ -2388,22 +2553,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>555</v>
+        <v>506</v>
       </c>
       <c r="B48" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C48" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E48">
         <v>2</v>
       </c>
       <c r="F48">
-        <v>1555</v>
+        <v>1506</v>
       </c>
       <c r="G48">
         <v>9999</v>
@@ -2411,22 +2576,22 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>556</v>
+        <v>507</v>
       </c>
       <c r="B49" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C49" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E49">
         <v>2</v>
       </c>
       <c r="F49">
-        <v>1556</v>
+        <v>1507</v>
       </c>
       <c r="G49">
         <v>9999</v>
@@ -2434,22 +2599,22 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>557</v>
+        <v>508</v>
       </c>
       <c r="B50" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C50" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E50">
         <v>2</v>
       </c>
       <c r="F50">
-        <v>1557</v>
+        <v>1508</v>
       </c>
       <c r="G50">
         <v>9999</v>
@@ -2457,22 +2622,22 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>558</v>
+        <v>509</v>
       </c>
       <c r="B51" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C51" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E51">
         <v>2</v>
       </c>
       <c r="F51">
-        <v>1558</v>
+        <v>1509</v>
       </c>
       <c r="G51">
         <v>9999</v>
@@ -2480,13 +2645,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="B52" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C52" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D52">
         <v>4</v>
@@ -2495,7 +2660,7 @@
         <v>2</v>
       </c>
       <c r="F52">
-        <v>1559</v>
+        <v>1550</v>
       </c>
       <c r="G52">
         <v>9999</v>
@@ -2503,22 +2668,22 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>600</v>
+        <v>551</v>
       </c>
       <c r="B53" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C53" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E53">
         <v>2</v>
       </c>
       <c r="F53">
-        <v>1600</v>
+        <v>1551</v>
       </c>
       <c r="G53">
         <v>9999</v>
@@ -2526,19 +2691,22 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>1001</v>
+        <v>552</v>
       </c>
       <c r="B54" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="C54" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E54">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>1552</v>
       </c>
       <c r="G54">
         <v>9999</v>
@@ -2546,19 +2714,22 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>1002</v>
+        <v>553</v>
       </c>
       <c r="B55" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="C55" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E55">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>1553</v>
       </c>
       <c r="G55">
         <v>9999</v>
@@ -2566,19 +2737,22 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>1003</v>
+        <v>554</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="C56" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E56">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>1554</v>
       </c>
       <c r="G56">
         <v>9999</v>
@@ -2586,19 +2760,22 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>1004</v>
+        <v>555</v>
       </c>
       <c r="B57" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="C57" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E57">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>1555</v>
       </c>
       <c r="G57">
         <v>9999</v>
@@ -2606,19 +2783,22 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>1005</v>
+        <v>556</v>
       </c>
       <c r="B58" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="C58" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E58">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>1556</v>
       </c>
       <c r="G58">
         <v>9999</v>
@@ -2626,19 +2806,22 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>1006</v>
+        <v>557</v>
       </c>
       <c r="B59" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="C59" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E59">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>1557</v>
       </c>
       <c r="G59">
         <v>9999</v>
@@ -2646,19 +2829,22 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>1007</v>
+        <v>558</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="C60" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E60">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>1558</v>
       </c>
       <c r="G60">
         <v>9999</v>
@@ -2666,19 +2852,22 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>1008</v>
+        <v>559</v>
       </c>
       <c r="B61" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="C61" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E61">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>1559</v>
       </c>
       <c r="G61">
         <v>9999</v>
@@ -2686,19 +2875,22 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>1009</v>
+        <v>600</v>
       </c>
       <c r="B62" t="s">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="C62" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E62">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>1600</v>
       </c>
       <c r="G62">
         <v>9999</v>
@@ -2706,13 +2898,13 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="B63" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C63" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -2726,13 +2918,13 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="B64" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C64" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -2746,13 +2938,13 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="B65" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C65" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -2766,13 +2958,13 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>1013</v>
+        <v>1004</v>
       </c>
       <c r="B66" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C66" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -2786,39 +2978,39 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>3000</v>
+        <v>1005</v>
       </c>
       <c r="B67" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D67">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="E67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>3001</v>
+        <v>1006</v>
       </c>
       <c r="B68" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C68" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D68">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="E68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G68">
         <v>9999</v>
@@ -2826,45 +3018,39 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>3002</v>
+        <v>1007</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C69" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D69">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="E69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G69">
-        <v>1</v>
-      </c>
-      <c r="H69">
-        <v>1</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>3003</v>
+        <v>1008</v>
       </c>
       <c r="B70" t="s">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="C70" t="s">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="D70">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="E70">
-        <v>2</v>
-      </c>
-      <c r="F70">
-        <v>6000</v>
+        <v>3</v>
       </c>
       <c r="G70">
         <v>9999</v>
@@ -2872,52 +3058,537 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>9000</v>
+        <v>1009</v>
       </c>
       <c r="B71" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C71" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D71">
-        <v>90</v>
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
       </c>
       <c r="G71">
-        <v>9999999</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>9001</v>
+        <v>1010</v>
       </c>
       <c r="B72" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C72" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D72">
-        <v>91</v>
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
       </c>
       <c r="G72">
-        <v>9999999</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73">
+        <v>1011</v>
+      </c>
+      <c r="B73" t="s">
+        <v>42</v>
+      </c>
+      <c r="C73" t="s">
+        <v>60</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+      <c r="G73">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>1012</v>
+      </c>
+      <c r="B74" t="s">
+        <v>43</v>
+      </c>
+      <c r="C74" t="s">
+        <v>61</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+      <c r="G74">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>1013</v>
+      </c>
+      <c r="B75" t="s">
+        <v>44</v>
+      </c>
+      <c r="C75" t="s">
+        <v>62</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="G75">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>3000</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76">
+        <v>100</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>3001</v>
+      </c>
+      <c r="B77" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77" t="s">
+        <v>64</v>
+      </c>
+      <c r="D77">
+        <v>50</v>
+      </c>
+      <c r="E77">
+        <v>4</v>
+      </c>
+      <c r="G77">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>3002</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>65</v>
+      </c>
+      <c r="D78">
+        <v>52</v>
+      </c>
+      <c r="E78">
+        <v>4</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>3003</v>
+      </c>
+      <c r="B79" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" t="s">
+        <v>158</v>
+      </c>
+      <c r="D79">
+        <v>53</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79">
+        <v>6000</v>
+      </c>
+      <c r="G79">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>7018</v>
+      </c>
+      <c r="B80" t="s">
+        <v>177</v>
+      </c>
+      <c r="C80" t="s">
+        <v>178</v>
+      </c>
+      <c r="D80">
+        <v>3000</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <v>7018</v>
+      </c>
+      <c r="G80">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>7019</v>
+      </c>
+      <c r="B81" t="s">
+        <v>179</v>
+      </c>
+      <c r="C81" t="s">
+        <v>180</v>
+      </c>
+      <c r="D81">
+        <v>3000</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81">
+        <v>7019</v>
+      </c>
+      <c r="G81">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>7020</v>
+      </c>
+      <c r="B82" t="s">
+        <v>182</v>
+      </c>
+      <c r="C82" t="s">
+        <v>181</v>
+      </c>
+      <c r="D82">
+        <v>3000</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+      <c r="F82">
+        <v>7020</v>
+      </c>
+      <c r="G82">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>7021</v>
+      </c>
+      <c r="B83" t="s">
+        <v>183</v>
+      </c>
+      <c r="C83" t="s">
+        <v>185</v>
+      </c>
+      <c r="D83">
+        <v>3000</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="F83">
+        <v>7021</v>
+      </c>
+      <c r="G83">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>7022</v>
+      </c>
+      <c r="B84" t="s">
+        <v>189</v>
+      </c>
+      <c r="C84" t="s">
+        <v>184</v>
+      </c>
+      <c r="D84">
+        <v>3000</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>7022</v>
+      </c>
+      <c r="G84">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>7023</v>
+      </c>
+      <c r="B85" t="s">
+        <v>190</v>
+      </c>
+      <c r="C85" t="s">
+        <v>186</v>
+      </c>
+      <c r="D85">
+        <v>3000</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <v>7023</v>
+      </c>
+      <c r="G85">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>7024</v>
+      </c>
+      <c r="B86" t="s">
+        <v>191</v>
+      </c>
+      <c r="C86" t="s">
+        <v>187</v>
+      </c>
+      <c r="D86">
+        <v>3000</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="F86">
+        <v>7024</v>
+      </c>
+      <c r="G86">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>7025</v>
+      </c>
+      <c r="B87" t="s">
+        <v>192</v>
+      </c>
+      <c r="C87" t="s">
+        <v>188</v>
+      </c>
+      <c r="D87">
+        <v>3000</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87">
+        <v>7025</v>
+      </c>
+      <c r="G87">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>7026</v>
+      </c>
+      <c r="B88" t="s">
+        <v>193</v>
+      </c>
+      <c r="C88" t="s">
+        <v>198</v>
+      </c>
+      <c r="D88">
+        <v>3000</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+      <c r="F88">
+        <v>7026</v>
+      </c>
+      <c r="G88">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>7027</v>
+      </c>
+      <c r="B89" t="s">
+        <v>194</v>
+      </c>
+      <c r="C89" t="s">
+        <v>199</v>
+      </c>
+      <c r="D89">
+        <v>3000</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="F89">
+        <v>7027</v>
+      </c>
+      <c r="G89">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>7028</v>
+      </c>
+      <c r="B90" t="s">
+        <v>195</v>
+      </c>
+      <c r="C90" t="s">
+        <v>200</v>
+      </c>
+      <c r="D90">
+        <v>3000</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+      <c r="F90">
+        <v>7028</v>
+      </c>
+      <c r="G90">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>7029</v>
+      </c>
+      <c r="B91" t="s">
+        <v>196</v>
+      </c>
+      <c r="C91" t="s">
+        <v>201</v>
+      </c>
+      <c r="D91">
+        <v>3000</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
+      <c r="F91">
+        <v>7029</v>
+      </c>
+      <c r="G91">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>7030</v>
+      </c>
+      <c r="B92" t="s">
+        <v>197</v>
+      </c>
+      <c r="C92" t="s">
+        <v>202</v>
+      </c>
+      <c r="D92">
+        <v>3000</v>
+      </c>
+      <c r="E92">
+        <v>2</v>
+      </c>
+      <c r="F92">
+        <v>7030</v>
+      </c>
+      <c r="G92">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>9000</v>
+      </c>
+      <c r="B93" t="s">
+        <v>68</v>
+      </c>
+      <c r="C93" t="s">
+        <v>66</v>
+      </c>
+      <c r="D93">
+        <v>90</v>
+      </c>
+      <c r="G93">
+        <v>9999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>9001</v>
+      </c>
+      <c r="B94" t="s">
+        <v>69</v>
+      </c>
+      <c r="C94" t="s">
+        <v>67</v>
+      </c>
+      <c r="D94">
+        <v>91</v>
+      </c>
+      <c r="G94">
+        <v>9999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A95">
         <v>9002</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B95" t="s">
         <v>70</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C95" t="s">
         <v>72</v>
       </c>
-      <c r="D73">
+      <c r="D95">
         <v>92</v>
       </c>
-      <c r="G73">
+      <c r="G95">
         <v>9999999</v>
       </c>
     </row>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF2AFB4-8C48-4302-B537-F3C61CF42680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1BD1E7-F14A-494C-8DF5-BEB40BADF27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="207">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1002,6 +1002,22 @@
   </si>
   <si>
     <t>Textures/object_2d_030</t>
+  </si>
+  <si>
+    <t>ぴーちゃんのぬいぐるみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひよこっずのぬいぐるみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/object_3d_016</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/object_3d_017</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1147,8 +1163,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:H95" totalsRowShown="0">
-  <autoFilter ref="A1:H95" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:H97" totalsRowShown="0">
+  <autoFilter ref="A1:H97" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Name"/>
@@ -1460,13 +1476,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J87" sqref="J87"/>
+      <selection pane="bottomRight" activeCell="N86" sqref="N86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3244,22 +3260,22 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>7018</v>
+        <v>7016</v>
       </c>
       <c r="B80" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="C80" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="D80">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="E80">
         <v>2</v>
       </c>
       <c r="F80">
-        <v>7018</v>
+        <v>7016</v>
       </c>
       <c r="G80">
         <v>9999</v>
@@ -3267,22 +3283,22 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81">
-        <v>7019</v>
+        <v>7017</v>
       </c>
       <c r="B81" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="C81" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="D81">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="E81">
         <v>2</v>
       </c>
       <c r="F81">
-        <v>7019</v>
+        <v>7017</v>
       </c>
       <c r="G81">
         <v>9999</v>
@@ -3290,22 +3306,22 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82">
-        <v>7020</v>
+        <v>7018</v>
       </c>
       <c r="B82" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C82" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D82">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="E82">
         <v>2</v>
       </c>
       <c r="F82">
-        <v>7020</v>
+        <v>7018</v>
       </c>
       <c r="G82">
         <v>9999</v>
@@ -3313,22 +3329,22 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83">
-        <v>7021</v>
+        <v>7019</v>
       </c>
       <c r="B83" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C83" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D83">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="E83">
         <v>2</v>
       </c>
       <c r="F83">
-        <v>7021</v>
+        <v>7019</v>
       </c>
       <c r="G83">
         <v>9999</v>
@@ -3336,22 +3352,22 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84">
-        <v>7022</v>
+        <v>7020</v>
       </c>
       <c r="B84" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C84" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D84">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="E84">
         <v>2</v>
       </c>
       <c r="F84">
-        <v>7022</v>
+        <v>7020</v>
       </c>
       <c r="G84">
         <v>9999</v>
@@ -3359,22 +3375,22 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85">
-        <v>7023</v>
+        <v>7021</v>
       </c>
       <c r="B85" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C85" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D85">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="E85">
         <v>2</v>
       </c>
       <c r="F85">
-        <v>7023</v>
+        <v>7021</v>
       </c>
       <c r="G85">
         <v>9999</v>
@@ -3382,22 +3398,22 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A86">
-        <v>7024</v>
+        <v>7022</v>
       </c>
       <c r="B86" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C86" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D86">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="E86">
         <v>2</v>
       </c>
       <c r="F86">
-        <v>7024</v>
+        <v>7022</v>
       </c>
       <c r="G86">
         <v>9999</v>
@@ -3405,22 +3421,22 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A87">
-        <v>7025</v>
+        <v>7023</v>
       </c>
       <c r="B87" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C87" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D87">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="E87">
         <v>2</v>
       </c>
       <c r="F87">
-        <v>7025</v>
+        <v>7023</v>
       </c>
       <c r="G87">
         <v>9999</v>
@@ -3428,22 +3444,22 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A88">
-        <v>7026</v>
+        <v>7024</v>
       </c>
       <c r="B88" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C88" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="D88">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="E88">
         <v>2</v>
       </c>
       <c r="F88">
-        <v>7026</v>
+        <v>7024</v>
       </c>
       <c r="G88">
         <v>9999</v>
@@ -3451,22 +3467,22 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A89">
-        <v>7027</v>
+        <v>7025</v>
       </c>
       <c r="B89" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C89" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="D89">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="E89">
         <v>2</v>
       </c>
       <c r="F89">
-        <v>7027</v>
+        <v>7025</v>
       </c>
       <c r="G89">
         <v>9999</v>
@@ -3474,22 +3490,22 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A90">
-        <v>7028</v>
+        <v>7026</v>
       </c>
       <c r="B90" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C90" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D90">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="E90">
         <v>2</v>
       </c>
       <c r="F90">
-        <v>7028</v>
+        <v>7026</v>
       </c>
       <c r="G90">
         <v>9999</v>
@@ -3497,22 +3513,22 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A91">
-        <v>7029</v>
+        <v>7027</v>
       </c>
       <c r="B91" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C91" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D91">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="E91">
         <v>2</v>
       </c>
       <c r="F91">
-        <v>7029</v>
+        <v>7027</v>
       </c>
       <c r="G91">
         <v>9999</v>
@@ -3520,22 +3536,22 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A92">
-        <v>7030</v>
+        <v>7028</v>
       </c>
       <c r="B92" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C92" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D92">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="E92">
         <v>2</v>
       </c>
       <c r="F92">
-        <v>7030</v>
+        <v>7028</v>
       </c>
       <c r="G92">
         <v>9999</v>
@@ -3543,52 +3559,98 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A93">
-        <v>9000</v>
+        <v>7029</v>
       </c>
       <c r="B93" t="s">
-        <v>68</v>
+        <v>196</v>
       </c>
       <c r="C93" t="s">
-        <v>66</v>
+        <v>201</v>
       </c>
       <c r="D93">
-        <v>90</v>
+        <v>3001</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="F93">
+        <v>7029</v>
       </c>
       <c r="G93">
-        <v>9999999</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A94">
-        <v>9001</v>
+        <v>7030</v>
       </c>
       <c r="B94" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="C94" t="s">
-        <v>67</v>
+        <v>202</v>
       </c>
       <c r="D94">
-        <v>91</v>
+        <v>3001</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
+      </c>
+      <c r="F94">
+        <v>7030</v>
       </c>
       <c r="G94">
-        <v>9999999</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A95">
+        <v>9000</v>
+      </c>
+      <c r="B95" t="s">
+        <v>68</v>
+      </c>
+      <c r="C95" t="s">
+        <v>66</v>
+      </c>
+      <c r="D95">
+        <v>90</v>
+      </c>
+      <c r="G95">
+        <v>9999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>9001</v>
+      </c>
+      <c r="B96" t="s">
+        <v>69</v>
+      </c>
+      <c r="C96" t="s">
+        <v>67</v>
+      </c>
+      <c r="D96">
+        <v>91</v>
+      </c>
+      <c r="G96">
+        <v>9999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A97">
         <v>9002</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B97" t="s">
         <v>70</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C97" t="s">
         <v>72</v>
       </c>
-      <c r="D95">
+      <c r="D97">
         <v>92</v>
       </c>
-      <c r="G95">
+      <c r="G97">
         <v>9999999</v>
       </c>
     </row>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1BD1E7-F14A-494C-8DF5-BEB40BADF27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4A330E-438E-4E35-8D29-82BB443D279C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="-28875" yWindow="3645" windowWidth="18495" windowHeight="10515" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,15 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -876,16 +867,9 @@
     <t>Textures/object_2d_039</t>
   </si>
   <si>
-    <t>ランタン</t>
-  </si>
-  <si>
     <t>あみあみライト</t>
   </si>
   <si>
-    <t>キャンドルライト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>黄色の灯ブロック</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1017,6 +1001,23 @@
   </si>
   <si>
     <t>Textures/object_3d_017</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月の灯り</t>
+    <rPh sb="0" eb="1">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>和紙ライト</t>
+    <rPh sb="0" eb="2">
+      <t>ワシ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1479,20 +1480,20 @@
   <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N86" sqref="N86"/>
+      <selection pane="bottomRight" activeCell="A36" sqref="A36:A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1518,7 +1519,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1532,7 +1533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1555,7 +1556,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1578,7 +1579,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1601,7 +1602,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1624,7 +1625,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1647,12 +1648,12 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="C8" t="s">
         <v>159</v>
@@ -1670,12 +1671,12 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C9" t="s">
         <v>160</v>
@@ -1693,12 +1694,12 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="C10" t="s">
         <v>161</v>
@@ -1716,7 +1717,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>101</v>
       </c>
@@ -1739,7 +1740,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>102</v>
       </c>
@@ -1762,7 +1763,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>103</v>
       </c>
@@ -1785,7 +1786,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>104</v>
       </c>
@@ -1808,7 +1809,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>105</v>
       </c>
@@ -1831,7 +1832,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>106</v>
       </c>
@@ -1854,7 +1855,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>107</v>
       </c>
@@ -1877,7 +1878,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>108</v>
       </c>
@@ -1900,7 +1901,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>109</v>
       </c>
@@ -1923,7 +1924,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>110</v>
       </c>
@@ -1946,7 +1947,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>111</v>
       </c>
@@ -1969,7 +1970,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>112</v>
       </c>
@@ -1992,7 +1993,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>113</v>
       </c>
@@ -2015,7 +2016,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>114</v>
       </c>
@@ -2038,7 +2039,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>115</v>
       </c>
@@ -2061,7 +2062,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>116</v>
       </c>
@@ -2084,7 +2085,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>117</v>
       </c>
@@ -2107,7 +2108,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>118</v>
       </c>
@@ -2130,7 +2131,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>123</v>
       </c>
@@ -2153,7 +2154,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>124</v>
       </c>
@@ -2176,7 +2177,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>125</v>
       </c>
@@ -2199,7 +2200,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>126</v>
       </c>
@@ -2222,7 +2223,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>127</v>
       </c>
@@ -2245,7 +2246,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>128</v>
       </c>
@@ -2268,7 +2269,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>129</v>
       </c>
@@ -2291,12 +2292,12 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>134</v>
       </c>
       <c r="B36" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C36" t="s">
         <v>162</v>
@@ -2314,12 +2315,12 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>135</v>
       </c>
       <c r="B37" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C37" t="s">
         <v>163</v>
@@ -2337,12 +2338,12 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>136</v>
       </c>
       <c r="B38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C38" t="s">
         <v>164</v>
@@ -2360,12 +2361,12 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>137</v>
       </c>
       <c r="B39" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C39" t="s">
         <v>165</v>
@@ -2383,12 +2384,12 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>138</v>
       </c>
       <c r="B40" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C40" t="s">
         <v>166</v>
@@ -2406,12 +2407,12 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>139</v>
       </c>
       <c r="B41" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C41" t="s">
         <v>167</v>
@@ -2429,7 +2430,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>500</v>
       </c>
@@ -2452,7 +2453,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>501</v>
       </c>
@@ -2475,7 +2476,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>502</v>
       </c>
@@ -2498,7 +2499,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>503</v>
       </c>
@@ -2521,7 +2522,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>504</v>
       </c>
@@ -2544,7 +2545,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>505</v>
       </c>
@@ -2567,7 +2568,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>506</v>
       </c>
@@ -2590,7 +2591,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>507</v>
       </c>
@@ -2613,7 +2614,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>508</v>
       </c>
@@ -2636,7 +2637,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>509</v>
       </c>
@@ -2659,7 +2660,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>550</v>
       </c>
@@ -2682,7 +2683,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>551</v>
       </c>
@@ -2705,7 +2706,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>552</v>
       </c>
@@ -2728,7 +2729,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>553</v>
       </c>
@@ -2751,7 +2752,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>554</v>
       </c>
@@ -2774,7 +2775,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>555</v>
       </c>
@@ -2797,7 +2798,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>556</v>
       </c>
@@ -2820,7 +2821,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>557</v>
       </c>
@@ -2843,7 +2844,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>558</v>
       </c>
@@ -2866,7 +2867,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>559</v>
       </c>
@@ -2889,7 +2890,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>600</v>
       </c>
@@ -2912,7 +2913,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>1001</v>
       </c>
@@ -2932,7 +2933,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>1002</v>
       </c>
@@ -2952,7 +2953,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>1003</v>
       </c>
@@ -2972,7 +2973,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>1004</v>
       </c>
@@ -2992,7 +2993,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>1005</v>
       </c>
@@ -3012,7 +3013,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>1006</v>
       </c>
@@ -3032,7 +3033,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>1007</v>
       </c>
@@ -3052,7 +3053,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>1008</v>
       </c>
@@ -3072,7 +3073,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>1009</v>
       </c>
@@ -3092,7 +3093,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>1010</v>
       </c>
@@ -3112,7 +3113,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>1011</v>
       </c>
@@ -3132,7 +3133,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>1012</v>
       </c>
@@ -3152,7 +3153,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>1013</v>
       </c>
@@ -3172,7 +3173,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>3000</v>
       </c>
@@ -3192,7 +3193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>3001</v>
       </c>
@@ -3212,7 +3213,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>3002</v>
       </c>
@@ -3235,7 +3236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>3003</v>
       </c>
@@ -3258,15 +3259,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>7016</v>
       </c>
       <c r="B80" t="s">
+        <v>201</v>
+      </c>
+      <c r="C80" t="s">
         <v>203</v>
-      </c>
-      <c r="C80" t="s">
-        <v>205</v>
       </c>
       <c r="D80">
         <v>3001</v>
@@ -3281,15 +3282,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>7017</v>
       </c>
       <c r="B81" t="s">
+        <v>202</v>
+      </c>
+      <c r="C81" t="s">
         <v>204</v>
-      </c>
-      <c r="C81" t="s">
-        <v>206</v>
       </c>
       <c r="D81">
         <v>3001</v>
@@ -3304,15 +3305,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>7018</v>
       </c>
       <c r="B82" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C82" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D82">
         <v>3001</v>
@@ -3327,15 +3328,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>7019</v>
       </c>
       <c r="B83" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C83" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D83">
         <v>3001</v>
@@ -3350,15 +3351,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>7020</v>
       </c>
       <c r="B84" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C84" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D84">
         <v>3001</v>
@@ -3373,15 +3374,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>7021</v>
       </c>
       <c r="B85" t="s">
+        <v>181</v>
+      </c>
+      <c r="C85" t="s">
         <v>183</v>
-      </c>
-      <c r="C85" t="s">
-        <v>185</v>
       </c>
       <c r="D85">
         <v>3001</v>
@@ -3396,15 +3397,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>7022</v>
       </c>
       <c r="B86" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C86" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D86">
         <v>3001</v>
@@ -3419,15 +3420,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>7023</v>
       </c>
       <c r="B87" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C87" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D87">
         <v>3001</v>
@@ -3442,15 +3443,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>7024</v>
       </c>
       <c r="B88" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C88" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D88">
         <v>3001</v>
@@ -3465,15 +3466,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>7025</v>
       </c>
       <c r="B89" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C89" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D89">
         <v>3001</v>
@@ -3488,15 +3489,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>7026</v>
       </c>
       <c r="B90" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C90" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D90">
         <v>3001</v>
@@ -3511,15 +3512,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>7027</v>
       </c>
       <c r="B91" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C91" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D91">
         <v>3001</v>
@@ -3534,15 +3535,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>7028</v>
       </c>
       <c r="B92" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C92" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D92">
         <v>3001</v>
@@ -3557,15 +3558,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>7029</v>
       </c>
       <c r="B93" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C93" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D93">
         <v>3001</v>
@@ -3580,15 +3581,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>7030</v>
       </c>
       <c r="B94" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C94" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D94">
         <v>3001</v>
@@ -3603,7 +3604,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>9000</v>
       </c>
@@ -3620,7 +3621,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>9001</v>
       </c>
@@ -3637,7 +3638,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>9002</v>
       </c>
@@ -3672,83 +3673,83 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.125" customWidth="1"/>
-    <col min="2" max="2" width="5.875" customWidth="1"/>
+    <col min="1" max="1" width="20.09765625" customWidth="1"/>
+    <col min="2" max="2" width="5.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>98</v>
       </c>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4A330E-438E-4E35-8D29-82BB443D279C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9201C458-30EC-450F-BBD5-1A7BE1D1E833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28875" yWindow="3645" windowWidth="18495" windowHeight="10515" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="4200" yWindow="1788" windowWidth="17280" windowHeight="8964" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -988,14 +988,6 @@
     <t>Textures/object_2d_030</t>
   </si>
   <si>
-    <t>ぴーちゃんのぬいぐるみ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ひよこっずのぬいぐるみ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Textures/object_3d_016</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1018,6 +1010,14 @@
     <rPh sb="0" eb="2">
       <t>ワシ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぴーちゃんぬいぐるみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひよこっずぬいぐるみ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1480,10 +1480,10 @@
   <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A36" sqref="A36:A41"/>
+      <selection pane="bottomRight" activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1653,7 +1653,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C8" t="s">
         <v>159</v>
@@ -1699,7 +1699,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C10" t="s">
         <v>161</v>
@@ -3264,10 +3264,10 @@
         <v>7016</v>
       </c>
       <c r="B80" t="s">
+        <v>205</v>
+      </c>
+      <c r="C80" t="s">
         <v>201</v>
-      </c>
-      <c r="C80" t="s">
-        <v>203</v>
       </c>
       <c r="D80">
         <v>3001</v>
@@ -3287,10 +3287,10 @@
         <v>7017</v>
       </c>
       <c r="B81" t="s">
+        <v>206</v>
+      </c>
+      <c r="C81" t="s">
         <v>202</v>
-      </c>
-      <c r="C81" t="s">
-        <v>204</v>
       </c>
       <c r="D81">
         <v>3001</v>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9201C458-30EC-450F-BBD5-1A7BE1D1E833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8235D81-67B6-4B83-85CF-102706F768A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="1788" windowWidth="17280" windowHeight="8964" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="2835" yWindow="2625" windowWidth="24525" windowHeight="12975" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="211">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -536,19 +536,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Entity設定ファイルのID（関連するEntityがある場合）</t>
-    <rPh sb="6" eb="8">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>最大の数</t>
     <rPh sb="0" eb="2">
       <t>サイダイ</t>
@@ -1018,6 +1005,50 @@
   </si>
   <si>
     <t>ひよこっずぬいぐるみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>剣</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弓</t>
+    <rPh sb="0" eb="1">
+      <t>ユミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装備の場合（Equipment設定ファイルのID）</t>
+    <rPh sb="0" eb="2">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関連するEntityがある場合（Entity設定ファイルのID）</t>
+    <rPh sb="0" eb="2">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防具</t>
+    <rPh sb="0" eb="2">
+      <t>ボウグ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1025,7 +1056,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1059,6 +1090,13 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1130,7 +1168,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1144,6 +1182,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1164,8 +1205,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:H97" totalsRowShown="0">
-  <autoFilter ref="A1:H97" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:H100" totalsRowShown="0">
+  <autoFilter ref="A1:H100" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Name"/>
@@ -1477,23 +1518,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B82" sqref="B82"/>
+      <selection pane="bottomRight" activeCell="K97" sqref="K97:L97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="17.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1516,10 +1557,10 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1533,7 +1574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1556,7 +1597,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1579,7 +1620,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1602,7 +1643,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1625,7 +1666,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1648,15 +1689,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D8">
         <v>2101</v>
@@ -1671,15 +1712,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D9">
         <v>2101</v>
@@ -1694,15 +1735,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D10">
         <v>2101</v>
@@ -1717,7 +1758,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>101</v>
       </c>
@@ -1740,7 +1781,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>102</v>
       </c>
@@ -1763,7 +1804,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>103</v>
       </c>
@@ -1786,7 +1827,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>104</v>
       </c>
@@ -1809,7 +1850,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>105</v>
       </c>
@@ -1832,7 +1873,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>106</v>
       </c>
@@ -1855,7 +1896,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>107</v>
       </c>
@@ -1878,7 +1919,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>108</v>
       </c>
@@ -1901,7 +1942,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>109</v>
       </c>
@@ -1924,7 +1965,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>110</v>
       </c>
@@ -1947,7 +1988,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>111</v>
       </c>
@@ -1970,7 +2011,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>112</v>
       </c>
@@ -1993,7 +2034,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>113</v>
       </c>
@@ -2016,7 +2057,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>114</v>
       </c>
@@ -2039,7 +2080,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>115</v>
       </c>
@@ -2062,7 +2103,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>116</v>
       </c>
@@ -2085,7 +2126,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>117</v>
       </c>
@@ -2108,7 +2149,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>118</v>
       </c>
@@ -2116,7 +2157,7 @@
         <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -2131,15 +2172,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>123</v>
       </c>
       <c r="B29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2154,15 +2195,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>124</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2177,15 +2218,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>125</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2200,15 +2241,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>126</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2223,15 +2264,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>127</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2246,15 +2287,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>128</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -2269,15 +2310,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>129</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -2292,15 +2333,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>134</v>
       </c>
       <c r="B36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2315,15 +2356,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>135</v>
       </c>
       <c r="B37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -2338,15 +2379,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>136</v>
       </c>
       <c r="B38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -2361,15 +2402,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>137</v>
       </c>
       <c r="B39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -2384,15 +2425,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>138</v>
       </c>
       <c r="B40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -2407,15 +2448,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>139</v>
       </c>
       <c r="B41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -2430,15 +2471,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>500</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D42">
         <v>3</v>
@@ -2453,15 +2494,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>501</v>
       </c>
       <c r="B43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D43">
         <v>3</v>
@@ -2476,15 +2517,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>502</v>
       </c>
       <c r="B44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -2499,15 +2540,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>503</v>
       </c>
       <c r="B45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -2522,15 +2563,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>504</v>
       </c>
       <c r="B46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D46">
         <v>3</v>
@@ -2545,15 +2586,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>505</v>
       </c>
       <c r="B47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D47">
         <v>3</v>
@@ -2568,15 +2609,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>506</v>
       </c>
       <c r="B48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D48">
         <v>3</v>
@@ -2591,15 +2632,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>507</v>
       </c>
       <c r="B49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D49">
         <v>3</v>
@@ -2614,15 +2655,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>508</v>
       </c>
       <c r="B50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D50">
         <v>3</v>
@@ -2637,15 +2678,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>509</v>
       </c>
       <c r="B51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D51">
         <v>3</v>
@@ -2660,15 +2701,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>550</v>
       </c>
       <c r="B52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D52">
         <v>4</v>
@@ -2683,15 +2724,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>551</v>
       </c>
       <c r="B53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C53" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D53">
         <v>4</v>
@@ -2706,15 +2747,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>552</v>
       </c>
       <c r="B54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D54">
         <v>4</v>
@@ -2729,15 +2770,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>553</v>
       </c>
       <c r="B55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D55">
         <v>4</v>
@@ -2752,15 +2793,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>554</v>
       </c>
       <c r="B56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D56">
         <v>4</v>
@@ -2775,15 +2816,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>555</v>
       </c>
       <c r="B57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D57">
         <v>4</v>
@@ -2798,15 +2839,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>556</v>
       </c>
       <c r="B58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C58" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D58">
         <v>4</v>
@@ -2821,15 +2862,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>557</v>
       </c>
       <c r="B59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D59">
         <v>4</v>
@@ -2844,15 +2885,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>558</v>
       </c>
       <c r="B60" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D60">
         <v>4</v>
@@ -2867,15 +2908,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>559</v>
       </c>
       <c r="B61" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C61" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D61">
         <v>4</v>
@@ -2890,15 +2931,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>600</v>
       </c>
       <c r="B62" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D62">
         <v>5</v>
@@ -2913,7 +2954,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>1001</v>
       </c>
@@ -2933,7 +2974,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>1002</v>
       </c>
@@ -2953,7 +2994,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>1003</v>
       </c>
@@ -2973,7 +3014,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>1004</v>
       </c>
@@ -2993,7 +3034,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>1005</v>
       </c>
@@ -3013,7 +3054,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>1006</v>
       </c>
@@ -3033,7 +3074,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>1007</v>
       </c>
@@ -3053,7 +3094,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>1008</v>
       </c>
@@ -3073,7 +3114,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>1009</v>
       </c>
@@ -3093,7 +3134,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>1010</v>
       </c>
@@ -3113,7 +3154,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>1011</v>
       </c>
@@ -3133,7 +3174,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>1012</v>
       </c>
@@ -3153,7 +3194,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>1013</v>
       </c>
@@ -3173,7 +3214,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>3000</v>
       </c>
@@ -3193,7 +3234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>3001</v>
       </c>
@@ -3213,7 +3254,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>3002</v>
       </c>
@@ -3236,15 +3277,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>3003</v>
       </c>
       <c r="B79" t="s">
+        <v>156</v>
+      </c>
+      <c r="C79" t="s">
         <v>157</v>
-      </c>
-      <c r="C79" t="s">
-        <v>158</v>
       </c>
       <c r="D79">
         <v>53</v>
@@ -3259,15 +3300,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>7016</v>
       </c>
       <c r="B80" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C80" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D80">
         <v>3001</v>
@@ -3282,15 +3323,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>7017</v>
       </c>
       <c r="B81" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C81" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D81">
         <v>3001</v>
@@ -3305,15 +3346,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>7018</v>
       </c>
       <c r="B82" t="s">
+        <v>174</v>
+      </c>
+      <c r="C82" t="s">
         <v>175</v>
-      </c>
-      <c r="C82" t="s">
-        <v>176</v>
       </c>
       <c r="D82">
         <v>3001</v>
@@ -3328,15 +3369,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>7019</v>
       </c>
       <c r="B83" t="s">
+        <v>176</v>
+      </c>
+      <c r="C83" t="s">
         <v>177</v>
-      </c>
-      <c r="C83" t="s">
-        <v>178</v>
       </c>
       <c r="D83">
         <v>3001</v>
@@ -3351,15 +3392,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>7020</v>
       </c>
       <c r="B84" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C84" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D84">
         <v>3001</v>
@@ -3374,15 +3415,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>7021</v>
       </c>
       <c r="B85" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C85" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D85">
         <v>3001</v>
@@ -3397,15 +3438,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>7022</v>
       </c>
       <c r="B86" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C86" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D86">
         <v>3001</v>
@@ -3420,15 +3461,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>7023</v>
       </c>
       <c r="B87" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C87" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D87">
         <v>3001</v>
@@ -3443,15 +3484,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>7024</v>
       </c>
       <c r="B88" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C88" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D88">
         <v>3001</v>
@@ -3466,15 +3507,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>7025</v>
       </c>
       <c r="B89" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C89" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D89">
         <v>3001</v>
@@ -3489,15 +3530,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>7026</v>
       </c>
       <c r="B90" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C90" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D90">
         <v>3001</v>
@@ -3512,15 +3553,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>7027</v>
       </c>
       <c r="B91" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C91" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D91">
         <v>3001</v>
@@ -3535,15 +3576,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>7028</v>
       </c>
       <c r="B92" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C92" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D92">
         <v>3001</v>
@@ -3558,15 +3599,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>7029</v>
       </c>
       <c r="B93" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C93" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D93">
         <v>3001</v>
@@ -3581,15 +3622,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>7030</v>
       </c>
       <c r="B94" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C94" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D94">
         <v>3001</v>
@@ -3604,7 +3645,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>9000</v>
       </c>
@@ -3621,7 +3662,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>9001</v>
       </c>
@@ -3638,7 +3679,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>9002</v>
       </c>
@@ -3653,6 +3694,75 @@
       </c>
       <c r="G97">
         <v>9999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>10001</v>
+      </c>
+      <c r="B98" t="s">
+        <v>206</v>
+      </c>
+      <c r="C98" t="s">
+        <v>72</v>
+      </c>
+      <c r="D98">
+        <v>5001</v>
+      </c>
+      <c r="E98">
+        <v>5</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>10002</v>
+      </c>
+      <c r="B99" t="s">
+        <v>207</v>
+      </c>
+      <c r="C99" t="s">
+        <v>72</v>
+      </c>
+      <c r="D99">
+        <v>5001</v>
+      </c>
+      <c r="E99">
+        <v>5</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <v>11001</v>
+      </c>
+      <c r="B100" t="s">
+        <v>210</v>
+      </c>
+      <c r="C100" t="s">
+        <v>199</v>
+      </c>
+      <c r="D100">
+        <v>5002</v>
+      </c>
+      <c r="E100">
+        <v>5</v>
+      </c>
+      <c r="F100">
+        <v>3</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3667,91 +3777,96 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0258133-42E6-4606-8D6B-87E692C81D88}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.09765625" customWidth="1"/>
-    <col min="2" max="2" width="5.8984375" customWidth="1"/>
+    <col min="1" max="1" width="20.125" customWidth="1"/>
+    <col min="2" max="2" width="5.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A15" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9201C458-30EC-450F-BBD5-1A7BE1D1E833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648914A4-CA3E-42E8-855A-9F76D4E668AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="1788" windowWidth="17280" windowHeight="8964" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="210">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1018,6 +1018,27 @@
   </si>
   <si>
     <t>ひよこっずぬいぐるみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>剣</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弓</t>
+    <rPh sb="0" eb="1">
+      <t>ユミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防具</t>
+    <rPh sb="0" eb="2">
+      <t>ボウグ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1164,8 +1185,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:H97" totalsRowShown="0">
-  <autoFilter ref="A1:H97" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:H100" totalsRowShown="0">
+  <autoFilter ref="A1:H100" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Name"/>
@@ -1477,23 +1498,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B82" sqref="B82"/>
+      <selection pane="bottomRight" activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="17.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1519,7 +1540,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1533,7 +1554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1556,7 +1577,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1579,7 +1600,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1602,7 +1623,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1625,7 +1646,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1648,7 +1669,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1671,7 +1692,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1694,7 +1715,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1717,7 +1738,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>101</v>
       </c>
@@ -1740,7 +1761,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>102</v>
       </c>
@@ -1763,7 +1784,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>103</v>
       </c>
@@ -1786,7 +1807,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>104</v>
       </c>
@@ -1809,7 +1830,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>105</v>
       </c>
@@ -1832,7 +1853,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>106</v>
       </c>
@@ -1855,7 +1876,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>107</v>
       </c>
@@ -1878,7 +1899,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>108</v>
       </c>
@@ -1901,7 +1922,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>109</v>
       </c>
@@ -1924,7 +1945,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>110</v>
       </c>
@@ -1947,7 +1968,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>111</v>
       </c>
@@ -1970,7 +1991,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>112</v>
       </c>
@@ -1993,7 +2014,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>113</v>
       </c>
@@ -2016,7 +2037,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>114</v>
       </c>
@@ -2039,7 +2060,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>115</v>
       </c>
@@ -2062,7 +2083,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>116</v>
       </c>
@@ -2085,7 +2106,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>117</v>
       </c>
@@ -2108,7 +2129,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>118</v>
       </c>
@@ -2131,7 +2152,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>123</v>
       </c>
@@ -2154,7 +2175,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>124</v>
       </c>
@@ -2177,7 +2198,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>125</v>
       </c>
@@ -2200,7 +2221,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>126</v>
       </c>
@@ -2223,7 +2244,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>127</v>
       </c>
@@ -2246,7 +2267,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>128</v>
       </c>
@@ -2269,7 +2290,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>129</v>
       </c>
@@ -2292,7 +2313,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>134</v>
       </c>
@@ -2315,7 +2336,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>135</v>
       </c>
@@ -2338,7 +2359,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>136</v>
       </c>
@@ -2361,7 +2382,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>137</v>
       </c>
@@ -2384,7 +2405,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>138</v>
       </c>
@@ -2407,7 +2428,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>139</v>
       </c>
@@ -2430,7 +2451,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>500</v>
       </c>
@@ -2453,7 +2474,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>501</v>
       </c>
@@ -2476,7 +2497,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>502</v>
       </c>
@@ -2499,7 +2520,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>503</v>
       </c>
@@ -2522,7 +2543,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>504</v>
       </c>
@@ -2545,7 +2566,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>505</v>
       </c>
@@ -2568,7 +2589,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>506</v>
       </c>
@@ -2591,7 +2612,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>507</v>
       </c>
@@ -2614,7 +2635,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>508</v>
       </c>
@@ -2637,7 +2658,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>509</v>
       </c>
@@ -2660,7 +2681,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>550</v>
       </c>
@@ -2683,7 +2704,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>551</v>
       </c>
@@ -2706,7 +2727,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>552</v>
       </c>
@@ -2729,7 +2750,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>553</v>
       </c>
@@ -2752,7 +2773,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>554</v>
       </c>
@@ -2775,7 +2796,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>555</v>
       </c>
@@ -2798,7 +2819,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>556</v>
       </c>
@@ -2821,7 +2842,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>557</v>
       </c>
@@ -2844,7 +2865,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>558</v>
       </c>
@@ -2867,7 +2888,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>559</v>
       </c>
@@ -2890,7 +2911,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>600</v>
       </c>
@@ -2913,7 +2934,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>1001</v>
       </c>
@@ -2933,7 +2954,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>1002</v>
       </c>
@@ -2953,7 +2974,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>1003</v>
       </c>
@@ -2973,7 +2994,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>1004</v>
       </c>
@@ -2993,7 +3014,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>1005</v>
       </c>
@@ -3013,7 +3034,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>1006</v>
       </c>
@@ -3033,7 +3054,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>1007</v>
       </c>
@@ -3053,7 +3074,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>1008</v>
       </c>
@@ -3073,7 +3094,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>1009</v>
       </c>
@@ -3093,7 +3114,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>1010</v>
       </c>
@@ -3113,7 +3134,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>1011</v>
       </c>
@@ -3133,7 +3154,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>1012</v>
       </c>
@@ -3153,7 +3174,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>1013</v>
       </c>
@@ -3173,7 +3194,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>3000</v>
       </c>
@@ -3193,7 +3214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>3001</v>
       </c>
@@ -3213,7 +3234,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>3002</v>
       </c>
@@ -3236,7 +3257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>3003</v>
       </c>
@@ -3259,7 +3280,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>7016</v>
       </c>
@@ -3282,7 +3303,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>7017</v>
       </c>
@@ -3305,7 +3326,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>7018</v>
       </c>
@@ -3328,7 +3349,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>7019</v>
       </c>
@@ -3351,7 +3372,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>7020</v>
       </c>
@@ -3374,7 +3395,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>7021</v>
       </c>
@@ -3397,7 +3418,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>7022</v>
       </c>
@@ -3420,7 +3441,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>7023</v>
       </c>
@@ -3443,7 +3464,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>7024</v>
       </c>
@@ -3466,7 +3487,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>7025</v>
       </c>
@@ -3489,7 +3510,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>7026</v>
       </c>
@@ -3512,7 +3533,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>7027</v>
       </c>
@@ -3535,7 +3556,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>7028</v>
       </c>
@@ -3558,7 +3579,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>7029</v>
       </c>
@@ -3581,7 +3602,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>7030</v>
       </c>
@@ -3604,7 +3625,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>9000</v>
       </c>
@@ -3621,7 +3642,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>9001</v>
       </c>
@@ -3638,7 +3659,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>9002</v>
       </c>
@@ -3653,6 +3674,75 @@
       </c>
       <c r="G97">
         <v>9999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>10001</v>
+      </c>
+      <c r="B98" t="s">
+        <v>207</v>
+      </c>
+      <c r="C98" t="s">
+        <v>72</v>
+      </c>
+      <c r="D98">
+        <v>5001</v>
+      </c>
+      <c r="E98">
+        <v>5</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>10002</v>
+      </c>
+      <c r="B99" t="s">
+        <v>208</v>
+      </c>
+      <c r="C99" t="s">
+        <v>72</v>
+      </c>
+      <c r="D99">
+        <v>5001</v>
+      </c>
+      <c r="E99">
+        <v>5</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <v>11001</v>
+      </c>
+      <c r="B100" t="s">
+        <v>209</v>
+      </c>
+      <c r="C100" t="s">
+        <v>200</v>
+      </c>
+      <c r="D100">
+        <v>5002</v>
+      </c>
+      <c r="E100">
+        <v>5</v>
+      </c>
+      <c r="F100">
+        <v>3</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3673,83 +3763,83 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.09765625" customWidth="1"/>
-    <col min="2" max="2" width="5.8984375" customWidth="1"/>
+    <col min="1" max="1" width="20.125" customWidth="1"/>
+    <col min="2" max="2" width="5.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>98</v>
       </c>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9201C458-30EC-450F-BBD5-1A7BE1D1E833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F30179-5F3F-4841-A475-E50E29E72202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="1788" windowWidth="17280" windowHeight="8964" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="209">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1018,6 +1025,14 @@
   </si>
   <si>
     <t>ひよこっずぬいぐるみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チケット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/ticket_2d_001</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1164,8 +1179,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:H97" totalsRowShown="0">
-  <autoFilter ref="A1:H97" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:H98" totalsRowShown="0">
+  <autoFilter ref="A1:H98" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Name"/>
@@ -1477,23 +1492,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B82" sqref="B82"/>
+      <selection pane="bottomRight" activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="17.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.25" customWidth="1"/>
+    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1519,7 +1534,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1533,7 +1548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1556,7 +1571,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1579,7 +1594,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1602,7 +1617,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1625,7 +1640,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1648,7 +1663,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1671,7 +1686,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1694,7 +1709,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1717,7 +1732,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>101</v>
       </c>
@@ -1740,7 +1755,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>102</v>
       </c>
@@ -1763,7 +1778,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>103</v>
       </c>
@@ -1786,7 +1801,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>104</v>
       </c>
@@ -1809,7 +1824,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>105</v>
       </c>
@@ -1832,7 +1847,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>106</v>
       </c>
@@ -1855,7 +1870,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>107</v>
       </c>
@@ -1878,7 +1893,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>108</v>
       </c>
@@ -1901,7 +1916,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>109</v>
       </c>
@@ -1924,7 +1939,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>110</v>
       </c>
@@ -1947,7 +1962,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>111</v>
       </c>
@@ -1970,7 +1985,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>112</v>
       </c>
@@ -1993,7 +2008,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>113</v>
       </c>
@@ -2016,7 +2031,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>114</v>
       </c>
@@ -2039,7 +2054,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>115</v>
       </c>
@@ -2062,7 +2077,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>116</v>
       </c>
@@ -2085,7 +2100,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>117</v>
       </c>
@@ -2108,7 +2123,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>118</v>
       </c>
@@ -2131,7 +2146,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>123</v>
       </c>
@@ -2154,7 +2169,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>124</v>
       </c>
@@ -2177,7 +2192,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>125</v>
       </c>
@@ -2200,7 +2215,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>126</v>
       </c>
@@ -2223,7 +2238,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>127</v>
       </c>
@@ -2246,7 +2261,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>128</v>
       </c>
@@ -2269,7 +2284,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>129</v>
       </c>
@@ -2292,7 +2307,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>134</v>
       </c>
@@ -2315,7 +2330,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>135</v>
       </c>
@@ -2338,7 +2353,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>136</v>
       </c>
@@ -2361,7 +2376,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>137</v>
       </c>
@@ -2384,7 +2399,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>138</v>
       </c>
@@ -2407,7 +2422,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>139</v>
       </c>
@@ -2430,7 +2445,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>500</v>
       </c>
@@ -2453,7 +2468,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>501</v>
       </c>
@@ -2476,7 +2491,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>502</v>
       </c>
@@ -2499,7 +2514,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>503</v>
       </c>
@@ -2522,7 +2537,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>504</v>
       </c>
@@ -2545,7 +2560,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>505</v>
       </c>
@@ -2568,7 +2583,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>506</v>
       </c>
@@ -2591,7 +2606,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>507</v>
       </c>
@@ -2614,7 +2629,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>508</v>
       </c>
@@ -2637,7 +2652,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>509</v>
       </c>
@@ -2660,7 +2675,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>550</v>
       </c>
@@ -2683,7 +2698,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>551</v>
       </c>
@@ -2706,7 +2721,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>552</v>
       </c>
@@ -2729,7 +2744,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>553</v>
       </c>
@@ -2752,7 +2767,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>554</v>
       </c>
@@ -2775,7 +2790,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>555</v>
       </c>
@@ -2798,7 +2813,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>556</v>
       </c>
@@ -2821,7 +2836,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>557</v>
       </c>
@@ -2844,7 +2859,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>558</v>
       </c>
@@ -2867,7 +2882,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>559</v>
       </c>
@@ -2890,7 +2905,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>600</v>
       </c>
@@ -2913,7 +2928,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>1001</v>
       </c>
@@ -2933,7 +2948,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>1002</v>
       </c>
@@ -2953,7 +2968,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>1003</v>
       </c>
@@ -2973,7 +2988,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>1004</v>
       </c>
@@ -2993,7 +3008,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>1005</v>
       </c>
@@ -3013,7 +3028,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>1006</v>
       </c>
@@ -3033,7 +3048,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>1007</v>
       </c>
@@ -3053,7 +3068,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>1008</v>
       </c>
@@ -3073,7 +3088,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>1009</v>
       </c>
@@ -3093,7 +3108,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>1010</v>
       </c>
@@ -3113,7 +3128,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>1011</v>
       </c>
@@ -3133,7 +3148,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>1012</v>
       </c>
@@ -3153,7 +3168,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>1013</v>
       </c>
@@ -3173,7 +3188,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>3000</v>
       </c>
@@ -3193,7 +3208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>3001</v>
       </c>
@@ -3213,7 +3228,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>3002</v>
       </c>
@@ -3236,7 +3251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>3003</v>
       </c>
@@ -3259,7 +3274,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>7016</v>
       </c>
@@ -3282,7 +3297,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>7017</v>
       </c>
@@ -3305,7 +3320,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>7018</v>
       </c>
@@ -3328,7 +3343,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>7019</v>
       </c>
@@ -3351,7 +3366,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>7020</v>
       </c>
@@ -3374,7 +3389,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>7021</v>
       </c>
@@ -3397,7 +3412,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>7022</v>
       </c>
@@ -3420,7 +3435,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>7023</v>
       </c>
@@ -3443,7 +3458,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>7024</v>
       </c>
@@ -3466,7 +3481,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>7025</v>
       </c>
@@ -3489,7 +3504,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>7026</v>
       </c>
@@ -3512,7 +3527,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>7027</v>
       </c>
@@ -3535,7 +3550,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>7028</v>
       </c>
@@ -3558,7 +3573,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>7029</v>
       </c>
@@ -3581,7 +3596,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>7030</v>
       </c>
@@ -3604,7 +3619,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>9000</v>
       </c>
@@ -3621,7 +3636,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>9001</v>
       </c>
@@ -3638,7 +3653,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>9002</v>
       </c>
@@ -3652,6 +3667,23 @@
         <v>92</v>
       </c>
       <c r="G97">
+        <v>9999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>9003</v>
+      </c>
+      <c r="B98" t="s">
+        <v>207</v>
+      </c>
+      <c r="C98" t="s">
+        <v>208</v>
+      </c>
+      <c r="D98">
+        <v>93</v>
+      </c>
+      <c r="G98">
         <v>9999999</v>
       </c>
     </row>
@@ -3673,83 +3705,83 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.09765625" customWidth="1"/>
-    <col min="2" max="2" width="5.8984375" customWidth="1"/>
+    <col min="1" max="1" width="20.125" customWidth="1"/>
+    <col min="2" max="2" width="5.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>98</v>
       </c>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648914A4-CA3E-42E8-855A-9F76D4E668AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F74D4C-570B-4938-858A-5073F0926403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="212">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1039,6 +1039,14 @@
     <rPh sb="0" eb="2">
       <t>ボウグ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チケット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/ticket_2d_001</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1185,8 +1193,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:H100" totalsRowShown="0">
-  <autoFilter ref="A1:H100" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:H101" totalsRowShown="0">
+  <autoFilter ref="A1:H101" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Name"/>
@@ -1498,13 +1506,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I97" sqref="I97"/>
+      <selection pane="bottomRight" activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3678,33 +3686,27 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A98">
-        <v>10001</v>
+        <v>9003</v>
       </c>
       <c r="B98" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C98" t="s">
-        <v>72</v>
+        <v>211</v>
       </c>
       <c r="D98">
-        <v>5001</v>
-      </c>
-      <c r="E98">
-        <v>5</v>
-      </c>
-      <c r="F98">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>9999999</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A99">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="B99" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C99" t="s">
         <v>72</v>
@@ -3716,7 +3718,7 @@
         <v>5</v>
       </c>
       <c r="F99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -3724,24 +3726,47 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A100">
-        <v>11001</v>
+        <v>10002</v>
       </c>
       <c r="B100" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C100" t="s">
-        <v>200</v>
+        <v>72</v>
       </c>
       <c r="D100">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="E100">
         <v>5</v>
       </c>
       <c r="F100">
+        <v>2</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A101">
+        <v>11001</v>
+      </c>
+      <c r="B101" t="s">
+        <v>209</v>
+      </c>
+      <c r="C101" t="s">
+        <v>200</v>
+      </c>
+      <c r="D101">
+        <v>5002</v>
+      </c>
+      <c r="E101">
+        <v>5</v>
+      </c>
+      <c r="F101">
         <v>3</v>
       </c>
-      <c r="G100">
+      <c r="G101">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F74D4C-570B-4938-858A-5073F0926403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB48D31-0494-4C8B-995C-929F5543158F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
@@ -1046,7 +1046,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Textures/ticket_2d_001</t>
+    <t>Textures/itemcoin_2d_001</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1512,13 +1512,13 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F95" sqref="F95"/>
+      <selection pane="bottomRight" activeCell="M93" sqref="M93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB48D31-0494-4C8B-995C-929F5543158F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A737DFC-5627-4670-9190-12B5AD298CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
@@ -1035,18 +1035,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>防具</t>
-    <rPh sb="0" eb="2">
-      <t>ボウグ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>チケット</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Textures/itemcoin_2d_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>丈</t>
+    <rPh sb="0" eb="1">
+      <t>ジョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1512,7 +1512,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M93" sqref="M93"/>
+      <selection pane="bottomRight" activeCell="L93" sqref="L93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3689,10 +3689,10 @@
         <v>9003</v>
       </c>
       <c r="B98" t="s">
+        <v>209</v>
+      </c>
+      <c r="C98" t="s">
         <v>210</v>
-      </c>
-      <c r="C98" t="s">
-        <v>211</v>
       </c>
       <c r="D98">
         <v>93</v>
@@ -3729,7 +3729,7 @@
         <v>10002</v>
       </c>
       <c r="B100" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C100" t="s">
         <v>72</v>
@@ -3749,16 +3749,16 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A101">
-        <v>11001</v>
+        <v>10003</v>
       </c>
       <c r="B101" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C101" t="s">
         <v>200</v>
       </c>
       <c r="D101">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="E101">
         <v>5</v>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A737DFC-5627-4670-9190-12B5AD298CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F91A3CD-A610-409C-8C16-FD8D12B476BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="214">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1047,6 +1047,14 @@
     <rPh sb="0" eb="1">
       <t>ジョウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロイヤルコイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/itemcoin_2d_002</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1193,8 +1201,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:H101" totalsRowShown="0">
-  <autoFilter ref="A1:H101" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:H102" totalsRowShown="0">
+  <autoFilter ref="A1:H102" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Name"/>
@@ -1506,13 +1514,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L93" sqref="L93"/>
+      <selection pane="bottomRight" activeCell="J95" sqref="J95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3703,33 +3711,27 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A99">
-        <v>10001</v>
+        <v>9004</v>
       </c>
       <c r="B99" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C99" t="s">
-        <v>72</v>
+        <v>213</v>
       </c>
       <c r="D99">
-        <v>5001</v>
-      </c>
-      <c r="E99">
-        <v>5</v>
-      </c>
-      <c r="F99">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>9999999</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A100">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="B100" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C100" t="s">
         <v>72</v>
@@ -3741,7 +3743,7 @@
         <v>5</v>
       </c>
       <c r="F100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -3749,13 +3751,13 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A101">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B101" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C101" t="s">
-        <v>200</v>
+        <v>72</v>
       </c>
       <c r="D101">
         <v>5001</v>
@@ -3764,9 +3766,32 @@
         <v>5</v>
       </c>
       <c r="F101">
+        <v>2</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A102">
+        <v>10003</v>
+      </c>
+      <c r="B102" t="s">
+        <v>208</v>
+      </c>
+      <c r="C102" t="s">
+        <v>200</v>
+      </c>
+      <c r="D102">
+        <v>5001</v>
+      </c>
+      <c r="E102">
+        <v>5</v>
+      </c>
+      <c r="F102">
         <v>3</v>
       </c>
-      <c r="G101">
+      <c r="G102">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F91A3CD-A610-409C-8C16-FD8D12B476BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF9FC87-DE55-4739-8BB1-D914EB76A34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="216">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1035,10 +1035,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>チケット</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Textures/itemcoin_2d_001</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1055,6 +1051,21 @@
   </si>
   <si>
     <t>Textures/itemcoin_2d_002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3倍チケット</t>
+    <rPh sb="1" eb="2">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/itemcoin_2d_003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガチャチケット</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1201,8 +1212,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:H102" totalsRowShown="0">
-  <autoFilter ref="A1:H102" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:H103" totalsRowShown="0">
+  <autoFilter ref="A1:H103" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Name"/>
@@ -1514,13 +1525,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J95" sqref="J95"/>
+      <selection pane="bottomRight" activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3697,10 +3708,10 @@
         <v>9003</v>
       </c>
       <c r="B98" t="s">
+        <v>215</v>
+      </c>
+      <c r="C98" t="s">
         <v>209</v>
-      </c>
-      <c r="C98" t="s">
-        <v>210</v>
       </c>
       <c r="D98">
         <v>93</v>
@@ -3714,10 +3725,10 @@
         <v>9004</v>
       </c>
       <c r="B99" t="s">
+        <v>211</v>
+      </c>
+      <c r="C99" t="s">
         <v>212</v>
-      </c>
-      <c r="C99" t="s">
-        <v>213</v>
       </c>
       <c r="D99">
         <v>94</v>
@@ -3728,33 +3739,27 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A100">
-        <v>10001</v>
+        <v>9005</v>
       </c>
       <c r="B100" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C100" t="s">
-        <v>72</v>
+        <v>214</v>
       </c>
       <c r="D100">
-        <v>5001</v>
-      </c>
-      <c r="E100">
-        <v>5</v>
-      </c>
-      <c r="F100">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>9999999</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A101">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="B101" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C101" t="s">
         <v>72</v>
@@ -3766,7 +3771,7 @@
         <v>5</v>
       </c>
       <c r="F101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -3774,13 +3779,13 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A102">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B102" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C102" t="s">
-        <v>200</v>
+        <v>72</v>
       </c>
       <c r="D102">
         <v>5001</v>
@@ -3789,9 +3794,32 @@
         <v>5</v>
       </c>
       <c r="F102">
+        <v>2</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A103">
+        <v>10003</v>
+      </c>
+      <c r="B103" t="s">
+        <v>208</v>
+      </c>
+      <c r="C103" t="s">
+        <v>200</v>
+      </c>
+      <c r="D103">
+        <v>5001</v>
+      </c>
+      <c r="E103">
+        <v>5</v>
+      </c>
+      <c r="F103">
         <v>3</v>
       </c>
-      <c r="G102">
+      <c r="G103">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF9FC87-DE55-4739-8BB1-D914EB76A34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6712DA-C049-4329-8E51-EF6B2D557BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
@@ -21,12 +21,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="237">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1021,28 +1028,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>剣</t>
-    <rPh sb="0" eb="1">
-      <t>ケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>弓</t>
-    <rPh sb="0" eb="1">
-      <t>ユミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Textures/itemcoin_2d_001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>丈</t>
-    <rPh sb="0" eb="1">
-      <t>ジョウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1066,6 +1052,159 @@
   </si>
   <si>
     <t>ガチャチケット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木の剣</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木の杖</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木の弓</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ユミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/WandObject_2d_002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/WandObject_2d_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/WandObject_2d_003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/WandObject_2d_004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>剣(レア度3)(仮称)</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>杖(レア度3)(仮称)</t>
+    <rPh sb="0" eb="1">
+      <t>ツエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弓(レア度3)(仮称)</t>
+    <rPh sb="0" eb="1">
+      <t>ユミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/SwordObject_2d_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/BowObject_2d_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/SwordObject_2d_002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/BowObject_2d_002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/SwordObject_2d_003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/BowObject_2d_003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/SwordObject_2d_004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/BowObject_2d_004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>剣(レア度2)(2)(仮称)</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>杖(レア度2)(2)(仮称)</t>
+    <rPh sb="0" eb="1">
+      <t>ツエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弓(レア度2)(2)(仮称)</t>
+    <rPh sb="0" eb="1">
+      <t>ユミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>剣(レア度2)(1)(仮称)</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>杖(レア度2)(1)(仮称)</t>
+    <rPh sb="0" eb="1">
+      <t>ツエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弓(レア度2)(1)(仮称)</t>
+    <rPh sb="0" eb="1">
+      <t>ユミ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1113,7 +1252,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1124,6 +1263,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1178,7 +1323,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1192,6 +1337,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1212,8 +1360,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:H103" totalsRowShown="0">
-  <autoFilter ref="A1:H103" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:H112" totalsRowShown="0">
+  <autoFilter ref="A1:H112" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Name"/>
@@ -1525,18 +1673,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B99" sqref="B99"/>
+      <selection pane="bottomRight" activeCell="L112" sqref="L112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
@@ -3708,10 +3856,10 @@
         <v>9003</v>
       </c>
       <c r="B98" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C98" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D98">
         <v>93</v>
@@ -3725,10 +3873,10 @@
         <v>9004</v>
       </c>
       <c r="B99" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C99" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D99">
         <v>94</v>
@@ -3742,10 +3890,10 @@
         <v>9005</v>
       </c>
       <c r="B100" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C100" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D100">
         <v>95</v>
@@ -3755,14 +3903,14 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A101">
+      <c r="A101" s="5">
         <v>10001</v>
       </c>
       <c r="B101" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C101" t="s">
-        <v>72</v>
+        <v>223</v>
       </c>
       <c r="D101">
         <v>5001</v>
@@ -3778,14 +3926,14 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A102">
+      <c r="A102" s="5">
         <v>10002</v>
       </c>
       <c r="B102" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C102" t="s">
-        <v>72</v>
+        <v>217</v>
       </c>
       <c r="D102">
         <v>5001</v>
@@ -3801,14 +3949,14 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A103">
+      <c r="A103" s="5">
         <v>10003</v>
       </c>
       <c r="B103" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C103" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="D103">
         <v>5001</v>
@@ -3820,6 +3968,213 @@
         <v>3</v>
       </c>
       <c r="G103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A104" s="5">
+        <v>10004</v>
+      </c>
+      <c r="B104" t="s">
+        <v>234</v>
+      </c>
+      <c r="C104" t="s">
+        <v>225</v>
+      </c>
+      <c r="D104">
+        <v>5001</v>
+      </c>
+      <c r="E104">
+        <v>5</v>
+      </c>
+      <c r="F104">
+        <v>4</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A105" s="5">
+        <v>10005</v>
+      </c>
+      <c r="B105" t="s">
+        <v>235</v>
+      </c>
+      <c r="C105" t="s">
+        <v>216</v>
+      </c>
+      <c r="D105">
+        <v>5001</v>
+      </c>
+      <c r="E105">
+        <v>5</v>
+      </c>
+      <c r="F105">
+        <v>5</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A106" s="5">
+        <v>10006</v>
+      </c>
+      <c r="B106" t="s">
+        <v>236</v>
+      </c>
+      <c r="C106" t="s">
+        <v>226</v>
+      </c>
+      <c r="D106">
+        <v>5001</v>
+      </c>
+      <c r="E106">
+        <v>5</v>
+      </c>
+      <c r="F106">
+        <v>6</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A107" s="5">
+        <v>10007</v>
+      </c>
+      <c r="B107" t="s">
+        <v>231</v>
+      </c>
+      <c r="C107" t="s">
+        <v>227</v>
+      </c>
+      <c r="D107">
+        <v>5001</v>
+      </c>
+      <c r="E107">
+        <v>5</v>
+      </c>
+      <c r="F107">
+        <v>7</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A108" s="5">
+        <v>10008</v>
+      </c>
+      <c r="B108" t="s">
+        <v>232</v>
+      </c>
+      <c r="C108" t="s">
+        <v>218</v>
+      </c>
+      <c r="D108">
+        <v>5001</v>
+      </c>
+      <c r="E108">
+        <v>5</v>
+      </c>
+      <c r="F108">
+        <v>8</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A109" s="5">
+        <v>10009</v>
+      </c>
+      <c r="B109" t="s">
+        <v>233</v>
+      </c>
+      <c r="C109" t="s">
+        <v>228</v>
+      </c>
+      <c r="D109">
+        <v>5001</v>
+      </c>
+      <c r="E109">
+        <v>5</v>
+      </c>
+      <c r="F109">
+        <v>9</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A110" s="5">
+        <v>10010</v>
+      </c>
+      <c r="B110" t="s">
+        <v>220</v>
+      </c>
+      <c r="C110" t="s">
+        <v>229</v>
+      </c>
+      <c r="D110">
+        <v>5001</v>
+      </c>
+      <c r="E110">
+        <v>5</v>
+      </c>
+      <c r="F110">
+        <v>10</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A111" s="5">
+        <v>10011</v>
+      </c>
+      <c r="B111" t="s">
+        <v>221</v>
+      </c>
+      <c r="C111" t="s">
+        <v>219</v>
+      </c>
+      <c r="D111">
+        <v>5001</v>
+      </c>
+      <c r="E111">
+        <v>5</v>
+      </c>
+      <c r="F111">
+        <v>11</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A112" s="5">
+        <v>10012</v>
+      </c>
+      <c r="B112" t="s">
+        <v>222</v>
+      </c>
+      <c r="C112" t="s">
+        <v>230</v>
+      </c>
+      <c r="D112">
+        <v>5001</v>
+      </c>
+      <c r="E112">
+        <v>5</v>
+      </c>
+      <c r="F112">
+        <v>12</v>
+      </c>
+      <c r="G112">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6712DA-C049-4329-8E51-EF6B2D557BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E66D9D2-C962-431B-B0DA-61D5ADD0E5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="説明" sheetId="2" r:id="rId2"/>
+    <sheet name="Type" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="246">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1204,6 +1205,69 @@
     <t>弓(レア度2)(1)(仮称)</t>
     <rPh sb="0" eb="1">
       <t>ユミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素材</t>
+    <rPh sb="0" eb="2">
+      <t>ソザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松明</t>
+    <rPh sb="0" eb="2">
+      <t>タイマツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>普通のObject（向きなし）</t>
+    <rPh sb="0" eb="2">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>普通のObject（向きあり）</t>
+    <rPh sb="0" eb="2">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防具</t>
+    <rPh sb="0" eb="2">
+      <t>ボウグ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>転送門</t>
+    <rPh sb="0" eb="3">
+      <t>テンソウモン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1679,7 +1743,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L112" sqref="L112"/>
+      <selection pane="bottomRight" activeCell="J95" sqref="J95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2637,7 +2701,7 @@
         <v>101</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>3001</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -2660,7 +2724,7 @@
         <v>102</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>3001</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -2683,7 +2747,7 @@
         <v>103</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>3001</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -2706,7 +2770,7 @@
         <v>104</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>3001</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -2729,7 +2793,7 @@
         <v>105</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>3001</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -2752,7 +2816,7 @@
         <v>106</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>3001</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -2775,7 +2839,7 @@
         <v>107</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>3001</v>
       </c>
       <c r="E48">
         <v>2</v>
@@ -2798,7 +2862,7 @@
         <v>108</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>3001</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -2821,7 +2885,7 @@
         <v>109</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>3001</v>
       </c>
       <c r="E50">
         <v>2</v>
@@ -2844,7 +2908,7 @@
         <v>110</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>3001</v>
       </c>
       <c r="E51">
         <v>2</v>
@@ -2867,7 +2931,7 @@
         <v>112</v>
       </c>
       <c r="D52">
-        <v>4</v>
+        <v>3001</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -2890,7 +2954,7 @@
         <v>113</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>3001</v>
       </c>
       <c r="E53">
         <v>2</v>
@@ -2913,7 +2977,7 @@
         <v>114</v>
       </c>
       <c r="D54">
-        <v>4</v>
+        <v>3001</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -2936,7 +3000,7 @@
         <v>115</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>3001</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -2959,7 +3023,7 @@
         <v>116</v>
       </c>
       <c r="D56">
-        <v>4</v>
+        <v>3001</v>
       </c>
       <c r="E56">
         <v>2</v>
@@ -2982,7 +3046,7 @@
         <v>117</v>
       </c>
       <c r="D57">
-        <v>4</v>
+        <v>3001</v>
       </c>
       <c r="E57">
         <v>2</v>
@@ -3005,7 +3069,7 @@
         <v>118</v>
       </c>
       <c r="D58">
-        <v>4</v>
+        <v>3001</v>
       </c>
       <c r="E58">
         <v>2</v>
@@ -3028,7 +3092,7 @@
         <v>119</v>
       </c>
       <c r="D59">
-        <v>4</v>
+        <v>3001</v>
       </c>
       <c r="E59">
         <v>2</v>
@@ -3051,7 +3115,7 @@
         <v>120</v>
       </c>
       <c r="D60">
-        <v>4</v>
+        <v>3001</v>
       </c>
       <c r="E60">
         <v>2</v>
@@ -3074,7 +3138,7 @@
         <v>121</v>
       </c>
       <c r="D61">
-        <v>4</v>
+        <v>3001</v>
       </c>
       <c r="E61">
         <v>2</v>
@@ -3097,7 +3161,7 @@
         <v>111</v>
       </c>
       <c r="D62">
-        <v>5</v>
+        <v>3000</v>
       </c>
       <c r="E62">
         <v>2</v>
@@ -3400,7 +3464,7 @@
         <v>64</v>
       </c>
       <c r="D77">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E77">
         <v>4</v>
@@ -4193,7 +4257,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4282,4 +4346,141 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113E46AD-62C7-4185-A9CA-BD7A35995CF3}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>1000</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>1001</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>2000</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>2100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>2101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>3000</v>
+      </c>
+      <c r="B11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>3001</v>
+      </c>
+      <c r="B12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>5001</v>
+      </c>
+      <c r="B13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>5002</v>
+      </c>
+      <c r="B14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>9999</v>
+      </c>
+      <c r="B15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E66D9D2-C962-431B-B0DA-61D5ADD0E5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B89E10-8CA2-42AD-B9EA-EF876214D2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="247">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1268,6 +1268,13 @@
     <t>転送門</t>
     <rPh sb="0" eb="3">
       <t>テンソウモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>服</t>
+    <rPh sb="0" eb="1">
+      <t>フク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1424,8 +1431,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:H112" totalsRowShown="0">
-  <autoFilter ref="A1:H112" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:H113" totalsRowShown="0">
+  <autoFilter ref="A1:H113" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Name"/>
@@ -1737,13 +1744,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J95" sqref="J95"/>
+      <selection pane="bottomRight" activeCell="H113" sqref="H113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4239,6 +4246,29 @@
         <v>12</v>
       </c>
       <c r="G112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A113">
+        <v>11001</v>
+      </c>
+      <c r="B113" t="s">
+        <v>246</v>
+      </c>
+      <c r="C113" t="s">
+        <v>211</v>
+      </c>
+      <c r="D113">
+        <v>5002</v>
+      </c>
+      <c r="E113">
+        <v>5</v>
+      </c>
+      <c r="F113">
+        <v>100</v>
+      </c>
+      <c r="G113">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B89E10-8CA2-42AD-B9EA-EF876214D2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BBE955-6E92-42BA-9810-B2445D96EE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="246">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1102,33 +1102,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>剣(レア度3)(仮称)</t>
-    <rPh sb="0" eb="1">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>杖(レア度3)(仮称)</t>
-    <rPh sb="0" eb="1">
-      <t>ツエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>弓(レア度3)(仮称)</t>
-    <rPh sb="0" eb="1">
-      <t>ユミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Textures/SwordObject_2d_001</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1158,54 +1131,6 @@
   </si>
   <si>
     <t>Textures/BowObject_2d_004</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>剣(レア度2)(2)(仮称)</t>
-    <rPh sb="0" eb="1">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>杖(レア度2)(2)(仮称)</t>
-    <rPh sb="0" eb="1">
-      <t>ツエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>弓(レア度2)(2)(仮称)</t>
-    <rPh sb="0" eb="1">
-      <t>ユミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>剣(レア度2)(1)(仮称)</t>
-    <rPh sb="0" eb="1">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>杖(レア度2)(1)(仮称)</t>
-    <rPh sb="0" eb="1">
-      <t>ツエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>弓(レア度2)(1)(仮称)</t>
-    <rPh sb="0" eb="1">
-      <t>ユミ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1277,6 +1202,51 @@
       <t>フク</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カトラス</t>
+  </si>
+  <si>
+    <t>石の剣</t>
+    <rPh sb="0" eb="1">
+      <t>イシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーリーソード</t>
+  </si>
+  <si>
+    <t>エイムボウ</t>
+  </si>
+  <si>
+    <t>ホーリーボウ</t>
+  </si>
+  <si>
+    <t>理性の杖</t>
+    <rPh sb="0" eb="2">
+      <t>リセイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>知力の杖</t>
+    <rPh sb="0" eb="2">
+      <t>チリョク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーリーロッド</t>
   </si>
 </sst>
 </file>
@@ -1750,7 +1720,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H113" sqref="H113"/>
+      <selection pane="bottomRight" activeCell="T106" sqref="T106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3981,7 +3951,7 @@
         <v>213</v>
       </c>
       <c r="C101" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D101">
         <v>5001</v>
@@ -4027,7 +3997,7 @@
         <v>215</v>
       </c>
       <c r="C103" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D103">
         <v>5001</v>
@@ -4047,10 +4017,10 @@
         <v>10004</v>
       </c>
       <c r="B104" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C104" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D104">
         <v>5001</v>
@@ -4070,7 +4040,7 @@
         <v>10005</v>
       </c>
       <c r="B105" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C105" t="s">
         <v>216</v>
@@ -4093,10 +4063,10 @@
         <v>10006</v>
       </c>
       <c r="B106" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C106" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D106">
         <v>5001</v>
@@ -4116,10 +4086,10 @@
         <v>10007</v>
       </c>
       <c r="B107" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C107" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D107">
         <v>5001</v>
@@ -4139,7 +4109,7 @@
         <v>10008</v>
       </c>
       <c r="B108" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="C108" t="s">
         <v>218</v>
@@ -4162,10 +4132,10 @@
         <v>10009</v>
       </c>
       <c r="B109" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C109" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D109">
         <v>5001</v>
@@ -4185,10 +4155,10 @@
         <v>10010</v>
       </c>
       <c r="B110" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="C110" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D110">
         <v>5001</v>
@@ -4208,7 +4178,7 @@
         <v>10011</v>
       </c>
       <c r="B111" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="C111" t="s">
         <v>219</v>
@@ -4231,10 +4201,10 @@
         <v>10012</v>
       </c>
       <c r="B112" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="C112" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D112">
         <v>5001</v>
@@ -4254,7 +4224,7 @@
         <v>11001</v>
       </c>
       <c r="B113" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C113" t="s">
         <v>211</v>
@@ -4393,7 +4363,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -4401,7 +4371,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -4457,7 +4427,7 @@
         <v>2100</v>
       </c>
       <c r="B9" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
@@ -4465,7 +4435,7 @@
         <v>2101</v>
       </c>
       <c r="B10" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -4473,7 +4443,7 @@
         <v>3000</v>
       </c>
       <c r="B11" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
@@ -4481,7 +4451,7 @@
         <v>3001</v>
       </c>
       <c r="B12" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
@@ -4489,7 +4459,7 @@
         <v>5001</v>
       </c>
       <c r="B13" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -4497,7 +4467,7 @@
         <v>5002</v>
       </c>
       <c r="B14" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
@@ -4505,7 +4475,7 @@
         <v>9999</v>
       </c>
       <c r="B15" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BBE955-6E92-42BA-9810-B2445D96EE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBB9982-FA8F-4736-B96F-A2D3700F06B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="247">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1247,6 +1247,16 @@
   </si>
   <si>
     <t>ホーリーロッド</t>
+  </si>
+  <si>
+    <t>上弦の弓</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ユミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1720,7 +1730,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T106" sqref="T106"/>
+      <selection pane="bottomRight" activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4132,7 +4142,7 @@
         <v>10009</v>
       </c>
       <c r="B109" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C109" t="s">
         <v>225</v>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBB9982-FA8F-4736-B96F-A2D3700F06B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD212C75-BD2D-4986-8D2C-84600E5ADF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="説明" sheetId="2" r:id="rId2"/>
-    <sheet name="Type" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="説明" sheetId="2" r:id="rId3"/>
+    <sheet name="Type" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="252">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1257,13 +1258,28 @@
       <t>ユミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>5001</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1302,6 +1318,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1323,7 +1347,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1368,13 +1392,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1390,14 +1432,359 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1422,6 +1809,25 @@
     <tableColumn id="5" xr3:uid="{69810B33-DB51-4131-A821-B92E515A015E}" name="ReferenceID"/>
     <tableColumn id="6" xr3:uid="{D9675E64-C728-47B7-A6B8-825DAA591A46}" name="MaxCount"/>
     <tableColumn id="8" xr3:uid="{E035C9EE-C351-4391-BA6C-A5414AC3961A}" name="CanDelete"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0C7E9A28-2173-4BF1-8AB7-F8C134FC1E3E}" name="テーブル2" displayName="テーブル2" ref="A1:G13" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8">
+  <autoFilter ref="A1:G13" xr:uid="{0C7E9A28-2173-4BF1-8AB7-F8C134FC1E3E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G12">
+    <sortCondition descending="1" ref="A1:A12"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{7799492D-CC63-4F76-87DC-E337C1061300}" name="10001" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{1F72F1EC-0212-4145-8F64-C43BFC5CEBBA}" name="木の剣" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{3C5513F2-DB12-4448-B9FA-3050FF42DE1A}" name="Textures/SwordObject_2d_001" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{A2E6C594-2057-4D30-BD29-A921FA9A62D8}" name="5001" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{A7A34E46-33F4-4F3D-A7BC-3F1342AE5B36}" name="5" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{41722DF1-B171-4F21-98B3-23A6EB2693BA}" name="1" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{09C82A1F-9964-4699-842D-07338319F805}" name="12" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1727,10 +2133,10 @@
   <dimension ref="A1:H113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H107" sqref="H107"/>
+      <selection pane="bottomRight" activeCell="K104" sqref="K104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3957,22 +4363,22 @@
       <c r="A101" s="5">
         <v>10001</v>
       </c>
-      <c r="B101" t="s">
-        <v>213</v>
-      </c>
-      <c r="C101" t="s">
-        <v>220</v>
-      </c>
-      <c r="D101">
+      <c r="B101" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D101" s="9">
         <v>5001</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="9">
         <v>5</v>
       </c>
-      <c r="F101">
-        <v>1</v>
-      </c>
-      <c r="G101">
+      <c r="F101" s="9">
+        <v>12</v>
+      </c>
+      <c r="G101" s="9">
         <v>1</v>
       </c>
     </row>
@@ -3980,22 +4386,22 @@
       <c r="A102" s="5">
         <v>10002</v>
       </c>
-      <c r="B102" t="s">
-        <v>214</v>
-      </c>
-      <c r="C102" t="s">
-        <v>217</v>
-      </c>
-      <c r="D102">
+      <c r="B102" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D102" s="8">
         <v>5001</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="8">
         <v>5</v>
       </c>
-      <c r="F102">
-        <v>2</v>
-      </c>
-      <c r="G102">
+      <c r="F102" s="8">
+        <v>11</v>
+      </c>
+      <c r="G102" s="8">
         <v>1</v>
       </c>
     </row>
@@ -4003,22 +4409,22 @@
       <c r="A103" s="5">
         <v>10003</v>
       </c>
-      <c r="B103" t="s">
-        <v>215</v>
-      </c>
-      <c r="C103" t="s">
-        <v>221</v>
-      </c>
-      <c r="D103">
+      <c r="B103" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D103" s="8">
         <v>5001</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="8">
         <v>5</v>
       </c>
-      <c r="F103">
-        <v>3</v>
-      </c>
-      <c r="G103">
+      <c r="F103" s="8">
+        <v>10</v>
+      </c>
+      <c r="G103" s="8">
         <v>1</v>
       </c>
     </row>
@@ -4026,22 +4432,22 @@
       <c r="A104" s="5">
         <v>10004</v>
       </c>
-      <c r="B104" t="s">
-        <v>238</v>
-      </c>
-      <c r="C104" t="s">
-        <v>222</v>
-      </c>
-      <c r="D104">
+      <c r="B104" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D104" s="8">
         <v>5001</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="8">
         <v>5</v>
       </c>
-      <c r="F104">
-        <v>4</v>
-      </c>
-      <c r="G104">
+      <c r="F104" s="8">
+        <v>9</v>
+      </c>
+      <c r="G104" s="8">
         <v>1</v>
       </c>
     </row>
@@ -4049,22 +4455,22 @@
       <c r="A105" s="5">
         <v>10005</v>
       </c>
-      <c r="B105" t="s">
-        <v>243</v>
-      </c>
-      <c r="C105" t="s">
-        <v>216</v>
-      </c>
-      <c r="D105">
+      <c r="B105" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D105" s="8">
         <v>5001</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="8">
         <v>5</v>
       </c>
-      <c r="F105">
-        <v>5</v>
-      </c>
-      <c r="G105">
+      <c r="F105" s="8">
+        <v>8</v>
+      </c>
+      <c r="G105" s="8">
         <v>1</v>
       </c>
     </row>
@@ -4072,22 +4478,22 @@
       <c r="A106" s="5">
         <v>10006</v>
       </c>
-      <c r="B106" t="s">
-        <v>241</v>
-      </c>
-      <c r="C106" t="s">
-        <v>223</v>
-      </c>
-      <c r="D106">
+      <c r="B106" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D106" s="8">
         <v>5001</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="8">
         <v>5</v>
       </c>
-      <c r="F106">
-        <v>6</v>
-      </c>
-      <c r="G106">
+      <c r="F106" s="8">
+        <v>7</v>
+      </c>
+      <c r="G106" s="8">
         <v>1</v>
       </c>
     </row>
@@ -4095,22 +4501,22 @@
       <c r="A107" s="5">
         <v>10007</v>
       </c>
-      <c r="B107" t="s">
-        <v>239</v>
-      </c>
-      <c r="C107" t="s">
-        <v>224</v>
-      </c>
-      <c r="D107">
+      <c r="B107" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D107" s="8">
         <v>5001</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="8">
         <v>5</v>
       </c>
-      <c r="F107">
-        <v>7</v>
-      </c>
-      <c r="G107">
+      <c r="F107" s="8">
+        <v>6</v>
+      </c>
+      <c r="G107" s="8">
         <v>1</v>
       </c>
     </row>
@@ -4118,22 +4524,22 @@
       <c r="A108" s="5">
         <v>10008</v>
       </c>
-      <c r="B108" t="s">
-        <v>244</v>
-      </c>
-      <c r="C108" t="s">
-        <v>218</v>
-      </c>
-      <c r="D108">
+      <c r="B108" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D108" s="8">
         <v>5001</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="8">
         <v>5</v>
       </c>
-      <c r="F108">
-        <v>8</v>
-      </c>
-      <c r="G108">
+      <c r="F108" s="8">
+        <v>5</v>
+      </c>
+      <c r="G108" s="8">
         <v>1</v>
       </c>
     </row>
@@ -4141,22 +4547,22 @@
       <c r="A109" s="5">
         <v>10009</v>
       </c>
-      <c r="B109" t="s">
-        <v>246</v>
-      </c>
-      <c r="C109" t="s">
-        <v>225</v>
-      </c>
-      <c r="D109">
+      <c r="B109" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D109" s="8">
         <v>5001</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="8">
         <v>5</v>
       </c>
-      <c r="F109">
-        <v>9</v>
-      </c>
-      <c r="G109">
+      <c r="F109" s="8">
+        <v>4</v>
+      </c>
+      <c r="G109" s="8">
         <v>1</v>
       </c>
     </row>
@@ -4164,22 +4570,22 @@
       <c r="A110" s="5">
         <v>10010</v>
       </c>
-      <c r="B110" t="s">
-        <v>240</v>
-      </c>
-      <c r="C110" t="s">
-        <v>226</v>
-      </c>
-      <c r="D110">
+      <c r="B110" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D110" s="8">
         <v>5001</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="8">
         <v>5</v>
       </c>
-      <c r="F110">
-        <v>10</v>
-      </c>
-      <c r="G110">
+      <c r="F110" s="8">
+        <v>3</v>
+      </c>
+      <c r="G110" s="8">
         <v>1</v>
       </c>
     </row>
@@ -4187,22 +4593,22 @@
       <c r="A111" s="5">
         <v>10011</v>
       </c>
-      <c r="B111" t="s">
-        <v>245</v>
-      </c>
-      <c r="C111" t="s">
-        <v>219</v>
-      </c>
-      <c r="D111">
+      <c r="B111" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D111" s="10">
         <v>5001</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="10">
         <v>5</v>
       </c>
-      <c r="F111">
-        <v>11</v>
-      </c>
-      <c r="G111">
+      <c r="F111" s="10">
+        <v>2</v>
+      </c>
+      <c r="G111" s="10">
         <v>1</v>
       </c>
     </row>
@@ -4210,22 +4616,22 @@
       <c r="A112" s="5">
         <v>10012</v>
       </c>
-      <c r="B112" t="s">
-        <v>242</v>
-      </c>
-      <c r="C112" t="s">
-        <v>227</v>
-      </c>
-      <c r="D112">
+      <c r="B112" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D112" s="7">
         <v>5001</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="7">
         <v>5</v>
       </c>
-      <c r="F112">
-        <v>12</v>
-      </c>
-      <c r="G112">
+      <c r="F112" s="7">
+        <v>1</v>
+      </c>
+      <c r="G112" s="7">
         <v>1</v>
       </c>
     </row>
@@ -4263,6 +4669,325 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A0C7D0-16A2-42B7-A22A-385F9FA8D807}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="5">
+        <v>10002</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="9">
+        <v>5001</v>
+      </c>
+      <c r="E2" s="9">
+        <v>5</v>
+      </c>
+      <c r="F2" s="9">
+        <v>12</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="5">
+        <v>10003</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" s="8">
+        <v>5001</v>
+      </c>
+      <c r="E3" s="8">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8">
+        <v>11</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="5">
+        <v>10004</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" s="8">
+        <v>5001</v>
+      </c>
+      <c r="E4" s="8">
+        <v>5</v>
+      </c>
+      <c r="F4" s="8">
+        <v>10</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="5">
+        <v>10005</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" s="8">
+        <v>5001</v>
+      </c>
+      <c r="E5" s="8">
+        <v>5</v>
+      </c>
+      <c r="F5" s="8">
+        <v>9</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="5">
+        <v>10006</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" s="8">
+        <v>5001</v>
+      </c>
+      <c r="E6" s="8">
+        <v>5</v>
+      </c>
+      <c r="F6" s="8">
+        <v>8</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="5">
+        <v>10007</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7" s="8">
+        <v>5001</v>
+      </c>
+      <c r="E7" s="8">
+        <v>5</v>
+      </c>
+      <c r="F7" s="8">
+        <v>7</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="5">
+        <v>10008</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" s="8">
+        <v>5001</v>
+      </c>
+      <c r="E8" s="8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="8">
+        <v>6</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="5">
+        <v>10009</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" s="8">
+        <v>5001</v>
+      </c>
+      <c r="E9" s="8">
+        <v>5</v>
+      </c>
+      <c r="F9" s="8">
+        <v>5</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="5">
+        <v>10010</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10" s="8">
+        <v>5001</v>
+      </c>
+      <c r="E10" s="8">
+        <v>5</v>
+      </c>
+      <c r="F10" s="8">
+        <v>4</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="5">
+        <v>10011</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D11" s="8">
+        <v>5001</v>
+      </c>
+      <c r="E11" s="8">
+        <v>5</v>
+      </c>
+      <c r="F11" s="8">
+        <v>3</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="5">
+        <v>10012</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D12" s="10">
+        <v>5001</v>
+      </c>
+      <c r="E12" s="10">
+        <v>5</v>
+      </c>
+      <c r="F12" s="10">
+        <v>2</v>
+      </c>
+      <c r="G12" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="5">
+        <v>10013</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D13" s="7">
+        <v>5001</v>
+      </c>
+      <c r="E13" s="7">
+        <v>5</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0258133-42E6-4606-8D6B-87E692C81D88}">
   <dimension ref="A1:A16"/>
   <sheetViews>
@@ -4358,7 +5083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113E46AD-62C7-4185-A9CA-BD7A35995CF3}">
   <dimension ref="A1:B15"/>
   <sheetViews>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD212C75-BD2D-4986-8D2C-84600E5ADF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAA0A21-5C7B-4A5D-8984-02BDFD2BC1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1416,7 +1416,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1438,13 +1438,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1716,13 +1710,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -1758,6 +1745,13 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1815,10 +1809,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0C7E9A28-2173-4BF1-8AB7-F8C134FC1E3E}" name="テーブル2" displayName="テーブル2" ref="A1:G13" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0C7E9A28-2173-4BF1-8AB7-F8C134FC1E3E}" name="テーブル2" displayName="テーブル2" ref="A1:G13" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
   <autoFilter ref="A1:G13" xr:uid="{0C7E9A28-2173-4BF1-8AB7-F8C134FC1E3E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G12">
-    <sortCondition descending="1" ref="A1:A12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
+    <sortCondition ref="F1:F13"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{7799492D-CC63-4F76-87DC-E337C1061300}" name="10001" dataDxfId="6"/>
@@ -2133,20 +2127,20 @@
   <dimension ref="A1:H113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K104" sqref="K104"/>
+      <selection pane="bottomRight" activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2172,7 +2166,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2186,7 +2180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2209,7 +2203,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2232,7 +2226,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2255,7 +2249,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2278,7 +2272,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2301,7 +2295,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2324,7 +2318,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2347,7 +2341,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2370,7 +2364,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>101</v>
       </c>
@@ -2393,7 +2387,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>102</v>
       </c>
@@ -2416,7 +2410,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>103</v>
       </c>
@@ -2439,7 +2433,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>104</v>
       </c>
@@ -2462,7 +2456,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>105</v>
       </c>
@@ -2485,7 +2479,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>106</v>
       </c>
@@ -2508,7 +2502,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>107</v>
       </c>
@@ -2531,7 +2525,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>108</v>
       </c>
@@ -2554,7 +2548,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>109</v>
       </c>
@@ -2577,7 +2571,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>110</v>
       </c>
@@ -2600,7 +2594,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>111</v>
       </c>
@@ -2623,7 +2617,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>112</v>
       </c>
@@ -2646,7 +2640,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>113</v>
       </c>
@@ -2669,7 +2663,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>114</v>
       </c>
@@ -2692,7 +2686,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>115</v>
       </c>
@@ -2715,7 +2709,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>116</v>
       </c>
@@ -2738,7 +2732,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>117</v>
       </c>
@@ -2761,7 +2755,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>118</v>
       </c>
@@ -2784,7 +2778,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>123</v>
       </c>
@@ -2807,7 +2801,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>124</v>
       </c>
@@ -2830,7 +2824,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>125</v>
       </c>
@@ -2853,7 +2847,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>126</v>
       </c>
@@ -2876,7 +2870,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>127</v>
       </c>
@@ -2899,7 +2893,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>128</v>
       </c>
@@ -2922,7 +2916,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>129</v>
       </c>
@@ -2945,7 +2939,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>134</v>
       </c>
@@ -2968,7 +2962,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>135</v>
       </c>
@@ -2991,7 +2985,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>136</v>
       </c>
@@ -3014,7 +3008,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>137</v>
       </c>
@@ -3037,7 +3031,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>138</v>
       </c>
@@ -3060,7 +3054,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>139</v>
       </c>
@@ -3083,7 +3077,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>500</v>
       </c>
@@ -3106,7 +3100,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>501</v>
       </c>
@@ -3129,7 +3123,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>502</v>
       </c>
@@ -3152,7 +3146,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>503</v>
       </c>
@@ -3175,7 +3169,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>504</v>
       </c>
@@ -3198,7 +3192,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>505</v>
       </c>
@@ -3221,7 +3215,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>506</v>
       </c>
@@ -3244,7 +3238,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>507</v>
       </c>
@@ -3267,7 +3261,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>508</v>
       </c>
@@ -3290,7 +3284,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>509</v>
       </c>
@@ -3313,7 +3307,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>550</v>
       </c>
@@ -3336,7 +3330,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>551</v>
       </c>
@@ -3359,7 +3353,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>552</v>
       </c>
@@ -3382,7 +3376,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>553</v>
       </c>
@@ -3405,7 +3399,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>554</v>
       </c>
@@ -3428,7 +3422,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>555</v>
       </c>
@@ -3451,7 +3445,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>556</v>
       </c>
@@ -3474,7 +3468,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>557</v>
       </c>
@@ -3497,7 +3491,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>558</v>
       </c>
@@ -3520,7 +3514,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>559</v>
       </c>
@@ -3543,7 +3537,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>600</v>
       </c>
@@ -3566,7 +3560,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>1001</v>
       </c>
@@ -3586,7 +3580,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>1002</v>
       </c>
@@ -3606,7 +3600,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>1003</v>
       </c>
@@ -3626,7 +3620,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>1004</v>
       </c>
@@ -3646,7 +3640,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>1005</v>
       </c>
@@ -3666,7 +3660,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>1006</v>
       </c>
@@ -3686,7 +3680,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>1007</v>
       </c>
@@ -3706,7 +3700,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>1008</v>
       </c>
@@ -3726,7 +3720,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>1009</v>
       </c>
@@ -3746,7 +3740,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>1010</v>
       </c>
@@ -3766,7 +3760,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>1011</v>
       </c>
@@ -3786,7 +3780,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>1012</v>
       </c>
@@ -3806,7 +3800,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>1013</v>
       </c>
@@ -3826,7 +3820,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>3000</v>
       </c>
@@ -3846,7 +3840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>3001</v>
       </c>
@@ -3866,7 +3860,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>3002</v>
       </c>
@@ -3889,7 +3883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>3003</v>
       </c>
@@ -3912,7 +3906,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>7016</v>
       </c>
@@ -3935,7 +3929,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>7017</v>
       </c>
@@ -3958,7 +3952,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>7018</v>
       </c>
@@ -3981,7 +3975,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>7019</v>
       </c>
@@ -4004,7 +3998,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>7020</v>
       </c>
@@ -4027,7 +4021,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>7021</v>
       </c>
@@ -4050,7 +4044,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>7022</v>
       </c>
@@ -4073,7 +4067,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>7023</v>
       </c>
@@ -4096,7 +4090,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>7024</v>
       </c>
@@ -4119,7 +4113,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>7025</v>
       </c>
@@ -4142,7 +4136,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>7026</v>
       </c>
@@ -4165,7 +4159,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>7027</v>
       </c>
@@ -4188,7 +4182,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>7028</v>
       </c>
@@ -4211,7 +4205,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>7029</v>
       </c>
@@ -4234,7 +4228,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>7030</v>
       </c>
@@ -4257,7 +4251,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>9000</v>
       </c>
@@ -4274,7 +4268,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>9001</v>
       </c>
@@ -4291,7 +4285,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>9002</v>
       </c>
@@ -4308,7 +4302,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>9003</v>
       </c>
@@ -4325,7 +4319,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>9004</v>
       </c>
@@ -4342,7 +4336,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>9005</v>
       </c>
@@ -4359,283 +4353,283 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" s="5">
         <v>10001</v>
       </c>
-      <c r="B101" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="D101" s="9">
+      <c r="B101" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D101" s="6">
         <v>5001</v>
       </c>
-      <c r="E101" s="9">
+      <c r="E101" s="6">
         <v>5</v>
       </c>
-      <c r="F101" s="9">
-        <v>12</v>
-      </c>
-      <c r="G101" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F101" s="6">
+        <v>1</v>
+      </c>
+      <c r="G101" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" s="5">
         <v>10002</v>
       </c>
-      <c r="B102" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="D102" s="8">
+      <c r="B102" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D102" s="7">
         <v>5001</v>
       </c>
-      <c r="E102" s="8">
+      <c r="E102" s="7">
         <v>5</v>
       </c>
-      <c r="F102" s="8">
-        <v>11</v>
-      </c>
-      <c r="G102" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F102" s="7">
+        <v>2</v>
+      </c>
+      <c r="G102" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" s="5">
         <v>10003</v>
       </c>
-      <c r="B103" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D103" s="8">
+      <c r="B103" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D103" s="7">
         <v>5001</v>
       </c>
-      <c r="E103" s="8">
+      <c r="E103" s="7">
         <v>5</v>
       </c>
-      <c r="F103" s="8">
-        <v>10</v>
-      </c>
-      <c r="G103" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F103" s="7">
+        <v>3</v>
+      </c>
+      <c r="G103" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" s="5">
         <v>10004</v>
       </c>
-      <c r="B104" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="D104" s="8">
+      <c r="B104" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D104" s="7">
         <v>5001</v>
       </c>
-      <c r="E104" s="8">
+      <c r="E104" s="7">
         <v>5</v>
       </c>
-      <c r="F104" s="8">
-        <v>9</v>
-      </c>
-      <c r="G104" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F104" s="7">
+        <v>4</v>
+      </c>
+      <c r="G104" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" s="5">
         <v>10005</v>
       </c>
-      <c r="B105" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="D105" s="8">
+      <c r="B105" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D105" s="7">
         <v>5001</v>
       </c>
-      <c r="E105" s="8">
+      <c r="E105" s="7">
         <v>5</v>
       </c>
-      <c r="F105" s="8">
-        <v>8</v>
-      </c>
-      <c r="G105" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F105" s="7">
+        <v>5</v>
+      </c>
+      <c r="G105" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" s="5">
         <v>10006</v>
       </c>
-      <c r="B106" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D106" s="8">
+      <c r="B106" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D106" s="7">
         <v>5001</v>
       </c>
-      <c r="E106" s="8">
+      <c r="E106" s="7">
         <v>5</v>
       </c>
-      <c r="F106" s="8">
-        <v>7</v>
-      </c>
-      <c r="G106" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F106" s="7">
+        <v>6</v>
+      </c>
+      <c r="G106" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" s="5">
         <v>10007</v>
       </c>
-      <c r="B107" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D107" s="8">
+      <c r="B107" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D107" s="7">
         <v>5001</v>
       </c>
-      <c r="E107" s="8">
+      <c r="E107" s="7">
         <v>5</v>
       </c>
-      <c r="F107" s="8">
-        <v>6</v>
-      </c>
-      <c r="G107" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F107" s="7">
+        <v>7</v>
+      </c>
+      <c r="G107" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A108" s="5">
         <v>10008</v>
       </c>
-      <c r="B108" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="D108" s="8">
+      <c r="B108" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D108" s="7">
         <v>5001</v>
       </c>
-      <c r="E108" s="8">
+      <c r="E108" s="7">
         <v>5</v>
       </c>
-      <c r="F108" s="8">
-        <v>5</v>
-      </c>
-      <c r="G108" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F108" s="7">
+        <v>8</v>
+      </c>
+      <c r="G108" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A109" s="5">
         <v>10009</v>
       </c>
-      <c r="B109" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="D109" s="8">
+      <c r="B109" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D109" s="7">
         <v>5001</v>
       </c>
-      <c r="E109" s="8">
+      <c r="E109" s="7">
         <v>5</v>
       </c>
-      <c r="F109" s="8">
-        <v>4</v>
-      </c>
-      <c r="G109" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F109" s="7">
+        <v>9</v>
+      </c>
+      <c r="G109" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A110" s="5">
         <v>10010</v>
       </c>
-      <c r="B110" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D110" s="8">
+      <c r="B110" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D110" s="7">
         <v>5001</v>
       </c>
-      <c r="E110" s="8">
+      <c r="E110" s="7">
         <v>5</v>
       </c>
-      <c r="F110" s="8">
-        <v>3</v>
-      </c>
-      <c r="G110" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F110" s="7">
+        <v>10</v>
+      </c>
+      <c r="G110" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A111" s="5">
         <v>10011</v>
       </c>
-      <c r="B111" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="D111" s="10">
+      <c r="B111" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D111" s="8">
         <v>5001</v>
       </c>
-      <c r="E111" s="10">
+      <c r="E111" s="8">
         <v>5</v>
       </c>
-      <c r="F111" s="10">
-        <v>2</v>
-      </c>
-      <c r="G111" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F111" s="8">
+        <v>11</v>
+      </c>
+      <c r="G111" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A112" s="5">
         <v>10012</v>
       </c>
-      <c r="B112" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="D112" s="7">
+      <c r="B112" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D112" s="8">
         <v>5001</v>
       </c>
-      <c r="E112" s="7">
+      <c r="E112" s="8">
         <v>5</v>
       </c>
-      <c r="F112" s="7">
-        <v>1</v>
-      </c>
-      <c r="G112" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F112" s="8">
+        <v>12</v>
+      </c>
+      <c r="G112" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>11001</v>
       </c>
@@ -4673,307 +4667,310 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G13"/>
+      <selection activeCell="B2" sqref="B2:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="32.19921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>247</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="5">
+        <v>10013</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="6">
+        <v>5001</v>
+      </c>
+      <c r="E2" s="6">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="5">
+        <v>10012</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" s="7">
+        <v>5001</v>
+      </c>
+      <c r="E3" s="7">
+        <v>5</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="5">
+        <v>10011</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5001</v>
+      </c>
+      <c r="E4" s="7">
+        <v>5</v>
+      </c>
+      <c r="F4" s="7">
+        <v>3</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="5">
+        <v>10010</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5001</v>
+      </c>
+      <c r="E5" s="7">
+        <v>5</v>
+      </c>
+      <c r="F5" s="7">
+        <v>4</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="5">
+        <v>10009</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5001</v>
+      </c>
+      <c r="E6" s="7">
+        <v>5</v>
+      </c>
+      <c r="F6" s="7">
+        <v>5</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="5">
+        <v>10008</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" s="7">
+        <v>5001</v>
+      </c>
+      <c r="E7" s="7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="7">
+        <v>6</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="5">
+        <v>10007</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" s="7">
+        <v>5001</v>
+      </c>
+      <c r="E8" s="7">
+        <v>5</v>
+      </c>
+      <c r="F8" s="7">
+        <v>7</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="5">
+        <v>10006</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="7">
+        <v>5001</v>
+      </c>
+      <c r="E9" s="7">
+        <v>5</v>
+      </c>
+      <c r="F9" s="7">
+        <v>8</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="5">
+        <v>10005</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D10" s="7">
+        <v>5001</v>
+      </c>
+      <c r="E10" s="7">
+        <v>5</v>
+      </c>
+      <c r="F10" s="7">
+        <v>9</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="5">
+        <v>10004</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" s="7">
+        <v>5001</v>
+      </c>
+      <c r="E11" s="7">
+        <v>5</v>
+      </c>
+      <c r="F11" s="7">
+        <v>10</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="5">
+        <v>10003</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D12" s="8">
+        <v>5001</v>
+      </c>
+      <c r="E12" s="8">
+        <v>5</v>
+      </c>
+      <c r="F12" s="8">
+        <v>11</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="5">
         <v>10002</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D13" s="8">
         <v>5001</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E13" s="8">
         <v>5</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F13" s="8">
         <v>12</v>
       </c>
-      <c r="G2" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="5">
-        <v>10003</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="D3" s="8">
-        <v>5001</v>
-      </c>
-      <c r="E3" s="8">
-        <v>5</v>
-      </c>
-      <c r="F3" s="8">
-        <v>11</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="5">
-        <v>10004</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D4" s="8">
-        <v>5001</v>
-      </c>
-      <c r="E4" s="8">
-        <v>5</v>
-      </c>
-      <c r="F4" s="8">
-        <v>10</v>
-      </c>
-      <c r="G4" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="5">
-        <v>10005</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="D5" s="8">
-        <v>5001</v>
-      </c>
-      <c r="E5" s="8">
-        <v>5</v>
-      </c>
-      <c r="F5" s="8">
-        <v>9</v>
-      </c>
-      <c r="G5" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="5">
-        <v>10006</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="D6" s="8">
-        <v>5001</v>
-      </c>
-      <c r="E6" s="8">
-        <v>5</v>
-      </c>
-      <c r="F6" s="8">
-        <v>8</v>
-      </c>
-      <c r="G6" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="5">
-        <v>10007</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D7" s="8">
-        <v>5001</v>
-      </c>
-      <c r="E7" s="8">
-        <v>5</v>
-      </c>
-      <c r="F7" s="8">
-        <v>7</v>
-      </c>
-      <c r="G7" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="5">
-        <v>10008</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D8" s="8">
-        <v>5001</v>
-      </c>
-      <c r="E8" s="8">
-        <v>5</v>
-      </c>
-      <c r="F8" s="8">
-        <v>6</v>
-      </c>
-      <c r="G8" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="5">
-        <v>10009</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="D9" s="8">
-        <v>5001</v>
-      </c>
-      <c r="E9" s="8">
-        <v>5</v>
-      </c>
-      <c r="F9" s="8">
-        <v>5</v>
-      </c>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="5">
-        <v>10010</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="D10" s="8">
-        <v>5001</v>
-      </c>
-      <c r="E10" s="8">
-        <v>5</v>
-      </c>
-      <c r="F10" s="8">
-        <v>4</v>
-      </c>
-      <c r="G10" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="5">
-        <v>10011</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D11" s="8">
-        <v>5001</v>
-      </c>
-      <c r="E11" s="8">
-        <v>5</v>
-      </c>
-      <c r="F11" s="8">
-        <v>3</v>
-      </c>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="5">
-        <v>10012</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="D12" s="10">
-        <v>5001</v>
-      </c>
-      <c r="E12" s="10">
-        <v>5</v>
-      </c>
-      <c r="F12" s="10">
-        <v>2</v>
-      </c>
-      <c r="G12" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="5">
-        <v>10013</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="D13" s="7">
-        <v>5001</v>
-      </c>
-      <c r="E13" s="7">
-        <v>5</v>
-      </c>
-      <c r="F13" s="7">
-        <v>1</v>
-      </c>
-      <c r="G13" s="7">
+      <c r="G13" s="8">
         <v>1</v>
       </c>
     </row>
@@ -4995,83 +4992,83 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.125" customWidth="1"/>
-    <col min="2" max="2" width="5.875" customWidth="1"/>
+    <col min="1" max="1" width="20.09765625" customWidth="1"/>
+    <col min="2" max="2" width="5.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>98</v>
       </c>
@@ -5091,9 +5088,9 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
@@ -5101,7 +5098,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2</v>
       </c>
@@ -5109,7 +5106,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>51</v>
       </c>
@@ -5117,7 +5114,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>52</v>
       </c>
@@ -5125,7 +5122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>53</v>
       </c>
@@ -5133,7 +5130,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1000</v>
       </c>
@@ -5141,7 +5138,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1001</v>
       </c>
@@ -5149,7 +5146,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -5157,7 +5154,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2100</v>
       </c>
@@ -5165,7 +5162,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2101</v>
       </c>
@@ -5173,7 +5170,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>3000</v>
       </c>
@@ -5181,7 +5178,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>3001</v>
       </c>
@@ -5189,7 +5186,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>5001</v>
       </c>
@@ -5197,7 +5194,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>5002</v>
       </c>
@@ -5205,7 +5202,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>9999</v>
       </c>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAA0A21-5C7B-4A5D-8984-02BDFD2BC1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6552CF-CD2A-416B-A743-F3B4C73FD5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="253">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1273,6 +1273,10 @@
   </si>
   <si>
     <t>12</t>
+  </si>
+  <si>
+    <t>CanEquip</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1792,9 +1796,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:H113" totalsRowShown="0">
-  <autoFilter ref="A1:H113" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:I113" totalsRowShown="0">
+  <autoFilter ref="A1:I113" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Name"/>
     <tableColumn id="3" xr3:uid="{E73967F7-5D00-455D-9AEC-4ABDD41A14F5}" name="IconResourcesPath"/>
@@ -1803,6 +1807,7 @@
     <tableColumn id="5" xr3:uid="{69810B33-DB51-4131-A821-B92E515A015E}" name="ReferenceID"/>
     <tableColumn id="6" xr3:uid="{D9675E64-C728-47B7-A6B8-825DAA591A46}" name="MaxCount"/>
     <tableColumn id="8" xr3:uid="{E035C9EE-C351-4391-BA6C-A5414AC3961A}" name="CanDelete"/>
+    <tableColumn id="9" xr3:uid="{52F8D2C1-6925-48EC-9310-0EEC8976FC04}" name="CanEquip"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2124,23 +2129,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C109" sqref="C109"/>
+      <selection pane="bottomRight" activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2165,8 +2170,11 @@
       <c r="H1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2180,7 +2188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2202,8 +2210,11 @@
       <c r="G3">
         <v>999</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2225,8 +2236,11 @@
       <c r="G4">
         <v>999</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2248,8 +2262,11 @@
       <c r="G5">
         <v>999</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2271,8 +2288,11 @@
       <c r="G6">
         <v>999</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2294,8 +2314,11 @@
       <c r="G7">
         <v>9999</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2317,8 +2340,11 @@
       <c r="G8">
         <v>9999</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2340,8 +2366,11 @@
       <c r="G9">
         <v>9999</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2363,8 +2392,11 @@
       <c r="G10">
         <v>9999</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>101</v>
       </c>
@@ -2386,8 +2418,11 @@
       <c r="G11">
         <v>9999</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>102</v>
       </c>
@@ -2409,8 +2444,11 @@
       <c r="G12">
         <v>9999</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>103</v>
       </c>
@@ -2432,8 +2470,11 @@
       <c r="G13">
         <v>9999</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>104</v>
       </c>
@@ -2455,8 +2496,11 @@
       <c r="G14">
         <v>9999</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>105</v>
       </c>
@@ -2478,8 +2522,11 @@
       <c r="G15">
         <v>9999</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>106</v>
       </c>
@@ -2501,8 +2548,11 @@
       <c r="G16">
         <v>9999</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>107</v>
       </c>
@@ -2524,8 +2574,11 @@
       <c r="G17">
         <v>9999</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>108</v>
       </c>
@@ -2547,8 +2600,11 @@
       <c r="G18">
         <v>9999</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>109</v>
       </c>
@@ -2570,8 +2626,11 @@
       <c r="G19">
         <v>9999</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>110</v>
       </c>
@@ -2593,8 +2652,11 @@
       <c r="G20">
         <v>9999</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>111</v>
       </c>
@@ -2616,8 +2678,11 @@
       <c r="G21">
         <v>9999</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>112</v>
       </c>
@@ -2639,8 +2704,11 @@
       <c r="G22">
         <v>9999</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>113</v>
       </c>
@@ -2662,8 +2730,11 @@
       <c r="G23">
         <v>9999</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>114</v>
       </c>
@@ -2685,8 +2756,11 @@
       <c r="G24">
         <v>9999</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>115</v>
       </c>
@@ -2708,8 +2782,11 @@
       <c r="G25">
         <v>9999</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>116</v>
       </c>
@@ -2731,8 +2808,11 @@
       <c r="G26">
         <v>9999</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>117</v>
       </c>
@@ -2754,8 +2834,11 @@
       <c r="G27">
         <v>9999</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>118</v>
       </c>
@@ -2777,8 +2860,11 @@
       <c r="G28">
         <v>9999</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>123</v>
       </c>
@@ -2800,8 +2886,11 @@
       <c r="G29">
         <v>9999</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>124</v>
       </c>
@@ -2823,8 +2912,11 @@
       <c r="G30">
         <v>9999</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>125</v>
       </c>
@@ -2846,8 +2938,11 @@
       <c r="G31">
         <v>9999</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>126</v>
       </c>
@@ -2869,8 +2964,11 @@
       <c r="G32">
         <v>9999</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>127</v>
       </c>
@@ -2892,8 +2990,11 @@
       <c r="G33">
         <v>9999</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>128</v>
       </c>
@@ -2915,8 +3016,11 @@
       <c r="G34">
         <v>9999</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>129</v>
       </c>
@@ -2938,8 +3042,11 @@
       <c r="G35">
         <v>9999</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>134</v>
       </c>
@@ -2961,8 +3068,11 @@
       <c r="G36">
         <v>9999</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>135</v>
       </c>
@@ -2984,8 +3094,11 @@
       <c r="G37">
         <v>9999</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>136</v>
       </c>
@@ -3007,8 +3120,11 @@
       <c r="G38">
         <v>9999</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>137</v>
       </c>
@@ -3030,8 +3146,11 @@
       <c r="G39">
         <v>9999</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>138</v>
       </c>
@@ -3053,8 +3172,11 @@
       <c r="G40">
         <v>9999</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>139</v>
       </c>
@@ -3076,8 +3198,11 @@
       <c r="G41">
         <v>9999</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>500</v>
       </c>
@@ -3099,8 +3224,11 @@
       <c r="G42">
         <v>9999</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>501</v>
       </c>
@@ -3122,8 +3250,11 @@
       <c r="G43">
         <v>9999</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>502</v>
       </c>
@@ -3145,8 +3276,11 @@
       <c r="G44">
         <v>9999</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>503</v>
       </c>
@@ -3168,8 +3302,11 @@
       <c r="G45">
         <v>9999</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>504</v>
       </c>
@@ -3191,8 +3328,11 @@
       <c r="G46">
         <v>9999</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>505</v>
       </c>
@@ -3214,8 +3354,11 @@
       <c r="G47">
         <v>9999</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>506</v>
       </c>
@@ -3237,8 +3380,11 @@
       <c r="G48">
         <v>9999</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>507</v>
       </c>
@@ -3260,8 +3406,11 @@
       <c r="G49">
         <v>9999</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>508</v>
       </c>
@@ -3283,8 +3432,11 @@
       <c r="G50">
         <v>9999</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>509</v>
       </c>
@@ -3306,8 +3458,11 @@
       <c r="G51">
         <v>9999</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>550</v>
       </c>
@@ -3329,8 +3484,11 @@
       <c r="G52">
         <v>9999</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>551</v>
       </c>
@@ -3352,8 +3510,11 @@
       <c r="G53">
         <v>9999</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>552</v>
       </c>
@@ -3375,8 +3536,11 @@
       <c r="G54">
         <v>9999</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>553</v>
       </c>
@@ -3398,8 +3562,11 @@
       <c r="G55">
         <v>9999</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>554</v>
       </c>
@@ -3421,8 +3588,11 @@
       <c r="G56">
         <v>9999</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>555</v>
       </c>
@@ -3444,8 +3614,11 @@
       <c r="G57">
         <v>9999</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>556</v>
       </c>
@@ -3467,8 +3640,11 @@
       <c r="G58">
         <v>9999</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>557</v>
       </c>
@@ -3490,8 +3666,11 @@
       <c r="G59">
         <v>9999</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>558</v>
       </c>
@@ -3513,8 +3692,11 @@
       <c r="G60">
         <v>9999</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>559</v>
       </c>
@@ -3536,8 +3718,11 @@
       <c r="G61">
         <v>9999</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>600</v>
       </c>
@@ -3559,8 +3744,11 @@
       <c r="G62">
         <v>9999</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>1001</v>
       </c>
@@ -3580,7 +3768,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>1002</v>
       </c>
@@ -3600,7 +3788,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>1003</v>
       </c>
@@ -3620,7 +3808,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>1004</v>
       </c>
@@ -3640,7 +3828,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>1005</v>
       </c>
@@ -3660,7 +3848,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>1006</v>
       </c>
@@ -3680,7 +3868,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>1007</v>
       </c>
@@ -3700,7 +3888,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>1008</v>
       </c>
@@ -3720,7 +3908,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>1009</v>
       </c>
@@ -3740,7 +3928,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>1010</v>
       </c>
@@ -3760,7 +3948,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>1011</v>
       </c>
@@ -3780,7 +3968,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>1012</v>
       </c>
@@ -3800,7 +3988,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>1013</v>
       </c>
@@ -3820,7 +4008,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>3000</v>
       </c>
@@ -3839,8 +4027,11 @@
       <c r="G76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>3001</v>
       </c>
@@ -3859,8 +4050,11 @@
       <c r="G77">
         <v>9999</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>3002</v>
       </c>
@@ -3882,8 +4076,11 @@
       <c r="H78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>3003</v>
       </c>
@@ -3905,8 +4102,11 @@
       <c r="G79">
         <v>9999</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>7016</v>
       </c>
@@ -3928,8 +4128,11 @@
       <c r="G80">
         <v>9999</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>7017</v>
       </c>
@@ -3951,8 +4154,11 @@
       <c r="G81">
         <v>9999</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>7018</v>
       </c>
@@ -3974,8 +4180,11 @@
       <c r="G82">
         <v>9999</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>7019</v>
       </c>
@@ -3997,8 +4206,11 @@
       <c r="G83">
         <v>9999</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>7020</v>
       </c>
@@ -4020,8 +4232,11 @@
       <c r="G84">
         <v>9999</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>7021</v>
       </c>
@@ -4043,8 +4258,11 @@
       <c r="G85">
         <v>9999</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>7022</v>
       </c>
@@ -4066,8 +4284,11 @@
       <c r="G86">
         <v>9999</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>7023</v>
       </c>
@@ -4089,8 +4310,11 @@
       <c r="G87">
         <v>9999</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>7024</v>
       </c>
@@ -4112,8 +4336,11 @@
       <c r="G88">
         <v>9999</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>7025</v>
       </c>
@@ -4135,8 +4362,11 @@
       <c r="G89">
         <v>9999</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>7026</v>
       </c>
@@ -4158,8 +4388,11 @@
       <c r="G90">
         <v>9999</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>7027</v>
       </c>
@@ -4181,8 +4414,11 @@
       <c r="G91">
         <v>9999</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>7028</v>
       </c>
@@ -4204,8 +4440,11 @@
       <c r="G92">
         <v>9999</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>7029</v>
       </c>
@@ -4227,8 +4466,11 @@
       <c r="G93">
         <v>9999</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>7030</v>
       </c>
@@ -4250,8 +4492,11 @@
       <c r="G94">
         <v>9999</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>9000</v>
       </c>
@@ -4268,7 +4513,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>9001</v>
       </c>
@@ -4285,7 +4530,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>9002</v>
       </c>
@@ -4302,7 +4547,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>9003</v>
       </c>
@@ -4319,7 +4564,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>9004</v>
       </c>
@@ -4336,7 +4581,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>9005</v>
       </c>
@@ -4353,7 +4598,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A101" s="5">
         <v>10001</v>
       </c>
@@ -4376,7 +4621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A102" s="5">
         <v>10002</v>
       </c>
@@ -4399,7 +4644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A103" s="5">
         <v>10003</v>
       </c>
@@ -4422,7 +4667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A104" s="5">
         <v>10004</v>
       </c>
@@ -4445,7 +4690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A105" s="5">
         <v>10005</v>
       </c>
@@ -4468,7 +4713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A106" s="5">
         <v>10006</v>
       </c>
@@ -4491,7 +4736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A107" s="5">
         <v>10007</v>
       </c>
@@ -4514,7 +4759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A108" s="5">
         <v>10008</v>
       </c>
@@ -4537,7 +4782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A109" s="5">
         <v>10009</v>
       </c>
@@ -4560,7 +4805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A110" s="5">
         <v>10010</v>
       </c>
@@ -4583,7 +4828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A111" s="5">
         <v>10011</v>
       </c>
@@ -4606,7 +4851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A112" s="5">
         <v>10012</v>
       </c>
@@ -4629,7 +4874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>11001</v>
       </c>
@@ -4670,12 +4915,12 @@
       <selection activeCell="B2" sqref="B2:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="32.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>247</v>
       </c>
@@ -4698,7 +4943,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
         <v>10013</v>
       </c>
@@ -4721,7 +4966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>10012</v>
       </c>
@@ -4744,7 +4989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>10011</v>
       </c>
@@ -4767,7 +5012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>10010</v>
       </c>
@@ -4790,7 +5035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>10009</v>
       </c>
@@ -4813,7 +5058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>10008</v>
       </c>
@@ -4836,7 +5081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>10007</v>
       </c>
@@ -4859,7 +5104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>10006</v>
       </c>
@@ -4882,7 +5127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>10005</v>
       </c>
@@ -4905,7 +5150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>10004</v>
       </c>
@@ -4928,7 +5173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>10003</v>
       </c>
@@ -4951,7 +5196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>10002</v>
       </c>
@@ -4992,83 +5237,83 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.09765625" customWidth="1"/>
-    <col min="2" max="2" width="5.8984375" customWidth="1"/>
+    <col min="1" max="1" width="20.125" customWidth="1"/>
+    <col min="2" max="2" width="5.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>98</v>
       </c>
@@ -5088,9 +5333,9 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -5098,7 +5343,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2</v>
       </c>
@@ -5106,7 +5351,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>51</v>
       </c>
@@ -5114,7 +5359,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>52</v>
       </c>
@@ -5122,7 +5367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>53</v>
       </c>
@@ -5130,7 +5375,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1000</v>
       </c>
@@ -5138,7 +5383,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1001</v>
       </c>
@@ -5146,7 +5391,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -5154,7 +5399,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>2100</v>
       </c>
@@ -5162,7 +5407,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>2101</v>
       </c>
@@ -5170,7 +5415,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>3000</v>
       </c>
@@ -5178,7 +5423,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>3001</v>
       </c>
@@ -5186,7 +5431,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>5001</v>
       </c>
@@ -5194,7 +5439,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>5002</v>
       </c>
@@ -5202,7 +5447,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>9999</v>
       </c>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6552CF-CD2A-416B-A743-F3B4C73FD5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2C7EB5-3F51-4044-BA3D-2AC46DF5CCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="255">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1276,6 +1276,17 @@
   </si>
   <si>
     <t>CanEquip</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Explanatory</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1796,12 +1807,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:I113" totalsRowShown="0">
-  <autoFilter ref="A1:I113" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:J113" totalsRowShown="0">
+  <autoFilter ref="A1:J113" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Name"/>
     <tableColumn id="3" xr3:uid="{E73967F7-5D00-455D-9AEC-4ABDD41A14F5}" name="IconResourcesPath"/>
+    <tableColumn id="10" xr3:uid="{B69A039D-08C8-46F6-B28C-2EE5EA2782F8}" name="Explanatory"/>
     <tableColumn id="4" xr3:uid="{612AE7D3-B358-4052-A7EF-BCB3EB411FAA}" name="Type"/>
     <tableColumn id="7" xr3:uid="{5EB6F68E-6448-49F1-A9C2-F9852FA1684B}" name="BagType"/>
     <tableColumn id="5" xr3:uid="{69810B33-DB51-4131-A821-B92E515A015E}" name="ReferenceID"/>
@@ -2129,23 +2141,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:I113"/>
+  <dimension ref="A1:J113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P42" sqref="P42"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2156,39 +2169,45 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>85</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>99</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>71</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2198,23 +2217,26 @@
       <c r="C3" t="s">
         <v>48</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E3">
         <v>1000</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
       <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
         <v>5000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>999</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2224,23 +2246,26 @@
       <c r="C4" t="s">
         <v>49</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E4">
         <v>1001</v>
       </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
       <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
         <v>5001</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>999</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2250,23 +2275,26 @@
       <c r="C5" t="s">
         <v>83</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E5">
         <v>2000</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
       <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
         <v>5002</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>999</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2276,23 +2304,26 @@
       <c r="C6" t="s">
         <v>84</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E6">
         <v>2000</v>
       </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
       <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
         <v>5003</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>999</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2302,23 +2333,26 @@
       <c r="C7" t="s">
         <v>90</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E7">
         <v>2100</v>
       </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
       <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
         <v>5100</v>
       </c>
-      <c r="G7">
-        <v>9999</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H7">
+        <v>9999</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2328,23 +2362,26 @@
       <c r="C8" t="s">
         <v>159</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E8">
         <v>2101</v>
       </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
       <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
         <v>5101</v>
       </c>
-      <c r="G8">
-        <v>9999</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H8">
+        <v>9999</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2354,23 +2391,26 @@
       <c r="C9" t="s">
         <v>160</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="s">
+        <v>253</v>
+      </c>
+      <c r="E9">
         <v>2101</v>
       </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
       <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
         <v>5102</v>
       </c>
-      <c r="G9">
-        <v>9999</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H9">
+        <v>9999</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2380,23 +2420,26 @@
       <c r="C10" t="s">
         <v>161</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="s">
+        <v>253</v>
+      </c>
+      <c r="E10">
         <v>2101</v>
       </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
       <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
         <v>5103</v>
       </c>
-      <c r="G10">
-        <v>9999</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H10">
+        <v>9999</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>101</v>
       </c>
@@ -2406,23 +2449,26 @@
       <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="D11">
-        <v>1</v>
+      <c r="D11" t="s">
+        <v>253</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>1001</v>
       </c>
-      <c r="G11">
-        <v>9999</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H11">
+        <v>9999</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>102</v>
       </c>
@@ -2432,23 +2478,26 @@
       <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D12">
-        <v>1</v>
+      <c r="D12" t="s">
+        <v>253</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
         <v>1002</v>
       </c>
-      <c r="G12">
-        <v>9999</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H12">
+        <v>9999</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>103</v>
       </c>
@@ -2458,23 +2507,26 @@
       <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="D13">
-        <v>1</v>
+      <c r="D13" t="s">
+        <v>253</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
         <v>1003</v>
       </c>
-      <c r="G13">
-        <v>9999</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H13">
+        <v>9999</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>104</v>
       </c>
@@ -2484,23 +2536,26 @@
       <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="D14">
-        <v>1</v>
+      <c r="D14" t="s">
+        <v>253</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
         <v>1004</v>
       </c>
-      <c r="G14">
-        <v>9999</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H14">
+        <v>9999</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>105</v>
       </c>
@@ -2510,23 +2565,26 @@
       <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="D15">
-        <v>1</v>
+      <c r="D15" t="s">
+        <v>253</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
         <v>1005</v>
       </c>
-      <c r="G15">
-        <v>9999</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H15">
+        <v>9999</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>106</v>
       </c>
@@ -2536,23 +2594,26 @@
       <c r="C16" t="s">
         <v>26</v>
       </c>
-      <c r="D16">
-        <v>1</v>
+      <c r="D16" t="s">
+        <v>253</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
         <v>1006</v>
       </c>
-      <c r="G16">
-        <v>9999</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H16">
+        <v>9999</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>107</v>
       </c>
@@ -2562,23 +2623,26 @@
       <c r="C17" t="s">
         <v>27</v>
       </c>
-      <c r="D17">
-        <v>1</v>
+      <c r="D17" t="s">
+        <v>253</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
         <v>1007</v>
       </c>
-      <c r="G17">
-        <v>9999</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H17">
+        <v>9999</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>108</v>
       </c>
@@ -2588,23 +2652,26 @@
       <c r="C18" t="s">
         <v>28</v>
       </c>
-      <c r="D18">
-        <v>1</v>
+      <c r="D18" t="s">
+        <v>253</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
         <v>1008</v>
       </c>
-      <c r="G18">
-        <v>9999</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H18">
+        <v>9999</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>109</v>
       </c>
@@ -2614,23 +2681,26 @@
       <c r="C19" t="s">
         <v>47</v>
       </c>
-      <c r="D19">
-        <v>1</v>
+      <c r="D19" t="s">
+        <v>253</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
         <v>1009</v>
       </c>
-      <c r="G19">
-        <v>9999</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H19">
+        <v>9999</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>110</v>
       </c>
@@ -2640,23 +2710,26 @@
       <c r="C20" t="s">
         <v>30</v>
       </c>
-      <c r="D20">
-        <v>1</v>
+      <c r="D20" t="s">
+        <v>253</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
         <v>1010</v>
       </c>
-      <c r="G20">
-        <v>9999</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H20">
+        <v>9999</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>111</v>
       </c>
@@ -2666,23 +2739,26 @@
       <c r="C21" t="s">
         <v>29</v>
       </c>
-      <c r="D21">
-        <v>1</v>
+      <c r="D21" t="s">
+        <v>253</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
         <v>1011</v>
       </c>
-      <c r="G21">
-        <v>9999</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H21">
+        <v>9999</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>112</v>
       </c>
@@ -2692,23 +2768,26 @@
       <c r="C22" t="s">
         <v>31</v>
       </c>
-      <c r="D22">
-        <v>1</v>
+      <c r="D22" t="s">
+        <v>253</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
         <v>1012</v>
       </c>
-      <c r="G22">
-        <v>9999</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H22">
+        <v>9999</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>113</v>
       </c>
@@ -2718,23 +2797,26 @@
       <c r="C23" t="s">
         <v>78</v>
       </c>
-      <c r="D23">
-        <v>1</v>
+      <c r="D23" t="s">
+        <v>253</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
         <v>1013</v>
       </c>
-      <c r="G23">
-        <v>9999</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H23">
+        <v>9999</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>114</v>
       </c>
@@ -2744,23 +2826,26 @@
       <c r="C24" t="s">
         <v>79</v>
       </c>
-      <c r="D24">
-        <v>1</v>
+      <c r="D24" t="s">
+        <v>253</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
         <v>1014</v>
       </c>
-      <c r="G24">
-        <v>9999</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H24">
+        <v>9999</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>115</v>
       </c>
@@ -2770,23 +2855,26 @@
       <c r="C25" t="s">
         <v>80</v>
       </c>
-      <c r="D25">
-        <v>1</v>
+      <c r="D25" t="s">
+        <v>253</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
         <v>1015</v>
       </c>
-      <c r="G25">
-        <v>9999</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H25">
+        <v>9999</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>116</v>
       </c>
@@ -2796,23 +2884,26 @@
       <c r="C26" t="s">
         <v>81</v>
       </c>
-      <c r="D26">
-        <v>1</v>
+      <c r="D26" t="s">
+        <v>253</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
         <v>1016</v>
       </c>
-      <c r="G26">
-        <v>9999</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H26">
+        <v>9999</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>117</v>
       </c>
@@ -2822,23 +2913,26 @@
       <c r="C27" t="s">
         <v>82</v>
       </c>
-      <c r="D27">
-        <v>1</v>
+      <c r="D27" t="s">
+        <v>253</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
         <v>1017</v>
       </c>
-      <c r="G27">
-        <v>9999</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H27">
+        <v>9999</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>118</v>
       </c>
@@ -2848,23 +2942,26 @@
       <c r="C28" t="s">
         <v>100</v>
       </c>
-      <c r="D28">
-        <v>1</v>
+      <c r="D28" t="s">
+        <v>253</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
         <v>1018</v>
       </c>
-      <c r="G28">
-        <v>9999</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H28">
+        <v>9999</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>123</v>
       </c>
@@ -2874,23 +2971,26 @@
       <c r="C29" t="s">
         <v>143</v>
       </c>
-      <c r="D29">
-        <v>1</v>
+      <c r="D29" t="s">
+        <v>253</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
         <v>1023</v>
       </c>
-      <c r="G29">
-        <v>9999</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H29">
+        <v>9999</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>124</v>
       </c>
@@ -2900,23 +3000,26 @@
       <c r="C30" t="s">
         <v>144</v>
       </c>
-      <c r="D30">
-        <v>1</v>
+      <c r="D30" t="s">
+        <v>253</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
         <v>1024</v>
       </c>
-      <c r="G30">
-        <v>9999</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H30">
+        <v>9999</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>125</v>
       </c>
@@ -2926,23 +3029,26 @@
       <c r="C31" t="s">
         <v>147</v>
       </c>
-      <c r="D31">
-        <v>1</v>
+      <c r="D31" t="s">
+        <v>253</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
         <v>1025</v>
       </c>
-      <c r="G31">
-        <v>9999</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H31">
+        <v>9999</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>126</v>
       </c>
@@ -2952,23 +3058,26 @@
       <c r="C32" t="s">
         <v>148</v>
       </c>
-      <c r="D32">
-        <v>1</v>
+      <c r="D32" t="s">
+        <v>253</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
         <v>1026</v>
       </c>
-      <c r="G32">
-        <v>9999</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H32">
+        <v>9999</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>127</v>
       </c>
@@ -2978,23 +3087,26 @@
       <c r="C33" t="s">
         <v>149</v>
       </c>
-      <c r="D33">
-        <v>1</v>
+      <c r="D33" t="s">
+        <v>253</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
         <v>1027</v>
       </c>
-      <c r="G33">
-        <v>9999</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H33">
+        <v>9999</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>128</v>
       </c>
@@ -3004,23 +3116,26 @@
       <c r="C34" t="s">
         <v>145</v>
       </c>
-      <c r="D34">
-        <v>1</v>
+      <c r="D34" t="s">
+        <v>253</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
         <v>1028</v>
       </c>
-      <c r="G34">
-        <v>9999</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H34">
+        <v>9999</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>129</v>
       </c>
@@ -3030,23 +3145,26 @@
       <c r="C35" t="s">
         <v>146</v>
       </c>
-      <c r="D35">
-        <v>1</v>
+      <c r="D35" t="s">
+        <v>253</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
         <v>1029</v>
       </c>
-      <c r="G35">
-        <v>9999</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H35">
+        <v>9999</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>134</v>
       </c>
@@ -3056,23 +3174,26 @@
       <c r="C36" t="s">
         <v>162</v>
       </c>
-      <c r="D36">
-        <v>1</v>
+      <c r="D36" t="s">
+        <v>253</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
         <v>1034</v>
       </c>
-      <c r="G36">
-        <v>9999</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H36">
+        <v>9999</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>135</v>
       </c>
@@ -3082,23 +3203,26 @@
       <c r="C37" t="s">
         <v>163</v>
       </c>
-      <c r="D37">
-        <v>1</v>
+      <c r="D37" t="s">
+        <v>253</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
         <v>1035</v>
       </c>
-      <c r="G37">
-        <v>9999</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H37">
+        <v>9999</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>136</v>
       </c>
@@ -3108,23 +3232,26 @@
       <c r="C38" t="s">
         <v>164</v>
       </c>
-      <c r="D38">
-        <v>1</v>
+      <c r="D38" t="s">
+        <v>253</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
         <v>1036</v>
       </c>
-      <c r="G38">
-        <v>9999</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H38">
+        <v>9999</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>137</v>
       </c>
@@ -3134,23 +3261,26 @@
       <c r="C39" t="s">
         <v>165</v>
       </c>
-      <c r="D39">
-        <v>1</v>
+      <c r="D39" t="s">
+        <v>253</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
         <v>1037</v>
       </c>
-      <c r="G39">
-        <v>9999</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H39">
+        <v>9999</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>138</v>
       </c>
@@ -3160,23 +3290,26 @@
       <c r="C40" t="s">
         <v>166</v>
       </c>
-      <c r="D40">
-        <v>1</v>
+      <c r="D40" t="s">
+        <v>253</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
         <v>1038</v>
       </c>
-      <c r="G40">
-        <v>9999</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H40">
+        <v>9999</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>139</v>
       </c>
@@ -3186,23 +3319,26 @@
       <c r="C41" t="s">
         <v>167</v>
       </c>
-      <c r="D41">
-        <v>1</v>
+      <c r="D41" t="s">
+        <v>253</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
         <v>1039</v>
       </c>
-      <c r="G41">
-        <v>9999</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H41">
+        <v>9999</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>500</v>
       </c>
@@ -3212,23 +3348,26 @@
       <c r="C42" t="s">
         <v>101</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="s">
+        <v>253</v>
+      </c>
+      <c r="E42">
         <v>3001</v>
       </c>
-      <c r="E42">
-        <v>2</v>
-      </c>
       <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
         <v>1500</v>
       </c>
-      <c r="G42">
-        <v>9999</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H42">
+        <v>9999</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>501</v>
       </c>
@@ -3238,23 +3377,26 @@
       <c r="C43" t="s">
         <v>102</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="s">
+        <v>253</v>
+      </c>
+      <c r="E43">
         <v>3001</v>
       </c>
-      <c r="E43">
-        <v>2</v>
-      </c>
       <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
         <v>1501</v>
       </c>
-      <c r="G43">
-        <v>9999</v>
-      </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H43">
+        <v>9999</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>502</v>
       </c>
@@ -3264,23 +3406,26 @@
       <c r="C44" t="s">
         <v>103</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="s">
+        <v>253</v>
+      </c>
+      <c r="E44">
         <v>3001</v>
       </c>
-      <c r="E44">
-        <v>2</v>
-      </c>
       <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
         <v>1502</v>
       </c>
-      <c r="G44">
-        <v>9999</v>
-      </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H44">
+        <v>9999</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>503</v>
       </c>
@@ -3290,23 +3435,26 @@
       <c r="C45" t="s">
         <v>104</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="s">
+        <v>253</v>
+      </c>
+      <c r="E45">
         <v>3001</v>
       </c>
-      <c r="E45">
-        <v>2</v>
-      </c>
       <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
         <v>1503</v>
       </c>
-      <c r="G45">
-        <v>9999</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H45">
+        <v>9999</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>504</v>
       </c>
@@ -3316,23 +3464,26 @@
       <c r="C46" t="s">
         <v>105</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="s">
+        <v>253</v>
+      </c>
+      <c r="E46">
         <v>3001</v>
       </c>
-      <c r="E46">
-        <v>2</v>
-      </c>
       <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
         <v>1504</v>
       </c>
-      <c r="G46">
-        <v>9999</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H46">
+        <v>9999</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>505</v>
       </c>
@@ -3342,23 +3493,26 @@
       <c r="C47" t="s">
         <v>106</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="s">
+        <v>253</v>
+      </c>
+      <c r="E47">
         <v>3001</v>
       </c>
-      <c r="E47">
-        <v>2</v>
-      </c>
       <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
         <v>1505</v>
       </c>
-      <c r="G47">
-        <v>9999</v>
-      </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H47">
+        <v>9999</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>506</v>
       </c>
@@ -3368,23 +3522,26 @@
       <c r="C48" t="s">
         <v>107</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="s">
+        <v>253</v>
+      </c>
+      <c r="E48">
         <v>3001</v>
       </c>
-      <c r="E48">
-        <v>2</v>
-      </c>
       <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
         <v>1506</v>
       </c>
-      <c r="G48">
-        <v>9999</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H48">
+        <v>9999</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>507</v>
       </c>
@@ -3394,23 +3551,26 @@
       <c r="C49" t="s">
         <v>108</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="s">
+        <v>253</v>
+      </c>
+      <c r="E49">
         <v>3001</v>
       </c>
-      <c r="E49">
-        <v>2</v>
-      </c>
       <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
         <v>1507</v>
       </c>
-      <c r="G49">
-        <v>9999</v>
-      </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H49">
+        <v>9999</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>508</v>
       </c>
@@ -3420,23 +3580,26 @@
       <c r="C50" t="s">
         <v>109</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="s">
+        <v>253</v>
+      </c>
+      <c r="E50">
         <v>3001</v>
       </c>
-      <c r="E50">
-        <v>2</v>
-      </c>
       <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
         <v>1508</v>
       </c>
-      <c r="G50">
-        <v>9999</v>
-      </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H50">
+        <v>9999</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>509</v>
       </c>
@@ -3446,23 +3609,26 @@
       <c r="C51" t="s">
         <v>110</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="s">
+        <v>253</v>
+      </c>
+      <c r="E51">
         <v>3001</v>
       </c>
-      <c r="E51">
-        <v>2</v>
-      </c>
       <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
         <v>1509</v>
       </c>
-      <c r="G51">
-        <v>9999</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H51">
+        <v>9999</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>550</v>
       </c>
@@ -3472,23 +3638,26 @@
       <c r="C52" t="s">
         <v>112</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="s">
+        <v>253</v>
+      </c>
+      <c r="E52">
         <v>3001</v>
       </c>
-      <c r="E52">
-        <v>2</v>
-      </c>
       <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
         <v>1550</v>
       </c>
-      <c r="G52">
-        <v>9999</v>
-      </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H52">
+        <v>9999</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>551</v>
       </c>
@@ -3498,23 +3667,26 @@
       <c r="C53" t="s">
         <v>113</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="s">
+        <v>253</v>
+      </c>
+      <c r="E53">
         <v>3001</v>
       </c>
-      <c r="E53">
-        <v>2</v>
-      </c>
       <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53">
         <v>1551</v>
       </c>
-      <c r="G53">
-        <v>9999</v>
-      </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H53">
+        <v>9999</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>552</v>
       </c>
@@ -3524,23 +3696,26 @@
       <c r="C54" t="s">
         <v>114</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="s">
+        <v>253</v>
+      </c>
+      <c r="E54">
         <v>3001</v>
       </c>
-      <c r="E54">
-        <v>2</v>
-      </c>
       <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
         <v>1552</v>
       </c>
-      <c r="G54">
-        <v>9999</v>
-      </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H54">
+        <v>9999</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>553</v>
       </c>
@@ -3550,23 +3725,26 @@
       <c r="C55" t="s">
         <v>115</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="s">
+        <v>253</v>
+      </c>
+      <c r="E55">
         <v>3001</v>
       </c>
-      <c r="E55">
-        <v>2</v>
-      </c>
       <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
         <v>1553</v>
       </c>
-      <c r="G55">
-        <v>9999</v>
-      </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H55">
+        <v>9999</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>554</v>
       </c>
@@ -3576,23 +3754,26 @@
       <c r="C56" t="s">
         <v>116</v>
       </c>
-      <c r="D56">
+      <c r="D56" t="s">
+        <v>253</v>
+      </c>
+      <c r="E56">
         <v>3001</v>
       </c>
-      <c r="E56">
-        <v>2</v>
-      </c>
       <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
         <v>1554</v>
       </c>
-      <c r="G56">
-        <v>9999</v>
-      </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H56">
+        <v>9999</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>555</v>
       </c>
@@ -3602,23 +3783,26 @@
       <c r="C57" t="s">
         <v>117</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="s">
+        <v>253</v>
+      </c>
+      <c r="E57">
         <v>3001</v>
       </c>
-      <c r="E57">
-        <v>2</v>
-      </c>
       <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
         <v>1555</v>
       </c>
-      <c r="G57">
-        <v>9999</v>
-      </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H57">
+        <v>9999</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>556</v>
       </c>
@@ -3628,23 +3812,26 @@
       <c r="C58" t="s">
         <v>118</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="s">
+        <v>253</v>
+      </c>
+      <c r="E58">
         <v>3001</v>
       </c>
-      <c r="E58">
-        <v>2</v>
-      </c>
       <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
         <v>1556</v>
       </c>
-      <c r="G58">
-        <v>9999</v>
-      </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H58">
+        <v>9999</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>557</v>
       </c>
@@ -3654,23 +3841,26 @@
       <c r="C59" t="s">
         <v>119</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="s">
+        <v>253</v>
+      </c>
+      <c r="E59">
         <v>3001</v>
       </c>
-      <c r="E59">
-        <v>2</v>
-      </c>
       <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
         <v>1557</v>
       </c>
-      <c r="G59">
-        <v>9999</v>
-      </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H59">
+        <v>9999</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>558</v>
       </c>
@@ -3680,23 +3870,26 @@
       <c r="C60" t="s">
         <v>120</v>
       </c>
-      <c r="D60">
+      <c r="D60" t="s">
+        <v>253</v>
+      </c>
+      <c r="E60">
         <v>3001</v>
       </c>
-      <c r="E60">
-        <v>2</v>
-      </c>
       <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
         <v>1558</v>
       </c>
-      <c r="G60">
-        <v>9999</v>
-      </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H60">
+        <v>9999</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>559</v>
       </c>
@@ -3706,23 +3899,26 @@
       <c r="C61" t="s">
         <v>121</v>
       </c>
-      <c r="D61">
+      <c r="D61" t="s">
+        <v>253</v>
+      </c>
+      <c r="E61">
         <v>3001</v>
       </c>
-      <c r="E61">
-        <v>2</v>
-      </c>
       <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61">
         <v>1559</v>
       </c>
-      <c r="G61">
-        <v>9999</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H61">
+        <v>9999</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>600</v>
       </c>
@@ -3732,23 +3928,26 @@
       <c r="C62" t="s">
         <v>111</v>
       </c>
-      <c r="D62">
+      <c r="D62" t="s">
+        <v>253</v>
+      </c>
+      <c r="E62">
         <v>3000</v>
       </c>
-      <c r="E62">
-        <v>2</v>
-      </c>
       <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62">
         <v>1600</v>
       </c>
-      <c r="G62">
-        <v>9999</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H62">
+        <v>9999</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>1001</v>
       </c>
@@ -3758,17 +3957,20 @@
       <c r="C63" t="s">
         <v>50</v>
       </c>
-      <c r="D63">
-        <v>2</v>
+      <c r="D63" t="s">
+        <v>253</v>
       </c>
       <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63">
         <v>3</v>
       </c>
-      <c r="G63">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H63">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>1002</v>
       </c>
@@ -3778,17 +3980,20 @@
       <c r="C64" t="s">
         <v>51</v>
       </c>
-      <c r="D64">
-        <v>2</v>
+      <c r="D64" t="s">
+        <v>253</v>
       </c>
       <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64">
         <v>3</v>
       </c>
-      <c r="G64">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H64">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>1003</v>
       </c>
@@ -3798,17 +4003,20 @@
       <c r="C65" t="s">
         <v>52</v>
       </c>
-      <c r="D65">
-        <v>2</v>
+      <c r="D65" t="s">
+        <v>253</v>
       </c>
       <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65">
         <v>3</v>
       </c>
-      <c r="G65">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H65">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>1004</v>
       </c>
@@ -3818,17 +4026,20 @@
       <c r="C66" t="s">
         <v>53</v>
       </c>
-      <c r="D66">
-        <v>2</v>
+      <c r="D66" t="s">
+        <v>253</v>
       </c>
       <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66">
         <v>3</v>
       </c>
-      <c r="G66">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H66">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>1005</v>
       </c>
@@ -3838,17 +4049,20 @@
       <c r="C67" t="s">
         <v>54</v>
       </c>
-      <c r="D67">
-        <v>2</v>
+      <c r="D67" t="s">
+        <v>253</v>
       </c>
       <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67">
         <v>3</v>
       </c>
-      <c r="G67">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H67">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>1006</v>
       </c>
@@ -3858,17 +4072,20 @@
       <c r="C68" t="s">
         <v>55</v>
       </c>
-      <c r="D68">
-        <v>2</v>
+      <c r="D68" t="s">
+        <v>253</v>
       </c>
       <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68">
         <v>3</v>
       </c>
-      <c r="G68">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H68">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>1007</v>
       </c>
@@ -3878,17 +4095,20 @@
       <c r="C69" t="s">
         <v>56</v>
       </c>
-      <c r="D69">
-        <v>2</v>
+      <c r="D69" t="s">
+        <v>253</v>
       </c>
       <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69">
         <v>3</v>
       </c>
-      <c r="G69">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H69">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>1008</v>
       </c>
@@ -3898,17 +4118,20 @@
       <c r="C70" t="s">
         <v>57</v>
       </c>
-      <c r="D70">
-        <v>2</v>
+      <c r="D70" t="s">
+        <v>253</v>
       </c>
       <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70">
         <v>3</v>
       </c>
-      <c r="G70">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H70">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>1009</v>
       </c>
@@ -3918,17 +4141,20 @@
       <c r="C71" t="s">
         <v>58</v>
       </c>
-      <c r="D71">
-        <v>2</v>
+      <c r="D71" t="s">
+        <v>253</v>
       </c>
       <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71">
         <v>3</v>
       </c>
-      <c r="G71">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H71">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>1010</v>
       </c>
@@ -3938,17 +4164,20 @@
       <c r="C72" t="s">
         <v>59</v>
       </c>
-      <c r="D72">
-        <v>2</v>
+      <c r="D72" t="s">
+        <v>253</v>
       </c>
       <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
         <v>3</v>
       </c>
-      <c r="G72">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H72">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>1011</v>
       </c>
@@ -3958,17 +4187,20 @@
       <c r="C73" t="s">
         <v>60</v>
       </c>
-      <c r="D73">
-        <v>2</v>
+      <c r="D73" t="s">
+        <v>253</v>
       </c>
       <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73">
         <v>3</v>
       </c>
-      <c r="G73">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H73">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>1012</v>
       </c>
@@ -3978,17 +4210,20 @@
       <c r="C74" t="s">
         <v>61</v>
       </c>
-      <c r="D74">
-        <v>2</v>
+      <c r="D74" t="s">
+        <v>253</v>
       </c>
       <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74">
         <v>3</v>
       </c>
-      <c r="G74">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H74">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>1013</v>
       </c>
@@ -3998,17 +4233,20 @@
       <c r="C75" t="s">
         <v>62</v>
       </c>
-      <c r="D75">
-        <v>2</v>
+      <c r="D75" t="s">
+        <v>253</v>
       </c>
       <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75">
         <v>3</v>
       </c>
-      <c r="G75">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H75">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>3000</v>
       </c>
@@ -4018,20 +4256,23 @@
       <c r="C76" t="s">
         <v>6</v>
       </c>
-      <c r="D76">
+      <c r="D76" t="s">
+        <v>253</v>
+      </c>
+      <c r="E76">
         <v>100</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>4</v>
       </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
-      <c r="I76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>3001</v>
       </c>
@@ -4041,20 +4282,23 @@
       <c r="C77" t="s">
         <v>64</v>
       </c>
-      <c r="D77">
+      <c r="D77" t="s">
+        <v>253</v>
+      </c>
+      <c r="E77">
         <v>51</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>4</v>
       </c>
-      <c r="G77">
-        <v>9999</v>
-      </c>
-      <c r="I77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H77">
+        <v>9999</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>3002</v>
       </c>
@@ -4064,23 +4308,26 @@
       <c r="C78" t="s">
         <v>65</v>
       </c>
-      <c r="D78">
+      <c r="D78" t="s">
+        <v>253</v>
+      </c>
+      <c r="E78">
         <v>52</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>4</v>
       </c>
-      <c r="G78">
-        <v>1</v>
-      </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>3003</v>
       </c>
@@ -4090,23 +4337,26 @@
       <c r="C79" t="s">
         <v>158</v>
       </c>
-      <c r="D79">
+      <c r="D79" t="s">
+        <v>253</v>
+      </c>
+      <c r="E79">
         <v>53</v>
       </c>
-      <c r="E79">
-        <v>2</v>
-      </c>
       <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79">
         <v>6000</v>
       </c>
-      <c r="G79">
-        <v>9999</v>
-      </c>
-      <c r="I79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H79">
+        <v>9999</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>7016</v>
       </c>
@@ -4116,23 +4366,26 @@
       <c r="C80" t="s">
         <v>201</v>
       </c>
-      <c r="D80">
+      <c r="D80" t="s">
+        <v>253</v>
+      </c>
+      <c r="E80">
         <v>3001</v>
       </c>
-      <c r="E80">
-        <v>2</v>
-      </c>
       <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80">
         <v>7016</v>
       </c>
-      <c r="G80">
-        <v>9999</v>
-      </c>
-      <c r="I80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H80">
+        <v>9999</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>7017</v>
       </c>
@@ -4142,23 +4395,26 @@
       <c r="C81" t="s">
         <v>202</v>
       </c>
-      <c r="D81">
+      <c r="D81" t="s">
+        <v>253</v>
+      </c>
+      <c r="E81">
         <v>3001</v>
       </c>
-      <c r="E81">
-        <v>2</v>
-      </c>
       <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="G81">
         <v>7017</v>
       </c>
-      <c r="G81">
-        <v>9999</v>
-      </c>
-      <c r="I81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H81">
+        <v>9999</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>7018</v>
       </c>
@@ -4168,23 +4424,26 @@
       <c r="C82" t="s">
         <v>176</v>
       </c>
-      <c r="D82">
+      <c r="D82" t="s">
+        <v>253</v>
+      </c>
+      <c r="E82">
         <v>3001</v>
       </c>
-      <c r="E82">
-        <v>2</v>
-      </c>
       <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="G82">
         <v>7018</v>
       </c>
-      <c r="G82">
-        <v>9999</v>
-      </c>
-      <c r="I82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H82">
+        <v>9999</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>7019</v>
       </c>
@@ -4194,23 +4453,26 @@
       <c r="C83" t="s">
         <v>178</v>
       </c>
-      <c r="D83">
+      <c r="D83" t="s">
+        <v>253</v>
+      </c>
+      <c r="E83">
         <v>3001</v>
       </c>
-      <c r="E83">
-        <v>2</v>
-      </c>
       <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="G83">
         <v>7019</v>
       </c>
-      <c r="G83">
-        <v>9999</v>
-      </c>
-      <c r="I83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H83">
+        <v>9999</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>7020</v>
       </c>
@@ -4220,23 +4482,26 @@
       <c r="C84" t="s">
         <v>179</v>
       </c>
-      <c r="D84">
+      <c r="D84" t="s">
+        <v>253</v>
+      </c>
+      <c r="E84">
         <v>3001</v>
       </c>
-      <c r="E84">
-        <v>2</v>
-      </c>
       <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84">
         <v>7020</v>
       </c>
-      <c r="G84">
-        <v>9999</v>
-      </c>
-      <c r="I84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H84">
+        <v>9999</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>7021</v>
       </c>
@@ -4246,23 +4511,26 @@
       <c r="C85" t="s">
         <v>183</v>
       </c>
-      <c r="D85">
+      <c r="D85" t="s">
+        <v>253</v>
+      </c>
+      <c r="E85">
         <v>3001</v>
       </c>
-      <c r="E85">
-        <v>2</v>
-      </c>
       <c r="F85">
+        <v>2</v>
+      </c>
+      <c r="G85">
         <v>7021</v>
       </c>
-      <c r="G85">
-        <v>9999</v>
-      </c>
-      <c r="I85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H85">
+        <v>9999</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>7022</v>
       </c>
@@ -4272,23 +4540,26 @@
       <c r="C86" t="s">
         <v>182</v>
       </c>
-      <c r="D86">
+      <c r="D86" t="s">
+        <v>253</v>
+      </c>
+      <c r="E86">
         <v>3001</v>
       </c>
-      <c r="E86">
-        <v>2</v>
-      </c>
       <c r="F86">
+        <v>2</v>
+      </c>
+      <c r="G86">
         <v>7022</v>
       </c>
-      <c r="G86">
-        <v>9999</v>
-      </c>
-      <c r="I86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H86">
+        <v>9999</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>7023</v>
       </c>
@@ -4298,23 +4569,26 @@
       <c r="C87" t="s">
         <v>184</v>
       </c>
-      <c r="D87">
+      <c r="D87" t="s">
+        <v>253</v>
+      </c>
+      <c r="E87">
         <v>3001</v>
       </c>
-      <c r="E87">
-        <v>2</v>
-      </c>
       <c r="F87">
+        <v>2</v>
+      </c>
+      <c r="G87">
         <v>7023</v>
       </c>
-      <c r="G87">
-        <v>9999</v>
-      </c>
-      <c r="I87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H87">
+        <v>9999</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>7024</v>
       </c>
@@ -4324,23 +4598,26 @@
       <c r="C88" t="s">
         <v>185</v>
       </c>
-      <c r="D88">
+      <c r="D88" t="s">
+        <v>253</v>
+      </c>
+      <c r="E88">
         <v>3001</v>
       </c>
-      <c r="E88">
-        <v>2</v>
-      </c>
       <c r="F88">
+        <v>2</v>
+      </c>
+      <c r="G88">
         <v>7024</v>
       </c>
-      <c r="G88">
-        <v>9999</v>
-      </c>
-      <c r="I88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H88">
+        <v>9999</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>7025</v>
       </c>
@@ -4350,23 +4627,26 @@
       <c r="C89" t="s">
         <v>186</v>
       </c>
-      <c r="D89">
+      <c r="D89" t="s">
+        <v>253</v>
+      </c>
+      <c r="E89">
         <v>3001</v>
       </c>
-      <c r="E89">
-        <v>2</v>
-      </c>
       <c r="F89">
+        <v>2</v>
+      </c>
+      <c r="G89">
         <v>7025</v>
       </c>
-      <c r="G89">
-        <v>9999</v>
-      </c>
-      <c r="I89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H89">
+        <v>9999</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>7026</v>
       </c>
@@ -4376,23 +4656,26 @@
       <c r="C90" t="s">
         <v>196</v>
       </c>
-      <c r="D90">
+      <c r="D90" t="s">
+        <v>253</v>
+      </c>
+      <c r="E90">
         <v>3001</v>
       </c>
-      <c r="E90">
-        <v>2</v>
-      </c>
       <c r="F90">
+        <v>2</v>
+      </c>
+      <c r="G90">
         <v>7026</v>
       </c>
-      <c r="G90">
-        <v>9999</v>
-      </c>
-      <c r="I90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H90">
+        <v>9999</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>7027</v>
       </c>
@@ -4402,23 +4685,26 @@
       <c r="C91" t="s">
         <v>197</v>
       </c>
-      <c r="D91">
+      <c r="D91" t="s">
+        <v>253</v>
+      </c>
+      <c r="E91">
         <v>3001</v>
       </c>
-      <c r="E91">
-        <v>2</v>
-      </c>
       <c r="F91">
+        <v>2</v>
+      </c>
+      <c r="G91">
         <v>7027</v>
       </c>
-      <c r="G91">
-        <v>9999</v>
-      </c>
-      <c r="I91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H91">
+        <v>9999</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>7028</v>
       </c>
@@ -4428,23 +4714,26 @@
       <c r="C92" t="s">
         <v>198</v>
       </c>
-      <c r="D92">
+      <c r="D92" t="s">
+        <v>253</v>
+      </c>
+      <c r="E92">
         <v>3001</v>
       </c>
-      <c r="E92">
-        <v>2</v>
-      </c>
       <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="G92">
         <v>7028</v>
       </c>
-      <c r="G92">
-        <v>9999</v>
-      </c>
-      <c r="I92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H92">
+        <v>9999</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>7029</v>
       </c>
@@ -4454,23 +4743,26 @@
       <c r="C93" t="s">
         <v>199</v>
       </c>
-      <c r="D93">
+      <c r="D93" t="s">
+        <v>253</v>
+      </c>
+      <c r="E93">
         <v>3001</v>
       </c>
-      <c r="E93">
-        <v>2</v>
-      </c>
       <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93">
         <v>7029</v>
       </c>
-      <c r="G93">
-        <v>9999</v>
-      </c>
-      <c r="I93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H93">
+        <v>9999</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>7030</v>
       </c>
@@ -4480,23 +4772,26 @@
       <c r="C94" t="s">
         <v>200</v>
       </c>
-      <c r="D94">
+      <c r="D94" t="s">
+        <v>253</v>
+      </c>
+      <c r="E94">
         <v>3001</v>
       </c>
-      <c r="E94">
-        <v>2</v>
-      </c>
       <c r="F94">
+        <v>2</v>
+      </c>
+      <c r="G94">
         <v>7030</v>
       </c>
-      <c r="G94">
-        <v>9999</v>
-      </c>
-      <c r="I94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H94">
+        <v>9999</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>9000</v>
       </c>
@@ -4506,14 +4801,17 @@
       <c r="C95" t="s">
         <v>66</v>
       </c>
-      <c r="D95">
+      <c r="D95" t="s">
+        <v>253</v>
+      </c>
+      <c r="E95">
         <v>90</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <v>9999999</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>9001</v>
       </c>
@@ -4523,14 +4821,17 @@
       <c r="C96" t="s">
         <v>67</v>
       </c>
-      <c r="D96">
+      <c r="D96" t="s">
+        <v>253</v>
+      </c>
+      <c r="E96">
         <v>91</v>
       </c>
-      <c r="G96">
+      <c r="H96">
         <v>9999999</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>9002</v>
       </c>
@@ -4540,14 +4841,17 @@
       <c r="C97" t="s">
         <v>72</v>
       </c>
-      <c r="D97">
+      <c r="D97" t="s">
+        <v>253</v>
+      </c>
+      <c r="E97">
         <v>92</v>
       </c>
-      <c r="G97">
+      <c r="H97">
         <v>9999999</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>9003</v>
       </c>
@@ -4557,14 +4861,17 @@
       <c r="C98" t="s">
         <v>207</v>
       </c>
-      <c r="D98">
+      <c r="D98" t="s">
+        <v>253</v>
+      </c>
+      <c r="E98">
         <v>93</v>
       </c>
-      <c r="G98">
+      <c r="H98">
         <v>9999999</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>9004</v>
       </c>
@@ -4574,14 +4881,17 @@
       <c r="C99" t="s">
         <v>209</v>
       </c>
-      <c r="D99">
+      <c r="D99" t="s">
+        <v>253</v>
+      </c>
+      <c r="E99">
         <v>94</v>
       </c>
-      <c r="G99">
+      <c r="H99">
         <v>9999999</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>9005</v>
       </c>
@@ -4591,14 +4901,17 @@
       <c r="C100" t="s">
         <v>211</v>
       </c>
-      <c r="D100">
+      <c r="D100" t="s">
+        <v>253</v>
+      </c>
+      <c r="E100">
         <v>95</v>
       </c>
-      <c r="G100">
+      <c r="H100">
         <v>9999999</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A101" s="5">
         <v>10001</v>
       </c>
@@ -4608,20 +4921,23 @@
       <c r="C101" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D101" s="6">
+      <c r="D101" t="s">
+        <v>253</v>
+      </c>
+      <c r="E101" s="6">
         <v>5001</v>
       </c>
-      <c r="E101" s="6">
+      <c r="F101" s="6">
         <v>5</v>
       </c>
-      <c r="F101" s="6">
-        <v>1</v>
-      </c>
       <c r="G101" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H101" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A102" s="5">
         <v>10002</v>
       </c>
@@ -4631,20 +4947,23 @@
       <c r="C102" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="D102" s="7">
+      <c r="D102" t="s">
+        <v>253</v>
+      </c>
+      <c r="E102" s="7">
         <v>5001</v>
       </c>
-      <c r="E102" s="7">
+      <c r="F102" s="7">
         <v>5</v>
       </c>
-      <c r="F102" s="7">
-        <v>2</v>
-      </c>
       <c r="G102" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="H102" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A103" s="5">
         <v>10003</v>
       </c>
@@ -4654,20 +4973,23 @@
       <c r="C103" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D103" s="7">
+      <c r="D103" t="s">
+        <v>253</v>
+      </c>
+      <c r="E103" s="7">
         <v>5001</v>
       </c>
-      <c r="E103" s="7">
+      <c r="F103" s="7">
         <v>5</v>
       </c>
-      <c r="F103" s="7">
+      <c r="G103" s="7">
         <v>3</v>
       </c>
-      <c r="G103" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H103" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A104" s="5">
         <v>10004</v>
       </c>
@@ -4677,20 +4999,23 @@
       <c r="C104" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="D104" s="7">
+      <c r="D104" t="s">
+        <v>253</v>
+      </c>
+      <c r="E104" s="7">
         <v>5001</v>
       </c>
-      <c r="E104" s="7">
+      <c r="F104" s="7">
         <v>5</v>
       </c>
-      <c r="F104" s="7">
+      <c r="G104" s="7">
         <v>4</v>
       </c>
-      <c r="G104" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H104" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A105" s="5">
         <v>10005</v>
       </c>
@@ -4700,20 +5025,23 @@
       <c r="C105" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="D105" s="7">
+      <c r="D105" t="s">
+        <v>253</v>
+      </c>
+      <c r="E105" s="7">
         <v>5001</v>
-      </c>
-      <c r="E105" s="7">
-        <v>5</v>
       </c>
       <c r="F105" s="7">
         <v>5</v>
       </c>
       <c r="G105" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="H105" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A106" s="5">
         <v>10006</v>
       </c>
@@ -4723,20 +5051,23 @@
       <c r="C106" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="D106" s="7">
+      <c r="D106" t="s">
+        <v>253</v>
+      </c>
+      <c r="E106" s="7">
         <v>5001</v>
       </c>
-      <c r="E106" s="7">
+      <c r="F106" s="7">
         <v>5</v>
       </c>
-      <c r="F106" s="7">
+      <c r="G106" s="7">
         <v>6</v>
       </c>
-      <c r="G106" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H106" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A107" s="5">
         <v>10007</v>
       </c>
@@ -4746,20 +5077,23 @@
       <c r="C107" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="D107" s="7">
+      <c r="D107" t="s">
+        <v>253</v>
+      </c>
+      <c r="E107" s="7">
         <v>5001</v>
       </c>
-      <c r="E107" s="7">
+      <c r="F107" s="7">
         <v>5</v>
       </c>
-      <c r="F107" s="7">
+      <c r="G107" s="7">
         <v>7</v>
       </c>
-      <c r="G107" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H107" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A108" s="5">
         <v>10008</v>
       </c>
@@ -4769,20 +5103,23 @@
       <c r="C108" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="D108" s="7">
+      <c r="D108" t="s">
+        <v>253</v>
+      </c>
+      <c r="E108" s="7">
         <v>5001</v>
       </c>
-      <c r="E108" s="7">
+      <c r="F108" s="7">
         <v>5</v>
       </c>
-      <c r="F108" s="7">
+      <c r="G108" s="7">
         <v>8</v>
       </c>
-      <c r="G108" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H108" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A109" s="5">
         <v>10009</v>
       </c>
@@ -4792,20 +5129,23 @@
       <c r="C109" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="D109" s="7">
+      <c r="D109" t="s">
+        <v>253</v>
+      </c>
+      <c r="E109" s="7">
         <v>5001</v>
       </c>
-      <c r="E109" s="7">
+      <c r="F109" s="7">
         <v>5</v>
       </c>
-      <c r="F109" s="7">
+      <c r="G109" s="7">
         <v>9</v>
       </c>
-      <c r="G109" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H109" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A110" s="5">
         <v>10010</v>
       </c>
@@ -4815,20 +5155,23 @@
       <c r="C110" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D110" s="7">
+      <c r="D110" t="s">
+        <v>253</v>
+      </c>
+      <c r="E110" s="7">
         <v>5001</v>
       </c>
-      <c r="E110" s="7">
+      <c r="F110" s="7">
         <v>5</v>
       </c>
-      <c r="F110" s="7">
+      <c r="G110" s="7">
         <v>10</v>
       </c>
-      <c r="G110" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H110" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A111" s="5">
         <v>10011</v>
       </c>
@@ -4838,20 +5181,23 @@
       <c r="C111" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="D111" s="8">
+      <c r="D111" t="s">
+        <v>253</v>
+      </c>
+      <c r="E111" s="8">
         <v>5001</v>
       </c>
-      <c r="E111" s="8">
+      <c r="F111" s="8">
         <v>5</v>
       </c>
-      <c r="F111" s="8">
+      <c r="G111" s="8">
         <v>11</v>
       </c>
-      <c r="G111" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H111" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A112" s="5">
         <v>10012</v>
       </c>
@@ -4861,20 +5207,23 @@
       <c r="C112" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="D112" s="8">
+      <c r="D112" t="s">
+        <v>253</v>
+      </c>
+      <c r="E112" s="8">
         <v>5001</v>
       </c>
-      <c r="E112" s="8">
+      <c r="F112" s="8">
         <v>5</v>
       </c>
-      <c r="F112" s="8">
+      <c r="G112" s="8">
         <v>12</v>
       </c>
-      <c r="G112" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H112" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>11001</v>
       </c>
@@ -4884,16 +5233,19 @@
       <c r="C113" t="s">
         <v>211</v>
       </c>
-      <c r="D113">
+      <c r="D113" t="s">
+        <v>253</v>
+      </c>
+      <c r="E113">
         <v>5002</v>
       </c>
-      <c r="E113">
+      <c r="F113">
         <v>5</v>
       </c>
-      <c r="F113">
+      <c r="G113">
         <v>100</v>
       </c>
-      <c r="G113">
+      <c r="H113">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2C7EB5-3F51-4044-BA3D-2AC46DF5CCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF89F292-9AB6-46F2-8BDF-CE4428E4ACBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="279">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1287,6 +1287,97 @@
   </si>
   <si>
     <t>Explanatory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジングルソード</t>
+  </si>
+  <si>
+    <t>ジングルボウ</t>
+  </si>
+  <si>
+    <t>ジングルロッド</t>
+  </si>
+  <si>
+    <t>ダークソード</t>
+  </si>
+  <si>
+    <t>ダークボウ</t>
+  </si>
+  <si>
+    <t>ダークロッド</t>
+  </si>
+  <si>
+    <t>ツリーソード</t>
+  </si>
+  <si>
+    <t>スチールソード</t>
+  </si>
+  <si>
+    <t>ツリーロッド</t>
+  </si>
+  <si>
+    <t>スプーンロッド</t>
+  </si>
+  <si>
+    <t>ツリーボウ</t>
+  </si>
+  <si>
+    <t>鉄の弓</t>
+    <rPh sb="0" eb="1">
+      <t>テツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ユミ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Textures/BowObject_2d_005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/WandObject_2d_005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/SwordObject_2d_005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/SwordObject_2d_006</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/WandObject_2d_006</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/BowObject_2d_006</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/SwordObject_2d_007</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/WandObject_2d_007</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/BowObject_2d_007</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/SwordObject_2d_008</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/WandObject_2d_008</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/BowObject_2d_008</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1294,7 +1385,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1338,6 +1429,14 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1431,7 +1530,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1457,6 +1556,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1807,8 +1924,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:J113" totalsRowShown="0">
-  <autoFilter ref="A1:J113" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:J125" totalsRowShown="0">
+  <autoFilter ref="A1:J125" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Name"/>
@@ -2141,13 +2258,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:J113"/>
+  <dimension ref="A1:J125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4912,340 +5029,676 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A101" s="5">
+      <c r="A101" s="9">
         <v>10001</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C101" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="D101" t="s">
-        <v>253</v>
-      </c>
-      <c r="E101" s="6">
+      <c r="D101" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E101" s="10">
         <v>5001</v>
       </c>
-      <c r="F101" s="6">
+      <c r="F101" s="10">
         <v>5</v>
       </c>
-      <c r="G101" s="6">
-        <v>1</v>
-      </c>
-      <c r="H101" s="6">
+      <c r="G101" s="10">
+        <v>1</v>
+      </c>
+      <c r="H101" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A102" s="5">
+      <c r="A102" s="9">
         <v>10002</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="D102" t="s">
-        <v>253</v>
-      </c>
-      <c r="E102" s="7">
+      <c r="D102" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E102" s="12">
         <v>5001</v>
       </c>
-      <c r="F102" s="7">
+      <c r="F102" s="12">
         <v>5</v>
       </c>
-      <c r="G102" s="7">
-        <v>2</v>
-      </c>
-      <c r="H102" s="7">
+      <c r="G102" s="12">
+        <v>2</v>
+      </c>
+      <c r="H102" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A103" s="5">
+      <c r="A103" s="9">
         <v>10003</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C103" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="D103" t="s">
-        <v>253</v>
-      </c>
-      <c r="E103" s="7">
+      <c r="D103" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E103" s="12">
         <v>5001</v>
       </c>
-      <c r="F103" s="7">
+      <c r="F103" s="12">
         <v>5</v>
       </c>
-      <c r="G103" s="7">
+      <c r="G103" s="12">
         <v>3</v>
       </c>
-      <c r="H103" s="7">
+      <c r="H103" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A104" s="5">
+      <c r="A104" s="9">
         <v>10004</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B104" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C104" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="D104" t="s">
-        <v>253</v>
-      </c>
-      <c r="E104" s="7">
+      <c r="D104" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E104" s="12">
         <v>5001</v>
       </c>
-      <c r="F104" s="7">
+      <c r="F104" s="12">
         <v>5</v>
       </c>
-      <c r="G104" s="7">
+      <c r="G104" s="12">
         <v>4</v>
       </c>
-      <c r="H104" s="7">
+      <c r="H104" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A105" s="5">
+      <c r="A105" s="9">
         <v>10005</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B105" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C105" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="D105" t="s">
-        <v>253</v>
-      </c>
-      <c r="E105" s="7">
+      <c r="D105" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E105" s="12">
         <v>5001</v>
       </c>
-      <c r="F105" s="7">
+      <c r="F105" s="12">
         <v>5</v>
       </c>
-      <c r="G105" s="7">
+      <c r="G105" s="12">
         <v>5</v>
       </c>
-      <c r="H105" s="7">
+      <c r="H105" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A106" s="5">
+      <c r="A106" s="9">
         <v>10006</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B106" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="D106" t="s">
-        <v>253</v>
-      </c>
-      <c r="E106" s="7">
+      <c r="D106" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E106" s="12">
         <v>5001</v>
       </c>
-      <c r="F106" s="7">
+      <c r="F106" s="12">
         <v>5</v>
       </c>
-      <c r="G106" s="7">
+      <c r="G106" s="12">
         <v>6</v>
       </c>
-      <c r="H106" s="7">
+      <c r="H106" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A107" s="5">
+      <c r="A107" s="9">
         <v>10007</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="D107" t="s">
-        <v>253</v>
-      </c>
-      <c r="E107" s="7">
+      <c r="D107" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E107" s="12">
         <v>5001</v>
       </c>
-      <c r="F107" s="7">
+      <c r="F107" s="12">
         <v>5</v>
       </c>
-      <c r="G107" s="7">
+      <c r="G107" s="12">
         <v>7</v>
       </c>
-      <c r="H107" s="7">
+      <c r="H107" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A108" s="5">
+      <c r="A108" s="9">
         <v>10008</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C108" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="D108" t="s">
-        <v>253</v>
-      </c>
-      <c r="E108" s="7">
+      <c r="D108" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E108" s="12">
         <v>5001</v>
       </c>
-      <c r="F108" s="7">
+      <c r="F108" s="12">
         <v>5</v>
       </c>
-      <c r="G108" s="7">
+      <c r="G108" s="12">
         <v>8</v>
       </c>
-      <c r="H108" s="7">
+      <c r="H108" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A109" s="5">
+      <c r="A109" s="9">
         <v>10009</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C109" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="D109" t="s">
-        <v>253</v>
-      </c>
-      <c r="E109" s="7">
+      <c r="D109" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E109" s="12">
         <v>5001</v>
       </c>
-      <c r="F109" s="7">
+      <c r="F109" s="12">
         <v>5</v>
       </c>
-      <c r="G109" s="7">
+      <c r="G109" s="12">
         <v>9</v>
       </c>
-      <c r="H109" s="7">
+      <c r="H109" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A110" s="5">
+      <c r="A110" s="9">
         <v>10010</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B110" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C110" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="D110" t="s">
-        <v>253</v>
-      </c>
-      <c r="E110" s="7">
+      <c r="D110" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E110" s="12">
         <v>5001</v>
       </c>
-      <c r="F110" s="7">
+      <c r="F110" s="12">
         <v>5</v>
       </c>
-      <c r="G110" s="7">
+      <c r="G110" s="12">
         <v>10</v>
       </c>
-      <c r="H110" s="7">
+      <c r="H110" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A111" s="5">
+      <c r="A111" s="9">
         <v>10011</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="C111" s="8" t="s">
+      <c r="C111" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="D111" t="s">
-        <v>253</v>
-      </c>
-      <c r="E111" s="8">
+      <c r="D111" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E111" s="13">
         <v>5001</v>
       </c>
-      <c r="F111" s="8">
+      <c r="F111" s="13">
         <v>5</v>
       </c>
-      <c r="G111" s="8">
+      <c r="G111" s="13">
         <v>11</v>
       </c>
-      <c r="H111" s="8">
+      <c r="H111" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A112" s="5">
+      <c r="A112" s="9">
         <v>10012</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="C112" s="8" t="s">
+      <c r="C112" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="D112" t="s">
-        <v>253</v>
-      </c>
-      <c r="E112" s="8">
+      <c r="D112" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E112" s="13">
         <v>5001</v>
       </c>
-      <c r="F112" s="8">
+      <c r="F112" s="13">
         <v>5</v>
       </c>
-      <c r="G112" s="8">
+      <c r="G112" s="13">
         <v>12</v>
       </c>
-      <c r="H112" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A113">
+      <c r="H112" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A113" s="14">
+        <v>10013</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D113" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E113" s="6">
+        <v>5001</v>
+      </c>
+      <c r="F113" s="6">
+        <v>5</v>
+      </c>
+      <c r="G113" s="6">
+        <v>13</v>
+      </c>
+      <c r="H113" s="6">
+        <v>1</v>
+      </c>
+      <c r="I113" s="14"/>
+      <c r="J113" s="14"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A114" s="14">
+        <v>10014</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D114" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E114" s="6">
+        <v>5001</v>
+      </c>
+      <c r="F114" s="6">
+        <v>5</v>
+      </c>
+      <c r="G114" s="6">
+        <v>14</v>
+      </c>
+      <c r="H114" s="6">
+        <v>1</v>
+      </c>
+      <c r="I114" s="14"/>
+      <c r="J114" s="14"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A115" s="14">
+        <v>10015</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D115" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E115" s="6">
+        <v>5001</v>
+      </c>
+      <c r="F115" s="6">
+        <v>5</v>
+      </c>
+      <c r="G115" s="6">
+        <v>15</v>
+      </c>
+      <c r="H115" s="6">
+        <v>1</v>
+      </c>
+      <c r="I115" s="14"/>
+      <c r="J115" s="14"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A116" s="14">
+        <v>10016</v>
+      </c>
+      <c r="B116" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D116" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E116" s="6">
+        <v>5001</v>
+      </c>
+      <c r="F116" s="6">
+        <v>5</v>
+      </c>
+      <c r="G116" s="6">
+        <v>16</v>
+      </c>
+      <c r="H116" s="6">
+        <v>1</v>
+      </c>
+      <c r="I116" s="14"/>
+      <c r="J116" s="14"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A117" s="14">
+        <v>10017</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D117" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E117" s="6">
+        <v>5001</v>
+      </c>
+      <c r="F117" s="6">
+        <v>5</v>
+      </c>
+      <c r="G117" s="6">
+        <v>17</v>
+      </c>
+      <c r="H117" s="6">
+        <v>1</v>
+      </c>
+      <c r="I117" s="14"/>
+      <c r="J117" s="14"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A118" s="14">
+        <v>10018</v>
+      </c>
+      <c r="B118" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D118" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E118" s="6">
+        <v>5001</v>
+      </c>
+      <c r="F118" s="6">
+        <v>5</v>
+      </c>
+      <c r="G118" s="6">
+        <v>18</v>
+      </c>
+      <c r="H118" s="6">
+        <v>1</v>
+      </c>
+      <c r="I118" s="14"/>
+      <c r="J118" s="14"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A119" s="14">
+        <v>10019</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D119" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E119" s="6">
+        <v>5001</v>
+      </c>
+      <c r="F119" s="6">
+        <v>5</v>
+      </c>
+      <c r="G119" s="6">
+        <v>19</v>
+      </c>
+      <c r="H119" s="6">
+        <v>1</v>
+      </c>
+      <c r="I119" s="14"/>
+      <c r="J119" s="14"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A120" s="14">
+        <v>10020</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D120" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E120" s="6">
+        <v>5001</v>
+      </c>
+      <c r="F120" s="6">
+        <v>5</v>
+      </c>
+      <c r="G120" s="6">
+        <v>20</v>
+      </c>
+      <c r="H120" s="6">
+        <v>1</v>
+      </c>
+      <c r="I120" s="14"/>
+      <c r="J120" s="14"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A121" s="14">
+        <v>10021</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D121" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E121" s="6">
+        <v>5001</v>
+      </c>
+      <c r="F121" s="6">
+        <v>5</v>
+      </c>
+      <c r="G121" s="6">
+        <v>21</v>
+      </c>
+      <c r="H121" s="6">
+        <v>1</v>
+      </c>
+      <c r="I121" s="14"/>
+      <c r="J121" s="14"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A122" s="14">
+        <v>10022</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D122" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E122" s="6">
+        <v>5001</v>
+      </c>
+      <c r="F122" s="6">
+        <v>5</v>
+      </c>
+      <c r="G122" s="6">
+        <v>22</v>
+      </c>
+      <c r="H122" s="6">
+        <v>1</v>
+      </c>
+      <c r="I122" s="14"/>
+      <c r="J122" s="14"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A123" s="14">
+        <v>10023</v>
+      </c>
+      <c r="B123" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D123" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E123" s="6">
+        <v>5001</v>
+      </c>
+      <c r="F123" s="6">
+        <v>5</v>
+      </c>
+      <c r="G123" s="6">
+        <v>23</v>
+      </c>
+      <c r="H123" s="6">
+        <v>1</v>
+      </c>
+      <c r="I123" s="14"/>
+      <c r="J123" s="14"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A124" s="14">
+        <v>10024</v>
+      </c>
+      <c r="B124" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D124" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E124" s="6">
+        <v>5001</v>
+      </c>
+      <c r="F124" s="6">
+        <v>5</v>
+      </c>
+      <c r="G124" s="6">
+        <v>24</v>
+      </c>
+      <c r="H124" s="6">
+        <v>1</v>
+      </c>
+      <c r="I124" s="14"/>
+      <c r="J124" s="14"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A125">
         <v>11001</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B125" t="s">
         <v>237</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C125" t="s">
         <v>211</v>
       </c>
-      <c r="D113" t="s">
-        <v>253</v>
-      </c>
-      <c r="E113">
+      <c r="D125" t="s">
+        <v>253</v>
+      </c>
+      <c r="E125">
         <v>5002</v>
       </c>
-      <c r="F113">
+      <c r="F125">
         <v>5</v>
       </c>
-      <c r="G113">
+      <c r="G125">
         <v>100</v>
       </c>
-      <c r="H113">
+      <c r="H125">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF89F292-9AB6-46F2-8BDF-CE4428E4ACBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC40CAE9-8EAF-4777-8929-981D2DC16329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
@@ -2264,7 +2264,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C116" sqref="C116"/>
+      <selection pane="bottomRight" activeCell="J125" sqref="J125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5360,7 +5360,7 @@
         <v>5</v>
       </c>
       <c r="G113" s="6">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H113" s="6">
         <v>1</v>
@@ -5388,7 +5388,7 @@
         <v>5</v>
       </c>
       <c r="G114" s="6">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H114" s="6">
         <v>1</v>
@@ -5416,7 +5416,7 @@
         <v>5</v>
       </c>
       <c r="G115" s="6">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H115" s="6">
         <v>1</v>
@@ -5444,7 +5444,7 @@
         <v>5</v>
       </c>
       <c r="G116" s="6">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H116" s="6">
         <v>1</v>
@@ -5472,7 +5472,7 @@
         <v>5</v>
       </c>
       <c r="G117" s="6">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H117" s="6">
         <v>1</v>
@@ -5500,7 +5500,7 @@
         <v>5</v>
       </c>
       <c r="G118" s="6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H118" s="6">
         <v>1</v>
@@ -5528,7 +5528,7 @@
         <v>5</v>
       </c>
       <c r="G119" s="6">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H119" s="6">
         <v>1</v>
@@ -5556,7 +5556,7 @@
         <v>5</v>
       </c>
       <c r="G120" s="6">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H120" s="6">
         <v>1</v>
@@ -5584,7 +5584,7 @@
         <v>5</v>
       </c>
       <c r="G121" s="6">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H121" s="6">
         <v>1</v>
@@ -5612,7 +5612,7 @@
         <v>5</v>
       </c>
       <c r="G122" s="6">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H122" s="6">
         <v>1</v>
@@ -5640,7 +5640,7 @@
         <v>5</v>
       </c>
       <c r="G123" s="6">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H123" s="6">
         <v>1</v>
@@ -5668,7 +5668,7 @@
         <v>5</v>
       </c>
       <c r="G124" s="6">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H124" s="6">
         <v>1</v>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC40CAE9-8EAF-4777-8929-981D2DC16329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5607671C-6B44-4C22-AB36-DC939F39B9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="5328" yWindow="132" windowWidth="17280" windowHeight="8964" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="284">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1378,6 +1378,106 @@
   </si>
   <si>
     <t>Textures/BowObject_2d_008</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリスマスをベースに作られた剣。
+氷結のスキルで敵を足止めできる。</t>
+    <rPh sb="10" eb="11">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウケツ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>アシド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリスマスの雰囲気で作られた
+施策型の剣。</t>
+    <rPh sb="6" eb="9">
+      <t>フンイキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>シサクガタ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10連ガチャが実行できるチケット。
+ショップ市場→ガチャガチャ店で使用できる。</t>
+    <rPh sb="2" eb="3">
+      <t>レン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イチバ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冒険の報酬が3倍になるチケット。
+レアなアイテムが出たときに使ってみよう。</t>
+    <rPh sb="0" eb="2">
+      <t>ボウケン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホウシュウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計図市場で購入に使用する通貨。
+ギフトカードとも交換することができる。</t>
+    <rPh sb="0" eb="3">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチバ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツウカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウカン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1530,7 +1630,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1575,6 +1675,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2261,21 +2367,21 @@
   <dimension ref="A1:J125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J125" sqref="J125"/>
+      <selection pane="bottomRight" activeCell="A97" sqref="A97:J97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="7" max="7" width="15.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2307,7 +2413,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2324,7 +2430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2353,7 +2459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2382,7 +2488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2411,7 +2517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2440,7 +2546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2469,7 +2575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2498,7 +2604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2527,7 +2633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2556,7 +2662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>101</v>
       </c>
@@ -2585,7 +2691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>102</v>
       </c>
@@ -2614,7 +2720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>103</v>
       </c>
@@ -2643,7 +2749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>104</v>
       </c>
@@ -2672,7 +2778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>105</v>
       </c>
@@ -2701,7 +2807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>106</v>
       </c>
@@ -2730,7 +2836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>107</v>
       </c>
@@ -2759,7 +2865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>108</v>
       </c>
@@ -2788,7 +2894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>109</v>
       </c>
@@ -2817,7 +2923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>110</v>
       </c>
@@ -2846,7 +2952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>111</v>
       </c>
@@ -2875,7 +2981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>112</v>
       </c>
@@ -2904,7 +3010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>113</v>
       </c>
@@ -2933,7 +3039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>114</v>
       </c>
@@ -2962,7 +3068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>115</v>
       </c>
@@ -2991,7 +3097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>116</v>
       </c>
@@ -3020,7 +3126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>117</v>
       </c>
@@ -3049,7 +3155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>118</v>
       </c>
@@ -3078,7 +3184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>123</v>
       </c>
@@ -3107,7 +3213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>124</v>
       </c>
@@ -3136,7 +3242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>125</v>
       </c>
@@ -3165,7 +3271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>126</v>
       </c>
@@ -3194,7 +3300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>127</v>
       </c>
@@ -3223,7 +3329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>128</v>
       </c>
@@ -3252,7 +3358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>129</v>
       </c>
@@ -3281,7 +3387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>134</v>
       </c>
@@ -3310,7 +3416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>135</v>
       </c>
@@ -3339,7 +3445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>136</v>
       </c>
@@ -3368,7 +3474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>137</v>
       </c>
@@ -3397,7 +3503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>138</v>
       </c>
@@ -3426,7 +3532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>139</v>
       </c>
@@ -3455,7 +3561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>500</v>
       </c>
@@ -3484,7 +3590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>501</v>
       </c>
@@ -3513,7 +3619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>502</v>
       </c>
@@ -3542,7 +3648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>503</v>
       </c>
@@ -3571,7 +3677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>504</v>
       </c>
@@ -3600,7 +3706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>505</v>
       </c>
@@ -3629,7 +3735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>506</v>
       </c>
@@ -3658,7 +3764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>507</v>
       </c>
@@ -3687,7 +3793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>508</v>
       </c>
@@ -3716,7 +3822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>509</v>
       </c>
@@ -3745,7 +3851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>550</v>
       </c>
@@ -3774,7 +3880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>551</v>
       </c>
@@ -3803,7 +3909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>552</v>
       </c>
@@ -3832,7 +3938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>553</v>
       </c>
@@ -3861,7 +3967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>554</v>
       </c>
@@ -3890,7 +3996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>555</v>
       </c>
@@ -3919,7 +4025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>556</v>
       </c>
@@ -3948,7 +4054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>557</v>
       </c>
@@ -3977,7 +4083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>558</v>
       </c>
@@ -4006,7 +4112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>559</v>
       </c>
@@ -4035,7 +4141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>600</v>
       </c>
@@ -4064,7 +4170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>1001</v>
       </c>
@@ -4087,7 +4193,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>1002</v>
       </c>
@@ -4110,7 +4216,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>1003</v>
       </c>
@@ -4133,7 +4239,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>1004</v>
       </c>
@@ -4156,7 +4262,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>1005</v>
       </c>
@@ -4179,7 +4285,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>1006</v>
       </c>
@@ -4202,7 +4308,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>1007</v>
       </c>
@@ -4225,7 +4331,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>1008</v>
       </c>
@@ -4248,7 +4354,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>1009</v>
       </c>
@@ -4271,7 +4377,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>1010</v>
       </c>
@@ -4294,7 +4400,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>1011</v>
       </c>
@@ -4317,7 +4423,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>1012</v>
       </c>
@@ -4340,7 +4446,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>1013</v>
       </c>
@@ -4363,7 +4469,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>3000</v>
       </c>
@@ -4389,7 +4495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>3001</v>
       </c>
@@ -4415,7 +4521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>3002</v>
       </c>
@@ -4444,7 +4550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>3003</v>
       </c>
@@ -4473,7 +4579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>7016</v>
       </c>
@@ -4502,7 +4608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>7017</v>
       </c>
@@ -4531,7 +4637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>7018</v>
       </c>
@@ -4560,7 +4666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>7019</v>
       </c>
@@ -4589,7 +4695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>7020</v>
       </c>
@@ -4618,7 +4724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>7021</v>
       </c>
@@ -4647,7 +4753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>7022</v>
       </c>
@@ -4676,7 +4782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>7023</v>
       </c>
@@ -4705,7 +4811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>7024</v>
       </c>
@@ -4734,7 +4840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>7025</v>
       </c>
@@ -4763,7 +4869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>7026</v>
       </c>
@@ -4792,7 +4898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>7027</v>
       </c>
@@ -4821,7 +4927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>7028</v>
       </c>
@@ -4850,7 +4956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>7029</v>
       </c>
@@ -4879,7 +4985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>7030</v>
       </c>
@@ -4908,7 +5014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>9000</v>
       </c>
@@ -4928,7 +5034,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>9001</v>
       </c>
@@ -4948,7 +5054,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:8" ht="72" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>9002</v>
       </c>
@@ -4958,8 +5064,8 @@
       <c r="C97" t="s">
         <v>72</v>
       </c>
-      <c r="D97" t="s">
-        <v>253</v>
+      <c r="D97" s="16" t="s">
+        <v>283</v>
       </c>
       <c r="E97">
         <v>92</v>
@@ -4968,7 +5074,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:8" ht="72" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>9003</v>
       </c>
@@ -4978,8 +5084,8 @@
       <c r="C98" t="s">
         <v>207</v>
       </c>
-      <c r="D98" t="s">
-        <v>253</v>
+      <c r="D98" s="16" t="s">
+        <v>281</v>
       </c>
       <c r="E98">
         <v>93</v>
@@ -4988,7 +5094,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>9004</v>
       </c>
@@ -5008,7 +5114,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:8" ht="72" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>9005</v>
       </c>
@@ -5018,8 +5124,8 @@
       <c r="C100" t="s">
         <v>211</v>
       </c>
-      <c r="D100" t="s">
-        <v>253</v>
+      <c r="D100" s="16" t="s">
+        <v>282</v>
       </c>
       <c r="E100">
         <v>95</v>
@@ -5028,7 +5134,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A101" s="9">
         <v>10001</v>
       </c>
@@ -5054,7 +5160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A102" s="9">
         <v>10002</v>
       </c>
@@ -5080,7 +5186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A103" s="9">
         <v>10003</v>
       </c>
@@ -5106,7 +5212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A104" s="9">
         <v>10004</v>
       </c>
@@ -5132,7 +5238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A105" s="9">
         <v>10005</v>
       </c>
@@ -5158,7 +5264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A106" s="9">
         <v>10006</v>
       </c>
@@ -5184,7 +5290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A107" s="9">
         <v>10007</v>
       </c>
@@ -5210,7 +5316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A108" s="9">
         <v>10008</v>
       </c>
@@ -5236,7 +5342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A109" s="9">
         <v>10009</v>
       </c>
@@ -5262,7 +5368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A110" s="9">
         <v>10010</v>
       </c>
@@ -5288,7 +5394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A111" s="9">
         <v>10011</v>
       </c>
@@ -5314,7 +5420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A112" s="9">
         <v>10012</v>
       </c>
@@ -5340,7 +5446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:10" ht="72" x14ac:dyDescent="0.45">
       <c r="A113" s="14">
         <v>10013</v>
       </c>
@@ -5350,8 +5456,8 @@
       <c r="C113" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="D113" s="14" t="s">
-        <v>253</v>
+      <c r="D113" s="15" t="s">
+        <v>279</v>
       </c>
       <c r="E113" s="6">
         <v>5001</v>
@@ -5368,7 +5474,7 @@
       <c r="I113" s="14"/>
       <c r="J113" s="14"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A114" s="14">
         <v>10014</v>
       </c>
@@ -5396,7 +5502,7 @@
       <c r="I114" s="14"/>
       <c r="J114" s="14"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A115" s="14">
         <v>10015</v>
       </c>
@@ -5424,7 +5530,7 @@
       <c r="I115" s="14"/>
       <c r="J115" s="14"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A116" s="14">
         <v>10016</v>
       </c>
@@ -5452,7 +5558,7 @@
       <c r="I116" s="14"/>
       <c r="J116" s="14"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A117" s="14">
         <v>10017</v>
       </c>
@@ -5480,7 +5586,7 @@
       <c r="I117" s="14"/>
       <c r="J117" s="14"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A118" s="14">
         <v>10018</v>
       </c>
@@ -5508,7 +5614,7 @@
       <c r="I118" s="14"/>
       <c r="J118" s="14"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:10" ht="54" x14ac:dyDescent="0.45">
       <c r="A119" s="14">
         <v>10019</v>
       </c>
@@ -5518,8 +5624,8 @@
       <c r="C119" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="D119" s="14" t="s">
-        <v>253</v>
+      <c r="D119" s="15" t="s">
+        <v>280</v>
       </c>
       <c r="E119" s="6">
         <v>5001</v>
@@ -5536,7 +5642,7 @@
       <c r="I119" s="14"/>
       <c r="J119" s="14"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A120" s="14">
         <v>10020</v>
       </c>
@@ -5564,7 +5670,7 @@
       <c r="I120" s="14"/>
       <c r="J120" s="14"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A121" s="14">
         <v>10021</v>
       </c>
@@ -5592,7 +5698,7 @@
       <c r="I121" s="14"/>
       <c r="J121" s="14"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A122" s="14">
         <v>10022</v>
       </c>
@@ -5620,7 +5726,7 @@
       <c r="I122" s="14"/>
       <c r="J122" s="14"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A123" s="14">
         <v>10023</v>
       </c>
@@ -5648,7 +5754,7 @@
       <c r="I123" s="14"/>
       <c r="J123" s="14"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A124" s="14">
         <v>10024</v>
       </c>
@@ -5676,7 +5782,7 @@
       <c r="I124" s="14"/>
       <c r="J124" s="14"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>11001</v>
       </c>
@@ -5720,12 +5826,12 @@
       <selection activeCell="B2" sqref="B2:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="32.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>247</v>
       </c>
@@ -5748,7 +5854,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="5">
         <v>10013</v>
       </c>
@@ -5771,7 +5877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>10012</v>
       </c>
@@ -5794,7 +5900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>10011</v>
       </c>
@@ -5817,7 +5923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>10010</v>
       </c>
@@ -5840,7 +5946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>10009</v>
       </c>
@@ -5863,7 +5969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>10008</v>
       </c>
@@ -5886,7 +5992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>10007</v>
       </c>
@@ -5909,7 +6015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>10006</v>
       </c>
@@ -5932,7 +6038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>10005</v>
       </c>
@@ -5955,7 +6061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>10004</v>
       </c>
@@ -5978,7 +6084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
         <v>10003</v>
       </c>
@@ -6001,7 +6107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
         <v>10002</v>
       </c>
@@ -6042,83 +6148,83 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.125" customWidth="1"/>
-    <col min="2" max="2" width="5.875" customWidth="1"/>
+    <col min="1" max="1" width="20.09765625" customWidth="1"/>
+    <col min="2" max="2" width="5.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>98</v>
       </c>
@@ -6138,9 +6244,9 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
@@ -6148,7 +6254,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2</v>
       </c>
@@ -6156,7 +6262,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>51</v>
       </c>
@@ -6164,7 +6270,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>52</v>
       </c>
@@ -6172,7 +6278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>53</v>
       </c>
@@ -6180,7 +6286,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1000</v>
       </c>
@@ -6188,7 +6294,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1001</v>
       </c>
@@ -6196,7 +6302,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -6204,7 +6310,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2100</v>
       </c>
@@ -6212,7 +6318,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2101</v>
       </c>
@@ -6220,7 +6326,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>3000</v>
       </c>
@@ -6228,7 +6334,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>3001</v>
       </c>
@@ -6236,7 +6342,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>5001</v>
       </c>
@@ -6244,7 +6350,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>5002</v>
       </c>
@@ -6252,7 +6358,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>9999</v>
       </c>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5607671C-6B44-4C22-AB36-DC939F39B9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DD743B-1E95-4D63-9693-7087EB621636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5328" yWindow="132" windowWidth="17280" windowHeight="8964" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="294">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1479,6 +1479,38 @@
       <t>コウカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/block_2d_032</t>
+  </si>
+  <si>
+    <t>Textures/block_2d_033</t>
+  </si>
+  <si>
+    <t>Textures/block_2d_034</t>
+  </si>
+  <si>
+    <t>Textures/block_2d_035</t>
+  </si>
+  <si>
+    <t>Textures/block_2d_036</t>
+  </si>
+  <si>
+    <t>Textures/block_2d_037</t>
+  </si>
+  <si>
+    <t>Textures/block_2d_038</t>
+  </si>
+  <si>
+    <t>Textures/block_2d_030</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/block_2d_031</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/block_2d_039</t>
   </si>
 </sst>
 </file>
@@ -2030,8 +2062,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:J125" totalsRowShown="0">
-  <autoFilter ref="A1:J125" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:J135" totalsRowShown="0">
+  <autoFilter ref="A1:J135" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Name"/>
@@ -2364,24 +2396,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:J125"/>
+  <dimension ref="A1:J135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A97" sqref="A97:J97"/>
+      <selection pane="bottomRight" activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="7" max="7" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2413,7 +2445,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2430,7 +2462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2459,7 +2491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2488,7 +2520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2517,7 +2549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2546,7 +2578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2575,7 +2607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2604,7 +2636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2633,7 +2665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2662,7 +2694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>101</v>
       </c>
@@ -2691,7 +2723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>102</v>
       </c>
@@ -2720,7 +2752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>103</v>
       </c>
@@ -2749,7 +2781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>104</v>
       </c>
@@ -2778,7 +2810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>105</v>
       </c>
@@ -2807,7 +2839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>106</v>
       </c>
@@ -2836,7 +2868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>107</v>
       </c>
@@ -2865,7 +2897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>108</v>
       </c>
@@ -2894,7 +2926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>109</v>
       </c>
@@ -2923,7 +2955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>110</v>
       </c>
@@ -2952,7 +2984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>111</v>
       </c>
@@ -2981,7 +3013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>112</v>
       </c>
@@ -3010,7 +3042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>113</v>
       </c>
@@ -3039,7 +3071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>114</v>
       </c>
@@ -3068,7 +3100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>115</v>
       </c>
@@ -3097,7 +3129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>116</v>
       </c>
@@ -3126,7 +3158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>117</v>
       </c>
@@ -3155,7 +3187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>118</v>
       </c>
@@ -3184,7 +3216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>123</v>
       </c>
@@ -3213,7 +3245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>124</v>
       </c>
@@ -3242,7 +3274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>125</v>
       </c>
@@ -3271,7 +3303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>126</v>
       </c>
@@ -3300,7 +3332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>127</v>
       </c>
@@ -3329,7 +3361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>128</v>
       </c>
@@ -3358,7 +3390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>129</v>
       </c>
@@ -3387,7 +3419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>134</v>
       </c>
@@ -3416,7 +3448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>135</v>
       </c>
@@ -3445,7 +3477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>136</v>
       </c>
@@ -3474,7 +3506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>137</v>
       </c>
@@ -3503,7 +3535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>138</v>
       </c>
@@ -3532,7 +3564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>139</v>
       </c>
@@ -3561,305 +3593,305 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42">
+        <v>230</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" t="s">
+        <v>291</v>
+      </c>
+      <c r="D42" t="s">
+        <v>253</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1130</v>
+      </c>
+      <c r="H42">
+        <v>9999</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>231</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" t="s">
+        <v>292</v>
+      </c>
+      <c r="D43" t="s">
+        <v>253</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1131</v>
+      </c>
+      <c r="H43">
+        <v>9999</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>232</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" t="s">
+        <v>284</v>
+      </c>
+      <c r="D44" t="s">
+        <v>253</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1132</v>
+      </c>
+      <c r="H44">
+        <v>9999</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>233</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" t="s">
+        <v>285</v>
+      </c>
+      <c r="D45" t="s">
+        <v>253</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1133</v>
+      </c>
+      <c r="H45">
+        <v>9999</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>234</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" t="s">
+        <v>286</v>
+      </c>
+      <c r="D46" t="s">
+        <v>253</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1134</v>
+      </c>
+      <c r="H46">
+        <v>9999</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>235</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" t="s">
+        <v>287</v>
+      </c>
+      <c r="D47" t="s">
+        <v>253</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1135</v>
+      </c>
+      <c r="H47">
+        <v>9999</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>236</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" t="s">
+        <v>288</v>
+      </c>
+      <c r="D48" t="s">
+        <v>253</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1136</v>
+      </c>
+      <c r="H48">
+        <v>9999</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>237</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" t="s">
+        <v>289</v>
+      </c>
+      <c r="D49" t="s">
+        <v>253</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1137</v>
+      </c>
+      <c r="H49">
+        <v>9999</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>238</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C50" t="s">
+        <v>290</v>
+      </c>
+      <c r="D50" t="s">
+        <v>253</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1138</v>
+      </c>
+      <c r="H50">
+        <v>9999</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>239</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" t="s">
+        <v>293</v>
+      </c>
+      <c r="D51" t="s">
+        <v>253</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1139</v>
+      </c>
+      <c r="H51">
+        <v>9999</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A52">
         <v>500</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B52" t="s">
         <v>122</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C52" t="s">
         <v>101</v>
-      </c>
-      <c r="D42" t="s">
-        <v>253</v>
-      </c>
-      <c r="E42">
-        <v>3001</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
-      <c r="G42">
-        <v>1500</v>
-      </c>
-      <c r="H42">
-        <v>9999</v>
-      </c>
-      <c r="J42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A43">
-        <v>501</v>
-      </c>
-      <c r="B43" t="s">
-        <v>123</v>
-      </c>
-      <c r="C43" t="s">
-        <v>102</v>
-      </c>
-      <c r="D43" t="s">
-        <v>253</v>
-      </c>
-      <c r="E43">
-        <v>3001</v>
-      </c>
-      <c r="F43">
-        <v>2</v>
-      </c>
-      <c r="G43">
-        <v>1501</v>
-      </c>
-      <c r="H43">
-        <v>9999</v>
-      </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A44">
-        <v>502</v>
-      </c>
-      <c r="B44" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" t="s">
-        <v>103</v>
-      </c>
-      <c r="D44" t="s">
-        <v>253</v>
-      </c>
-      <c r="E44">
-        <v>3001</v>
-      </c>
-      <c r="F44">
-        <v>2</v>
-      </c>
-      <c r="G44">
-        <v>1502</v>
-      </c>
-      <c r="H44">
-        <v>9999</v>
-      </c>
-      <c r="J44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A45">
-        <v>503</v>
-      </c>
-      <c r="B45" t="s">
-        <v>125</v>
-      </c>
-      <c r="C45" t="s">
-        <v>104</v>
-      </c>
-      <c r="D45" t="s">
-        <v>253</v>
-      </c>
-      <c r="E45">
-        <v>3001</v>
-      </c>
-      <c r="F45">
-        <v>2</v>
-      </c>
-      <c r="G45">
-        <v>1503</v>
-      </c>
-      <c r="H45">
-        <v>9999</v>
-      </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A46">
-        <v>504</v>
-      </c>
-      <c r="B46" t="s">
-        <v>126</v>
-      </c>
-      <c r="C46" t="s">
-        <v>105</v>
-      </c>
-      <c r="D46" t="s">
-        <v>253</v>
-      </c>
-      <c r="E46">
-        <v>3001</v>
-      </c>
-      <c r="F46">
-        <v>2</v>
-      </c>
-      <c r="G46">
-        <v>1504</v>
-      </c>
-      <c r="H46">
-        <v>9999</v>
-      </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A47">
-        <v>505</v>
-      </c>
-      <c r="B47" t="s">
-        <v>127</v>
-      </c>
-      <c r="C47" t="s">
-        <v>106</v>
-      </c>
-      <c r="D47" t="s">
-        <v>253</v>
-      </c>
-      <c r="E47">
-        <v>3001</v>
-      </c>
-      <c r="F47">
-        <v>2</v>
-      </c>
-      <c r="G47">
-        <v>1505</v>
-      </c>
-      <c r="H47">
-        <v>9999</v>
-      </c>
-      <c r="J47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A48">
-        <v>506</v>
-      </c>
-      <c r="B48" t="s">
-        <v>128</v>
-      </c>
-      <c r="C48" t="s">
-        <v>107</v>
-      </c>
-      <c r="D48" t="s">
-        <v>253</v>
-      </c>
-      <c r="E48">
-        <v>3001</v>
-      </c>
-      <c r="F48">
-        <v>2</v>
-      </c>
-      <c r="G48">
-        <v>1506</v>
-      </c>
-      <c r="H48">
-        <v>9999</v>
-      </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A49">
-        <v>507</v>
-      </c>
-      <c r="B49" t="s">
-        <v>130</v>
-      </c>
-      <c r="C49" t="s">
-        <v>108</v>
-      </c>
-      <c r="D49" t="s">
-        <v>253</v>
-      </c>
-      <c r="E49">
-        <v>3001</v>
-      </c>
-      <c r="F49">
-        <v>2</v>
-      </c>
-      <c r="G49">
-        <v>1507</v>
-      </c>
-      <c r="H49">
-        <v>9999</v>
-      </c>
-      <c r="J49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A50">
-        <v>508</v>
-      </c>
-      <c r="B50" t="s">
-        <v>142</v>
-      </c>
-      <c r="C50" t="s">
-        <v>109</v>
-      </c>
-      <c r="D50" t="s">
-        <v>253</v>
-      </c>
-      <c r="E50">
-        <v>3001</v>
-      </c>
-      <c r="F50">
-        <v>2</v>
-      </c>
-      <c r="G50">
-        <v>1508</v>
-      </c>
-      <c r="H50">
-        <v>9999</v>
-      </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A51">
-        <v>509</v>
-      </c>
-      <c r="B51" t="s">
-        <v>129</v>
-      </c>
-      <c r="C51" t="s">
-        <v>110</v>
-      </c>
-      <c r="D51" t="s">
-        <v>253</v>
-      </c>
-      <c r="E51">
-        <v>3001</v>
-      </c>
-      <c r="F51">
-        <v>2</v>
-      </c>
-      <c r="G51">
-        <v>1509</v>
-      </c>
-      <c r="H51">
-        <v>9999</v>
-      </c>
-      <c r="J51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A52">
-        <v>550</v>
-      </c>
-      <c r="B52" t="s">
-        <v>131</v>
-      </c>
-      <c r="C52" t="s">
-        <v>112</v>
       </c>
       <c r="D52" t="s">
         <v>253</v>
@@ -3871,7 +3903,7 @@
         <v>2</v>
       </c>
       <c r="G52">
-        <v>1550</v>
+        <v>1500</v>
       </c>
       <c r="H52">
         <v>9999</v>
@@ -3880,15 +3912,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>551</v>
+        <v>501</v>
       </c>
       <c r="B53" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C53" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D53" t="s">
         <v>253</v>
@@ -3900,7 +3932,7 @@
         <v>2</v>
       </c>
       <c r="G53">
-        <v>1551</v>
+        <v>1501</v>
       </c>
       <c r="H53">
         <v>9999</v>
@@ -3909,15 +3941,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>552</v>
+        <v>502</v>
       </c>
       <c r="B54" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C54" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D54" t="s">
         <v>253</v>
@@ -3929,7 +3961,7 @@
         <v>2</v>
       </c>
       <c r="G54">
-        <v>1552</v>
+        <v>1502</v>
       </c>
       <c r="H54">
         <v>9999</v>
@@ -3938,15 +3970,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>553</v>
+        <v>503</v>
       </c>
       <c r="B55" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C55" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D55" t="s">
         <v>253</v>
@@ -3958,7 +3990,7 @@
         <v>2</v>
       </c>
       <c r="G55">
-        <v>1553</v>
+        <v>1503</v>
       </c>
       <c r="H55">
         <v>9999</v>
@@ -3967,15 +3999,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>554</v>
+        <v>504</v>
       </c>
       <c r="B56" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C56" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D56" t="s">
         <v>253</v>
@@ -3987,7 +4019,7 @@
         <v>2</v>
       </c>
       <c r="G56">
-        <v>1554</v>
+        <v>1504</v>
       </c>
       <c r="H56">
         <v>9999</v>
@@ -3996,15 +4028,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>555</v>
+        <v>505</v>
       </c>
       <c r="B57" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C57" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D57" t="s">
         <v>253</v>
@@ -4016,7 +4048,7 @@
         <v>2</v>
       </c>
       <c r="G57">
-        <v>1555</v>
+        <v>1505</v>
       </c>
       <c r="H57">
         <v>9999</v>
@@ -4025,15 +4057,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>556</v>
+        <v>506</v>
       </c>
       <c r="B58" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C58" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D58" t="s">
         <v>253</v>
@@ -4045,7 +4077,7 @@
         <v>2</v>
       </c>
       <c r="G58">
-        <v>1556</v>
+        <v>1506</v>
       </c>
       <c r="H58">
         <v>9999</v>
@@ -4054,15 +4086,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>557</v>
+        <v>507</v>
       </c>
       <c r="B59" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C59" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D59" t="s">
         <v>253</v>
@@ -4074,7 +4106,7 @@
         <v>2</v>
       </c>
       <c r="G59">
-        <v>1557</v>
+        <v>1507</v>
       </c>
       <c r="H59">
         <v>9999</v>
@@ -4083,15 +4115,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>558</v>
+        <v>508</v>
       </c>
       <c r="B60" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C60" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D60" t="s">
         <v>253</v>
@@ -4103,7 +4135,7 @@
         <v>2</v>
       </c>
       <c r="G60">
-        <v>1558</v>
+        <v>1508</v>
       </c>
       <c r="H60">
         <v>9999</v>
@@ -4112,15 +4144,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>559</v>
+        <v>509</v>
       </c>
       <c r="B61" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C61" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D61" t="s">
         <v>253</v>
@@ -4132,7 +4164,7 @@
         <v>2</v>
       </c>
       <c r="G61">
-        <v>1559</v>
+        <v>1509</v>
       </c>
       <c r="H61">
         <v>9999</v>
@@ -4141,274 +4173,334 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="B62" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C62" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D62" t="s">
         <v>253</v>
       </c>
       <c r="E62">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="F62">
         <v>2</v>
       </c>
       <c r="G62">
+        <v>1550</v>
+      </c>
+      <c r="H62">
+        <v>9999</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>551</v>
+      </c>
+      <c r="B63" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" t="s">
+        <v>113</v>
+      </c>
+      <c r="D63" t="s">
+        <v>253</v>
+      </c>
+      <c r="E63">
+        <v>3001</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>1551</v>
+      </c>
+      <c r="H63">
+        <v>9999</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>552</v>
+      </c>
+      <c r="B64" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" t="s">
+        <v>114</v>
+      </c>
+      <c r="D64" t="s">
+        <v>253</v>
+      </c>
+      <c r="E64">
+        <v>3001</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>1552</v>
+      </c>
+      <c r="H64">
+        <v>9999</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>553</v>
+      </c>
+      <c r="B65" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65" t="s">
+        <v>115</v>
+      </c>
+      <c r="D65" t="s">
+        <v>253</v>
+      </c>
+      <c r="E65">
+        <v>3001</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <v>1553</v>
+      </c>
+      <c r="H65">
+        <v>9999</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>554</v>
+      </c>
+      <c r="B66" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" t="s">
+        <v>116</v>
+      </c>
+      <c r="D66" t="s">
+        <v>253</v>
+      </c>
+      <c r="E66">
+        <v>3001</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <v>1554</v>
+      </c>
+      <c r="H66">
+        <v>9999</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>555</v>
+      </c>
+      <c r="B67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" t="s">
+        <v>117</v>
+      </c>
+      <c r="D67" t="s">
+        <v>253</v>
+      </c>
+      <c r="E67">
+        <v>3001</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67">
+        <v>1555</v>
+      </c>
+      <c r="H67">
+        <v>9999</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>556</v>
+      </c>
+      <c r="B68" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" t="s">
+        <v>118</v>
+      </c>
+      <c r="D68" t="s">
+        <v>253</v>
+      </c>
+      <c r="E68">
+        <v>3001</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68">
+        <v>1556</v>
+      </c>
+      <c r="H68">
+        <v>9999</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>557</v>
+      </c>
+      <c r="B69" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69" t="s">
+        <v>119</v>
+      </c>
+      <c r="D69" t="s">
+        <v>253</v>
+      </c>
+      <c r="E69">
+        <v>3001</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>1557</v>
+      </c>
+      <c r="H69">
+        <v>9999</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>558</v>
+      </c>
+      <c r="B70" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" t="s">
+        <v>120</v>
+      </c>
+      <c r="D70" t="s">
+        <v>253</v>
+      </c>
+      <c r="E70">
+        <v>3001</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70">
+        <v>1558</v>
+      </c>
+      <c r="H70">
+        <v>9999</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>559</v>
+      </c>
+      <c r="B71" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" t="s">
+        <v>121</v>
+      </c>
+      <c r="D71" t="s">
+        <v>253</v>
+      </c>
+      <c r="E71">
+        <v>3001</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <v>1559</v>
+      </c>
+      <c r="H71">
+        <v>9999</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>600</v>
+      </c>
+      <c r="B72" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72" t="s">
+        <v>111</v>
+      </c>
+      <c r="D72" t="s">
+        <v>253</v>
+      </c>
+      <c r="E72">
+        <v>3000</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72">
         <v>1600</v>
       </c>
-      <c r="H62">
-        <v>9999</v>
-      </c>
-      <c r="J62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A63">
+      <c r="H72">
+        <v>9999</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A73">
         <v>1001</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B73" t="s">
         <v>32</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C73" t="s">
         <v>50</v>
-      </c>
-      <c r="D63" t="s">
-        <v>253</v>
-      </c>
-      <c r="E63">
-        <v>2</v>
-      </c>
-      <c r="F63">
-        <v>3</v>
-      </c>
-      <c r="H63">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A64">
-        <v>1002</v>
-      </c>
-      <c r="B64" t="s">
-        <v>33</v>
-      </c>
-      <c r="C64" t="s">
-        <v>51</v>
-      </c>
-      <c r="D64" t="s">
-        <v>253</v>
-      </c>
-      <c r="E64">
-        <v>2</v>
-      </c>
-      <c r="F64">
-        <v>3</v>
-      </c>
-      <c r="H64">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A65">
-        <v>1003</v>
-      </c>
-      <c r="B65" t="s">
-        <v>34</v>
-      </c>
-      <c r="C65" t="s">
-        <v>52</v>
-      </c>
-      <c r="D65" t="s">
-        <v>253</v>
-      </c>
-      <c r="E65">
-        <v>2</v>
-      </c>
-      <c r="F65">
-        <v>3</v>
-      </c>
-      <c r="H65">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A66">
-        <v>1004</v>
-      </c>
-      <c r="B66" t="s">
-        <v>35</v>
-      </c>
-      <c r="C66" t="s">
-        <v>53</v>
-      </c>
-      <c r="D66" t="s">
-        <v>253</v>
-      </c>
-      <c r="E66">
-        <v>2</v>
-      </c>
-      <c r="F66">
-        <v>3</v>
-      </c>
-      <c r="H66">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A67">
-        <v>1005</v>
-      </c>
-      <c r="B67" t="s">
-        <v>36</v>
-      </c>
-      <c r="C67" t="s">
-        <v>54</v>
-      </c>
-      <c r="D67" t="s">
-        <v>253</v>
-      </c>
-      <c r="E67">
-        <v>2</v>
-      </c>
-      <c r="F67">
-        <v>3</v>
-      </c>
-      <c r="H67">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A68">
-        <v>1006</v>
-      </c>
-      <c r="B68" t="s">
-        <v>37</v>
-      </c>
-      <c r="C68" t="s">
-        <v>55</v>
-      </c>
-      <c r="D68" t="s">
-        <v>253</v>
-      </c>
-      <c r="E68">
-        <v>2</v>
-      </c>
-      <c r="F68">
-        <v>3</v>
-      </c>
-      <c r="H68">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A69">
-        <v>1007</v>
-      </c>
-      <c r="B69" t="s">
-        <v>38</v>
-      </c>
-      <c r="C69" t="s">
-        <v>56</v>
-      </c>
-      <c r="D69" t="s">
-        <v>253</v>
-      </c>
-      <c r="E69">
-        <v>2</v>
-      </c>
-      <c r="F69">
-        <v>3</v>
-      </c>
-      <c r="H69">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A70">
-        <v>1008</v>
-      </c>
-      <c r="B70" t="s">
-        <v>39</v>
-      </c>
-      <c r="C70" t="s">
-        <v>57</v>
-      </c>
-      <c r="D70" t="s">
-        <v>253</v>
-      </c>
-      <c r="E70">
-        <v>2</v>
-      </c>
-      <c r="F70">
-        <v>3</v>
-      </c>
-      <c r="H70">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A71">
-        <v>1009</v>
-      </c>
-      <c r="B71" t="s">
-        <v>40</v>
-      </c>
-      <c r="C71" t="s">
-        <v>58</v>
-      </c>
-      <c r="D71" t="s">
-        <v>253</v>
-      </c>
-      <c r="E71">
-        <v>2</v>
-      </c>
-      <c r="F71">
-        <v>3</v>
-      </c>
-      <c r="H71">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A72">
-        <v>1010</v>
-      </c>
-      <c r="B72" t="s">
-        <v>41</v>
-      </c>
-      <c r="C72" t="s">
-        <v>59</v>
-      </c>
-      <c r="D72" t="s">
-        <v>253</v>
-      </c>
-      <c r="E72">
-        <v>2</v>
-      </c>
-      <c r="F72">
-        <v>3</v>
-      </c>
-      <c r="H72">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A73">
-        <v>1011</v>
-      </c>
-      <c r="B73" t="s">
-        <v>42</v>
-      </c>
-      <c r="C73" t="s">
-        <v>60</v>
       </c>
       <c r="D73" t="s">
         <v>253</v>
@@ -4423,15 +4515,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="B74" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C74" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D74" t="s">
         <v>253</v>
@@ -4446,15 +4538,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="B75" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C75" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D75" t="s">
         <v>253</v>
@@ -4469,398 +4561,338 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A76">
+        <v>1004</v>
+      </c>
+      <c r="B76" t="s">
+        <v>35</v>
+      </c>
+      <c r="C76" t="s">
+        <v>53</v>
+      </c>
+      <c r="D76" t="s">
+        <v>253</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <v>3</v>
+      </c>
+      <c r="H76">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>1005</v>
+      </c>
+      <c r="B77" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" t="s">
+        <v>54</v>
+      </c>
+      <c r="D77" t="s">
+        <v>253</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
+      </c>
+      <c r="H77">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>1006</v>
+      </c>
+      <c r="B78" t="s">
+        <v>37</v>
+      </c>
+      <c r="C78" t="s">
+        <v>55</v>
+      </c>
+      <c r="D78" t="s">
+        <v>253</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78">
+        <v>3</v>
+      </c>
+      <c r="H78">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>1007</v>
+      </c>
+      <c r="B79" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79" t="s">
+        <v>56</v>
+      </c>
+      <c r="D79" t="s">
+        <v>253</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79">
+        <v>3</v>
+      </c>
+      <c r="H79">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>1008</v>
+      </c>
+      <c r="B80" t="s">
+        <v>39</v>
+      </c>
+      <c r="C80" t="s">
+        <v>57</v>
+      </c>
+      <c r="D80" t="s">
+        <v>253</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <v>3</v>
+      </c>
+      <c r="H80">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>1009</v>
+      </c>
+      <c r="B81" t="s">
+        <v>40</v>
+      </c>
+      <c r="C81" t="s">
+        <v>58</v>
+      </c>
+      <c r="D81" t="s">
+        <v>253</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81">
+        <v>3</v>
+      </c>
+      <c r="H81">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>1010</v>
+      </c>
+      <c r="B82" t="s">
+        <v>41</v>
+      </c>
+      <c r="C82" t="s">
+        <v>59</v>
+      </c>
+      <c r="D82" t="s">
+        <v>253</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+      <c r="F82">
+        <v>3</v>
+      </c>
+      <c r="H82">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>1011</v>
+      </c>
+      <c r="B83" t="s">
+        <v>42</v>
+      </c>
+      <c r="C83" t="s">
+        <v>60</v>
+      </c>
+      <c r="D83" t="s">
+        <v>253</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="F83">
+        <v>3</v>
+      </c>
+      <c r="H83">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>1012</v>
+      </c>
+      <c r="B84" t="s">
+        <v>43</v>
+      </c>
+      <c r="C84" t="s">
+        <v>61</v>
+      </c>
+      <c r="D84" t="s">
+        <v>253</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>3</v>
+      </c>
+      <c r="H84">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>1013</v>
+      </c>
+      <c r="B85" t="s">
+        <v>44</v>
+      </c>
+      <c r="C85" t="s">
+        <v>62</v>
+      </c>
+      <c r="D85" t="s">
+        <v>253</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <v>3</v>
+      </c>
+      <c r="H85">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A86">
         <v>3000</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B86" t="s">
         <v>4</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C86" t="s">
         <v>6</v>
       </c>
-      <c r="D76" t="s">
-        <v>253</v>
-      </c>
-      <c r="E76">
+      <c r="D86" t="s">
+        <v>253</v>
+      </c>
+      <c r="E86">
         <v>100</v>
       </c>
-      <c r="F76">
+      <c r="F86">
         <v>4</v>
       </c>
-      <c r="H76">
-        <v>1</v>
-      </c>
-      <c r="J76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A77">
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A87">
         <v>3001</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B87" t="s">
         <v>63</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C87" t="s">
         <v>64</v>
       </c>
-      <c r="D77" t="s">
-        <v>253</v>
-      </c>
-      <c r="E77">
+      <c r="D87" t="s">
+        <v>253</v>
+      </c>
+      <c r="E87">
         <v>51</v>
       </c>
-      <c r="F77">
+      <c r="F87">
         <v>4</v>
       </c>
-      <c r="H77">
-        <v>9999</v>
-      </c>
-      <c r="J77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A78">
+      <c r="H87">
+        <v>9999</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A88">
         <v>3002</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B88" t="s">
         <v>8</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C88" t="s">
         <v>65</v>
       </c>
-      <c r="D78" t="s">
-        <v>253</v>
-      </c>
-      <c r="E78">
+      <c r="D88" t="s">
+        <v>253</v>
+      </c>
+      <c r="E88">
         <v>52</v>
       </c>
-      <c r="F78">
+      <c r="F88">
         <v>4</v>
       </c>
-      <c r="H78">
-        <v>1</v>
-      </c>
-      <c r="I78">
-        <v>1</v>
-      </c>
-      <c r="J78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A79">
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A89">
         <v>3003</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B89" t="s">
         <v>157</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C89" t="s">
         <v>158</v>
       </c>
-      <c r="D79" t="s">
-        <v>253</v>
-      </c>
-      <c r="E79">
+      <c r="D89" t="s">
+        <v>253</v>
+      </c>
+      <c r="E89">
         <v>53</v>
-      </c>
-      <c r="F79">
-        <v>2</v>
-      </c>
-      <c r="G79">
-        <v>6000</v>
-      </c>
-      <c r="H79">
-        <v>9999</v>
-      </c>
-      <c r="J79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A80">
-        <v>7016</v>
-      </c>
-      <c r="B80" t="s">
-        <v>205</v>
-      </c>
-      <c r="C80" t="s">
-        <v>201</v>
-      </c>
-      <c r="D80" t="s">
-        <v>253</v>
-      </c>
-      <c r="E80">
-        <v>3001</v>
-      </c>
-      <c r="F80">
-        <v>2</v>
-      </c>
-      <c r="G80">
-        <v>7016</v>
-      </c>
-      <c r="H80">
-        <v>9999</v>
-      </c>
-      <c r="J80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A81">
-        <v>7017</v>
-      </c>
-      <c r="B81" t="s">
-        <v>206</v>
-      </c>
-      <c r="C81" t="s">
-        <v>202</v>
-      </c>
-      <c r="D81" t="s">
-        <v>253</v>
-      </c>
-      <c r="E81">
-        <v>3001</v>
-      </c>
-      <c r="F81">
-        <v>2</v>
-      </c>
-      <c r="G81">
-        <v>7017</v>
-      </c>
-      <c r="H81">
-        <v>9999</v>
-      </c>
-      <c r="J81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A82">
-        <v>7018</v>
-      </c>
-      <c r="B82" t="s">
-        <v>175</v>
-      </c>
-      <c r="C82" t="s">
-        <v>176</v>
-      </c>
-      <c r="D82" t="s">
-        <v>253</v>
-      </c>
-      <c r="E82">
-        <v>3001</v>
-      </c>
-      <c r="F82">
-        <v>2</v>
-      </c>
-      <c r="G82">
-        <v>7018</v>
-      </c>
-      <c r="H82">
-        <v>9999</v>
-      </c>
-      <c r="J82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A83">
-        <v>7019</v>
-      </c>
-      <c r="B83" t="s">
-        <v>177</v>
-      </c>
-      <c r="C83" t="s">
-        <v>178</v>
-      </c>
-      <c r="D83" t="s">
-        <v>253</v>
-      </c>
-      <c r="E83">
-        <v>3001</v>
-      </c>
-      <c r="F83">
-        <v>2</v>
-      </c>
-      <c r="G83">
-        <v>7019</v>
-      </c>
-      <c r="H83">
-        <v>9999</v>
-      </c>
-      <c r="J83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A84">
-        <v>7020</v>
-      </c>
-      <c r="B84" t="s">
-        <v>180</v>
-      </c>
-      <c r="C84" t="s">
-        <v>179</v>
-      </c>
-      <c r="D84" t="s">
-        <v>253</v>
-      </c>
-      <c r="E84">
-        <v>3001</v>
-      </c>
-      <c r="F84">
-        <v>2</v>
-      </c>
-      <c r="G84">
-        <v>7020</v>
-      </c>
-      <c r="H84">
-        <v>9999</v>
-      </c>
-      <c r="J84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A85">
-        <v>7021</v>
-      </c>
-      <c r="B85" t="s">
-        <v>181</v>
-      </c>
-      <c r="C85" t="s">
-        <v>183</v>
-      </c>
-      <c r="D85" t="s">
-        <v>253</v>
-      </c>
-      <c r="E85">
-        <v>3001</v>
-      </c>
-      <c r="F85">
-        <v>2</v>
-      </c>
-      <c r="G85">
-        <v>7021</v>
-      </c>
-      <c r="H85">
-        <v>9999</v>
-      </c>
-      <c r="J85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A86">
-        <v>7022</v>
-      </c>
-      <c r="B86" t="s">
-        <v>187</v>
-      </c>
-      <c r="C86" t="s">
-        <v>182</v>
-      </c>
-      <c r="D86" t="s">
-        <v>253</v>
-      </c>
-      <c r="E86">
-        <v>3001</v>
-      </c>
-      <c r="F86">
-        <v>2</v>
-      </c>
-      <c r="G86">
-        <v>7022</v>
-      </c>
-      <c r="H86">
-        <v>9999</v>
-      </c>
-      <c r="J86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A87">
-        <v>7023</v>
-      </c>
-      <c r="B87" t="s">
-        <v>188</v>
-      </c>
-      <c r="C87" t="s">
-        <v>184</v>
-      </c>
-      <c r="D87" t="s">
-        <v>253</v>
-      </c>
-      <c r="E87">
-        <v>3001</v>
-      </c>
-      <c r="F87">
-        <v>2</v>
-      </c>
-      <c r="G87">
-        <v>7023</v>
-      </c>
-      <c r="H87">
-        <v>9999</v>
-      </c>
-      <c r="J87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A88">
-        <v>7024</v>
-      </c>
-      <c r="B88" t="s">
-        <v>189</v>
-      </c>
-      <c r="C88" t="s">
-        <v>185</v>
-      </c>
-      <c r="D88" t="s">
-        <v>253</v>
-      </c>
-      <c r="E88">
-        <v>3001</v>
-      </c>
-      <c r="F88">
-        <v>2</v>
-      </c>
-      <c r="G88">
-        <v>7024</v>
-      </c>
-      <c r="H88">
-        <v>9999</v>
-      </c>
-      <c r="J88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A89">
-        <v>7025</v>
-      </c>
-      <c r="B89" t="s">
-        <v>190</v>
-      </c>
-      <c r="C89" t="s">
-        <v>186</v>
-      </c>
-      <c r="D89" t="s">
-        <v>253</v>
-      </c>
-      <c r="E89">
-        <v>3001</v>
       </c>
       <c r="F89">
         <v>2</v>
       </c>
       <c r="G89">
-        <v>7025</v>
+        <v>6000</v>
       </c>
       <c r="H89">
         <v>9999</v>
@@ -4869,15 +4901,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A90">
-        <v>7026</v>
+        <v>7016</v>
       </c>
       <c r="B90" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="C90" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D90" t="s">
         <v>253</v>
@@ -4889,7 +4921,7 @@
         <v>2</v>
       </c>
       <c r="G90">
-        <v>7026</v>
+        <v>7016</v>
       </c>
       <c r="H90">
         <v>9999</v>
@@ -4898,15 +4930,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A91">
-        <v>7027</v>
+        <v>7017</v>
       </c>
       <c r="B91" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="C91" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D91" t="s">
         <v>253</v>
@@ -4918,7 +4950,7 @@
         <v>2</v>
       </c>
       <c r="G91">
-        <v>7027</v>
+        <v>7017</v>
       </c>
       <c r="H91">
         <v>9999</v>
@@ -4927,15 +4959,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A92">
-        <v>7028</v>
+        <v>7018</v>
       </c>
       <c r="B92" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="C92" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="D92" t="s">
         <v>253</v>
@@ -4947,7 +4979,7 @@
         <v>2</v>
       </c>
       <c r="G92">
-        <v>7028</v>
+        <v>7018</v>
       </c>
       <c r="H92">
         <v>9999</v>
@@ -4956,15 +4988,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A93">
-        <v>7029</v>
+        <v>7019</v>
       </c>
       <c r="B93" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="C93" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="D93" t="s">
         <v>253</v>
@@ -4976,7 +5008,7 @@
         <v>2</v>
       </c>
       <c r="G93">
-        <v>7029</v>
+        <v>7019</v>
       </c>
       <c r="H93">
         <v>9999</v>
@@ -4985,15 +5017,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A94">
-        <v>7030</v>
+        <v>7020</v>
       </c>
       <c r="B94" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="C94" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="D94" t="s">
         <v>253</v>
@@ -5005,739 +5037,749 @@
         <v>2</v>
       </c>
       <c r="G94">
+        <v>7020</v>
+      </c>
+      <c r="H94">
+        <v>9999</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <v>7021</v>
+      </c>
+      <c r="B95" t="s">
+        <v>181</v>
+      </c>
+      <c r="C95" t="s">
+        <v>183</v>
+      </c>
+      <c r="D95" t="s">
+        <v>253</v>
+      </c>
+      <c r="E95">
+        <v>3001</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+      <c r="G95">
+        <v>7021</v>
+      </c>
+      <c r="H95">
+        <v>9999</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>7022</v>
+      </c>
+      <c r="B96" t="s">
+        <v>187</v>
+      </c>
+      <c r="C96" t="s">
+        <v>182</v>
+      </c>
+      <c r="D96" t="s">
+        <v>253</v>
+      </c>
+      <c r="E96">
+        <v>3001</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+      <c r="G96">
+        <v>7022</v>
+      </c>
+      <c r="H96">
+        <v>9999</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A97">
+        <v>7023</v>
+      </c>
+      <c r="B97" t="s">
+        <v>188</v>
+      </c>
+      <c r="C97" t="s">
+        <v>184</v>
+      </c>
+      <c r="D97" t="s">
+        <v>253</v>
+      </c>
+      <c r="E97">
+        <v>3001</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="G97">
+        <v>7023</v>
+      </c>
+      <c r="H97">
+        <v>9999</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>7024</v>
+      </c>
+      <c r="B98" t="s">
+        <v>189</v>
+      </c>
+      <c r="C98" t="s">
+        <v>185</v>
+      </c>
+      <c r="D98" t="s">
+        <v>253</v>
+      </c>
+      <c r="E98">
+        <v>3001</v>
+      </c>
+      <c r="F98">
+        <v>2</v>
+      </c>
+      <c r="G98">
+        <v>7024</v>
+      </c>
+      <c r="H98">
+        <v>9999</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>7025</v>
+      </c>
+      <c r="B99" t="s">
+        <v>190</v>
+      </c>
+      <c r="C99" t="s">
+        <v>186</v>
+      </c>
+      <c r="D99" t="s">
+        <v>253</v>
+      </c>
+      <c r="E99">
+        <v>3001</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+      <c r="G99">
+        <v>7025</v>
+      </c>
+      <c r="H99">
+        <v>9999</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <v>7026</v>
+      </c>
+      <c r="B100" t="s">
+        <v>191</v>
+      </c>
+      <c r="C100" t="s">
+        <v>196</v>
+      </c>
+      <c r="D100" t="s">
+        <v>253</v>
+      </c>
+      <c r="E100">
+        <v>3001</v>
+      </c>
+      <c r="F100">
+        <v>2</v>
+      </c>
+      <c r="G100">
+        <v>7026</v>
+      </c>
+      <c r="H100">
+        <v>9999</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A101">
+        <v>7027</v>
+      </c>
+      <c r="B101" t="s">
+        <v>192</v>
+      </c>
+      <c r="C101" t="s">
+        <v>197</v>
+      </c>
+      <c r="D101" t="s">
+        <v>253</v>
+      </c>
+      <c r="E101">
+        <v>3001</v>
+      </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+      <c r="G101">
+        <v>7027</v>
+      </c>
+      <c r="H101">
+        <v>9999</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A102">
+        <v>7028</v>
+      </c>
+      <c r="B102" t="s">
+        <v>193</v>
+      </c>
+      <c r="C102" t="s">
+        <v>198</v>
+      </c>
+      <c r="D102" t="s">
+        <v>253</v>
+      </c>
+      <c r="E102">
+        <v>3001</v>
+      </c>
+      <c r="F102">
+        <v>2</v>
+      </c>
+      <c r="G102">
+        <v>7028</v>
+      </c>
+      <c r="H102">
+        <v>9999</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A103">
+        <v>7029</v>
+      </c>
+      <c r="B103" t="s">
+        <v>194</v>
+      </c>
+      <c r="C103" t="s">
+        <v>199</v>
+      </c>
+      <c r="D103" t="s">
+        <v>253</v>
+      </c>
+      <c r="E103">
+        <v>3001</v>
+      </c>
+      <c r="F103">
+        <v>2</v>
+      </c>
+      <c r="G103">
+        <v>7029</v>
+      </c>
+      <c r="H103">
+        <v>9999</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A104">
         <v>7030</v>
       </c>
-      <c r="H94">
-        <v>9999</v>
-      </c>
-      <c r="J94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A95">
+      <c r="B104" t="s">
+        <v>195</v>
+      </c>
+      <c r="C104" t="s">
+        <v>200</v>
+      </c>
+      <c r="D104" t="s">
+        <v>253</v>
+      </c>
+      <c r="E104">
+        <v>3001</v>
+      </c>
+      <c r="F104">
+        <v>2</v>
+      </c>
+      <c r="G104">
+        <v>7030</v>
+      </c>
+      <c r="H104">
+        <v>9999</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A105">
         <v>9000</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B105" t="s">
         <v>68</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C105" t="s">
         <v>66</v>
       </c>
-      <c r="D95" t="s">
-        <v>253</v>
-      </c>
-      <c r="E95">
+      <c r="D105" t="s">
+        <v>253</v>
+      </c>
+      <c r="E105">
         <v>90</v>
       </c>
-      <c r="H95">
+      <c r="H105">
         <v>9999999</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A96">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A106">
         <v>9001</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B106" t="s">
         <v>69</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C106" t="s">
         <v>67</v>
       </c>
-      <c r="D96" t="s">
-        <v>253</v>
-      </c>
-      <c r="E96">
+      <c r="D106" t="s">
+        <v>253</v>
+      </c>
+      <c r="E106">
         <v>91</v>
       </c>
-      <c r="H96">
+      <c r="H106">
         <v>9999999</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="72" x14ac:dyDescent="0.45">
-      <c r="A97">
+    <row r="107" spans="1:10" ht="75" x14ac:dyDescent="0.4">
+      <c r="A107">
         <v>9002</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B107" t="s">
         <v>70</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C107" t="s">
         <v>72</v>
       </c>
-      <c r="D97" s="16" t="s">
+      <c r="D107" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="E97">
+      <c r="E107">
         <v>92</v>
       </c>
-      <c r="H97">
+      <c r="H107">
         <v>9999999</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="72" x14ac:dyDescent="0.45">
-      <c r="A98">
+    <row r="108" spans="1:10" ht="75" x14ac:dyDescent="0.4">
+      <c r="A108">
         <v>9003</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B108" t="s">
         <v>212</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C108" t="s">
         <v>207</v>
       </c>
-      <c r="D98" s="16" t="s">
+      <c r="D108" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="E98">
+      <c r="E108">
         <v>93</v>
       </c>
-      <c r="H98">
+      <c r="H108">
         <v>9999999</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A99">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A109">
         <v>9004</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B109" t="s">
         <v>208</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C109" t="s">
         <v>209</v>
       </c>
-      <c r="D99" t="s">
-        <v>253</v>
-      </c>
-      <c r="E99">
+      <c r="D109" t="s">
+        <v>253</v>
+      </c>
+      <c r="E109">
         <v>94</v>
       </c>
-      <c r="H99">
+      <c r="H109">
         <v>9999999</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="72" x14ac:dyDescent="0.45">
-      <c r="A100">
+    <row r="110" spans="1:10" ht="75" x14ac:dyDescent="0.4">
+      <c r="A110">
         <v>9005</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B110" t="s">
         <v>210</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C110" t="s">
         <v>211</v>
       </c>
-      <c r="D100" s="16" t="s">
+      <c r="D110" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="E100">
+      <c r="E110">
         <v>95</v>
       </c>
-      <c r="H100">
+      <c r="H110">
         <v>9999999</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A101" s="9">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A111" s="9">
         <v>10001</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B111" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="C101" s="10" t="s">
+      <c r="C111" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="D101" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E101" s="10">
+      <c r="D111" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E111" s="10">
         <v>5001</v>
       </c>
-      <c r="F101" s="10">
+      <c r="F111" s="10">
         <v>5</v>
       </c>
-      <c r="G101" s="10">
-        <v>1</v>
-      </c>
-      <c r="H101" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A102" s="9">
+      <c r="G111" s="10">
+        <v>1</v>
+      </c>
+      <c r="H111" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A112" s="9">
         <v>10002</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B112" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C102" s="12" t="s">
+      <c r="C112" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="D102" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E102" s="12">
+      <c r="D112" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E112" s="12">
         <v>5001</v>
       </c>
-      <c r="F102" s="12">
+      <c r="F112" s="12">
         <v>5</v>
       </c>
-      <c r="G102" s="12">
+      <c r="G112" s="12">
         <v>2</v>
       </c>
-      <c r="H102" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A103" s="9">
+      <c r="H112" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A113" s="9">
         <v>10003</v>
       </c>
-      <c r="B103" s="12" t="s">
+      <c r="B113" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="C103" s="12" t="s">
+      <c r="C113" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="D103" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E103" s="12">
+      <c r="D113" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E113" s="12">
         <v>5001</v>
       </c>
-      <c r="F103" s="12">
+      <c r="F113" s="12">
         <v>5</v>
       </c>
-      <c r="G103" s="12">
+      <c r="G113" s="12">
         <v>3</v>
       </c>
-      <c r="H103" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A104" s="9">
+      <c r="H113" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A114" s="9">
         <v>10004</v>
       </c>
-      <c r="B104" s="12" t="s">
+      <c r="B114" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="C104" s="12" t="s">
+      <c r="C114" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="D104" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E104" s="12">
+      <c r="D114" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E114" s="12">
         <v>5001</v>
       </c>
-      <c r="F104" s="12">
+      <c r="F114" s="12">
         <v>5</v>
       </c>
-      <c r="G104" s="12">
+      <c r="G114" s="12">
         <v>4</v>
       </c>
-      <c r="H104" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A105" s="9">
+      <c r="H114" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A115" s="9">
         <v>10005</v>
       </c>
-      <c r="B105" s="12" t="s">
+      <c r="B115" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="C105" s="12" t="s">
+      <c r="C115" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="D105" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E105" s="12">
+      <c r="D115" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E115" s="12">
         <v>5001</v>
       </c>
-      <c r="F105" s="12">
+      <c r="F115" s="12">
         <v>5</v>
       </c>
-      <c r="G105" s="12">
+      <c r="G115" s="12">
         <v>5</v>
       </c>
-      <c r="H105" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A106" s="9">
+      <c r="H115" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A116" s="9">
         <v>10006</v>
       </c>
-      <c r="B106" s="12" t="s">
+      <c r="B116" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="C106" s="12" t="s">
+      <c r="C116" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="D106" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E106" s="12">
+      <c r="D116" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E116" s="12">
         <v>5001</v>
       </c>
-      <c r="F106" s="12">
+      <c r="F116" s="12">
         <v>5</v>
       </c>
-      <c r="G106" s="12">
+      <c r="G116" s="12">
         <v>6</v>
       </c>
-      <c r="H106" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A107" s="9">
+      <c r="H116" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A117" s="9">
         <v>10007</v>
       </c>
-      <c r="B107" s="12" t="s">
+      <c r="B117" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="C107" s="12" t="s">
+      <c r="C117" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="D107" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E107" s="12">
+      <c r="D117" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E117" s="12">
         <v>5001</v>
       </c>
-      <c r="F107" s="12">
+      <c r="F117" s="12">
         <v>5</v>
       </c>
-      <c r="G107" s="12">
+      <c r="G117" s="12">
         <v>7</v>
       </c>
-      <c r="H107" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A108" s="9">
+      <c r="H117" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A118" s="9">
         <v>10008</v>
       </c>
-      <c r="B108" s="12" t="s">
+      <c r="B118" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="C108" s="12" t="s">
+      <c r="C118" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="D108" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E108" s="12">
+      <c r="D118" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E118" s="12">
         <v>5001</v>
       </c>
-      <c r="F108" s="12">
+      <c r="F118" s="12">
         <v>5</v>
       </c>
-      <c r="G108" s="12">
+      <c r="G118" s="12">
         <v>8</v>
       </c>
-      <c r="H108" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A109" s="9">
+      <c r="H118" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A119" s="9">
         <v>10009</v>
       </c>
-      <c r="B109" s="12" t="s">
+      <c r="B119" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="C109" s="12" t="s">
+      <c r="C119" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="D109" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E109" s="12">
+      <c r="D119" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E119" s="12">
         <v>5001</v>
       </c>
-      <c r="F109" s="12">
+      <c r="F119" s="12">
         <v>5</v>
       </c>
-      <c r="G109" s="12">
+      <c r="G119" s="12">
         <v>9</v>
       </c>
-      <c r="H109" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A110" s="9">
+      <c r="H119" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A120" s="9">
         <v>10010</v>
       </c>
-      <c r="B110" s="12" t="s">
+      <c r="B120" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="C110" s="12" t="s">
+      <c r="C120" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="D110" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E110" s="12">
+      <c r="D120" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E120" s="12">
         <v>5001</v>
       </c>
-      <c r="F110" s="12">
+      <c r="F120" s="12">
         <v>5</v>
       </c>
-      <c r="G110" s="12">
+      <c r="G120" s="12">
         <v>10</v>
       </c>
-      <c r="H110" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A111" s="9">
+      <c r="H120" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A121" s="9">
         <v>10011</v>
       </c>
-      <c r="B111" s="13" t="s">
+      <c r="B121" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="C111" s="13" t="s">
+      <c r="C121" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="D111" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E111" s="13">
+      <c r="D121" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E121" s="13">
         <v>5001</v>
       </c>
-      <c r="F111" s="13">
+      <c r="F121" s="13">
         <v>5</v>
       </c>
-      <c r="G111" s="13">
+      <c r="G121" s="13">
         <v>11</v>
       </c>
-      <c r="H111" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A112" s="9">
+      <c r="H121" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A122" s="9">
         <v>10012</v>
       </c>
-      <c r="B112" s="13" t="s">
+      <c r="B122" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="C112" s="13" t="s">
+      <c r="C122" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="D112" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E112" s="13">
+      <c r="D122" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E122" s="13">
         <v>5001</v>
       </c>
-      <c r="F112" s="13">
+      <c r="F122" s="13">
         <v>5</v>
       </c>
-      <c r="G112" s="13">
+      <c r="G122" s="13">
         <v>12</v>
       </c>
-      <c r="H112" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="72" x14ac:dyDescent="0.45">
-      <c r="A113" s="14">
+      <c r="H122" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="75" x14ac:dyDescent="0.4">
+      <c r="A123" s="14">
         <v>10013</v>
       </c>
-      <c r="B113" s="14" t="s">
+      <c r="B123" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="C113" s="6" t="s">
+      <c r="C123" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="D113" s="15" t="s">
+      <c r="D123" s="15" t="s">
         <v>279</v>
-      </c>
-      <c r="E113" s="6">
-        <v>5001</v>
-      </c>
-      <c r="F113" s="6">
-        <v>5</v>
-      </c>
-      <c r="G113" s="6">
-        <v>22</v>
-      </c>
-      <c r="H113" s="6">
-        <v>1</v>
-      </c>
-      <c r="I113" s="14"/>
-      <c r="J113" s="14"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A114" s="14">
-        <v>10014</v>
-      </c>
-      <c r="B114" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="D114" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="E114" s="6">
-        <v>5001</v>
-      </c>
-      <c r="F114" s="6">
-        <v>5</v>
-      </c>
-      <c r="G114" s="6">
-        <v>23</v>
-      </c>
-      <c r="H114" s="6">
-        <v>1</v>
-      </c>
-      <c r="I114" s="14"/>
-      <c r="J114" s="14"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A115" s="14">
-        <v>10015</v>
-      </c>
-      <c r="B115" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="D115" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="E115" s="6">
-        <v>5001</v>
-      </c>
-      <c r="F115" s="6">
-        <v>5</v>
-      </c>
-      <c r="G115" s="6">
-        <v>24</v>
-      </c>
-      <c r="H115" s="6">
-        <v>1</v>
-      </c>
-      <c r="I115" s="14"/>
-      <c r="J115" s="14"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A116" s="14">
-        <v>10016</v>
-      </c>
-      <c r="B116" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="D116" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="E116" s="6">
-        <v>5001</v>
-      </c>
-      <c r="F116" s="6">
-        <v>5</v>
-      </c>
-      <c r="G116" s="6">
-        <v>19</v>
-      </c>
-      <c r="H116" s="6">
-        <v>1</v>
-      </c>
-      <c r="I116" s="14"/>
-      <c r="J116" s="14"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A117" s="14">
-        <v>10017</v>
-      </c>
-      <c r="B117" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="D117" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="E117" s="6">
-        <v>5001</v>
-      </c>
-      <c r="F117" s="6">
-        <v>5</v>
-      </c>
-      <c r="G117" s="6">
-        <v>20</v>
-      </c>
-      <c r="H117" s="6">
-        <v>1</v>
-      </c>
-      <c r="I117" s="14"/>
-      <c r="J117" s="14"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A118" s="14">
-        <v>10018</v>
-      </c>
-      <c r="B118" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="D118" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="E118" s="6">
-        <v>5001</v>
-      </c>
-      <c r="F118" s="6">
-        <v>5</v>
-      </c>
-      <c r="G118" s="6">
-        <v>21</v>
-      </c>
-      <c r="H118" s="6">
-        <v>1</v>
-      </c>
-      <c r="I118" s="14"/>
-      <c r="J118" s="14"/>
-    </row>
-    <row r="119" spans="1:10" ht="54" x14ac:dyDescent="0.45">
-      <c r="A119" s="14">
-        <v>10019</v>
-      </c>
-      <c r="B119" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="D119" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="E119" s="6">
-        <v>5001</v>
-      </c>
-      <c r="F119" s="6">
-        <v>5</v>
-      </c>
-      <c r="G119" s="6">
-        <v>16</v>
-      </c>
-      <c r="H119" s="6">
-        <v>1</v>
-      </c>
-      <c r="I119" s="14"/>
-      <c r="J119" s="14"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A120" s="14">
-        <v>10020</v>
-      </c>
-      <c r="B120" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="D120" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="E120" s="6">
-        <v>5001</v>
-      </c>
-      <c r="F120" s="6">
-        <v>5</v>
-      </c>
-      <c r="G120" s="6">
-        <v>17</v>
-      </c>
-      <c r="H120" s="6">
-        <v>1</v>
-      </c>
-      <c r="I120" s="14"/>
-      <c r="J120" s="14"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A121" s="14">
-        <v>10021</v>
-      </c>
-      <c r="B121" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="D121" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="E121" s="6">
-        <v>5001</v>
-      </c>
-      <c r="F121" s="6">
-        <v>5</v>
-      </c>
-      <c r="G121" s="6">
-        <v>18</v>
-      </c>
-      <c r="H121" s="6">
-        <v>1</v>
-      </c>
-      <c r="I121" s="14"/>
-      <c r="J121" s="14"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A122" s="14">
-        <v>10022</v>
-      </c>
-      <c r="B122" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="D122" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="E122" s="6">
-        <v>5001</v>
-      </c>
-      <c r="F122" s="6">
-        <v>5</v>
-      </c>
-      <c r="G122" s="6">
-        <v>13</v>
-      </c>
-      <c r="H122" s="6">
-        <v>1</v>
-      </c>
-      <c r="I122" s="14"/>
-      <c r="J122" s="14"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A123" s="14">
-        <v>10023</v>
-      </c>
-      <c r="B123" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="D123" s="14" t="s">
-        <v>253</v>
       </c>
       <c r="E123" s="6">
         <v>5001</v>
@@ -5746,7 +5788,7 @@
         <v>5</v>
       </c>
       <c r="G123" s="6">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H123" s="6">
         <v>1</v>
@@ -5754,15 +5796,15 @@
       <c r="I123" s="14"/>
       <c r="J123" s="14"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A124" s="14">
-        <v>10024</v>
+        <v>10014</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="D124" s="14" t="s">
         <v>253</v>
@@ -5774,7 +5816,7 @@
         <v>5</v>
       </c>
       <c r="G124" s="6">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H124" s="6">
         <v>1</v>
@@ -5782,29 +5824,309 @@
       <c r="I124" s="14"/>
       <c r="J124" s="14"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A125">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A125" s="14">
+        <v>10015</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D125" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E125" s="6">
+        <v>5001</v>
+      </c>
+      <c r="F125" s="6">
+        <v>5</v>
+      </c>
+      <c r="G125" s="6">
+        <v>24</v>
+      </c>
+      <c r="H125" s="6">
+        <v>1</v>
+      </c>
+      <c r="I125" s="14"/>
+      <c r="J125" s="14"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A126" s="14">
+        <v>10016</v>
+      </c>
+      <c r="B126" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D126" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E126" s="6">
+        <v>5001</v>
+      </c>
+      <c r="F126" s="6">
+        <v>5</v>
+      </c>
+      <c r="G126" s="6">
+        <v>19</v>
+      </c>
+      <c r="H126" s="6">
+        <v>1</v>
+      </c>
+      <c r="I126" s="14"/>
+      <c r="J126" s="14"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A127" s="14">
+        <v>10017</v>
+      </c>
+      <c r="B127" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D127" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E127" s="6">
+        <v>5001</v>
+      </c>
+      <c r="F127" s="6">
+        <v>5</v>
+      </c>
+      <c r="G127" s="6">
+        <v>20</v>
+      </c>
+      <c r="H127" s="6">
+        <v>1</v>
+      </c>
+      <c r="I127" s="14"/>
+      <c r="J127" s="14"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A128" s="14">
+        <v>10018</v>
+      </c>
+      <c r="B128" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D128" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E128" s="6">
+        <v>5001</v>
+      </c>
+      <c r="F128" s="6">
+        <v>5</v>
+      </c>
+      <c r="G128" s="6">
+        <v>21</v>
+      </c>
+      <c r="H128" s="6">
+        <v>1</v>
+      </c>
+      <c r="I128" s="14"/>
+      <c r="J128" s="14"/>
+    </row>
+    <row r="129" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A129" s="14">
+        <v>10019</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D129" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E129" s="6">
+        <v>5001</v>
+      </c>
+      <c r="F129" s="6">
+        <v>5</v>
+      </c>
+      <c r="G129" s="6">
+        <v>16</v>
+      </c>
+      <c r="H129" s="6">
+        <v>1</v>
+      </c>
+      <c r="I129" s="14"/>
+      <c r="J129" s="14"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A130" s="14">
+        <v>10020</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D130" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E130" s="6">
+        <v>5001</v>
+      </c>
+      <c r="F130" s="6">
+        <v>5</v>
+      </c>
+      <c r="G130" s="6">
+        <v>17</v>
+      </c>
+      <c r="H130" s="6">
+        <v>1</v>
+      </c>
+      <c r="I130" s="14"/>
+      <c r="J130" s="14"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A131" s="14">
+        <v>10021</v>
+      </c>
+      <c r="B131" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D131" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E131" s="6">
+        <v>5001</v>
+      </c>
+      <c r="F131" s="6">
+        <v>5</v>
+      </c>
+      <c r="G131" s="6">
+        <v>18</v>
+      </c>
+      <c r="H131" s="6">
+        <v>1</v>
+      </c>
+      <c r="I131" s="14"/>
+      <c r="J131" s="14"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A132" s="14">
+        <v>10022</v>
+      </c>
+      <c r="B132" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D132" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E132" s="6">
+        <v>5001</v>
+      </c>
+      <c r="F132" s="6">
+        <v>5</v>
+      </c>
+      <c r="G132" s="6">
+        <v>13</v>
+      </c>
+      <c r="H132" s="6">
+        <v>1</v>
+      </c>
+      <c r="I132" s="14"/>
+      <c r="J132" s="14"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A133" s="14">
+        <v>10023</v>
+      </c>
+      <c r="B133" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D133" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E133" s="6">
+        <v>5001</v>
+      </c>
+      <c r="F133" s="6">
+        <v>5</v>
+      </c>
+      <c r="G133" s="6">
+        <v>14</v>
+      </c>
+      <c r="H133" s="6">
+        <v>1</v>
+      </c>
+      <c r="I133" s="14"/>
+      <c r="J133" s="14"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A134" s="14">
+        <v>10024</v>
+      </c>
+      <c r="B134" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D134" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E134" s="6">
+        <v>5001</v>
+      </c>
+      <c r="F134" s="6">
+        <v>5</v>
+      </c>
+      <c r="G134" s="6">
+        <v>15</v>
+      </c>
+      <c r="H134" s="6">
+        <v>1</v>
+      </c>
+      <c r="I134" s="14"/>
+      <c r="J134" s="14"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A135">
         <v>11001</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B135" t="s">
         <v>237</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C135" t="s">
         <v>211</v>
       </c>
-      <c r="D125" t="s">
-        <v>253</v>
-      </c>
-      <c r="E125">
+      <c r="D135" t="s">
+        <v>253</v>
+      </c>
+      <c r="E135">
         <v>5002</v>
       </c>
-      <c r="F125">
+      <c r="F135">
         <v>5</v>
       </c>
-      <c r="G125">
+      <c r="G135">
         <v>100</v>
       </c>
-      <c r="H125">
+      <c r="H135">
         <v>1</v>
       </c>
     </row>
@@ -5826,12 +6148,12 @@
       <selection activeCell="B2" sqref="B2:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="32.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>247</v>
       </c>
@@ -5854,7 +6176,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
         <v>10013</v>
       </c>
@@ -5877,7 +6199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>10012</v>
       </c>
@@ -5900,7 +6222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>10011</v>
       </c>
@@ -5923,7 +6245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>10010</v>
       </c>
@@ -5946,7 +6268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>10009</v>
       </c>
@@ -5969,7 +6291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>10008</v>
       </c>
@@ -5992,7 +6314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>10007</v>
       </c>
@@ -6015,7 +6337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>10006</v>
       </c>
@@ -6038,7 +6360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>10005</v>
       </c>
@@ -6061,7 +6383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>10004</v>
       </c>
@@ -6084,7 +6406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>10003</v>
       </c>
@@ -6107,7 +6429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>10002</v>
       </c>
@@ -6148,83 +6470,83 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.09765625" customWidth="1"/>
-    <col min="2" max="2" width="5.8984375" customWidth="1"/>
+    <col min="1" max="1" width="20.125" customWidth="1"/>
+    <col min="2" max="2" width="5.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>98</v>
       </c>
@@ -6244,9 +6566,9 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -6254,7 +6576,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2</v>
       </c>
@@ -6262,7 +6584,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>51</v>
       </c>
@@ -6270,7 +6592,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>52</v>
       </c>
@@ -6278,7 +6600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>53</v>
       </c>
@@ -6286,7 +6608,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1000</v>
       </c>
@@ -6294,7 +6616,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1001</v>
       </c>
@@ -6302,7 +6624,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -6310,7 +6632,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>2100</v>
       </c>
@@ -6318,7 +6640,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>2101</v>
       </c>
@@ -6326,7 +6648,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>3000</v>
       </c>
@@ -6334,7 +6656,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>3001</v>
       </c>
@@ -6342,7 +6664,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>5001</v>
       </c>
@@ -6350,7 +6672,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>5002</v>
       </c>
@@ -6358,7 +6680,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>9999</v>
       </c>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DD743B-1E95-4D63-9693-7087EB621636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54829022-D5CC-4B66-83A5-DADCAF99EB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="314">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1511,13 +1511,123 @@
   </si>
   <si>
     <t>Textures/block_2d_039</t>
+  </si>
+  <si>
+    <t>白の木製ベット</t>
+    <rPh sb="0" eb="1">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モクセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Textures/object_2d_068</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黄色の木製ベット</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モクセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Textures/object_2d_069</t>
+  </si>
+  <si>
+    <t>ピンクの木製ベット</t>
+    <rPh sb="4" eb="6">
+      <t>モクセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Textures/object_2d_070</t>
+  </si>
+  <si>
+    <t>オレンジの木製ベット</t>
+    <rPh sb="5" eb="7">
+      <t>モクセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Textures/object_2d_071</t>
+  </si>
+  <si>
+    <t>赤の木製ベット</t>
+    <rPh sb="2" eb="4">
+      <t>モクセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Textures/object_2d_072</t>
+  </si>
+  <si>
+    <t>紫の木製ベット</t>
+    <rPh sb="2" eb="4">
+      <t>モクセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Textures/object_2d_073</t>
+  </si>
+  <si>
+    <t>青の木製ベット</t>
+    <rPh sb="2" eb="4">
+      <t>モクセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Textures/object_2d_074</t>
+  </si>
+  <si>
+    <t>水色の木製ベット</t>
+    <rPh sb="3" eb="5">
+      <t>モクセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Textures/object_2d_075</t>
+  </si>
+  <si>
+    <t>緑の木製ベット</t>
+    <rPh sb="2" eb="4">
+      <t>モクセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Textures/object_2d_076</t>
+  </si>
+  <si>
+    <t>黒の木製ベット</t>
+    <rPh sb="2" eb="4">
+      <t>モクセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Textures/object_2d_077</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1567,6 +1677,15 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -1662,7 +1781,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1705,13 +1824,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2062,8 +2178,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:J135" totalsRowShown="0">
-  <autoFilter ref="A1:J135" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:J145" totalsRowShown="0">
+  <autoFilter ref="A1:J145" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Name"/>
@@ -2396,13 +2512,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:J135"/>
+  <dimension ref="A1:J145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M46" sqref="M46"/>
+      <selection pane="bottomRight" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3594,26 +3710,26 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A42">
-        <v>230</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>155</v>
+      <c r="A42" s="11">
+        <v>200</v>
+      </c>
+      <c r="B42" t="s">
+        <v>294</v>
       </c>
       <c r="C42" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D42" t="s">
         <v>253</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>2001</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42">
-        <v>1130</v>
+        <v>5200</v>
       </c>
       <c r="H42">
         <v>9999</v>
@@ -3623,26 +3739,26 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A43">
-        <v>231</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>155</v>
+      <c r="A43" s="11">
+        <v>201</v>
+      </c>
+      <c r="B43" t="s">
+        <v>296</v>
       </c>
       <c r="C43" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D43" t="s">
         <v>253</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>2001</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43">
-        <v>1131</v>
+        <v>5201</v>
       </c>
       <c r="H43">
         <v>9999</v>
@@ -3652,26 +3768,26 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A44">
-        <v>232</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>155</v>
+      <c r="A44" s="11">
+        <v>202</v>
+      </c>
+      <c r="B44" t="s">
+        <v>298</v>
       </c>
       <c r="C44" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="D44" t="s">
         <v>253</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>2001</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G44">
-        <v>1132</v>
+        <v>5202</v>
       </c>
       <c r="H44">
         <v>9999</v>
@@ -3681,26 +3797,26 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A45">
-        <v>233</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>155</v>
+      <c r="A45" s="11">
+        <v>203</v>
+      </c>
+      <c r="B45" t="s">
+        <v>300</v>
       </c>
       <c r="C45" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="D45" t="s">
         <v>253</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>2001</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45">
-        <v>1133</v>
+        <v>5203</v>
       </c>
       <c r="H45">
         <v>9999</v>
@@ -3710,26 +3826,26 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A46">
-        <v>234</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>155</v>
+      <c r="A46" s="11">
+        <v>204</v>
+      </c>
+      <c r="B46" t="s">
+        <v>302</v>
       </c>
       <c r="C46" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="D46" t="s">
         <v>253</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>2001</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46">
-        <v>1134</v>
+        <v>5204</v>
       </c>
       <c r="H46">
         <v>9999</v>
@@ -3739,26 +3855,26 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A47">
-        <v>235</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>155</v>
+      <c r="A47" s="11">
+        <v>205</v>
+      </c>
+      <c r="B47" t="s">
+        <v>304</v>
       </c>
       <c r="C47" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="D47" t="s">
         <v>253</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>2001</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47">
-        <v>1135</v>
+        <v>5205</v>
       </c>
       <c r="H47">
         <v>9999</v>
@@ -3768,26 +3884,26 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A48">
-        <v>236</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>155</v>
+      <c r="A48" s="11">
+        <v>206</v>
+      </c>
+      <c r="B48" t="s">
+        <v>306</v>
       </c>
       <c r="C48" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="D48" t="s">
         <v>253</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>2001</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48">
-        <v>1136</v>
+        <v>5206</v>
       </c>
       <c r="H48">
         <v>9999</v>
@@ -3797,26 +3913,26 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A49">
-        <v>237</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>155</v>
+      <c r="A49" s="11">
+        <v>207</v>
+      </c>
+      <c r="B49" t="s">
+        <v>308</v>
       </c>
       <c r="C49" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="D49" t="s">
         <v>253</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>2001</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G49">
-        <v>1137</v>
+        <v>5207</v>
       </c>
       <c r="H49">
         <v>9999</v>
@@ -3826,26 +3942,26 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A50">
-        <v>238</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>155</v>
+      <c r="A50" s="11">
+        <v>208</v>
+      </c>
+      <c r="B50" t="s">
+        <v>310</v>
       </c>
       <c r="C50" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="D50" t="s">
         <v>253</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>2001</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G50">
-        <v>1138</v>
+        <v>5208</v>
       </c>
       <c r="H50">
         <v>9999</v>
@@ -3855,26 +3971,26 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A51">
-        <v>239</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>155</v>
+      <c r="A51" s="11">
+        <v>209</v>
+      </c>
+      <c r="B51" t="s">
+        <v>312</v>
       </c>
       <c r="C51" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="D51" t="s">
         <v>253</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>2001</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G51">
-        <v>1139</v>
+        <v>5209</v>
       </c>
       <c r="H51">
         <v>9999</v>
@@ -3885,25 +4001,25 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>500</v>
-      </c>
-      <c r="B52" t="s">
-        <v>122</v>
+        <v>230</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="C52" t="s">
-        <v>101</v>
+        <v>291</v>
       </c>
       <c r="D52" t="s">
         <v>253</v>
       </c>
       <c r="E52">
-        <v>3001</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>1500</v>
+        <v>1130</v>
       </c>
       <c r="H52">
         <v>9999</v>
@@ -3914,25 +4030,25 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>501</v>
-      </c>
-      <c r="B53" t="s">
-        <v>123</v>
+        <v>231</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="C53" t="s">
-        <v>102</v>
+        <v>292</v>
       </c>
       <c r="D53" t="s">
         <v>253</v>
       </c>
       <c r="E53">
-        <v>3001</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>1501</v>
+        <v>1131</v>
       </c>
       <c r="H53">
         <v>9999</v>
@@ -3943,25 +4059,25 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>502</v>
-      </c>
-      <c r="B54" t="s">
-        <v>124</v>
+        <v>232</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="C54" t="s">
-        <v>103</v>
+        <v>284</v>
       </c>
       <c r="D54" t="s">
         <v>253</v>
       </c>
       <c r="E54">
-        <v>3001</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>1502</v>
+        <v>1132</v>
       </c>
       <c r="H54">
         <v>9999</v>
@@ -3972,25 +4088,25 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>503</v>
-      </c>
-      <c r="B55" t="s">
-        <v>125</v>
+        <v>233</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="C55" t="s">
-        <v>104</v>
+        <v>285</v>
       </c>
       <c r="D55" t="s">
         <v>253</v>
       </c>
       <c r="E55">
-        <v>3001</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>1503</v>
+        <v>1133</v>
       </c>
       <c r="H55">
         <v>9999</v>
@@ -4001,25 +4117,25 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>504</v>
-      </c>
-      <c r="B56" t="s">
-        <v>126</v>
+        <v>234</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="C56" t="s">
-        <v>105</v>
+        <v>286</v>
       </c>
       <c r="D56" t="s">
         <v>253</v>
       </c>
       <c r="E56">
-        <v>3001</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>1504</v>
+        <v>1134</v>
       </c>
       <c r="H56">
         <v>9999</v>
@@ -4030,25 +4146,25 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>505</v>
-      </c>
-      <c r="B57" t="s">
-        <v>127</v>
+        <v>235</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="C57" t="s">
-        <v>106</v>
+        <v>287</v>
       </c>
       <c r="D57" t="s">
         <v>253</v>
       </c>
       <c r="E57">
-        <v>3001</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>1505</v>
+        <v>1135</v>
       </c>
       <c r="H57">
         <v>9999</v>
@@ -4059,25 +4175,25 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>506</v>
-      </c>
-      <c r="B58" t="s">
-        <v>128</v>
+        <v>236</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="C58" t="s">
-        <v>107</v>
+        <v>288</v>
       </c>
       <c r="D58" t="s">
         <v>253</v>
       </c>
       <c r="E58">
-        <v>3001</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>1506</v>
+        <v>1136</v>
       </c>
       <c r="H58">
         <v>9999</v>
@@ -4088,25 +4204,25 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>507</v>
-      </c>
-      <c r="B59" t="s">
-        <v>130</v>
+        <v>237</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="C59" t="s">
-        <v>108</v>
+        <v>289</v>
       </c>
       <c r="D59" t="s">
         <v>253</v>
       </c>
       <c r="E59">
-        <v>3001</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>1507</v>
+        <v>1137</v>
       </c>
       <c r="H59">
         <v>9999</v>
@@ -4117,25 +4233,25 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>508</v>
-      </c>
-      <c r="B60" t="s">
-        <v>142</v>
+        <v>238</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="C60" t="s">
-        <v>109</v>
+        <v>290</v>
       </c>
       <c r="D60" t="s">
         <v>253</v>
       </c>
       <c r="E60">
-        <v>3001</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>1508</v>
+        <v>1138</v>
       </c>
       <c r="H60">
         <v>9999</v>
@@ -4146,25 +4262,25 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>509</v>
-      </c>
-      <c r="B61" t="s">
-        <v>129</v>
+        <v>239</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="C61" t="s">
-        <v>110</v>
+        <v>293</v>
       </c>
       <c r="D61" t="s">
         <v>253</v>
       </c>
       <c r="E61">
-        <v>3001</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>1509</v>
+        <v>1139</v>
       </c>
       <c r="H61">
         <v>9999</v>
@@ -4175,13 +4291,13 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="B62" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C62" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D62" t="s">
         <v>253</v>
@@ -4193,7 +4309,7 @@
         <v>2</v>
       </c>
       <c r="G62">
-        <v>1550</v>
+        <v>1500</v>
       </c>
       <c r="H62">
         <v>9999</v>
@@ -4204,13 +4320,13 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>551</v>
+        <v>501</v>
       </c>
       <c r="B63" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C63" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D63" t="s">
         <v>253</v>
@@ -4222,7 +4338,7 @@
         <v>2</v>
       </c>
       <c r="G63">
-        <v>1551</v>
+        <v>1501</v>
       </c>
       <c r="H63">
         <v>9999</v>
@@ -4233,13 +4349,13 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>552</v>
+        <v>502</v>
       </c>
       <c r="B64" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C64" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D64" t="s">
         <v>253</v>
@@ -4251,7 +4367,7 @@
         <v>2</v>
       </c>
       <c r="G64">
-        <v>1552</v>
+        <v>1502</v>
       </c>
       <c r="H64">
         <v>9999</v>
@@ -4262,13 +4378,13 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>553</v>
+        <v>503</v>
       </c>
       <c r="B65" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C65" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D65" t="s">
         <v>253</v>
@@ -4280,7 +4396,7 @@
         <v>2</v>
       </c>
       <c r="G65">
-        <v>1553</v>
+        <v>1503</v>
       </c>
       <c r="H65">
         <v>9999</v>
@@ -4291,13 +4407,13 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>554</v>
+        <v>504</v>
       </c>
       <c r="B66" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C66" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D66" t="s">
         <v>253</v>
@@ -4309,7 +4425,7 @@
         <v>2</v>
       </c>
       <c r="G66">
-        <v>1554</v>
+        <v>1504</v>
       </c>
       <c r="H66">
         <v>9999</v>
@@ -4320,13 +4436,13 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>555</v>
+        <v>505</v>
       </c>
       <c r="B67" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C67" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D67" t="s">
         <v>253</v>
@@ -4338,7 +4454,7 @@
         <v>2</v>
       </c>
       <c r="G67">
-        <v>1555</v>
+        <v>1505</v>
       </c>
       <c r="H67">
         <v>9999</v>
@@ -4349,13 +4465,13 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>556</v>
+        <v>506</v>
       </c>
       <c r="B68" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C68" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D68" t="s">
         <v>253</v>
@@ -4367,7 +4483,7 @@
         <v>2</v>
       </c>
       <c r="G68">
-        <v>1556</v>
+        <v>1506</v>
       </c>
       <c r="H68">
         <v>9999</v>
@@ -4378,13 +4494,13 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>557</v>
+        <v>507</v>
       </c>
       <c r="B69" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C69" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D69" t="s">
         <v>253</v>
@@ -4396,7 +4512,7 @@
         <v>2</v>
       </c>
       <c r="G69">
-        <v>1557</v>
+        <v>1507</v>
       </c>
       <c r="H69">
         <v>9999</v>
@@ -4407,13 +4523,13 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>558</v>
+        <v>508</v>
       </c>
       <c r="B70" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C70" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D70" t="s">
         <v>253</v>
@@ -4425,7 +4541,7 @@
         <v>2</v>
       </c>
       <c r="G70">
-        <v>1558</v>
+        <v>1508</v>
       </c>
       <c r="H70">
         <v>9999</v>
@@ -4436,13 +4552,13 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>559</v>
+        <v>509</v>
       </c>
       <c r="B71" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C71" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D71" t="s">
         <v>253</v>
@@ -4454,7 +4570,7 @@
         <v>2</v>
       </c>
       <c r="G71">
-        <v>1559</v>
+        <v>1509</v>
       </c>
       <c r="H71">
         <v>9999</v>
@@ -4465,25 +4581,25 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="B72" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C72" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D72" t="s">
         <v>253</v>
       </c>
       <c r="E72">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="F72">
         <v>2</v>
       </c>
       <c r="G72">
-        <v>1600</v>
+        <v>1550</v>
       </c>
       <c r="H72">
         <v>9999</v>
@@ -4494,243 +4610,303 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>1001</v>
+        <v>551</v>
       </c>
       <c r="B73" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="C73" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="D73" t="s">
         <v>253</v>
       </c>
       <c r="E73">
-        <v>2</v>
+        <v>3001</v>
       </c>
       <c r="F73">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G73">
+        <v>1551</v>
       </c>
       <c r="H73">
         <v>9999</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>1002</v>
+        <v>552</v>
       </c>
       <c r="B74" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="C74" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="D74" t="s">
         <v>253</v>
       </c>
       <c r="E74">
-        <v>2</v>
+        <v>3001</v>
       </c>
       <c r="F74">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G74">
+        <v>1552</v>
       </c>
       <c r="H74">
         <v>9999</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>1003</v>
+        <v>553</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="C75" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="D75" t="s">
         <v>253</v>
       </c>
       <c r="E75">
-        <v>2</v>
+        <v>3001</v>
       </c>
       <c r="F75">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G75">
+        <v>1553</v>
       </c>
       <c r="H75">
         <v>9999</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>1004</v>
+        <v>554</v>
       </c>
       <c r="B76" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="C76" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="D76" t="s">
         <v>253</v>
       </c>
       <c r="E76">
-        <v>2</v>
+        <v>3001</v>
       </c>
       <c r="F76">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G76">
+        <v>1554</v>
       </c>
       <c r="H76">
         <v>9999</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>1005</v>
+        <v>555</v>
       </c>
       <c r="B77" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="C77" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="D77" t="s">
         <v>253</v>
       </c>
       <c r="E77">
-        <v>2</v>
+        <v>3001</v>
       </c>
       <c r="F77">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G77">
+        <v>1555</v>
       </c>
       <c r="H77">
         <v>9999</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>1006</v>
+        <v>556</v>
       </c>
       <c r="B78" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="C78" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="D78" t="s">
         <v>253</v>
       </c>
       <c r="E78">
-        <v>2</v>
+        <v>3001</v>
       </c>
       <c r="F78">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G78">
+        <v>1556</v>
       </c>
       <c r="H78">
         <v>9999</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A79">
-        <v>1007</v>
+        <v>557</v>
       </c>
       <c r="B79" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="C79" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="D79" t="s">
         <v>253</v>
       </c>
       <c r="E79">
-        <v>2</v>
+        <v>3001</v>
       </c>
       <c r="F79">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G79">
+        <v>1557</v>
       </c>
       <c r="H79">
         <v>9999</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>1008</v>
+        <v>558</v>
       </c>
       <c r="B80" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="C80" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="D80" t="s">
         <v>253</v>
       </c>
       <c r="E80">
-        <v>2</v>
+        <v>3001</v>
       </c>
       <c r="F80">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G80">
+        <v>1558</v>
       </c>
       <c r="H80">
         <v>9999</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A81">
-        <v>1009</v>
+        <v>559</v>
       </c>
       <c r="B81" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="C81" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="D81" t="s">
         <v>253</v>
       </c>
       <c r="E81">
-        <v>2</v>
+        <v>3001</v>
       </c>
       <c r="F81">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G81">
+        <v>1559</v>
       </c>
       <c r="H81">
         <v>9999</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A82">
-        <v>1010</v>
+        <v>600</v>
       </c>
       <c r="B82" t="s">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="C82" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="D82" t="s">
         <v>253</v>
       </c>
       <c r="E82">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="F82">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G82">
+        <v>1600</v>
       </c>
       <c r="H82">
         <v>9999</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A83">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="B83" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C83" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D83" t="s">
         <v>253</v>
@@ -4747,13 +4923,13 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A84">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="B84" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C84" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D84" t="s">
         <v>253</v>
@@ -4770,13 +4946,13 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A85">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="B85" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C85" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D85" t="s">
         <v>253</v>
@@ -4793,312 +4969,255 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A86">
-        <v>3000</v>
+        <v>1004</v>
       </c>
       <c r="B86" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="D86" t="s">
         <v>253</v>
       </c>
       <c r="E86">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F86">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H86">
-        <v>1</v>
-      </c>
-      <c r="J86">
-        <v>1</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A87">
-        <v>3001</v>
+        <v>1005</v>
       </c>
       <c r="B87" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C87" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D87" t="s">
         <v>253</v>
       </c>
       <c r="E87">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="F87">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H87">
         <v>9999</v>
-      </c>
-      <c r="J87">
-        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A88">
-        <v>3002</v>
+        <v>1006</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C88" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D88" t="s">
         <v>253</v>
       </c>
       <c r="E88">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="F88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H88">
-        <v>1</v>
-      </c>
-      <c r="I88">
-        <v>1</v>
-      </c>
-      <c r="J88">
-        <v>1</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A89">
-        <v>3003</v>
+        <v>1007</v>
       </c>
       <c r="B89" t="s">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="C89" t="s">
-        <v>158</v>
+        <v>56</v>
       </c>
       <c r="D89" t="s">
         <v>253</v>
       </c>
       <c r="E89">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="F89">
-        <v>2</v>
-      </c>
-      <c r="G89">
-        <v>6000</v>
+        <v>3</v>
       </c>
       <c r="H89">
         <v>9999</v>
-      </c>
-      <c r="J89">
-        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A90">
-        <v>7016</v>
+        <v>1008</v>
       </c>
       <c r="B90" t="s">
-        <v>205</v>
+        <v>39</v>
       </c>
       <c r="C90" t="s">
-        <v>201</v>
+        <v>57</v>
       </c>
       <c r="D90" t="s">
         <v>253</v>
       </c>
       <c r="E90">
-        <v>3001</v>
+        <v>2</v>
       </c>
       <c r="F90">
-        <v>2</v>
-      </c>
-      <c r="G90">
-        <v>7016</v>
+        <v>3</v>
       </c>
       <c r="H90">
         <v>9999</v>
-      </c>
-      <c r="J90">
-        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A91">
-        <v>7017</v>
+        <v>1009</v>
       </c>
       <c r="B91" t="s">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="C91" t="s">
-        <v>202</v>
+        <v>58</v>
       </c>
       <c r="D91" t="s">
         <v>253</v>
       </c>
       <c r="E91">
-        <v>3001</v>
+        <v>2</v>
       </c>
       <c r="F91">
-        <v>2</v>
-      </c>
-      <c r="G91">
-        <v>7017</v>
+        <v>3</v>
       </c>
       <c r="H91">
         <v>9999</v>
-      </c>
-      <c r="J91">
-        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A92">
-        <v>7018</v>
+        <v>1010</v>
       </c>
       <c r="B92" t="s">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="C92" t="s">
-        <v>176</v>
+        <v>59</v>
       </c>
       <c r="D92" t="s">
         <v>253</v>
       </c>
       <c r="E92">
-        <v>3001</v>
+        <v>2</v>
       </c>
       <c r="F92">
-        <v>2</v>
-      </c>
-      <c r="G92">
-        <v>7018</v>
+        <v>3</v>
       </c>
       <c r="H92">
         <v>9999</v>
-      </c>
-      <c r="J92">
-        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A93">
-        <v>7019</v>
+        <v>1011</v>
       </c>
       <c r="B93" t="s">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="C93" t="s">
-        <v>178</v>
+        <v>60</v>
       </c>
       <c r="D93" t="s">
         <v>253</v>
       </c>
       <c r="E93">
-        <v>3001</v>
+        <v>2</v>
       </c>
       <c r="F93">
-        <v>2</v>
-      </c>
-      <c r="G93">
-        <v>7019</v>
+        <v>3</v>
       </c>
       <c r="H93">
         <v>9999</v>
-      </c>
-      <c r="J93">
-        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A94">
-        <v>7020</v>
+        <v>1012</v>
       </c>
       <c r="B94" t="s">
-        <v>180</v>
+        <v>43</v>
       </c>
       <c r="C94" t="s">
-        <v>179</v>
+        <v>61</v>
       </c>
       <c r="D94" t="s">
         <v>253</v>
       </c>
       <c r="E94">
-        <v>3001</v>
+        <v>2</v>
       </c>
       <c r="F94">
-        <v>2</v>
-      </c>
-      <c r="G94">
-        <v>7020</v>
+        <v>3</v>
       </c>
       <c r="H94">
         <v>9999</v>
-      </c>
-      <c r="J94">
-        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A95">
-        <v>7021</v>
+        <v>1013</v>
       </c>
       <c r="B95" t="s">
-        <v>181</v>
+        <v>44</v>
       </c>
       <c r="C95" t="s">
-        <v>183</v>
+        <v>62</v>
       </c>
       <c r="D95" t="s">
         <v>253</v>
       </c>
       <c r="E95">
-        <v>3001</v>
+        <v>2</v>
       </c>
       <c r="F95">
-        <v>2</v>
-      </c>
-      <c r="G95">
-        <v>7021</v>
+        <v>3</v>
       </c>
       <c r="H95">
         <v>9999</v>
-      </c>
-      <c r="J95">
-        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A96">
-        <v>7022</v>
+        <v>3000</v>
       </c>
       <c r="B96" t="s">
-        <v>187</v>
+        <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>182</v>
+        <v>6</v>
       </c>
       <c r="D96" t="s">
         <v>253</v>
       </c>
       <c r="E96">
-        <v>3001</v>
+        <v>100</v>
       </c>
       <c r="F96">
-        <v>2</v>
-      </c>
-      <c r="G96">
-        <v>7022</v>
+        <v>4</v>
       </c>
       <c r="H96">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="J96">
         <v>1</v>
@@ -5106,25 +5225,22 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A97">
-        <v>7023</v>
+        <v>3001</v>
       </c>
       <c r="B97" t="s">
-        <v>188</v>
+        <v>63</v>
       </c>
       <c r="C97" t="s">
-        <v>184</v>
+        <v>64</v>
       </c>
       <c r="D97" t="s">
         <v>253</v>
       </c>
       <c r="E97">
-        <v>3001</v>
+        <v>51</v>
       </c>
       <c r="F97">
-        <v>2</v>
-      </c>
-      <c r="G97">
-        <v>7023</v>
+        <v>4</v>
       </c>
       <c r="H97">
         <v>9999</v>
@@ -5135,28 +5251,28 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A98">
-        <v>7024</v>
+        <v>3002</v>
       </c>
       <c r="B98" t="s">
-        <v>189</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>185</v>
+        <v>65</v>
       </c>
       <c r="D98" t="s">
         <v>253</v>
       </c>
       <c r="E98">
-        <v>3001</v>
+        <v>52</v>
       </c>
       <c r="F98">
-        <v>2</v>
-      </c>
-      <c r="G98">
-        <v>7024</v>
+        <v>4</v>
       </c>
       <c r="H98">
-        <v>9999</v>
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
       </c>
       <c r="J98">
         <v>1</v>
@@ -5164,25 +5280,25 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A99">
-        <v>7025</v>
+        <v>3003</v>
       </c>
       <c r="B99" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="C99" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="D99" t="s">
         <v>253</v>
       </c>
       <c r="E99">
-        <v>3001</v>
+        <v>53</v>
       </c>
       <c r="F99">
         <v>2</v>
       </c>
       <c r="G99">
-        <v>7025</v>
+        <v>6000</v>
       </c>
       <c r="H99">
         <v>9999</v>
@@ -5193,13 +5309,13 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A100">
-        <v>7026</v>
+        <v>7016</v>
       </c>
       <c r="B100" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="C100" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D100" t="s">
         <v>253</v>
@@ -5211,7 +5327,7 @@
         <v>2</v>
       </c>
       <c r="G100">
-        <v>7026</v>
+        <v>7016</v>
       </c>
       <c r="H100">
         <v>9999</v>
@@ -5222,13 +5338,13 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A101">
-        <v>7027</v>
+        <v>7017</v>
       </c>
       <c r="B101" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="C101" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D101" t="s">
         <v>253</v>
@@ -5240,7 +5356,7 @@
         <v>2</v>
       </c>
       <c r="G101">
-        <v>7027</v>
+        <v>7017</v>
       </c>
       <c r="H101">
         <v>9999</v>
@@ -5251,13 +5367,13 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A102">
-        <v>7028</v>
+        <v>7018</v>
       </c>
       <c r="B102" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="C102" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="D102" t="s">
         <v>253</v>
@@ -5269,7 +5385,7 @@
         <v>2</v>
       </c>
       <c r="G102">
-        <v>7028</v>
+        <v>7018</v>
       </c>
       <c r="H102">
         <v>9999</v>
@@ -5280,13 +5396,13 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A103">
-        <v>7029</v>
+        <v>7019</v>
       </c>
       <c r="B103" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="C103" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="D103" t="s">
         <v>253</v>
@@ -5298,7 +5414,7 @@
         <v>2</v>
       </c>
       <c r="G103">
-        <v>7029</v>
+        <v>7019</v>
       </c>
       <c r="H103">
         <v>9999</v>
@@ -5309,13 +5425,13 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A104">
-        <v>7030</v>
+        <v>7020</v>
       </c>
       <c r="B104" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="C104" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="D104" t="s">
         <v>253</v>
@@ -5327,7 +5443,7 @@
         <v>2</v>
       </c>
       <c r="G104">
-        <v>7030</v>
+        <v>7020</v>
       </c>
       <c r="H104">
         <v>9999</v>
@@ -5338,795 +5454,1087 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A105">
-        <v>9000</v>
+        <v>7021</v>
       </c>
       <c r="B105" t="s">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="C105" t="s">
-        <v>66</v>
+        <v>183</v>
       </c>
       <c r="D105" t="s">
         <v>253</v>
       </c>
       <c r="E105">
-        <v>90</v>
+        <v>3001</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+      <c r="G105">
+        <v>7021</v>
       </c>
       <c r="H105">
-        <v>9999999</v>
+        <v>9999</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A106">
-        <v>9001</v>
+        <v>7022</v>
       </c>
       <c r="B106" t="s">
-        <v>69</v>
+        <v>187</v>
       </c>
       <c r="C106" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="D106" t="s">
         <v>253</v>
       </c>
       <c r="E106">
-        <v>91</v>
+        <v>3001</v>
+      </c>
+      <c r="F106">
+        <v>2</v>
+      </c>
+      <c r="G106">
+        <v>7022</v>
       </c>
       <c r="H106">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="75" x14ac:dyDescent="0.4">
+        <v>9999</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A107">
-        <v>9002</v>
+        <v>7023</v>
       </c>
       <c r="B107" t="s">
-        <v>70</v>
+        <v>188</v>
       </c>
       <c r="C107" t="s">
-        <v>72</v>
-      </c>
-      <c r="D107" s="16" t="s">
-        <v>283</v>
+        <v>184</v>
+      </c>
+      <c r="D107" t="s">
+        <v>253</v>
       </c>
       <c r="E107">
-        <v>92</v>
+        <v>3001</v>
+      </c>
+      <c r="F107">
+        <v>2</v>
+      </c>
+      <c r="G107">
+        <v>7023</v>
       </c>
       <c r="H107">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="75" x14ac:dyDescent="0.4">
+        <v>9999</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A108">
-        <v>9003</v>
+        <v>7024</v>
       </c>
       <c r="B108" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="C108" t="s">
-        <v>207</v>
-      </c>
-      <c r="D108" s="16" t="s">
-        <v>281</v>
+        <v>185</v>
+      </c>
+      <c r="D108" t="s">
+        <v>253</v>
       </c>
       <c r="E108">
-        <v>93</v>
+        <v>3001</v>
+      </c>
+      <c r="F108">
+        <v>2</v>
+      </c>
+      <c r="G108">
+        <v>7024</v>
       </c>
       <c r="H108">
-        <v>9999999</v>
+        <v>9999</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A109">
+        <v>7025</v>
+      </c>
+      <c r="B109" t="s">
+        <v>190</v>
+      </c>
+      <c r="C109" t="s">
+        <v>186</v>
+      </c>
+      <c r="D109" t="s">
+        <v>253</v>
+      </c>
+      <c r="E109">
+        <v>3001</v>
+      </c>
+      <c r="F109">
+        <v>2</v>
+      </c>
+      <c r="G109">
+        <v>7025</v>
+      </c>
+      <c r="H109">
+        <v>9999</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A110">
+        <v>7026</v>
+      </c>
+      <c r="B110" t="s">
+        <v>191</v>
+      </c>
+      <c r="C110" t="s">
+        <v>196</v>
+      </c>
+      <c r="D110" t="s">
+        <v>253</v>
+      </c>
+      <c r="E110">
+        <v>3001</v>
+      </c>
+      <c r="F110">
+        <v>2</v>
+      </c>
+      <c r="G110">
+        <v>7026</v>
+      </c>
+      <c r="H110">
+        <v>9999</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A111">
+        <v>7027</v>
+      </c>
+      <c r="B111" t="s">
+        <v>192</v>
+      </c>
+      <c r="C111" t="s">
+        <v>197</v>
+      </c>
+      <c r="D111" t="s">
+        <v>253</v>
+      </c>
+      <c r="E111">
+        <v>3001</v>
+      </c>
+      <c r="F111">
+        <v>2</v>
+      </c>
+      <c r="G111">
+        <v>7027</v>
+      </c>
+      <c r="H111">
+        <v>9999</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A112">
+        <v>7028</v>
+      </c>
+      <c r="B112" t="s">
+        <v>193</v>
+      </c>
+      <c r="C112" t="s">
+        <v>198</v>
+      </c>
+      <c r="D112" t="s">
+        <v>253</v>
+      </c>
+      <c r="E112">
+        <v>3001</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
+      </c>
+      <c r="G112">
+        <v>7028</v>
+      </c>
+      <c r="H112">
+        <v>9999</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A113">
+        <v>7029</v>
+      </c>
+      <c r="B113" t="s">
+        <v>194</v>
+      </c>
+      <c r="C113" t="s">
+        <v>199</v>
+      </c>
+      <c r="D113" t="s">
+        <v>253</v>
+      </c>
+      <c r="E113">
+        <v>3001</v>
+      </c>
+      <c r="F113">
+        <v>2</v>
+      </c>
+      <c r="G113">
+        <v>7029</v>
+      </c>
+      <c r="H113">
+        <v>9999</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A114">
+        <v>7030</v>
+      </c>
+      <c r="B114" t="s">
+        <v>195</v>
+      </c>
+      <c r="C114" t="s">
+        <v>200</v>
+      </c>
+      <c r="D114" t="s">
+        <v>253</v>
+      </c>
+      <c r="E114">
+        <v>3001</v>
+      </c>
+      <c r="F114">
+        <v>2</v>
+      </c>
+      <c r="G114">
+        <v>7030</v>
+      </c>
+      <c r="H114">
+        <v>9999</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A115">
+        <v>9000</v>
+      </c>
+      <c r="B115" t="s">
+        <v>68</v>
+      </c>
+      <c r="C115" t="s">
+        <v>66</v>
+      </c>
+      <c r="D115" t="s">
+        <v>253</v>
+      </c>
+      <c r="E115">
+        <v>90</v>
+      </c>
+      <c r="H115">
+        <v>9999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A116">
+        <v>9001</v>
+      </c>
+      <c r="B116" t="s">
+        <v>69</v>
+      </c>
+      <c r="C116" t="s">
+        <v>67</v>
+      </c>
+      <c r="D116" t="s">
+        <v>253</v>
+      </c>
+      <c r="E116">
+        <v>91</v>
+      </c>
+      <c r="H116">
+        <v>9999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="75" x14ac:dyDescent="0.4">
+      <c r="A117">
+        <v>9002</v>
+      </c>
+      <c r="B117" t="s">
+        <v>70</v>
+      </c>
+      <c r="C117" t="s">
+        <v>72</v>
+      </c>
+      <c r="D117" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="E117">
+        <v>92</v>
+      </c>
+      <c r="H117">
+        <v>9999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="75" x14ac:dyDescent="0.4">
+      <c r="A118">
+        <v>9003</v>
+      </c>
+      <c r="B118" t="s">
+        <v>212</v>
+      </c>
+      <c r="C118" t="s">
+        <v>207</v>
+      </c>
+      <c r="D118" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="E118">
+        <v>93</v>
+      </c>
+      <c r="H118">
+        <v>9999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A119">
         <v>9004</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B119" t="s">
         <v>208</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C119" t="s">
         <v>209</v>
       </c>
-      <c r="D109" t="s">
-        <v>253</v>
-      </c>
-      <c r="E109">
+      <c r="D119" t="s">
+        <v>253</v>
+      </c>
+      <c r="E119">
         <v>94</v>
       </c>
-      <c r="H109">
+      <c r="H119">
         <v>9999999</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="75" x14ac:dyDescent="0.4">
-      <c r="A110">
+    <row r="120" spans="1:10" ht="75" x14ac:dyDescent="0.4">
+      <c r="A120">
         <v>9005</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B120" t="s">
         <v>210</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C120" t="s">
         <v>211</v>
       </c>
-      <c r="D110" s="16" t="s">
+      <c r="D120" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="E110">
+      <c r="E120">
         <v>95</v>
       </c>
-      <c r="H110">
+      <c r="H120">
         <v>9999999</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A111" s="9">
-        <v>10001</v>
-      </c>
-      <c r="B111" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="D111" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E111" s="10">
-        <v>5001</v>
-      </c>
-      <c r="F111" s="10">
-        <v>5</v>
-      </c>
-      <c r="G111" s="10">
-        <v>1</v>
-      </c>
-      <c r="H111" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A112" s="9">
-        <v>10002</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="C112" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="D112" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E112" s="12">
-        <v>5001</v>
-      </c>
-      <c r="F112" s="12">
-        <v>5</v>
-      </c>
-      <c r="G112" s="12">
-        <v>2</v>
-      </c>
-      <c r="H112" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A113" s="9">
-        <v>10003</v>
-      </c>
-      <c r="B113" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="C113" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="D113" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E113" s="12">
-        <v>5001</v>
-      </c>
-      <c r="F113" s="12">
-        <v>5</v>
-      </c>
-      <c r="G113" s="12">
-        <v>3</v>
-      </c>
-      <c r="H113" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A114" s="9">
-        <v>10004</v>
-      </c>
-      <c r="B114" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="C114" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="D114" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E114" s="12">
-        <v>5001</v>
-      </c>
-      <c r="F114" s="12">
-        <v>5</v>
-      </c>
-      <c r="G114" s="12">
-        <v>4</v>
-      </c>
-      <c r="H114" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A115" s="9">
-        <v>10005</v>
-      </c>
-      <c r="B115" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="C115" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="D115" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E115" s="12">
-        <v>5001</v>
-      </c>
-      <c r="F115" s="12">
-        <v>5</v>
-      </c>
-      <c r="G115" s="12">
-        <v>5</v>
-      </c>
-      <c r="H115" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A116" s="9">
-        <v>10006</v>
-      </c>
-      <c r="B116" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="C116" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="D116" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E116" s="12">
-        <v>5001</v>
-      </c>
-      <c r="F116" s="12">
-        <v>5</v>
-      </c>
-      <c r="G116" s="12">
-        <v>6</v>
-      </c>
-      <c r="H116" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A117" s="9">
-        <v>10007</v>
-      </c>
-      <c r="B117" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="C117" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="D117" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E117" s="12">
-        <v>5001</v>
-      </c>
-      <c r="F117" s="12">
-        <v>5</v>
-      </c>
-      <c r="G117" s="12">
-        <v>7</v>
-      </c>
-      <c r="H117" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A118" s="9">
-        <v>10008</v>
-      </c>
-      <c r="B118" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="C118" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="D118" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E118" s="12">
-        <v>5001</v>
-      </c>
-      <c r="F118" s="12">
-        <v>5</v>
-      </c>
-      <c r="G118" s="12">
-        <v>8</v>
-      </c>
-      <c r="H118" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A119" s="9">
-        <v>10009</v>
-      </c>
-      <c r="B119" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="C119" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="D119" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E119" s="12">
-        <v>5001</v>
-      </c>
-      <c r="F119" s="12">
-        <v>5</v>
-      </c>
-      <c r="G119" s="12">
-        <v>9</v>
-      </c>
-      <c r="H119" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A120" s="9">
-        <v>10010</v>
-      </c>
-      <c r="B120" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="C120" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="D120" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E120" s="12">
-        <v>5001</v>
-      </c>
-      <c r="F120" s="12">
-        <v>5</v>
-      </c>
-      <c r="G120" s="12">
-        <v>10</v>
-      </c>
-      <c r="H120" s="12">
-        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A121" s="9">
-        <v>10011</v>
-      </c>
-      <c r="B121" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="C121" s="13" t="s">
-        <v>219</v>
+        <v>10001</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>220</v>
       </c>
       <c r="D121" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="E121" s="13">
+      <c r="E121" s="10">
         <v>5001</v>
       </c>
-      <c r="F121" s="13">
+      <c r="F121" s="10">
         <v>5</v>
       </c>
-      <c r="G121" s="13">
-        <v>11</v>
-      </c>
-      <c r="H121" s="13">
+      <c r="G121" s="10">
+        <v>1</v>
+      </c>
+      <c r="H121" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A122" s="9">
+        <v>10002</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E122" s="12">
+        <v>5001</v>
+      </c>
+      <c r="F122" s="12">
+        <v>5</v>
+      </c>
+      <c r="G122" s="12">
+        <v>2</v>
+      </c>
+      <c r="H122" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A123" s="9">
+        <v>10003</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E123" s="12">
+        <v>5001</v>
+      </c>
+      <c r="F123" s="12">
+        <v>5</v>
+      </c>
+      <c r="G123" s="12">
+        <v>3</v>
+      </c>
+      <c r="H123" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A124" s="9">
+        <v>10004</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E124" s="12">
+        <v>5001</v>
+      </c>
+      <c r="F124" s="12">
+        <v>5</v>
+      </c>
+      <c r="G124" s="12">
+        <v>4</v>
+      </c>
+      <c r="H124" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A125" s="9">
+        <v>10005</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E125" s="12">
+        <v>5001</v>
+      </c>
+      <c r="F125" s="12">
+        <v>5</v>
+      </c>
+      <c r="G125" s="12">
+        <v>5</v>
+      </c>
+      <c r="H125" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A126" s="9">
+        <v>10006</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E126" s="12">
+        <v>5001</v>
+      </c>
+      <c r="F126" s="12">
+        <v>5</v>
+      </c>
+      <c r="G126" s="12">
+        <v>6</v>
+      </c>
+      <c r="H126" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A127" s="9">
+        <v>10007</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E127" s="12">
+        <v>5001</v>
+      </c>
+      <c r="F127" s="12">
+        <v>5</v>
+      </c>
+      <c r="G127" s="12">
+        <v>7</v>
+      </c>
+      <c r="H127" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A128" s="9">
+        <v>10008</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E128" s="12">
+        <v>5001</v>
+      </c>
+      <c r="F128" s="12">
+        <v>5</v>
+      </c>
+      <c r="G128" s="12">
+        <v>8</v>
+      </c>
+      <c r="H128" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A129" s="9">
+        <v>10009</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E129" s="12">
+        <v>5001</v>
+      </c>
+      <c r="F129" s="12">
+        <v>5</v>
+      </c>
+      <c r="G129" s="12">
+        <v>9</v>
+      </c>
+      <c r="H129" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A130" s="9">
+        <v>10010</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E130" s="12">
+        <v>5001</v>
+      </c>
+      <c r="F130" s="12">
+        <v>5</v>
+      </c>
+      <c r="G130" s="12">
+        <v>10</v>
+      </c>
+      <c r="H130" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A131" s="9">
+        <v>10011</v>
+      </c>
+      <c r="B131" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E131" s="13">
+        <v>5001</v>
+      </c>
+      <c r="F131" s="13">
+        <v>5</v>
+      </c>
+      <c r="G131" s="13">
+        <v>11</v>
+      </c>
+      <c r="H131" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A132" s="9">
         <v>10012</v>
       </c>
-      <c r="B122" s="13" t="s">
+      <c r="B132" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="C122" s="13" t="s">
+      <c r="C132" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="D122" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E122" s="13">
+      <c r="D132" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E132" s="13">
         <v>5001</v>
       </c>
-      <c r="F122" s="13">
+      <c r="F132" s="13">
         <v>5</v>
       </c>
-      <c r="G122" s="13">
+      <c r="G132" s="13">
         <v>12</v>
       </c>
-      <c r="H122" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" ht="75" x14ac:dyDescent="0.4">
-      <c r="A123" s="14">
+      <c r="H132" s="13">
+        <v>1</v>
+      </c>
+      <c r="I132" s="11"/>
+      <c r="J132" s="11"/>
+    </row>
+    <row r="133" spans="1:10" ht="75" x14ac:dyDescent="0.4">
+      <c r="A133" s="11">
         <v>10013</v>
       </c>
-      <c r="B123" s="14" t="s">
+      <c r="B133" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="C123" s="6" t="s">
+      <c r="C133" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="D123" s="15" t="s">
+      <c r="D133" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="E123" s="6">
+      <c r="E133" s="10">
         <v>5001</v>
       </c>
-      <c r="F123" s="6">
+      <c r="F133" s="10">
         <v>5</v>
       </c>
-      <c r="G123" s="6">
+      <c r="G133" s="10">
         <v>22</v>
       </c>
-      <c r="H123" s="6">
-        <v>1</v>
-      </c>
-      <c r="I123" s="14"/>
-      <c r="J123" s="14"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A124" s="14">
+      <c r="H133" s="10">
+        <v>1</v>
+      </c>
+      <c r="I133" s="11"/>
+      <c r="J133" s="11"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A134" s="11">
         <v>10014</v>
       </c>
-      <c r="B124" s="14" t="s">
+      <c r="B134" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="C124" s="7" t="s">
+      <c r="C134" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="D124" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="E124" s="6">
+      <c r="D134" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E134" s="10">
         <v>5001</v>
       </c>
-      <c r="F124" s="6">
+      <c r="F134" s="10">
         <v>5</v>
       </c>
-      <c r="G124" s="6">
+      <c r="G134" s="10">
         <v>23</v>
       </c>
-      <c r="H124" s="6">
-        <v>1</v>
-      </c>
-      <c r="I124" s="14"/>
-      <c r="J124" s="14"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A125" s="14">
+      <c r="H134" s="10">
+        <v>1</v>
+      </c>
+      <c r="I134" s="11"/>
+      <c r="J134" s="11"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A135" s="11">
         <v>10015</v>
       </c>
-      <c r="B125" s="14" t="s">
+      <c r="B135" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="C125" s="7" t="s">
+      <c r="C135" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="D125" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="E125" s="6">
+      <c r="D135" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E135" s="10">
         <v>5001</v>
       </c>
-      <c r="F125" s="6">
+      <c r="F135" s="10">
         <v>5</v>
       </c>
-      <c r="G125" s="6">
+      <c r="G135" s="10">
         <v>24</v>
       </c>
-      <c r="H125" s="6">
-        <v>1</v>
-      </c>
-      <c r="I125" s="14"/>
-      <c r="J125" s="14"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A126" s="14">
+      <c r="H135" s="10">
+        <v>1</v>
+      </c>
+      <c r="I135" s="11"/>
+      <c r="J135" s="11"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A136" s="11">
         <v>10016</v>
       </c>
-      <c r="B126" s="14" t="s">
+      <c r="B136" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="C126" s="6" t="s">
+      <c r="C136" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="D126" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="E126" s="6">
+      <c r="D136" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E136" s="10">
         <v>5001</v>
       </c>
-      <c r="F126" s="6">
+      <c r="F136" s="10">
         <v>5</v>
       </c>
-      <c r="G126" s="6">
+      <c r="G136" s="10">
         <v>19</v>
       </c>
-      <c r="H126" s="6">
-        <v>1</v>
-      </c>
-      <c r="I126" s="14"/>
-      <c r="J126" s="14"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A127" s="14">
+      <c r="H136" s="10">
+        <v>1</v>
+      </c>
+      <c r="I136" s="11"/>
+      <c r="J136" s="11"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A137" s="11">
         <v>10017</v>
       </c>
-      <c r="B127" s="14" t="s">
+      <c r="B137" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="C127" s="7" t="s">
+      <c r="C137" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="D127" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="E127" s="6">
+      <c r="D137" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E137" s="10">
         <v>5001</v>
       </c>
-      <c r="F127" s="6">
+      <c r="F137" s="10">
         <v>5</v>
       </c>
-      <c r="G127" s="6">
+      <c r="G137" s="10">
         <v>20</v>
       </c>
-      <c r="H127" s="6">
-        <v>1</v>
-      </c>
-      <c r="I127" s="14"/>
-      <c r="J127" s="14"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A128" s="14">
+      <c r="H137" s="10">
+        <v>1</v>
+      </c>
+      <c r="I137" s="11"/>
+      <c r="J137" s="11"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A138" s="11">
         <v>10018</v>
       </c>
-      <c r="B128" s="14" t="s">
+      <c r="B138" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="C128" s="7" t="s">
+      <c r="C138" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="D128" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="E128" s="6">
+      <c r="D138" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E138" s="10">
         <v>5001</v>
       </c>
-      <c r="F128" s="6">
+      <c r="F138" s="10">
         <v>5</v>
       </c>
-      <c r="G128" s="6">
+      <c r="G138" s="10">
         <v>21</v>
       </c>
-      <c r="H128" s="6">
-        <v>1</v>
-      </c>
-      <c r="I128" s="14"/>
-      <c r="J128" s="14"/>
-    </row>
-    <row r="129" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A129" s="14">
+      <c r="H138" s="10">
+        <v>1</v>
+      </c>
+      <c r="I138" s="11"/>
+      <c r="J138" s="11"/>
+    </row>
+    <row r="139" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A139" s="11">
         <v>10019</v>
       </c>
-      <c r="B129" s="14" t="s">
+      <c r="B139" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="C129" s="6" t="s">
+      <c r="C139" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="D129" s="15" t="s">
+      <c r="D139" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="E129" s="6">
+      <c r="E139" s="10">
         <v>5001</v>
       </c>
-      <c r="F129" s="6">
+      <c r="F139" s="10">
         <v>5</v>
       </c>
-      <c r="G129" s="6">
+      <c r="G139" s="10">
         <v>16</v>
       </c>
-      <c r="H129" s="6">
-        <v>1</v>
-      </c>
-      <c r="I129" s="14"/>
-      <c r="J129" s="14"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A130" s="14">
+      <c r="H139" s="10">
+        <v>1</v>
+      </c>
+      <c r="I139" s="11"/>
+      <c r="J139" s="11"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A140" s="11">
         <v>10020</v>
       </c>
-      <c r="B130" s="14" t="s">
+      <c r="B140" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="C130" s="7" t="s">
+      <c r="C140" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="D130" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="E130" s="6">
+      <c r="D140" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E140" s="10">
         <v>5001</v>
       </c>
-      <c r="F130" s="6">
+      <c r="F140" s="10">
         <v>5</v>
       </c>
-      <c r="G130" s="6">
+      <c r="G140" s="10">
         <v>17</v>
       </c>
-      <c r="H130" s="6">
-        <v>1</v>
-      </c>
-      <c r="I130" s="14"/>
-      <c r="J130" s="14"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A131" s="14">
+      <c r="H140" s="10">
+        <v>1</v>
+      </c>
+      <c r="I140" s="11"/>
+      <c r="J140" s="11"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A141" s="11">
         <v>10021</v>
       </c>
-      <c r="B131" s="14" t="s">
+      <c r="B141" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C131" s="7" t="s">
+      <c r="C141" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="D131" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="E131" s="6">
+      <c r="D141" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E141" s="10">
         <v>5001</v>
       </c>
-      <c r="F131" s="6">
+      <c r="F141" s="10">
         <v>5</v>
       </c>
-      <c r="G131" s="6">
+      <c r="G141" s="10">
         <v>18</v>
       </c>
-      <c r="H131" s="6">
-        <v>1</v>
-      </c>
-      <c r="I131" s="14"/>
-      <c r="J131" s="14"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A132" s="14">
+      <c r="H141" s="10">
+        <v>1</v>
+      </c>
+      <c r="I141" s="11"/>
+      <c r="J141" s="11"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A142" s="11">
         <v>10022</v>
       </c>
-      <c r="B132" s="14" t="s">
+      <c r="B142" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="C132" s="6" t="s">
+      <c r="C142" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="D132" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="E132" s="6">
+      <c r="D142" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E142" s="10">
         <v>5001</v>
       </c>
-      <c r="F132" s="6">
+      <c r="F142" s="10">
         <v>5</v>
       </c>
-      <c r="G132" s="6">
+      <c r="G142" s="10">
         <v>13</v>
       </c>
-      <c r="H132" s="6">
-        <v>1</v>
-      </c>
-      <c r="I132" s="14"/>
-      <c r="J132" s="14"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A133" s="14">
+      <c r="H142" s="10">
+        <v>1</v>
+      </c>
+      <c r="I142" s="11"/>
+      <c r="J142" s="11"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A143" s="11">
         <v>10023</v>
       </c>
-      <c r="B133" s="14" t="s">
+      <c r="B143" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="C133" s="7" t="s">
+      <c r="C143" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="D133" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="E133" s="6">
+      <c r="D143" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E143" s="10">
         <v>5001</v>
       </c>
-      <c r="F133" s="6">
+      <c r="F143" s="10">
         <v>5</v>
       </c>
-      <c r="G133" s="6">
+      <c r="G143" s="10">
         <v>14</v>
       </c>
-      <c r="H133" s="6">
-        <v>1</v>
-      </c>
-      <c r="I133" s="14"/>
-      <c r="J133" s="14"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A134" s="14">
+      <c r="H143" s="10">
+        <v>1</v>
+      </c>
+      <c r="I143" s="11"/>
+      <c r="J143" s="11"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A144" s="11">
         <v>10024</v>
       </c>
-      <c r="B134" s="14" t="s">
+      <c r="B144" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="C134" s="7" t="s">
+      <c r="C144" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="D134" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="E134" s="6">
+      <c r="D144" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E144" s="10">
         <v>5001</v>
       </c>
-      <c r="F134" s="6">
+      <c r="F144" s="10">
         <v>5</v>
       </c>
-      <c r="G134" s="6">
+      <c r="G144" s="10">
         <v>15</v>
       </c>
-      <c r="H134" s="6">
-        <v>1</v>
-      </c>
-      <c r="I134" s="14"/>
-      <c r="J134" s="14"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A135">
+      <c r="H144" s="10">
+        <v>1</v>
+      </c>
+      <c r="I144" s="11"/>
+      <c r="J144" s="11"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A145">
         <v>11001</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B145" t="s">
         <v>237</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C145" t="s">
         <v>211</v>
       </c>
-      <c r="D135" t="s">
-        <v>253</v>
-      </c>
-      <c r="E135">
+      <c r="D145" t="s">
+        <v>253</v>
+      </c>
+      <c r="E145">
         <v>5002</v>
       </c>
-      <c r="F135">
+      <c r="F145">
         <v>5</v>
       </c>
-      <c r="G135">
+      <c r="G145">
         <v>100</v>
       </c>
-      <c r="H135">
+      <c r="H145">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54829022-D5CC-4B66-83A5-DADCAF99EB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AF507B-A7EA-435E-B49A-93EB312F5D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="342">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1621,6 +1621,90 @@
   </si>
   <si>
     <t>Textures/object_2d_077</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_019</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_020</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_021</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_022</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_023</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_024</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_025</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_026</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_027</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_028</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_029</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_030</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_031</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_032</t>
+  </si>
+  <si>
+    <t>ハブトンの皮</t>
+  </si>
+  <si>
+    <t>幸運の尻尾</t>
+  </si>
+  <si>
+    <t>アリクの毛皮</t>
+  </si>
+  <si>
+    <t>攻撃的な尻尾</t>
+  </si>
+  <si>
+    <t>もこっちょの毛</t>
+  </si>
+  <si>
+    <t>幻のトサカ</t>
+  </si>
+  <si>
+    <t>キフミの冷気</t>
+  </si>
+  <si>
+    <t>冷たい涙</t>
+  </si>
+  <si>
+    <t>リリスの毛皮</t>
+  </si>
+  <si>
+    <t>食べかけのどんぐり</t>
+  </si>
+  <si>
+    <t>ラフィーの花びら</t>
+  </si>
+  <si>
+    <t>光る花粉</t>
+  </si>
+  <si>
+    <t>サンゴの化石</t>
+  </si>
+  <si>
+    <t>貝の化石</t>
   </si>
 </sst>
 </file>
@@ -2178,8 +2262,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:J145" totalsRowShown="0">
-  <autoFilter ref="A1:J145" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:J159" totalsRowShown="0">
+  <autoFilter ref="A1:J159" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Name"/>
@@ -2512,13 +2596,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:J145"/>
+  <dimension ref="A1:J159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E44" sqref="E44"/>
+      <selection pane="bottomRight" activeCell="N106" sqref="N106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5199,428 +5283,347 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A96">
-        <v>3000</v>
+        <v>1014</v>
       </c>
       <c r="B96" t="s">
-        <v>4</v>
+        <v>328</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>314</v>
       </c>
       <c r="D96" t="s">
         <v>253</v>
       </c>
       <c r="E96">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F96">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H96">
-        <v>1</v>
-      </c>
-      <c r="J96">
-        <v>1</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A97">
-        <v>3001</v>
+        <v>1015</v>
       </c>
       <c r="B97" t="s">
-        <v>63</v>
+        <v>329</v>
       </c>
       <c r="C97" t="s">
-        <v>64</v>
+        <v>315</v>
       </c>
       <c r="D97" t="s">
         <v>253</v>
       </c>
       <c r="E97">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="F97">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H97">
         <v>9999</v>
-      </c>
-      <c r="J97">
-        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A98">
-        <v>3002</v>
+        <v>1016</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>330</v>
       </c>
       <c r="C98" t="s">
-        <v>65</v>
+        <v>316</v>
       </c>
       <c r="D98" t="s">
         <v>253</v>
       </c>
       <c r="E98">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="F98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H98">
-        <v>1</v>
-      </c>
-      <c r="I98">
-        <v>1</v>
-      </c>
-      <c r="J98">
-        <v>1</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A99">
-        <v>3003</v>
+        <v>1017</v>
       </c>
       <c r="B99" t="s">
-        <v>157</v>
+        <v>331</v>
       </c>
       <c r="C99" t="s">
-        <v>158</v>
+        <v>317</v>
       </c>
       <c r="D99" t="s">
         <v>253</v>
       </c>
       <c r="E99">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="F99">
-        <v>2</v>
-      </c>
-      <c r="G99">
-        <v>6000</v>
+        <v>3</v>
       </c>
       <c r="H99">
         <v>9999</v>
-      </c>
-      <c r="J99">
-        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A100">
-        <v>7016</v>
+        <v>1018</v>
       </c>
       <c r="B100" t="s">
-        <v>205</v>
+        <v>332</v>
       </c>
       <c r="C100" t="s">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="D100" t="s">
         <v>253</v>
       </c>
       <c r="E100">
-        <v>3001</v>
+        <v>2</v>
       </c>
       <c r="F100">
-        <v>2</v>
-      </c>
-      <c r="G100">
-        <v>7016</v>
+        <v>3</v>
       </c>
       <c r="H100">
         <v>9999</v>
-      </c>
-      <c r="J100">
-        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A101">
-        <v>7017</v>
+        <v>1019</v>
       </c>
       <c r="B101" t="s">
-        <v>206</v>
+        <v>333</v>
       </c>
       <c r="C101" t="s">
-        <v>202</v>
+        <v>319</v>
       </c>
       <c r="D101" t="s">
         <v>253</v>
       </c>
       <c r="E101">
-        <v>3001</v>
+        <v>2</v>
       </c>
       <c r="F101">
-        <v>2</v>
-      </c>
-      <c r="G101">
-        <v>7017</v>
+        <v>3</v>
       </c>
       <c r="H101">
         <v>9999</v>
-      </c>
-      <c r="J101">
-        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A102">
-        <v>7018</v>
+        <v>1020</v>
       </c>
       <c r="B102" t="s">
-        <v>175</v>
+        <v>334</v>
       </c>
       <c r="C102" t="s">
-        <v>176</v>
+        <v>320</v>
       </c>
       <c r="D102" t="s">
         <v>253</v>
       </c>
       <c r="E102">
-        <v>3001</v>
+        <v>2</v>
       </c>
       <c r="F102">
-        <v>2</v>
-      </c>
-      <c r="G102">
-        <v>7018</v>
+        <v>3</v>
       </c>
       <c r="H102">
         <v>9999</v>
-      </c>
-      <c r="J102">
-        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A103">
-        <v>7019</v>
+        <v>1021</v>
       </c>
       <c r="B103" t="s">
-        <v>177</v>
+        <v>335</v>
       </c>
       <c r="C103" t="s">
-        <v>178</v>
+        <v>321</v>
       </c>
       <c r="D103" t="s">
         <v>253</v>
       </c>
       <c r="E103">
-        <v>3001</v>
+        <v>2</v>
       </c>
       <c r="F103">
-        <v>2</v>
-      </c>
-      <c r="G103">
-        <v>7019</v>
+        <v>3</v>
       </c>
       <c r="H103">
         <v>9999</v>
-      </c>
-      <c r="J103">
-        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A104">
-        <v>7020</v>
+        <v>1022</v>
       </c>
       <c r="B104" t="s">
-        <v>180</v>
+        <v>336</v>
       </c>
       <c r="C104" t="s">
-        <v>179</v>
+        <v>322</v>
       </c>
       <c r="D104" t="s">
         <v>253</v>
       </c>
       <c r="E104">
-        <v>3001</v>
+        <v>2</v>
       </c>
       <c r="F104">
-        <v>2</v>
-      </c>
-      <c r="G104">
-        <v>7020</v>
+        <v>3</v>
       </c>
       <c r="H104">
         <v>9999</v>
-      </c>
-      <c r="J104">
-        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A105">
-        <v>7021</v>
+        <v>1023</v>
       </c>
       <c r="B105" t="s">
-        <v>181</v>
+        <v>337</v>
       </c>
       <c r="C105" t="s">
-        <v>183</v>
+        <v>323</v>
       </c>
       <c r="D105" t="s">
         <v>253</v>
       </c>
       <c r="E105">
-        <v>3001</v>
+        <v>2</v>
       </c>
       <c r="F105">
-        <v>2</v>
-      </c>
-      <c r="G105">
-        <v>7021</v>
+        <v>3</v>
       </c>
       <c r="H105">
         <v>9999</v>
-      </c>
-      <c r="J105">
-        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A106">
-        <v>7022</v>
+        <v>1024</v>
       </c>
       <c r="B106" t="s">
-        <v>187</v>
+        <v>338</v>
       </c>
       <c r="C106" t="s">
-        <v>182</v>
+        <v>324</v>
       </c>
       <c r="D106" t="s">
         <v>253</v>
       </c>
       <c r="E106">
-        <v>3001</v>
+        <v>2</v>
       </c>
       <c r="F106">
-        <v>2</v>
-      </c>
-      <c r="G106">
-        <v>7022</v>
+        <v>3</v>
       </c>
       <c r="H106">
         <v>9999</v>
-      </c>
-      <c r="J106">
-        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A107">
-        <v>7023</v>
+        <v>1025</v>
       </c>
       <c r="B107" t="s">
-        <v>188</v>
+        <v>339</v>
       </c>
       <c r="C107" t="s">
-        <v>184</v>
+        <v>325</v>
       </c>
       <c r="D107" t="s">
         <v>253</v>
       </c>
       <c r="E107">
-        <v>3001</v>
+        <v>2</v>
       </c>
       <c r="F107">
-        <v>2</v>
-      </c>
-      <c r="G107">
-        <v>7023</v>
+        <v>3</v>
       </c>
       <c r="H107">
         <v>9999</v>
-      </c>
-      <c r="J107">
-        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A108">
-        <v>7024</v>
+        <v>1026</v>
       </c>
       <c r="B108" t="s">
-        <v>189</v>
+        <v>340</v>
       </c>
       <c r="C108" t="s">
-        <v>185</v>
+        <v>326</v>
       </c>
       <c r="D108" t="s">
         <v>253</v>
       </c>
       <c r="E108">
-        <v>3001</v>
+        <v>2</v>
       </c>
       <c r="F108">
-        <v>2</v>
-      </c>
-      <c r="G108">
-        <v>7024</v>
+        <v>3</v>
       </c>
       <c r="H108">
         <v>9999</v>
-      </c>
-      <c r="J108">
-        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A109">
-        <v>7025</v>
+        <v>1027</v>
       </c>
       <c r="B109" t="s">
-        <v>190</v>
+        <v>341</v>
       </c>
       <c r="C109" t="s">
-        <v>186</v>
+        <v>327</v>
       </c>
       <c r="D109" t="s">
         <v>253</v>
       </c>
       <c r="E109">
-        <v>3001</v>
+        <v>2</v>
       </c>
       <c r="F109">
-        <v>2</v>
-      </c>
-      <c r="G109">
-        <v>7025</v>
+        <v>3</v>
       </c>
       <c r="H109">
         <v>9999</v>
-      </c>
-      <c r="J109">
-        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A110">
-        <v>7026</v>
+        <v>3000</v>
       </c>
       <c r="B110" t="s">
-        <v>191</v>
+        <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>196</v>
+        <v>6</v>
       </c>
       <c r="D110" t="s">
         <v>253</v>
       </c>
       <c r="E110">
-        <v>3001</v>
+        <v>100</v>
       </c>
       <c r="F110">
-        <v>2</v>
-      </c>
-      <c r="G110">
-        <v>7026</v>
+        <v>4</v>
       </c>
       <c r="H110">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="J110">
         <v>1</v>
@@ -5628,25 +5631,22 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A111">
-        <v>7027</v>
+        <v>3001</v>
       </c>
       <c r="B111" t="s">
-        <v>192</v>
+        <v>63</v>
       </c>
       <c r="C111" t="s">
-        <v>197</v>
+        <v>64</v>
       </c>
       <c r="D111" t="s">
         <v>253</v>
       </c>
       <c r="E111">
-        <v>3001</v>
+        <v>51</v>
       </c>
       <c r="F111">
-        <v>2</v>
-      </c>
-      <c r="G111">
-        <v>7027</v>
+        <v>4</v>
       </c>
       <c r="H111">
         <v>9999</v>
@@ -5657,28 +5657,28 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A112">
-        <v>7028</v>
+        <v>3002</v>
       </c>
       <c r="B112" t="s">
-        <v>193</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>198</v>
+        <v>65</v>
       </c>
       <c r="D112" t="s">
         <v>253</v>
       </c>
       <c r="E112">
-        <v>3001</v>
+        <v>52</v>
       </c>
       <c r="F112">
-        <v>2</v>
-      </c>
-      <c r="G112">
-        <v>7028</v>
+        <v>4</v>
       </c>
       <c r="H112">
-        <v>9999</v>
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
       </c>
       <c r="J112">
         <v>1</v>
@@ -5686,25 +5686,25 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A113">
-        <v>7029</v>
+        <v>3003</v>
       </c>
       <c r="B113" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="C113" t="s">
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="D113" t="s">
         <v>253</v>
       </c>
       <c r="E113">
-        <v>3001</v>
+        <v>53</v>
       </c>
       <c r="F113">
         <v>2</v>
       </c>
       <c r="G113">
-        <v>7029</v>
+        <v>6000</v>
       </c>
       <c r="H113">
         <v>9999</v>
@@ -5715,13 +5715,13 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A114">
-        <v>7030</v>
+        <v>7016</v>
       </c>
       <c r="B114" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="C114" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D114" t="s">
         <v>253</v>
@@ -5733,7 +5733,7 @@
         <v>2</v>
       </c>
       <c r="G114">
-        <v>7030</v>
+        <v>7016</v>
       </c>
       <c r="H114">
         <v>9999</v>
@@ -5744,503 +5744,539 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A115">
-        <v>9000</v>
+        <v>7017</v>
       </c>
       <c r="B115" t="s">
-        <v>68</v>
+        <v>206</v>
       </c>
       <c r="C115" t="s">
-        <v>66</v>
+        <v>202</v>
       </c>
       <c r="D115" t="s">
         <v>253</v>
       </c>
       <c r="E115">
-        <v>90</v>
+        <v>3001</v>
+      </c>
+      <c r="F115">
+        <v>2</v>
+      </c>
+      <c r="G115">
+        <v>7017</v>
       </c>
       <c r="H115">
-        <v>9999999</v>
+        <v>9999</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A116">
-        <v>9001</v>
+        <v>7018</v>
       </c>
       <c r="B116" t="s">
-        <v>69</v>
+        <v>175</v>
       </c>
       <c r="C116" t="s">
-        <v>67</v>
+        <v>176</v>
       </c>
       <c r="D116" t="s">
         <v>253</v>
       </c>
       <c r="E116">
-        <v>91</v>
+        <v>3001</v>
+      </c>
+      <c r="F116">
+        <v>2</v>
+      </c>
+      <c r="G116">
+        <v>7018</v>
       </c>
       <c r="H116">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="75" x14ac:dyDescent="0.4">
+        <v>9999</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A117">
-        <v>9002</v>
+        <v>7019</v>
       </c>
       <c r="B117" t="s">
-        <v>70</v>
+        <v>177</v>
       </c>
       <c r="C117" t="s">
-        <v>72</v>
-      </c>
-      <c r="D117" s="14" t="s">
-        <v>283</v>
+        <v>178</v>
+      </c>
+      <c r="D117" t="s">
+        <v>253</v>
       </c>
       <c r="E117">
-        <v>92</v>
+        <v>3001</v>
+      </c>
+      <c r="F117">
+        <v>2</v>
+      </c>
+      <c r="G117">
+        <v>7019</v>
       </c>
       <c r="H117">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="75" x14ac:dyDescent="0.4">
+        <v>9999</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A118">
-        <v>9003</v>
+        <v>7020</v>
       </c>
       <c r="B118" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="C118" t="s">
-        <v>207</v>
-      </c>
-      <c r="D118" s="14" t="s">
-        <v>281</v>
+        <v>179</v>
+      </c>
+      <c r="D118" t="s">
+        <v>253</v>
       </c>
       <c r="E118">
-        <v>93</v>
+        <v>3001</v>
+      </c>
+      <c r="F118">
+        <v>2</v>
+      </c>
+      <c r="G118">
+        <v>7020</v>
       </c>
       <c r="H118">
-        <v>9999999</v>
+        <v>9999</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A119">
+        <v>7021</v>
+      </c>
+      <c r="B119" t="s">
+        <v>181</v>
+      </c>
+      <c r="C119" t="s">
+        <v>183</v>
+      </c>
+      <c r="D119" t="s">
+        <v>253</v>
+      </c>
+      <c r="E119">
+        <v>3001</v>
+      </c>
+      <c r="F119">
+        <v>2</v>
+      </c>
+      <c r="G119">
+        <v>7021</v>
+      </c>
+      <c r="H119">
+        <v>9999</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A120">
+        <v>7022</v>
+      </c>
+      <c r="B120" t="s">
+        <v>187</v>
+      </c>
+      <c r="C120" t="s">
+        <v>182</v>
+      </c>
+      <c r="D120" t="s">
+        <v>253</v>
+      </c>
+      <c r="E120">
+        <v>3001</v>
+      </c>
+      <c r="F120">
+        <v>2</v>
+      </c>
+      <c r="G120">
+        <v>7022</v>
+      </c>
+      <c r="H120">
+        <v>9999</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A121">
+        <v>7023</v>
+      </c>
+      <c r="B121" t="s">
+        <v>188</v>
+      </c>
+      <c r="C121" t="s">
+        <v>184</v>
+      </c>
+      <c r="D121" t="s">
+        <v>253</v>
+      </c>
+      <c r="E121">
+        <v>3001</v>
+      </c>
+      <c r="F121">
+        <v>2</v>
+      </c>
+      <c r="G121">
+        <v>7023</v>
+      </c>
+      <c r="H121">
+        <v>9999</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A122">
+        <v>7024</v>
+      </c>
+      <c r="B122" t="s">
+        <v>189</v>
+      </c>
+      <c r="C122" t="s">
+        <v>185</v>
+      </c>
+      <c r="D122" t="s">
+        <v>253</v>
+      </c>
+      <c r="E122">
+        <v>3001</v>
+      </c>
+      <c r="F122">
+        <v>2</v>
+      </c>
+      <c r="G122">
+        <v>7024</v>
+      </c>
+      <c r="H122">
+        <v>9999</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A123">
+        <v>7025</v>
+      </c>
+      <c r="B123" t="s">
+        <v>190</v>
+      </c>
+      <c r="C123" t="s">
+        <v>186</v>
+      </c>
+      <c r="D123" t="s">
+        <v>253</v>
+      </c>
+      <c r="E123">
+        <v>3001</v>
+      </c>
+      <c r="F123">
+        <v>2</v>
+      </c>
+      <c r="G123">
+        <v>7025</v>
+      </c>
+      <c r="H123">
+        <v>9999</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A124">
+        <v>7026</v>
+      </c>
+      <c r="B124" t="s">
+        <v>191</v>
+      </c>
+      <c r="C124" t="s">
+        <v>196</v>
+      </c>
+      <c r="D124" t="s">
+        <v>253</v>
+      </c>
+      <c r="E124">
+        <v>3001</v>
+      </c>
+      <c r="F124">
+        <v>2</v>
+      </c>
+      <c r="G124">
+        <v>7026</v>
+      </c>
+      <c r="H124">
+        <v>9999</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A125">
+        <v>7027</v>
+      </c>
+      <c r="B125" t="s">
+        <v>192</v>
+      </c>
+      <c r="C125" t="s">
+        <v>197</v>
+      </c>
+      <c r="D125" t="s">
+        <v>253</v>
+      </c>
+      <c r="E125">
+        <v>3001</v>
+      </c>
+      <c r="F125">
+        <v>2</v>
+      </c>
+      <c r="G125">
+        <v>7027</v>
+      </c>
+      <c r="H125">
+        <v>9999</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A126">
+        <v>7028</v>
+      </c>
+      <c r="B126" t="s">
+        <v>193</v>
+      </c>
+      <c r="C126" t="s">
+        <v>198</v>
+      </c>
+      <c r="D126" t="s">
+        <v>253</v>
+      </c>
+      <c r="E126">
+        <v>3001</v>
+      </c>
+      <c r="F126">
+        <v>2</v>
+      </c>
+      <c r="G126">
+        <v>7028</v>
+      </c>
+      <c r="H126">
+        <v>9999</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A127">
+        <v>7029</v>
+      </c>
+      <c r="B127" t="s">
+        <v>194</v>
+      </c>
+      <c r="C127" t="s">
+        <v>199</v>
+      </c>
+      <c r="D127" t="s">
+        <v>253</v>
+      </c>
+      <c r="E127">
+        <v>3001</v>
+      </c>
+      <c r="F127">
+        <v>2</v>
+      </c>
+      <c r="G127">
+        <v>7029</v>
+      </c>
+      <c r="H127">
+        <v>9999</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A128">
+        <v>7030</v>
+      </c>
+      <c r="B128" t="s">
+        <v>195</v>
+      </c>
+      <c r="C128" t="s">
+        <v>200</v>
+      </c>
+      <c r="D128" t="s">
+        <v>253</v>
+      </c>
+      <c r="E128">
+        <v>3001</v>
+      </c>
+      <c r="F128">
+        <v>2</v>
+      </c>
+      <c r="G128">
+        <v>7030</v>
+      </c>
+      <c r="H128">
+        <v>9999</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A129">
+        <v>9000</v>
+      </c>
+      <c r="B129" t="s">
+        <v>68</v>
+      </c>
+      <c r="C129" t="s">
+        <v>66</v>
+      </c>
+      <c r="D129" t="s">
+        <v>253</v>
+      </c>
+      <c r="E129">
+        <v>90</v>
+      </c>
+      <c r="H129">
+        <v>9999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A130">
+        <v>9001</v>
+      </c>
+      <c r="B130" t="s">
+        <v>69</v>
+      </c>
+      <c r="C130" t="s">
+        <v>67</v>
+      </c>
+      <c r="D130" t="s">
+        <v>253</v>
+      </c>
+      <c r="E130">
+        <v>91</v>
+      </c>
+      <c r="H130">
+        <v>9999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="75" x14ac:dyDescent="0.4">
+      <c r="A131">
+        <v>9002</v>
+      </c>
+      <c r="B131" t="s">
+        <v>70</v>
+      </c>
+      <c r="C131" t="s">
+        <v>72</v>
+      </c>
+      <c r="D131" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="E131">
+        <v>92</v>
+      </c>
+      <c r="H131">
+        <v>9999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="75" x14ac:dyDescent="0.4">
+      <c r="A132">
+        <v>9003</v>
+      </c>
+      <c r="B132" t="s">
+        <v>212</v>
+      </c>
+      <c r="C132" t="s">
+        <v>207</v>
+      </c>
+      <c r="D132" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="E132">
+        <v>93</v>
+      </c>
+      <c r="H132">
+        <v>9999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A133">
         <v>9004</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B133" t="s">
         <v>208</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C133" t="s">
         <v>209</v>
       </c>
-      <c r="D119" t="s">
-        <v>253</v>
-      </c>
-      <c r="E119">
+      <c r="D133" t="s">
+        <v>253</v>
+      </c>
+      <c r="E133">
         <v>94</v>
       </c>
-      <c r="H119">
+      <c r="H133">
         <v>9999999</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="75" x14ac:dyDescent="0.4">
-      <c r="A120">
+    <row r="134" spans="1:8" ht="75" x14ac:dyDescent="0.4">
+      <c r="A134">
         <v>9005</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B134" t="s">
         <v>210</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C134" t="s">
         <v>211</v>
       </c>
-      <c r="D120" s="14" t="s">
+      <c r="D134" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="E120">
+      <c r="E134">
         <v>95</v>
       </c>
-      <c r="H120">
+      <c r="H134">
         <v>9999999</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A121" s="9">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A135" s="9">
         <v>10001</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="B135" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="C121" s="10" t="s">
+      <c r="C135" s="10" t="s">
         <v>220</v>
-      </c>
-      <c r="D121" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E121" s="10">
-        <v>5001</v>
-      </c>
-      <c r="F121" s="10">
-        <v>5</v>
-      </c>
-      <c r="G121" s="10">
-        <v>1</v>
-      </c>
-      <c r="H121" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A122" s="9">
-        <v>10002</v>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="C122" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="D122" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E122" s="12">
-        <v>5001</v>
-      </c>
-      <c r="F122" s="12">
-        <v>5</v>
-      </c>
-      <c r="G122" s="12">
-        <v>2</v>
-      </c>
-      <c r="H122" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A123" s="9">
-        <v>10003</v>
-      </c>
-      <c r="B123" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="C123" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="D123" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E123" s="12">
-        <v>5001</v>
-      </c>
-      <c r="F123" s="12">
-        <v>5</v>
-      </c>
-      <c r="G123" s="12">
-        <v>3</v>
-      </c>
-      <c r="H123" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A124" s="9">
-        <v>10004</v>
-      </c>
-      <c r="B124" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="C124" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="D124" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E124" s="12">
-        <v>5001</v>
-      </c>
-      <c r="F124" s="12">
-        <v>5</v>
-      </c>
-      <c r="G124" s="12">
-        <v>4</v>
-      </c>
-      <c r="H124" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A125" s="9">
-        <v>10005</v>
-      </c>
-      <c r="B125" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="C125" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="D125" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E125" s="12">
-        <v>5001</v>
-      </c>
-      <c r="F125" s="12">
-        <v>5</v>
-      </c>
-      <c r="G125" s="12">
-        <v>5</v>
-      </c>
-      <c r="H125" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A126" s="9">
-        <v>10006</v>
-      </c>
-      <c r="B126" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="C126" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="D126" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E126" s="12">
-        <v>5001</v>
-      </c>
-      <c r="F126" s="12">
-        <v>5</v>
-      </c>
-      <c r="G126" s="12">
-        <v>6</v>
-      </c>
-      <c r="H126" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A127" s="9">
-        <v>10007</v>
-      </c>
-      <c r="B127" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="C127" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="D127" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E127" s="12">
-        <v>5001</v>
-      </c>
-      <c r="F127" s="12">
-        <v>5</v>
-      </c>
-      <c r="G127" s="12">
-        <v>7</v>
-      </c>
-      <c r="H127" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A128" s="9">
-        <v>10008</v>
-      </c>
-      <c r="B128" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="C128" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="D128" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E128" s="12">
-        <v>5001</v>
-      </c>
-      <c r="F128" s="12">
-        <v>5</v>
-      </c>
-      <c r="G128" s="12">
-        <v>8</v>
-      </c>
-      <c r="H128" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A129" s="9">
-        <v>10009</v>
-      </c>
-      <c r="B129" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="C129" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="D129" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E129" s="12">
-        <v>5001</v>
-      </c>
-      <c r="F129" s="12">
-        <v>5</v>
-      </c>
-      <c r="G129" s="12">
-        <v>9</v>
-      </c>
-      <c r="H129" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A130" s="9">
-        <v>10010</v>
-      </c>
-      <c r="B130" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="C130" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="D130" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E130" s="12">
-        <v>5001</v>
-      </c>
-      <c r="F130" s="12">
-        <v>5</v>
-      </c>
-      <c r="G130" s="12">
-        <v>10</v>
-      </c>
-      <c r="H130" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A131" s="9">
-        <v>10011</v>
-      </c>
-      <c r="B131" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="C131" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="D131" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E131" s="13">
-        <v>5001</v>
-      </c>
-      <c r="F131" s="13">
-        <v>5</v>
-      </c>
-      <c r="G131" s="13">
-        <v>11</v>
-      </c>
-      <c r="H131" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A132" s="9">
-        <v>10012</v>
-      </c>
-      <c r="B132" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="C132" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="D132" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E132" s="13">
-        <v>5001</v>
-      </c>
-      <c r="F132" s="13">
-        <v>5</v>
-      </c>
-      <c r="G132" s="13">
-        <v>12</v>
-      </c>
-      <c r="H132" s="13">
-        <v>1</v>
-      </c>
-      <c r="I132" s="11"/>
-      <c r="J132" s="11"/>
-    </row>
-    <row r="133" spans="1:10" ht="75" x14ac:dyDescent="0.4">
-      <c r="A133" s="11">
-        <v>10013</v>
-      </c>
-      <c r="B133" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="D133" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="E133" s="10">
-        <v>5001</v>
-      </c>
-      <c r="F133" s="10">
-        <v>5</v>
-      </c>
-      <c r="G133" s="10">
-        <v>22</v>
-      </c>
-      <c r="H133" s="10">
-        <v>1</v>
-      </c>
-      <c r="I133" s="11"/>
-      <c r="J133" s="11"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A134" s="11">
-        <v>10014</v>
-      </c>
-      <c r="B134" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="C134" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="D134" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E134" s="10">
-        <v>5001</v>
-      </c>
-      <c r="F134" s="10">
-        <v>5</v>
-      </c>
-      <c r="G134" s="10">
-        <v>23</v>
-      </c>
-      <c r="H134" s="10">
-        <v>1</v>
-      </c>
-      <c r="I134" s="11"/>
-      <c r="J134" s="11"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A135" s="11">
-        <v>10015</v>
-      </c>
-      <c r="B135" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="C135" s="12" t="s">
-        <v>278</v>
       </c>
       <c r="D135" s="11" t="s">
         <v>253</v>
@@ -6252,289 +6288,659 @@
         <v>5</v>
       </c>
       <c r="G135" s="10">
+        <v>1</v>
+      </c>
+      <c r="H135" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A136" s="9">
+        <v>10002</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E136" s="12">
+        <v>5001</v>
+      </c>
+      <c r="F136" s="12">
+        <v>5</v>
+      </c>
+      <c r="G136" s="12">
+        <v>2</v>
+      </c>
+      <c r="H136" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A137" s="9">
+        <v>10003</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E137" s="12">
+        <v>5001</v>
+      </c>
+      <c r="F137" s="12">
+        <v>5</v>
+      </c>
+      <c r="G137" s="12">
+        <v>3</v>
+      </c>
+      <c r="H137" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A138" s="9">
+        <v>10004</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E138" s="12">
+        <v>5001</v>
+      </c>
+      <c r="F138" s="12">
+        <v>5</v>
+      </c>
+      <c r="G138" s="12">
+        <v>4</v>
+      </c>
+      <c r="H138" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A139" s="9">
+        <v>10005</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C139" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E139" s="12">
+        <v>5001</v>
+      </c>
+      <c r="F139" s="12">
+        <v>5</v>
+      </c>
+      <c r="G139" s="12">
+        <v>5</v>
+      </c>
+      <c r="H139" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A140" s="9">
+        <v>10006</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E140" s="12">
+        <v>5001</v>
+      </c>
+      <c r="F140" s="12">
+        <v>5</v>
+      </c>
+      <c r="G140" s="12">
+        <v>6</v>
+      </c>
+      <c r="H140" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A141" s="9">
+        <v>10007</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D141" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E141" s="12">
+        <v>5001</v>
+      </c>
+      <c r="F141" s="12">
+        <v>5</v>
+      </c>
+      <c r="G141" s="12">
+        <v>7</v>
+      </c>
+      <c r="H141" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A142" s="9">
+        <v>10008</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D142" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E142" s="12">
+        <v>5001</v>
+      </c>
+      <c r="F142" s="12">
+        <v>5</v>
+      </c>
+      <c r="G142" s="12">
+        <v>8</v>
+      </c>
+      <c r="H142" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A143" s="9">
+        <v>10009</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C143" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D143" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E143" s="12">
+        <v>5001</v>
+      </c>
+      <c r="F143" s="12">
+        <v>5</v>
+      </c>
+      <c r="G143" s="12">
+        <v>9</v>
+      </c>
+      <c r="H143" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A144" s="9">
+        <v>10010</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E144" s="12">
+        <v>5001</v>
+      </c>
+      <c r="F144" s="12">
+        <v>5</v>
+      </c>
+      <c r="G144" s="12">
+        <v>10</v>
+      </c>
+      <c r="H144" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A145" s="9">
+        <v>10011</v>
+      </c>
+      <c r="B145" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="C145" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E145" s="13">
+        <v>5001</v>
+      </c>
+      <c r="F145" s="13">
+        <v>5</v>
+      </c>
+      <c r="G145" s="13">
+        <v>11</v>
+      </c>
+      <c r="H145" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A146" s="9">
+        <v>10012</v>
+      </c>
+      <c r="B146" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C146" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D146" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E146" s="13">
+        <v>5001</v>
+      </c>
+      <c r="F146" s="13">
+        <v>5</v>
+      </c>
+      <c r="G146" s="13">
+        <v>12</v>
+      </c>
+      <c r="H146" s="13">
+        <v>1</v>
+      </c>
+      <c r="I146" s="11"/>
+      <c r="J146" s="11"/>
+    </row>
+    <row r="147" spans="1:10" ht="75" x14ac:dyDescent="0.4">
+      <c r="A147" s="11">
+        <v>10013</v>
+      </c>
+      <c r="B147" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D147" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="E147" s="10">
+        <v>5001</v>
+      </c>
+      <c r="F147" s="10">
+        <v>5</v>
+      </c>
+      <c r="G147" s="10">
+        <v>22</v>
+      </c>
+      <c r="H147" s="10">
+        <v>1</v>
+      </c>
+      <c r="I147" s="11"/>
+      <c r="J147" s="11"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A148" s="11">
+        <v>10014</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D148" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E148" s="10">
+        <v>5001</v>
+      </c>
+      <c r="F148" s="10">
+        <v>5</v>
+      </c>
+      <c r="G148" s="10">
+        <v>23</v>
+      </c>
+      <c r="H148" s="10">
+        <v>1</v>
+      </c>
+      <c r="I148" s="11"/>
+      <c r="J148" s="11"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A149" s="11">
+        <v>10015</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="C149" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D149" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E149" s="10">
+        <v>5001</v>
+      </c>
+      <c r="F149" s="10">
+        <v>5</v>
+      </c>
+      <c r="G149" s="10">
         <v>24</v>
       </c>
-      <c r="H135" s="10">
-        <v>1</v>
-      </c>
-      <c r="I135" s="11"/>
-      <c r="J135" s="11"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A136" s="11">
+      <c r="H149" s="10">
+        <v>1</v>
+      </c>
+      <c r="I149" s="11"/>
+      <c r="J149" s="11"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A150" s="11">
         <v>10016</v>
       </c>
-      <c r="B136" s="11" t="s">
+      <c r="B150" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="C136" s="10" t="s">
+      <c r="C150" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="D136" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E136" s="10">
+      <c r="D150" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E150" s="10">
         <v>5001</v>
       </c>
-      <c r="F136" s="10">
+      <c r="F150" s="10">
         <v>5</v>
       </c>
-      <c r="G136" s="10">
+      <c r="G150" s="10">
         <v>19</v>
       </c>
-      <c r="H136" s="10">
-        <v>1</v>
-      </c>
-      <c r="I136" s="11"/>
-      <c r="J136" s="11"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A137" s="11">
+      <c r="H150" s="10">
+        <v>1</v>
+      </c>
+      <c r="I150" s="11"/>
+      <c r="J150" s="11"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A151" s="11">
         <v>10017</v>
       </c>
-      <c r="B137" s="11" t="s">
+      <c r="B151" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="C137" s="12" t="s">
+      <c r="C151" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="D137" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E137" s="10">
+      <c r="D151" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E151" s="10">
         <v>5001</v>
       </c>
-      <c r="F137" s="10">
+      <c r="F151" s="10">
         <v>5</v>
       </c>
-      <c r="G137" s="10">
+      <c r="G151" s="10">
         <v>20</v>
       </c>
-      <c r="H137" s="10">
-        <v>1</v>
-      </c>
-      <c r="I137" s="11"/>
-      <c r="J137" s="11"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A138" s="11">
+      <c r="H151" s="10">
+        <v>1</v>
+      </c>
+      <c r="I151" s="11"/>
+      <c r="J151" s="11"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A152" s="11">
         <v>10018</v>
       </c>
-      <c r="B138" s="11" t="s">
+      <c r="B152" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="C138" s="12" t="s">
+      <c r="C152" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="D138" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E138" s="10">
+      <c r="D152" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E152" s="10">
         <v>5001</v>
       </c>
-      <c r="F138" s="10">
+      <c r="F152" s="10">
         <v>5</v>
       </c>
-      <c r="G138" s="10">
+      <c r="G152" s="10">
         <v>21</v>
       </c>
-      <c r="H138" s="10">
-        <v>1</v>
-      </c>
-      <c r="I138" s="11"/>
-      <c r="J138" s="11"/>
-    </row>
-    <row r="139" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A139" s="11">
+      <c r="H152" s="10">
+        <v>1</v>
+      </c>
+      <c r="I152" s="11"/>
+      <c r="J152" s="11"/>
+    </row>
+    <row r="153" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A153" s="11">
         <v>10019</v>
       </c>
-      <c r="B139" s="11" t="s">
+      <c r="B153" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="C139" s="10" t="s">
+      <c r="C153" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="D139" s="15" t="s">
+      <c r="D153" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="E139" s="10">
+      <c r="E153" s="10">
         <v>5001</v>
       </c>
-      <c r="F139" s="10">
+      <c r="F153" s="10">
         <v>5</v>
       </c>
-      <c r="G139" s="10">
+      <c r="G153" s="10">
         <v>16</v>
       </c>
-      <c r="H139" s="10">
-        <v>1</v>
-      </c>
-      <c r="I139" s="11"/>
-      <c r="J139" s="11"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A140" s="11">
+      <c r="H153" s="10">
+        <v>1</v>
+      </c>
+      <c r="I153" s="11"/>
+      <c r="J153" s="11"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A154" s="11">
         <v>10020</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="B154" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="C140" s="12" t="s">
+      <c r="C154" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="D140" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E140" s="10">
+      <c r="D154" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E154" s="10">
         <v>5001</v>
       </c>
-      <c r="F140" s="10">
+      <c r="F154" s="10">
         <v>5</v>
       </c>
-      <c r="G140" s="10">
+      <c r="G154" s="10">
         <v>17</v>
       </c>
-      <c r="H140" s="10">
-        <v>1</v>
-      </c>
-      <c r="I140" s="11"/>
-      <c r="J140" s="11"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A141" s="11">
+      <c r="H154" s="10">
+        <v>1</v>
+      </c>
+      <c r="I154" s="11"/>
+      <c r="J154" s="11"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A155" s="11">
         <v>10021</v>
       </c>
-      <c r="B141" s="11" t="s">
+      <c r="B155" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C141" s="12" t="s">
+      <c r="C155" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="D141" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E141" s="10">
+      <c r="D155" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E155" s="10">
         <v>5001</v>
       </c>
-      <c r="F141" s="10">
+      <c r="F155" s="10">
         <v>5</v>
       </c>
-      <c r="G141" s="10">
+      <c r="G155" s="10">
         <v>18</v>
       </c>
-      <c r="H141" s="10">
-        <v>1</v>
-      </c>
-      <c r="I141" s="11"/>
-      <c r="J141" s="11"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A142" s="11">
+      <c r="H155" s="10">
+        <v>1</v>
+      </c>
+      <c r="I155" s="11"/>
+      <c r="J155" s="11"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A156" s="11">
         <v>10022</v>
       </c>
-      <c r="B142" s="11" t="s">
+      <c r="B156" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="C142" s="10" t="s">
+      <c r="C156" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="D142" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E142" s="10">
+      <c r="D156" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E156" s="10">
         <v>5001</v>
       </c>
-      <c r="F142" s="10">
+      <c r="F156" s="10">
         <v>5</v>
       </c>
-      <c r="G142" s="10">
+      <c r="G156" s="10">
         <v>13</v>
       </c>
-      <c r="H142" s="10">
-        <v>1</v>
-      </c>
-      <c r="I142" s="11"/>
-      <c r="J142" s="11"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A143" s="11">
+      <c r="H156" s="10">
+        <v>1</v>
+      </c>
+      <c r="I156" s="11"/>
+      <c r="J156" s="11"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A157" s="11">
         <v>10023</v>
       </c>
-      <c r="B143" s="11" t="s">
+      <c r="B157" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="C143" s="12" t="s">
+      <c r="C157" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="D143" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E143" s="10">
+      <c r="D157" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E157" s="10">
         <v>5001</v>
       </c>
-      <c r="F143" s="10">
+      <c r="F157" s="10">
         <v>5</v>
       </c>
-      <c r="G143" s="10">
+      <c r="G157" s="10">
         <v>14</v>
       </c>
-      <c r="H143" s="10">
-        <v>1</v>
-      </c>
-      <c r="I143" s="11"/>
-      <c r="J143" s="11"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A144" s="11">
+      <c r="H157" s="10">
+        <v>1</v>
+      </c>
+      <c r="I157" s="11"/>
+      <c r="J157" s="11"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A158" s="11">
         <v>10024</v>
       </c>
-      <c r="B144" s="11" t="s">
+      <c r="B158" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="C144" s="12" t="s">
+      <c r="C158" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="D144" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E144" s="10">
+      <c r="D158" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E158" s="10">
         <v>5001</v>
       </c>
-      <c r="F144" s="10">
+      <c r="F158" s="10">
         <v>5</v>
       </c>
-      <c r="G144" s="10">
+      <c r="G158" s="10">
         <v>15</v>
       </c>
-      <c r="H144" s="10">
-        <v>1</v>
-      </c>
-      <c r="I144" s="11"/>
-      <c r="J144" s="11"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A145">
+      <c r="H158" s="10">
+        <v>1</v>
+      </c>
+      <c r="I158" s="11"/>
+      <c r="J158" s="11"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A159">
         <v>11001</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B159" t="s">
         <v>237</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C159" t="s">
         <v>211</v>
       </c>
-      <c r="D145" t="s">
-        <v>253</v>
-      </c>
-      <c r="E145">
+      <c r="D159" t="s">
+        <v>253</v>
+      </c>
+      <c r="E159">
         <v>5002</v>
       </c>
-      <c r="F145">
+      <c r="F159">
         <v>5</v>
       </c>
-      <c r="G145">
+      <c r="G159">
         <v>100</v>
       </c>
-      <c r="H145">
+      <c r="H159">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AF507B-A7EA-435E-B49A-93EB312F5D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91185E4-2C35-404C-9C66-7CEA4C61C7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="360">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1705,6 +1707,60 @@
   </si>
   <si>
     <t>貝の化石</t>
+  </si>
+  <si>
+    <t>城壁のブロック</t>
+  </si>
+  <si>
+    <t>城壁のブロックA</t>
+  </si>
+  <si>
+    <t>城壁のブロックB</t>
+  </si>
+  <si>
+    <t>城壁のブロックC</t>
+  </si>
+  <si>
+    <t>石積みのブロック</t>
+  </si>
+  <si>
+    <t>乱雑な石積みのブロック</t>
+  </si>
+  <si>
+    <t>城壁のブロックD</t>
+  </si>
+  <si>
+    <t>城壁のブロックE</t>
+  </si>
+  <si>
+    <t>大理石のブロック</t>
+  </si>
+  <si>
+    <t>薪のブロック</t>
+  </si>
+  <si>
+    <t>木の屋根</t>
+  </si>
+  <si>
+    <t>木の屋根・角</t>
+  </si>
+  <si>
+    <t>木の屋根・天板</t>
+  </si>
+  <si>
+    <t>木の柵</t>
+  </si>
+  <si>
+    <t>木の柵・十字</t>
+  </si>
+  <si>
+    <t>木の柵・角</t>
+  </si>
+  <si>
+    <t>木の階段</t>
+  </si>
+  <si>
+    <t>木の階段・角</t>
   </si>
 </sst>
 </file>
@@ -1918,7 +1974,14 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2262,8 +2325,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:J159" totalsRowShown="0">
-  <autoFilter ref="A1:J159" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:J167" totalsRowShown="0">
+  <autoFilter ref="A1:J167" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Name"/>
@@ -2281,19 +2344,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0C7E9A28-2173-4BF1-8AB7-F8C134FC1E3E}" name="テーブル2" displayName="テーブル2" ref="A1:G13" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0C7E9A28-2173-4BF1-8AB7-F8C134FC1E3E}" name="テーブル2" displayName="テーブル2" ref="A1:G13" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
   <autoFilter ref="A1:G13" xr:uid="{0C7E9A28-2173-4BF1-8AB7-F8C134FC1E3E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
     <sortCondition ref="F1:F13"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{7799492D-CC63-4F76-87DC-E337C1061300}" name="10001" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{1F72F1EC-0212-4145-8F64-C43BFC5CEBBA}" name="木の剣" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{3C5513F2-DB12-4448-B9FA-3050FF42DE1A}" name="Textures/SwordObject_2d_001" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{A2E6C594-2057-4D30-BD29-A921FA9A62D8}" name="5001" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{A7A34E46-33F4-4F3D-A7BC-3F1342AE5B36}" name="5" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{41722DF1-B171-4F21-98B3-23A6EB2693BA}" name="1" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{09C82A1F-9964-4699-842D-07338319F805}" name="12" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{7799492D-CC63-4F76-87DC-E337C1061300}" name="10001" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{1F72F1EC-0212-4145-8F64-C43BFC5CEBBA}" name="木の剣" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{3C5513F2-DB12-4448-B9FA-3050FF42DE1A}" name="Textures/SwordObject_2d_001" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{A2E6C594-2057-4D30-BD29-A921FA9A62D8}" name="5001" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{A7A34E46-33F4-4F3D-A7BC-3F1342AE5B36}" name="5" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{41722DF1-B171-4F21-98B3-23A6EB2693BA}" name="1" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{09C82A1F-9964-4699-842D-07338319F805}" name="12" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2596,13 +2659,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:J159"/>
+  <dimension ref="A1:J167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N106" sqref="N106"/>
+      <selection pane="bottomRight" activeCell="L64" sqref="L64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4088,7 +4151,7 @@
         <v>230</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>155</v>
+        <v>342</v>
       </c>
       <c r="C52" t="s">
         <v>291</v>
@@ -4117,7 +4180,7 @@
         <v>231</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>155</v>
+        <v>343</v>
       </c>
       <c r="C53" t="s">
         <v>292</v>
@@ -4146,7 +4209,7 @@
         <v>232</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>155</v>
+        <v>344</v>
       </c>
       <c r="C54" t="s">
         <v>284</v>
@@ -4175,7 +4238,7 @@
         <v>233</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>155</v>
+        <v>345</v>
       </c>
       <c r="C55" t="s">
         <v>285</v>
@@ -4204,7 +4267,7 @@
         <v>234</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>155</v>
+        <v>351</v>
       </c>
       <c r="C56" t="s">
         <v>286</v>
@@ -4233,7 +4296,7 @@
         <v>235</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>155</v>
+        <v>346</v>
       </c>
       <c r="C57" t="s">
         <v>287</v>
@@ -4262,7 +4325,7 @@
         <v>236</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>155</v>
+        <v>347</v>
       </c>
       <c r="C58" t="s">
         <v>288</v>
@@ -4291,7 +4354,7 @@
         <v>237</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>155</v>
+        <v>348</v>
       </c>
       <c r="C59" t="s">
         <v>289</v>
@@ -4320,7 +4383,7 @@
         <v>238</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>155</v>
+        <v>349</v>
       </c>
       <c r="C60" t="s">
         <v>290</v>
@@ -4349,7 +4412,7 @@
         <v>239</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>155</v>
+        <v>350</v>
       </c>
       <c r="C61" t="s">
         <v>293</v>
@@ -4375,13 +4438,13 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>500</v>
-      </c>
-      <c r="B62" t="s">
-        <v>122</v>
+        <v>278</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>352</v>
       </c>
       <c r="C62" t="s">
-        <v>101</v>
+        <v>293</v>
       </c>
       <c r="D62" t="s">
         <v>253</v>
@@ -4393,7 +4456,7 @@
         <v>2</v>
       </c>
       <c r="G62">
-        <v>1500</v>
+        <v>1178</v>
       </c>
       <c r="H62">
         <v>9999</v>
@@ -4404,13 +4467,13 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>501</v>
-      </c>
-      <c r="B63" t="s">
-        <v>123</v>
+        <v>279</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>353</v>
       </c>
       <c r="C63" t="s">
-        <v>102</v>
+        <v>293</v>
       </c>
       <c r="D63" t="s">
         <v>253</v>
@@ -4422,7 +4485,7 @@
         <v>2</v>
       </c>
       <c r="G63">
-        <v>1501</v>
+        <v>1179</v>
       </c>
       <c r="H63">
         <v>9999</v>
@@ -4433,25 +4496,25 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>502</v>
-      </c>
-      <c r="B64" t="s">
-        <v>124</v>
+        <v>280</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="C64" t="s">
-        <v>103</v>
+        <v>293</v>
       </c>
       <c r="D64" t="s">
         <v>253</v>
       </c>
       <c r="E64">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="F64">
         <v>2</v>
       </c>
       <c r="G64">
-        <v>1502</v>
+        <v>1180</v>
       </c>
       <c r="H64">
         <v>9999</v>
@@ -4462,13 +4525,13 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>503</v>
-      </c>
-      <c r="B65" t="s">
-        <v>125</v>
+        <v>281</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>355</v>
       </c>
       <c r="C65" t="s">
-        <v>104</v>
+        <v>293</v>
       </c>
       <c r="D65" t="s">
         <v>253</v>
@@ -4480,7 +4543,7 @@
         <v>2</v>
       </c>
       <c r="G65">
-        <v>1503</v>
+        <v>1181</v>
       </c>
       <c r="H65">
         <v>9999</v>
@@ -4491,25 +4554,25 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>504</v>
-      </c>
-      <c r="B66" t="s">
-        <v>126</v>
+        <v>282</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>356</v>
       </c>
       <c r="C66" t="s">
-        <v>105</v>
+        <v>293</v>
       </c>
       <c r="D66" t="s">
         <v>253</v>
       </c>
       <c r="E66">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="F66">
         <v>2</v>
       </c>
       <c r="G66">
-        <v>1504</v>
+        <v>1182</v>
       </c>
       <c r="H66">
         <v>9999</v>
@@ -4520,13 +4583,13 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>505</v>
-      </c>
-      <c r="B67" t="s">
-        <v>127</v>
+        <v>283</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>357</v>
       </c>
       <c r="C67" t="s">
-        <v>106</v>
+        <v>293</v>
       </c>
       <c r="D67" t="s">
         <v>253</v>
@@ -4538,7 +4601,7 @@
         <v>2</v>
       </c>
       <c r="G67">
-        <v>1505</v>
+        <v>1183</v>
       </c>
       <c r="H67">
         <v>9999</v>
@@ -4549,13 +4612,13 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>506</v>
-      </c>
-      <c r="B68" t="s">
-        <v>128</v>
+        <v>284</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>358</v>
       </c>
       <c r="C68" t="s">
-        <v>107</v>
+        <v>293</v>
       </c>
       <c r="D68" t="s">
         <v>253</v>
@@ -4567,7 +4630,7 @@
         <v>2</v>
       </c>
       <c r="G68">
-        <v>1506</v>
+        <v>1184</v>
       </c>
       <c r="H68">
         <v>9999</v>
@@ -4578,13 +4641,13 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>507</v>
-      </c>
-      <c r="B69" t="s">
-        <v>130</v>
+        <v>285</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>359</v>
       </c>
       <c r="C69" t="s">
-        <v>108</v>
+        <v>293</v>
       </c>
       <c r="D69" t="s">
         <v>253</v>
@@ -4596,7 +4659,7 @@
         <v>2</v>
       </c>
       <c r="G69">
-        <v>1507</v>
+        <v>1185</v>
       </c>
       <c r="H69">
         <v>9999</v>
@@ -4607,13 +4670,13 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B70" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="C70" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D70" t="s">
         <v>253</v>
@@ -4625,7 +4688,7 @@
         <v>2</v>
       </c>
       <c r="G70">
-        <v>1508</v>
+        <v>1500</v>
       </c>
       <c r="H70">
         <v>9999</v>
@@ -4636,13 +4699,13 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="B71" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C71" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D71" t="s">
         <v>253</v>
@@ -4654,7 +4717,7 @@
         <v>2</v>
       </c>
       <c r="G71">
-        <v>1509</v>
+        <v>1501</v>
       </c>
       <c r="H71">
         <v>9999</v>
@@ -4665,13 +4728,13 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>550</v>
+        <v>502</v>
       </c>
       <c r="B72" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C72" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D72" t="s">
         <v>253</v>
@@ -4683,7 +4746,7 @@
         <v>2</v>
       </c>
       <c r="G72">
-        <v>1550</v>
+        <v>1502</v>
       </c>
       <c r="H72">
         <v>9999</v>
@@ -4694,13 +4757,13 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>551</v>
+        <v>503</v>
       </c>
       <c r="B73" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C73" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D73" t="s">
         <v>253</v>
@@ -4712,7 +4775,7 @@
         <v>2</v>
       </c>
       <c r="G73">
-        <v>1551</v>
+        <v>1503</v>
       </c>
       <c r="H73">
         <v>9999</v>
@@ -4723,13 +4786,13 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>552</v>
+        <v>504</v>
       </c>
       <c r="B74" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C74" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D74" t="s">
         <v>253</v>
@@ -4741,7 +4804,7 @@
         <v>2</v>
       </c>
       <c r="G74">
-        <v>1552</v>
+        <v>1504</v>
       </c>
       <c r="H74">
         <v>9999</v>
@@ -4752,13 +4815,13 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>553</v>
+        <v>505</v>
       </c>
       <c r="B75" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C75" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D75" t="s">
         <v>253</v>
@@ -4770,7 +4833,7 @@
         <v>2</v>
       </c>
       <c r="G75">
-        <v>1553</v>
+        <v>1505</v>
       </c>
       <c r="H75">
         <v>9999</v>
@@ -4781,13 +4844,13 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>554</v>
+        <v>506</v>
       </c>
       <c r="B76" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C76" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D76" t="s">
         <v>253</v>
@@ -4799,7 +4862,7 @@
         <v>2</v>
       </c>
       <c r="G76">
-        <v>1554</v>
+        <v>1506</v>
       </c>
       <c r="H76">
         <v>9999</v>
@@ -4810,13 +4873,13 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>555</v>
+        <v>507</v>
       </c>
       <c r="B77" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C77" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D77" t="s">
         <v>253</v>
@@ -4828,7 +4891,7 @@
         <v>2</v>
       </c>
       <c r="G77">
-        <v>1555</v>
+        <v>1507</v>
       </c>
       <c r="H77">
         <v>9999</v>
@@ -4839,13 +4902,13 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>556</v>
+        <v>508</v>
       </c>
       <c r="B78" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C78" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D78" t="s">
         <v>253</v>
@@ -4857,7 +4920,7 @@
         <v>2</v>
       </c>
       <c r="G78">
-        <v>1556</v>
+        <v>1508</v>
       </c>
       <c r="H78">
         <v>9999</v>
@@ -4868,13 +4931,13 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A79">
-        <v>557</v>
+        <v>509</v>
       </c>
       <c r="B79" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C79" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D79" t="s">
         <v>253</v>
@@ -4886,7 +4949,7 @@
         <v>2</v>
       </c>
       <c r="G79">
-        <v>1557</v>
+        <v>1509</v>
       </c>
       <c r="H79">
         <v>9999</v>
@@ -4897,13 +4960,13 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="B80" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C80" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D80" t="s">
         <v>253</v>
@@ -4915,7 +4978,7 @@
         <v>2</v>
       </c>
       <c r="G80">
-        <v>1558</v>
+        <v>1550</v>
       </c>
       <c r="H80">
         <v>9999</v>
@@ -4926,13 +4989,13 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A81">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="B81" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C81" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D81" t="s">
         <v>253</v>
@@ -4944,7 +5007,7 @@
         <v>2</v>
       </c>
       <c r="G81">
-        <v>1559</v>
+        <v>1551</v>
       </c>
       <c r="H81">
         <v>9999</v>
@@ -4955,25 +5018,25 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A82">
-        <v>600</v>
+        <v>552</v>
       </c>
       <c r="B82" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C82" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D82" t="s">
         <v>253</v>
       </c>
       <c r="E82">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="F82">
         <v>2</v>
       </c>
       <c r="G82">
-        <v>1600</v>
+        <v>1552</v>
       </c>
       <c r="H82">
         <v>9999</v>
@@ -4984,197 +5047,245 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A83">
-        <v>1001</v>
+        <v>553</v>
       </c>
       <c r="B83" t="s">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="C83" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="D83" t="s">
         <v>253</v>
       </c>
       <c r="E83">
-        <v>2</v>
+        <v>3001</v>
       </c>
       <c r="F83">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G83">
+        <v>1553</v>
       </c>
       <c r="H83">
         <v>9999</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A84">
-        <v>1002</v>
+        <v>554</v>
       </c>
       <c r="B84" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="C84" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="D84" t="s">
         <v>253</v>
       </c>
       <c r="E84">
-        <v>2</v>
+        <v>3001</v>
       </c>
       <c r="F84">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G84">
+        <v>1554</v>
       </c>
       <c r="H84">
         <v>9999</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A85">
-        <v>1003</v>
+        <v>555</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="C85" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="D85" t="s">
         <v>253</v>
       </c>
       <c r="E85">
-        <v>2</v>
+        <v>3001</v>
       </c>
       <c r="F85">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G85">
+        <v>1555</v>
       </c>
       <c r="H85">
         <v>9999</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A86">
-        <v>1004</v>
+        <v>556</v>
       </c>
       <c r="B86" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="C86" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="D86" t="s">
         <v>253</v>
       </c>
       <c r="E86">
-        <v>2</v>
+        <v>3001</v>
       </c>
       <c r="F86">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G86">
+        <v>1556</v>
       </c>
       <c r="H86">
         <v>9999</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A87">
-        <v>1005</v>
+        <v>557</v>
       </c>
       <c r="B87" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="C87" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="D87" t="s">
         <v>253</v>
       </c>
       <c r="E87">
-        <v>2</v>
+        <v>3001</v>
       </c>
       <c r="F87">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G87">
+        <v>1557</v>
       </c>
       <c r="H87">
         <v>9999</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A88">
-        <v>1006</v>
+        <v>558</v>
       </c>
       <c r="B88" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="C88" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="D88" t="s">
         <v>253</v>
       </c>
       <c r="E88">
-        <v>2</v>
+        <v>3001</v>
       </c>
       <c r="F88">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G88">
+        <v>1558</v>
       </c>
       <c r="H88">
         <v>9999</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A89">
-        <v>1007</v>
+        <v>559</v>
       </c>
       <c r="B89" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="C89" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="D89" t="s">
         <v>253</v>
       </c>
       <c r="E89">
-        <v>2</v>
+        <v>3001</v>
       </c>
       <c r="F89">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G89">
+        <v>1559</v>
       </c>
       <c r="H89">
         <v>9999</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A90">
-        <v>1008</v>
+        <v>600</v>
       </c>
       <c r="B90" t="s">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="C90" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="D90" t="s">
         <v>253</v>
       </c>
       <c r="E90">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="F90">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G90">
+        <v>1600</v>
       </c>
       <c r="H90">
         <v>9999</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A91">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="B91" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C91" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D91" t="s">
         <v>253</v>
@@ -5191,13 +5302,13 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A92">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="B92" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C92" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D92" t="s">
         <v>253</v>
@@ -5214,13 +5325,13 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A93">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="B93" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C93" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D93" t="s">
         <v>253</v>
@@ -5237,13 +5348,13 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A94">
-        <v>1012</v>
+        <v>1004</v>
       </c>
       <c r="B94" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C94" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D94" t="s">
         <v>253</v>
@@ -5260,13 +5371,13 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A95">
-        <v>1013</v>
+        <v>1005</v>
       </c>
       <c r="B95" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C95" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D95" t="s">
         <v>253</v>
@@ -5283,13 +5394,13 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A96">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="B96" t="s">
-        <v>328</v>
+        <v>37</v>
       </c>
       <c r="C96" t="s">
-        <v>314</v>
+        <v>55</v>
       </c>
       <c r="D96" t="s">
         <v>253</v>
@@ -5304,15 +5415,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="B97" t="s">
-        <v>329</v>
+        <v>38</v>
       </c>
       <c r="C97" t="s">
-        <v>315</v>
+        <v>56</v>
       </c>
       <c r="D97" t="s">
         <v>253</v>
@@ -5327,15 +5438,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A98">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="B98" t="s">
-        <v>330</v>
+        <v>39</v>
       </c>
       <c r="C98" t="s">
-        <v>316</v>
+        <v>57</v>
       </c>
       <c r="D98" t="s">
         <v>253</v>
@@ -5350,15 +5461,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A99">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="B99" t="s">
-        <v>331</v>
+        <v>40</v>
       </c>
       <c r="C99" t="s">
-        <v>317</v>
+        <v>58</v>
       </c>
       <c r="D99" t="s">
         <v>253</v>
@@ -5373,15 +5484,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A100">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="B100" t="s">
-        <v>332</v>
+        <v>41</v>
       </c>
       <c r="C100" t="s">
-        <v>318</v>
+        <v>59</v>
       </c>
       <c r="D100" t="s">
         <v>253</v>
@@ -5396,15 +5507,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A101">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="B101" t="s">
-        <v>333</v>
+        <v>42</v>
       </c>
       <c r="C101" t="s">
-        <v>319</v>
+        <v>60</v>
       </c>
       <c r="D101" t="s">
         <v>253</v>
@@ -5419,15 +5530,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A102">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="B102" t="s">
-        <v>334</v>
+        <v>43</v>
       </c>
       <c r="C102" t="s">
-        <v>320</v>
+        <v>61</v>
       </c>
       <c r="D102" t="s">
         <v>253</v>
@@ -5442,15 +5553,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A103">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="B103" t="s">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="C103" t="s">
-        <v>321</v>
+        <v>62</v>
       </c>
       <c r="D103" t="s">
         <v>253</v>
@@ -5465,15 +5576,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A104">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="B104" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C104" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D104" t="s">
         <v>253</v>
@@ -5488,15 +5599,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A105">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="B105" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C105" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="D105" t="s">
         <v>253</v>
@@ -5511,15 +5622,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A106">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="B106" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C106" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D106" t="s">
         <v>253</v>
@@ -5534,15 +5645,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A107">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="B107" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C107" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="D107" t="s">
         <v>253</v>
@@ -5557,15 +5668,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A108">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="B108" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C108" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D108" t="s">
         <v>253</v>
@@ -5580,15 +5691,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A109">
-        <v>1027</v>
+        <v>1019</v>
       </c>
       <c r="B109" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C109" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="D109" t="s">
         <v>253</v>
@@ -5603,256 +5714,211 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A110">
-        <v>3000</v>
+        <v>1020</v>
       </c>
       <c r="B110" t="s">
-        <v>4</v>
+        <v>334</v>
       </c>
       <c r="C110" t="s">
-        <v>6</v>
+        <v>320</v>
       </c>
       <c r="D110" t="s">
         <v>253</v>
       </c>
       <c r="E110">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F110">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H110">
-        <v>1</v>
-      </c>
-      <c r="J110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A111">
-        <v>3001</v>
+        <v>1021</v>
       </c>
       <c r="B111" t="s">
-        <v>63</v>
+        <v>335</v>
       </c>
       <c r="C111" t="s">
-        <v>64</v>
+        <v>321</v>
       </c>
       <c r="D111" t="s">
         <v>253</v>
       </c>
       <c r="E111">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="F111">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H111">
         <v>9999</v>
       </c>
-      <c r="J111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A112">
-        <v>3002</v>
+        <v>1022</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="C112" t="s">
-        <v>65</v>
+        <v>322</v>
       </c>
       <c r="D112" t="s">
         <v>253</v>
       </c>
       <c r="E112">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="F112">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H112">
-        <v>1</v>
-      </c>
-      <c r="I112">
-        <v>1</v>
-      </c>
-      <c r="J112">
-        <v>1</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A113">
-        <v>3003</v>
+        <v>1023</v>
       </c>
       <c r="B113" t="s">
-        <v>157</v>
+        <v>337</v>
       </c>
       <c r="C113" t="s">
-        <v>158</v>
+        <v>323</v>
       </c>
       <c r="D113" t="s">
         <v>253</v>
       </c>
       <c r="E113">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="F113">
-        <v>2</v>
-      </c>
-      <c r="G113">
-        <v>6000</v>
+        <v>3</v>
       </c>
       <c r="H113">
         <v>9999</v>
-      </c>
-      <c r="J113">
-        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A114">
-        <v>7016</v>
+        <v>1024</v>
       </c>
       <c r="B114" t="s">
-        <v>205</v>
+        <v>338</v>
       </c>
       <c r="C114" t="s">
-        <v>201</v>
+        <v>324</v>
       </c>
       <c r="D114" t="s">
         <v>253</v>
       </c>
       <c r="E114">
-        <v>3001</v>
+        <v>2</v>
       </c>
       <c r="F114">
-        <v>2</v>
-      </c>
-      <c r="G114">
-        <v>7016</v>
+        <v>3</v>
       </c>
       <c r="H114">
         <v>9999</v>
-      </c>
-      <c r="J114">
-        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A115">
-        <v>7017</v>
+        <v>1025</v>
       </c>
       <c r="B115" t="s">
-        <v>206</v>
+        <v>339</v>
       </c>
       <c r="C115" t="s">
-        <v>202</v>
+        <v>325</v>
       </c>
       <c r="D115" t="s">
         <v>253</v>
       </c>
       <c r="E115">
-        <v>3001</v>
+        <v>2</v>
       </c>
       <c r="F115">
-        <v>2</v>
-      </c>
-      <c r="G115">
-        <v>7017</v>
+        <v>3</v>
       </c>
       <c r="H115">
         <v>9999</v>
-      </c>
-      <c r="J115">
-        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A116">
-        <v>7018</v>
+        <v>1026</v>
       </c>
       <c r="B116" t="s">
-        <v>175</v>
+        <v>340</v>
       </c>
       <c r="C116" t="s">
-        <v>176</v>
+        <v>326</v>
       </c>
       <c r="D116" t="s">
         <v>253</v>
       </c>
       <c r="E116">
-        <v>3001</v>
+        <v>2</v>
       </c>
       <c r="F116">
-        <v>2</v>
-      </c>
-      <c r="G116">
-        <v>7018</v>
+        <v>3</v>
       </c>
       <c r="H116">
         <v>9999</v>
-      </c>
-      <c r="J116">
-        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A117">
-        <v>7019</v>
+        <v>1027</v>
       </c>
       <c r="B117" t="s">
-        <v>177</v>
+        <v>341</v>
       </c>
       <c r="C117" t="s">
-        <v>178</v>
+        <v>327</v>
       </c>
       <c r="D117" t="s">
         <v>253</v>
       </c>
       <c r="E117">
-        <v>3001</v>
+        <v>2</v>
       </c>
       <c r="F117">
-        <v>2</v>
-      </c>
-      <c r="G117">
-        <v>7019</v>
+        <v>3</v>
       </c>
       <c r="H117">
         <v>9999</v>
-      </c>
-      <c r="J117">
-        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A118">
-        <v>7020</v>
+        <v>3000</v>
       </c>
       <c r="B118" t="s">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="C118" t="s">
-        <v>179</v>
+        <v>6</v>
       </c>
       <c r="D118" t="s">
         <v>253</v>
       </c>
       <c r="E118">
-        <v>3001</v>
+        <v>100</v>
       </c>
       <c r="F118">
-        <v>2</v>
-      </c>
-      <c r="G118">
-        <v>7020</v>
+        <v>4</v>
       </c>
       <c r="H118">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="J118">
         <v>1</v>
@@ -5860,25 +5926,22 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A119">
-        <v>7021</v>
+        <v>3001</v>
       </c>
       <c r="B119" t="s">
-        <v>181</v>
+        <v>63</v>
       </c>
       <c r="C119" t="s">
-        <v>183</v>
+        <v>64</v>
       </c>
       <c r="D119" t="s">
         <v>253</v>
       </c>
       <c r="E119">
-        <v>3001</v>
+        <v>51</v>
       </c>
       <c r="F119">
-        <v>2</v>
-      </c>
-      <c r="G119">
-        <v>7021</v>
+        <v>4</v>
       </c>
       <c r="H119">
         <v>9999</v>
@@ -5889,28 +5952,28 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A120">
-        <v>7022</v>
+        <v>3002</v>
       </c>
       <c r="B120" t="s">
-        <v>187</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="D120" t="s">
         <v>253</v>
       </c>
       <c r="E120">
-        <v>3001</v>
+        <v>52</v>
       </c>
       <c r="F120">
-        <v>2</v>
-      </c>
-      <c r="G120">
-        <v>7022</v>
+        <v>4</v>
       </c>
       <c r="H120">
-        <v>9999</v>
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
       </c>
       <c r="J120">
         <v>1</v>
@@ -5918,25 +5981,25 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A121">
-        <v>7023</v>
+        <v>3003</v>
       </c>
       <c r="B121" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="C121" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="D121" t="s">
         <v>253</v>
       </c>
       <c r="E121">
-        <v>3001</v>
+        <v>53</v>
       </c>
       <c r="F121">
         <v>2</v>
       </c>
       <c r="G121">
-        <v>7023</v>
+        <v>6000</v>
       </c>
       <c r="H121">
         <v>9999</v>
@@ -5947,13 +6010,13 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A122">
-        <v>7024</v>
+        <v>7016</v>
       </c>
       <c r="B122" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="C122" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="D122" t="s">
         <v>253</v>
@@ -5965,7 +6028,7 @@
         <v>2</v>
       </c>
       <c r="G122">
-        <v>7024</v>
+        <v>7016</v>
       </c>
       <c r="H122">
         <v>9999</v>
@@ -5976,13 +6039,13 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A123">
-        <v>7025</v>
+        <v>7017</v>
       </c>
       <c r="B123" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="C123" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="D123" t="s">
         <v>253</v>
@@ -5994,7 +6057,7 @@
         <v>2</v>
       </c>
       <c r="G123">
-        <v>7025</v>
+        <v>7017</v>
       </c>
       <c r="H123">
         <v>9999</v>
@@ -6005,13 +6068,13 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A124">
-        <v>7026</v>
+        <v>7018</v>
       </c>
       <c r="B124" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="C124" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="D124" t="s">
         <v>253</v>
@@ -6023,7 +6086,7 @@
         <v>2</v>
       </c>
       <c r="G124">
-        <v>7026</v>
+        <v>7018</v>
       </c>
       <c r="H124">
         <v>9999</v>
@@ -6034,13 +6097,13 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A125">
-        <v>7027</v>
+        <v>7019</v>
       </c>
       <c r="B125" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="C125" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="D125" t="s">
         <v>253</v>
@@ -6052,7 +6115,7 @@
         <v>2</v>
       </c>
       <c r="G125">
-        <v>7027</v>
+        <v>7019</v>
       </c>
       <c r="H125">
         <v>9999</v>
@@ -6063,13 +6126,13 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A126">
-        <v>7028</v>
+        <v>7020</v>
       </c>
       <c r="B126" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C126" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="D126" t="s">
         <v>253</v>
@@ -6081,7 +6144,7 @@
         <v>2</v>
       </c>
       <c r="G126">
-        <v>7028</v>
+        <v>7020</v>
       </c>
       <c r="H126">
         <v>9999</v>
@@ -6092,13 +6155,13 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A127">
-        <v>7029</v>
+        <v>7021</v>
       </c>
       <c r="B127" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C127" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="D127" t="s">
         <v>253</v>
@@ -6110,7 +6173,7 @@
         <v>2</v>
       </c>
       <c r="G127">
-        <v>7029</v>
+        <v>7021</v>
       </c>
       <c r="H127">
         <v>9999</v>
@@ -6121,13 +6184,13 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A128">
-        <v>7030</v>
+        <v>7022</v>
       </c>
       <c r="B128" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C128" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="D128" t="s">
         <v>253</v>
@@ -6139,378 +6202,402 @@
         <v>2</v>
       </c>
       <c r="G128">
+        <v>7022</v>
+      </c>
+      <c r="H128">
+        <v>9999</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A129">
+        <v>7023</v>
+      </c>
+      <c r="B129" t="s">
+        <v>188</v>
+      </c>
+      <c r="C129" t="s">
+        <v>184</v>
+      </c>
+      <c r="D129" t="s">
+        <v>253</v>
+      </c>
+      <c r="E129">
+        <v>3001</v>
+      </c>
+      <c r="F129">
+        <v>2</v>
+      </c>
+      <c r="G129">
+        <v>7023</v>
+      </c>
+      <c r="H129">
+        <v>9999</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A130">
+        <v>7024</v>
+      </c>
+      <c r="B130" t="s">
+        <v>189</v>
+      </c>
+      <c r="C130" t="s">
+        <v>185</v>
+      </c>
+      <c r="D130" t="s">
+        <v>253</v>
+      </c>
+      <c r="E130">
+        <v>3001</v>
+      </c>
+      <c r="F130">
+        <v>2</v>
+      </c>
+      <c r="G130">
+        <v>7024</v>
+      </c>
+      <c r="H130">
+        <v>9999</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A131">
+        <v>7025</v>
+      </c>
+      <c r="B131" t="s">
+        <v>190</v>
+      </c>
+      <c r="C131" t="s">
+        <v>186</v>
+      </c>
+      <c r="D131" t="s">
+        <v>253</v>
+      </c>
+      <c r="E131">
+        <v>3001</v>
+      </c>
+      <c r="F131">
+        <v>2</v>
+      </c>
+      <c r="G131">
+        <v>7025</v>
+      </c>
+      <c r="H131">
+        <v>9999</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A132">
+        <v>7026</v>
+      </c>
+      <c r="B132" t="s">
+        <v>191</v>
+      </c>
+      <c r="C132" t="s">
+        <v>196</v>
+      </c>
+      <c r="D132" t="s">
+        <v>253</v>
+      </c>
+      <c r="E132">
+        <v>3001</v>
+      </c>
+      <c r="F132">
+        <v>2</v>
+      </c>
+      <c r="G132">
+        <v>7026</v>
+      </c>
+      <c r="H132">
+        <v>9999</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A133">
+        <v>7027</v>
+      </c>
+      <c r="B133" t="s">
+        <v>192</v>
+      </c>
+      <c r="C133" t="s">
+        <v>197</v>
+      </c>
+      <c r="D133" t="s">
+        <v>253</v>
+      </c>
+      <c r="E133">
+        <v>3001</v>
+      </c>
+      <c r="F133">
+        <v>2</v>
+      </c>
+      <c r="G133">
+        <v>7027</v>
+      </c>
+      <c r="H133">
+        <v>9999</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A134">
+        <v>7028</v>
+      </c>
+      <c r="B134" t="s">
+        <v>193</v>
+      </c>
+      <c r="C134" t="s">
+        <v>198</v>
+      </c>
+      <c r="D134" t="s">
+        <v>253</v>
+      </c>
+      <c r="E134">
+        <v>3001</v>
+      </c>
+      <c r="F134">
+        <v>2</v>
+      </c>
+      <c r="G134">
+        <v>7028</v>
+      </c>
+      <c r="H134">
+        <v>9999</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A135">
+        <v>7029</v>
+      </c>
+      <c r="B135" t="s">
+        <v>194</v>
+      </c>
+      <c r="C135" t="s">
+        <v>199</v>
+      </c>
+      <c r="D135" t="s">
+        <v>253</v>
+      </c>
+      <c r="E135">
+        <v>3001</v>
+      </c>
+      <c r="F135">
+        <v>2</v>
+      </c>
+      <c r="G135">
+        <v>7029</v>
+      </c>
+      <c r="H135">
+        <v>9999</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A136">
         <v>7030</v>
       </c>
-      <c r="H128">
-        <v>9999</v>
-      </c>
-      <c r="J128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A129">
+      <c r="B136" t="s">
+        <v>195</v>
+      </c>
+      <c r="C136" t="s">
+        <v>200</v>
+      </c>
+      <c r="D136" t="s">
+        <v>253</v>
+      </c>
+      <c r="E136">
+        <v>3001</v>
+      </c>
+      <c r="F136">
+        <v>2</v>
+      </c>
+      <c r="G136">
+        <v>7030</v>
+      </c>
+      <c r="H136">
+        <v>9999</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A137">
         <v>9000</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B137" t="s">
         <v>68</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C137" t="s">
         <v>66</v>
       </c>
-      <c r="D129" t="s">
-        <v>253</v>
-      </c>
-      <c r="E129">
+      <c r="D137" t="s">
+        <v>253</v>
+      </c>
+      <c r="E137">
         <v>90</v>
       </c>
-      <c r="H129">
+      <c r="H137">
         <v>9999999</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A130">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A138">
         <v>9001</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B138" t="s">
         <v>69</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C138" t="s">
         <v>67</v>
       </c>
-      <c r="D130" t="s">
-        <v>253</v>
-      </c>
-      <c r="E130">
+      <c r="D138" t="s">
+        <v>253</v>
+      </c>
+      <c r="E138">
         <v>91</v>
       </c>
-      <c r="H130">
+      <c r="H138">
         <v>9999999</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="75" x14ac:dyDescent="0.4">
-      <c r="A131">
+    <row r="139" spans="1:10" ht="75" x14ac:dyDescent="0.4">
+      <c r="A139">
         <v>9002</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B139" t="s">
         <v>70</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C139" t="s">
         <v>72</v>
       </c>
-      <c r="D131" s="14" t="s">
+      <c r="D139" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="E131">
+      <c r="E139">
         <v>92</v>
       </c>
-      <c r="H131">
+      <c r="H139">
         <v>9999999</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="75" x14ac:dyDescent="0.4">
-      <c r="A132">
+    <row r="140" spans="1:10" ht="75" x14ac:dyDescent="0.4">
+      <c r="A140">
         <v>9003</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B140" t="s">
         <v>212</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C140" t="s">
         <v>207</v>
       </c>
-      <c r="D132" s="14" t="s">
+      <c r="D140" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="E132">
+      <c r="E140">
         <v>93</v>
       </c>
-      <c r="H132">
+      <c r="H140">
         <v>9999999</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A133">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A141">
         <v>9004</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B141" t="s">
         <v>208</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C141" t="s">
         <v>209</v>
       </c>
-      <c r="D133" t="s">
-        <v>253</v>
-      </c>
-      <c r="E133">
+      <c r="D141" t="s">
+        <v>253</v>
+      </c>
+      <c r="E141">
         <v>94</v>
       </c>
-      <c r="H133">
+      <c r="H141">
         <v>9999999</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="75" x14ac:dyDescent="0.4">
-      <c r="A134">
+    <row r="142" spans="1:10" ht="75" x14ac:dyDescent="0.4">
+      <c r="A142">
         <v>9005</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B142" t="s">
         <v>210</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C142" t="s">
         <v>211</v>
       </c>
-      <c r="D134" s="14" t="s">
+      <c r="D142" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="E134">
+      <c r="E142">
         <v>95</v>
       </c>
-      <c r="H134">
+      <c r="H142">
         <v>9999999</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A135" s="9">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A143" s="9">
         <v>10001</v>
       </c>
-      <c r="B135" s="10" t="s">
+      <c r="B143" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="C135" s="10" t="s">
+      <c r="C143" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="D135" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E135" s="10">
+      <c r="D143" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E143" s="10">
         <v>5001</v>
       </c>
-      <c r="F135" s="10">
+      <c r="F143" s="10">
         <v>5</v>
       </c>
-      <c r="G135" s="10">
-        <v>1</v>
-      </c>
-      <c r="H135" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A136" s="9">
+      <c r="G143" s="10">
+        <v>1</v>
+      </c>
+      <c r="H143" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A144" s="9">
         <v>10002</v>
       </c>
-      <c r="B136" s="9" t="s">
+      <c r="B144" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C136" s="12" t="s">
+      <c r="C144" s="12" t="s">
         <v>217</v>
-      </c>
-      <c r="D136" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E136" s="12">
-        <v>5001</v>
-      </c>
-      <c r="F136" s="12">
-        <v>5</v>
-      </c>
-      <c r="G136" s="12">
-        <v>2</v>
-      </c>
-      <c r="H136" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A137" s="9">
-        <v>10003</v>
-      </c>
-      <c r="B137" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="C137" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="D137" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E137" s="12">
-        <v>5001</v>
-      </c>
-      <c r="F137" s="12">
-        <v>5</v>
-      </c>
-      <c r="G137" s="12">
-        <v>3</v>
-      </c>
-      <c r="H137" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A138" s="9">
-        <v>10004</v>
-      </c>
-      <c r="B138" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="C138" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="D138" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E138" s="12">
-        <v>5001</v>
-      </c>
-      <c r="F138" s="12">
-        <v>5</v>
-      </c>
-      <c r="G138" s="12">
-        <v>4</v>
-      </c>
-      <c r="H138" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A139" s="9">
-        <v>10005</v>
-      </c>
-      <c r="B139" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="C139" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="D139" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E139" s="12">
-        <v>5001</v>
-      </c>
-      <c r="F139" s="12">
-        <v>5</v>
-      </c>
-      <c r="G139" s="12">
-        <v>5</v>
-      </c>
-      <c r="H139" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A140" s="9">
-        <v>10006</v>
-      </c>
-      <c r="B140" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="C140" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="D140" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E140" s="12">
-        <v>5001</v>
-      </c>
-      <c r="F140" s="12">
-        <v>5</v>
-      </c>
-      <c r="G140" s="12">
-        <v>6</v>
-      </c>
-      <c r="H140" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A141" s="9">
-        <v>10007</v>
-      </c>
-      <c r="B141" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="C141" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="D141" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E141" s="12">
-        <v>5001</v>
-      </c>
-      <c r="F141" s="12">
-        <v>5</v>
-      </c>
-      <c r="G141" s="12">
-        <v>7</v>
-      </c>
-      <c r="H141" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A142" s="9">
-        <v>10008</v>
-      </c>
-      <c r="B142" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="C142" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="D142" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E142" s="12">
-        <v>5001</v>
-      </c>
-      <c r="F142" s="12">
-        <v>5</v>
-      </c>
-      <c r="G142" s="12">
-        <v>8</v>
-      </c>
-      <c r="H142" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A143" s="9">
-        <v>10009</v>
-      </c>
-      <c r="B143" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="C143" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="D143" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E143" s="12">
-        <v>5001</v>
-      </c>
-      <c r="F143" s="12">
-        <v>5</v>
-      </c>
-      <c r="G143" s="12">
-        <v>9</v>
-      </c>
-      <c r="H143" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A144" s="9">
-        <v>10010</v>
-      </c>
-      <c r="B144" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="C144" s="12" t="s">
-        <v>226</v>
       </c>
       <c r="D144" s="11" t="s">
         <v>253</v>
@@ -6522,7 +6609,7 @@
         <v>5</v>
       </c>
       <c r="G144" s="12">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H144" s="12">
         <v>1</v>
@@ -6530,294 +6617,278 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A145" s="9">
-        <v>10011</v>
-      </c>
-      <c r="B145" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="C145" s="13" t="s">
-        <v>219</v>
+        <v>10003</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="D145" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="E145" s="13">
+      <c r="E145" s="12">
         <v>5001</v>
       </c>
-      <c r="F145" s="13">
+      <c r="F145" s="12">
         <v>5</v>
       </c>
-      <c r="G145" s="13">
-        <v>11</v>
-      </c>
-      <c r="H145" s="13">
+      <c r="G145" s="12">
+        <v>3</v>
+      </c>
+      <c r="H145" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A146" s="9">
+        <v>10004</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C146" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D146" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E146" s="12">
+        <v>5001</v>
+      </c>
+      <c r="F146" s="12">
+        <v>5</v>
+      </c>
+      <c r="G146" s="12">
+        <v>4</v>
+      </c>
+      <c r="H146" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A147" s="9">
+        <v>10005</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C147" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="D147" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E147" s="12">
+        <v>5001</v>
+      </c>
+      <c r="F147" s="12">
+        <v>5</v>
+      </c>
+      <c r="G147" s="12">
+        <v>5</v>
+      </c>
+      <c r="H147" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A148" s="9">
+        <v>10006</v>
+      </c>
+      <c r="B148" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D148" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E148" s="12">
+        <v>5001</v>
+      </c>
+      <c r="F148" s="12">
+        <v>5</v>
+      </c>
+      <c r="G148" s="12">
+        <v>6</v>
+      </c>
+      <c r="H148" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A149" s="9">
+        <v>10007</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C149" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D149" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E149" s="12">
+        <v>5001</v>
+      </c>
+      <c r="F149" s="12">
+        <v>5</v>
+      </c>
+      <c r="G149" s="12">
+        <v>7</v>
+      </c>
+      <c r="H149" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A150" s="9">
+        <v>10008</v>
+      </c>
+      <c r="B150" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D150" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E150" s="12">
+        <v>5001</v>
+      </c>
+      <c r="F150" s="12">
+        <v>5</v>
+      </c>
+      <c r="G150" s="12">
+        <v>8</v>
+      </c>
+      <c r="H150" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A151" s="9">
+        <v>10009</v>
+      </c>
+      <c r="B151" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C151" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D151" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E151" s="12">
+        <v>5001</v>
+      </c>
+      <c r="F151" s="12">
+        <v>5</v>
+      </c>
+      <c r="G151" s="12">
+        <v>9</v>
+      </c>
+      <c r="H151" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A152" s="9">
+        <v>10010</v>
+      </c>
+      <c r="B152" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C152" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D152" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E152" s="12">
+        <v>5001</v>
+      </c>
+      <c r="F152" s="12">
+        <v>5</v>
+      </c>
+      <c r="G152" s="12">
+        <v>10</v>
+      </c>
+      <c r="H152" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A153" s="9">
+        <v>10011</v>
+      </c>
+      <c r="B153" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="C153" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="D153" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E153" s="13">
+        <v>5001</v>
+      </c>
+      <c r="F153" s="13">
+        <v>5</v>
+      </c>
+      <c r="G153" s="13">
+        <v>11</v>
+      </c>
+      <c r="H153" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A154" s="9">
         <v>10012</v>
       </c>
-      <c r="B146" s="13" t="s">
+      <c r="B154" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="C146" s="13" t="s">
+      <c r="C154" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="D146" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E146" s="13">
+      <c r="D154" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E154" s="13">
         <v>5001</v>
       </c>
-      <c r="F146" s="13">
+      <c r="F154" s="13">
         <v>5</v>
       </c>
-      <c r="G146" s="13">
+      <c r="G154" s="13">
         <v>12</v>
       </c>
-      <c r="H146" s="13">
-        <v>1</v>
-      </c>
-      <c r="I146" s="11"/>
-      <c r="J146" s="11"/>
-    </row>
-    <row r="147" spans="1:10" ht="75" x14ac:dyDescent="0.4">
-      <c r="A147" s="11">
-        <v>10013</v>
-      </c>
-      <c r="B147" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="D147" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="E147" s="10">
-        <v>5001</v>
-      </c>
-      <c r="F147" s="10">
-        <v>5</v>
-      </c>
-      <c r="G147" s="10">
-        <v>22</v>
-      </c>
-      <c r="H147" s="10">
-        <v>1</v>
-      </c>
-      <c r="I147" s="11"/>
-      <c r="J147" s="11"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A148" s="11">
-        <v>10014</v>
-      </c>
-      <c r="B148" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="C148" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="D148" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E148" s="10">
-        <v>5001</v>
-      </c>
-      <c r="F148" s="10">
-        <v>5</v>
-      </c>
-      <c r="G148" s="10">
-        <v>23</v>
-      </c>
-      <c r="H148" s="10">
-        <v>1</v>
-      </c>
-      <c r="I148" s="11"/>
-      <c r="J148" s="11"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A149" s="11">
-        <v>10015</v>
-      </c>
-      <c r="B149" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="C149" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="D149" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E149" s="10">
-        <v>5001</v>
-      </c>
-      <c r="F149" s="10">
-        <v>5</v>
-      </c>
-      <c r="G149" s="10">
-        <v>24</v>
-      </c>
-      <c r="H149" s="10">
-        <v>1</v>
-      </c>
-      <c r="I149" s="11"/>
-      <c r="J149" s="11"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A150" s="11">
-        <v>10016</v>
-      </c>
-      <c r="B150" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="C150" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="D150" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E150" s="10">
-        <v>5001</v>
-      </c>
-      <c r="F150" s="10">
-        <v>5</v>
-      </c>
-      <c r="G150" s="10">
-        <v>19</v>
-      </c>
-      <c r="H150" s="10">
-        <v>1</v>
-      </c>
-      <c r="I150" s="11"/>
-      <c r="J150" s="11"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A151" s="11">
-        <v>10017</v>
-      </c>
-      <c r="B151" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="C151" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="D151" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E151" s="10">
-        <v>5001</v>
-      </c>
-      <c r="F151" s="10">
-        <v>5</v>
-      </c>
-      <c r="G151" s="10">
-        <v>20</v>
-      </c>
-      <c r="H151" s="10">
-        <v>1</v>
-      </c>
-      <c r="I151" s="11"/>
-      <c r="J151" s="11"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A152" s="11">
-        <v>10018</v>
-      </c>
-      <c r="B152" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="C152" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="D152" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E152" s="10">
-        <v>5001</v>
-      </c>
-      <c r="F152" s="10">
-        <v>5</v>
-      </c>
-      <c r="G152" s="10">
-        <v>21</v>
-      </c>
-      <c r="H152" s="10">
-        <v>1</v>
-      </c>
-      <c r="I152" s="11"/>
-      <c r="J152" s="11"/>
-    </row>
-    <row r="153" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A153" s="11">
-        <v>10019</v>
-      </c>
-      <c r="B153" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="D153" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="E153" s="10">
-        <v>5001</v>
-      </c>
-      <c r="F153" s="10">
-        <v>5</v>
-      </c>
-      <c r="G153" s="10">
-        <v>16</v>
-      </c>
-      <c r="H153" s="10">
-        <v>1</v>
-      </c>
-      <c r="I153" s="11"/>
-      <c r="J153" s="11"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A154" s="11">
-        <v>10020</v>
-      </c>
-      <c r="B154" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="C154" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="D154" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E154" s="10">
-        <v>5001</v>
-      </c>
-      <c r="F154" s="10">
-        <v>5</v>
-      </c>
-      <c r="G154" s="10">
-        <v>17</v>
-      </c>
-      <c r="H154" s="10">
+      <c r="H154" s="13">
         <v>1</v>
       </c>
       <c r="I154" s="11"/>
       <c r="J154" s="11"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:10" ht="75" x14ac:dyDescent="0.4">
       <c r="A155" s="11">
-        <v>10021</v>
+        <v>10013</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="C155" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="D155" s="11" t="s">
-        <v>253</v>
+        <v>255</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D155" s="15" t="s">
+        <v>279</v>
       </c>
       <c r="E155" s="10">
         <v>5001</v>
@@ -6826,7 +6897,7 @@
         <v>5</v>
       </c>
       <c r="G155" s="10">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H155" s="10">
         <v>1</v>
@@ -6836,13 +6907,13 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A156" s="11">
-        <v>10022</v>
+        <v>10014</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C156" s="10" t="s">
-        <v>269</v>
+        <v>257</v>
+      </c>
+      <c r="C156" s="12" t="s">
+        <v>277</v>
       </c>
       <c r="D156" s="11" t="s">
         <v>253</v>
@@ -6854,7 +6925,7 @@
         <v>5</v>
       </c>
       <c r="G156" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H156" s="10">
         <v>1</v>
@@ -6864,13 +6935,13 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A157" s="11">
-        <v>10023</v>
+        <v>10015</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="D157" s="11" t="s">
         <v>253</v>
@@ -6882,7 +6953,7 @@
         <v>5</v>
       </c>
       <c r="G157" s="10">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H157" s="10">
         <v>1</v>
@@ -6892,13 +6963,13 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A158" s="11">
-        <v>10024</v>
+        <v>10016</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="C158" s="12" t="s">
-        <v>267</v>
+        <v>258</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>273</v>
       </c>
       <c r="D158" s="11" t="s">
         <v>253</v>
@@ -6910,7 +6981,7 @@
         <v>5</v>
       </c>
       <c r="G158" s="10">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H158" s="10">
         <v>1</v>
@@ -6919,28 +6990,252 @@
       <c r="J158" s="11"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A159">
+      <c r="A159" s="11">
+        <v>10017</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C159" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="D159" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E159" s="10">
+        <v>5001</v>
+      </c>
+      <c r="F159" s="10">
+        <v>5</v>
+      </c>
+      <c r="G159" s="10">
+        <v>20</v>
+      </c>
+      <c r="H159" s="10">
+        <v>1</v>
+      </c>
+      <c r="I159" s="11"/>
+      <c r="J159" s="11"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A160" s="11">
+        <v>10018</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C160" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="D160" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E160" s="10">
+        <v>5001</v>
+      </c>
+      <c r="F160" s="10">
+        <v>5</v>
+      </c>
+      <c r="G160" s="10">
+        <v>21</v>
+      </c>
+      <c r="H160" s="10">
+        <v>1</v>
+      </c>
+      <c r="I160" s="11"/>
+      <c r="J160" s="11"/>
+    </row>
+    <row r="161" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A161" s="11">
+        <v>10019</v>
+      </c>
+      <c r="B161" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="D161" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E161" s="10">
+        <v>5001</v>
+      </c>
+      <c r="F161" s="10">
+        <v>5</v>
+      </c>
+      <c r="G161" s="10">
+        <v>16</v>
+      </c>
+      <c r="H161" s="10">
+        <v>1</v>
+      </c>
+      <c r="I161" s="11"/>
+      <c r="J161" s="11"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A162" s="11">
+        <v>10020</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C162" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="D162" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E162" s="10">
+        <v>5001</v>
+      </c>
+      <c r="F162" s="10">
+        <v>5</v>
+      </c>
+      <c r="G162" s="10">
+        <v>17</v>
+      </c>
+      <c r="H162" s="10">
+        <v>1</v>
+      </c>
+      <c r="I162" s="11"/>
+      <c r="J162" s="11"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A163" s="11">
+        <v>10021</v>
+      </c>
+      <c r="B163" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C163" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="D163" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E163" s="10">
+        <v>5001</v>
+      </c>
+      <c r="F163" s="10">
+        <v>5</v>
+      </c>
+      <c r="G163" s="10">
+        <v>18</v>
+      </c>
+      <c r="H163" s="10">
+        <v>1</v>
+      </c>
+      <c r="I163" s="11"/>
+      <c r="J163" s="11"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A164" s="11">
+        <v>10022</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="D164" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E164" s="10">
+        <v>5001</v>
+      </c>
+      <c r="F164" s="10">
+        <v>5</v>
+      </c>
+      <c r="G164" s="10">
+        <v>13</v>
+      </c>
+      <c r="H164" s="10">
+        <v>1</v>
+      </c>
+      <c r="I164" s="11"/>
+      <c r="J164" s="11"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A165" s="11">
+        <v>10023</v>
+      </c>
+      <c r="B165" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C165" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="D165" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E165" s="10">
+        <v>5001</v>
+      </c>
+      <c r="F165" s="10">
+        <v>5</v>
+      </c>
+      <c r="G165" s="10">
+        <v>14</v>
+      </c>
+      <c r="H165" s="10">
+        <v>1</v>
+      </c>
+      <c r="I165" s="11"/>
+      <c r="J165" s="11"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A166" s="11">
+        <v>10024</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C166" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="D166" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E166" s="10">
+        <v>5001</v>
+      </c>
+      <c r="F166" s="10">
+        <v>5</v>
+      </c>
+      <c r="G166" s="10">
+        <v>15</v>
+      </c>
+      <c r="H166" s="10">
+        <v>1</v>
+      </c>
+      <c r="I166" s="11"/>
+      <c r="J166" s="11"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A167">
         <v>11001</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B167" t="s">
         <v>237</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C167" t="s">
         <v>211</v>
       </c>
-      <c r="D159" t="s">
-        <v>253</v>
-      </c>
-      <c r="E159">
+      <c r="D167" t="s">
+        <v>253</v>
+      </c>
+      <c r="E167">
         <v>5002</v>
       </c>
-      <c r="F159">
+      <c r="F167">
         <v>5</v>
       </c>
-      <c r="G159">
+      <c r="G167">
         <v>100</v>
       </c>
-      <c r="H159">
+      <c r="H167">
         <v>1</v>
       </c>
     </row>
@@ -7377,7 +7672,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91185E4-2C35-404C-9C66-7CEA4C61C7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B231E5-4C7A-4E44-991B-2816314B1F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="362">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1761,6 +1761,13 @@
   </si>
   <si>
     <t>木の階段・角</t>
+  </si>
+  <si>
+    <t>木の屋根・でっぱり角</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木の屋根・天角</t>
   </si>
 </sst>
 </file>
@@ -1974,14 +1981,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <b val="0"/>
@@ -2325,8 +2325,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:J167" totalsRowShown="0">
-  <autoFilter ref="A1:J167" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:J169" totalsRowShown="0">
+  <autoFilter ref="A1:J169" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Name"/>
@@ -2344,19 +2344,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0C7E9A28-2173-4BF1-8AB7-F8C134FC1E3E}" name="テーブル2" displayName="テーブル2" ref="A1:G13" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0C7E9A28-2173-4BF1-8AB7-F8C134FC1E3E}" name="テーブル2" displayName="テーブル2" ref="A1:G13" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
   <autoFilter ref="A1:G13" xr:uid="{0C7E9A28-2173-4BF1-8AB7-F8C134FC1E3E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
     <sortCondition ref="F1:F13"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{7799492D-CC63-4F76-87DC-E337C1061300}" name="10001" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{1F72F1EC-0212-4145-8F64-C43BFC5CEBBA}" name="木の剣" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{3C5513F2-DB12-4448-B9FA-3050FF42DE1A}" name="Textures/SwordObject_2d_001" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{A2E6C594-2057-4D30-BD29-A921FA9A62D8}" name="5001" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{A7A34E46-33F4-4F3D-A7BC-3F1342AE5B36}" name="5" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{41722DF1-B171-4F21-98B3-23A6EB2693BA}" name="1" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{09C82A1F-9964-4699-842D-07338319F805}" name="12" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{7799492D-CC63-4F76-87DC-E337C1061300}" name="10001" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{1F72F1EC-0212-4145-8F64-C43BFC5CEBBA}" name="木の剣" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{3C5513F2-DB12-4448-B9FA-3050FF42DE1A}" name="Textures/SwordObject_2d_001" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{A2E6C594-2057-4D30-BD29-A921FA9A62D8}" name="5001" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{A7A34E46-33F4-4F3D-A7BC-3F1342AE5B36}" name="5" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{41722DF1-B171-4F21-98B3-23A6EB2693BA}" name="1" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{09C82A1F-9964-4699-842D-07338319F805}" name="12" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2659,13 +2659,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:J167"/>
+  <dimension ref="A1:J169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L64" sqref="L64"/>
+      <selection pane="bottomRight" activeCell="N68" sqref="N68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4670,13 +4670,13 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>500</v>
-      </c>
-      <c r="B70" t="s">
-        <v>122</v>
+        <v>289</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>360</v>
       </c>
       <c r="C70" t="s">
-        <v>101</v>
+        <v>293</v>
       </c>
       <c r="D70" t="s">
         <v>253</v>
@@ -4688,7 +4688,7 @@
         <v>2</v>
       </c>
       <c r="G70">
-        <v>1500</v>
+        <v>1189</v>
       </c>
       <c r="H70">
         <v>9999</v>
@@ -4699,13 +4699,13 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>501</v>
-      </c>
-      <c r="B71" t="s">
-        <v>123</v>
+        <v>292</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>361</v>
       </c>
       <c r="C71" t="s">
-        <v>102</v>
+        <v>293</v>
       </c>
       <c r="D71" t="s">
         <v>253</v>
@@ -4717,7 +4717,7 @@
         <v>2</v>
       </c>
       <c r="G71">
-        <v>1501</v>
+        <v>1192</v>
       </c>
       <c r="H71">
         <v>9999</v>
@@ -4728,13 +4728,13 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B72" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C72" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D72" t="s">
         <v>253</v>
@@ -4746,7 +4746,7 @@
         <v>2</v>
       </c>
       <c r="G72">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="H72">
         <v>9999</v>
@@ -4757,13 +4757,13 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B73" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C73" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D73" t="s">
         <v>253</v>
@@ -4775,7 +4775,7 @@
         <v>2</v>
       </c>
       <c r="G73">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="H73">
         <v>9999</v>
@@ -4786,13 +4786,13 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B74" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C74" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D74" t="s">
         <v>253</v>
@@ -4804,7 +4804,7 @@
         <v>2</v>
       </c>
       <c r="G74">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="H74">
         <v>9999</v>
@@ -4815,13 +4815,13 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B75" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C75" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D75" t="s">
         <v>253</v>
@@ -4833,7 +4833,7 @@
         <v>2</v>
       </c>
       <c r="G75">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="H75">
         <v>9999</v>
@@ -4844,13 +4844,13 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B76" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C76" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D76" t="s">
         <v>253</v>
@@ -4862,7 +4862,7 @@
         <v>2</v>
       </c>
       <c r="G76">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="H76">
         <v>9999</v>
@@ -4873,13 +4873,13 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B77" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C77" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D77" t="s">
         <v>253</v>
@@ -4891,7 +4891,7 @@
         <v>2</v>
       </c>
       <c r="G77">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="H77">
         <v>9999</v>
@@ -4902,13 +4902,13 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B78" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C78" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D78" t="s">
         <v>253</v>
@@ -4920,7 +4920,7 @@
         <v>2</v>
       </c>
       <c r="G78">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="H78">
         <v>9999</v>
@@ -4931,13 +4931,13 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A79">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B79" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C79" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D79" t="s">
         <v>253</v>
@@ -4949,7 +4949,7 @@
         <v>2</v>
       </c>
       <c r="G79">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="H79">
         <v>9999</v>
@@ -4960,13 +4960,13 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>550</v>
+        <v>508</v>
       </c>
       <c r="B80" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="C80" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D80" t="s">
         <v>253</v>
@@ -4978,7 +4978,7 @@
         <v>2</v>
       </c>
       <c r="G80">
-        <v>1550</v>
+        <v>1508</v>
       </c>
       <c r="H80">
         <v>9999</v>
@@ -4989,13 +4989,13 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A81">
-        <v>551</v>
+        <v>509</v>
       </c>
       <c r="B81" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C81" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D81" t="s">
         <v>253</v>
@@ -5007,7 +5007,7 @@
         <v>2</v>
       </c>
       <c r="G81">
-        <v>1551</v>
+        <v>1509</v>
       </c>
       <c r="H81">
         <v>9999</v>
@@ -5018,13 +5018,13 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A82">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B82" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C82" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D82" t="s">
         <v>253</v>
@@ -5036,7 +5036,7 @@
         <v>2</v>
       </c>
       <c r="G82">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="H82">
         <v>9999</v>
@@ -5047,13 +5047,13 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A83">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B83" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C83" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D83" t="s">
         <v>253</v>
@@ -5065,7 +5065,7 @@
         <v>2</v>
       </c>
       <c r="G83">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="H83">
         <v>9999</v>
@@ -5076,13 +5076,13 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A84">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B84" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C84" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D84" t="s">
         <v>253</v>
@@ -5094,7 +5094,7 @@
         <v>2</v>
       </c>
       <c r="G84">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="H84">
         <v>9999</v>
@@ -5105,13 +5105,13 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A85">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B85" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C85" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D85" t="s">
         <v>253</v>
@@ -5123,7 +5123,7 @@
         <v>2</v>
       </c>
       <c r="G85">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="H85">
         <v>9999</v>
@@ -5134,13 +5134,13 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A86">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B86" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C86" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D86" t="s">
         <v>253</v>
@@ -5152,7 +5152,7 @@
         <v>2</v>
       </c>
       <c r="G86">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="H86">
         <v>9999</v>
@@ -5163,13 +5163,13 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A87">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B87" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C87" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D87" t="s">
         <v>253</v>
@@ -5181,7 +5181,7 @@
         <v>2</v>
       </c>
       <c r="G87">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="H87">
         <v>9999</v>
@@ -5192,13 +5192,13 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A88">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B88" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C88" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D88" t="s">
         <v>253</v>
@@ -5210,7 +5210,7 @@
         <v>2</v>
       </c>
       <c r="G88">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="H88">
         <v>9999</v>
@@ -5221,13 +5221,13 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A89">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B89" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C89" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D89" t="s">
         <v>253</v>
@@ -5239,7 +5239,7 @@
         <v>2</v>
       </c>
       <c r="G89">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="H89">
         <v>9999</v>
@@ -5250,25 +5250,25 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A90">
-        <v>600</v>
+        <v>558</v>
       </c>
       <c r="B90" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C90" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D90" t="s">
         <v>253</v>
       </c>
       <c r="E90">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="F90">
         <v>2</v>
       </c>
       <c r="G90">
-        <v>1600</v>
+        <v>1558</v>
       </c>
       <c r="H90">
         <v>9999</v>
@@ -5279,59 +5279,71 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A91">
-        <v>1001</v>
+        <v>559</v>
       </c>
       <c r="B91" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="C91" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="D91" t="s">
         <v>253</v>
       </c>
       <c r="E91">
-        <v>2</v>
+        <v>3001</v>
       </c>
       <c r="F91">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G91">
+        <v>1559</v>
       </c>
       <c r="H91">
         <v>9999</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A92">
-        <v>1002</v>
+        <v>600</v>
       </c>
       <c r="B92" t="s">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="C92" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="D92" t="s">
         <v>253</v>
       </c>
       <c r="E92">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="F92">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G92">
+        <v>1600</v>
       </c>
       <c r="H92">
         <v>9999</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A93">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C93" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D93" t="s">
         <v>253</v>
@@ -5348,13 +5360,13 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A94">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B94" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C94" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D94" t="s">
         <v>253</v>
@@ -5371,13 +5383,13 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A95">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B95" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C95" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D95" t="s">
         <v>253</v>
@@ -5394,13 +5406,13 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A96">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B96" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C96" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D96" t="s">
         <v>253</v>
@@ -5417,13 +5429,13 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B97" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C97" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D97" t="s">
         <v>253</v>
@@ -5440,13 +5452,13 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A98">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B98" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C98" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D98" t="s">
         <v>253</v>
@@ -5463,13 +5475,13 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A99">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B99" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C99" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D99" t="s">
         <v>253</v>
@@ -5486,13 +5498,13 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A100">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B100" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C100" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D100" t="s">
         <v>253</v>
@@ -5509,13 +5521,13 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A101">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B101" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C101" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D101" t="s">
         <v>253</v>
@@ -5532,13 +5544,13 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A102">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B102" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C102" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D102" t="s">
         <v>253</v>
@@ -5555,13 +5567,13 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A103">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B103" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C103" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D103" t="s">
         <v>253</v>
@@ -5578,13 +5590,13 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A104">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B104" t="s">
-        <v>328</v>
+        <v>43</v>
       </c>
       <c r="C104" t="s">
-        <v>314</v>
+        <v>61</v>
       </c>
       <c r="D104" t="s">
         <v>253</v>
@@ -5601,13 +5613,13 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A105">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B105" t="s">
-        <v>329</v>
+        <v>44</v>
       </c>
       <c r="C105" t="s">
-        <v>315</v>
+        <v>62</v>
       </c>
       <c r="D105" t="s">
         <v>253</v>
@@ -5624,13 +5636,13 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A106">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B106" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C106" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D106" t="s">
         <v>253</v>
@@ -5647,13 +5659,13 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A107">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B107" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C107" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D107" t="s">
         <v>253</v>
@@ -5670,13 +5682,13 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A108">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B108" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C108" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D108" t="s">
         <v>253</v>
@@ -5693,13 +5705,13 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A109">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B109" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C109" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D109" t="s">
         <v>253</v>
@@ -5716,13 +5728,13 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A110">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B110" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C110" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D110" t="s">
         <v>253</v>
@@ -5739,13 +5751,13 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A111">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B111" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C111" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D111" t="s">
         <v>253</v>
@@ -5762,13 +5774,13 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A112">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B112" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C112" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D112" t="s">
         <v>253</v>
@@ -5785,13 +5797,13 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A113">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B113" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C113" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D113" t="s">
         <v>253</v>
@@ -5808,13 +5820,13 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A114">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B114" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C114" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D114" t="s">
         <v>253</v>
@@ -5831,13 +5843,13 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A115">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B115" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C115" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D115" t="s">
         <v>253</v>
@@ -5854,13 +5866,13 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A116">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B116" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C116" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D116" t="s">
         <v>253</v>
@@ -5877,13 +5889,13 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A117">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B117" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C117" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D117" t="s">
         <v>253</v>
@@ -5900,71 +5912,65 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A118">
-        <v>3000</v>
+        <v>1026</v>
       </c>
       <c r="B118" t="s">
-        <v>4</v>
+        <v>340</v>
       </c>
       <c r="C118" t="s">
-        <v>6</v>
+        <v>326</v>
       </c>
       <c r="D118" t="s">
         <v>253</v>
       </c>
       <c r="E118">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F118">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H118">
-        <v>1</v>
-      </c>
-      <c r="J118">
-        <v>1</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A119">
-        <v>3001</v>
+        <v>1027</v>
       </c>
       <c r="B119" t="s">
-        <v>63</v>
+        <v>341</v>
       </c>
       <c r="C119" t="s">
-        <v>64</v>
+        <v>327</v>
       </c>
       <c r="D119" t="s">
         <v>253</v>
       </c>
       <c r="E119">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="F119">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H119">
         <v>9999</v>
-      </c>
-      <c r="J119">
-        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A120">
-        <v>3002</v>
+        <v>3000</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C120" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="D120" t="s">
         <v>253</v>
       </c>
       <c r="E120">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="F120">
         <v>4</v>
@@ -5972,34 +5978,28 @@
       <c r="H120">
         <v>1</v>
       </c>
-      <c r="I120">
-        <v>1</v>
-      </c>
       <c r="J120">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A121">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="B121" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="C121" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="D121" t="s">
         <v>253</v>
       </c>
       <c r="E121">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F121">
-        <v>2</v>
-      </c>
-      <c r="G121">
-        <v>6000</v>
+        <v>4</v>
       </c>
       <c r="H121">
         <v>9999</v>
@@ -6010,28 +6010,28 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A122">
-        <v>7016</v>
+        <v>3002</v>
       </c>
       <c r="B122" t="s">
-        <v>205</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>201</v>
+        <v>65</v>
       </c>
       <c r="D122" t="s">
         <v>253</v>
       </c>
       <c r="E122">
-        <v>3001</v>
+        <v>52</v>
       </c>
       <c r="F122">
-        <v>2</v>
-      </c>
-      <c r="G122">
-        <v>7016</v>
+        <v>4</v>
       </c>
       <c r="H122">
-        <v>9999</v>
+        <v>1</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
       </c>
       <c r="J122">
         <v>1</v>
@@ -6039,25 +6039,25 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A123">
-        <v>7017</v>
+        <v>3003</v>
       </c>
       <c r="B123" t="s">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c r="C123" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="D123" t="s">
         <v>253</v>
       </c>
       <c r="E123">
-        <v>3001</v>
+        <v>53</v>
       </c>
       <c r="F123">
         <v>2</v>
       </c>
       <c r="G123">
-        <v>7017</v>
+        <v>6000</v>
       </c>
       <c r="H123">
         <v>9999</v>
@@ -6068,13 +6068,13 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A124">
-        <v>7018</v>
+        <v>7016</v>
       </c>
       <c r="B124" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="C124" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="D124" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>2</v>
       </c>
       <c r="G124">
-        <v>7018</v>
+        <v>7016</v>
       </c>
       <c r="H124">
         <v>9999</v>
@@ -6097,13 +6097,13 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A125">
-        <v>7019</v>
+        <v>7017</v>
       </c>
       <c r="B125" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="C125" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="D125" t="s">
         <v>253</v>
@@ -6115,7 +6115,7 @@
         <v>2</v>
       </c>
       <c r="G125">
-        <v>7019</v>
+        <v>7017</v>
       </c>
       <c r="H125">
         <v>9999</v>
@@ -6126,13 +6126,13 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A126">
-        <v>7020</v>
+        <v>7018</v>
       </c>
       <c r="B126" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C126" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D126" t="s">
         <v>253</v>
@@ -6144,7 +6144,7 @@
         <v>2</v>
       </c>
       <c r="G126">
-        <v>7020</v>
+        <v>7018</v>
       </c>
       <c r="H126">
         <v>9999</v>
@@ -6155,13 +6155,13 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A127">
-        <v>7021</v>
+        <v>7019</v>
       </c>
       <c r="B127" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C127" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D127" t="s">
         <v>253</v>
@@ -6173,7 +6173,7 @@
         <v>2</v>
       </c>
       <c r="G127">
-        <v>7021</v>
+        <v>7019</v>
       </c>
       <c r="H127">
         <v>9999</v>
@@ -6184,13 +6184,13 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A128">
-        <v>7022</v>
+        <v>7020</v>
       </c>
       <c r="B128" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C128" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D128" t="s">
         <v>253</v>
@@ -6202,7 +6202,7 @@
         <v>2</v>
       </c>
       <c r="G128">
-        <v>7022</v>
+        <v>7020</v>
       </c>
       <c r="H128">
         <v>9999</v>
@@ -6213,13 +6213,13 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A129">
-        <v>7023</v>
+        <v>7021</v>
       </c>
       <c r="B129" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C129" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D129" t="s">
         <v>253</v>
@@ -6231,7 +6231,7 @@
         <v>2</v>
       </c>
       <c r="G129">
-        <v>7023</v>
+        <v>7021</v>
       </c>
       <c r="H129">
         <v>9999</v>
@@ -6242,13 +6242,13 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A130">
-        <v>7024</v>
+        <v>7022</v>
       </c>
       <c r="B130" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C130" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D130" t="s">
         <v>253</v>
@@ -6260,7 +6260,7 @@
         <v>2</v>
       </c>
       <c r="G130">
-        <v>7024</v>
+        <v>7022</v>
       </c>
       <c r="H130">
         <v>9999</v>
@@ -6271,13 +6271,13 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A131">
-        <v>7025</v>
+        <v>7023</v>
       </c>
       <c r="B131" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C131" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D131" t="s">
         <v>253</v>
@@ -6289,7 +6289,7 @@
         <v>2</v>
       </c>
       <c r="G131">
-        <v>7025</v>
+        <v>7023</v>
       </c>
       <c r="H131">
         <v>9999</v>
@@ -6300,13 +6300,13 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A132">
-        <v>7026</v>
+        <v>7024</v>
       </c>
       <c r="B132" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C132" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D132" t="s">
         <v>253</v>
@@ -6318,7 +6318,7 @@
         <v>2</v>
       </c>
       <c r="G132">
-        <v>7026</v>
+        <v>7024</v>
       </c>
       <c r="H132">
         <v>9999</v>
@@ -6329,13 +6329,13 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A133">
-        <v>7027</v>
+        <v>7025</v>
       </c>
       <c r="B133" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C133" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D133" t="s">
         <v>253</v>
@@ -6347,7 +6347,7 @@
         <v>2</v>
       </c>
       <c r="G133">
-        <v>7027</v>
+        <v>7025</v>
       </c>
       <c r="H133">
         <v>9999</v>
@@ -6358,13 +6358,13 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A134">
-        <v>7028</v>
+        <v>7026</v>
       </c>
       <c r="B134" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C134" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D134" t="s">
         <v>253</v>
@@ -6376,7 +6376,7 @@
         <v>2</v>
       </c>
       <c r="G134">
-        <v>7028</v>
+        <v>7026</v>
       </c>
       <c r="H134">
         <v>9999</v>
@@ -6387,13 +6387,13 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A135">
-        <v>7029</v>
+        <v>7027</v>
       </c>
       <c r="B135" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C135" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D135" t="s">
         <v>253</v>
@@ -6405,7 +6405,7 @@
         <v>2</v>
       </c>
       <c r="G135">
-        <v>7029</v>
+        <v>7027</v>
       </c>
       <c r="H135">
         <v>9999</v>
@@ -6416,13 +6416,13 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A136">
-        <v>7030</v>
+        <v>7028</v>
       </c>
       <c r="B136" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C136" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D136" t="s">
         <v>253</v>
@@ -6434,7 +6434,7 @@
         <v>2</v>
       </c>
       <c r="G136">
-        <v>7030</v>
+        <v>7028</v>
       </c>
       <c r="H136">
         <v>9999</v>
@@ -6445,99 +6445,117 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A137">
-        <v>9000</v>
+        <v>7029</v>
       </c>
       <c r="B137" t="s">
-        <v>68</v>
+        <v>194</v>
       </c>
       <c r="C137" t="s">
-        <v>66</v>
+        <v>199</v>
       </c>
       <c r="D137" t="s">
         <v>253</v>
       </c>
       <c r="E137">
-        <v>90</v>
+        <v>3001</v>
+      </c>
+      <c r="F137">
+        <v>2</v>
+      </c>
+      <c r="G137">
+        <v>7029</v>
       </c>
       <c r="H137">
-        <v>9999999</v>
+        <v>9999</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A138">
-        <v>9001</v>
+        <v>7030</v>
       </c>
       <c r="B138" t="s">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="C138" t="s">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="D138" t="s">
         <v>253</v>
       </c>
       <c r="E138">
-        <v>91</v>
+        <v>3001</v>
+      </c>
+      <c r="F138">
+        <v>2</v>
+      </c>
+      <c r="G138">
+        <v>7030</v>
       </c>
       <c r="H138">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" ht="75" x14ac:dyDescent="0.4">
+        <v>9999</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A139">
-        <v>9002</v>
+        <v>9000</v>
       </c>
       <c r="B139" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C139" t="s">
-        <v>72</v>
-      </c>
-      <c r="D139" s="14" t="s">
-        <v>283</v>
+        <v>66</v>
+      </c>
+      <c r="D139" t="s">
+        <v>253</v>
       </c>
       <c r="E139">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H139">
         <v>9999999</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="75" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A140">
-        <v>9003</v>
+        <v>9001</v>
       </c>
       <c r="B140" t="s">
-        <v>212</v>
+        <v>69</v>
       </c>
       <c r="C140" t="s">
-        <v>207</v>
-      </c>
-      <c r="D140" s="14" t="s">
-        <v>281</v>
+        <v>67</v>
+      </c>
+      <c r="D140" t="s">
+        <v>253</v>
       </c>
       <c r="E140">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H140">
         <v>9999999</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:10" ht="75" x14ac:dyDescent="0.4">
       <c r="A141">
-        <v>9004</v>
+        <v>9002</v>
       </c>
       <c r="B141" t="s">
-        <v>208</v>
+        <v>70</v>
       </c>
       <c r="C141" t="s">
-        <v>209</v>
-      </c>
-      <c r="D141" t="s">
-        <v>253</v>
+        <v>72</v>
+      </c>
+      <c r="D141" s="14" t="s">
+        <v>283</v>
       </c>
       <c r="E141">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H141">
         <v>9999999</v>
@@ -6545,111 +6563,99 @@
     </row>
     <row r="142" spans="1:10" ht="75" x14ac:dyDescent="0.4">
       <c r="A142">
-        <v>9005</v>
+        <v>9003</v>
       </c>
       <c r="B142" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C142" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E142">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H142">
         <v>9999999</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A143" s="9">
-        <v>10001</v>
-      </c>
-      <c r="B143" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="D143" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E143" s="10">
-        <v>5001</v>
-      </c>
-      <c r="F143" s="10">
-        <v>5</v>
-      </c>
-      <c r="G143" s="10">
-        <v>1</v>
-      </c>
-      <c r="H143" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A144" s="9">
-        <v>10002</v>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="C144" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="D144" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E144" s="12">
-        <v>5001</v>
-      </c>
-      <c r="F144" s="12">
-        <v>5</v>
-      </c>
-      <c r="G144" s="12">
-        <v>2</v>
-      </c>
-      <c r="H144" s="12">
-        <v>1</v>
+      <c r="A143">
+        <v>9004</v>
+      </c>
+      <c r="B143" t="s">
+        <v>208</v>
+      </c>
+      <c r="C143" t="s">
+        <v>209</v>
+      </c>
+      <c r="D143" t="s">
+        <v>253</v>
+      </c>
+      <c r="E143">
+        <v>94</v>
+      </c>
+      <c r="H143">
+        <v>9999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="75" x14ac:dyDescent="0.4">
+      <c r="A144">
+        <v>9005</v>
+      </c>
+      <c r="B144" t="s">
+        <v>210</v>
+      </c>
+      <c r="C144" t="s">
+        <v>211</v>
+      </c>
+      <c r="D144" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="E144">
+        <v>95</v>
+      </c>
+      <c r="H144">
+        <v>9999999</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A145" s="9">
-        <v>10003</v>
-      </c>
-      <c r="B145" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="C145" s="12" t="s">
-        <v>221</v>
+        <v>10001</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>220</v>
       </c>
       <c r="D145" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="E145" s="12">
+      <c r="E145" s="10">
         <v>5001</v>
       </c>
-      <c r="F145" s="12">
+      <c r="F145" s="10">
         <v>5</v>
       </c>
-      <c r="G145" s="12">
-        <v>3</v>
-      </c>
-      <c r="H145" s="12">
+      <c r="G145" s="10">
+        <v>1</v>
+      </c>
+      <c r="H145" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A146" s="9">
-        <v>10004</v>
-      </c>
-      <c r="B146" s="12" t="s">
-        <v>238</v>
+        <v>10002</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>214</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D146" s="11" t="s">
         <v>253</v>
@@ -6661,7 +6667,7 @@
         <v>5</v>
       </c>
       <c r="G146" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H146" s="12">
         <v>1</v>
@@ -6669,13 +6675,13 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A147" s="9">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D147" s="11" t="s">
         <v>253</v>
@@ -6687,7 +6693,7 @@
         <v>5</v>
       </c>
       <c r="G147" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H147" s="12">
         <v>1</v>
@@ -6695,13 +6701,13 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A148" s="9">
-        <v>10006</v>
+        <v>10004</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D148" s="11" t="s">
         <v>253</v>
@@ -6713,7 +6719,7 @@
         <v>5</v>
       </c>
       <c r="G148" s="12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H148" s="12">
         <v>1</v>
@@ -6721,13 +6727,13 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A149" s="9">
-        <v>10007</v>
+        <v>10005</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D149" s="11" t="s">
         <v>253</v>
@@ -6739,7 +6745,7 @@
         <v>5</v>
       </c>
       <c r="G149" s="12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H149" s="12">
         <v>1</v>
@@ -6747,13 +6753,13 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A150" s="9">
-        <v>10008</v>
+        <v>10006</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D150" s="11" t="s">
         <v>253</v>
@@ -6765,7 +6771,7 @@
         <v>5</v>
       </c>
       <c r="G150" s="12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H150" s="12">
         <v>1</v>
@@ -6773,13 +6779,13 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A151" s="9">
-        <v>10009</v>
+        <v>10007</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D151" s="11" t="s">
         <v>253</v>
@@ -6791,7 +6797,7 @@
         <v>5</v>
       </c>
       <c r="G151" s="12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H151" s="12">
         <v>1</v>
@@ -6799,13 +6805,13 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A152" s="9">
-        <v>10010</v>
+        <v>10008</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D152" s="11" t="s">
         <v>253</v>
@@ -6817,7 +6823,7 @@
         <v>5</v>
       </c>
       <c r="G152" s="12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H152" s="12">
         <v>1</v>
@@ -6825,126 +6831,122 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A153" s="9">
-        <v>10011</v>
-      </c>
-      <c r="B153" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="C153" s="13" t="s">
-        <v>219</v>
+        <v>10009</v>
+      </c>
+      <c r="B153" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C153" s="12" t="s">
+        <v>225</v>
       </c>
       <c r="D153" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="E153" s="13">
+      <c r="E153" s="12">
         <v>5001</v>
       </c>
-      <c r="F153" s="13">
+      <c r="F153" s="12">
         <v>5</v>
       </c>
-      <c r="G153" s="13">
-        <v>11</v>
-      </c>
-      <c r="H153" s="13">
+      <c r="G153" s="12">
+        <v>9</v>
+      </c>
+      <c r="H153" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A154" s="9">
+        <v>10010</v>
+      </c>
+      <c r="B154" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C154" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E154" s="12">
+        <v>5001</v>
+      </c>
+      <c r="F154" s="12">
+        <v>5</v>
+      </c>
+      <c r="G154" s="12">
+        <v>10</v>
+      </c>
+      <c r="H154" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A155" s="9">
+        <v>10011</v>
+      </c>
+      <c r="B155" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="C155" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="D155" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E155" s="13">
+        <v>5001</v>
+      </c>
+      <c r="F155" s="13">
+        <v>5</v>
+      </c>
+      <c r="G155" s="13">
+        <v>11</v>
+      </c>
+      <c r="H155" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A156" s="9">
         <v>10012</v>
       </c>
-      <c r="B154" s="13" t="s">
+      <c r="B156" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="C154" s="13" t="s">
+      <c r="C156" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="D154" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E154" s="13">
+      <c r="D156" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E156" s="13">
         <v>5001</v>
       </c>
-      <c r="F154" s="13">
+      <c r="F156" s="13">
         <v>5</v>
       </c>
-      <c r="G154" s="13">
+      <c r="G156" s="13">
         <v>12</v>
       </c>
-      <c r="H154" s="13">
-        <v>1</v>
-      </c>
-      <c r="I154" s="11"/>
-      <c r="J154" s="11"/>
-    </row>
-    <row r="155" spans="1:10" ht="75" x14ac:dyDescent="0.4">
-      <c r="A155" s="11">
-        <v>10013</v>
-      </c>
-      <c r="B155" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="C155" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="D155" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="E155" s="10">
-        <v>5001</v>
-      </c>
-      <c r="F155" s="10">
-        <v>5</v>
-      </c>
-      <c r="G155" s="10">
-        <v>22</v>
-      </c>
-      <c r="H155" s="10">
-        <v>1</v>
-      </c>
-      <c r="I155" s="11"/>
-      <c r="J155" s="11"/>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A156" s="11">
-        <v>10014</v>
-      </c>
-      <c r="B156" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="C156" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="D156" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E156" s="10">
-        <v>5001</v>
-      </c>
-      <c r="F156" s="10">
-        <v>5</v>
-      </c>
-      <c r="G156" s="10">
-        <v>23</v>
-      </c>
-      <c r="H156" s="10">
+      <c r="H156" s="13">
         <v>1</v>
       </c>
       <c r="I156" s="11"/>
       <c r="J156" s="11"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:10" ht="75" x14ac:dyDescent="0.4">
       <c r="A157" s="11">
-        <v>10015</v>
+        <v>10013</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="C157" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="D157" s="11" t="s">
-        <v>253</v>
+        <v>255</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D157" s="15" t="s">
+        <v>279</v>
       </c>
       <c r="E157" s="10">
         <v>5001</v>
@@ -6953,7 +6955,7 @@
         <v>5</v>
       </c>
       <c r="G157" s="10">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H157" s="10">
         <v>1</v>
@@ -6963,13 +6965,13 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A158" s="11">
-        <v>10016</v>
+        <v>10014</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>273</v>
+        <v>257</v>
+      </c>
+      <c r="C158" s="12" t="s">
+        <v>277</v>
       </c>
       <c r="D158" s="11" t="s">
         <v>253</v>
@@ -6981,7 +6983,7 @@
         <v>5</v>
       </c>
       <c r="G158" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H158" s="10">
         <v>1</v>
@@ -6991,13 +6993,13 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A159" s="11">
-        <v>10017</v>
+        <v>10015</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D159" s="11" t="s">
         <v>253</v>
@@ -7009,7 +7011,7 @@
         <v>5</v>
       </c>
       <c r="G159" s="10">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H159" s="10">
         <v>1</v>
@@ -7019,13 +7021,13 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A160" s="11">
-        <v>10018</v>
+        <v>10016</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="C160" s="12" t="s">
-        <v>275</v>
+        <v>258</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>273</v>
       </c>
       <c r="D160" s="11" t="s">
         <v>253</v>
@@ -7037,7 +7039,7 @@
         <v>5</v>
       </c>
       <c r="G160" s="10">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H160" s="10">
         <v>1</v>
@@ -7045,18 +7047,18 @@
       <c r="I160" s="11"/>
       <c r="J160" s="11"/>
     </row>
-    <row r="161" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A161" s="11">
-        <v>10019</v>
+        <v>10017</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="C161" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="D161" s="15" t="s">
-        <v>280</v>
+        <v>260</v>
+      </c>
+      <c r="C161" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="D161" s="11" t="s">
+        <v>253</v>
       </c>
       <c r="E161" s="10">
         <v>5001</v>
@@ -7065,7 +7067,7 @@
         <v>5</v>
       </c>
       <c r="G161" s="10">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H161" s="10">
         <v>1</v>
@@ -7075,13 +7077,13 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A162" s="11">
-        <v>10020</v>
+        <v>10018</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D162" s="11" t="s">
         <v>253</v>
@@ -7093,7 +7095,7 @@
         <v>5</v>
       </c>
       <c r="G162" s="10">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H162" s="10">
         <v>1</v>
@@ -7101,18 +7103,18 @@
       <c r="I162" s="11"/>
       <c r="J162" s="11"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A163" s="11">
-        <v>10021</v>
+        <v>10019</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="C163" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="D163" s="11" t="s">
-        <v>253</v>
+        <v>261</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="D163" s="15" t="s">
+        <v>280</v>
       </c>
       <c r="E163" s="10">
         <v>5001</v>
@@ -7121,7 +7123,7 @@
         <v>5</v>
       </c>
       <c r="G163" s="10">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H163" s="10">
         <v>1</v>
@@ -7131,13 +7133,13 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A164" s="11">
-        <v>10022</v>
+        <v>10020</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C164" s="10" t="s">
-        <v>269</v>
+        <v>263</v>
+      </c>
+      <c r="C164" s="12" t="s">
+        <v>271</v>
       </c>
       <c r="D164" s="11" t="s">
         <v>253</v>
@@ -7149,7 +7151,7 @@
         <v>5</v>
       </c>
       <c r="G164" s="10">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H164" s="10">
         <v>1</v>
@@ -7159,13 +7161,13 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A165" s="11">
-        <v>10023</v>
+        <v>10021</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D165" s="11" t="s">
         <v>253</v>
@@ -7177,7 +7179,7 @@
         <v>5</v>
       </c>
       <c r="G165" s="10">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H165" s="10">
         <v>1</v>
@@ -7187,13 +7189,13 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A166" s="11">
-        <v>10024</v>
+        <v>10022</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="C166" s="12" t="s">
-        <v>267</v>
+        <v>262</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>269</v>
       </c>
       <c r="D166" s="11" t="s">
         <v>253</v>
@@ -7205,7 +7207,7 @@
         <v>5</v>
       </c>
       <c r="G166" s="10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H166" s="10">
         <v>1</v>
@@ -7214,28 +7216,84 @@
       <c r="J166" s="11"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A167">
+      <c r="A167" s="11">
+        <v>10023</v>
+      </c>
+      <c r="B167" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C167" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="D167" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E167" s="10">
+        <v>5001</v>
+      </c>
+      <c r="F167" s="10">
+        <v>5</v>
+      </c>
+      <c r="G167" s="10">
+        <v>14</v>
+      </c>
+      <c r="H167" s="10">
+        <v>1</v>
+      </c>
+      <c r="I167" s="11"/>
+      <c r="J167" s="11"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A168" s="11">
+        <v>10024</v>
+      </c>
+      <c r="B168" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C168" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="D168" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E168" s="10">
+        <v>5001</v>
+      </c>
+      <c r="F168" s="10">
+        <v>5</v>
+      </c>
+      <c r="G168" s="10">
+        <v>15</v>
+      </c>
+      <c r="H168" s="10">
+        <v>1</v>
+      </c>
+      <c r="I168" s="11"/>
+      <c r="J168" s="11"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A169">
         <v>11001</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B169" t="s">
         <v>237</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C169" t="s">
         <v>211</v>
       </c>
-      <c r="D167" t="s">
-        <v>253</v>
-      </c>
-      <c r="E167">
+      <c r="D169" t="s">
+        <v>253</v>
+      </c>
+      <c r="E169">
         <v>5002</v>
       </c>
-      <c r="F167">
+      <c r="F169">
         <v>5</v>
       </c>
-      <c r="G167">
+      <c r="G169">
         <v>100</v>
       </c>
-      <c r="H167">
+      <c r="H169">
         <v>1</v>
       </c>
     </row>
@@ -7672,7 +7730,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B231E5-4C7A-4E44-991B-2816314B1F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2844E241-35FF-482F-8C3D-422F997BDE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="367">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1763,11 +1763,25 @@
     <t>木の階段・角</t>
   </si>
   <si>
-    <t>木の屋根・でっぱり角</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>木の屋根・天角</t>
+    <t>青石の屋根</t>
+  </si>
+  <si>
+    <t>青石の屋根・でっぱり角</t>
+  </si>
+  <si>
+    <t>木の屋根・ひっこみ角</t>
+  </si>
+  <si>
+    <t>青石の屋根・ひっこみ角</t>
+  </si>
+  <si>
+    <t>青石の屋根・天板</t>
+  </si>
+  <si>
+    <t>木の屋根・かざり</t>
+  </si>
+  <si>
+    <t>青石の屋根・かざり</t>
   </si>
 </sst>
 </file>
@@ -1981,7 +1995,28 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2325,8 +2360,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:J169" totalsRowShown="0">
-  <autoFilter ref="A1:J169" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:J174" totalsRowShown="0">
+  <autoFilter ref="A1:J174" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Name"/>
@@ -2344,19 +2379,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0C7E9A28-2173-4BF1-8AB7-F8C134FC1E3E}" name="テーブル2" displayName="テーブル2" ref="A1:G13" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0C7E9A28-2173-4BF1-8AB7-F8C134FC1E3E}" name="テーブル2" displayName="テーブル2" ref="A1:G13" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
   <autoFilter ref="A1:G13" xr:uid="{0C7E9A28-2173-4BF1-8AB7-F8C134FC1E3E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
     <sortCondition ref="F1:F13"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{7799492D-CC63-4F76-87DC-E337C1061300}" name="10001" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{1F72F1EC-0212-4145-8F64-C43BFC5CEBBA}" name="木の剣" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{3C5513F2-DB12-4448-B9FA-3050FF42DE1A}" name="Textures/SwordObject_2d_001" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{A2E6C594-2057-4D30-BD29-A921FA9A62D8}" name="5001" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{A7A34E46-33F4-4F3D-A7BC-3F1342AE5B36}" name="5" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{41722DF1-B171-4F21-98B3-23A6EB2693BA}" name="1" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{09C82A1F-9964-4699-842D-07338319F805}" name="12" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{7799492D-CC63-4F76-87DC-E337C1061300}" name="10001" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{1F72F1EC-0212-4145-8F64-C43BFC5CEBBA}" name="木の剣" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{3C5513F2-DB12-4448-B9FA-3050FF42DE1A}" name="Textures/SwordObject_2d_001" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{A2E6C594-2057-4D30-BD29-A921FA9A62D8}" name="5001" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{A7A34E46-33F4-4F3D-A7BC-3F1342AE5B36}" name="5" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{41722DF1-B171-4F21-98B3-23A6EB2693BA}" name="1" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{09C82A1F-9964-4699-842D-07338319F805}" name="12" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2659,13 +2694,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:J169"/>
+  <dimension ref="A1:J174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N68" sqref="N68"/>
+      <selection pane="bottomRight" activeCell="L72" sqref="L72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4670,7 +4705,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>360</v>
@@ -4688,7 +4723,7 @@
         <v>2</v>
       </c>
       <c r="G70">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="H70">
         <v>9999</v>
@@ -4699,7 +4734,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>361</v>
@@ -4717,7 +4752,7 @@
         <v>2</v>
       </c>
       <c r="G71">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="H71">
         <v>9999</v>
@@ -4728,13 +4763,13 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>500</v>
-      </c>
-      <c r="B72" t="s">
-        <v>122</v>
+        <v>289</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>362</v>
       </c>
       <c r="C72" t="s">
-        <v>101</v>
+        <v>293</v>
       </c>
       <c r="D72" t="s">
         <v>253</v>
@@ -4746,7 +4781,7 @@
         <v>2</v>
       </c>
       <c r="G72">
-        <v>1500</v>
+        <v>1189</v>
       </c>
       <c r="H72">
         <v>9999</v>
@@ -4757,13 +4792,13 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>501</v>
-      </c>
-      <c r="B73" t="s">
-        <v>123</v>
+        <v>290</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>363</v>
       </c>
       <c r="C73" t="s">
-        <v>102</v>
+        <v>293</v>
       </c>
       <c r="D73" t="s">
         <v>253</v>
@@ -4775,7 +4810,7 @@
         <v>2</v>
       </c>
       <c r="G73">
-        <v>1501</v>
+        <v>1190</v>
       </c>
       <c r="H73">
         <v>9999</v>
@@ -4786,25 +4821,25 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>502</v>
-      </c>
-      <c r="B74" t="s">
-        <v>124</v>
+        <v>291</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>364</v>
       </c>
       <c r="C74" t="s">
-        <v>103</v>
+        <v>293</v>
       </c>
       <c r="D74" t="s">
         <v>253</v>
       </c>
       <c r="E74">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="F74">
         <v>2</v>
       </c>
       <c r="G74">
-        <v>1502</v>
+        <v>1191</v>
       </c>
       <c r="H74">
         <v>9999</v>
@@ -4815,13 +4850,13 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>503</v>
-      </c>
-      <c r="B75" t="s">
-        <v>125</v>
+        <v>292</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>365</v>
       </c>
       <c r="C75" t="s">
-        <v>104</v>
+        <v>293</v>
       </c>
       <c r="D75" t="s">
         <v>253</v>
@@ -4833,7 +4868,7 @@
         <v>2</v>
       </c>
       <c r="G75">
-        <v>1503</v>
+        <v>1192</v>
       </c>
       <c r="H75">
         <v>9999</v>
@@ -4844,13 +4879,13 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>504</v>
-      </c>
-      <c r="B76" t="s">
-        <v>126</v>
+        <v>293</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>366</v>
       </c>
       <c r="C76" t="s">
-        <v>105</v>
+        <v>293</v>
       </c>
       <c r="D76" t="s">
         <v>253</v>
@@ -4862,7 +4897,7 @@
         <v>2</v>
       </c>
       <c r="G76">
-        <v>1504</v>
+        <v>1193</v>
       </c>
       <c r="H76">
         <v>9999</v>
@@ -4873,13 +4908,13 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B77" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C77" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D77" t="s">
         <v>253</v>
@@ -4891,7 +4926,7 @@
         <v>2</v>
       </c>
       <c r="G77">
-        <v>1505</v>
+        <v>1500</v>
       </c>
       <c r="H77">
         <v>9999</v>
@@ -4902,13 +4937,13 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B78" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C78" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D78" t="s">
         <v>253</v>
@@ -4920,7 +4955,7 @@
         <v>2</v>
       </c>
       <c r="G78">
-        <v>1506</v>
+        <v>1501</v>
       </c>
       <c r="H78">
         <v>9999</v>
@@ -4931,13 +4966,13 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A79">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B79" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C79" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D79" t="s">
         <v>253</v>
@@ -4949,7 +4984,7 @@
         <v>2</v>
       </c>
       <c r="G79">
-        <v>1507</v>
+        <v>1502</v>
       </c>
       <c r="H79">
         <v>9999</v>
@@ -4960,13 +4995,13 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B80" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C80" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D80" t="s">
         <v>253</v>
@@ -4978,7 +5013,7 @@
         <v>2</v>
       </c>
       <c r="G80">
-        <v>1508</v>
+        <v>1503</v>
       </c>
       <c r="H80">
         <v>9999</v>
@@ -4989,13 +5024,13 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A81">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B81" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C81" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D81" t="s">
         <v>253</v>
@@ -5007,7 +5042,7 @@
         <v>2</v>
       </c>
       <c r="G81">
-        <v>1509</v>
+        <v>1504</v>
       </c>
       <c r="H81">
         <v>9999</v>
@@ -5018,13 +5053,13 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A82">
-        <v>550</v>
+        <v>505</v>
       </c>
       <c r="B82" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C82" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D82" t="s">
         <v>253</v>
@@ -5036,7 +5071,7 @@
         <v>2</v>
       </c>
       <c r="G82">
-        <v>1550</v>
+        <v>1505</v>
       </c>
       <c r="H82">
         <v>9999</v>
@@ -5047,13 +5082,13 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A83">
-        <v>551</v>
+        <v>506</v>
       </c>
       <c r="B83" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C83" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D83" t="s">
         <v>253</v>
@@ -5065,7 +5100,7 @@
         <v>2</v>
       </c>
       <c r="G83">
-        <v>1551</v>
+        <v>1506</v>
       </c>
       <c r="H83">
         <v>9999</v>
@@ -5076,13 +5111,13 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A84">
-        <v>552</v>
+        <v>507</v>
       </c>
       <c r="B84" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C84" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D84" t="s">
         <v>253</v>
@@ -5094,7 +5129,7 @@
         <v>2</v>
       </c>
       <c r="G84">
-        <v>1552</v>
+        <v>1507</v>
       </c>
       <c r="H84">
         <v>9999</v>
@@ -5105,13 +5140,13 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A85">
-        <v>553</v>
+        <v>508</v>
       </c>
       <c r="B85" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C85" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D85" t="s">
         <v>253</v>
@@ -5123,7 +5158,7 @@
         <v>2</v>
       </c>
       <c r="G85">
-        <v>1553</v>
+        <v>1508</v>
       </c>
       <c r="H85">
         <v>9999</v>
@@ -5134,13 +5169,13 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A86">
-        <v>554</v>
+        <v>509</v>
       </c>
       <c r="B86" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C86" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D86" t="s">
         <v>253</v>
@@ -5152,7 +5187,7 @@
         <v>2</v>
       </c>
       <c r="G86">
-        <v>1554</v>
+        <v>1509</v>
       </c>
       <c r="H86">
         <v>9999</v>
@@ -5163,13 +5198,13 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A87">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B87" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C87" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D87" t="s">
         <v>253</v>
@@ -5181,7 +5216,7 @@
         <v>2</v>
       </c>
       <c r="G87">
-        <v>1555</v>
+        <v>1550</v>
       </c>
       <c r="H87">
         <v>9999</v>
@@ -5192,13 +5227,13 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A88">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B88" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C88" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D88" t="s">
         <v>253</v>
@@ -5210,7 +5245,7 @@
         <v>2</v>
       </c>
       <c r="G88">
-        <v>1556</v>
+        <v>1551</v>
       </c>
       <c r="H88">
         <v>9999</v>
@@ -5221,13 +5256,13 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A89">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="B89" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C89" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D89" t="s">
         <v>253</v>
@@ -5239,7 +5274,7 @@
         <v>2</v>
       </c>
       <c r="G89">
-        <v>1557</v>
+        <v>1552</v>
       </c>
       <c r="H89">
         <v>9999</v>
@@ -5250,13 +5285,13 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A90">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B90" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C90" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D90" t="s">
         <v>253</v>
@@ -5268,7 +5303,7 @@
         <v>2</v>
       </c>
       <c r="G90">
-        <v>1558</v>
+        <v>1553</v>
       </c>
       <c r="H90">
         <v>9999</v>
@@ -5279,13 +5314,13 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A91">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B91" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C91" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D91" t="s">
         <v>253</v>
@@ -5297,7 +5332,7 @@
         <v>2</v>
       </c>
       <c r="G91">
-        <v>1559</v>
+        <v>1554</v>
       </c>
       <c r="H91">
         <v>9999</v>
@@ -5308,25 +5343,25 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A92">
-        <v>600</v>
+        <v>555</v>
       </c>
       <c r="B92" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C92" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D92" t="s">
         <v>253</v>
       </c>
       <c r="E92">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="F92">
         <v>2</v>
       </c>
       <c r="G92">
-        <v>1600</v>
+        <v>1555</v>
       </c>
       <c r="H92">
         <v>9999</v>
@@ -5337,128 +5372,158 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A93">
-        <v>1001</v>
+        <v>556</v>
       </c>
       <c r="B93" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="C93" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="D93" t="s">
         <v>253</v>
       </c>
       <c r="E93">
-        <v>2</v>
+        <v>3001</v>
       </c>
       <c r="F93">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G93">
+        <v>1556</v>
       </c>
       <c r="H93">
         <v>9999</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A94">
-        <v>1002</v>
+        <v>557</v>
       </c>
       <c r="B94" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="C94" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="D94" t="s">
         <v>253</v>
       </c>
       <c r="E94">
-        <v>2</v>
+        <v>3001</v>
       </c>
       <c r="F94">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G94">
+        <v>1557</v>
       </c>
       <c r="H94">
         <v>9999</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A95">
-        <v>1003</v>
+        <v>558</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="C95" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="D95" t="s">
         <v>253</v>
       </c>
       <c r="E95">
-        <v>2</v>
+        <v>3001</v>
       </c>
       <c r="F95">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G95">
+        <v>1558</v>
       </c>
       <c r="H95">
         <v>9999</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A96">
-        <v>1004</v>
+        <v>559</v>
       </c>
       <c r="B96" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="C96" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="D96" t="s">
         <v>253</v>
       </c>
       <c r="E96">
-        <v>2</v>
+        <v>3001</v>
       </c>
       <c r="F96">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G96">
+        <v>1559</v>
       </c>
       <c r="H96">
         <v>9999</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A97">
-        <v>1005</v>
+        <v>600</v>
       </c>
       <c r="B97" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="C97" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="D97" t="s">
         <v>253</v>
       </c>
       <c r="E97">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="F97">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G97">
+        <v>1600</v>
       </c>
       <c r="H97">
         <v>9999</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A98">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="B98" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C98" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D98" t="s">
         <v>253</v>
@@ -5473,15 +5538,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A99">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="B99" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C99" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D99" t="s">
         <v>253</v>
@@ -5496,15 +5561,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A100">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="B100" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C100" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D100" t="s">
         <v>253</v>
@@ -5519,15 +5584,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A101">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="B101" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C101" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D101" t="s">
         <v>253</v>
@@ -5542,15 +5607,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A102">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="B102" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C102" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D102" t="s">
         <v>253</v>
@@ -5565,15 +5630,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A103">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="B103" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C103" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D103" t="s">
         <v>253</v>
@@ -5588,15 +5653,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A104">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="B104" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C104" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D104" t="s">
         <v>253</v>
@@ -5611,15 +5676,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A105">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="B105" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C105" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D105" t="s">
         <v>253</v>
@@ -5634,15 +5699,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A106">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="B106" t="s">
-        <v>328</v>
+        <v>40</v>
       </c>
       <c r="C106" t="s">
-        <v>314</v>
+        <v>58</v>
       </c>
       <c r="D106" t="s">
         <v>253</v>
@@ -5657,15 +5722,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A107">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="B107" t="s">
-        <v>329</v>
+        <v>41</v>
       </c>
       <c r="C107" t="s">
-        <v>315</v>
+        <v>59</v>
       </c>
       <c r="D107" t="s">
         <v>253</v>
@@ -5680,15 +5745,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A108">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="B108" t="s">
-        <v>330</v>
+        <v>42</v>
       </c>
       <c r="C108" t="s">
-        <v>316</v>
+        <v>60</v>
       </c>
       <c r="D108" t="s">
         <v>253</v>
@@ -5703,15 +5768,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A109">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="B109" t="s">
-        <v>331</v>
+        <v>43</v>
       </c>
       <c r="C109" t="s">
-        <v>317</v>
+        <v>61</v>
       </c>
       <c r="D109" t="s">
         <v>253</v>
@@ -5726,15 +5791,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A110">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="B110" t="s">
-        <v>332</v>
+        <v>44</v>
       </c>
       <c r="C110" t="s">
-        <v>318</v>
+        <v>62</v>
       </c>
       <c r="D110" t="s">
         <v>253</v>
@@ -5749,15 +5814,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A111">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="B111" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C111" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D111" t="s">
         <v>253</v>
@@ -5772,15 +5837,15 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A112">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="B112" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C112" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D112" t="s">
         <v>253</v>
@@ -5797,13 +5862,13 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A113">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="B113" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C113" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D113" t="s">
         <v>253</v>
@@ -5820,13 +5885,13 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A114">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="B114" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C114" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D114" t="s">
         <v>253</v>
@@ -5843,13 +5908,13 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A115">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="B115" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C115" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D115" t="s">
         <v>253</v>
@@ -5866,13 +5931,13 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A116">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="B116" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C116" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D116" t="s">
         <v>253</v>
@@ -5889,13 +5954,13 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A117">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="B117" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C117" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D117" t="s">
         <v>253</v>
@@ -5912,13 +5977,13 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A118">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="B118" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C118" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D118" t="s">
         <v>253</v>
@@ -5935,13 +6000,13 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A119">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="B119" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C119" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D119" t="s">
         <v>253</v>
@@ -5958,167 +6023,140 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A120">
-        <v>3000</v>
+        <v>1023</v>
       </c>
       <c r="B120" t="s">
-        <v>4</v>
+        <v>337</v>
       </c>
       <c r="C120" t="s">
-        <v>6</v>
+        <v>323</v>
       </c>
       <c r="D120" t="s">
         <v>253</v>
       </c>
       <c r="E120">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F120">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H120">
-        <v>1</v>
-      </c>
-      <c r="J120">
-        <v>1</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A121">
-        <v>3001</v>
+        <v>1024</v>
       </c>
       <c r="B121" t="s">
-        <v>63</v>
+        <v>338</v>
       </c>
       <c r="C121" t="s">
-        <v>64</v>
+        <v>324</v>
       </c>
       <c r="D121" t="s">
         <v>253</v>
       </c>
       <c r="E121">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="F121">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H121">
         <v>9999</v>
-      </c>
-      <c r="J121">
-        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A122">
-        <v>3002</v>
+        <v>1025</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>339</v>
       </c>
       <c r="C122" t="s">
-        <v>65</v>
+        <v>325</v>
       </c>
       <c r="D122" t="s">
         <v>253</v>
       </c>
       <c r="E122">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="F122">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H122">
-        <v>1</v>
-      </c>
-      <c r="I122">
-        <v>1</v>
-      </c>
-      <c r="J122">
-        <v>1</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A123">
-        <v>3003</v>
+        <v>1026</v>
       </c>
       <c r="B123" t="s">
-        <v>157</v>
+        <v>340</v>
       </c>
       <c r="C123" t="s">
-        <v>158</v>
+        <v>326</v>
       </c>
       <c r="D123" t="s">
         <v>253</v>
       </c>
       <c r="E123">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="F123">
-        <v>2</v>
-      </c>
-      <c r="G123">
-        <v>6000</v>
+        <v>3</v>
       </c>
       <c r="H123">
         <v>9999</v>
-      </c>
-      <c r="J123">
-        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A124">
-        <v>7016</v>
+        <v>1027</v>
       </c>
       <c r="B124" t="s">
-        <v>205</v>
+        <v>341</v>
       </c>
       <c r="C124" t="s">
-        <v>201</v>
+        <v>327</v>
       </c>
       <c r="D124" t="s">
         <v>253</v>
       </c>
       <c r="E124">
-        <v>3001</v>
+        <v>2</v>
       </c>
       <c r="F124">
-        <v>2</v>
-      </c>
-      <c r="G124">
-        <v>7016</v>
+        <v>3</v>
       </c>
       <c r="H124">
         <v>9999</v>
-      </c>
-      <c r="J124">
-        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A125">
-        <v>7017</v>
+        <v>3000</v>
       </c>
       <c r="B125" t="s">
-        <v>206</v>
+        <v>4</v>
       </c>
       <c r="C125" t="s">
-        <v>202</v>
+        <v>6</v>
       </c>
       <c r="D125" t="s">
         <v>253</v>
       </c>
       <c r="E125">
-        <v>3001</v>
+        <v>100</v>
       </c>
       <c r="F125">
-        <v>2</v>
-      </c>
-      <c r="G125">
-        <v>7017</v>
+        <v>4</v>
       </c>
       <c r="H125">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="J125">
         <v>1</v>
@@ -6126,25 +6164,22 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A126">
-        <v>7018</v>
+        <v>3001</v>
       </c>
       <c r="B126" t="s">
-        <v>175</v>
+        <v>63</v>
       </c>
       <c r="C126" t="s">
-        <v>176</v>
+        <v>64</v>
       </c>
       <c r="D126" t="s">
         <v>253</v>
       </c>
       <c r="E126">
-        <v>3001</v>
+        <v>51</v>
       </c>
       <c r="F126">
-        <v>2</v>
-      </c>
-      <c r="G126">
-        <v>7018</v>
+        <v>4</v>
       </c>
       <c r="H126">
         <v>9999</v>
@@ -6155,28 +6190,28 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A127">
-        <v>7019</v>
+        <v>3002</v>
       </c>
       <c r="B127" t="s">
-        <v>177</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>178</v>
+        <v>65</v>
       </c>
       <c r="D127" t="s">
         <v>253</v>
       </c>
       <c r="E127">
-        <v>3001</v>
+        <v>52</v>
       </c>
       <c r="F127">
-        <v>2</v>
-      </c>
-      <c r="G127">
-        <v>7019</v>
+        <v>4</v>
       </c>
       <c r="H127">
-        <v>9999</v>
+        <v>1</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
       </c>
       <c r="J127">
         <v>1</v>
@@ -6184,25 +6219,25 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A128">
-        <v>7020</v>
+        <v>3003</v>
       </c>
       <c r="B128" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="C128" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="D128" t="s">
         <v>253</v>
       </c>
       <c r="E128">
-        <v>3001</v>
+        <v>53</v>
       </c>
       <c r="F128">
         <v>2</v>
       </c>
       <c r="G128">
-        <v>7020</v>
+        <v>6000</v>
       </c>
       <c r="H128">
         <v>9999</v>
@@ -6213,13 +6248,13 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A129">
-        <v>7021</v>
+        <v>7016</v>
       </c>
       <c r="B129" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="C129" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="D129" t="s">
         <v>253</v>
@@ -6231,7 +6266,7 @@
         <v>2</v>
       </c>
       <c r="G129">
-        <v>7021</v>
+        <v>7016</v>
       </c>
       <c r="H129">
         <v>9999</v>
@@ -6242,13 +6277,13 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A130">
-        <v>7022</v>
+        <v>7017</v>
       </c>
       <c r="B130" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="C130" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="D130" t="s">
         <v>253</v>
@@ -6260,7 +6295,7 @@
         <v>2</v>
       </c>
       <c r="G130">
-        <v>7022</v>
+        <v>7017</v>
       </c>
       <c r="H130">
         <v>9999</v>
@@ -6271,13 +6306,13 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A131">
-        <v>7023</v>
+        <v>7018</v>
       </c>
       <c r="B131" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="C131" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D131" t="s">
         <v>253</v>
@@ -6289,7 +6324,7 @@
         <v>2</v>
       </c>
       <c r="G131">
-        <v>7023</v>
+        <v>7018</v>
       </c>
       <c r="H131">
         <v>9999</v>
@@ -6300,13 +6335,13 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A132">
-        <v>7024</v>
+        <v>7019</v>
       </c>
       <c r="B132" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C132" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D132" t="s">
         <v>253</v>
@@ -6318,7 +6353,7 @@
         <v>2</v>
       </c>
       <c r="G132">
-        <v>7024</v>
+        <v>7019</v>
       </c>
       <c r="H132">
         <v>9999</v>
@@ -6329,13 +6364,13 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A133">
-        <v>7025</v>
+        <v>7020</v>
       </c>
       <c r="B133" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C133" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D133" t="s">
         <v>253</v>
@@ -6347,7 +6382,7 @@
         <v>2</v>
       </c>
       <c r="G133">
-        <v>7025</v>
+        <v>7020</v>
       </c>
       <c r="H133">
         <v>9999</v>
@@ -6358,13 +6393,13 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A134">
-        <v>7026</v>
+        <v>7021</v>
       </c>
       <c r="B134" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C134" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="D134" t="s">
         <v>253</v>
@@ -6376,7 +6411,7 @@
         <v>2</v>
       </c>
       <c r="G134">
-        <v>7026</v>
+        <v>7021</v>
       </c>
       <c r="H134">
         <v>9999</v>
@@ -6387,13 +6422,13 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A135">
-        <v>7027</v>
+        <v>7022</v>
       </c>
       <c r="B135" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C135" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="D135" t="s">
         <v>253</v>
@@ -6405,7 +6440,7 @@
         <v>2</v>
       </c>
       <c r="G135">
-        <v>7027</v>
+        <v>7022</v>
       </c>
       <c r="H135">
         <v>9999</v>
@@ -6416,13 +6451,13 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A136">
-        <v>7028</v>
+        <v>7023</v>
       </c>
       <c r="B136" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C136" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="D136" t="s">
         <v>253</v>
@@ -6434,7 +6469,7 @@
         <v>2</v>
       </c>
       <c r="G136">
-        <v>7028</v>
+        <v>7023</v>
       </c>
       <c r="H136">
         <v>9999</v>
@@ -6445,13 +6480,13 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A137">
-        <v>7029</v>
+        <v>7024</v>
       </c>
       <c r="B137" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C137" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="D137" t="s">
         <v>253</v>
@@ -6463,7 +6498,7 @@
         <v>2</v>
       </c>
       <c r="G137">
-        <v>7029</v>
+        <v>7024</v>
       </c>
       <c r="H137">
         <v>9999</v>
@@ -6474,13 +6509,13 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A138">
-        <v>7030</v>
+        <v>7025</v>
       </c>
       <c r="B138" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C138" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="D138" t="s">
         <v>253</v>
@@ -6492,7 +6527,7 @@
         <v>2</v>
       </c>
       <c r="G138">
-        <v>7030</v>
+        <v>7025</v>
       </c>
       <c r="H138">
         <v>9999</v>
@@ -6503,289 +6538,304 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A139">
-        <v>9000</v>
+        <v>7026</v>
       </c>
       <c r="B139" t="s">
-        <v>68</v>
+        <v>191</v>
       </c>
       <c r="C139" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="D139" t="s">
         <v>253</v>
       </c>
       <c r="E139">
-        <v>90</v>
+        <v>3001</v>
+      </c>
+      <c r="F139">
+        <v>2</v>
+      </c>
+      <c r="G139">
+        <v>7026</v>
       </c>
       <c r="H139">
-        <v>9999999</v>
+        <v>9999</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A140">
-        <v>9001</v>
+        <v>7027</v>
       </c>
       <c r="B140" t="s">
-        <v>69</v>
+        <v>192</v>
       </c>
       <c r="C140" t="s">
-        <v>67</v>
+        <v>197</v>
       </c>
       <c r="D140" t="s">
         <v>253</v>
       </c>
       <c r="E140">
-        <v>91</v>
+        <v>3001</v>
+      </c>
+      <c r="F140">
+        <v>2</v>
+      </c>
+      <c r="G140">
+        <v>7027</v>
       </c>
       <c r="H140">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" ht="75" x14ac:dyDescent="0.4">
+        <v>9999</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A141">
-        <v>9002</v>
+        <v>7028</v>
       </c>
       <c r="B141" t="s">
-        <v>70</v>
+        <v>193</v>
       </c>
       <c r="C141" t="s">
-        <v>72</v>
-      </c>
-      <c r="D141" s="14" t="s">
-        <v>283</v>
+        <v>198</v>
+      </c>
+      <c r="D141" t="s">
+        <v>253</v>
       </c>
       <c r="E141">
-        <v>92</v>
+        <v>3001</v>
+      </c>
+      <c r="F141">
+        <v>2</v>
+      </c>
+      <c r="G141">
+        <v>7028</v>
       </c>
       <c r="H141">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" ht="75" x14ac:dyDescent="0.4">
+        <v>9999</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A142">
-        <v>9003</v>
+        <v>7029</v>
       </c>
       <c r="B142" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="C142" t="s">
-        <v>207</v>
-      </c>
-      <c r="D142" s="14" t="s">
-        <v>281</v>
+        <v>199</v>
+      </c>
+      <c r="D142" t="s">
+        <v>253</v>
       </c>
       <c r="E142">
-        <v>93</v>
+        <v>3001</v>
+      </c>
+      <c r="F142">
+        <v>2</v>
+      </c>
+      <c r="G142">
+        <v>7029</v>
       </c>
       <c r="H142">
-        <v>9999999</v>
+        <v>9999</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A143">
-        <v>9004</v>
+        <v>7030</v>
       </c>
       <c r="B143" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="C143" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D143" t="s">
         <v>253</v>
       </c>
       <c r="E143">
-        <v>94</v>
+        <v>3001</v>
+      </c>
+      <c r="F143">
+        <v>2</v>
+      </c>
+      <c r="G143">
+        <v>7030</v>
       </c>
       <c r="H143">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" ht="75" x14ac:dyDescent="0.4">
+        <v>9999</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A144">
-        <v>9005</v>
+        <v>9000</v>
       </c>
       <c r="B144" t="s">
-        <v>210</v>
+        <v>68</v>
       </c>
       <c r="C144" t="s">
-        <v>211</v>
-      </c>
-      <c r="D144" s="14" t="s">
-        <v>282</v>
+        <v>66</v>
+      </c>
+      <c r="D144" t="s">
+        <v>253</v>
       </c>
       <c r="E144">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H144">
         <v>9999999</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A145" s="9">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A145">
+        <v>9001</v>
+      </c>
+      <c r="B145" t="s">
+        <v>69</v>
+      </c>
+      <c r="C145" t="s">
+        <v>67</v>
+      </c>
+      <c r="D145" t="s">
+        <v>253</v>
+      </c>
+      <c r="E145">
+        <v>91</v>
+      </c>
+      <c r="H145">
+        <v>9999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="75" x14ac:dyDescent="0.4">
+      <c r="A146">
+        <v>9002</v>
+      </c>
+      <c r="B146" t="s">
+        <v>70</v>
+      </c>
+      <c r="C146" t="s">
+        <v>72</v>
+      </c>
+      <c r="D146" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="E146">
+        <v>92</v>
+      </c>
+      <c r="H146">
+        <v>9999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="75" x14ac:dyDescent="0.4">
+      <c r="A147">
+        <v>9003</v>
+      </c>
+      <c r="B147" t="s">
+        <v>212</v>
+      </c>
+      <c r="C147" t="s">
+        <v>207</v>
+      </c>
+      <c r="D147" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="E147">
+        <v>93</v>
+      </c>
+      <c r="H147">
+        <v>9999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A148">
+        <v>9004</v>
+      </c>
+      <c r="B148" t="s">
+        <v>208</v>
+      </c>
+      <c r="C148" t="s">
+        <v>209</v>
+      </c>
+      <c r="D148" t="s">
+        <v>253</v>
+      </c>
+      <c r="E148">
+        <v>94</v>
+      </c>
+      <c r="H148">
+        <v>9999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="75" x14ac:dyDescent="0.4">
+      <c r="A149">
+        <v>9005</v>
+      </c>
+      <c r="B149" t="s">
+        <v>210</v>
+      </c>
+      <c r="C149" t="s">
+        <v>211</v>
+      </c>
+      <c r="D149" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="E149">
+        <v>95</v>
+      </c>
+      <c r="H149">
+        <v>9999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A150" s="9">
         <v>10001</v>
       </c>
-      <c r="B145" s="10" t="s">
+      <c r="B150" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="C145" s="10" t="s">
+      <c r="C150" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="D145" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E145" s="10">
+      <c r="D150" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E150" s="10">
         <v>5001</v>
       </c>
-      <c r="F145" s="10">
+      <c r="F150" s="10">
         <v>5</v>
       </c>
-      <c r="G145" s="10">
-        <v>1</v>
-      </c>
-      <c r="H145" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A146" s="9">
+      <c r="G150" s="10">
+        <v>1</v>
+      </c>
+      <c r="H150" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A151" s="9">
         <v>10002</v>
       </c>
-      <c r="B146" s="9" t="s">
+      <c r="B151" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C146" s="12" t="s">
+      <c r="C151" s="12" t="s">
         <v>217</v>
-      </c>
-      <c r="D146" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E146" s="12">
-        <v>5001</v>
-      </c>
-      <c r="F146" s="12">
-        <v>5</v>
-      </c>
-      <c r="G146" s="12">
-        <v>2</v>
-      </c>
-      <c r="H146" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A147" s="9">
-        <v>10003</v>
-      </c>
-      <c r="B147" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="C147" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="D147" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E147" s="12">
-        <v>5001</v>
-      </c>
-      <c r="F147" s="12">
-        <v>5</v>
-      </c>
-      <c r="G147" s="12">
-        <v>3</v>
-      </c>
-      <c r="H147" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A148" s="9">
-        <v>10004</v>
-      </c>
-      <c r="B148" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="C148" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="D148" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E148" s="12">
-        <v>5001</v>
-      </c>
-      <c r="F148" s="12">
-        <v>5</v>
-      </c>
-      <c r="G148" s="12">
-        <v>4</v>
-      </c>
-      <c r="H148" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A149" s="9">
-        <v>10005</v>
-      </c>
-      <c r="B149" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="C149" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="D149" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E149" s="12">
-        <v>5001</v>
-      </c>
-      <c r="F149" s="12">
-        <v>5</v>
-      </c>
-      <c r="G149" s="12">
-        <v>5</v>
-      </c>
-      <c r="H149" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A150" s="9">
-        <v>10006</v>
-      </c>
-      <c r="B150" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="C150" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="D150" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E150" s="12">
-        <v>5001</v>
-      </c>
-      <c r="F150" s="12">
-        <v>5</v>
-      </c>
-      <c r="G150" s="12">
-        <v>6</v>
-      </c>
-      <c r="H150" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A151" s="9">
-        <v>10007</v>
-      </c>
-      <c r="B151" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="C151" s="12" t="s">
-        <v>224</v>
       </c>
       <c r="D151" s="11" t="s">
         <v>253</v>
@@ -6797,21 +6847,21 @@
         <v>5</v>
       </c>
       <c r="G151" s="12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H151" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A152" s="9">
-        <v>10008</v>
+        <v>10003</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D152" s="11" t="s">
         <v>253</v>
@@ -6823,21 +6873,21 @@
         <v>5</v>
       </c>
       <c r="G152" s="12">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H152" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A153" s="9">
-        <v>10009</v>
+        <v>10004</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D153" s="11" t="s">
         <v>253</v>
@@ -6849,21 +6899,21 @@
         <v>5</v>
       </c>
       <c r="G153" s="12">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H153" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A154" s="9">
-        <v>10010</v>
+        <v>10005</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D154" s="11" t="s">
         <v>253</v>
@@ -6875,218 +6925,208 @@
         <v>5</v>
       </c>
       <c r="G154" s="12">
+        <v>5</v>
+      </c>
+      <c r="H154" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A155" s="9">
+        <v>10006</v>
+      </c>
+      <c r="B155" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C155" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D155" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E155" s="12">
+        <v>5001</v>
+      </c>
+      <c r="F155" s="12">
+        <v>5</v>
+      </c>
+      <c r="G155" s="12">
+        <v>6</v>
+      </c>
+      <c r="H155" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A156" s="9">
+        <v>10007</v>
+      </c>
+      <c r="B156" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C156" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D156" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E156" s="12">
+        <v>5001</v>
+      </c>
+      <c r="F156" s="12">
+        <v>5</v>
+      </c>
+      <c r="G156" s="12">
+        <v>7</v>
+      </c>
+      <c r="H156" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A157" s="9">
+        <v>10008</v>
+      </c>
+      <c r="B157" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C157" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D157" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E157" s="12">
+        <v>5001</v>
+      </c>
+      <c r="F157" s="12">
+        <v>5</v>
+      </c>
+      <c r="G157" s="12">
+        <v>8</v>
+      </c>
+      <c r="H157" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A158" s="9">
+        <v>10009</v>
+      </c>
+      <c r="B158" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C158" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D158" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E158" s="12">
+        <v>5001</v>
+      </c>
+      <c r="F158" s="12">
+        <v>5</v>
+      </c>
+      <c r="G158" s="12">
+        <v>9</v>
+      </c>
+      <c r="H158" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A159" s="9">
+        <v>10010</v>
+      </c>
+      <c r="B159" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C159" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D159" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E159" s="12">
+        <v>5001</v>
+      </c>
+      <c r="F159" s="12">
+        <v>5</v>
+      </c>
+      <c r="G159" s="12">
         <v>10</v>
       </c>
-      <c r="H154" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A155" s="9">
+      <c r="H159" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A160" s="9">
         <v>10011</v>
       </c>
-      <c r="B155" s="13" t="s">
+      <c r="B160" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="C155" s="13" t="s">
+      <c r="C160" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="D155" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E155" s="13">
+      <c r="D160" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E160" s="13">
         <v>5001</v>
       </c>
-      <c r="F155" s="13">
+      <c r="F160" s="13">
         <v>5</v>
       </c>
-      <c r="G155" s="13">
+      <c r="G160" s="13">
         <v>11</v>
       </c>
-      <c r="H155" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A156" s="9">
+      <c r="H160" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A161" s="9">
         <v>10012</v>
       </c>
-      <c r="B156" s="13" t="s">
+      <c r="B161" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="C156" s="13" t="s">
+      <c r="C161" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="D156" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E156" s="13">
+      <c r="D161" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E161" s="13">
         <v>5001</v>
       </c>
-      <c r="F156" s="13">
+      <c r="F161" s="13">
         <v>5</v>
       </c>
-      <c r="G156" s="13">
+      <c r="G161" s="13">
         <v>12</v>
       </c>
-      <c r="H156" s="13">
-        <v>1</v>
-      </c>
-      <c r="I156" s="11"/>
-      <c r="J156" s="11"/>
-    </row>
-    <row r="157" spans="1:10" ht="75" x14ac:dyDescent="0.4">
-      <c r="A157" s="11">
-        <v>10013</v>
-      </c>
-      <c r="B157" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="C157" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="D157" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="E157" s="10">
-        <v>5001</v>
-      </c>
-      <c r="F157" s="10">
-        <v>5</v>
-      </c>
-      <c r="G157" s="10">
-        <v>22</v>
-      </c>
-      <c r="H157" s="10">
-        <v>1</v>
-      </c>
-      <c r="I157" s="11"/>
-      <c r="J157" s="11"/>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A158" s="11">
-        <v>10014</v>
-      </c>
-      <c r="B158" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="C158" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="D158" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E158" s="10">
-        <v>5001</v>
-      </c>
-      <c r="F158" s="10">
-        <v>5</v>
-      </c>
-      <c r="G158" s="10">
-        <v>23</v>
-      </c>
-      <c r="H158" s="10">
-        <v>1</v>
-      </c>
-      <c r="I158" s="11"/>
-      <c r="J158" s="11"/>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A159" s="11">
-        <v>10015</v>
-      </c>
-      <c r="B159" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="C159" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="D159" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E159" s="10">
-        <v>5001</v>
-      </c>
-      <c r="F159" s="10">
-        <v>5</v>
-      </c>
-      <c r="G159" s="10">
-        <v>24</v>
-      </c>
-      <c r="H159" s="10">
-        <v>1</v>
-      </c>
-      <c r="I159" s="11"/>
-      <c r="J159" s="11"/>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A160" s="11">
-        <v>10016</v>
-      </c>
-      <c r="B160" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="C160" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="D160" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E160" s="10">
-        <v>5001</v>
-      </c>
-      <c r="F160" s="10">
-        <v>5</v>
-      </c>
-      <c r="G160" s="10">
-        <v>19</v>
-      </c>
-      <c r="H160" s="10">
-        <v>1</v>
-      </c>
-      <c r="I160" s="11"/>
-      <c r="J160" s="11"/>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A161" s="11">
-        <v>10017</v>
-      </c>
-      <c r="B161" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="C161" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="D161" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E161" s="10">
-        <v>5001</v>
-      </c>
-      <c r="F161" s="10">
-        <v>5</v>
-      </c>
-      <c r="G161" s="10">
-        <v>20</v>
-      </c>
-      <c r="H161" s="10">
+      <c r="H161" s="13">
         <v>1</v>
       </c>
       <c r="I161" s="11"/>
       <c r="J161" s="11"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:10" ht="75" x14ac:dyDescent="0.4">
       <c r="A162" s="11">
-        <v>10018</v>
+        <v>10013</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="C162" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="D162" s="11" t="s">
-        <v>253</v>
+        <v>255</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D162" s="15" t="s">
+        <v>279</v>
       </c>
       <c r="E162" s="10">
         <v>5001</v>
@@ -7095,7 +7135,7 @@
         <v>5</v>
       </c>
       <c r="G162" s="10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H162" s="10">
         <v>1</v>
@@ -7103,18 +7143,18 @@
       <c r="I162" s="11"/>
       <c r="J162" s="11"/>
     </row>
-    <row r="163" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A163" s="11">
-        <v>10019</v>
+        <v>10014</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="C163" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="D163" s="15" t="s">
-        <v>280</v>
+        <v>257</v>
+      </c>
+      <c r="C163" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D163" s="11" t="s">
+        <v>253</v>
       </c>
       <c r="E163" s="10">
         <v>5001</v>
@@ -7123,7 +7163,7 @@
         <v>5</v>
       </c>
       <c r="G163" s="10">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H163" s="10">
         <v>1</v>
@@ -7133,13 +7173,13 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A164" s="11">
-        <v>10020</v>
+        <v>10015</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="D164" s="11" t="s">
         <v>253</v>
@@ -7151,7 +7191,7 @@
         <v>5</v>
       </c>
       <c r="G164" s="10">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H164" s="10">
         <v>1</v>
@@ -7161,13 +7201,13 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A165" s="11">
-        <v>10021</v>
+        <v>10016</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="C165" s="12" t="s">
-        <v>272</v>
+        <v>258</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>273</v>
       </c>
       <c r="D165" s="11" t="s">
         <v>253</v>
@@ -7179,7 +7219,7 @@
         <v>5</v>
       </c>
       <c r="G165" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H165" s="10">
         <v>1</v>
@@ -7189,13 +7229,13 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A166" s="11">
-        <v>10022</v>
+        <v>10017</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C166" s="10" t="s">
-        <v>269</v>
+        <v>260</v>
+      </c>
+      <c r="C166" s="12" t="s">
+        <v>274</v>
       </c>
       <c r="D166" s="11" t="s">
         <v>253</v>
@@ -7207,7 +7247,7 @@
         <v>5</v>
       </c>
       <c r="G166" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H166" s="10">
         <v>1</v>
@@ -7217,13 +7257,13 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A167" s="11">
-        <v>10023</v>
+        <v>10018</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="D167" s="11" t="s">
         <v>253</v>
@@ -7235,7 +7275,7 @@
         <v>5</v>
       </c>
       <c r="G167" s="10">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H167" s="10">
         <v>1</v>
@@ -7243,18 +7283,18 @@
       <c r="I167" s="11"/>
       <c r="J167" s="11"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A168" s="11">
-        <v>10024</v>
+        <v>10019</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="C168" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="D168" s="11" t="s">
-        <v>253</v>
+        <v>261</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="D168" s="15" t="s">
+        <v>280</v>
       </c>
       <c r="E168" s="10">
         <v>5001</v>
@@ -7263,7 +7303,7 @@
         <v>5</v>
       </c>
       <c r="G168" s="10">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H168" s="10">
         <v>1</v>
@@ -7272,28 +7312,168 @@
       <c r="J168" s="11"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A169">
+      <c r="A169" s="11">
+        <v>10020</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C169" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="D169" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E169" s="10">
+        <v>5001</v>
+      </c>
+      <c r="F169" s="10">
+        <v>5</v>
+      </c>
+      <c r="G169" s="10">
+        <v>17</v>
+      </c>
+      <c r="H169" s="10">
+        <v>1</v>
+      </c>
+      <c r="I169" s="11"/>
+      <c r="J169" s="11"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A170" s="11">
+        <v>10021</v>
+      </c>
+      <c r="B170" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C170" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="D170" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E170" s="10">
+        <v>5001</v>
+      </c>
+      <c r="F170" s="10">
+        <v>5</v>
+      </c>
+      <c r="G170" s="10">
+        <v>18</v>
+      </c>
+      <c r="H170" s="10">
+        <v>1</v>
+      </c>
+      <c r="I170" s="11"/>
+      <c r="J170" s="11"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A171" s="11">
+        <v>10022</v>
+      </c>
+      <c r="B171" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="D171" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E171" s="10">
+        <v>5001</v>
+      </c>
+      <c r="F171" s="10">
+        <v>5</v>
+      </c>
+      <c r="G171" s="10">
+        <v>13</v>
+      </c>
+      <c r="H171" s="10">
+        <v>1</v>
+      </c>
+      <c r="I171" s="11"/>
+      <c r="J171" s="11"/>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A172" s="11">
+        <v>10023</v>
+      </c>
+      <c r="B172" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C172" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="D172" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E172" s="10">
+        <v>5001</v>
+      </c>
+      <c r="F172" s="10">
+        <v>5</v>
+      </c>
+      <c r="G172" s="10">
+        <v>14</v>
+      </c>
+      <c r="H172" s="10">
+        <v>1</v>
+      </c>
+      <c r="I172" s="11"/>
+      <c r="J172" s="11"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A173" s="11">
+        <v>10024</v>
+      </c>
+      <c r="B173" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C173" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="D173" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E173" s="10">
+        <v>5001</v>
+      </c>
+      <c r="F173" s="10">
+        <v>5</v>
+      </c>
+      <c r="G173" s="10">
+        <v>15</v>
+      </c>
+      <c r="H173" s="10">
+        <v>1</v>
+      </c>
+      <c r="I173" s="11"/>
+      <c r="J173" s="11"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A174">
         <v>11001</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B174" t="s">
         <v>237</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C174" t="s">
         <v>211</v>
       </c>
-      <c r="D169" t="s">
-        <v>253</v>
-      </c>
-      <c r="E169">
+      <c r="D174" t="s">
+        <v>253</v>
+      </c>
+      <c r="E174">
         <v>5002</v>
       </c>
-      <c r="F169">
+      <c r="F174">
         <v>5</v>
       </c>
-      <c r="G169">
+      <c r="G174">
         <v>100</v>
       </c>
-      <c r="H169">
+      <c r="H174">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2844E241-35FF-482F-8C3D-422F997BDE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B979F813-8D3B-4D3A-8DE4-D935C5EB3B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="5490" yWindow="660" windowWidth="21690" windowHeight="12525" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1754,9 +1754,6 @@
     <t>木の柵・十字</t>
   </si>
   <si>
-    <t>木の柵・角</t>
-  </si>
-  <si>
     <t>木の階段</t>
   </si>
   <si>
@@ -1782,6 +1779,10 @@
   </si>
   <si>
     <t>青石の屋根・かざり</t>
+  </si>
+  <si>
+    <t>木の柵・でっぱり角</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1995,28 +1996,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <b val="0"/>
@@ -2379,19 +2359,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0C7E9A28-2173-4BF1-8AB7-F8C134FC1E3E}" name="テーブル2" displayName="テーブル2" ref="A1:G13" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0C7E9A28-2173-4BF1-8AB7-F8C134FC1E3E}" name="テーブル2" displayName="テーブル2" ref="A1:G13" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
   <autoFilter ref="A1:G13" xr:uid="{0C7E9A28-2173-4BF1-8AB7-F8C134FC1E3E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
     <sortCondition ref="F1:F13"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{7799492D-CC63-4F76-87DC-E337C1061300}" name="10001" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{1F72F1EC-0212-4145-8F64-C43BFC5CEBBA}" name="木の剣" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{3C5513F2-DB12-4448-B9FA-3050FF42DE1A}" name="Textures/SwordObject_2d_001" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{A2E6C594-2057-4D30-BD29-A921FA9A62D8}" name="5001" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{A7A34E46-33F4-4F3D-A7BC-3F1342AE5B36}" name="5" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{41722DF1-B171-4F21-98B3-23A6EB2693BA}" name="1" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{09C82A1F-9964-4699-842D-07338319F805}" name="12" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{7799492D-CC63-4F76-87DC-E337C1061300}" name="10001" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{1F72F1EC-0212-4145-8F64-C43BFC5CEBBA}" name="木の剣" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{3C5513F2-DB12-4448-B9FA-3050FF42DE1A}" name="Textures/SwordObject_2d_001" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{A2E6C594-2057-4D30-BD29-A921FA9A62D8}" name="5001" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{A7A34E46-33F4-4F3D-A7BC-3F1342AE5B36}" name="5" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{41722DF1-B171-4F21-98B3-23A6EB2693BA}" name="1" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{09C82A1F-9964-4699-842D-07338319F805}" name="12" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2697,10 +2677,10 @@
   <dimension ref="A1:J174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L72" sqref="L72"/>
+      <selection pane="bottomRight" activeCell="L109" sqref="L109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4621,7 +4601,7 @@
         <v>283</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="C67" t="s">
         <v>293</v>
@@ -4650,7 +4630,7 @@
         <v>284</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C68" t="s">
         <v>293</v>
@@ -4679,7 +4659,7 @@
         <v>285</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C69" t="s">
         <v>293</v>
@@ -4708,7 +4688,7 @@
         <v>287</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C70" t="s">
         <v>293</v>
@@ -4737,7 +4717,7 @@
         <v>288</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C71" t="s">
         <v>293</v>
@@ -4766,7 +4746,7 @@
         <v>289</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C72" t="s">
         <v>293</v>
@@ -4795,7 +4775,7 @@
         <v>290</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C73" t="s">
         <v>293</v>
@@ -4824,7 +4804,7 @@
         <v>291</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C74" t="s">
         <v>293</v>
@@ -4853,7 +4833,7 @@
         <v>292</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C75" t="s">
         <v>293</v>
@@ -4882,7 +4862,7 @@
         <v>293</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C76" t="s">
         <v>293</v>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B979F813-8D3B-4D3A-8DE4-D935C5EB3B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72065A30-C5AB-4D71-8C76-7F05C5368152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5490" yWindow="660" windowWidth="21690" windowHeight="12525" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="382">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1783,6 +1783,55 @@
   <si>
     <t>木の柵・でっぱり角</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/object_2d_078</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/object_2d_079</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/object_2d_080</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_081</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_082</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_083</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_084</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_085</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_089</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_090</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_091</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_092</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_087</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/object_2d_088</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/object_2d_093</t>
   </si>
 </sst>
 </file>
@@ -2677,10 +2726,10 @@
   <dimension ref="A1:J174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C110" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L109" sqref="L109"/>
+      <selection pane="bottomRight" activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2688,6 +2737,7 @@
     <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="6" max="6" width="17.375" customWidth="1"/>
     <col min="7" max="7" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4459,7 +4509,7 @@
         <v>352</v>
       </c>
       <c r="C62" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="D62" t="s">
         <v>253</v>
@@ -4488,7 +4538,7 @@
         <v>353</v>
       </c>
       <c r="C63" t="s">
-        <v>293</v>
+        <v>368</v>
       </c>
       <c r="D63" t="s">
         <v>253</v>
@@ -4517,7 +4567,7 @@
         <v>354</v>
       </c>
       <c r="C64" t="s">
-        <v>293</v>
+        <v>369</v>
       </c>
       <c r="D64" t="s">
         <v>253</v>
@@ -4546,7 +4596,7 @@
         <v>355</v>
       </c>
       <c r="C65" t="s">
-        <v>293</v>
+        <v>370</v>
       </c>
       <c r="D65" t="s">
         <v>253</v>
@@ -4575,7 +4625,7 @@
         <v>356</v>
       </c>
       <c r="C66" t="s">
-        <v>293</v>
+        <v>371</v>
       </c>
       <c r="D66" t="s">
         <v>253</v>
@@ -4604,7 +4654,7 @@
         <v>366</v>
       </c>
       <c r="C67" t="s">
-        <v>293</v>
+        <v>372</v>
       </c>
       <c r="D67" t="s">
         <v>253</v>
@@ -4633,7 +4683,7 @@
         <v>357</v>
       </c>
       <c r="C68" t="s">
-        <v>293</v>
+        <v>373</v>
       </c>
       <c r="D68" t="s">
         <v>253</v>
@@ -4662,7 +4712,7 @@
         <v>358</v>
       </c>
       <c r="C69" t="s">
-        <v>293</v>
+        <v>374</v>
       </c>
       <c r="D69" t="s">
         <v>253</v>
@@ -4691,7 +4741,7 @@
         <v>359</v>
       </c>
       <c r="C70" t="s">
-        <v>293</v>
+        <v>379</v>
       </c>
       <c r="D70" t="s">
         <v>253</v>
@@ -4720,7 +4770,7 @@
         <v>360</v>
       </c>
       <c r="C71" t="s">
-        <v>293</v>
+        <v>380</v>
       </c>
       <c r="D71" t="s">
         <v>253</v>
@@ -4749,7 +4799,7 @@
         <v>361</v>
       </c>
       <c r="C72" t="s">
-        <v>293</v>
+        <v>375</v>
       </c>
       <c r="D72" t="s">
         <v>253</v>
@@ -4778,7 +4828,7 @@
         <v>362</v>
       </c>
       <c r="C73" t="s">
-        <v>293</v>
+        <v>376</v>
       </c>
       <c r="D73" t="s">
         <v>253</v>
@@ -4807,7 +4857,7 @@
         <v>363</v>
       </c>
       <c r="C74" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
       <c r="D74" t="s">
         <v>253</v>
@@ -4836,7 +4886,7 @@
         <v>364</v>
       </c>
       <c r="C75" t="s">
-        <v>293</v>
+        <v>378</v>
       </c>
       <c r="D75" t="s">
         <v>253</v>
@@ -4865,7 +4915,7 @@
         <v>365</v>
       </c>
       <c r="C76" t="s">
-        <v>293</v>
+        <v>381</v>
       </c>
       <c r="D76" t="s">
         <v>253</v>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72065A30-C5AB-4D71-8C76-7F05C5368152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903F104D-58AF-4D4B-9816-EAFCC2DCE168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="6015" yWindow="3330" windowWidth="21690" windowHeight="12525" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="385">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1832,6 +1832,23 @@
   </si>
   <si>
     <t>Textures/object_2d_093</t>
+  </si>
+  <si>
+    <t>爆弾1</t>
+    <rPh sb="0" eb="2">
+      <t>バクダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/object_2d_15</t>
+  </si>
+  <si>
+    <t>爆弾</t>
+    <rPh sb="0" eb="2">
+      <t>バクダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2389,8 +2406,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:J174" totalsRowShown="0">
-  <autoFilter ref="A1:J174" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:J175" totalsRowShown="0">
+  <autoFilter ref="A1:J175" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Name"/>
@@ -2723,13 +2740,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:J174"/>
+  <dimension ref="A1:J175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C117" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E72" sqref="E72"/>
+      <selection pane="bottomRight" activeCell="K128" sqref="K128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2739,6 +2756,7 @@
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="6" max="6" width="17.375" customWidth="1"/>
     <col min="7" max="7" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
@@ -6278,25 +6296,25 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A129">
-        <v>7016</v>
+        <v>4000</v>
       </c>
       <c r="B129" t="s">
-        <v>205</v>
+        <v>382</v>
       </c>
       <c r="C129" t="s">
-        <v>201</v>
+        <v>383</v>
       </c>
       <c r="D129" t="s">
         <v>253</v>
       </c>
       <c r="E129">
-        <v>3001</v>
+        <v>4000</v>
       </c>
       <c r="F129">
         <v>2</v>
       </c>
       <c r="G129">
-        <v>7016</v>
+        <v>9000</v>
       </c>
       <c r="H129">
         <v>9999</v>
@@ -6307,13 +6325,13 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A130">
-        <v>7017</v>
+        <v>7016</v>
       </c>
       <c r="B130" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C130" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D130" t="s">
         <v>253</v>
@@ -6325,7 +6343,7 @@
         <v>2</v>
       </c>
       <c r="G130">
-        <v>7017</v>
+        <v>7016</v>
       </c>
       <c r="H130">
         <v>9999</v>
@@ -6336,13 +6354,13 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A131">
-        <v>7018</v>
+        <v>7017</v>
       </c>
       <c r="B131" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="C131" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="D131" t="s">
         <v>253</v>
@@ -6354,7 +6372,7 @@
         <v>2</v>
       </c>
       <c r="G131">
-        <v>7018</v>
+        <v>7017</v>
       </c>
       <c r="H131">
         <v>9999</v>
@@ -6365,13 +6383,13 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A132">
-        <v>7019</v>
+        <v>7018</v>
       </c>
       <c r="B132" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C132" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D132" t="s">
         <v>253</v>
@@ -6383,7 +6401,7 @@
         <v>2</v>
       </c>
       <c r="G132">
-        <v>7019</v>
+        <v>7018</v>
       </c>
       <c r="H132">
         <v>9999</v>
@@ -6394,13 +6412,13 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A133">
-        <v>7020</v>
+        <v>7019</v>
       </c>
       <c r="B133" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C133" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D133" t="s">
         <v>253</v>
@@ -6412,7 +6430,7 @@
         <v>2</v>
       </c>
       <c r="G133">
-        <v>7020</v>
+        <v>7019</v>
       </c>
       <c r="H133">
         <v>9999</v>
@@ -6423,13 +6441,13 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A134">
-        <v>7021</v>
+        <v>7020</v>
       </c>
       <c r="B134" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C134" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D134" t="s">
         <v>253</v>
@@ -6441,7 +6459,7 @@
         <v>2</v>
       </c>
       <c r="G134">
-        <v>7021</v>
+        <v>7020</v>
       </c>
       <c r="H134">
         <v>9999</v>
@@ -6452,13 +6470,13 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A135">
-        <v>7022</v>
+        <v>7021</v>
       </c>
       <c r="B135" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C135" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D135" t="s">
         <v>253</v>
@@ -6470,7 +6488,7 @@
         <v>2</v>
       </c>
       <c r="G135">
-        <v>7022</v>
+        <v>7021</v>
       </c>
       <c r="H135">
         <v>9999</v>
@@ -6481,13 +6499,13 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A136">
-        <v>7023</v>
+        <v>7022</v>
       </c>
       <c r="B136" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C136" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D136" t="s">
         <v>253</v>
@@ -6499,7 +6517,7 @@
         <v>2</v>
       </c>
       <c r="G136">
-        <v>7023</v>
+        <v>7022</v>
       </c>
       <c r="H136">
         <v>9999</v>
@@ -6510,13 +6528,13 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A137">
-        <v>7024</v>
+        <v>7023</v>
       </c>
       <c r="B137" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C137" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D137" t="s">
         <v>253</v>
@@ -6528,7 +6546,7 @@
         <v>2</v>
       </c>
       <c r="G137">
-        <v>7024</v>
+        <v>7023</v>
       </c>
       <c r="H137">
         <v>9999</v>
@@ -6539,13 +6557,13 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A138">
-        <v>7025</v>
+        <v>7024</v>
       </c>
       <c r="B138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C138" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D138" t="s">
         <v>253</v>
@@ -6557,7 +6575,7 @@
         <v>2</v>
       </c>
       <c r="G138">
-        <v>7025</v>
+        <v>7024</v>
       </c>
       <c r="H138">
         <v>9999</v>
@@ -6568,13 +6586,13 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A139">
-        <v>7026</v>
+        <v>7025</v>
       </c>
       <c r="B139" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C139" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D139" t="s">
         <v>253</v>
@@ -6586,7 +6604,7 @@
         <v>2</v>
       </c>
       <c r="G139">
-        <v>7026</v>
+        <v>7025</v>
       </c>
       <c r="H139">
         <v>9999</v>
@@ -6597,13 +6615,13 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A140">
-        <v>7027</v>
+        <v>7026</v>
       </c>
       <c r="B140" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C140" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D140" t="s">
         <v>253</v>
@@ -6615,7 +6633,7 @@
         <v>2</v>
       </c>
       <c r="G140">
-        <v>7027</v>
+        <v>7026</v>
       </c>
       <c r="H140">
         <v>9999</v>
@@ -6626,13 +6644,13 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A141">
-        <v>7028</v>
+        <v>7027</v>
       </c>
       <c r="B141" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C141" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D141" t="s">
         <v>253</v>
@@ -6644,7 +6662,7 @@
         <v>2</v>
       </c>
       <c r="G141">
-        <v>7028</v>
+        <v>7027</v>
       </c>
       <c r="H141">
         <v>9999</v>
@@ -6655,13 +6673,13 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A142">
-        <v>7029</v>
+        <v>7028</v>
       </c>
       <c r="B142" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D142" t="s">
         <v>253</v>
@@ -6673,7 +6691,7 @@
         <v>2</v>
       </c>
       <c r="G142">
-        <v>7029</v>
+        <v>7028</v>
       </c>
       <c r="H142">
         <v>9999</v>
@@ -6684,13 +6702,13 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A143">
-        <v>7030</v>
+        <v>7029</v>
       </c>
       <c r="B143" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C143" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D143" t="s">
         <v>253</v>
@@ -6702,7 +6720,7 @@
         <v>2</v>
       </c>
       <c r="G143">
-        <v>7030</v>
+        <v>7029</v>
       </c>
       <c r="H143">
         <v>9999</v>
@@ -6713,59 +6731,68 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A144">
-        <v>9000</v>
+        <v>7030</v>
       </c>
       <c r="B144" t="s">
-        <v>68</v>
+        <v>195</v>
       </c>
       <c r="C144" t="s">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c r="D144" t="s">
         <v>253</v>
       </c>
       <c r="E144">
-        <v>90</v>
+        <v>3001</v>
+      </c>
+      <c r="F144">
+        <v>2</v>
+      </c>
+      <c r="G144">
+        <v>7030</v>
       </c>
       <c r="H144">
-        <v>9999999</v>
+        <v>9999</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A145">
-        <v>9001</v>
+        <v>9000</v>
       </c>
       <c r="B145" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C145" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D145" t="s">
         <v>253</v>
       </c>
       <c r="E145">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H145">
         <v>9999999</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="75" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A146">
-        <v>9002</v>
+        <v>9001</v>
       </c>
       <c r="B146" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C146" t="s">
-        <v>72</v>
-      </c>
-      <c r="D146" s="14" t="s">
-        <v>283</v>
+        <v>67</v>
+      </c>
+      <c r="D146" t="s">
+        <v>253</v>
       </c>
       <c r="E146">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H146">
         <v>9999999</v>
@@ -6773,125 +6800,119 @@
     </row>
     <row r="147" spans="1:8" ht="75" x14ac:dyDescent="0.4">
       <c r="A147">
-        <v>9003</v>
+        <v>9002</v>
       </c>
       <c r="B147" t="s">
-        <v>212</v>
+        <v>70</v>
       </c>
       <c r="C147" t="s">
-        <v>207</v>
+        <v>72</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E147">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H147">
         <v>9999999</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:8" ht="75" x14ac:dyDescent="0.4">
       <c r="A148">
-        <v>9004</v>
+        <v>9003</v>
       </c>
       <c r="B148" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C148" t="s">
-        <v>209</v>
-      </c>
-      <c r="D148" t="s">
-        <v>253</v>
+        <v>207</v>
+      </c>
+      <c r="D148" s="14" t="s">
+        <v>281</v>
       </c>
       <c r="E148">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H148">
         <v>9999999</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="75" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A149">
-        <v>9005</v>
+        <v>9004</v>
       </c>
       <c r="B149" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C149" t="s">
-        <v>211</v>
-      </c>
-      <c r="D149" s="14" t="s">
-        <v>282</v>
+        <v>209</v>
+      </c>
+      <c r="D149" t="s">
+        <v>253</v>
       </c>
       <c r="E149">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H149">
         <v>9999999</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A150" s="9">
-        <v>10001</v>
-      </c>
-      <c r="B150" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C150" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="D150" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E150" s="10">
-        <v>5001</v>
-      </c>
-      <c r="F150" s="10">
-        <v>5</v>
-      </c>
-      <c r="G150" s="10">
-        <v>1</v>
-      </c>
-      <c r="H150" s="10">
-        <v>1</v>
+    <row r="150" spans="1:8" ht="75" x14ac:dyDescent="0.4">
+      <c r="A150">
+        <v>9005</v>
+      </c>
+      <c r="B150" t="s">
+        <v>210</v>
+      </c>
+      <c r="C150" t="s">
+        <v>211</v>
+      </c>
+      <c r="D150" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="E150">
+        <v>95</v>
+      </c>
+      <c r="H150">
+        <v>9999999</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A151" s="9">
-        <v>10002</v>
-      </c>
-      <c r="B151" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="C151" s="12" t="s">
-        <v>217</v>
+        <v>10001</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>220</v>
       </c>
       <c r="D151" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="E151" s="12">
+      <c r="E151" s="10">
         <v>5001</v>
       </c>
-      <c r="F151" s="12">
+      <c r="F151" s="10">
         <v>5</v>
       </c>
-      <c r="G151" s="12">
-        <v>2</v>
-      </c>
-      <c r="H151" s="12">
+      <c r="G151" s="10">
+        <v>1</v>
+      </c>
+      <c r="H151" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A152" s="9">
-        <v>10003</v>
-      </c>
-      <c r="B152" s="12" t="s">
-        <v>215</v>
+        <v>10002</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>214</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D152" s="11" t="s">
         <v>253</v>
@@ -6903,7 +6924,7 @@
         <v>5</v>
       </c>
       <c r="G152" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H152" s="12">
         <v>1</v>
@@ -6911,13 +6932,13 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A153" s="9">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D153" s="11" t="s">
         <v>253</v>
@@ -6929,7 +6950,7 @@
         <v>5</v>
       </c>
       <c r="G153" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H153" s="12">
         <v>1</v>
@@ -6937,13 +6958,13 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A154" s="9">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D154" s="11" t="s">
         <v>253</v>
@@ -6955,7 +6976,7 @@
         <v>5</v>
       </c>
       <c r="G154" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H154" s="12">
         <v>1</v>
@@ -6963,13 +6984,13 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A155" s="9">
-        <v>10006</v>
+        <v>10005</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D155" s="11" t="s">
         <v>253</v>
@@ -6981,7 +7002,7 @@
         <v>5</v>
       </c>
       <c r="G155" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H155" s="12">
         <v>1</v>
@@ -6989,13 +7010,13 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A156" s="9">
-        <v>10007</v>
+        <v>10006</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D156" s="11" t="s">
         <v>253</v>
@@ -7007,7 +7028,7 @@
         <v>5</v>
       </c>
       <c r="G156" s="12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H156" s="12">
         <v>1</v>
@@ -7015,13 +7036,13 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A157" s="9">
-        <v>10008</v>
+        <v>10007</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D157" s="11" t="s">
         <v>253</v>
@@ -7033,7 +7054,7 @@
         <v>5</v>
       </c>
       <c r="G157" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H157" s="12">
         <v>1</v>
@@ -7041,13 +7062,13 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A158" s="9">
-        <v>10009</v>
+        <v>10008</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D158" s="11" t="s">
         <v>253</v>
@@ -7059,7 +7080,7 @@
         <v>5</v>
       </c>
       <c r="G158" s="12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H158" s="12">
         <v>1</v>
@@ -7067,13 +7088,13 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A159" s="9">
-        <v>10010</v>
+        <v>10009</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D159" s="11" t="s">
         <v>253</v>
@@ -7085,7 +7106,7 @@
         <v>5</v>
       </c>
       <c r="G159" s="12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H159" s="12">
         <v>1</v>
@@ -7093,39 +7114,39 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A160" s="9">
-        <v>10011</v>
-      </c>
-      <c r="B160" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="C160" s="13" t="s">
-        <v>219</v>
+        <v>10010</v>
+      </c>
+      <c r="B160" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C160" s="12" t="s">
+        <v>226</v>
       </c>
       <c r="D160" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="E160" s="13">
+      <c r="E160" s="12">
         <v>5001</v>
       </c>
-      <c r="F160" s="13">
+      <c r="F160" s="12">
         <v>5</v>
       </c>
-      <c r="G160" s="13">
-        <v>11</v>
-      </c>
-      <c r="H160" s="13">
+      <c r="G160" s="12">
+        <v>10</v>
+      </c>
+      <c r="H160" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A161" s="9">
-        <v>10012</v>
+        <v>10011</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C161" s="13" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D161" s="11" t="s">
         <v>253</v>
@@ -7137,54 +7158,52 @@
         <v>5</v>
       </c>
       <c r="G161" s="13">
+        <v>11</v>
+      </c>
+      <c r="H161" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A162" s="9">
+        <v>10012</v>
+      </c>
+      <c r="B162" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C162" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D162" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E162" s="13">
+        <v>5001</v>
+      </c>
+      <c r="F162" s="13">
+        <v>5</v>
+      </c>
+      <c r="G162" s="13">
         <v>12</v>
       </c>
-      <c r="H161" s="13">
-        <v>1</v>
-      </c>
-      <c r="I161" s="11"/>
-      <c r="J161" s="11"/>
-    </row>
-    <row r="162" spans="1:10" ht="75" x14ac:dyDescent="0.4">
-      <c r="A162" s="11">
-        <v>10013</v>
-      </c>
-      <c r="B162" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="C162" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="D162" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="E162" s="10">
-        <v>5001</v>
-      </c>
-      <c r="F162" s="10">
-        <v>5</v>
-      </c>
-      <c r="G162" s="10">
-        <v>22</v>
-      </c>
-      <c r="H162" s="10">
+      <c r="H162" s="13">
         <v>1</v>
       </c>
       <c r="I162" s="11"/>
       <c r="J162" s="11"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:10" ht="75" x14ac:dyDescent="0.4">
       <c r="A163" s="11">
-        <v>10014</v>
+        <v>10013</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="C163" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="D163" s="11" t="s">
-        <v>253</v>
+        <v>255</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D163" s="15" t="s">
+        <v>279</v>
       </c>
       <c r="E163" s="10">
         <v>5001</v>
@@ -7193,7 +7212,7 @@
         <v>5</v>
       </c>
       <c r="G163" s="10">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H163" s="10">
         <v>1</v>
@@ -7203,13 +7222,13 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A164" s="11">
-        <v>10015</v>
+        <v>10014</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D164" s="11" t="s">
         <v>253</v>
@@ -7221,7 +7240,7 @@
         <v>5</v>
       </c>
       <c r="G164" s="10">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H164" s="10">
         <v>1</v>
@@ -7231,13 +7250,13 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A165" s="11">
-        <v>10016</v>
+        <v>10015</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="C165" s="10" t="s">
-        <v>273</v>
+        <v>256</v>
+      </c>
+      <c r="C165" s="12" t="s">
+        <v>278</v>
       </c>
       <c r="D165" s="11" t="s">
         <v>253</v>
@@ -7249,7 +7268,7 @@
         <v>5</v>
       </c>
       <c r="G165" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H165" s="10">
         <v>1</v>
@@ -7259,13 +7278,13 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A166" s="11">
-        <v>10017</v>
+        <v>10016</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="C166" s="12" t="s">
-        <v>274</v>
+        <v>258</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>273</v>
       </c>
       <c r="D166" s="11" t="s">
         <v>253</v>
@@ -7277,7 +7296,7 @@
         <v>5</v>
       </c>
       <c r="G166" s="10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H166" s="10">
         <v>1</v>
@@ -7287,13 +7306,13 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A167" s="11">
-        <v>10018</v>
+        <v>10017</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D167" s="11" t="s">
         <v>253</v>
@@ -7305,7 +7324,7 @@
         <v>5</v>
       </c>
       <c r="G167" s="10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H167" s="10">
         <v>1</v>
@@ -7313,18 +7332,18 @@
       <c r="I167" s="11"/>
       <c r="J167" s="11"/>
     </row>
-    <row r="168" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A168" s="11">
-        <v>10019</v>
+        <v>10018</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="C168" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="D168" s="15" t="s">
-        <v>280</v>
+        <v>259</v>
+      </c>
+      <c r="C168" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="D168" s="11" t="s">
+        <v>253</v>
       </c>
       <c r="E168" s="10">
         <v>5001</v>
@@ -7333,7 +7352,7 @@
         <v>5</v>
       </c>
       <c r="G168" s="10">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H168" s="10">
         <v>1</v>
@@ -7341,18 +7360,18 @@
       <c r="I168" s="11"/>
       <c r="J168" s="11"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A169" s="11">
-        <v>10020</v>
+        <v>10019</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="C169" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="D169" s="11" t="s">
-        <v>253</v>
+        <v>261</v>
+      </c>
+      <c r="C169" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="D169" s="15" t="s">
+        <v>280</v>
       </c>
       <c r="E169" s="10">
         <v>5001</v>
@@ -7361,7 +7380,7 @@
         <v>5</v>
       </c>
       <c r="G169" s="10">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H169" s="10">
         <v>1</v>
@@ -7371,13 +7390,13 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A170" s="11">
-        <v>10021</v>
+        <v>10020</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D170" s="11" t="s">
         <v>253</v>
@@ -7389,7 +7408,7 @@
         <v>5</v>
       </c>
       <c r="G170" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H170" s="10">
         <v>1</v>
@@ -7399,13 +7418,13 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A171" s="11">
-        <v>10022</v>
+        <v>10021</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>269</v>
+        <v>265</v>
+      </c>
+      <c r="C171" s="12" t="s">
+        <v>272</v>
       </c>
       <c r="D171" s="11" t="s">
         <v>253</v>
@@ -7417,7 +7436,7 @@
         <v>5</v>
       </c>
       <c r="G171" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H171" s="10">
         <v>1</v>
@@ -7427,13 +7446,13 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A172" s="11">
-        <v>10023</v>
+        <v>10022</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="C172" s="12" t="s">
-        <v>268</v>
+        <v>262</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>269</v>
       </c>
       <c r="D172" s="11" t="s">
         <v>253</v>
@@ -7445,7 +7464,7 @@
         <v>5</v>
       </c>
       <c r="G172" s="10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H172" s="10">
         <v>1</v>
@@ -7455,13 +7474,13 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A173" s="11">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D173" s="11" t="s">
         <v>253</v>
@@ -7473,7 +7492,7 @@
         <v>5</v>
       </c>
       <c r="G173" s="10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H173" s="10">
         <v>1</v>
@@ -7482,28 +7501,56 @@
       <c r="J173" s="11"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A174">
+      <c r="A174" s="11">
+        <v>10024</v>
+      </c>
+      <c r="B174" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C174" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="D174" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E174" s="10">
+        <v>5001</v>
+      </c>
+      <c r="F174" s="10">
+        <v>5</v>
+      </c>
+      <c r="G174" s="10">
+        <v>15</v>
+      </c>
+      <c r="H174" s="10">
+        <v>1</v>
+      </c>
+      <c r="I174" s="11"/>
+      <c r="J174" s="11"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A175">
         <v>11001</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B175" t="s">
         <v>237</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C175" t="s">
         <v>211</v>
       </c>
-      <c r="D174" t="s">
-        <v>253</v>
-      </c>
-      <c r="E174">
+      <c r="D175" t="s">
+        <v>253</v>
+      </c>
+      <c r="E175">
         <v>5002</v>
       </c>
-      <c r="F174">
+      <c r="F175">
         <v>5</v>
       </c>
-      <c r="G174">
+      <c r="G175">
         <v>100</v>
       </c>
-      <c r="H174">
+      <c r="H175">
         <v>1</v>
       </c>
     </row>
@@ -7937,10 +7984,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113E46AD-62C7-4185-A9CA-BD7A35995CF3}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8043,25 +8090,33 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>5001</v>
+        <v>4000</v>
       </c>
       <c r="B13" t="s">
-        <v>234</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="B14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>9999</v>
+        <v>5002</v>
       </c>
       <c r="B15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>9999</v>
+      </c>
+      <c r="B16" t="s">
         <v>236</v>
       </c>
     </row>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903F104D-58AF-4D4B-9816-EAFCC2DCE168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B4C21E-A402-44E4-A545-06BCE9C936F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="3330" windowWidth="21690" windowHeight="12525" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="386">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1845,6 +1845,13 @@
   </si>
   <si>
     <t>爆弾</t>
+    <rPh sb="0" eb="2">
+      <t>バクダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆弾2</t>
     <rPh sb="0" eb="2">
       <t>バクダン</t>
     </rPh>
@@ -2406,8 +2413,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:J175" totalsRowShown="0">
-  <autoFilter ref="A1:J175" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:J176" totalsRowShown="0">
+  <autoFilter ref="A1:J176" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Name"/>
@@ -2740,13 +2747,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:J175"/>
+  <dimension ref="A1:J176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C117" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K128" sqref="K128"/>
+      <selection pane="bottomRight" activeCell="M130" sqref="M130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6325,25 +6332,25 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A130">
-        <v>7016</v>
+        <v>4001</v>
       </c>
       <c r="B130" t="s">
-        <v>205</v>
+        <v>385</v>
       </c>
       <c r="C130" t="s">
-        <v>201</v>
+        <v>383</v>
       </c>
       <c r="D130" t="s">
         <v>253</v>
       </c>
       <c r="E130">
-        <v>3001</v>
+        <v>4000</v>
       </c>
       <c r="F130">
         <v>2</v>
       </c>
       <c r="G130">
-        <v>7016</v>
+        <v>9001</v>
       </c>
       <c r="H130">
         <v>9999</v>
@@ -6354,13 +6361,13 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A131">
-        <v>7017</v>
+        <v>7016</v>
       </c>
       <c r="B131" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C131" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D131" t="s">
         <v>253</v>
@@ -6372,7 +6379,7 @@
         <v>2</v>
       </c>
       <c r="G131">
-        <v>7017</v>
+        <v>7016</v>
       </c>
       <c r="H131">
         <v>9999</v>
@@ -6383,13 +6390,13 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A132">
-        <v>7018</v>
+        <v>7017</v>
       </c>
       <c r="B132" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="C132" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="D132" t="s">
         <v>253</v>
@@ -6401,7 +6408,7 @@
         <v>2</v>
       </c>
       <c r="G132">
-        <v>7018</v>
+        <v>7017</v>
       </c>
       <c r="H132">
         <v>9999</v>
@@ -6412,13 +6419,13 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A133">
-        <v>7019</v>
+        <v>7018</v>
       </c>
       <c r="B133" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C133" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D133" t="s">
         <v>253</v>
@@ -6430,7 +6437,7 @@
         <v>2</v>
       </c>
       <c r="G133">
-        <v>7019</v>
+        <v>7018</v>
       </c>
       <c r="H133">
         <v>9999</v>
@@ -6441,13 +6448,13 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A134">
-        <v>7020</v>
+        <v>7019</v>
       </c>
       <c r="B134" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C134" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D134" t="s">
         <v>253</v>
@@ -6459,7 +6466,7 @@
         <v>2</v>
       </c>
       <c r="G134">
-        <v>7020</v>
+        <v>7019</v>
       </c>
       <c r="H134">
         <v>9999</v>
@@ -6470,13 +6477,13 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A135">
-        <v>7021</v>
+        <v>7020</v>
       </c>
       <c r="B135" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C135" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D135" t="s">
         <v>253</v>
@@ -6488,7 +6495,7 @@
         <v>2</v>
       </c>
       <c r="G135">
-        <v>7021</v>
+        <v>7020</v>
       </c>
       <c r="H135">
         <v>9999</v>
@@ -6499,13 +6506,13 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A136">
-        <v>7022</v>
+        <v>7021</v>
       </c>
       <c r="B136" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C136" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D136" t="s">
         <v>253</v>
@@ -6517,7 +6524,7 @@
         <v>2</v>
       </c>
       <c r="G136">
-        <v>7022</v>
+        <v>7021</v>
       </c>
       <c r="H136">
         <v>9999</v>
@@ -6528,13 +6535,13 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A137">
-        <v>7023</v>
+        <v>7022</v>
       </c>
       <c r="B137" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C137" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D137" t="s">
         <v>253</v>
@@ -6546,7 +6553,7 @@
         <v>2</v>
       </c>
       <c r="G137">
-        <v>7023</v>
+        <v>7022</v>
       </c>
       <c r="H137">
         <v>9999</v>
@@ -6557,13 +6564,13 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A138">
-        <v>7024</v>
+        <v>7023</v>
       </c>
       <c r="B138" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C138" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D138" t="s">
         <v>253</v>
@@ -6575,7 +6582,7 @@
         <v>2</v>
       </c>
       <c r="G138">
-        <v>7024</v>
+        <v>7023</v>
       </c>
       <c r="H138">
         <v>9999</v>
@@ -6586,13 +6593,13 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A139">
-        <v>7025</v>
+        <v>7024</v>
       </c>
       <c r="B139" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C139" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D139" t="s">
         <v>253</v>
@@ -6604,7 +6611,7 @@
         <v>2</v>
       </c>
       <c r="G139">
-        <v>7025</v>
+        <v>7024</v>
       </c>
       <c r="H139">
         <v>9999</v>
@@ -6615,13 +6622,13 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A140">
-        <v>7026</v>
+        <v>7025</v>
       </c>
       <c r="B140" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C140" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D140" t="s">
         <v>253</v>
@@ -6633,7 +6640,7 @@
         <v>2</v>
       </c>
       <c r="G140">
-        <v>7026</v>
+        <v>7025</v>
       </c>
       <c r="H140">
         <v>9999</v>
@@ -6644,13 +6651,13 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A141">
-        <v>7027</v>
+        <v>7026</v>
       </c>
       <c r="B141" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C141" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D141" t="s">
         <v>253</v>
@@ -6662,7 +6669,7 @@
         <v>2</v>
       </c>
       <c r="G141">
-        <v>7027</v>
+        <v>7026</v>
       </c>
       <c r="H141">
         <v>9999</v>
@@ -6673,13 +6680,13 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A142">
-        <v>7028</v>
+        <v>7027</v>
       </c>
       <c r="B142" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C142" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D142" t="s">
         <v>253</v>
@@ -6691,7 +6698,7 @@
         <v>2</v>
       </c>
       <c r="G142">
-        <v>7028</v>
+        <v>7027</v>
       </c>
       <c r="H142">
         <v>9999</v>
@@ -6702,13 +6709,13 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A143">
-        <v>7029</v>
+        <v>7028</v>
       </c>
       <c r="B143" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C143" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D143" t="s">
         <v>253</v>
@@ -6720,7 +6727,7 @@
         <v>2</v>
       </c>
       <c r="G143">
-        <v>7029</v>
+        <v>7028</v>
       </c>
       <c r="H143">
         <v>9999</v>
@@ -6731,13 +6738,13 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A144">
-        <v>7030</v>
+        <v>7029</v>
       </c>
       <c r="B144" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C144" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D144" t="s">
         <v>253</v>
@@ -6749,196 +6756,199 @@
         <v>2</v>
       </c>
       <c r="G144">
+        <v>7029</v>
+      </c>
+      <c r="H144">
+        <v>9999</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A145">
         <v>7030</v>
       </c>
-      <c r="H144">
-        <v>9999</v>
-      </c>
-      <c r="J144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A145">
+      <c r="B145" t="s">
+        <v>195</v>
+      </c>
+      <c r="C145" t="s">
+        <v>200</v>
+      </c>
+      <c r="D145" t="s">
+        <v>253</v>
+      </c>
+      <c r="E145">
+        <v>3001</v>
+      </c>
+      <c r="F145">
+        <v>2</v>
+      </c>
+      <c r="G145">
+        <v>7030</v>
+      </c>
+      <c r="H145">
+        <v>9999</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A146">
         <v>9000</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B146" t="s">
         <v>68</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C146" t="s">
         <v>66</v>
       </c>
-      <c r="D145" t="s">
-        <v>253</v>
-      </c>
-      <c r="E145">
+      <c r="D146" t="s">
+        <v>253</v>
+      </c>
+      <c r="E146">
         <v>90</v>
-      </c>
-      <c r="H145">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A146">
-        <v>9001</v>
-      </c>
-      <c r="B146" t="s">
-        <v>69</v>
-      </c>
-      <c r="C146" t="s">
-        <v>67</v>
-      </c>
-      <c r="D146" t="s">
-        <v>253</v>
-      </c>
-      <c r="E146">
-        <v>91</v>
       </c>
       <c r="H146">
         <v>9999999</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="75" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A147">
-        <v>9002</v>
+        <v>9001</v>
       </c>
       <c r="B147" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C147" t="s">
-        <v>72</v>
-      </c>
-      <c r="D147" s="14" t="s">
-        <v>283</v>
+        <v>67</v>
+      </c>
+      <c r="D147" t="s">
+        <v>253</v>
       </c>
       <c r="E147">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H147">
         <v>9999999</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="75" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:10" ht="75" x14ac:dyDescent="0.4">
       <c r="A148">
-        <v>9003</v>
+        <v>9002</v>
       </c>
       <c r="B148" t="s">
-        <v>212</v>
+        <v>70</v>
       </c>
       <c r="C148" t="s">
-        <v>207</v>
+        <v>72</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E148">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H148">
         <v>9999999</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:10" ht="75" x14ac:dyDescent="0.4">
       <c r="A149">
-        <v>9004</v>
+        <v>9003</v>
       </c>
       <c r="B149" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C149" t="s">
-        <v>209</v>
-      </c>
-      <c r="D149" t="s">
-        <v>253</v>
+        <v>207</v>
+      </c>
+      <c r="D149" s="14" t="s">
+        <v>281</v>
       </c>
       <c r="E149">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H149">
         <v>9999999</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="75" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A150">
-        <v>9005</v>
+        <v>9004</v>
       </c>
       <c r="B150" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C150" t="s">
-        <v>211</v>
-      </c>
-      <c r="D150" s="14" t="s">
-        <v>282</v>
+        <v>209</v>
+      </c>
+      <c r="D150" t="s">
+        <v>253</v>
       </c>
       <c r="E150">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H150">
         <v>9999999</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A151" s="9">
+    <row r="151" spans="1:10" ht="75" x14ac:dyDescent="0.4">
+      <c r="A151">
+        <v>9005</v>
+      </c>
+      <c r="B151" t="s">
+        <v>210</v>
+      </c>
+      <c r="C151" t="s">
+        <v>211</v>
+      </c>
+      <c r="D151" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="E151">
+        <v>95</v>
+      </c>
+      <c r="H151">
+        <v>9999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A152" s="9">
         <v>10001</v>
       </c>
-      <c r="B151" s="10" t="s">
+      <c r="B152" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="C151" s="10" t="s">
+      <c r="C152" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="D151" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E151" s="10">
+      <c r="D152" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E152" s="10">
         <v>5001</v>
       </c>
-      <c r="F151" s="10">
+      <c r="F152" s="10">
         <v>5</v>
       </c>
-      <c r="G151" s="10">
-        <v>1</v>
-      </c>
-      <c r="H151" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A152" s="9">
+      <c r="G152" s="10">
+        <v>1</v>
+      </c>
+      <c r="H152" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A153" s="9">
         <v>10002</v>
       </c>
-      <c r="B152" s="9" t="s">
+      <c r="B153" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C152" s="12" t="s">
+      <c r="C153" s="12" t="s">
         <v>217</v>
-      </c>
-      <c r="D152" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E152" s="12">
-        <v>5001</v>
-      </c>
-      <c r="F152" s="12">
-        <v>5</v>
-      </c>
-      <c r="G152" s="12">
-        <v>2</v>
-      </c>
-      <c r="H152" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A153" s="9">
-        <v>10003</v>
-      </c>
-      <c r="B153" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="C153" s="12" t="s">
-        <v>221</v>
       </c>
       <c r="D153" s="11" t="s">
         <v>253</v>
@@ -6950,21 +6960,21 @@
         <v>5</v>
       </c>
       <c r="G153" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H153" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A154" s="9">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D154" s="11" t="s">
         <v>253</v>
@@ -6976,21 +6986,21 @@
         <v>5</v>
       </c>
       <c r="G154" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H154" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A155" s="9">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D155" s="11" t="s">
         <v>253</v>
@@ -7002,21 +7012,21 @@
         <v>5</v>
       </c>
       <c r="G155" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H155" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A156" s="9">
-        <v>10006</v>
+        <v>10005</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D156" s="11" t="s">
         <v>253</v>
@@ -7028,21 +7038,21 @@
         <v>5</v>
       </c>
       <c r="G156" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H156" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A157" s="9">
-        <v>10007</v>
+        <v>10006</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D157" s="11" t="s">
         <v>253</v>
@@ -7054,21 +7064,21 @@
         <v>5</v>
       </c>
       <c r="G157" s="12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H157" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A158" s="9">
-        <v>10008</v>
+        <v>10007</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D158" s="11" t="s">
         <v>253</v>
@@ -7080,21 +7090,21 @@
         <v>5</v>
       </c>
       <c r="G158" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H158" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A159" s="9">
-        <v>10009</v>
+        <v>10008</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D159" s="11" t="s">
         <v>253</v>
@@ -7106,21 +7116,21 @@
         <v>5</v>
       </c>
       <c r="G159" s="12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H159" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A160" s="9">
-        <v>10010</v>
+        <v>10009</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D160" s="11" t="s">
         <v>253</v>
@@ -7132,7 +7142,7 @@
         <v>5</v>
       </c>
       <c r="G160" s="12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H160" s="12">
         <v>1</v>
@@ -7140,39 +7150,39 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A161" s="9">
-        <v>10011</v>
-      </c>
-      <c r="B161" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="C161" s="13" t="s">
-        <v>219</v>
+        <v>10010</v>
+      </c>
+      <c r="B161" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C161" s="12" t="s">
+        <v>226</v>
       </c>
       <c r="D161" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="E161" s="13">
+      <c r="E161" s="12">
         <v>5001</v>
       </c>
-      <c r="F161" s="13">
+      <c r="F161" s="12">
         <v>5</v>
       </c>
-      <c r="G161" s="13">
-        <v>11</v>
-      </c>
-      <c r="H161" s="13">
+      <c r="G161" s="12">
+        <v>10</v>
+      </c>
+      <c r="H161" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A162" s="9">
-        <v>10012</v>
+        <v>10011</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D162" s="11" t="s">
         <v>253</v>
@@ -7184,54 +7194,52 @@
         <v>5</v>
       </c>
       <c r="G162" s="13">
+        <v>11</v>
+      </c>
+      <c r="H162" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A163" s="9">
+        <v>10012</v>
+      </c>
+      <c r="B163" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C163" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D163" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E163" s="13">
+        <v>5001</v>
+      </c>
+      <c r="F163" s="13">
+        <v>5</v>
+      </c>
+      <c r="G163" s="13">
         <v>12</v>
       </c>
-      <c r="H162" s="13">
-        <v>1</v>
-      </c>
-      <c r="I162" s="11"/>
-      <c r="J162" s="11"/>
-    </row>
-    <row r="163" spans="1:10" ht="75" x14ac:dyDescent="0.4">
-      <c r="A163" s="11">
-        <v>10013</v>
-      </c>
-      <c r="B163" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="C163" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="D163" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="E163" s="10">
-        <v>5001</v>
-      </c>
-      <c r="F163" s="10">
-        <v>5</v>
-      </c>
-      <c r="G163" s="10">
-        <v>22</v>
-      </c>
-      <c r="H163" s="10">
+      <c r="H163" s="13">
         <v>1</v>
       </c>
       <c r="I163" s="11"/>
       <c r="J163" s="11"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:10" ht="75" x14ac:dyDescent="0.4">
       <c r="A164" s="11">
-        <v>10014</v>
+        <v>10013</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="C164" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="D164" s="11" t="s">
-        <v>253</v>
+        <v>255</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D164" s="15" t="s">
+        <v>279</v>
       </c>
       <c r="E164" s="10">
         <v>5001</v>
@@ -7240,7 +7248,7 @@
         <v>5</v>
       </c>
       <c r="G164" s="10">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H164" s="10">
         <v>1</v>
@@ -7250,13 +7258,13 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A165" s="11">
-        <v>10015</v>
+        <v>10014</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D165" s="11" t="s">
         <v>253</v>
@@ -7268,7 +7276,7 @@
         <v>5</v>
       </c>
       <c r="G165" s="10">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H165" s="10">
         <v>1</v>
@@ -7278,13 +7286,13 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A166" s="11">
-        <v>10016</v>
+        <v>10015</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="C166" s="10" t="s">
-        <v>273</v>
+        <v>256</v>
+      </c>
+      <c r="C166" s="12" t="s">
+        <v>278</v>
       </c>
       <c r="D166" s="11" t="s">
         <v>253</v>
@@ -7296,7 +7304,7 @@
         <v>5</v>
       </c>
       <c r="G166" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H166" s="10">
         <v>1</v>
@@ -7306,13 +7314,13 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A167" s="11">
-        <v>10017</v>
+        <v>10016</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="C167" s="12" t="s">
-        <v>274</v>
+        <v>258</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>273</v>
       </c>
       <c r="D167" s="11" t="s">
         <v>253</v>
@@ -7324,7 +7332,7 @@
         <v>5</v>
       </c>
       <c r="G167" s="10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H167" s="10">
         <v>1</v>
@@ -7334,13 +7342,13 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A168" s="11">
-        <v>10018</v>
+        <v>10017</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D168" s="11" t="s">
         <v>253</v>
@@ -7352,7 +7360,7 @@
         <v>5</v>
       </c>
       <c r="G168" s="10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H168" s="10">
         <v>1</v>
@@ -7360,18 +7368,18 @@
       <c r="I168" s="11"/>
       <c r="J168" s="11"/>
     </row>
-    <row r="169" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A169" s="11">
-        <v>10019</v>
+        <v>10018</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="C169" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="D169" s="15" t="s">
-        <v>280</v>
+        <v>259</v>
+      </c>
+      <c r="C169" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="D169" s="11" t="s">
+        <v>253</v>
       </c>
       <c r="E169" s="10">
         <v>5001</v>
@@ -7380,7 +7388,7 @@
         <v>5</v>
       </c>
       <c r="G169" s="10">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H169" s="10">
         <v>1</v>
@@ -7388,18 +7396,18 @@
       <c r="I169" s="11"/>
       <c r="J169" s="11"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A170" s="11">
-        <v>10020</v>
+        <v>10019</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="C170" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="D170" s="11" t="s">
-        <v>253</v>
+        <v>261</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="D170" s="15" t="s">
+        <v>280</v>
       </c>
       <c r="E170" s="10">
         <v>5001</v>
@@ -7408,7 +7416,7 @@
         <v>5</v>
       </c>
       <c r="G170" s="10">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H170" s="10">
         <v>1</v>
@@ -7418,13 +7426,13 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A171" s="11">
-        <v>10021</v>
+        <v>10020</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D171" s="11" t="s">
         <v>253</v>
@@ -7436,7 +7444,7 @@
         <v>5</v>
       </c>
       <c r="G171" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H171" s="10">
         <v>1</v>
@@ -7446,13 +7454,13 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A172" s="11">
-        <v>10022</v>
+        <v>10021</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C172" s="10" t="s">
-        <v>269</v>
+        <v>265</v>
+      </c>
+      <c r="C172" s="12" t="s">
+        <v>272</v>
       </c>
       <c r="D172" s="11" t="s">
         <v>253</v>
@@ -7464,7 +7472,7 @@
         <v>5</v>
       </c>
       <c r="G172" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H172" s="10">
         <v>1</v>
@@ -7474,13 +7482,13 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A173" s="11">
-        <v>10023</v>
+        <v>10022</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="C173" s="12" t="s">
-        <v>268</v>
+        <v>262</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>269</v>
       </c>
       <c r="D173" s="11" t="s">
         <v>253</v>
@@ -7492,7 +7500,7 @@
         <v>5</v>
       </c>
       <c r="G173" s="10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H173" s="10">
         <v>1</v>
@@ -7502,13 +7510,13 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A174" s="11">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D174" s="11" t="s">
         <v>253</v>
@@ -7520,7 +7528,7 @@
         <v>5</v>
       </c>
       <c r="G174" s="10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H174" s="10">
         <v>1</v>
@@ -7529,28 +7537,56 @@
       <c r="J174" s="11"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A175">
+      <c r="A175" s="11">
+        <v>10024</v>
+      </c>
+      <c r="B175" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C175" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="D175" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E175" s="10">
+        <v>5001</v>
+      </c>
+      <c r="F175" s="10">
+        <v>5</v>
+      </c>
+      <c r="G175" s="10">
+        <v>15</v>
+      </c>
+      <c r="H175" s="10">
+        <v>1</v>
+      </c>
+      <c r="I175" s="11"/>
+      <c r="J175" s="11"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A176">
         <v>11001</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B176" t="s">
         <v>237</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C176" t="s">
         <v>211</v>
       </c>
-      <c r="D175" t="s">
-        <v>253</v>
-      </c>
-      <c r="E175">
+      <c r="D176" t="s">
+        <v>253</v>
+      </c>
+      <c r="E176">
         <v>5002</v>
       </c>
-      <c r="F175">
+      <c r="F176">
         <v>5</v>
       </c>
-      <c r="G175">
+      <c r="G176">
         <v>100</v>
       </c>
-      <c r="H175">
+      <c r="H176">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B4C21E-A402-44E4-A545-06BCE9C936F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144C5E47-9EC1-44B4-A7AD-1AD2E4C540C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="387">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1855,6 +1855,10 @@
     <rPh sb="0" eb="2">
       <t>バクダン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sort</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2069,7 +2073,15 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2413,10 +2425,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:J176" totalsRowShown="0">
-  <autoFilter ref="A1:J176" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:K176" totalsRowShown="0">
+  <autoFilter ref="A1:K176" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
+    <tableColumn id="11" xr3:uid="{BE058DD4-72CB-455C-A822-19DA100C86EF}" name="Sort" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Name"/>
     <tableColumn id="3" xr3:uid="{E73967F7-5D00-455D-9AEC-4ABDD41A14F5}" name="IconResourcesPath"/>
     <tableColumn id="10" xr3:uid="{B69A039D-08C8-46F6-B28C-2EE5EA2782F8}" name="Explanatory"/>
@@ -2432,19 +2445,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0C7E9A28-2173-4BF1-8AB7-F8C134FC1E3E}" name="テーブル2" displayName="テーブル2" ref="A1:G13" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0C7E9A28-2173-4BF1-8AB7-F8C134FC1E3E}" name="テーブル2" displayName="テーブル2" ref="A1:G13" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
   <autoFilter ref="A1:G13" xr:uid="{0C7E9A28-2173-4BF1-8AB7-F8C134FC1E3E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
     <sortCondition ref="F1:F13"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{7799492D-CC63-4F76-87DC-E337C1061300}" name="10001" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{1F72F1EC-0212-4145-8F64-C43BFC5CEBBA}" name="木の剣" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{3C5513F2-DB12-4448-B9FA-3050FF42DE1A}" name="Textures/SwordObject_2d_001" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{A2E6C594-2057-4D30-BD29-A921FA9A62D8}" name="5001" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{A7A34E46-33F4-4F3D-A7BC-3F1342AE5B36}" name="5" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{41722DF1-B171-4F21-98B3-23A6EB2693BA}" name="1" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{09C82A1F-9964-4699-842D-07338319F805}" name="12" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{7799492D-CC63-4F76-87DC-E337C1061300}" name="10001" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{1F72F1EC-0212-4145-8F64-C43BFC5CEBBA}" name="木の剣" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{3C5513F2-DB12-4448-B9FA-3050FF42DE1A}" name="Textures/SwordObject_2d_001" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{A2E6C594-2057-4D30-BD29-A921FA9A62D8}" name="5001" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{A7A34E46-33F4-4F3D-A7BC-3F1342AE5B36}" name="5" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{41722DF1-B171-4F21-98B3-23A6EB2693BA}" name="1" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{09C82A1F-9964-4699-842D-07338319F805}" name="12" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2747,4846 +2760,5374 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:J176"/>
+  <dimension ref="A1:K176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C117" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M130" sqref="M130"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="6" max="6" width="17.375" customWidth="1"/>
-    <col min="7" max="7" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="7" max="7" width="17.375" customWidth="1"/>
+    <col min="8" max="8" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>386</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>254</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>85</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>99</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>71</v>
       </c>
-      <c r="D2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E2">
+      <c r="E2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>45</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>48</v>
       </c>
-      <c r="D3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E3">
+      <c r="E3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F3">
         <v>1000</v>
       </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
       <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
         <v>5000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>999</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>46</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>49</v>
       </c>
-      <c r="D4" t="s">
-        <v>253</v>
-      </c>
-      <c r="E4">
+      <c r="E4" t="s">
+        <v>253</v>
+      </c>
+      <c r="F4">
         <v>1001</v>
       </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
       <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
         <v>5001</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>999</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>87</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>83</v>
       </c>
-      <c r="D5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E5">
+      <c r="E5" t="s">
+        <v>253</v>
+      </c>
+      <c r="F5">
         <v>2000</v>
       </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
       <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
         <v>5002</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>999</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>88</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>84</v>
       </c>
-      <c r="D6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E6">
+      <c r="E6" t="s">
+        <v>253</v>
+      </c>
+      <c r="F6">
         <v>2000</v>
       </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
       <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
         <v>5003</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>999</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
         <v>89</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>90</v>
       </c>
-      <c r="D7" t="s">
-        <v>253</v>
-      </c>
-      <c r="E7">
+      <c r="E7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F7">
         <v>2100</v>
       </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
       <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
         <v>5100</v>
       </c>
-      <c r="H7">
-        <v>9999</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I7">
+        <v>9999</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>203</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>159</v>
       </c>
-      <c r="D8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E8">
+      <c r="E8" t="s">
+        <v>253</v>
+      </c>
+      <c r="F8">
         <v>2101</v>
       </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
       <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
         <v>5101</v>
       </c>
-      <c r="H8">
-        <v>9999</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I8">
+        <v>9999</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
         <v>168</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>160</v>
       </c>
-      <c r="D9" t="s">
-        <v>253</v>
-      </c>
-      <c r="E9">
+      <c r="E9" t="s">
+        <v>253</v>
+      </c>
+      <c r="F9">
         <v>2101</v>
       </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
       <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
         <v>5102</v>
       </c>
-      <c r="H9">
-        <v>9999</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I9">
+        <v>9999</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>204</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>161</v>
       </c>
-      <c r="D10" t="s">
-        <v>253</v>
-      </c>
-      <c r="E10">
+      <c r="E10" t="s">
+        <v>253</v>
+      </c>
+      <c r="F10">
         <v>2101</v>
       </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
       <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
         <v>5103</v>
       </c>
-      <c r="H10">
-        <v>9999</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I10">
+        <v>9999</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>101</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
+      <c r="E11" t="s">
+        <v>253</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
         <v>1001</v>
       </c>
-      <c r="H11">
-        <v>9999</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I11">
+        <v>9999</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>102</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" t="s">
-        <v>253</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
+      <c r="E12" t="s">
+        <v>253</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
         <v>1002</v>
       </c>
-      <c r="H12">
-        <v>9999</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I12">
+        <v>9999</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>103</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
-        <v>253</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
+      <c r="E13" t="s">
+        <v>253</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
         <v>1003</v>
       </c>
-      <c r="H13">
-        <v>9999</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I13">
+        <v>9999</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>104</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>24</v>
       </c>
-      <c r="D14" t="s">
-        <v>253</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
+      <c r="E14" t="s">
+        <v>253</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
         <v>1004</v>
       </c>
-      <c r="H14">
-        <v>9999</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I14">
+        <v>9999</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>105</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>25</v>
       </c>
-      <c r="D15" t="s">
-        <v>253</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
+      <c r="E15" t="s">
+        <v>253</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
         <v>1005</v>
       </c>
-      <c r="H15">
-        <v>9999</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I15">
+        <v>9999</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>106</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>253</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
+      <c r="E16" t="s">
+        <v>253</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
         <v>1006</v>
       </c>
-      <c r="H16">
-        <v>9999</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I16">
+        <v>9999</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>107</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>27</v>
       </c>
-      <c r="D17" t="s">
-        <v>253</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
+      <c r="E17" t="s">
+        <v>253</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
         <v>1007</v>
       </c>
-      <c r="H17">
-        <v>9999</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I17">
+        <v>9999</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>108</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
         <v>16</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>28</v>
       </c>
-      <c r="D18" t="s">
-        <v>253</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
+      <c r="E18" t="s">
+        <v>253</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
         <v>1008</v>
       </c>
-      <c r="H18">
-        <v>9999</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I18">
+        <v>9999</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>109</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
         <v>17</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>47</v>
       </c>
-      <c r="D19" t="s">
-        <v>253</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
+      <c r="E19" t="s">
+        <v>253</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
         <v>1009</v>
       </c>
-      <c r="H19">
-        <v>9999</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I19">
+        <v>9999</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>110</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>30</v>
       </c>
-      <c r="D20" t="s">
-        <v>253</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
+      <c r="E20" t="s">
+        <v>253</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
         <v>1010</v>
       </c>
-      <c r="H20">
-        <v>9999</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I20">
+        <v>9999</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>111</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
         <v>19</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>29</v>
       </c>
-      <c r="D21" t="s">
-        <v>253</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
+      <c r="E21" t="s">
+        <v>253</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
         <v>1011</v>
       </c>
-      <c r="H21">
-        <v>9999</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I21">
+        <v>9999</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>112</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
         <v>20</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>31</v>
       </c>
-      <c r="D22" t="s">
-        <v>253</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
+      <c r="E22" t="s">
+        <v>253</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
         <v>1012</v>
       </c>
-      <c r="H22">
-        <v>9999</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I22">
+        <v>9999</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>113</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
         <v>73</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>78</v>
       </c>
-      <c r="D23" t="s">
-        <v>253</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
+      <c r="E23" t="s">
+        <v>253</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
         <v>1013</v>
       </c>
-      <c r="H23">
-        <v>9999</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I23">
+        <v>9999</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>114</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
         <v>74</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>79</v>
       </c>
-      <c r="D24" t="s">
-        <v>253</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
+      <c r="E24" t="s">
+        <v>253</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
         <v>1014</v>
       </c>
-      <c r="H24">
-        <v>9999</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I24">
+        <v>9999</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>115</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
         <v>75</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>80</v>
       </c>
-      <c r="D25" t="s">
-        <v>253</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
+      <c r="E25" t="s">
+        <v>253</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
         <v>1015</v>
       </c>
-      <c r="H25">
-        <v>9999</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I25">
+        <v>9999</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>116</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
         <v>76</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>81</v>
       </c>
-      <c r="D26" t="s">
-        <v>253</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
+      <c r="E26" t="s">
+        <v>253</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
         <v>1016</v>
       </c>
-      <c r="H26">
-        <v>9999</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I26">
+        <v>9999</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>117</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
         <v>77</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>82</v>
       </c>
-      <c r="D27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
+      <c r="E27" t="s">
+        <v>253</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
         <v>1017</v>
       </c>
-      <c r="H27">
-        <v>9999</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I27">
+        <v>9999</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>118</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
         <v>86</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>100</v>
       </c>
-      <c r="D28" t="s">
-        <v>253</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
+      <c r="E28" t="s">
+        <v>253</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
         <v>1018</v>
       </c>
-      <c r="H28">
-        <v>9999</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I28">
+        <v>9999</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>123</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
         <v>150</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>143</v>
       </c>
-      <c r="D29" t="s">
-        <v>253</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
+      <c r="E29" t="s">
+        <v>253</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
         <v>1023</v>
       </c>
-      <c r="H29">
-        <v>9999</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I29">
+        <v>9999</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>124</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>144</v>
       </c>
-      <c r="D30" t="s">
-        <v>253</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
+      <c r="E30" t="s">
+        <v>253</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
         <v>1024</v>
       </c>
-      <c r="H30">
-        <v>9999</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I30">
+        <v>9999</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>125</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>147</v>
       </c>
-      <c r="D31" t="s">
-        <v>253</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
+      <c r="E31" t="s">
+        <v>253</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
         <v>1025</v>
       </c>
-      <c r="H31">
-        <v>9999</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I31">
+        <v>9999</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>126</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>148</v>
       </c>
-      <c r="D32" t="s">
-        <v>253</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
+      <c r="E32" t="s">
+        <v>253</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
         <v>1026</v>
       </c>
-      <c r="H32">
-        <v>9999</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I32">
+        <v>9999</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>127</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>149</v>
       </c>
-      <c r="D33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
+      <c r="E33" t="s">
+        <v>253</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
         <v>1027</v>
       </c>
-      <c r="H33">
-        <v>9999</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I33">
+        <v>9999</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>128</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>145</v>
       </c>
-      <c r="D34" t="s">
-        <v>253</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
+      <c r="E34" t="s">
+        <v>253</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
         <v>1028</v>
       </c>
-      <c r="H34">
-        <v>9999</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I34">
+        <v>9999</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>129</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>146</v>
       </c>
-      <c r="D35" t="s">
-        <v>253</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
+      <c r="E35" t="s">
+        <v>253</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
         <v>1029</v>
       </c>
-      <c r="H35">
-        <v>9999</v>
-      </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I35">
+        <v>9999</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>134</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
         <v>169</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>162</v>
       </c>
-      <c r="D36" t="s">
-        <v>253</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
+      <c r="E36" t="s">
+        <v>253</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
         <v>1034</v>
       </c>
-      <c r="H36">
-        <v>9999</v>
-      </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I36">
+        <v>9999</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>135</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
         <v>170</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>163</v>
       </c>
-      <c r="D37" t="s">
-        <v>253</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
+      <c r="E37" t="s">
+        <v>253</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
         <v>1035</v>
       </c>
-      <c r="H37">
-        <v>9999</v>
-      </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I37">
+        <v>9999</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>136</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
         <v>171</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>164</v>
       </c>
-      <c r="D38" t="s">
-        <v>253</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
+      <c r="E38" t="s">
+        <v>253</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
       <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
         <v>1036</v>
       </c>
-      <c r="H38">
-        <v>9999</v>
-      </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I38">
+        <v>9999</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>137</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
         <v>172</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>165</v>
       </c>
-      <c r="D39" t="s">
-        <v>253</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
+      <c r="E39" t="s">
+        <v>253</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
       <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
         <v>1037</v>
       </c>
-      <c r="H39">
-        <v>9999</v>
-      </c>
-      <c r="J39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I39">
+        <v>9999</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>138</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
         <v>173</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>166</v>
       </c>
-      <c r="D40" t="s">
-        <v>253</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
+      <c r="E40" t="s">
+        <v>253</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
       <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
         <v>1038</v>
       </c>
-      <c r="H40">
-        <v>9999</v>
-      </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I40">
+        <v>9999</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>139</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
         <v>174</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>167</v>
       </c>
-      <c r="D41" t="s">
-        <v>253</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
+      <c r="E41" t="s">
+        <v>253</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
         <v>1039</v>
       </c>
-      <c r="H41">
-        <v>9999</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I41">
+        <v>9999</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" s="11">
         <v>200</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
         <v>294</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>295</v>
       </c>
-      <c r="D42" t="s">
-        <v>253</v>
-      </c>
-      <c r="E42">
+      <c r="E42" t="s">
+        <v>253</v>
+      </c>
+      <c r="F42">
         <v>2001</v>
       </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
       <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42">
         <v>5200</v>
       </c>
-      <c r="H42">
-        <v>9999</v>
-      </c>
-      <c r="J42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I42">
+        <v>9999</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" s="11">
         <v>201</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
         <v>296</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>297</v>
       </c>
-      <c r="D43" t="s">
-        <v>253</v>
-      </c>
-      <c r="E43">
+      <c r="E43" t="s">
+        <v>253</v>
+      </c>
+      <c r="F43">
         <v>2001</v>
       </c>
-      <c r="F43">
-        <v>2</v>
-      </c>
       <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
         <v>5201</v>
       </c>
-      <c r="H43">
-        <v>9999</v>
-      </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I43">
+        <v>9999</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44" s="11">
         <v>202</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
         <v>298</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>299</v>
       </c>
-      <c r="D44" t="s">
-        <v>253</v>
-      </c>
-      <c r="E44">
+      <c r="E44" t="s">
+        <v>253</v>
+      </c>
+      <c r="F44">
         <v>2001</v>
       </c>
-      <c r="F44">
-        <v>2</v>
-      </c>
       <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
         <v>5202</v>
       </c>
-      <c r="H44">
-        <v>9999</v>
-      </c>
-      <c r="J44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I44">
+        <v>9999</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45" s="11">
         <v>203</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
         <v>300</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>301</v>
       </c>
-      <c r="D45" t="s">
-        <v>253</v>
-      </c>
-      <c r="E45">
+      <c r="E45" t="s">
+        <v>253</v>
+      </c>
+      <c r="F45">
         <v>2001</v>
       </c>
-      <c r="F45">
-        <v>2</v>
-      </c>
       <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
         <v>5203</v>
       </c>
-      <c r="H45">
-        <v>9999</v>
-      </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I45">
+        <v>9999</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" s="11">
         <v>204</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
         <v>302</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>303</v>
       </c>
-      <c r="D46" t="s">
-        <v>253</v>
-      </c>
-      <c r="E46">
+      <c r="E46" t="s">
+        <v>253</v>
+      </c>
+      <c r="F46">
         <v>2001</v>
       </c>
-      <c r="F46">
-        <v>2</v>
-      </c>
       <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
         <v>5204</v>
       </c>
-      <c r="H46">
-        <v>9999</v>
-      </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I46">
+        <v>9999</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" s="11">
         <v>205</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
         <v>304</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>305</v>
       </c>
-      <c r="D47" t="s">
-        <v>253</v>
-      </c>
-      <c r="E47">
+      <c r="E47" t="s">
+        <v>253</v>
+      </c>
+      <c r="F47">
         <v>2001</v>
       </c>
-      <c r="F47">
-        <v>2</v>
-      </c>
       <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
         <v>5205</v>
       </c>
-      <c r="H47">
-        <v>9999</v>
-      </c>
-      <c r="J47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I47">
+        <v>9999</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48" s="11">
         <v>206</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
         <v>306</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>307</v>
       </c>
-      <c r="D48" t="s">
-        <v>253</v>
-      </c>
-      <c r="E48">
+      <c r="E48" t="s">
+        <v>253</v>
+      </c>
+      <c r="F48">
         <v>2001</v>
       </c>
-      <c r="F48">
-        <v>2</v>
-      </c>
       <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
         <v>5206</v>
       </c>
-      <c r="H48">
-        <v>9999</v>
-      </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I48">
+        <v>9999</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" s="11">
         <v>207</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
         <v>308</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>309</v>
       </c>
-      <c r="D49" t="s">
-        <v>253</v>
-      </c>
-      <c r="E49">
+      <c r="E49" t="s">
+        <v>253</v>
+      </c>
+      <c r="F49">
         <v>2001</v>
       </c>
-      <c r="F49">
-        <v>2</v>
-      </c>
       <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49">
         <v>5207</v>
       </c>
-      <c r="H49">
-        <v>9999</v>
-      </c>
-      <c r="J49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I49">
+        <v>9999</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50" s="11">
         <v>208</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
         <v>310</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>311</v>
       </c>
-      <c r="D50" t="s">
-        <v>253</v>
-      </c>
-      <c r="E50">
+      <c r="E50" t="s">
+        <v>253</v>
+      </c>
+      <c r="F50">
         <v>2001</v>
       </c>
-      <c r="F50">
-        <v>2</v>
-      </c>
       <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
         <v>5208</v>
       </c>
-      <c r="H50">
-        <v>9999</v>
-      </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I50">
+        <v>9999</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" s="11">
         <v>209</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
         <v>312</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>313</v>
       </c>
-      <c r="D51" t="s">
-        <v>253</v>
-      </c>
-      <c r="E51">
+      <c r="E51" t="s">
+        <v>253</v>
+      </c>
+      <c r="F51">
         <v>2001</v>
       </c>
-      <c r="F51">
-        <v>2</v>
-      </c>
       <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
         <v>5209</v>
       </c>
-      <c r="H51">
-        <v>9999</v>
-      </c>
-      <c r="J51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I51">
+        <v>9999</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>230</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>291</v>
       </c>
-      <c r="D52" t="s">
-        <v>253</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
+      <c r="E52" t="s">
+        <v>253</v>
       </c>
       <c r="F52">
         <v>1</v>
       </c>
       <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
         <v>1130</v>
       </c>
-      <c r="H52">
-        <v>9999</v>
-      </c>
-      <c r="J52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I52">
+        <v>9999</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>231</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>292</v>
       </c>
-      <c r="D53" t="s">
-        <v>253</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
+      <c r="E53" t="s">
+        <v>253</v>
       </c>
       <c r="F53">
         <v>1</v>
       </c>
       <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
         <v>1131</v>
       </c>
-      <c r="H53">
-        <v>9999</v>
-      </c>
-      <c r="J53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I53">
+        <v>9999</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>232</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>284</v>
       </c>
-      <c r="D54" t="s">
-        <v>253</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
+      <c r="E54" t="s">
+        <v>253</v>
       </c>
       <c r="F54">
         <v>1</v>
       </c>
       <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
         <v>1132</v>
       </c>
-      <c r="H54">
-        <v>9999</v>
-      </c>
-      <c r="J54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I54">
+        <v>9999</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>233</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>285</v>
       </c>
-      <c r="D55" t="s">
-        <v>253</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
+      <c r="E55" t="s">
+        <v>253</v>
       </c>
       <c r="F55">
         <v>1</v>
       </c>
       <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
         <v>1133</v>
       </c>
-      <c r="H55">
-        <v>9999</v>
-      </c>
-      <c r="J55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I55">
+        <v>9999</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>234</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>286</v>
       </c>
-      <c r="D56" t="s">
-        <v>253</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
+      <c r="E56" t="s">
+        <v>253</v>
       </c>
       <c r="F56">
         <v>1</v>
       </c>
       <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
         <v>1134</v>
       </c>
-      <c r="H56">
-        <v>9999</v>
-      </c>
-      <c r="J56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I56">
+        <v>9999</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>235</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>287</v>
       </c>
-      <c r="D57" t="s">
-        <v>253</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
+      <c r="E57" t="s">
+        <v>253</v>
       </c>
       <c r="F57">
         <v>1</v>
       </c>
       <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
         <v>1135</v>
       </c>
-      <c r="H57">
-        <v>9999</v>
-      </c>
-      <c r="J57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I57">
+        <v>9999</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>236</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>288</v>
       </c>
-      <c r="D58" t="s">
-        <v>253</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
+      <c r="E58" t="s">
+        <v>253</v>
       </c>
       <c r="F58">
         <v>1</v>
       </c>
       <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
         <v>1136</v>
       </c>
-      <c r="H58">
-        <v>9999</v>
-      </c>
-      <c r="J58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I58">
+        <v>9999</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>237</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>289</v>
       </c>
-      <c r="D59" t="s">
-        <v>253</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
+      <c r="E59" t="s">
+        <v>253</v>
       </c>
       <c r="F59">
         <v>1</v>
       </c>
       <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
         <v>1137</v>
       </c>
-      <c r="H59">
-        <v>9999</v>
-      </c>
-      <c r="J59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I59">
+        <v>9999</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>238</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>290</v>
       </c>
-      <c r="D60" t="s">
-        <v>253</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
+      <c r="E60" t="s">
+        <v>253</v>
       </c>
       <c r="F60">
         <v>1</v>
       </c>
       <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
         <v>1138</v>
       </c>
-      <c r="H60">
-        <v>9999</v>
-      </c>
-      <c r="J60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I60">
+        <v>9999</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>239</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>293</v>
       </c>
-      <c r="D61" t="s">
-        <v>253</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
+      <c r="E61" t="s">
+        <v>253</v>
       </c>
       <c r="F61">
         <v>1</v>
       </c>
       <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
         <v>1139</v>
       </c>
-      <c r="H61">
-        <v>9999</v>
-      </c>
-      <c r="J61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I61">
+        <v>9999</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>278</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>367</v>
       </c>
-      <c r="D62" t="s">
-        <v>253</v>
-      </c>
-      <c r="E62">
+      <c r="E62" t="s">
+        <v>253</v>
+      </c>
+      <c r="F62">
         <v>3001</v>
       </c>
-      <c r="F62">
-        <v>2</v>
-      </c>
       <c r="G62">
+        <v>2</v>
+      </c>
+      <c r="H62">
         <v>1178</v>
       </c>
-      <c r="H62">
-        <v>9999</v>
-      </c>
-      <c r="J62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I62">
+        <v>9999</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>279</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>368</v>
       </c>
-      <c r="D63" t="s">
-        <v>253</v>
-      </c>
-      <c r="E63">
+      <c r="E63" t="s">
+        <v>253</v>
+      </c>
+      <c r="F63">
         <v>3001</v>
       </c>
-      <c r="F63">
-        <v>2</v>
-      </c>
       <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63">
         <v>1179</v>
       </c>
-      <c r="H63">
-        <v>9999</v>
-      </c>
-      <c r="J63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I63">
+        <v>9999</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>280</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>369</v>
       </c>
-      <c r="D64" t="s">
-        <v>253</v>
-      </c>
-      <c r="E64">
+      <c r="E64" t="s">
+        <v>253</v>
+      </c>
+      <c r="F64">
         <v>3000</v>
       </c>
-      <c r="F64">
-        <v>2</v>
-      </c>
       <c r="G64">
+        <v>2</v>
+      </c>
+      <c r="H64">
         <v>1180</v>
       </c>
-      <c r="H64">
-        <v>9999</v>
-      </c>
-      <c r="J64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I64">
+        <v>9999</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>281</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>370</v>
       </c>
-      <c r="D65" t="s">
-        <v>253</v>
-      </c>
-      <c r="E65">
+      <c r="E65" t="s">
+        <v>253</v>
+      </c>
+      <c r="F65">
         <v>3001</v>
       </c>
-      <c r="F65">
-        <v>2</v>
-      </c>
       <c r="G65">
+        <v>2</v>
+      </c>
+      <c r="H65">
         <v>1181</v>
       </c>
-      <c r="H65">
-        <v>9999</v>
-      </c>
-      <c r="J65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I65">
+        <v>9999</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>282</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>371</v>
       </c>
-      <c r="D66" t="s">
-        <v>253</v>
-      </c>
-      <c r="E66">
+      <c r="E66" t="s">
+        <v>253</v>
+      </c>
+      <c r="F66">
         <v>3000</v>
       </c>
-      <c r="F66">
-        <v>2</v>
-      </c>
       <c r="G66">
+        <v>2</v>
+      </c>
+      <c r="H66">
         <v>1182</v>
       </c>
-      <c r="H66">
-        <v>9999</v>
-      </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I66">
+        <v>9999</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>283</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>372</v>
       </c>
-      <c r="D67" t="s">
-        <v>253</v>
-      </c>
-      <c r="E67">
+      <c r="E67" t="s">
+        <v>253</v>
+      </c>
+      <c r="F67">
         <v>3001</v>
       </c>
-      <c r="F67">
-        <v>2</v>
-      </c>
       <c r="G67">
+        <v>2</v>
+      </c>
+      <c r="H67">
         <v>1183</v>
       </c>
-      <c r="H67">
-        <v>9999</v>
-      </c>
-      <c r="J67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I67">
+        <v>9999</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>284</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>373</v>
       </c>
-      <c r="D68" t="s">
-        <v>253</v>
-      </c>
-      <c r="E68">
+      <c r="E68" t="s">
+        <v>253</v>
+      </c>
+      <c r="F68">
         <v>3001</v>
       </c>
-      <c r="F68">
-        <v>2</v>
-      </c>
       <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="H68">
         <v>1184</v>
       </c>
-      <c r="H68">
-        <v>9999</v>
-      </c>
-      <c r="J68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I68">
+        <v>9999</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>285</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>374</v>
       </c>
-      <c r="D69" t="s">
-        <v>253</v>
-      </c>
-      <c r="E69">
+      <c r="E69" t="s">
+        <v>253</v>
+      </c>
+      <c r="F69">
         <v>3001</v>
       </c>
-      <c r="F69">
-        <v>2</v>
-      </c>
       <c r="G69">
+        <v>2</v>
+      </c>
+      <c r="H69">
         <v>1185</v>
       </c>
-      <c r="H69">
-        <v>9999</v>
-      </c>
-      <c r="J69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I69">
+        <v>9999</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>287</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>379</v>
       </c>
-      <c r="D70" t="s">
-        <v>253</v>
-      </c>
-      <c r="E70">
+      <c r="E70" t="s">
+        <v>253</v>
+      </c>
+      <c r="F70">
         <v>3001</v>
       </c>
-      <c r="F70">
-        <v>2</v>
-      </c>
       <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="H70">
         <v>1187</v>
       </c>
-      <c r="H70">
-        <v>9999</v>
-      </c>
-      <c r="J70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I70">
+        <v>9999</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>288</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>380</v>
       </c>
-      <c r="D71" t="s">
-        <v>253</v>
-      </c>
-      <c r="E71">
+      <c r="E71" t="s">
+        <v>253</v>
+      </c>
+      <c r="F71">
         <v>3001</v>
       </c>
-      <c r="F71">
-        <v>2</v>
-      </c>
       <c r="G71">
+        <v>2</v>
+      </c>
+      <c r="H71">
         <v>1188</v>
       </c>
-      <c r="H71">
-        <v>9999</v>
-      </c>
-      <c r="J71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I71">
+        <v>9999</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>289</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>375</v>
       </c>
-      <c r="D72" t="s">
-        <v>253</v>
-      </c>
-      <c r="E72">
+      <c r="E72" t="s">
+        <v>253</v>
+      </c>
+      <c r="F72">
         <v>3001</v>
       </c>
-      <c r="F72">
-        <v>2</v>
-      </c>
       <c r="G72">
+        <v>2</v>
+      </c>
+      <c r="H72">
         <v>1189</v>
       </c>
-      <c r="H72">
-        <v>9999</v>
-      </c>
-      <c r="J72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I72">
+        <v>9999</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>290</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>376</v>
       </c>
-      <c r="D73" t="s">
-        <v>253</v>
-      </c>
-      <c r="E73">
+      <c r="E73" t="s">
+        <v>253</v>
+      </c>
+      <c r="F73">
         <v>3001</v>
       </c>
-      <c r="F73">
-        <v>2</v>
-      </c>
       <c r="G73">
+        <v>2</v>
+      </c>
+      <c r="H73">
         <v>1190</v>
       </c>
-      <c r="H73">
-        <v>9999</v>
-      </c>
-      <c r="J73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I73">
+        <v>9999</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>291</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>377</v>
       </c>
-      <c r="D74" t="s">
-        <v>253</v>
-      </c>
-      <c r="E74">
+      <c r="E74" t="s">
+        <v>253</v>
+      </c>
+      <c r="F74">
         <v>3000</v>
       </c>
-      <c r="F74">
-        <v>2</v>
-      </c>
       <c r="G74">
+        <v>2</v>
+      </c>
+      <c r="H74">
         <v>1191</v>
       </c>
-      <c r="H74">
-        <v>9999</v>
-      </c>
-      <c r="J74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I74">
+        <v>9999</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>292</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>378</v>
       </c>
-      <c r="D75" t="s">
-        <v>253</v>
-      </c>
-      <c r="E75">
+      <c r="E75" t="s">
+        <v>253</v>
+      </c>
+      <c r="F75">
         <v>3001</v>
       </c>
-      <c r="F75">
-        <v>2</v>
-      </c>
       <c r="G75">
+        <v>2</v>
+      </c>
+      <c r="H75">
         <v>1192</v>
       </c>
-      <c r="H75">
-        <v>9999</v>
-      </c>
-      <c r="J75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I75">
+        <v>9999</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>293</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>381</v>
       </c>
-      <c r="D76" t="s">
-        <v>253</v>
-      </c>
-      <c r="E76">
+      <c r="E76" t="s">
+        <v>253</v>
+      </c>
+      <c r="F76">
         <v>3001</v>
       </c>
-      <c r="F76">
-        <v>2</v>
-      </c>
       <c r="G76">
+        <v>2</v>
+      </c>
+      <c r="H76">
         <v>1193</v>
       </c>
-      <c r="H76">
-        <v>9999</v>
-      </c>
-      <c r="J76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I76">
+        <v>9999</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>500</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
         <v>122</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>101</v>
       </c>
-      <c r="D77" t="s">
-        <v>253</v>
-      </c>
-      <c r="E77">
+      <c r="E77" t="s">
+        <v>253</v>
+      </c>
+      <c r="F77">
         <v>3001</v>
       </c>
-      <c r="F77">
-        <v>2</v>
-      </c>
       <c r="G77">
+        <v>2</v>
+      </c>
+      <c r="H77">
         <v>1500</v>
       </c>
-      <c r="H77">
-        <v>9999</v>
-      </c>
-      <c r="J77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I77">
+        <v>9999</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>501</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
         <v>123</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>102</v>
       </c>
-      <c r="D78" t="s">
-        <v>253</v>
-      </c>
-      <c r="E78">
+      <c r="E78" t="s">
+        <v>253</v>
+      </c>
+      <c r="F78">
         <v>3001</v>
       </c>
-      <c r="F78">
-        <v>2</v>
-      </c>
       <c r="G78">
+        <v>2</v>
+      </c>
+      <c r="H78">
         <v>1501</v>
       </c>
-      <c r="H78">
-        <v>9999</v>
-      </c>
-      <c r="J78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I78">
+        <v>9999</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>502</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
         <v>124</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>103</v>
       </c>
-      <c r="D79" t="s">
-        <v>253</v>
-      </c>
-      <c r="E79">
+      <c r="E79" t="s">
+        <v>253</v>
+      </c>
+      <c r="F79">
         <v>3001</v>
       </c>
-      <c r="F79">
-        <v>2</v>
-      </c>
       <c r="G79">
+        <v>2</v>
+      </c>
+      <c r="H79">
         <v>1502</v>
       </c>
-      <c r="H79">
-        <v>9999</v>
-      </c>
-      <c r="J79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I79">
+        <v>9999</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>503</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
         <v>125</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>104</v>
       </c>
-      <c r="D80" t="s">
-        <v>253</v>
-      </c>
-      <c r="E80">
+      <c r="E80" t="s">
+        <v>253</v>
+      </c>
+      <c r="F80">
         <v>3001</v>
       </c>
-      <c r="F80">
-        <v>2</v>
-      </c>
       <c r="G80">
+        <v>2</v>
+      </c>
+      <c r="H80">
         <v>1503</v>
       </c>
-      <c r="H80">
-        <v>9999</v>
-      </c>
-      <c r="J80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I80">
+        <v>9999</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>504</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
         <v>126</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>105</v>
       </c>
-      <c r="D81" t="s">
-        <v>253</v>
-      </c>
-      <c r="E81">
+      <c r="E81" t="s">
+        <v>253</v>
+      </c>
+      <c r="F81">
         <v>3001</v>
       </c>
-      <c r="F81">
-        <v>2</v>
-      </c>
       <c r="G81">
+        <v>2</v>
+      </c>
+      <c r="H81">
         <v>1504</v>
       </c>
-      <c r="H81">
-        <v>9999</v>
-      </c>
-      <c r="J81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I81">
+        <v>9999</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>505</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
         <v>127</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>106</v>
       </c>
-      <c r="D82" t="s">
-        <v>253</v>
-      </c>
-      <c r="E82">
+      <c r="E82" t="s">
+        <v>253</v>
+      </c>
+      <c r="F82">
         <v>3001</v>
       </c>
-      <c r="F82">
-        <v>2</v>
-      </c>
       <c r="G82">
+        <v>2</v>
+      </c>
+      <c r="H82">
         <v>1505</v>
       </c>
-      <c r="H82">
-        <v>9999</v>
-      </c>
-      <c r="J82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I82">
+        <v>9999</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>506</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
         <v>128</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>107</v>
       </c>
-      <c r="D83" t="s">
-        <v>253</v>
-      </c>
-      <c r="E83">
+      <c r="E83" t="s">
+        <v>253</v>
+      </c>
+      <c r="F83">
         <v>3001</v>
       </c>
-      <c r="F83">
-        <v>2</v>
-      </c>
       <c r="G83">
+        <v>2</v>
+      </c>
+      <c r="H83">
         <v>1506</v>
       </c>
-      <c r="H83">
-        <v>9999</v>
-      </c>
-      <c r="J83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I83">
+        <v>9999</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>507</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
         <v>130</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>108</v>
       </c>
-      <c r="D84" t="s">
-        <v>253</v>
-      </c>
-      <c r="E84">
+      <c r="E84" t="s">
+        <v>253</v>
+      </c>
+      <c r="F84">
         <v>3001</v>
       </c>
-      <c r="F84">
-        <v>2</v>
-      </c>
       <c r="G84">
+        <v>2</v>
+      </c>
+      <c r="H84">
         <v>1507</v>
       </c>
-      <c r="H84">
-        <v>9999</v>
-      </c>
-      <c r="J84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I84">
+        <v>9999</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>508</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
         <v>142</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>109</v>
       </c>
-      <c r="D85" t="s">
-        <v>253</v>
-      </c>
-      <c r="E85">
+      <c r="E85" t="s">
+        <v>253</v>
+      </c>
+      <c r="F85">
         <v>3001</v>
       </c>
-      <c r="F85">
-        <v>2</v>
-      </c>
       <c r="G85">
+        <v>2</v>
+      </c>
+      <c r="H85">
         <v>1508</v>
       </c>
-      <c r="H85">
-        <v>9999</v>
-      </c>
-      <c r="J85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I85">
+        <v>9999</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>509</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
         <v>129</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>110</v>
       </c>
-      <c r="D86" t="s">
-        <v>253</v>
-      </c>
-      <c r="E86">
+      <c r="E86" t="s">
+        <v>253</v>
+      </c>
+      <c r="F86">
         <v>3001</v>
       </c>
-      <c r="F86">
-        <v>2</v>
-      </c>
       <c r="G86">
+        <v>2</v>
+      </c>
+      <c r="H86">
         <v>1509</v>
       </c>
-      <c r="H86">
-        <v>9999</v>
-      </c>
-      <c r="J86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I86">
+        <v>9999</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>550</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
         <v>131</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>112</v>
       </c>
-      <c r="D87" t="s">
-        <v>253</v>
-      </c>
-      <c r="E87">
+      <c r="E87" t="s">
+        <v>253</v>
+      </c>
+      <c r="F87">
         <v>3001</v>
       </c>
-      <c r="F87">
-        <v>2</v>
-      </c>
       <c r="G87">
+        <v>2</v>
+      </c>
+      <c r="H87">
         <v>1550</v>
       </c>
-      <c r="H87">
-        <v>9999</v>
-      </c>
-      <c r="J87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I87">
+        <v>9999</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>551</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
         <v>132</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>113</v>
       </c>
-      <c r="D88" t="s">
-        <v>253</v>
-      </c>
-      <c r="E88">
+      <c r="E88" t="s">
+        <v>253</v>
+      </c>
+      <c r="F88">
         <v>3001</v>
       </c>
-      <c r="F88">
-        <v>2</v>
-      </c>
       <c r="G88">
+        <v>2</v>
+      </c>
+      <c r="H88">
         <v>1551</v>
       </c>
-      <c r="H88">
-        <v>9999</v>
-      </c>
-      <c r="J88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I88">
+        <v>9999</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>552</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
         <v>133</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>114</v>
       </c>
-      <c r="D89" t="s">
-        <v>253</v>
-      </c>
-      <c r="E89">
+      <c r="E89" t="s">
+        <v>253</v>
+      </c>
+      <c r="F89">
         <v>3001</v>
       </c>
-      <c r="F89">
-        <v>2</v>
-      </c>
       <c r="G89">
+        <v>2</v>
+      </c>
+      <c r="H89">
         <v>1552</v>
       </c>
-      <c r="H89">
-        <v>9999</v>
-      </c>
-      <c r="J89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I89">
+        <v>9999</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>553</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
         <v>134</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>115</v>
       </c>
-      <c r="D90" t="s">
-        <v>253</v>
-      </c>
-      <c r="E90">
+      <c r="E90" t="s">
+        <v>253</v>
+      </c>
+      <c r="F90">
         <v>3001</v>
       </c>
-      <c r="F90">
-        <v>2</v>
-      </c>
       <c r="G90">
+        <v>2</v>
+      </c>
+      <c r="H90">
         <v>1553</v>
       </c>
-      <c r="H90">
-        <v>9999</v>
-      </c>
-      <c r="J90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I90">
+        <v>9999</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>554</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
         <v>135</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>116</v>
       </c>
-      <c r="D91" t="s">
-        <v>253</v>
-      </c>
-      <c r="E91">
+      <c r="E91" t="s">
+        <v>253</v>
+      </c>
+      <c r="F91">
         <v>3001</v>
       </c>
-      <c r="F91">
-        <v>2</v>
-      </c>
       <c r="G91">
+        <v>2</v>
+      </c>
+      <c r="H91">
         <v>1554</v>
       </c>
-      <c r="H91">
-        <v>9999</v>
-      </c>
-      <c r="J91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I91">
+        <v>9999</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>555</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
         <v>136</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>117</v>
       </c>
-      <c r="D92" t="s">
-        <v>253</v>
-      </c>
-      <c r="E92">
+      <c r="E92" t="s">
+        <v>253</v>
+      </c>
+      <c r="F92">
         <v>3001</v>
       </c>
-      <c r="F92">
-        <v>2</v>
-      </c>
       <c r="G92">
+        <v>2</v>
+      </c>
+      <c r="H92">
         <v>1555</v>
       </c>
-      <c r="H92">
-        <v>9999</v>
-      </c>
-      <c r="J92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I92">
+        <v>9999</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>556</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
         <v>137</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>118</v>
       </c>
-      <c r="D93" t="s">
-        <v>253</v>
-      </c>
-      <c r="E93">
+      <c r="E93" t="s">
+        <v>253</v>
+      </c>
+      <c r="F93">
         <v>3001</v>
       </c>
-      <c r="F93">
-        <v>2</v>
-      </c>
       <c r="G93">
+        <v>2</v>
+      </c>
+      <c r="H93">
         <v>1556</v>
       </c>
-      <c r="H93">
-        <v>9999</v>
-      </c>
-      <c r="J93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I93">
+        <v>9999</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>557</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
         <v>138</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>119</v>
       </c>
-      <c r="D94" t="s">
-        <v>253</v>
-      </c>
-      <c r="E94">
+      <c r="E94" t="s">
+        <v>253</v>
+      </c>
+      <c r="F94">
         <v>3001</v>
       </c>
-      <c r="F94">
-        <v>2</v>
-      </c>
       <c r="G94">
+        <v>2</v>
+      </c>
+      <c r="H94">
         <v>1557</v>
       </c>
-      <c r="H94">
-        <v>9999</v>
-      </c>
-      <c r="J94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I94">
+        <v>9999</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>558</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
         <v>141</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>120</v>
       </c>
-      <c r="D95" t="s">
-        <v>253</v>
-      </c>
-      <c r="E95">
+      <c r="E95" t="s">
+        <v>253</v>
+      </c>
+      <c r="F95">
         <v>3001</v>
       </c>
-      <c r="F95">
-        <v>2</v>
-      </c>
       <c r="G95">
+        <v>2</v>
+      </c>
+      <c r="H95">
         <v>1558</v>
       </c>
-      <c r="H95">
-        <v>9999</v>
-      </c>
-      <c r="J95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I95">
+        <v>9999</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>559</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
         <v>139</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>121</v>
       </c>
-      <c r="D96" t="s">
-        <v>253</v>
-      </c>
-      <c r="E96">
+      <c r="E96" t="s">
+        <v>253</v>
+      </c>
+      <c r="F96">
         <v>3001</v>
       </c>
-      <c r="F96">
-        <v>2</v>
-      </c>
       <c r="G96">
+        <v>2</v>
+      </c>
+      <c r="H96">
         <v>1559</v>
       </c>
-      <c r="H96">
-        <v>9999</v>
-      </c>
-      <c r="J96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I96">
+        <v>9999</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>600</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
         <v>140</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>111</v>
       </c>
-      <c r="D97" t="s">
-        <v>253</v>
-      </c>
-      <c r="E97">
+      <c r="E97" t="s">
+        <v>253</v>
+      </c>
+      <c r="F97">
         <v>3000</v>
       </c>
-      <c r="F97">
-        <v>2</v>
-      </c>
       <c r="G97">
+        <v>2</v>
+      </c>
+      <c r="H97">
         <v>1600</v>
       </c>
-      <c r="H97">
-        <v>9999</v>
-      </c>
-      <c r="J97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I97">
+        <v>9999</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>1001</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
         <v>32</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>50</v>
       </c>
-      <c r="D98" t="s">
-        <v>253</v>
-      </c>
-      <c r="E98">
-        <v>2</v>
+      <c r="E98" t="s">
+        <v>253</v>
       </c>
       <c r="F98">
+        <v>2</v>
+      </c>
+      <c r="G98">
         <v>3</v>
       </c>
-      <c r="H98">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I98">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>1002</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
         <v>33</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>51</v>
       </c>
-      <c r="D99" t="s">
-        <v>253</v>
-      </c>
-      <c r="E99">
-        <v>2</v>
+      <c r="E99" t="s">
+        <v>253</v>
       </c>
       <c r="F99">
+        <v>2</v>
+      </c>
+      <c r="G99">
         <v>3</v>
       </c>
-      <c r="H99">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I99">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>1003</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
         <v>34</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>52</v>
       </c>
-      <c r="D100" t="s">
-        <v>253</v>
-      </c>
-      <c r="E100">
-        <v>2</v>
+      <c r="E100" t="s">
+        <v>253</v>
       </c>
       <c r="F100">
+        <v>2</v>
+      </c>
+      <c r="G100">
         <v>3</v>
       </c>
-      <c r="H100">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I100">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>1004</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
         <v>35</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>53</v>
       </c>
-      <c r="D101" t="s">
-        <v>253</v>
-      </c>
-      <c r="E101">
-        <v>2</v>
+      <c r="E101" t="s">
+        <v>253</v>
       </c>
       <c r="F101">
+        <v>2</v>
+      </c>
+      <c r="G101">
         <v>3</v>
       </c>
-      <c r="H101">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I101">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>1005</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
         <v>36</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>54</v>
       </c>
-      <c r="D102" t="s">
-        <v>253</v>
-      </c>
-      <c r="E102">
-        <v>2</v>
+      <c r="E102" t="s">
+        <v>253</v>
       </c>
       <c r="F102">
+        <v>2</v>
+      </c>
+      <c r="G102">
         <v>3</v>
       </c>
-      <c r="H102">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I102">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>1006</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
         <v>37</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>55</v>
       </c>
-      <c r="D103" t="s">
-        <v>253</v>
-      </c>
-      <c r="E103">
-        <v>2</v>
+      <c r="E103" t="s">
+        <v>253</v>
       </c>
       <c r="F103">
+        <v>2</v>
+      </c>
+      <c r="G103">
         <v>3</v>
       </c>
-      <c r="H103">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I103">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>1007</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
         <v>38</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>56</v>
       </c>
-      <c r="D104" t="s">
-        <v>253</v>
-      </c>
-      <c r="E104">
-        <v>2</v>
+      <c r="E104" t="s">
+        <v>253</v>
       </c>
       <c r="F104">
+        <v>2</v>
+      </c>
+      <c r="G104">
         <v>3</v>
       </c>
-      <c r="H104">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I104">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>1008</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
         <v>39</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>57</v>
       </c>
-      <c r="D105" t="s">
-        <v>253</v>
-      </c>
-      <c r="E105">
-        <v>2</v>
+      <c r="E105" t="s">
+        <v>253</v>
       </c>
       <c r="F105">
+        <v>2</v>
+      </c>
+      <c r="G105">
         <v>3</v>
       </c>
-      <c r="H105">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I105">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>1009</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
         <v>40</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>58</v>
       </c>
-      <c r="D106" t="s">
-        <v>253</v>
-      </c>
-      <c r="E106">
-        <v>2</v>
+      <c r="E106" t="s">
+        <v>253</v>
       </c>
       <c r="F106">
+        <v>2</v>
+      </c>
+      <c r="G106">
         <v>3</v>
       </c>
-      <c r="H106">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I106">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>1010</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107" t="s">
         <v>41</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>59</v>
       </c>
-      <c r="D107" t="s">
-        <v>253</v>
-      </c>
-      <c r="E107">
-        <v>2</v>
+      <c r="E107" t="s">
+        <v>253</v>
       </c>
       <c r="F107">
+        <v>2</v>
+      </c>
+      <c r="G107">
         <v>3</v>
       </c>
-      <c r="H107">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I107">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>1011</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
         <v>42</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>60</v>
       </c>
-      <c r="D108" t="s">
-        <v>253</v>
-      </c>
-      <c r="E108">
-        <v>2</v>
+      <c r="E108" t="s">
+        <v>253</v>
       </c>
       <c r="F108">
+        <v>2</v>
+      </c>
+      <c r="G108">
         <v>3</v>
       </c>
-      <c r="H108">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I108">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>1012</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109" t="s">
         <v>43</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>61</v>
       </c>
-      <c r="D109" t="s">
-        <v>253</v>
-      </c>
-      <c r="E109">
-        <v>2</v>
+      <c r="E109" t="s">
+        <v>253</v>
       </c>
       <c r="F109">
+        <v>2</v>
+      </c>
+      <c r="G109">
         <v>3</v>
       </c>
-      <c r="H109">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I109">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>1013</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
         <v>44</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>62</v>
       </c>
-      <c r="D110" t="s">
-        <v>253</v>
-      </c>
-      <c r="E110">
-        <v>2</v>
+      <c r="E110" t="s">
+        <v>253</v>
       </c>
       <c r="F110">
+        <v>2</v>
+      </c>
+      <c r="G110">
         <v>3</v>
       </c>
-      <c r="H110">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I110">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>1014</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111" t="s">
         <v>328</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>314</v>
       </c>
-      <c r="D111" t="s">
-        <v>253</v>
-      </c>
-      <c r="E111">
-        <v>2</v>
+      <c r="E111" t="s">
+        <v>253</v>
       </c>
       <c r="F111">
+        <v>2</v>
+      </c>
+      <c r="G111">
         <v>3</v>
       </c>
-      <c r="H111">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I111">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>1015</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112" t="s">
         <v>329</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>315</v>
       </c>
-      <c r="D112" t="s">
-        <v>253</v>
-      </c>
-      <c r="E112">
-        <v>2</v>
+      <c r="E112" t="s">
+        <v>253</v>
       </c>
       <c r="F112">
+        <v>2</v>
+      </c>
+      <c r="G112">
         <v>3</v>
       </c>
-      <c r="H112">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I112">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>1016</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113" t="s">
         <v>330</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>316</v>
       </c>
-      <c r="D113" t="s">
-        <v>253</v>
-      </c>
-      <c r="E113">
-        <v>2</v>
+      <c r="E113" t="s">
+        <v>253</v>
       </c>
       <c r="F113">
+        <v>2</v>
+      </c>
+      <c r="G113">
         <v>3</v>
       </c>
-      <c r="H113">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I113">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>1017</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
         <v>331</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>317</v>
       </c>
-      <c r="D114" t="s">
-        <v>253</v>
-      </c>
-      <c r="E114">
-        <v>2</v>
+      <c r="E114" t="s">
+        <v>253</v>
       </c>
       <c r="F114">
+        <v>2</v>
+      </c>
+      <c r="G114">
         <v>3</v>
       </c>
-      <c r="H114">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I114">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>1018</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
         <v>332</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>318</v>
       </c>
-      <c r="D115" t="s">
-        <v>253</v>
-      </c>
-      <c r="E115">
-        <v>2</v>
+      <c r="E115" t="s">
+        <v>253</v>
       </c>
       <c r="F115">
+        <v>2</v>
+      </c>
+      <c r="G115">
         <v>3</v>
       </c>
-      <c r="H115">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I115">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>1019</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116" t="s">
         <v>333</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>319</v>
       </c>
-      <c r="D116" t="s">
-        <v>253</v>
-      </c>
-      <c r="E116">
-        <v>2</v>
+      <c r="E116" t="s">
+        <v>253</v>
       </c>
       <c r="F116">
+        <v>2</v>
+      </c>
+      <c r="G116">
         <v>3</v>
       </c>
-      <c r="H116">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I116">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>1020</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117" t="s">
         <v>334</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>320</v>
       </c>
-      <c r="D117" t="s">
-        <v>253</v>
-      </c>
-      <c r="E117">
-        <v>2</v>
+      <c r="E117" t="s">
+        <v>253</v>
       </c>
       <c r="F117">
+        <v>2</v>
+      </c>
+      <c r="G117">
         <v>3</v>
       </c>
-      <c r="H117">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I117">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>1021</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118" t="s">
         <v>335</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>321</v>
       </c>
-      <c r="D118" t="s">
-        <v>253</v>
-      </c>
-      <c r="E118">
-        <v>2</v>
+      <c r="E118" t="s">
+        <v>253</v>
       </c>
       <c r="F118">
+        <v>2</v>
+      </c>
+      <c r="G118">
         <v>3</v>
       </c>
-      <c r="H118">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I118">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>1022</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119" t="s">
         <v>336</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>322</v>
       </c>
-      <c r="D119" t="s">
-        <v>253</v>
-      </c>
-      <c r="E119">
-        <v>2</v>
+      <c r="E119" t="s">
+        <v>253</v>
       </c>
       <c r="F119">
+        <v>2</v>
+      </c>
+      <c r="G119">
         <v>3</v>
       </c>
-      <c r="H119">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I119">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>1023</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120" t="s">
         <v>337</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>323</v>
       </c>
-      <c r="D120" t="s">
-        <v>253</v>
-      </c>
-      <c r="E120">
-        <v>2</v>
+      <c r="E120" t="s">
+        <v>253</v>
       </c>
       <c r="F120">
+        <v>2</v>
+      </c>
+      <c r="G120">
         <v>3</v>
       </c>
-      <c r="H120">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I120">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>1024</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121" t="s">
         <v>338</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>324</v>
       </c>
-      <c r="D121" t="s">
-        <v>253</v>
-      </c>
-      <c r="E121">
-        <v>2</v>
+      <c r="E121" t="s">
+        <v>253</v>
       </c>
       <c r="F121">
+        <v>2</v>
+      </c>
+      <c r="G121">
         <v>3</v>
       </c>
-      <c r="H121">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I121">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>1025</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122" t="s">
         <v>339</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>325</v>
       </c>
-      <c r="D122" t="s">
-        <v>253</v>
-      </c>
-      <c r="E122">
-        <v>2</v>
+      <c r="E122" t="s">
+        <v>253</v>
       </c>
       <c r="F122">
+        <v>2</v>
+      </c>
+      <c r="G122">
         <v>3</v>
       </c>
-      <c r="H122">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I122">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>1026</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123" t="s">
         <v>340</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>326</v>
       </c>
-      <c r="D123" t="s">
-        <v>253</v>
-      </c>
-      <c r="E123">
-        <v>2</v>
+      <c r="E123" t="s">
+        <v>253</v>
       </c>
       <c r="F123">
+        <v>2</v>
+      </c>
+      <c r="G123">
         <v>3</v>
       </c>
-      <c r="H123">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I123">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>1027</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124" t="s">
         <v>341</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>327</v>
       </c>
-      <c r="D124" t="s">
-        <v>253</v>
-      </c>
-      <c r="E124">
-        <v>2</v>
+      <c r="E124" t="s">
+        <v>253</v>
       </c>
       <c r="F124">
+        <v>2</v>
+      </c>
+      <c r="G124">
         <v>3</v>
       </c>
-      <c r="H124">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I124">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>3000</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125" t="s">
         <v>4</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>6</v>
       </c>
-      <c r="D125" t="s">
-        <v>253</v>
-      </c>
-      <c r="E125">
+      <c r="E125" t="s">
+        <v>253</v>
+      </c>
+      <c r="F125">
         <v>100</v>
       </c>
-      <c r="F125">
+      <c r="G125">
         <v>4</v>
       </c>
-      <c r="H125">
-        <v>1</v>
-      </c>
-      <c r="J125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>3001</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126" t="s">
         <v>63</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>64</v>
       </c>
-      <c r="D126" t="s">
-        <v>253</v>
-      </c>
-      <c r="E126">
+      <c r="E126" t="s">
+        <v>253</v>
+      </c>
+      <c r="F126">
         <v>51</v>
       </c>
-      <c r="F126">
+      <c r="G126">
         <v>4</v>
       </c>
-      <c r="H126">
-        <v>9999</v>
-      </c>
-      <c r="J126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I126">
+        <v>9999</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>3002</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127" t="s">
         <v>8</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>65</v>
       </c>
-      <c r="D127" t="s">
-        <v>253</v>
-      </c>
-      <c r="E127">
+      <c r="E127" t="s">
+        <v>253</v>
+      </c>
+      <c r="F127">
         <v>52</v>
       </c>
-      <c r="F127">
+      <c r="G127">
         <v>4</v>
       </c>
-      <c r="H127">
-        <v>1</v>
-      </c>
       <c r="I127">
         <v>1</v>
       </c>
       <c r="J127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>3003</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128" t="s">
         <v>157</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>158</v>
       </c>
-      <c r="D128" t="s">
-        <v>253</v>
-      </c>
-      <c r="E128">
+      <c r="E128" t="s">
+        <v>253</v>
+      </c>
+      <c r="F128">
         <v>53</v>
       </c>
-      <c r="F128">
-        <v>2</v>
-      </c>
       <c r="G128">
+        <v>2</v>
+      </c>
+      <c r="H128">
         <v>6000</v>
       </c>
-      <c r="H128">
-        <v>9999</v>
-      </c>
-      <c r="J128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I128">
+        <v>9999</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>4000</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129" t="s">
         <v>382</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>383</v>
       </c>
-      <c r="D129" t="s">
-        <v>253</v>
-      </c>
-      <c r="E129">
+      <c r="E129" t="s">
+        <v>253</v>
+      </c>
+      <c r="F129">
         <v>4000</v>
       </c>
-      <c r="F129">
-        <v>2</v>
-      </c>
       <c r="G129">
+        <v>2</v>
+      </c>
+      <c r="H129">
         <v>9000</v>
       </c>
-      <c r="H129">
-        <v>9999</v>
-      </c>
-      <c r="J129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I129">
+        <v>9999</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>4001</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130" t="s">
         <v>385</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>383</v>
       </c>
-      <c r="D130" t="s">
-        <v>253</v>
-      </c>
-      <c r="E130">
+      <c r="E130" t="s">
+        <v>253</v>
+      </c>
+      <c r="F130">
         <v>4000</v>
       </c>
-      <c r="F130">
-        <v>2</v>
-      </c>
       <c r="G130">
+        <v>2</v>
+      </c>
+      <c r="H130">
         <v>9001</v>
       </c>
-      <c r="H130">
-        <v>9999</v>
-      </c>
-      <c r="J130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I130">
+        <v>9999</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>7016</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131" t="s">
         <v>205</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>201</v>
       </c>
-      <c r="D131" t="s">
-        <v>253</v>
-      </c>
-      <c r="E131">
+      <c r="E131" t="s">
+        <v>253</v>
+      </c>
+      <c r="F131">
         <v>3001</v>
       </c>
-      <c r="F131">
-        <v>2</v>
-      </c>
       <c r="G131">
+        <v>2</v>
+      </c>
+      <c r="H131">
         <v>7016</v>
       </c>
-      <c r="H131">
-        <v>9999</v>
-      </c>
-      <c r="J131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I131">
+        <v>9999</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>7017</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132" t="s">
         <v>206</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>202</v>
       </c>
-      <c r="D132" t="s">
-        <v>253</v>
-      </c>
-      <c r="E132">
+      <c r="E132" t="s">
+        <v>253</v>
+      </c>
+      <c r="F132">
         <v>3001</v>
       </c>
-      <c r="F132">
-        <v>2</v>
-      </c>
       <c r="G132">
+        <v>2</v>
+      </c>
+      <c r="H132">
         <v>7017</v>
       </c>
-      <c r="H132">
-        <v>9999</v>
-      </c>
-      <c r="J132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I132">
+        <v>9999</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>7018</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133" t="s">
         <v>175</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
         <v>176</v>
       </c>
-      <c r="D133" t="s">
-        <v>253</v>
-      </c>
-      <c r="E133">
+      <c r="E133" t="s">
+        <v>253</v>
+      </c>
+      <c r="F133">
         <v>3001</v>
       </c>
-      <c r="F133">
-        <v>2</v>
-      </c>
       <c r="G133">
+        <v>2</v>
+      </c>
+      <c r="H133">
         <v>7018</v>
       </c>
-      <c r="H133">
-        <v>9999</v>
-      </c>
-      <c r="J133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I133">
+        <v>9999</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>7019</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134" t="s">
         <v>177</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
         <v>178</v>
       </c>
-      <c r="D134" t="s">
-        <v>253</v>
-      </c>
-      <c r="E134">
+      <c r="E134" t="s">
+        <v>253</v>
+      </c>
+      <c r="F134">
         <v>3001</v>
       </c>
-      <c r="F134">
-        <v>2</v>
-      </c>
       <c r="G134">
+        <v>2</v>
+      </c>
+      <c r="H134">
         <v>7019</v>
       </c>
-      <c r="H134">
-        <v>9999</v>
-      </c>
-      <c r="J134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I134">
+        <v>9999</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>7020</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135" t="s">
         <v>180</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>179</v>
       </c>
-      <c r="D135" t="s">
-        <v>253</v>
-      </c>
-      <c r="E135">
+      <c r="E135" t="s">
+        <v>253</v>
+      </c>
+      <c r="F135">
         <v>3001</v>
       </c>
-      <c r="F135">
-        <v>2</v>
-      </c>
       <c r="G135">
+        <v>2</v>
+      </c>
+      <c r="H135">
         <v>7020</v>
       </c>
-      <c r="H135">
-        <v>9999</v>
-      </c>
-      <c r="J135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I135">
+        <v>9999</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>7021</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136" t="s">
         <v>181</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>183</v>
       </c>
-      <c r="D136" t="s">
-        <v>253</v>
-      </c>
-      <c r="E136">
+      <c r="E136" t="s">
+        <v>253</v>
+      </c>
+      <c r="F136">
         <v>3001</v>
       </c>
-      <c r="F136">
-        <v>2</v>
-      </c>
       <c r="G136">
+        <v>2</v>
+      </c>
+      <c r="H136">
         <v>7021</v>
       </c>
-      <c r="H136">
-        <v>9999</v>
-      </c>
-      <c r="J136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I136">
+        <v>9999</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>7022</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137" t="s">
         <v>187</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>182</v>
       </c>
-      <c r="D137" t="s">
-        <v>253</v>
-      </c>
-      <c r="E137">
+      <c r="E137" t="s">
+        <v>253</v>
+      </c>
+      <c r="F137">
         <v>3001</v>
       </c>
-      <c r="F137">
-        <v>2</v>
-      </c>
       <c r="G137">
+        <v>2</v>
+      </c>
+      <c r="H137">
         <v>7022</v>
       </c>
-      <c r="H137">
-        <v>9999</v>
-      </c>
-      <c r="J137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I137">
+        <v>9999</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>7023</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138" t="s">
         <v>188</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
         <v>184</v>
       </c>
-      <c r="D138" t="s">
-        <v>253</v>
-      </c>
-      <c r="E138">
+      <c r="E138" t="s">
+        <v>253</v>
+      </c>
+      <c r="F138">
         <v>3001</v>
       </c>
-      <c r="F138">
-        <v>2</v>
-      </c>
       <c r="G138">
+        <v>2</v>
+      </c>
+      <c r="H138">
         <v>7023</v>
       </c>
-      <c r="H138">
-        <v>9999</v>
-      </c>
-      <c r="J138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I138">
+        <v>9999</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>7024</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139" t="s">
         <v>189</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
         <v>185</v>
       </c>
-      <c r="D139" t="s">
-        <v>253</v>
-      </c>
-      <c r="E139">
+      <c r="E139" t="s">
+        <v>253</v>
+      </c>
+      <c r="F139">
         <v>3001</v>
       </c>
-      <c r="F139">
-        <v>2</v>
-      </c>
       <c r="G139">
+        <v>2</v>
+      </c>
+      <c r="H139">
         <v>7024</v>
       </c>
-      <c r="H139">
-        <v>9999</v>
-      </c>
-      <c r="J139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I139">
+        <v>9999</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>7025</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140" t="s">
         <v>190</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
         <v>186</v>
       </c>
-      <c r="D140" t="s">
-        <v>253</v>
-      </c>
-      <c r="E140">
+      <c r="E140" t="s">
+        <v>253</v>
+      </c>
+      <c r="F140">
         <v>3001</v>
       </c>
-      <c r="F140">
-        <v>2</v>
-      </c>
       <c r="G140">
+        <v>2</v>
+      </c>
+      <c r="H140">
         <v>7025</v>
       </c>
-      <c r="H140">
-        <v>9999</v>
-      </c>
-      <c r="J140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I140">
+        <v>9999</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>7026</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141" t="s">
         <v>191</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
         <v>196</v>
       </c>
-      <c r="D141" t="s">
-        <v>253</v>
-      </c>
-      <c r="E141">
+      <c r="E141" t="s">
+        <v>253</v>
+      </c>
+      <c r="F141">
         <v>3001</v>
       </c>
-      <c r="F141">
-        <v>2</v>
-      </c>
       <c r="G141">
+        <v>2</v>
+      </c>
+      <c r="H141">
         <v>7026</v>
       </c>
-      <c r="H141">
-        <v>9999</v>
-      </c>
-      <c r="J141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I141">
+        <v>9999</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>7027</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142" t="s">
         <v>192</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
         <v>197</v>
       </c>
-      <c r="D142" t="s">
-        <v>253</v>
-      </c>
-      <c r="E142">
+      <c r="E142" t="s">
+        <v>253</v>
+      </c>
+      <c r="F142">
         <v>3001</v>
       </c>
-      <c r="F142">
-        <v>2</v>
-      </c>
       <c r="G142">
+        <v>2</v>
+      </c>
+      <c r="H142">
         <v>7027</v>
       </c>
-      <c r="H142">
-        <v>9999</v>
-      </c>
-      <c r="J142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I142">
+        <v>9999</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>7028</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143" t="s">
         <v>193</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
         <v>198</v>
       </c>
-      <c r="D143" t="s">
-        <v>253</v>
-      </c>
-      <c r="E143">
+      <c r="E143" t="s">
+        <v>253</v>
+      </c>
+      <c r="F143">
         <v>3001</v>
       </c>
-      <c r="F143">
-        <v>2</v>
-      </c>
       <c r="G143">
+        <v>2</v>
+      </c>
+      <c r="H143">
         <v>7028</v>
       </c>
-      <c r="H143">
-        <v>9999</v>
-      </c>
-      <c r="J143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I143">
+        <v>9999</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>7029</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144" t="s">
         <v>194</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
         <v>199</v>
       </c>
-      <c r="D144" t="s">
-        <v>253</v>
-      </c>
-      <c r="E144">
+      <c r="E144" t="s">
+        <v>253</v>
+      </c>
+      <c r="F144">
         <v>3001</v>
       </c>
-      <c r="F144">
-        <v>2</v>
-      </c>
       <c r="G144">
+        <v>2</v>
+      </c>
+      <c r="H144">
         <v>7029</v>
       </c>
-      <c r="H144">
-        <v>9999</v>
-      </c>
-      <c r="J144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I144">
+        <v>9999</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>7030</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145" t="s">
         <v>195</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>200</v>
       </c>
-      <c r="D145" t="s">
-        <v>253</v>
-      </c>
-      <c r="E145">
+      <c r="E145" t="s">
+        <v>253</v>
+      </c>
+      <c r="F145">
         <v>3001</v>
       </c>
-      <c r="F145">
-        <v>2</v>
-      </c>
       <c r="G145">
+        <v>2</v>
+      </c>
+      <c r="H145">
         <v>7030</v>
       </c>
-      <c r="H145">
-        <v>9999</v>
-      </c>
-      <c r="J145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I145">
+        <v>9999</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>9000</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146" t="s">
         <v>68</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>66</v>
       </c>
-      <c r="D146" t="s">
-        <v>253</v>
-      </c>
-      <c r="E146">
+      <c r="E146" t="s">
+        <v>253</v>
+      </c>
+      <c r="F146">
         <v>90</v>
       </c>
-      <c r="H146">
+      <c r="I146">
         <v>9999999</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>9001</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147" t="s">
         <v>69</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
         <v>67</v>
       </c>
-      <c r="D147" t="s">
-        <v>253</v>
-      </c>
-      <c r="E147">
+      <c r="E147" t="s">
+        <v>253</v>
+      </c>
+      <c r="F147">
         <v>91</v>
       </c>
-      <c r="H147">
+      <c r="I147">
         <v>9999999</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="75" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:11" ht="75" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>9002</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148" t="s">
         <v>70</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
         <v>72</v>
       </c>
-      <c r="D148" s="14" t="s">
+      <c r="E148" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="E148">
+      <c r="F148">
         <v>92</v>
       </c>
-      <c r="H148">
+      <c r="I148">
         <v>9999999</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="75" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:11" ht="75" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>9003</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149" t="s">
         <v>212</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
         <v>207</v>
       </c>
-      <c r="D149" s="14" t="s">
+      <c r="E149" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="E149">
+      <c r="F149">
         <v>93</v>
       </c>
-      <c r="H149">
+      <c r="I149">
         <v>9999999</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>9004</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150" t="s">
         <v>208</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>209</v>
       </c>
-      <c r="D150" t="s">
-        <v>253</v>
-      </c>
-      <c r="E150">
+      <c r="E150" t="s">
+        <v>253</v>
+      </c>
+      <c r="F150">
         <v>94</v>
       </c>
-      <c r="H150">
+      <c r="I150">
         <v>9999999</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="75" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:11" ht="75" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>9005</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151" t="s">
         <v>210</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
         <v>211</v>
       </c>
-      <c r="D151" s="14" t="s">
+      <c r="E151" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="E151">
+      <c r="F151">
         <v>95</v>
       </c>
-      <c r="H151">
+      <c r="I151">
         <v>9999999</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A152" s="9">
         <v>10001</v>
       </c>
-      <c r="B152" s="10" t="s">
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="C152" s="10" t="s">
+      <c r="D152" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="D152" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E152" s="10">
+      <c r="E152" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F152" s="10">
         <v>5001</v>
       </c>
-      <c r="F152" s="10">
+      <c r="G152" s="10">
         <v>5</v>
       </c>
-      <c r="G152" s="10">
-        <v>1</v>
-      </c>
       <c r="H152" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I152" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A153" s="9">
         <v>10002</v>
       </c>
-      <c r="B153" s="9" t="s">
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C153" s="12" t="s">
+      <c r="D153" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="D153" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E153" s="12">
+      <c r="E153" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F153" s="12">
         <v>5001</v>
       </c>
-      <c r="F153" s="12">
+      <c r="G153" s="12">
         <v>5</v>
       </c>
-      <c r="G153" s="12">
-        <v>2</v>
-      </c>
       <c r="H153" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="I153" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A154" s="9">
         <v>10003</v>
       </c>
-      <c r="B154" s="12" t="s">
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="C154" s="12" t="s">
+      <c r="D154" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="D154" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E154" s="12">
+      <c r="E154" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F154" s="12">
         <v>5001</v>
       </c>
-      <c r="F154" s="12">
+      <c r="G154" s="12">
         <v>5</v>
       </c>
-      <c r="G154" s="12">
+      <c r="H154" s="12">
         <v>3</v>
       </c>
-      <c r="H154" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I154" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A155" s="9">
         <v>10004</v>
       </c>
-      <c r="B155" s="12" t="s">
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="C155" s="12" t="s">
+      <c r="D155" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="D155" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E155" s="12">
+      <c r="E155" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F155" s="12">
         <v>5001</v>
       </c>
-      <c r="F155" s="12">
+      <c r="G155" s="12">
         <v>5</v>
       </c>
-      <c r="G155" s="12">
+      <c r="H155" s="12">
         <v>4</v>
       </c>
-      <c r="H155" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I155" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A156" s="9">
         <v>10005</v>
       </c>
-      <c r="B156" s="12" t="s">
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="C156" s="12" t="s">
+      <c r="D156" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="D156" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E156" s="12">
+      <c r="E156" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F156" s="12">
         <v>5001</v>
-      </c>
-      <c r="F156" s="12">
-        <v>5</v>
       </c>
       <c r="G156" s="12">
         <v>5</v>
       </c>
       <c r="H156" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="I156" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A157" s="9">
         <v>10006</v>
       </c>
-      <c r="B157" s="12" t="s">
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="C157" s="12" t="s">
+      <c r="D157" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="D157" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E157" s="12">
+      <c r="E157" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F157" s="12">
         <v>5001</v>
       </c>
-      <c r="F157" s="12">
+      <c r="G157" s="12">
         <v>5</v>
       </c>
-      <c r="G157" s="12">
+      <c r="H157" s="12">
         <v>6</v>
       </c>
-      <c r="H157" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I157" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A158" s="9">
         <v>10007</v>
       </c>
-      <c r="B158" s="12" t="s">
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="C158" s="12" t="s">
+      <c r="D158" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="D158" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E158" s="12">
+      <c r="E158" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F158" s="12">
         <v>5001</v>
       </c>
-      <c r="F158" s="12">
+      <c r="G158" s="12">
         <v>5</v>
       </c>
-      <c r="G158" s="12">
+      <c r="H158" s="12">
         <v>7</v>
       </c>
-      <c r="H158" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I158" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A159" s="9">
         <v>10008</v>
       </c>
-      <c r="B159" s="12" t="s">
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="C159" s="12" t="s">
+      <c r="D159" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="D159" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E159" s="12">
+      <c r="E159" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F159" s="12">
         <v>5001</v>
       </c>
-      <c r="F159" s="12">
+      <c r="G159" s="12">
         <v>5</v>
       </c>
-      <c r="G159" s="12">
+      <c r="H159" s="12">
         <v>8</v>
       </c>
-      <c r="H159" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I159" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A160" s="9">
         <v>10009</v>
       </c>
-      <c r="B160" s="12" t="s">
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="C160" s="12" t="s">
+      <c r="D160" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="D160" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E160" s="12">
+      <c r="E160" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F160" s="12">
         <v>5001</v>
       </c>
-      <c r="F160" s="12">
+      <c r="G160" s="12">
         <v>5</v>
       </c>
-      <c r="G160" s="12">
+      <c r="H160" s="12">
         <v>9</v>
       </c>
-      <c r="H160" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I160" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A161" s="9">
         <v>10010</v>
       </c>
-      <c r="B161" s="12" t="s">
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="C161" s="12" t="s">
+      <c r="D161" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="D161" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E161" s="12">
+      <c r="E161" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F161" s="12">
         <v>5001</v>
       </c>
-      <c r="F161" s="12">
+      <c r="G161" s="12">
         <v>5</v>
       </c>
-      <c r="G161" s="12">
+      <c r="H161" s="12">
         <v>10</v>
       </c>
-      <c r="H161" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I161" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A162" s="9">
         <v>10011</v>
       </c>
-      <c r="B162" s="13" t="s">
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="C162" s="13" t="s">
+      <c r="D162" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="D162" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E162" s="13">
+      <c r="E162" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F162" s="13">
         <v>5001</v>
       </c>
-      <c r="F162" s="13">
+      <c r="G162" s="13">
         <v>5</v>
       </c>
-      <c r="G162" s="13">
+      <c r="H162" s="13">
         <v>11</v>
       </c>
-      <c r="H162" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I162" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A163" s="9">
         <v>10012</v>
       </c>
-      <c r="B163" s="13" t="s">
+      <c r="B163">
+        <v>1</v>
+      </c>
+      <c r="C163" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="C163" s="13" t="s">
+      <c r="D163" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="D163" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E163" s="13">
+      <c r="E163" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F163" s="13">
         <v>5001</v>
       </c>
-      <c r="F163" s="13">
+      <c r="G163" s="13">
         <v>5</v>
       </c>
-      <c r="G163" s="13">
+      <c r="H163" s="13">
         <v>12</v>
       </c>
-      <c r="H163" s="13">
-        <v>1</v>
-      </c>
-      <c r="I163" s="11"/>
+      <c r="I163" s="13">
+        <v>1</v>
+      </c>
       <c r="J163" s="11"/>
-    </row>
-    <row r="164" spans="1:10" ht="75" x14ac:dyDescent="0.4">
+      <c r="K163" s="11"/>
+    </row>
+    <row r="164" spans="1:11" ht="75" x14ac:dyDescent="0.4">
       <c r="A164" s="11">
         <v>10013</v>
       </c>
-      <c r="B164" s="11" t="s">
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="C164" s="10" t="s">
+      <c r="D164" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="D164" s="15" t="s">
+      <c r="E164" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="E164" s="10">
+      <c r="F164" s="10">
         <v>5001</v>
       </c>
-      <c r="F164" s="10">
+      <c r="G164" s="10">
         <v>5</v>
       </c>
-      <c r="G164" s="10">
+      <c r="H164" s="10">
         <v>22</v>
       </c>
-      <c r="H164" s="10">
-        <v>1</v>
-      </c>
-      <c r="I164" s="11"/>
+      <c r="I164" s="10">
+        <v>1</v>
+      </c>
       <c r="J164" s="11"/>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K164" s="11"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A165" s="11">
         <v>10014</v>
       </c>
-      <c r="B165" s="11" t="s">
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="C165" s="12" t="s">
+      <c r="D165" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="D165" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E165" s="10">
+      <c r="E165" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F165" s="10">
         <v>5001</v>
       </c>
-      <c r="F165" s="10">
+      <c r="G165" s="10">
         <v>5</v>
       </c>
-      <c r="G165" s="10">
+      <c r="H165" s="10">
         <v>23</v>
       </c>
-      <c r="H165" s="10">
-        <v>1</v>
-      </c>
-      <c r="I165" s="11"/>
+      <c r="I165" s="10">
+        <v>1</v>
+      </c>
       <c r="J165" s="11"/>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K165" s="11"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A166" s="11">
         <v>10015</v>
       </c>
-      <c r="B166" s="11" t="s">
+      <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="C166" s="12" t="s">
+      <c r="D166" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="D166" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E166" s="10">
+      <c r="E166" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F166" s="10">
         <v>5001</v>
       </c>
-      <c r="F166" s="10">
+      <c r="G166" s="10">
         <v>5</v>
       </c>
-      <c r="G166" s="10">
+      <c r="H166" s="10">
         <v>24</v>
       </c>
-      <c r="H166" s="10">
-        <v>1</v>
-      </c>
-      <c r="I166" s="11"/>
+      <c r="I166" s="10">
+        <v>1</v>
+      </c>
       <c r="J166" s="11"/>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K166" s="11"/>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A167" s="11">
         <v>10016</v>
       </c>
-      <c r="B167" s="11" t="s">
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="C167" s="10" t="s">
+      <c r="D167" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="D167" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E167" s="10">
+      <c r="E167" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F167" s="10">
         <v>5001</v>
       </c>
-      <c r="F167" s="10">
+      <c r="G167" s="10">
         <v>5</v>
       </c>
-      <c r="G167" s="10">
+      <c r="H167" s="10">
         <v>19</v>
       </c>
-      <c r="H167" s="10">
-        <v>1</v>
-      </c>
-      <c r="I167" s="11"/>
+      <c r="I167" s="10">
+        <v>1</v>
+      </c>
       <c r="J167" s="11"/>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K167" s="11"/>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A168" s="11">
         <v>10017</v>
       </c>
-      <c r="B168" s="11" t="s">
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="C168" s="12" t="s">
+      <c r="D168" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="D168" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E168" s="10">
+      <c r="E168" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F168" s="10">
         <v>5001</v>
       </c>
-      <c r="F168" s="10">
+      <c r="G168" s="10">
         <v>5</v>
       </c>
-      <c r="G168" s="10">
+      <c r="H168" s="10">
         <v>20</v>
       </c>
-      <c r="H168" s="10">
-        <v>1</v>
-      </c>
-      <c r="I168" s="11"/>
+      <c r="I168" s="10">
+        <v>1</v>
+      </c>
       <c r="J168" s="11"/>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K168" s="11"/>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A169" s="11">
         <v>10018</v>
       </c>
-      <c r="B169" s="11" t="s">
+      <c r="B169">
+        <v>1</v>
+      </c>
+      <c r="C169" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="C169" s="12" t="s">
+      <c r="D169" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="D169" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E169" s="10">
+      <c r="E169" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F169" s="10">
         <v>5001</v>
       </c>
-      <c r="F169" s="10">
+      <c r="G169" s="10">
         <v>5</v>
       </c>
-      <c r="G169" s="10">
+      <c r="H169" s="10">
         <v>21</v>
       </c>
-      <c r="H169" s="10">
-        <v>1</v>
-      </c>
-      <c r="I169" s="11"/>
+      <c r="I169" s="10">
+        <v>1</v>
+      </c>
       <c r="J169" s="11"/>
-    </row>
-    <row r="170" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="K169" s="11"/>
+    </row>
+    <row r="170" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A170" s="11">
         <v>10019</v>
       </c>
-      <c r="B170" s="11" t="s">
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="C170" s="10" t="s">
+      <c r="D170" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="D170" s="15" t="s">
+      <c r="E170" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="E170" s="10">
+      <c r="F170" s="10">
         <v>5001</v>
       </c>
-      <c r="F170" s="10">
+      <c r="G170" s="10">
         <v>5</v>
       </c>
-      <c r="G170" s="10">
+      <c r="H170" s="10">
         <v>16</v>
       </c>
-      <c r="H170" s="10">
-        <v>1</v>
-      </c>
-      <c r="I170" s="11"/>
+      <c r="I170" s="10">
+        <v>1</v>
+      </c>
       <c r="J170" s="11"/>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K170" s="11"/>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A171" s="11">
         <v>10020</v>
       </c>
-      <c r="B171" s="11" t="s">
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="C171" s="12" t="s">
+      <c r="D171" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="D171" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E171" s="10">
+      <c r="E171" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F171" s="10">
         <v>5001</v>
       </c>
-      <c r="F171" s="10">
+      <c r="G171" s="10">
         <v>5</v>
       </c>
-      <c r="G171" s="10">
+      <c r="H171" s="10">
         <v>17</v>
       </c>
-      <c r="H171" s="10">
-        <v>1</v>
-      </c>
-      <c r="I171" s="11"/>
+      <c r="I171" s="10">
+        <v>1</v>
+      </c>
       <c r="J171" s="11"/>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K171" s="11"/>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A172" s="11">
         <v>10021</v>
       </c>
-      <c r="B172" s="11" t="s">
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C172" s="12" t="s">
+      <c r="D172" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="D172" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E172" s="10">
+      <c r="E172" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F172" s="10">
         <v>5001</v>
       </c>
-      <c r="F172" s="10">
+      <c r="G172" s="10">
         <v>5</v>
       </c>
-      <c r="G172" s="10">
+      <c r="H172" s="10">
         <v>18</v>
       </c>
-      <c r="H172" s="10">
-        <v>1</v>
-      </c>
-      <c r="I172" s="11"/>
+      <c r="I172" s="10">
+        <v>1</v>
+      </c>
       <c r="J172" s="11"/>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K172" s="11"/>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A173" s="11">
         <v>10022</v>
       </c>
-      <c r="B173" s="11" t="s">
+      <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="C173" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="C173" s="10" t="s">
+      <c r="D173" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="D173" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E173" s="10">
+      <c r="E173" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F173" s="10">
         <v>5001</v>
       </c>
-      <c r="F173" s="10">
+      <c r="G173" s="10">
         <v>5</v>
       </c>
-      <c r="G173" s="10">
+      <c r="H173" s="10">
         <v>13</v>
       </c>
-      <c r="H173" s="10">
-        <v>1</v>
-      </c>
-      <c r="I173" s="11"/>
+      <c r="I173" s="10">
+        <v>1</v>
+      </c>
       <c r="J173" s="11"/>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K173" s="11"/>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A174" s="11">
         <v>10023</v>
       </c>
-      <c r="B174" s="11" t="s">
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="C174" s="12" t="s">
+      <c r="D174" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="D174" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E174" s="10">
+      <c r="E174" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F174" s="10">
         <v>5001</v>
       </c>
-      <c r="F174" s="10">
+      <c r="G174" s="10">
         <v>5</v>
       </c>
-      <c r="G174" s="10">
+      <c r="H174" s="10">
         <v>14</v>
       </c>
-      <c r="H174" s="10">
-        <v>1</v>
-      </c>
-      <c r="I174" s="11"/>
+      <c r="I174" s="10">
+        <v>1</v>
+      </c>
       <c r="J174" s="11"/>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K174" s="11"/>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A175" s="11">
         <v>10024</v>
       </c>
-      <c r="B175" s="11" t="s">
+      <c r="B175">
+        <v>1</v>
+      </c>
+      <c r="C175" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="C175" s="12" t="s">
+      <c r="D175" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="D175" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E175" s="10">
+      <c r="E175" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F175" s="10">
         <v>5001</v>
       </c>
-      <c r="F175" s="10">
+      <c r="G175" s="10">
         <v>5</v>
       </c>
-      <c r="G175" s="10">
+      <c r="H175" s="10">
         <v>15</v>
       </c>
-      <c r="H175" s="10">
-        <v>1</v>
-      </c>
-      <c r="I175" s="11"/>
+      <c r="I175" s="10">
+        <v>1</v>
+      </c>
       <c r="J175" s="11"/>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K175" s="11"/>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A176">
         <v>11001</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176" t="s">
         <v>237</v>
       </c>
-      <c r="C176" t="s">
+      <c r="D176" t="s">
         <v>211</v>
       </c>
-      <c r="D176" t="s">
-        <v>253</v>
-      </c>
-      <c r="E176">
+      <c r="E176" t="s">
+        <v>253</v>
+      </c>
+      <c r="F176">
         <v>5002</v>
       </c>
-      <c r="F176">
+      <c r="G176">
         <v>5</v>
       </c>
-      <c r="G176">
+      <c r="H176">
         <v>100</v>
       </c>
-      <c r="H176">
+      <c r="I176">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144C5E47-9EC1-44B4-A7AD-1AD2E4C540C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AFBA1D-C64D-4506-BF88-7C02CFC5B995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
@@ -2074,14 +2074,6 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2411,6 +2403,14 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2429,7 +2429,7 @@
   <autoFilter ref="A1:K176" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
-    <tableColumn id="11" xr3:uid="{BE058DD4-72CB-455C-A822-19DA100C86EF}" name="Sort" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{BE058DD4-72CB-455C-A822-19DA100C86EF}" name="Sort" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Name"/>
     <tableColumn id="3" xr3:uid="{E73967F7-5D00-455D-9AEC-4ABDD41A14F5}" name="IconResourcesPath"/>
     <tableColumn id="10" xr3:uid="{B69A039D-08C8-46F6-B28C-2EE5EA2782F8}" name="Explanatory"/>
@@ -2445,19 +2445,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0C7E9A28-2173-4BF1-8AB7-F8C134FC1E3E}" name="テーブル2" displayName="テーブル2" ref="A1:G13" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0C7E9A28-2173-4BF1-8AB7-F8C134FC1E3E}" name="テーブル2" displayName="テーブル2" ref="A1:G13" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
   <autoFilter ref="A1:G13" xr:uid="{0C7E9A28-2173-4BF1-8AB7-F8C134FC1E3E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
     <sortCondition ref="F1:F13"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{7799492D-CC63-4F76-87DC-E337C1061300}" name="10001" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{1F72F1EC-0212-4145-8F64-C43BFC5CEBBA}" name="木の剣" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{3C5513F2-DB12-4448-B9FA-3050FF42DE1A}" name="Textures/SwordObject_2d_001" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{A2E6C594-2057-4D30-BD29-A921FA9A62D8}" name="5001" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{A7A34E46-33F4-4F3D-A7BC-3F1342AE5B36}" name="5" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{41722DF1-B171-4F21-98B3-23A6EB2693BA}" name="1" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{09C82A1F-9964-4699-842D-07338319F805}" name="12" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{7799492D-CC63-4F76-87DC-E337C1061300}" name="10001" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{1F72F1EC-0212-4145-8F64-C43BFC5CEBBA}" name="木の剣" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{3C5513F2-DB12-4448-B9FA-3050FF42DE1A}" name="Textures/SwordObject_2d_001" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{A2E6C594-2057-4D30-BD29-A921FA9A62D8}" name="5001" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{A7A34E46-33F4-4F3D-A7BC-3F1342AE5B36}" name="5" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{41722DF1-B171-4F21-98B3-23A6EB2693BA}" name="1" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{09C82A1F-9964-4699-842D-07338319F805}" name="12" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2763,10 +2763,10 @@
   <dimension ref="A1:K176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2839,7 +2839,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="C3" t="s">
         <v>45</v>
@@ -2871,7 +2871,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>173</v>
       </c>
       <c r="C4" t="s">
         <v>46</v>
@@ -2903,7 +2903,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>172</v>
       </c>
       <c r="C5" t="s">
         <v>87</v>
@@ -2935,7 +2935,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>171</v>
       </c>
       <c r="C6" t="s">
         <v>88</v>
@@ -2967,7 +2967,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="C7" t="s">
         <v>89</v>
@@ -2999,7 +2999,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="C8" t="s">
         <v>203</v>
@@ -3031,7 +3031,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="C9" t="s">
         <v>168</v>
@@ -3063,7 +3063,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="C10" t="s">
         <v>204</v>
@@ -3095,7 +3095,7 @@
         <v>101</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -3127,7 +3127,7 @@
         <v>102</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>165</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -3159,7 +3159,7 @@
         <v>103</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -3191,7 +3191,7 @@
         <v>104</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>163</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -3223,7 +3223,7 @@
         <v>105</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>162</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -3255,7 +3255,7 @@
         <v>106</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -3287,7 +3287,7 @@
         <v>107</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
@@ -3319,7 +3319,7 @@
         <v>108</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>159</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
@@ -3351,7 +3351,7 @@
         <v>109</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
@@ -3383,7 +3383,7 @@
         <v>110</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
@@ -3415,7 +3415,7 @@
         <v>111</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
@@ -3447,7 +3447,7 @@
         <v>112</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>155</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
@@ -3479,7 +3479,7 @@
         <v>113</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>154</v>
       </c>
       <c r="C23" t="s">
         <v>73</v>
@@ -3511,7 +3511,7 @@
         <v>114</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="C24" t="s">
         <v>74</v>
@@ -3543,7 +3543,7 @@
         <v>115</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="C25" t="s">
         <v>75</v>
@@ -3575,7 +3575,7 @@
         <v>116</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="C26" t="s">
         <v>76</v>
@@ -3607,7 +3607,7 @@
         <v>117</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="C27" t="s">
         <v>77</v>
@@ -3639,7 +3639,7 @@
         <v>118</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>149</v>
       </c>
       <c r="C28" t="s">
         <v>86</v>
@@ -3671,7 +3671,7 @@
         <v>123</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>148</v>
       </c>
       <c r="C29" t="s">
         <v>150</v>
@@ -3703,7 +3703,7 @@
         <v>124</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>151</v>
@@ -3735,7 +3735,7 @@
         <v>125</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>152</v>
@@ -3767,7 +3767,7 @@
         <v>126</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>153</v>
@@ -3799,7 +3799,7 @@
         <v>127</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>156</v>
@@ -3831,7 +3831,7 @@
         <v>128</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>154</v>
@@ -3863,7 +3863,7 @@
         <v>129</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>155</v>
@@ -3895,7 +3895,7 @@
         <v>134</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>141</v>
       </c>
       <c r="C36" t="s">
         <v>169</v>
@@ -3927,7 +3927,7 @@
         <v>135</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="C37" t="s">
         <v>170</v>
@@ -3959,7 +3959,7 @@
         <v>136</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="C38" t="s">
         <v>171</v>
@@ -3991,7 +3991,7 @@
         <v>137</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>138</v>
       </c>
       <c r="C39" t="s">
         <v>172</v>
@@ -4023,7 +4023,7 @@
         <v>138</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="C40" t="s">
         <v>173</v>
@@ -4055,7 +4055,7 @@
         <v>139</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="C41" t="s">
         <v>174</v>
@@ -4087,7 +4087,7 @@
         <v>200</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="C42" t="s">
         <v>294</v>
@@ -4119,7 +4119,7 @@
         <v>201</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="C43" t="s">
         <v>296</v>
@@ -4151,7 +4151,7 @@
         <v>202</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="C44" t="s">
         <v>298</v>
@@ -4183,7 +4183,7 @@
         <v>203</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="C45" t="s">
         <v>300</v>
@@ -4215,7 +4215,7 @@
         <v>204</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="C46" t="s">
         <v>302</v>
@@ -4247,7 +4247,7 @@
         <v>205</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="C47" t="s">
         <v>304</v>
@@ -4279,7 +4279,7 @@
         <v>206</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="C48" t="s">
         <v>306</v>
@@ -4311,7 +4311,7 @@
         <v>207</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="C49" t="s">
         <v>308</v>
@@ -4343,7 +4343,7 @@
         <v>208</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="C50" t="s">
         <v>310</v>
@@ -4375,7 +4375,7 @@
         <v>209</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="C51" t="s">
         <v>312</v>
@@ -4407,7 +4407,7 @@
         <v>230</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>342</v>
@@ -4439,7 +4439,7 @@
         <v>231</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>343</v>
@@ -4471,7 +4471,7 @@
         <v>232</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>344</v>
@@ -4503,7 +4503,7 @@
         <v>233</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>345</v>
@@ -4535,7 +4535,7 @@
         <v>234</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>351</v>
@@ -4567,7 +4567,7 @@
         <v>235</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>346</v>
@@ -4599,7 +4599,7 @@
         <v>236</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>347</v>
@@ -4631,7 +4631,7 @@
         <v>237</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>348</v>
@@ -4663,7 +4663,7 @@
         <v>238</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>349</v>
@@ -4695,7 +4695,7 @@
         <v>239</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>350</v>
@@ -4727,7 +4727,7 @@
         <v>278</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>352</v>
@@ -4759,7 +4759,7 @@
         <v>279</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>353</v>
@@ -4791,7 +4791,7 @@
         <v>280</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>354</v>
@@ -4823,7 +4823,7 @@
         <v>281</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>355</v>
@@ -4855,7 +4855,7 @@
         <v>282</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>356</v>
@@ -4887,7 +4887,7 @@
         <v>283</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>366</v>
@@ -4919,7 +4919,7 @@
         <v>284</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>357</v>
@@ -4951,7 +4951,7 @@
         <v>285</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>358</v>
@@ -4983,7 +4983,7 @@
         <v>287</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>359</v>
@@ -5015,7 +5015,7 @@
         <v>288</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>360</v>
@@ -5047,7 +5047,7 @@
         <v>289</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>361</v>
@@ -5079,7 +5079,7 @@
         <v>290</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>362</v>
@@ -5111,7 +5111,7 @@
         <v>291</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>363</v>
@@ -5143,7 +5143,7 @@
         <v>292</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>364</v>
@@ -5175,7 +5175,7 @@
         <v>293</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>365</v>
@@ -5207,7 +5207,7 @@
         <v>500</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C77" t="s">
         <v>122</v>
@@ -5239,7 +5239,7 @@
         <v>501</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="C78" t="s">
         <v>123</v>
@@ -5271,7 +5271,7 @@
         <v>502</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="C79" t="s">
         <v>124</v>
@@ -5303,7 +5303,7 @@
         <v>503</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="C80" t="s">
         <v>125</v>
@@ -5335,7 +5335,7 @@
         <v>504</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="C81" t="s">
         <v>126</v>
@@ -5367,7 +5367,7 @@
         <v>505</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="C82" t="s">
         <v>127</v>
@@ -5399,7 +5399,7 @@
         <v>506</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="C83" t="s">
         <v>128</v>
@@ -5431,7 +5431,7 @@
         <v>507</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="C84" t="s">
         <v>130</v>
@@ -5463,7 +5463,7 @@
         <v>508</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C85" t="s">
         <v>142</v>
@@ -5495,7 +5495,7 @@
         <v>509</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="C86" t="s">
         <v>129</v>
@@ -5527,7 +5527,7 @@
         <v>550</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="C87" t="s">
         <v>131</v>
@@ -5559,7 +5559,7 @@
         <v>551</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="C88" t="s">
         <v>132</v>
@@ -5591,7 +5591,7 @@
         <v>552</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="C89" t="s">
         <v>133</v>
@@ -5623,7 +5623,7 @@
         <v>553</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="C90" t="s">
         <v>134</v>
@@ -5655,7 +5655,7 @@
         <v>554</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="C91" t="s">
         <v>135</v>
@@ -5687,7 +5687,7 @@
         <v>555</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C92" t="s">
         <v>136</v>
@@ -5719,7 +5719,7 @@
         <v>556</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="C93" t="s">
         <v>137</v>
@@ -5751,7 +5751,7 @@
         <v>557</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="C94" t="s">
         <v>138</v>
@@ -5783,7 +5783,7 @@
         <v>558</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="C95" t="s">
         <v>141</v>
@@ -5815,7 +5815,7 @@
         <v>559</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="C96" t="s">
         <v>139</v>
@@ -5847,7 +5847,7 @@
         <v>600</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C97" t="s">
         <v>140</v>
@@ -5879,7 +5879,7 @@
         <v>1001</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="C98" t="s">
         <v>32</v>
@@ -5905,7 +5905,7 @@
         <v>1002</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="C99" t="s">
         <v>33</v>
@@ -5931,7 +5931,7 @@
         <v>1003</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="C100" t="s">
         <v>34</v>
@@ -5957,7 +5957,7 @@
         <v>1004</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="C101" t="s">
         <v>35</v>
@@ -5983,7 +5983,7 @@
         <v>1005</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="C102" t="s">
         <v>36</v>
@@ -6009,7 +6009,7 @@
         <v>1006</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="C103" t="s">
         <v>37</v>
@@ -6035,7 +6035,7 @@
         <v>1007</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C104" t="s">
         <v>38</v>
@@ -6061,7 +6061,7 @@
         <v>1008</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="C105" t="s">
         <v>39</v>
@@ -6087,7 +6087,7 @@
         <v>1009</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="C106" t="s">
         <v>40</v>
@@ -6113,7 +6113,7 @@
         <v>1010</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C107" t="s">
         <v>41</v>
@@ -6139,7 +6139,7 @@
         <v>1011</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="C108" t="s">
         <v>42</v>
@@ -6165,7 +6165,7 @@
         <v>1012</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="C109" t="s">
         <v>43</v>
@@ -6191,7 +6191,7 @@
         <v>1013</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="C110" t="s">
         <v>44</v>
@@ -6217,7 +6217,7 @@
         <v>1014</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="C111" t="s">
         <v>328</v>
@@ -6243,7 +6243,7 @@
         <v>1015</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="C112" t="s">
         <v>329</v>
@@ -6269,7 +6269,7 @@
         <v>1016</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="C113" t="s">
         <v>330</v>
@@ -6295,7 +6295,7 @@
         <v>1017</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C114" t="s">
         <v>331</v>
@@ -6321,7 +6321,7 @@
         <v>1018</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="C115" t="s">
         <v>332</v>
@@ -6347,7 +6347,7 @@
         <v>1019</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C116" t="s">
         <v>333</v>
@@ -6373,7 +6373,7 @@
         <v>1020</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="C117" t="s">
         <v>334</v>
@@ -6399,7 +6399,7 @@
         <v>1021</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="C118" t="s">
         <v>335</v>
@@ -6425,7 +6425,7 @@
         <v>1022</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C119" t="s">
         <v>336</v>
@@ -6451,7 +6451,7 @@
         <v>1023</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="C120" t="s">
         <v>337</v>
@@ -6477,7 +6477,7 @@
         <v>1024</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C121" t="s">
         <v>338</v>
@@ -6503,7 +6503,7 @@
         <v>1025</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="C122" t="s">
         <v>339</v>
@@ -6529,7 +6529,7 @@
         <v>1026</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C123" t="s">
         <v>340</v>
@@ -6555,7 +6555,7 @@
         <v>1027</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C124" t="s">
         <v>341</v>
@@ -6581,7 +6581,7 @@
         <v>3000</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C125" t="s">
         <v>4</v>
@@ -6610,7 +6610,7 @@
         <v>3001</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C126" t="s">
         <v>63</v>
@@ -6639,7 +6639,7 @@
         <v>3002</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C127" t="s">
         <v>8</v>
@@ -6671,7 +6671,7 @@
         <v>3003</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="C128" t="s">
         <v>157</v>
@@ -6703,7 +6703,7 @@
         <v>4000</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C129" t="s">
         <v>382</v>
@@ -6735,7 +6735,7 @@
         <v>4001</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C130" t="s">
         <v>385</v>
@@ -6767,7 +6767,7 @@
         <v>7016</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C131" t="s">
         <v>205</v>
@@ -6799,7 +6799,7 @@
         <v>7017</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C132" t="s">
         <v>206</v>
@@ -6831,7 +6831,7 @@
         <v>7018</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C133" t="s">
         <v>175</v>
@@ -6863,7 +6863,7 @@
         <v>7019</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C134" t="s">
         <v>177</v>
@@ -6895,7 +6895,7 @@
         <v>7020</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C135" t="s">
         <v>180</v>
@@ -6927,7 +6927,7 @@
         <v>7021</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C136" t="s">
         <v>181</v>
@@ -6959,7 +6959,7 @@
         <v>7022</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C137" t="s">
         <v>187</v>
@@ -6991,7 +6991,7 @@
         <v>7023</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C138" t="s">
         <v>188</v>
@@ -7023,7 +7023,7 @@
         <v>7024</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C139" t="s">
         <v>189</v>
@@ -7055,7 +7055,7 @@
         <v>7025</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C140" t="s">
         <v>190</v>
@@ -7087,7 +7087,7 @@
         <v>7026</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C141" t="s">
         <v>191</v>
@@ -7119,7 +7119,7 @@
         <v>7027</v>
       </c>
       <c r="B142">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C142" t="s">
         <v>192</v>
@@ -7151,7 +7151,7 @@
         <v>7028</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C143" t="s">
         <v>193</v>
@@ -7183,7 +7183,7 @@
         <v>7029</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C144" t="s">
         <v>194</v>
@@ -7215,7 +7215,7 @@
         <v>7030</v>
       </c>
       <c r="B145">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C145" t="s">
         <v>195</v>
@@ -7247,7 +7247,7 @@
         <v>9000</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C146" t="s">
         <v>68</v>
@@ -7270,7 +7270,7 @@
         <v>9001</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C147" t="s">
         <v>69</v>
@@ -7293,7 +7293,7 @@
         <v>9002</v>
       </c>
       <c r="B148">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C148" t="s">
         <v>70</v>
@@ -7316,7 +7316,7 @@
         <v>9003</v>
       </c>
       <c r="B149">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C149" t="s">
         <v>212</v>
@@ -7339,7 +7339,7 @@
         <v>9004</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C150" t="s">
         <v>208</v>
@@ -7362,7 +7362,7 @@
         <v>9005</v>
       </c>
       <c r="B151">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C151" t="s">
         <v>210</v>
@@ -7385,7 +7385,7 @@
         <v>10001</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C152" s="10" t="s">
         <v>213</v>
@@ -7414,7 +7414,7 @@
         <v>10002</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C153" s="9" t="s">
         <v>214</v>
@@ -7443,7 +7443,7 @@
         <v>10003</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C154" s="12" t="s">
         <v>215</v>
@@ -7472,7 +7472,7 @@
         <v>10004</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C155" s="12" t="s">
         <v>238</v>
@@ -7501,7 +7501,7 @@
         <v>10005</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C156" s="12" t="s">
         <v>243</v>
@@ -7530,7 +7530,7 @@
         <v>10006</v>
       </c>
       <c r="B157">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C157" s="12" t="s">
         <v>241</v>
@@ -7559,7 +7559,7 @@
         <v>10007</v>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C158" s="12" t="s">
         <v>239</v>
@@ -7588,7 +7588,7 @@
         <v>10008</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C159" s="12" t="s">
         <v>244</v>
@@ -7617,7 +7617,7 @@
         <v>10009</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C160" s="12" t="s">
         <v>246</v>
@@ -7646,7 +7646,7 @@
         <v>10010</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C161" s="12" t="s">
         <v>240</v>
@@ -7675,7 +7675,7 @@
         <v>10011</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C162" s="13" t="s">
         <v>245</v>
@@ -7704,7 +7704,7 @@
         <v>10012</v>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C163" s="13" t="s">
         <v>242</v>
@@ -7735,7 +7735,7 @@
         <v>10013</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C164" s="11" t="s">
         <v>255</v>
@@ -7766,7 +7766,7 @@
         <v>10014</v>
       </c>
       <c r="B165">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C165" s="11" t="s">
         <v>257</v>
@@ -7797,7 +7797,7 @@
         <v>10015</v>
       </c>
       <c r="B166">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C166" s="11" t="s">
         <v>256</v>
@@ -7828,7 +7828,7 @@
         <v>10016</v>
       </c>
       <c r="B167">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C167" s="11" t="s">
         <v>258</v>
@@ -7859,7 +7859,7 @@
         <v>10017</v>
       </c>
       <c r="B168">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C168" s="11" t="s">
         <v>260</v>
@@ -7890,7 +7890,7 @@
         <v>10018</v>
       </c>
       <c r="B169">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C169" s="11" t="s">
         <v>259</v>
@@ -7921,7 +7921,7 @@
         <v>10019</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C170" s="11" t="s">
         <v>261</v>
@@ -7952,7 +7952,7 @@
         <v>10020</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C171" s="11" t="s">
         <v>263</v>
@@ -7983,7 +7983,7 @@
         <v>10021</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C172" s="11" t="s">
         <v>265</v>
@@ -8014,7 +8014,7 @@
         <v>10022</v>
       </c>
       <c r="B173">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C173" s="11" t="s">
         <v>262</v>
@@ -8045,7 +8045,7 @@
         <v>10023</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C174" s="11" t="s">
         <v>264</v>
@@ -8076,7 +8076,7 @@
         <v>10024</v>
       </c>
       <c r="B175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C175" s="11" t="s">
         <v>266</v>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AFBA1D-C64D-4506-BF88-7C02CFC5B995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD370D4-AB24-478B-9F59-F6281E5336EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
@@ -2766,7 +2766,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2839,7 +2839,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>174</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>45</v>
@@ -2871,7 +2871,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>173</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>46</v>
@@ -2903,7 +2903,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>172</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>87</v>
@@ -2935,7 +2935,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>171</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>88</v>
@@ -2967,7 +2967,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>170</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>89</v>
@@ -2999,7 +2999,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>169</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>203</v>
@@ -3031,7 +3031,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>168</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>168</v>
@@ -3063,7 +3063,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>167</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>204</v>
@@ -3095,7 +3095,7 @@
         <v>101</v>
       </c>
       <c r="B11">
-        <v>166</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -3127,7 +3127,7 @@
         <v>102</v>
       </c>
       <c r="B12">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -3159,7 +3159,7 @@
         <v>103</v>
       </c>
       <c r="B13">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -3191,7 +3191,7 @@
         <v>104</v>
       </c>
       <c r="B14">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -3223,7 +3223,7 @@
         <v>105</v>
       </c>
       <c r="B15">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -3255,7 +3255,7 @@
         <v>106</v>
       </c>
       <c r="B16">
-        <v>161</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -3287,7 +3287,7 @@
         <v>107</v>
       </c>
       <c r="B17">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
@@ -3319,7 +3319,7 @@
         <v>108</v>
       </c>
       <c r="B18">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
@@ -3351,7 +3351,7 @@
         <v>109</v>
       </c>
       <c r="B19">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
@@ -3383,7 +3383,7 @@
         <v>110</v>
       </c>
       <c r="B20">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
@@ -3415,7 +3415,7 @@
         <v>111</v>
       </c>
       <c r="B21">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
@@ -3447,7 +3447,7 @@
         <v>112</v>
       </c>
       <c r="B22">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
@@ -3479,7 +3479,7 @@
         <v>113</v>
       </c>
       <c r="B23">
-        <v>154</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
         <v>73</v>
@@ -3511,7 +3511,7 @@
         <v>114</v>
       </c>
       <c r="B24">
-        <v>153</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
         <v>74</v>
@@ -3543,7 +3543,7 @@
         <v>115</v>
       </c>
       <c r="B25">
-        <v>152</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
         <v>75</v>
@@ -3575,7 +3575,7 @@
         <v>116</v>
       </c>
       <c r="B26">
-        <v>151</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
         <v>76</v>
@@ -3607,7 +3607,7 @@
         <v>117</v>
       </c>
       <c r="B27">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
         <v>77</v>
@@ -3639,7 +3639,7 @@
         <v>118</v>
       </c>
       <c r="B28">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
         <v>86</v>
@@ -3671,7 +3671,7 @@
         <v>123</v>
       </c>
       <c r="B29">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
         <v>150</v>
@@ -3703,7 +3703,7 @@
         <v>124</v>
       </c>
       <c r="B30">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>151</v>
@@ -3735,7 +3735,7 @@
         <v>125</v>
       </c>
       <c r="B31">
-        <v>146</v>
+        <v>29</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>152</v>
@@ -3767,7 +3767,7 @@
         <v>126</v>
       </c>
       <c r="B32">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>153</v>
@@ -3799,7 +3799,7 @@
         <v>127</v>
       </c>
       <c r="B33">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>156</v>
@@ -3831,7 +3831,7 @@
         <v>128</v>
       </c>
       <c r="B34">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>154</v>
@@ -3863,7 +3863,7 @@
         <v>129</v>
       </c>
       <c r="B35">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>155</v>
@@ -3895,7 +3895,7 @@
         <v>134</v>
       </c>
       <c r="B36">
-        <v>141</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
         <v>169</v>
@@ -3927,7 +3927,7 @@
         <v>135</v>
       </c>
       <c r="B37">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
         <v>170</v>
@@ -3959,7 +3959,7 @@
         <v>136</v>
       </c>
       <c r="B38">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s">
         <v>171</v>
@@ -3991,7 +3991,7 @@
         <v>137</v>
       </c>
       <c r="B39">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
         <v>172</v>
@@ -4023,7 +4023,7 @@
         <v>138</v>
       </c>
       <c r="B40">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="C40" t="s">
         <v>173</v>
@@ -4055,7 +4055,7 @@
         <v>139</v>
       </c>
       <c r="B41">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
         <v>174</v>
@@ -4087,7 +4087,7 @@
         <v>200</v>
       </c>
       <c r="B42">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
         <v>294</v>
@@ -4119,7 +4119,7 @@
         <v>201</v>
       </c>
       <c r="B43">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="C43" t="s">
         <v>296</v>
@@ -4151,7 +4151,7 @@
         <v>202</v>
       </c>
       <c r="B44">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="C44" t="s">
         <v>298</v>
@@ -4183,7 +4183,7 @@
         <v>203</v>
       </c>
       <c r="B45">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="C45" t="s">
         <v>300</v>
@@ -4215,7 +4215,7 @@
         <v>204</v>
       </c>
       <c r="B46">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="C46" t="s">
         <v>302</v>
@@ -4247,7 +4247,7 @@
         <v>205</v>
       </c>
       <c r="B47">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="C47" t="s">
         <v>304</v>
@@ -4279,7 +4279,7 @@
         <v>206</v>
       </c>
       <c r="B48">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="C48" t="s">
         <v>306</v>
@@ -4311,7 +4311,7 @@
         <v>207</v>
       </c>
       <c r="B49">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="C49" t="s">
         <v>308</v>
@@ -4343,7 +4343,7 @@
         <v>208</v>
       </c>
       <c r="B50">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="C50" t="s">
         <v>310</v>
@@ -4375,7 +4375,7 @@
         <v>209</v>
       </c>
       <c r="B51">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="C51" t="s">
         <v>312</v>
@@ -4407,7 +4407,7 @@
         <v>230</v>
       </c>
       <c r="B52">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>342</v>
@@ -4439,7 +4439,7 @@
         <v>231</v>
       </c>
       <c r="B53">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>343</v>
@@ -4471,7 +4471,7 @@
         <v>232</v>
       </c>
       <c r="B54">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>344</v>
@@ -4503,7 +4503,7 @@
         <v>233</v>
       </c>
       <c r="B55">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>345</v>
@@ -4535,7 +4535,7 @@
         <v>234</v>
       </c>
       <c r="B56">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>351</v>
@@ -4567,7 +4567,7 @@
         <v>235</v>
       </c>
       <c r="B57">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>346</v>
@@ -4599,7 +4599,7 @@
         <v>236</v>
       </c>
       <c r="B58">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>347</v>
@@ -4631,7 +4631,7 @@
         <v>237</v>
       </c>
       <c r="B59">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>348</v>
@@ -4663,7 +4663,7 @@
         <v>238</v>
       </c>
       <c r="B60">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>349</v>
@@ -4695,7 +4695,7 @@
         <v>239</v>
       </c>
       <c r="B61">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>350</v>
@@ -4727,7 +4727,7 @@
         <v>278</v>
       </c>
       <c r="B62">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>352</v>
@@ -4759,7 +4759,7 @@
         <v>279</v>
       </c>
       <c r="B63">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>353</v>
@@ -4791,7 +4791,7 @@
         <v>280</v>
       </c>
       <c r="B64">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>354</v>
@@ -4823,7 +4823,7 @@
         <v>281</v>
       </c>
       <c r="B65">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>355</v>
@@ -4855,7 +4855,7 @@
         <v>282</v>
       </c>
       <c r="B66">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>356</v>
@@ -4887,7 +4887,7 @@
         <v>283</v>
       </c>
       <c r="B67">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>366</v>
@@ -4919,7 +4919,7 @@
         <v>284</v>
       </c>
       <c r="B68">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>357</v>
@@ -4951,7 +4951,7 @@
         <v>285</v>
       </c>
       <c r="B69">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>358</v>
@@ -4983,7 +4983,7 @@
         <v>287</v>
       </c>
       <c r="B70">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>359</v>
@@ -5015,7 +5015,7 @@
         <v>288</v>
       </c>
       <c r="B71">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>360</v>
@@ -5047,7 +5047,7 @@
         <v>289</v>
       </c>
       <c r="B72">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>361</v>
@@ -5079,7 +5079,7 @@
         <v>290</v>
       </c>
       <c r="B73">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>362</v>
@@ -5111,7 +5111,7 @@
         <v>291</v>
       </c>
       <c r="B74">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>363</v>
@@ -5143,7 +5143,7 @@
         <v>292</v>
       </c>
       <c r="B75">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>364</v>
@@ -5175,7 +5175,7 @@
         <v>293</v>
       </c>
       <c r="B76">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>365</v>
@@ -5207,7 +5207,7 @@
         <v>500</v>
       </c>
       <c r="B77">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C77" t="s">
         <v>122</v>
@@ -5239,7 +5239,7 @@
         <v>501</v>
       </c>
       <c r="B78">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C78" t="s">
         <v>123</v>
@@ -5271,7 +5271,7 @@
         <v>502</v>
       </c>
       <c r="B79">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C79" t="s">
         <v>124</v>
@@ -5303,7 +5303,7 @@
         <v>503</v>
       </c>
       <c r="B80">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C80" t="s">
         <v>125</v>
@@ -5335,7 +5335,7 @@
         <v>504</v>
       </c>
       <c r="B81">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C81" t="s">
         <v>126</v>
@@ -5367,7 +5367,7 @@
         <v>505</v>
       </c>
       <c r="B82">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C82" t="s">
         <v>127</v>
@@ -5399,7 +5399,7 @@
         <v>506</v>
       </c>
       <c r="B83">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C83" t="s">
         <v>128</v>
@@ -5431,7 +5431,7 @@
         <v>507</v>
       </c>
       <c r="B84">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C84" t="s">
         <v>130</v>
@@ -5463,7 +5463,7 @@
         <v>508</v>
       </c>
       <c r="B85">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C85" t="s">
         <v>142</v>
@@ -5495,7 +5495,7 @@
         <v>509</v>
       </c>
       <c r="B86">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C86" t="s">
         <v>129</v>
@@ -5527,7 +5527,7 @@
         <v>550</v>
       </c>
       <c r="B87">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C87" t="s">
         <v>131</v>
@@ -5559,7 +5559,7 @@
         <v>551</v>
       </c>
       <c r="B88">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C88" t="s">
         <v>132</v>
@@ -5591,7 +5591,7 @@
         <v>552</v>
       </c>
       <c r="B89">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C89" t="s">
         <v>133</v>
@@ -5623,7 +5623,7 @@
         <v>553</v>
       </c>
       <c r="B90">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C90" t="s">
         <v>134</v>
@@ -5655,7 +5655,7 @@
         <v>554</v>
       </c>
       <c r="B91">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C91" t="s">
         <v>135</v>
@@ -5687,7 +5687,7 @@
         <v>555</v>
       </c>
       <c r="B92">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C92" t="s">
         <v>136</v>
@@ -5719,7 +5719,7 @@
         <v>556</v>
       </c>
       <c r="B93">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C93" t="s">
         <v>137</v>
@@ -5751,7 +5751,7 @@
         <v>557</v>
       </c>
       <c r="B94">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C94" t="s">
         <v>138</v>
@@ -5783,7 +5783,7 @@
         <v>558</v>
       </c>
       <c r="B95">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C95" t="s">
         <v>141</v>
@@ -5815,7 +5815,7 @@
         <v>559</v>
       </c>
       <c r="B96">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C96" t="s">
         <v>139</v>
@@ -5847,7 +5847,7 @@
         <v>600</v>
       </c>
       <c r="B97">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C97" t="s">
         <v>140</v>
@@ -5879,7 +5879,7 @@
         <v>1001</v>
       </c>
       <c r="B98">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C98" t="s">
         <v>32</v>
@@ -5905,7 +5905,7 @@
         <v>1002</v>
       </c>
       <c r="B99">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C99" t="s">
         <v>33</v>
@@ -5931,7 +5931,7 @@
         <v>1003</v>
       </c>
       <c r="B100">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C100" t="s">
         <v>34</v>
@@ -5957,7 +5957,7 @@
         <v>1004</v>
       </c>
       <c r="B101">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C101" t="s">
         <v>35</v>
@@ -5983,7 +5983,7 @@
         <v>1005</v>
       </c>
       <c r="B102">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C102" t="s">
         <v>36</v>
@@ -6009,7 +6009,7 @@
         <v>1006</v>
       </c>
       <c r="B103">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="C103" t="s">
         <v>37</v>
@@ -6035,7 +6035,7 @@
         <v>1007</v>
       </c>
       <c r="B104">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C104" t="s">
         <v>38</v>
@@ -6061,7 +6061,7 @@
         <v>1008</v>
       </c>
       <c r="B105">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="C105" t="s">
         <v>39</v>
@@ -6087,7 +6087,7 @@
         <v>1009</v>
       </c>
       <c r="B106">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="C106" t="s">
         <v>40</v>
@@ -6113,7 +6113,7 @@
         <v>1010</v>
       </c>
       <c r="B107">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="C107" t="s">
         <v>41</v>
@@ -6139,7 +6139,7 @@
         <v>1011</v>
       </c>
       <c r="B108">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="C108" t="s">
         <v>42</v>
@@ -6165,7 +6165,7 @@
         <v>1012</v>
       </c>
       <c r="B109">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="C109" t="s">
         <v>43</v>
@@ -6191,7 +6191,7 @@
         <v>1013</v>
       </c>
       <c r="B110">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="C110" t="s">
         <v>44</v>
@@ -6217,7 +6217,7 @@
         <v>1014</v>
       </c>
       <c r="B111">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="C111" t="s">
         <v>328</v>
@@ -6243,7 +6243,7 @@
         <v>1015</v>
       </c>
       <c r="B112">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="C112" t="s">
         <v>329</v>
@@ -6269,7 +6269,7 @@
         <v>1016</v>
       </c>
       <c r="B113">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="C113" t="s">
         <v>330</v>
@@ -6295,7 +6295,7 @@
         <v>1017</v>
       </c>
       <c r="B114">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="C114" t="s">
         <v>331</v>
@@ -6321,7 +6321,7 @@
         <v>1018</v>
       </c>
       <c r="B115">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="C115" t="s">
         <v>332</v>
@@ -6347,7 +6347,7 @@
         <v>1019</v>
       </c>
       <c r="B116">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="C116" t="s">
         <v>333</v>
@@ -6373,7 +6373,7 @@
         <v>1020</v>
       </c>
       <c r="B117">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="C117" t="s">
         <v>334</v>
@@ -6399,7 +6399,7 @@
         <v>1021</v>
       </c>
       <c r="B118">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="C118" t="s">
         <v>335</v>
@@ -6425,7 +6425,7 @@
         <v>1022</v>
       </c>
       <c r="B119">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="C119" t="s">
         <v>336</v>
@@ -6451,7 +6451,7 @@
         <v>1023</v>
       </c>
       <c r="B120">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="C120" t="s">
         <v>337</v>
@@ -6477,7 +6477,7 @@
         <v>1024</v>
       </c>
       <c r="B121">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="C121" t="s">
         <v>338</v>
@@ -6503,7 +6503,7 @@
         <v>1025</v>
       </c>
       <c r="B122">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="C122" t="s">
         <v>339</v>
@@ -6529,7 +6529,7 @@
         <v>1026</v>
       </c>
       <c r="B123">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="C123" t="s">
         <v>340</v>
@@ -6555,7 +6555,7 @@
         <v>1027</v>
       </c>
       <c r="B124">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="C124" t="s">
         <v>341</v>
@@ -6581,7 +6581,7 @@
         <v>3000</v>
       </c>
       <c r="B125">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="C125" t="s">
         <v>4</v>
@@ -6610,7 +6610,7 @@
         <v>3001</v>
       </c>
       <c r="B126">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="C126" t="s">
         <v>63</v>
@@ -6639,7 +6639,7 @@
         <v>3002</v>
       </c>
       <c r="B127">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="C127" t="s">
         <v>8</v>
@@ -6671,7 +6671,7 @@
         <v>3003</v>
       </c>
       <c r="B128">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="C128" t="s">
         <v>157</v>
@@ -6703,7 +6703,7 @@
         <v>4000</v>
       </c>
       <c r="B129">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="C129" t="s">
         <v>382</v>
@@ -6735,7 +6735,7 @@
         <v>4001</v>
       </c>
       <c r="B130">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="C130" t="s">
         <v>385</v>
@@ -6767,7 +6767,7 @@
         <v>7016</v>
       </c>
       <c r="B131">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="C131" t="s">
         <v>205</v>
@@ -6799,7 +6799,7 @@
         <v>7017</v>
       </c>
       <c r="B132">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="C132" t="s">
         <v>206</v>
@@ -6831,7 +6831,7 @@
         <v>7018</v>
       </c>
       <c r="B133">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="C133" t="s">
         <v>175</v>
@@ -6863,7 +6863,7 @@
         <v>7019</v>
       </c>
       <c r="B134">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="C134" t="s">
         <v>177</v>
@@ -6895,7 +6895,7 @@
         <v>7020</v>
       </c>
       <c r="B135">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="C135" t="s">
         <v>180</v>
@@ -6927,7 +6927,7 @@
         <v>7021</v>
       </c>
       <c r="B136">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="C136" t="s">
         <v>181</v>
@@ -6959,7 +6959,7 @@
         <v>7022</v>
       </c>
       <c r="B137">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="C137" t="s">
         <v>187</v>
@@ -6991,7 +6991,7 @@
         <v>7023</v>
       </c>
       <c r="B138">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="C138" t="s">
         <v>188</v>
@@ -7023,7 +7023,7 @@
         <v>7024</v>
       </c>
       <c r="B139">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="C139" t="s">
         <v>189</v>
@@ -7055,7 +7055,7 @@
         <v>7025</v>
       </c>
       <c r="B140">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="C140" t="s">
         <v>190</v>
@@ -7087,7 +7087,7 @@
         <v>7026</v>
       </c>
       <c r="B141">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="C141" t="s">
         <v>191</v>
@@ -7119,7 +7119,7 @@
         <v>7027</v>
       </c>
       <c r="B142">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="C142" t="s">
         <v>192</v>
@@ -7151,7 +7151,7 @@
         <v>7028</v>
       </c>
       <c r="B143">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="C143" t="s">
         <v>193</v>
@@ -7183,7 +7183,7 @@
         <v>7029</v>
       </c>
       <c r="B144">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="C144" t="s">
         <v>194</v>
@@ -7215,7 +7215,7 @@
         <v>7030</v>
       </c>
       <c r="B145">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="C145" t="s">
         <v>195</v>
@@ -7247,7 +7247,7 @@
         <v>9000</v>
       </c>
       <c r="B146">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="C146" t="s">
         <v>68</v>
@@ -7270,7 +7270,7 @@
         <v>9001</v>
       </c>
       <c r="B147">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="C147" t="s">
         <v>69</v>
@@ -7293,7 +7293,7 @@
         <v>9002</v>
       </c>
       <c r="B148">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="C148" t="s">
         <v>70</v>
@@ -7316,7 +7316,7 @@
         <v>9003</v>
       </c>
       <c r="B149">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="C149" t="s">
         <v>212</v>
@@ -7339,7 +7339,7 @@
         <v>9004</v>
       </c>
       <c r="B150">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="C150" t="s">
         <v>208</v>
@@ -7362,7 +7362,7 @@
         <v>9005</v>
       </c>
       <c r="B151">
-        <v>26</v>
+        <v>149</v>
       </c>
       <c r="C151" t="s">
         <v>210</v>
@@ -7385,7 +7385,7 @@
         <v>10001</v>
       </c>
       <c r="B152">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="C152" s="10" t="s">
         <v>213</v>
@@ -7414,7 +7414,7 @@
         <v>10002</v>
       </c>
       <c r="B153">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c r="C153" s="9" t="s">
         <v>214</v>
@@ -7443,7 +7443,7 @@
         <v>10003</v>
       </c>
       <c r="B154">
-        <v>23</v>
+        <v>152</v>
       </c>
       <c r="C154" s="12" t="s">
         <v>215</v>
@@ -7472,7 +7472,7 @@
         <v>10004</v>
       </c>
       <c r="B155">
-        <v>22</v>
+        <v>153</v>
       </c>
       <c r="C155" s="12" t="s">
         <v>238</v>
@@ -7501,7 +7501,7 @@
         <v>10005</v>
       </c>
       <c r="B156">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="C156" s="12" t="s">
         <v>243</v>
@@ -7530,7 +7530,7 @@
         <v>10006</v>
       </c>
       <c r="B157">
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="C157" s="12" t="s">
         <v>241</v>
@@ -7559,7 +7559,7 @@
         <v>10007</v>
       </c>
       <c r="B158">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="C158" s="12" t="s">
         <v>239</v>
@@ -7588,7 +7588,7 @@
         <v>10008</v>
       </c>
       <c r="B159">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="C159" s="12" t="s">
         <v>244</v>
@@ -7617,7 +7617,7 @@
         <v>10009</v>
       </c>
       <c r="B160">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="C160" s="12" t="s">
         <v>246</v>
@@ -7646,7 +7646,7 @@
         <v>10010</v>
       </c>
       <c r="B161">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="C161" s="12" t="s">
         <v>240</v>
@@ -7675,7 +7675,7 @@
         <v>10011</v>
       </c>
       <c r="B162">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="C162" s="13" t="s">
         <v>245</v>
@@ -7704,7 +7704,7 @@
         <v>10012</v>
       </c>
       <c r="B163">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="C163" s="13" t="s">
         <v>242</v>
@@ -7735,7 +7735,7 @@
         <v>10013</v>
       </c>
       <c r="B164">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="C164" s="11" t="s">
         <v>255</v>
@@ -7766,7 +7766,7 @@
         <v>10014</v>
       </c>
       <c r="B165">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="C165" s="11" t="s">
         <v>257</v>
@@ -7797,7 +7797,7 @@
         <v>10015</v>
       </c>
       <c r="B166">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="C166" s="11" t="s">
         <v>256</v>
@@ -7828,7 +7828,7 @@
         <v>10016</v>
       </c>
       <c r="B167">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="C167" s="11" t="s">
         <v>258</v>
@@ -7859,7 +7859,7 @@
         <v>10017</v>
       </c>
       <c r="B168">
-        <v>9</v>
+        <v>166</v>
       </c>
       <c r="C168" s="11" t="s">
         <v>260</v>
@@ -7890,7 +7890,7 @@
         <v>10018</v>
       </c>
       <c r="B169">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="C169" s="11" t="s">
         <v>259</v>
@@ -7921,7 +7921,7 @@
         <v>10019</v>
       </c>
       <c r="B170">
-        <v>7</v>
+        <v>168</v>
       </c>
       <c r="C170" s="11" t="s">
         <v>261</v>
@@ -7952,7 +7952,7 @@
         <v>10020</v>
       </c>
       <c r="B171">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C171" s="11" t="s">
         <v>263</v>
@@ -7983,7 +7983,7 @@
         <v>10021</v>
       </c>
       <c r="B172">
-        <v>5</v>
+        <v>170</v>
       </c>
       <c r="C172" s="11" t="s">
         <v>265</v>
@@ -8014,7 +8014,7 @@
         <v>10022</v>
       </c>
       <c r="B173">
-        <v>4</v>
+        <v>171</v>
       </c>
       <c r="C173" s="11" t="s">
         <v>262</v>
@@ -8045,7 +8045,7 @@
         <v>10023</v>
       </c>
       <c r="B174">
-        <v>3</v>
+        <v>172</v>
       </c>
       <c r="C174" s="11" t="s">
         <v>264</v>
@@ -8076,7 +8076,7 @@
         <v>10024</v>
       </c>
       <c r="B175">
-        <v>2</v>
+        <v>173</v>
       </c>
       <c r="C175" s="11" t="s">
         <v>266</v>
@@ -8107,7 +8107,7 @@
         <v>11001</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="C176" t="s">
         <v>237</v>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD370D4-AB24-478B-9F59-F6281E5336EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A51DD7F-60AE-4AE1-9466-57E88B7CA6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="391">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1859,6 +1857,28 @@
   </si>
   <si>
     <t>Sort</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>畑のブロック</t>
+    <rPh sb="0" eb="1">
+      <t>ハタケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>錆びたクワ</t>
+    <rPh sb="0" eb="1">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/item_2d_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クワ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2425,8 +2445,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:K176" totalsRowShown="0">
-  <autoFilter ref="A1:K176" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:K178" totalsRowShown="0">
+  <autoFilter ref="A1:K178" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{BE058DD4-72CB-455C-A822-19DA100C86EF}" name="Sort" dataDxfId="11"/>
@@ -2760,13 +2780,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:K176"/>
+  <dimension ref="A1:K178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5876,42 +5896,48 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A98">
-        <v>1001</v>
-      </c>
-      <c r="B98">
-        <v>96</v>
+        <v>700</v>
+      </c>
+      <c r="B98" s="11">
+        <v>9999</v>
       </c>
       <c r="C98" t="s">
-        <v>32</v>
+        <v>387</v>
       </c>
       <c r="D98" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E98" t="s">
         <v>253</v>
       </c>
       <c r="F98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G98">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>3000</v>
       </c>
       <c r="I98">
         <v>9999</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A99">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B99">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D99" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E99" t="s">
         <v>253</v>
@@ -5928,16 +5954,16 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A100">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B100">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D100" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E100" t="s">
         <v>253</v>
@@ -5954,16 +5980,16 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A101">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B101">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C101" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D101" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E101" t="s">
         <v>253</v>
@@ -5980,16 +6006,16 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A102">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B102">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D102" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E102" t="s">
         <v>253</v>
@@ -6006,16 +6032,16 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A103">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B103">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C103" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D103" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E103" t="s">
         <v>253</v>
@@ -6032,16 +6058,16 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A104">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B104">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C104" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D104" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E104" t="s">
         <v>253</v>
@@ -6058,16 +6084,16 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A105">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B105">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C105" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D105" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E105" t="s">
         <v>253</v>
@@ -6084,16 +6110,16 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A106">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B106">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C106" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D106" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E106" t="s">
         <v>253</v>
@@ -6110,16 +6136,16 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A107">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B107">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C107" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D107" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E107" t="s">
         <v>253</v>
@@ -6136,16 +6162,16 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A108">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B108">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C108" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D108" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E108" t="s">
         <v>253</v>
@@ -6162,16 +6188,16 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A109">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B109">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C109" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D109" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E109" t="s">
         <v>253</v>
@@ -6188,16 +6214,16 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A110">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B110">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C110" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D110" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E110" t="s">
         <v>253</v>
@@ -6214,16 +6240,16 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A111">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B111">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C111" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="D111" t="s">
-        <v>314</v>
+        <v>62</v>
       </c>
       <c r="E111" t="s">
         <v>253</v>
@@ -6240,16 +6266,16 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A112">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B112">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C112" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D112" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E112" t="s">
         <v>253</v>
@@ -6266,16 +6292,16 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A113">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B113">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C113" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D113" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E113" t="s">
         <v>253</v>
@@ -6292,16 +6318,16 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A114">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B114">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C114" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D114" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E114" t="s">
         <v>253</v>
@@ -6318,16 +6344,16 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A115">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B115">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C115" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D115" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E115" t="s">
         <v>253</v>
@@ -6344,16 +6370,16 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A116">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B116">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C116" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D116" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E116" t="s">
         <v>253</v>
@@ -6370,16 +6396,16 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A117">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B117">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C117" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D117" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E117" t="s">
         <v>253</v>
@@ -6396,16 +6422,16 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A118">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B118">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C118" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D118" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E118" t="s">
         <v>253</v>
@@ -6422,16 +6448,16 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A119">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B119">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C119" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D119" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E119" t="s">
         <v>253</v>
@@ -6448,16 +6474,16 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A120">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B120">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C120" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D120" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E120" t="s">
         <v>253</v>
@@ -6474,16 +6500,16 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A121">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B121">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C121" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D121" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E121" t="s">
         <v>253</v>
@@ -6500,16 +6526,16 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A122">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B122">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C122" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D122" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E122" t="s">
         <v>253</v>
@@ -6526,16 +6552,16 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A123">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B123">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C123" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D123" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E123" t="s">
         <v>253</v>
@@ -6552,16 +6578,16 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A124">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B124">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C124" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D124" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E124" t="s">
         <v>253</v>
@@ -6578,57 +6604,54 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A125">
-        <v>3000</v>
+        <v>1027</v>
       </c>
       <c r="B125">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C125" t="s">
-        <v>4</v>
+        <v>341</v>
       </c>
       <c r="D125" t="s">
-        <v>6</v>
+        <v>327</v>
       </c>
       <c r="E125" t="s">
         <v>253</v>
       </c>
       <c r="F125">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I125">
-        <v>1</v>
-      </c>
-      <c r="K125">
-        <v>1</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A126">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="B126">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C126" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="D126" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="E126" t="s">
         <v>253</v>
       </c>
       <c r="F126">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="G126">
         <v>4</v>
       </c>
       <c r="I126">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="K126">
         <v>1</v>
@@ -6636,31 +6659,28 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A127">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B127">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D127" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E127" t="s">
         <v>253</v>
       </c>
       <c r="F127">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G127">
         <v>4</v>
       </c>
       <c r="I127">
-        <v>1</v>
-      </c>
-      <c r="J127">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="K127">
         <v>1</v>
@@ -6668,31 +6688,31 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A128">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="B128">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C128" t="s">
-        <v>157</v>
+        <v>8</v>
       </c>
       <c r="D128" t="s">
-        <v>158</v>
+        <v>65</v>
       </c>
       <c r="E128" t="s">
         <v>253</v>
       </c>
       <c r="F128">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G128">
-        <v>2</v>
-      </c>
-      <c r="H128">
-        <v>6000</v>
+        <v>4</v>
       </c>
       <c r="I128">
-        <v>9999</v>
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
       </c>
       <c r="K128">
         <v>1</v>
@@ -6700,28 +6720,28 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A129">
-        <v>4000</v>
+        <v>3003</v>
       </c>
       <c r="B129">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C129" t="s">
-        <v>382</v>
+        <v>157</v>
       </c>
       <c r="D129" t="s">
-        <v>383</v>
+        <v>158</v>
       </c>
       <c r="E129" t="s">
         <v>253</v>
       </c>
       <c r="F129">
-        <v>4000</v>
+        <v>53</v>
       </c>
       <c r="G129">
         <v>2</v>
       </c>
       <c r="H129">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="I129">
         <v>9999</v>
@@ -6732,13 +6752,13 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A130">
-        <v>4001</v>
+        <v>4000</v>
       </c>
       <c r="B130">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C130" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D130" t="s">
         <v>383</v>
@@ -6753,7 +6773,7 @@
         <v>2</v>
       </c>
       <c r="H130">
-        <v>9001</v>
+        <v>9000</v>
       </c>
       <c r="I130">
         <v>9999</v>
@@ -6764,28 +6784,28 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A131">
-        <v>7016</v>
+        <v>4001</v>
       </c>
       <c r="B131">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C131" t="s">
-        <v>205</v>
+        <v>385</v>
       </c>
       <c r="D131" t="s">
-        <v>201</v>
+        <v>383</v>
       </c>
       <c r="E131" t="s">
         <v>253</v>
       </c>
       <c r="F131">
-        <v>3001</v>
+        <v>4000</v>
       </c>
       <c r="G131">
         <v>2</v>
       </c>
       <c r="H131">
-        <v>7016</v>
+        <v>9001</v>
       </c>
       <c r="I131">
         <v>9999</v>
@@ -6796,28 +6816,22 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A132">
-        <v>7017</v>
+        <v>5000</v>
       </c>
       <c r="B132">
-        <v>130</v>
+        <v>9999</v>
       </c>
       <c r="C132" t="s">
-        <v>206</v>
+        <v>388</v>
       </c>
       <c r="D132" t="s">
-        <v>202</v>
+        <v>389</v>
       </c>
       <c r="E132" t="s">
         <v>253</v>
       </c>
       <c r="F132">
-        <v>3001</v>
-      </c>
-      <c r="G132">
-        <v>2</v>
-      </c>
-      <c r="H132">
-        <v>7017</v>
+        <v>4100</v>
       </c>
       <c r="I132">
         <v>9999</v>
@@ -6828,16 +6842,16 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A133">
-        <v>7018</v>
+        <v>7016</v>
       </c>
       <c r="B133">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C133" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="D133" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="E133" t="s">
         <v>253</v>
@@ -6849,7 +6863,7 @@
         <v>2</v>
       </c>
       <c r="H133">
-        <v>7018</v>
+        <v>7016</v>
       </c>
       <c r="I133">
         <v>9999</v>
@@ -6860,16 +6874,16 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A134">
-        <v>7019</v>
+        <v>7017</v>
       </c>
       <c r="B134">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C134" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="D134" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="E134" t="s">
         <v>253</v>
@@ -6881,7 +6895,7 @@
         <v>2</v>
       </c>
       <c r="H134">
-        <v>7019</v>
+        <v>7017</v>
       </c>
       <c r="I134">
         <v>9999</v>
@@ -6892,16 +6906,16 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A135">
-        <v>7020</v>
+        <v>7018</v>
       </c>
       <c r="B135">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C135" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D135" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E135" t="s">
         <v>253</v>
@@ -6913,7 +6927,7 @@
         <v>2</v>
       </c>
       <c r="H135">
-        <v>7020</v>
+        <v>7018</v>
       </c>
       <c r="I135">
         <v>9999</v>
@@ -6924,16 +6938,16 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A136">
-        <v>7021</v>
+        <v>7019</v>
       </c>
       <c r="B136">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C136" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D136" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E136" t="s">
         <v>253</v>
@@ -6945,7 +6959,7 @@
         <v>2</v>
       </c>
       <c r="H136">
-        <v>7021</v>
+        <v>7019</v>
       </c>
       <c r="I136">
         <v>9999</v>
@@ -6956,16 +6970,16 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A137">
-        <v>7022</v>
+        <v>7020</v>
       </c>
       <c r="B137">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C137" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D137" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E137" t="s">
         <v>253</v>
@@ -6977,7 +6991,7 @@
         <v>2</v>
       </c>
       <c r="H137">
-        <v>7022</v>
+        <v>7020</v>
       </c>
       <c r="I137">
         <v>9999</v>
@@ -6988,16 +7002,16 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A138">
-        <v>7023</v>
+        <v>7021</v>
       </c>
       <c r="B138">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C138" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D138" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E138" t="s">
         <v>253</v>
@@ -7009,7 +7023,7 @@
         <v>2</v>
       </c>
       <c r="H138">
-        <v>7023</v>
+        <v>7021</v>
       </c>
       <c r="I138">
         <v>9999</v>
@@ -7020,16 +7034,16 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A139">
-        <v>7024</v>
+        <v>7022</v>
       </c>
       <c r="B139">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C139" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D139" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E139" t="s">
         <v>253</v>
@@ -7041,7 +7055,7 @@
         <v>2</v>
       </c>
       <c r="H139">
-        <v>7024</v>
+        <v>7022</v>
       </c>
       <c r="I139">
         <v>9999</v>
@@ -7052,16 +7066,16 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A140">
-        <v>7025</v>
+        <v>7023</v>
       </c>
       <c r="B140">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C140" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D140" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E140" t="s">
         <v>253</v>
@@ -7073,7 +7087,7 @@
         <v>2</v>
       </c>
       <c r="H140">
-        <v>7025</v>
+        <v>7023</v>
       </c>
       <c r="I140">
         <v>9999</v>
@@ -7084,16 +7098,16 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A141">
-        <v>7026</v>
+        <v>7024</v>
       </c>
       <c r="B141">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C141" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D141" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="E141" t="s">
         <v>253</v>
@@ -7105,7 +7119,7 @@
         <v>2</v>
       </c>
       <c r="H141">
-        <v>7026</v>
+        <v>7024</v>
       </c>
       <c r="I141">
         <v>9999</v>
@@ -7116,16 +7130,16 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A142">
-        <v>7027</v>
+        <v>7025</v>
       </c>
       <c r="B142">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C142" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D142" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E142" t="s">
         <v>253</v>
@@ -7137,7 +7151,7 @@
         <v>2</v>
       </c>
       <c r="H142">
-        <v>7027</v>
+        <v>7025</v>
       </c>
       <c r="I142">
         <v>9999</v>
@@ -7148,16 +7162,16 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A143">
-        <v>7028</v>
+        <v>7026</v>
       </c>
       <c r="B143">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C143" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D143" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E143" t="s">
         <v>253</v>
@@ -7169,7 +7183,7 @@
         <v>2</v>
       </c>
       <c r="H143">
-        <v>7028</v>
+        <v>7026</v>
       </c>
       <c r="I143">
         <v>9999</v>
@@ -7180,16 +7194,16 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A144">
-        <v>7029</v>
+        <v>7027</v>
       </c>
       <c r="B144">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C144" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D144" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E144" t="s">
         <v>253</v>
@@ -7201,7 +7215,7 @@
         <v>2</v>
       </c>
       <c r="H144">
-        <v>7029</v>
+        <v>7027</v>
       </c>
       <c r="I144">
         <v>9999</v>
@@ -7212,16 +7226,16 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A145">
-        <v>7030</v>
+        <v>7028</v>
       </c>
       <c r="B145">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C145" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D145" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E145" t="s">
         <v>253</v>
@@ -7233,7 +7247,7 @@
         <v>2</v>
       </c>
       <c r="H145">
-        <v>7030</v>
+        <v>7028</v>
       </c>
       <c r="I145">
         <v>9999</v>
@@ -7244,114 +7258,132 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A146">
-        <v>9000</v>
+        <v>7029</v>
       </c>
       <c r="B146">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C146" t="s">
-        <v>68</v>
+        <v>194</v>
       </c>
       <c r="D146" t="s">
-        <v>66</v>
+        <v>199</v>
       </c>
       <c r="E146" t="s">
         <v>253</v>
       </c>
       <c r="F146">
-        <v>90</v>
+        <v>3001</v>
+      </c>
+      <c r="G146">
+        <v>2</v>
+      </c>
+      <c r="H146">
+        <v>7029</v>
       </c>
       <c r="I146">
-        <v>9999999</v>
+        <v>9999</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A147">
-        <v>9001</v>
+        <v>7030</v>
       </c>
       <c r="B147">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C147" t="s">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="D147" t="s">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="E147" t="s">
         <v>253</v>
       </c>
       <c r="F147">
-        <v>91</v>
+        <v>3001</v>
+      </c>
+      <c r="G147">
+        <v>2</v>
+      </c>
+      <c r="H147">
+        <v>7030</v>
       </c>
       <c r="I147">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" ht="75" x14ac:dyDescent="0.4">
+        <v>9999</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A148">
-        <v>9002</v>
+        <v>9000</v>
       </c>
       <c r="B148">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C148" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D148" t="s">
-        <v>72</v>
-      </c>
-      <c r="E148" s="14" t="s">
-        <v>283</v>
+        <v>66</v>
+      </c>
+      <c r="E148" t="s">
+        <v>253</v>
       </c>
       <c r="F148">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I148">
         <v>9999999</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="75" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A149">
-        <v>9003</v>
+        <v>9001</v>
       </c>
       <c r="B149">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C149" t="s">
-        <v>212</v>
+        <v>69</v>
       </c>
       <c r="D149" t="s">
-        <v>207</v>
-      </c>
-      <c r="E149" s="14" t="s">
-        <v>281</v>
+        <v>67</v>
+      </c>
+      <c r="E149" t="s">
+        <v>253</v>
       </c>
       <c r="F149">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I149">
         <v>9999999</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:11" ht="75" x14ac:dyDescent="0.4">
       <c r="A150">
-        <v>9004</v>
+        <v>9002</v>
       </c>
       <c r="B150">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C150" t="s">
-        <v>208</v>
+        <v>70</v>
       </c>
       <c r="D150" t="s">
-        <v>209</v>
-      </c>
-      <c r="E150" t="s">
-        <v>253</v>
+        <v>72</v>
+      </c>
+      <c r="E150" s="14" t="s">
+        <v>283</v>
       </c>
       <c r="F150">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I150">
         <v>9999999</v>
@@ -7359,126 +7391,114 @@
     </row>
     <row r="151" spans="1:11" ht="75" x14ac:dyDescent="0.4">
       <c r="A151">
-        <v>9005</v>
+        <v>9003</v>
       </c>
       <c r="B151">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C151" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D151" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E151" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F151">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I151">
         <v>9999999</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A152" s="9">
-        <v>10001</v>
+      <c r="A152">
+        <v>9004</v>
       </c>
       <c r="B152">
-        <v>150</v>
-      </c>
-      <c r="C152" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="D152" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="E152" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="F152" s="10">
-        <v>5001</v>
-      </c>
-      <c r="G152" s="10">
-        <v>5</v>
-      </c>
-      <c r="H152" s="10">
-        <v>1</v>
-      </c>
-      <c r="I152" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A153" s="9">
-        <v>10002</v>
+        <v>148</v>
+      </c>
+      <c r="C152" t="s">
+        <v>208</v>
+      </c>
+      <c r="D152" t="s">
+        <v>209</v>
+      </c>
+      <c r="E152" t="s">
+        <v>253</v>
+      </c>
+      <c r="F152">
+        <v>94</v>
+      </c>
+      <c r="I152">
+        <v>9999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="75" x14ac:dyDescent="0.4">
+      <c r="A153">
+        <v>9005</v>
       </c>
       <c r="B153">
-        <v>151</v>
-      </c>
-      <c r="C153" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="D153" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="E153" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="F153" s="12">
-        <v>5001</v>
-      </c>
-      <c r="G153" s="12">
-        <v>5</v>
-      </c>
-      <c r="H153" s="12">
-        <v>2</v>
-      </c>
-      <c r="I153" s="12">
-        <v>1</v>
+        <v>149</v>
+      </c>
+      <c r="C153" t="s">
+        <v>210</v>
+      </c>
+      <c r="D153" t="s">
+        <v>211</v>
+      </c>
+      <c r="E153" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="F153">
+        <v>95</v>
+      </c>
+      <c r="I153">
+        <v>9999999</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A154" s="9">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="B154">
-        <v>152</v>
-      </c>
-      <c r="C154" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="D154" s="12" t="s">
-        <v>221</v>
+        <v>150</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D154" s="10" t="s">
+        <v>220</v>
       </c>
       <c r="E154" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="F154" s="12">
+      <c r="F154" s="10">
         <v>5001</v>
       </c>
-      <c r="G154" s="12">
+      <c r="G154" s="10">
         <v>5</v>
       </c>
-      <c r="H154" s="12">
-        <v>3</v>
-      </c>
-      <c r="I154" s="12">
+      <c r="H154" s="10">
+        <v>1</v>
+      </c>
+      <c r="I154" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A155" s="9">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="B155">
-        <v>153</v>
-      </c>
-      <c r="C155" s="12" t="s">
-        <v>238</v>
+        <v>151</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>214</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E155" s="11" t="s">
         <v>253</v>
@@ -7490,7 +7510,7 @@
         <v>5</v>
       </c>
       <c r="H155" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I155" s="12">
         <v>1</v>
@@ -7498,16 +7518,16 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A156" s="9">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="B156">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E156" s="11" t="s">
         <v>253</v>
@@ -7519,7 +7539,7 @@
         <v>5</v>
       </c>
       <c r="H156" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I156" s="12">
         <v>1</v>
@@ -7527,16 +7547,16 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A157" s="9">
-        <v>10006</v>
+        <v>10004</v>
       </c>
       <c r="B157">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E157" s="11" t="s">
         <v>253</v>
@@ -7548,7 +7568,7 @@
         <v>5</v>
       </c>
       <c r="H157" s="12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I157" s="12">
         <v>1</v>
@@ -7556,16 +7576,16 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A158" s="9">
-        <v>10007</v>
+        <v>10005</v>
       </c>
       <c r="B158">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D158" s="12" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="E158" s="11" t="s">
         <v>253</v>
@@ -7577,7 +7597,7 @@
         <v>5</v>
       </c>
       <c r="H158" s="12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I158" s="12">
         <v>1</v>
@@ -7585,16 +7605,16 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A159" s="9">
-        <v>10008</v>
+        <v>10006</v>
       </c>
       <c r="B159">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D159" s="12" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E159" s="11" t="s">
         <v>253</v>
@@ -7606,7 +7626,7 @@
         <v>5</v>
       </c>
       <c r="H159" s="12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I159" s="12">
         <v>1</v>
@@ -7614,16 +7634,16 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A160" s="9">
-        <v>10009</v>
+        <v>10007</v>
       </c>
       <c r="B160">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E160" s="11" t="s">
         <v>253</v>
@@ -7635,7 +7655,7 @@
         <v>5</v>
       </c>
       <c r="H160" s="12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I160" s="12">
         <v>1</v>
@@ -7643,16 +7663,16 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A161" s="9">
-        <v>10010</v>
+        <v>10008</v>
       </c>
       <c r="B161">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D161" s="12" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E161" s="11" t="s">
         <v>253</v>
@@ -7664,7 +7684,7 @@
         <v>5</v>
       </c>
       <c r="H161" s="12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I161" s="12">
         <v>1</v>
@@ -7672,141 +7692,137 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A162" s="9">
-        <v>10011</v>
+        <v>10009</v>
       </c>
       <c r="B162">
-        <v>160</v>
-      </c>
-      <c r="C162" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="D162" s="13" t="s">
-        <v>219</v>
+        <v>158</v>
+      </c>
+      <c r="C162" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="D162" s="12" t="s">
+        <v>225</v>
       </c>
       <c r="E162" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="F162" s="13">
+      <c r="F162" s="12">
         <v>5001</v>
       </c>
-      <c r="G162" s="13">
+      <c r="G162" s="12">
         <v>5</v>
       </c>
-      <c r="H162" s="13">
-        <v>11</v>
-      </c>
-      <c r="I162" s="13">
+      <c r="H162" s="12">
+        <v>9</v>
+      </c>
+      <c r="I162" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A163" s="9">
+        <v>10010</v>
+      </c>
+      <c r="B163">
+        <v>159</v>
+      </c>
+      <c r="C163" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="D163" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E163" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F163" s="12">
+        <v>5001</v>
+      </c>
+      <c r="G163" s="12">
+        <v>5</v>
+      </c>
+      <c r="H163" s="12">
+        <v>10</v>
+      </c>
+      <c r="I163" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A164" s="9">
+        <v>10011</v>
+      </c>
+      <c r="B164">
+        <v>160</v>
+      </c>
+      <c r="C164" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D164" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="E164" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F164" s="13">
+        <v>5001</v>
+      </c>
+      <c r="G164" s="13">
+        <v>5</v>
+      </c>
+      <c r="H164" s="13">
+        <v>11</v>
+      </c>
+      <c r="I164" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A165" s="9">
         <v>10012</v>
       </c>
-      <c r="B163">
+      <c r="B165">
         <v>161</v>
       </c>
-      <c r="C163" s="13" t="s">
+      <c r="C165" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="D163" s="13" t="s">
+      <c r="D165" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="E163" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="F163" s="13">
+      <c r="E165" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F165" s="13">
         <v>5001</v>
       </c>
-      <c r="G163" s="13">
+      <c r="G165" s="13">
         <v>5</v>
       </c>
-      <c r="H163" s="13">
+      <c r="H165" s="13">
         <v>12</v>
       </c>
-      <c r="I163" s="13">
-        <v>1</v>
-      </c>
-      <c r="J163" s="11"/>
-      <c r="K163" s="11"/>
-    </row>
-    <row r="164" spans="1:11" ht="75" x14ac:dyDescent="0.4">
-      <c r="A164" s="11">
-        <v>10013</v>
-      </c>
-      <c r="B164">
-        <v>162</v>
-      </c>
-      <c r="C164" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="D164" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="E164" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="F164" s="10">
-        <v>5001</v>
-      </c>
-      <c r="G164" s="10">
-        <v>5</v>
-      </c>
-      <c r="H164" s="10">
-        <v>22</v>
-      </c>
-      <c r="I164" s="10">
-        <v>1</v>
-      </c>
-      <c r="J164" s="11"/>
-      <c r="K164" s="11"/>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A165" s="11">
-        <v>10014</v>
-      </c>
-      <c r="B165">
-        <v>163</v>
-      </c>
-      <c r="C165" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="D165" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="E165" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="F165" s="10">
-        <v>5001</v>
-      </c>
-      <c r="G165" s="10">
-        <v>5</v>
-      </c>
-      <c r="H165" s="10">
-        <v>23</v>
-      </c>
-      <c r="I165" s="10">
+      <c r="I165" s="13">
         <v>1</v>
       </c>
       <c r="J165" s="11"/>
       <c r="K165" s="11"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:11" ht="75" x14ac:dyDescent="0.4">
       <c r="A166" s="11">
-        <v>10015</v>
+        <v>10013</v>
       </c>
       <c r="B166">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="D166" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="E166" s="11" t="s">
-        <v>253</v>
+        <v>255</v>
+      </c>
+      <c r="D166" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E166" s="15" t="s">
+        <v>279</v>
       </c>
       <c r="F166" s="10">
         <v>5001</v>
@@ -7815,7 +7831,7 @@
         <v>5</v>
       </c>
       <c r="H166" s="10">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I166" s="10">
         <v>1</v>
@@ -7825,16 +7841,16 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A167" s="11">
-        <v>10016</v>
+        <v>10014</v>
       </c>
       <c r="B167">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="D167" s="10" t="s">
-        <v>273</v>
+        <v>257</v>
+      </c>
+      <c r="D167" s="12" t="s">
+        <v>277</v>
       </c>
       <c r="E167" s="11" t="s">
         <v>253</v>
@@ -7846,7 +7862,7 @@
         <v>5</v>
       </c>
       <c r="H167" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I167" s="10">
         <v>1</v>
@@ -7856,16 +7872,16 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A168" s="11">
-        <v>10017</v>
+        <v>10015</v>
       </c>
       <c r="B168">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D168" s="12" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E168" s="11" t="s">
         <v>253</v>
@@ -7877,7 +7893,7 @@
         <v>5</v>
       </c>
       <c r="H168" s="10">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I168" s="10">
         <v>1</v>
@@ -7887,16 +7903,16 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A169" s="11">
-        <v>10018</v>
+        <v>10016</v>
       </c>
       <c r="B169">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="D169" s="12" t="s">
-        <v>275</v>
+        <v>258</v>
+      </c>
+      <c r="D169" s="10" t="s">
+        <v>273</v>
       </c>
       <c r="E169" s="11" t="s">
         <v>253</v>
@@ -7908,7 +7924,7 @@
         <v>5</v>
       </c>
       <c r="H169" s="10">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I169" s="10">
         <v>1</v>
@@ -7916,21 +7932,21 @@
       <c r="J169" s="11"/>
       <c r="K169" s="11"/>
     </row>
-    <row r="170" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A170" s="11">
-        <v>10019</v>
+        <v>10017</v>
       </c>
       <c r="B170">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="D170" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="E170" s="15" t="s">
-        <v>280</v>
+        <v>260</v>
+      </c>
+      <c r="D170" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E170" s="11" t="s">
+        <v>253</v>
       </c>
       <c r="F170" s="10">
         <v>5001</v>
@@ -7939,7 +7955,7 @@
         <v>5</v>
       </c>
       <c r="H170" s="10">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I170" s="10">
         <v>1</v>
@@ -7949,16 +7965,16 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A171" s="11">
-        <v>10020</v>
+        <v>10018</v>
       </c>
       <c r="B171">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D171" s="12" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E171" s="11" t="s">
         <v>253</v>
@@ -7970,7 +7986,7 @@
         <v>5</v>
       </c>
       <c r="H171" s="10">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I171" s="10">
         <v>1</v>
@@ -7978,21 +7994,21 @@
       <c r="J171" s="11"/>
       <c r="K171" s="11"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A172" s="11">
-        <v>10021</v>
+        <v>10019</v>
       </c>
       <c r="B172">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="D172" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="E172" s="11" t="s">
-        <v>253</v>
+        <v>261</v>
+      </c>
+      <c r="D172" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="E172" s="15" t="s">
+        <v>280</v>
       </c>
       <c r="F172" s="10">
         <v>5001</v>
@@ -8001,7 +8017,7 @@
         <v>5</v>
       </c>
       <c r="H172" s="10">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I172" s="10">
         <v>1</v>
@@ -8011,16 +8027,16 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A173" s="11">
-        <v>10022</v>
+        <v>10020</v>
       </c>
       <c r="B173">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="D173" s="10" t="s">
-        <v>269</v>
+        <v>263</v>
+      </c>
+      <c r="D173" s="12" t="s">
+        <v>271</v>
       </c>
       <c r="E173" s="11" t="s">
         <v>253</v>
@@ -8032,7 +8048,7 @@
         <v>5</v>
       </c>
       <c r="H173" s="10">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I173" s="10">
         <v>1</v>
@@ -8042,16 +8058,16 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A174" s="11">
-        <v>10023</v>
+        <v>10021</v>
       </c>
       <c r="B174">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D174" s="12" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E174" s="11" t="s">
         <v>253</v>
@@ -8063,7 +8079,7 @@
         <v>5</v>
       </c>
       <c r="H174" s="10">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I174" s="10">
         <v>1</v>
@@ -8073,16 +8089,16 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A175" s="11">
-        <v>10024</v>
+        <v>10022</v>
       </c>
       <c r="B175">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="D175" s="12" t="s">
-        <v>267</v>
+        <v>262</v>
+      </c>
+      <c r="D175" s="10" t="s">
+        <v>269</v>
       </c>
       <c r="E175" s="11" t="s">
         <v>253</v>
@@ -8094,7 +8110,7 @@
         <v>5</v>
       </c>
       <c r="H175" s="10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I175" s="10">
         <v>1</v>
@@ -8103,31 +8119,93 @@
       <c r="K175" s="11"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A176">
+      <c r="A176" s="11">
+        <v>10023</v>
+      </c>
+      <c r="B176">
+        <v>172</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D176" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="E176" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F176" s="10">
+        <v>5001</v>
+      </c>
+      <c r="G176" s="10">
+        <v>5</v>
+      </c>
+      <c r="H176" s="10">
+        <v>14</v>
+      </c>
+      <c r="I176" s="10">
+        <v>1</v>
+      </c>
+      <c r="J176" s="11"/>
+      <c r="K176" s="11"/>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A177" s="11">
+        <v>10024</v>
+      </c>
+      <c r="B177">
+        <v>173</v>
+      </c>
+      <c r="C177" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="D177" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="E177" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F177" s="10">
+        <v>5001</v>
+      </c>
+      <c r="G177" s="10">
+        <v>5</v>
+      </c>
+      <c r="H177" s="10">
+        <v>15</v>
+      </c>
+      <c r="I177" s="10">
+        <v>1</v>
+      </c>
+      <c r="J177" s="11"/>
+      <c r="K177" s="11"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A178">
         <v>11001</v>
       </c>
-      <c r="B176">
+      <c r="B178">
         <v>174</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C178" t="s">
         <v>237</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D178" t="s">
         <v>211</v>
       </c>
-      <c r="E176" t="s">
-        <v>253</v>
-      </c>
-      <c r="F176">
+      <c r="E178" t="s">
+        <v>253</v>
+      </c>
+      <c r="F178">
         <v>5002</v>
       </c>
-      <c r="G176">
+      <c r="G178">
         <v>5</v>
       </c>
-      <c r="H176">
+      <c r="H178">
         <v>100</v>
       </c>
-      <c r="I176">
+      <c r="I178">
         <v>1</v>
       </c>
     </row>
@@ -8561,10 +8639,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113E46AD-62C7-4185-A9CA-BD7A35995CF3}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8675,25 +8753,33 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>5001</v>
+        <v>4100</v>
       </c>
       <c r="B14" t="s">
-        <v>234</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="B15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>9999</v>
+        <v>5002</v>
       </c>
       <c r="B16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>9999</v>
+      </c>
+      <c r="B17" t="s">
         <v>236</v>
       </c>
     </row>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A51DD7F-60AE-4AE1-9466-57E88B7CA6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAAC2B1-4F27-4927-8868-C3AD13798820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="393">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1879,6 +1879,16 @@
   </si>
   <si>
     <t>クワ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大麦</t>
+  </si>
+  <si>
+    <t>大麦種</t>
+    <rPh sb="2" eb="3">
+      <t>タネ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2445,8 +2455,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:K178" totalsRowShown="0">
-  <autoFilter ref="A1:K178" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:K180" totalsRowShown="0">
+  <autoFilter ref="A1:K180" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{BE058DD4-72CB-455C-A822-19DA100C86EF}" name="Sort" dataDxfId="11"/>
@@ -2780,13 +2790,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:K178"/>
+  <dimension ref="A1:K180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D113" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D99" sqref="D99"/>
+      <selection pane="bottomRight" activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6630,54 +6640,54 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A126">
-        <v>3000</v>
+        <v>1028</v>
       </c>
       <c r="B126">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C126" t="s">
-        <v>4</v>
+        <v>391</v>
       </c>
       <c r="D126" t="s">
-        <v>6</v>
+        <v>326</v>
       </c>
       <c r="E126" t="s">
         <v>253</v>
       </c>
       <c r="F126">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G126">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I126">
-        <v>1</v>
-      </c>
-      <c r="K126">
-        <v>1</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A127">
-        <v>3001</v>
+        <v>2000</v>
       </c>
       <c r="B127">
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>63</v>
+        <v>392</v>
       </c>
       <c r="D127" t="s">
-        <v>64</v>
+        <v>327</v>
       </c>
       <c r="E127" t="s">
         <v>253</v>
       </c>
       <c r="F127">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="G127">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
       </c>
       <c r="I127">
         <v>9999</v>
@@ -6688,22 +6698,22 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A128">
-        <v>3002</v>
+        <v>3000</v>
       </c>
       <c r="B128">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D128" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="E128" t="s">
         <v>253</v>
       </c>
       <c r="F128">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="G128">
         <v>4</v>
@@ -6711,37 +6721,31 @@
       <c r="I128">
         <v>1</v>
       </c>
-      <c r="J128">
-        <v>1</v>
-      </c>
       <c r="K128">
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A129">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="B129">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C129" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="D129" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="E129" t="s">
         <v>253</v>
       </c>
       <c r="F129">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G129">
-        <v>2</v>
-      </c>
-      <c r="H129">
-        <v>6000</v>
+        <v>4</v>
       </c>
       <c r="I129">
         <v>9999</v>
@@ -6752,31 +6756,31 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A130">
-        <v>4000</v>
+        <v>3002</v>
       </c>
       <c r="B130">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C130" t="s">
-        <v>382</v>
+        <v>8</v>
       </c>
       <c r="D130" t="s">
-        <v>383</v>
+        <v>65</v>
       </c>
       <c r="E130" t="s">
         <v>253</v>
       </c>
       <c r="F130">
-        <v>4000</v>
+        <v>52</v>
       </c>
       <c r="G130">
-        <v>2</v>
-      </c>
-      <c r="H130">
-        <v>9000</v>
+        <v>4</v>
       </c>
       <c r="I130">
-        <v>9999</v>
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
       </c>
       <c r="K130">
         <v>1</v>
@@ -6784,28 +6788,28 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A131">
-        <v>4001</v>
+        <v>3003</v>
       </c>
       <c r="B131">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C131" t="s">
-        <v>385</v>
+        <v>157</v>
       </c>
       <c r="D131" t="s">
-        <v>383</v>
+        <v>158</v>
       </c>
       <c r="E131" t="s">
         <v>253</v>
       </c>
       <c r="F131">
-        <v>4000</v>
+        <v>53</v>
       </c>
       <c r="G131">
         <v>2</v>
       </c>
       <c r="H131">
-        <v>9001</v>
+        <v>6000</v>
       </c>
       <c r="I131">
         <v>9999</v>
@@ -6816,22 +6820,28 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A132">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="B132">
-        <v>9999</v>
+        <v>127</v>
       </c>
       <c r="C132" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D132" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="E132" t="s">
         <v>253</v>
       </c>
       <c r="F132">
-        <v>4100</v>
+        <v>4000</v>
+      </c>
+      <c r="G132">
+        <v>2</v>
+      </c>
+      <c r="H132">
+        <v>9000</v>
       </c>
       <c r="I132">
         <v>9999</v>
@@ -6842,28 +6852,28 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A133">
-        <v>7016</v>
+        <v>4001</v>
       </c>
       <c r="B133">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C133" t="s">
-        <v>205</v>
+        <v>385</v>
       </c>
       <c r="D133" t="s">
-        <v>201</v>
+        <v>383</v>
       </c>
       <c r="E133" t="s">
         <v>253</v>
       </c>
       <c r="F133">
-        <v>3001</v>
+        <v>4000</v>
       </c>
       <c r="G133">
         <v>2</v>
       </c>
       <c r="H133">
-        <v>7016</v>
+        <v>9001</v>
       </c>
       <c r="I133">
         <v>9999</v>
@@ -6874,28 +6884,22 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A134">
-        <v>7017</v>
+        <v>5000</v>
       </c>
       <c r="B134">
-        <v>130</v>
+        <v>9999</v>
       </c>
       <c r="C134" t="s">
-        <v>206</v>
+        <v>388</v>
       </c>
       <c r="D134" t="s">
-        <v>202</v>
+        <v>389</v>
       </c>
       <c r="E134" t="s">
         <v>253</v>
       </c>
       <c r="F134">
-        <v>3001</v>
-      </c>
-      <c r="G134">
-        <v>2</v>
-      </c>
-      <c r="H134">
-        <v>7017</v>
+        <v>4100</v>
       </c>
       <c r="I134">
         <v>9999</v>
@@ -6906,16 +6910,16 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A135">
-        <v>7018</v>
+        <v>7016</v>
       </c>
       <c r="B135">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C135" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="D135" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="E135" t="s">
         <v>253</v>
@@ -6927,7 +6931,7 @@
         <v>2</v>
       </c>
       <c r="H135">
-        <v>7018</v>
+        <v>7016</v>
       </c>
       <c r="I135">
         <v>9999</v>
@@ -6938,16 +6942,16 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A136">
-        <v>7019</v>
+        <v>7017</v>
       </c>
       <c r="B136">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C136" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="D136" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="E136" t="s">
         <v>253</v>
@@ -6959,7 +6963,7 @@
         <v>2</v>
       </c>
       <c r="H136">
-        <v>7019</v>
+        <v>7017</v>
       </c>
       <c r="I136">
         <v>9999</v>
@@ -6970,16 +6974,16 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A137">
-        <v>7020</v>
+        <v>7018</v>
       </c>
       <c r="B137">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C137" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D137" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E137" t="s">
         <v>253</v>
@@ -6991,7 +6995,7 @@
         <v>2</v>
       </c>
       <c r="H137">
-        <v>7020</v>
+        <v>7018</v>
       </c>
       <c r="I137">
         <v>9999</v>
@@ -7002,16 +7006,16 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A138">
-        <v>7021</v>
+        <v>7019</v>
       </c>
       <c r="B138">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C138" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D138" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E138" t="s">
         <v>253</v>
@@ -7023,7 +7027,7 @@
         <v>2</v>
       </c>
       <c r="H138">
-        <v>7021</v>
+        <v>7019</v>
       </c>
       <c r="I138">
         <v>9999</v>
@@ -7034,16 +7038,16 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A139">
-        <v>7022</v>
+        <v>7020</v>
       </c>
       <c r="B139">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C139" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D139" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E139" t="s">
         <v>253</v>
@@ -7055,7 +7059,7 @@
         <v>2</v>
       </c>
       <c r="H139">
-        <v>7022</v>
+        <v>7020</v>
       </c>
       <c r="I139">
         <v>9999</v>
@@ -7066,16 +7070,16 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A140">
-        <v>7023</v>
+        <v>7021</v>
       </c>
       <c r="B140">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C140" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D140" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E140" t="s">
         <v>253</v>
@@ -7087,7 +7091,7 @@
         <v>2</v>
       </c>
       <c r="H140">
-        <v>7023</v>
+        <v>7021</v>
       </c>
       <c r="I140">
         <v>9999</v>
@@ -7098,16 +7102,16 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A141">
-        <v>7024</v>
+        <v>7022</v>
       </c>
       <c r="B141">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C141" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D141" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E141" t="s">
         <v>253</v>
@@ -7119,7 +7123,7 @@
         <v>2</v>
       </c>
       <c r="H141">
-        <v>7024</v>
+        <v>7022</v>
       </c>
       <c r="I141">
         <v>9999</v>
@@ -7130,16 +7134,16 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A142">
-        <v>7025</v>
+        <v>7023</v>
       </c>
       <c r="B142">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C142" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D142" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E142" t="s">
         <v>253</v>
@@ -7151,7 +7155,7 @@
         <v>2</v>
       </c>
       <c r="H142">
-        <v>7025</v>
+        <v>7023</v>
       </c>
       <c r="I142">
         <v>9999</v>
@@ -7162,16 +7166,16 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A143">
-        <v>7026</v>
+        <v>7024</v>
       </c>
       <c r="B143">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C143" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D143" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="E143" t="s">
         <v>253</v>
@@ -7183,7 +7187,7 @@
         <v>2</v>
       </c>
       <c r="H143">
-        <v>7026</v>
+        <v>7024</v>
       </c>
       <c r="I143">
         <v>9999</v>
@@ -7194,16 +7198,16 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A144">
-        <v>7027</v>
+        <v>7025</v>
       </c>
       <c r="B144">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C144" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D144" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E144" t="s">
         <v>253</v>
@@ -7215,7 +7219,7 @@
         <v>2</v>
       </c>
       <c r="H144">
-        <v>7027</v>
+        <v>7025</v>
       </c>
       <c r="I144">
         <v>9999</v>
@@ -7226,16 +7230,16 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A145">
-        <v>7028</v>
+        <v>7026</v>
       </c>
       <c r="B145">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C145" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D145" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E145" t="s">
         <v>253</v>
@@ -7247,7 +7251,7 @@
         <v>2</v>
       </c>
       <c r="H145">
-        <v>7028</v>
+        <v>7026</v>
       </c>
       <c r="I145">
         <v>9999</v>
@@ -7258,16 +7262,16 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A146">
-        <v>7029</v>
+        <v>7027</v>
       </c>
       <c r="B146">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C146" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D146" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E146" t="s">
         <v>253</v>
@@ -7279,7 +7283,7 @@
         <v>2</v>
       </c>
       <c r="H146">
-        <v>7029</v>
+        <v>7027</v>
       </c>
       <c r="I146">
         <v>9999</v>
@@ -7290,16 +7294,16 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A147">
-        <v>7030</v>
+        <v>7028</v>
       </c>
       <c r="B147">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C147" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D147" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E147" t="s">
         <v>253</v>
@@ -7311,7 +7315,7 @@
         <v>2</v>
       </c>
       <c r="H147">
-        <v>7030</v>
+        <v>7028</v>
       </c>
       <c r="I147">
         <v>9999</v>
@@ -7322,114 +7326,132 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A148">
-        <v>9000</v>
+        <v>7029</v>
       </c>
       <c r="B148">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C148" t="s">
-        <v>68</v>
+        <v>194</v>
       </c>
       <c r="D148" t="s">
-        <v>66</v>
+        <v>199</v>
       </c>
       <c r="E148" t="s">
         <v>253</v>
       </c>
       <c r="F148">
-        <v>90</v>
+        <v>3001</v>
+      </c>
+      <c r="G148">
+        <v>2</v>
+      </c>
+      <c r="H148">
+        <v>7029</v>
       </c>
       <c r="I148">
-        <v>9999999</v>
+        <v>9999</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A149">
-        <v>9001</v>
+        <v>7030</v>
       </c>
       <c r="B149">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C149" t="s">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="D149" t="s">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="E149" t="s">
         <v>253</v>
       </c>
       <c r="F149">
-        <v>91</v>
+        <v>3001</v>
+      </c>
+      <c r="G149">
+        <v>2</v>
+      </c>
+      <c r="H149">
+        <v>7030</v>
       </c>
       <c r="I149">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" ht="75" x14ac:dyDescent="0.4">
+        <v>9999</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A150">
-        <v>9002</v>
+        <v>9000</v>
       </c>
       <c r="B150">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C150" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D150" t="s">
-        <v>72</v>
-      </c>
-      <c r="E150" s="14" t="s">
-        <v>283</v>
+        <v>66</v>
+      </c>
+      <c r="E150" t="s">
+        <v>253</v>
       </c>
       <c r="F150">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I150">
         <v>9999999</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="75" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A151">
-        <v>9003</v>
+        <v>9001</v>
       </c>
       <c r="B151">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C151" t="s">
-        <v>212</v>
+        <v>69</v>
       </c>
       <c r="D151" t="s">
-        <v>207</v>
-      </c>
-      <c r="E151" s="14" t="s">
-        <v>281</v>
+        <v>67</v>
+      </c>
+      <c r="E151" t="s">
+        <v>253</v>
       </c>
       <c r="F151">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I151">
         <v>9999999</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:11" ht="75" x14ac:dyDescent="0.4">
       <c r="A152">
-        <v>9004</v>
+        <v>9002</v>
       </c>
       <c r="B152">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C152" t="s">
-        <v>208</v>
+        <v>70</v>
       </c>
       <c r="D152" t="s">
-        <v>209</v>
-      </c>
-      <c r="E152" t="s">
-        <v>253</v>
+        <v>72</v>
+      </c>
+      <c r="E152" s="14" t="s">
+        <v>283</v>
       </c>
       <c r="F152">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I152">
         <v>9999999</v>
@@ -7437,126 +7459,114 @@
     </row>
     <row r="153" spans="1:11" ht="75" x14ac:dyDescent="0.4">
       <c r="A153">
-        <v>9005</v>
+        <v>9003</v>
       </c>
       <c r="B153">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C153" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D153" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E153" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F153">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I153">
         <v>9999999</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A154" s="9">
-        <v>10001</v>
+      <c r="A154">
+        <v>9004</v>
       </c>
       <c r="B154">
-        <v>150</v>
-      </c>
-      <c r="C154" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="D154" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="E154" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="F154" s="10">
-        <v>5001</v>
-      </c>
-      <c r="G154" s="10">
-        <v>5</v>
-      </c>
-      <c r="H154" s="10">
-        <v>1</v>
-      </c>
-      <c r="I154" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A155" s="9">
-        <v>10002</v>
+        <v>148</v>
+      </c>
+      <c r="C154" t="s">
+        <v>208</v>
+      </c>
+      <c r="D154" t="s">
+        <v>209</v>
+      </c>
+      <c r="E154" t="s">
+        <v>253</v>
+      </c>
+      <c r="F154">
+        <v>94</v>
+      </c>
+      <c r="I154">
+        <v>9999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" ht="75" x14ac:dyDescent="0.4">
+      <c r="A155">
+        <v>9005</v>
       </c>
       <c r="B155">
-        <v>151</v>
-      </c>
-      <c r="C155" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="D155" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="E155" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="F155" s="12">
-        <v>5001</v>
-      </c>
-      <c r="G155" s="12">
-        <v>5</v>
-      </c>
-      <c r="H155" s="12">
-        <v>2</v>
-      </c>
-      <c r="I155" s="12">
-        <v>1</v>
+        <v>149</v>
+      </c>
+      <c r="C155" t="s">
+        <v>210</v>
+      </c>
+      <c r="D155" t="s">
+        <v>211</v>
+      </c>
+      <c r="E155" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="F155">
+        <v>95</v>
+      </c>
+      <c r="I155">
+        <v>9999999</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A156" s="9">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="B156">
-        <v>152</v>
-      </c>
-      <c r="C156" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="D156" s="12" t="s">
-        <v>221</v>
+        <v>150</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D156" s="10" t="s">
+        <v>220</v>
       </c>
       <c r="E156" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="F156" s="12">
+      <c r="F156" s="10">
         <v>5001</v>
       </c>
-      <c r="G156" s="12">
+      <c r="G156" s="10">
         <v>5</v>
       </c>
-      <c r="H156" s="12">
-        <v>3</v>
-      </c>
-      <c r="I156" s="12">
+      <c r="H156" s="10">
+        <v>1</v>
+      </c>
+      <c r="I156" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A157" s="9">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="B157">
-        <v>153</v>
-      </c>
-      <c r="C157" s="12" t="s">
-        <v>238</v>
+        <v>151</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>214</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E157" s="11" t="s">
         <v>253</v>
@@ -7568,7 +7578,7 @@
         <v>5</v>
       </c>
       <c r="H157" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I157" s="12">
         <v>1</v>
@@ -7576,16 +7586,16 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A158" s="9">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="B158">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="D158" s="12" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E158" s="11" t="s">
         <v>253</v>
@@ -7597,7 +7607,7 @@
         <v>5</v>
       </c>
       <c r="H158" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I158" s="12">
         <v>1</v>
@@ -7605,16 +7615,16 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A159" s="9">
-        <v>10006</v>
+        <v>10004</v>
       </c>
       <c r="B159">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D159" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E159" s="11" t="s">
         <v>253</v>
@@ -7626,7 +7636,7 @@
         <v>5</v>
       </c>
       <c r="H159" s="12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I159" s="12">
         <v>1</v>
@@ -7634,16 +7644,16 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A160" s="9">
-        <v>10007</v>
+        <v>10005</v>
       </c>
       <c r="B160">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="E160" s="11" t="s">
         <v>253</v>
@@ -7655,7 +7665,7 @@
         <v>5</v>
       </c>
       <c r="H160" s="12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I160" s="12">
         <v>1</v>
@@ -7663,16 +7673,16 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A161" s="9">
-        <v>10008</v>
+        <v>10006</v>
       </c>
       <c r="B161">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D161" s="12" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E161" s="11" t="s">
         <v>253</v>
@@ -7684,7 +7694,7 @@
         <v>5</v>
       </c>
       <c r="H161" s="12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I161" s="12">
         <v>1</v>
@@ -7692,16 +7702,16 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A162" s="9">
-        <v>10009</v>
+        <v>10007</v>
       </c>
       <c r="B162">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D162" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E162" s="11" t="s">
         <v>253</v>
@@ -7713,7 +7723,7 @@
         <v>5</v>
       </c>
       <c r="H162" s="12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I162" s="12">
         <v>1</v>
@@ -7721,16 +7731,16 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A163" s="9">
-        <v>10010</v>
+        <v>10008</v>
       </c>
       <c r="B163">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D163" s="12" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E163" s="11" t="s">
         <v>253</v>
@@ -7742,7 +7752,7 @@
         <v>5</v>
       </c>
       <c r="H163" s="12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I163" s="12">
         <v>1</v>
@@ -7750,141 +7760,137 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A164" s="9">
-        <v>10011</v>
+        <v>10009</v>
       </c>
       <c r="B164">
-        <v>160</v>
-      </c>
-      <c r="C164" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="D164" s="13" t="s">
-        <v>219</v>
+        <v>158</v>
+      </c>
+      <c r="C164" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="D164" s="12" t="s">
+        <v>225</v>
       </c>
       <c r="E164" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="F164" s="13">
+      <c r="F164" s="12">
         <v>5001</v>
       </c>
-      <c r="G164" s="13">
+      <c r="G164" s="12">
         <v>5</v>
       </c>
-      <c r="H164" s="13">
-        <v>11</v>
-      </c>
-      <c r="I164" s="13">
+      <c r="H164" s="12">
+        <v>9</v>
+      </c>
+      <c r="I164" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A165" s="9">
+        <v>10010</v>
+      </c>
+      <c r="B165">
+        <v>159</v>
+      </c>
+      <c r="C165" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="D165" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E165" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F165" s="12">
+        <v>5001</v>
+      </c>
+      <c r="G165" s="12">
+        <v>5</v>
+      </c>
+      <c r="H165" s="12">
+        <v>10</v>
+      </c>
+      <c r="I165" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A166" s="9">
+        <v>10011</v>
+      </c>
+      <c r="B166">
+        <v>160</v>
+      </c>
+      <c r="C166" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D166" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="E166" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F166" s="13">
+        <v>5001</v>
+      </c>
+      <c r="G166" s="13">
+        <v>5</v>
+      </c>
+      <c r="H166" s="13">
+        <v>11</v>
+      </c>
+      <c r="I166" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A167" s="9">
         <v>10012</v>
       </c>
-      <c r="B165">
+      <c r="B167">
         <v>161</v>
       </c>
-      <c r="C165" s="13" t="s">
+      <c r="C167" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="D165" s="13" t="s">
+      <c r="D167" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="E165" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="F165" s="13">
+      <c r="E167" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F167" s="13">
         <v>5001</v>
       </c>
-      <c r="G165" s="13">
+      <c r="G167" s="13">
         <v>5</v>
       </c>
-      <c r="H165" s="13">
+      <c r="H167" s="13">
         <v>12</v>
       </c>
-      <c r="I165" s="13">
-        <v>1</v>
-      </c>
-      <c r="J165" s="11"/>
-      <c r="K165" s="11"/>
-    </row>
-    <row r="166" spans="1:11" ht="75" x14ac:dyDescent="0.4">
-      <c r="A166" s="11">
-        <v>10013</v>
-      </c>
-      <c r="B166">
-        <v>162</v>
-      </c>
-      <c r="C166" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="D166" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="E166" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="F166" s="10">
-        <v>5001</v>
-      </c>
-      <c r="G166" s="10">
-        <v>5</v>
-      </c>
-      <c r="H166" s="10">
-        <v>22</v>
-      </c>
-      <c r="I166" s="10">
-        <v>1</v>
-      </c>
-      <c r="J166" s="11"/>
-      <c r="K166" s="11"/>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A167" s="11">
-        <v>10014</v>
-      </c>
-      <c r="B167">
-        <v>163</v>
-      </c>
-      <c r="C167" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="D167" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="E167" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="F167" s="10">
-        <v>5001</v>
-      </c>
-      <c r="G167" s="10">
-        <v>5</v>
-      </c>
-      <c r="H167" s="10">
-        <v>23</v>
-      </c>
-      <c r="I167" s="10">
+      <c r="I167" s="13">
         <v>1</v>
       </c>
       <c r="J167" s="11"/>
       <c r="K167" s="11"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:11" ht="75" x14ac:dyDescent="0.4">
       <c r="A168" s="11">
-        <v>10015</v>
+        <v>10013</v>
       </c>
       <c r="B168">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="D168" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="E168" s="11" t="s">
-        <v>253</v>
+        <v>255</v>
+      </c>
+      <c r="D168" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E168" s="15" t="s">
+        <v>279</v>
       </c>
       <c r="F168" s="10">
         <v>5001</v>
@@ -7893,7 +7899,7 @@
         <v>5</v>
       </c>
       <c r="H168" s="10">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I168" s="10">
         <v>1</v>
@@ -7903,16 +7909,16 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A169" s="11">
-        <v>10016</v>
+        <v>10014</v>
       </c>
       <c r="B169">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="D169" s="10" t="s">
-        <v>273</v>
+        <v>257</v>
+      </c>
+      <c r="D169" s="12" t="s">
+        <v>277</v>
       </c>
       <c r="E169" s="11" t="s">
         <v>253</v>
@@ -7924,7 +7930,7 @@
         <v>5</v>
       </c>
       <c r="H169" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I169" s="10">
         <v>1</v>
@@ -7934,16 +7940,16 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A170" s="11">
-        <v>10017</v>
+        <v>10015</v>
       </c>
       <c r="B170">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D170" s="12" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E170" s="11" t="s">
         <v>253</v>
@@ -7955,7 +7961,7 @@
         <v>5</v>
       </c>
       <c r="H170" s="10">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I170" s="10">
         <v>1</v>
@@ -7965,16 +7971,16 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A171" s="11">
-        <v>10018</v>
+        <v>10016</v>
       </c>
       <c r="B171">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="D171" s="12" t="s">
-        <v>275</v>
+        <v>258</v>
+      </c>
+      <c r="D171" s="10" t="s">
+        <v>273</v>
       </c>
       <c r="E171" s="11" t="s">
         <v>253</v>
@@ -7986,7 +7992,7 @@
         <v>5</v>
       </c>
       <c r="H171" s="10">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I171" s="10">
         <v>1</v>
@@ -7994,21 +8000,21 @@
       <c r="J171" s="11"/>
       <c r="K171" s="11"/>
     </row>
-    <row r="172" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A172" s="11">
-        <v>10019</v>
+        <v>10017</v>
       </c>
       <c r="B172">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="D172" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="E172" s="15" t="s">
-        <v>280</v>
+        <v>260</v>
+      </c>
+      <c r="D172" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E172" s="11" t="s">
+        <v>253</v>
       </c>
       <c r="F172" s="10">
         <v>5001</v>
@@ -8017,7 +8023,7 @@
         <v>5</v>
       </c>
       <c r="H172" s="10">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I172" s="10">
         <v>1</v>
@@ -8027,16 +8033,16 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A173" s="11">
-        <v>10020</v>
+        <v>10018</v>
       </c>
       <c r="B173">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D173" s="12" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E173" s="11" t="s">
         <v>253</v>
@@ -8048,7 +8054,7 @@
         <v>5</v>
       </c>
       <c r="H173" s="10">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I173" s="10">
         <v>1</v>
@@ -8056,21 +8062,21 @@
       <c r="J173" s="11"/>
       <c r="K173" s="11"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A174" s="11">
-        <v>10021</v>
+        <v>10019</v>
       </c>
       <c r="B174">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="D174" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="E174" s="11" t="s">
-        <v>253</v>
+        <v>261</v>
+      </c>
+      <c r="D174" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="E174" s="15" t="s">
+        <v>280</v>
       </c>
       <c r="F174" s="10">
         <v>5001</v>
@@ -8079,7 +8085,7 @@
         <v>5</v>
       </c>
       <c r="H174" s="10">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I174" s="10">
         <v>1</v>
@@ -8089,16 +8095,16 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A175" s="11">
-        <v>10022</v>
+        <v>10020</v>
       </c>
       <c r="B175">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="D175" s="10" t="s">
-        <v>269</v>
+        <v>263</v>
+      </c>
+      <c r="D175" s="12" t="s">
+        <v>271</v>
       </c>
       <c r="E175" s="11" t="s">
         <v>253</v>
@@ -8110,7 +8116,7 @@
         <v>5</v>
       </c>
       <c r="H175" s="10">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I175" s="10">
         <v>1</v>
@@ -8120,16 +8126,16 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A176" s="11">
-        <v>10023</v>
+        <v>10021</v>
       </c>
       <c r="B176">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D176" s="12" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E176" s="11" t="s">
         <v>253</v>
@@ -8141,7 +8147,7 @@
         <v>5</v>
       </c>
       <c r="H176" s="10">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I176" s="10">
         <v>1</v>
@@ -8151,16 +8157,16 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A177" s="11">
-        <v>10024</v>
+        <v>10022</v>
       </c>
       <c r="B177">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="D177" s="12" t="s">
-        <v>267</v>
+        <v>262</v>
+      </c>
+      <c r="D177" s="10" t="s">
+        <v>269</v>
       </c>
       <c r="E177" s="11" t="s">
         <v>253</v>
@@ -8172,7 +8178,7 @@
         <v>5</v>
       </c>
       <c r="H177" s="10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I177" s="10">
         <v>1</v>
@@ -8181,31 +8187,93 @@
       <c r="K177" s="11"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A178">
+      <c r="A178" s="11">
+        <v>10023</v>
+      </c>
+      <c r="B178">
+        <v>172</v>
+      </c>
+      <c r="C178" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D178" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="E178" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F178" s="10">
+        <v>5001</v>
+      </c>
+      <c r="G178" s="10">
+        <v>5</v>
+      </c>
+      <c r="H178" s="10">
+        <v>14</v>
+      </c>
+      <c r="I178" s="10">
+        <v>1</v>
+      </c>
+      <c r="J178" s="11"/>
+      <c r="K178" s="11"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A179" s="11">
+        <v>10024</v>
+      </c>
+      <c r="B179">
+        <v>173</v>
+      </c>
+      <c r="C179" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="D179" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="E179" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F179" s="10">
+        <v>5001</v>
+      </c>
+      <c r="G179" s="10">
+        <v>5</v>
+      </c>
+      <c r="H179" s="10">
+        <v>15</v>
+      </c>
+      <c r="I179" s="10">
+        <v>1</v>
+      </c>
+      <c r="J179" s="11"/>
+      <c r="K179" s="11"/>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A180">
         <v>11001</v>
       </c>
-      <c r="B178">
+      <c r="B180">
         <v>174</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C180" t="s">
         <v>237</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D180" t="s">
         <v>211</v>
       </c>
-      <c r="E178" t="s">
-        <v>253</v>
-      </c>
-      <c r="F178">
+      <c r="E180" t="s">
+        <v>253</v>
+      </c>
+      <c r="F180">
         <v>5002</v>
       </c>
-      <c r="G178">
+      <c r="G180">
         <v>5</v>
       </c>
-      <c r="H178">
+      <c r="H180">
         <v>100</v>
       </c>
-      <c r="I178">
+      <c r="I180">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAAC2B1-4F27-4927-8868-C3AD13798820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DD2C0B-6795-4AC4-BDD2-5F421962F0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
@@ -2793,10 +2793,10 @@
   <dimension ref="A1:K180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D113" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D128" sqref="D128"/>
+      <selection pane="bottomRight" activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DD2C0B-6795-4AC4-BDD2-5F421962F0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE33477-C623-4337-B3E9-DE3FA55606A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="394">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1889,6 +1889,10 @@
     <rPh sb="2" eb="3">
       <t>タネ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/block_2d_040</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2793,10 +2797,10 @@
   <dimension ref="A1:K180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C98" sqref="C98"/>
+      <selection pane="bottomRight" activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5915,7 +5919,7 @@
         <v>387</v>
       </c>
       <c r="D98" t="s">
-        <v>47</v>
+        <v>393</v>
       </c>
       <c r="E98" t="s">
         <v>253</v>

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE33477-C623-4337-B3E9-DE3FA55606A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FFE12F-B4F7-4A37-A123-A8BD8AC5D0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="403">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1832,16 +1832,6 @@
     <t>Textures/object_2d_093</t>
   </si>
   <si>
-    <t>爆弾1</t>
-    <rPh sb="0" eb="2">
-      <t>バクダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Textures/object_2d_15</t>
-  </si>
-  <si>
     <t>爆弾</t>
     <rPh sb="0" eb="2">
       <t>バクダン</t>
@@ -1849,13 +1839,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>爆弾2</t>
-    <rPh sb="0" eb="2">
-      <t>バクダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Sort</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1894,6 +1877,43 @@
   <si>
     <t>Textures/block_2d_040</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆弾3・花火</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_189</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆弾5・花火</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_190</t>
+  </si>
+  <si>
+    <t>爆弾10・花火</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_191</t>
+  </si>
+  <si>
+    <t>爆弾3</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_192</t>
+  </si>
+  <si>
+    <t>爆弾5</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_193</t>
+  </si>
+  <si>
+    <t>爆弾10</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_194</t>
   </si>
 </sst>
 </file>
@@ -2459,8 +2479,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:K180" totalsRowShown="0">
-  <autoFilter ref="A1:K180" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:K184" totalsRowShown="0">
+  <autoFilter ref="A1:K184" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{BE058DD4-72CB-455C-A822-19DA100C86EF}" name="Sort" dataDxfId="11"/>
@@ -2794,13 +2814,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:K180"/>
+  <dimension ref="A1:K184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D119" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D95" sqref="D95"/>
+      <selection pane="bottomRight" activeCell="L135" sqref="L135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2818,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -5916,10 +5936,10 @@
         <v>9999</v>
       </c>
       <c r="C98" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D98" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E98" t="s">
         <v>253</v>
@@ -6650,7 +6670,7 @@
         <v>122</v>
       </c>
       <c r="C126" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D126" t="s">
         <v>326</v>
@@ -6676,7 +6696,7 @@
         <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D127" t="s">
         <v>327</v>
@@ -6824,16 +6844,16 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A132">
-        <v>4000</v>
+        <v>4001</v>
       </c>
       <c r="B132">
         <v>127</v>
       </c>
       <c r="C132" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="D132" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="E132" t="s">
         <v>253</v>
@@ -6845,7 +6865,7 @@
         <v>2</v>
       </c>
       <c r="H132">
-        <v>9000</v>
+        <v>9001</v>
       </c>
       <c r="I132">
         <v>9999</v>
@@ -6856,16 +6876,16 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A133">
-        <v>4001</v>
+        <v>4002</v>
       </c>
       <c r="B133">
         <v>128</v>
       </c>
       <c r="C133" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="D133" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="E133" t="s">
         <v>253</v>
@@ -6877,7 +6897,7 @@
         <v>2</v>
       </c>
       <c r="H133">
-        <v>9001</v>
+        <v>9002</v>
       </c>
       <c r="I133">
         <v>9999</v>
@@ -6888,22 +6908,28 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A134">
-        <v>5000</v>
+        <v>4003</v>
       </c>
       <c r="B134">
-        <v>9999</v>
+        <v>129</v>
       </c>
       <c r="C134" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="D134" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="E134" t="s">
         <v>253</v>
       </c>
       <c r="F134">
-        <v>4100</v>
+        <v>4000</v>
+      </c>
+      <c r="G134">
+        <v>2</v>
+      </c>
+      <c r="H134">
+        <v>9003</v>
       </c>
       <c r="I134">
         <v>9999</v>
@@ -6914,28 +6940,28 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A135">
-        <v>7016</v>
+        <v>4004</v>
       </c>
       <c r="B135">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C135" t="s">
-        <v>205</v>
+        <v>397</v>
       </c>
       <c r="D135" t="s">
-        <v>201</v>
+        <v>398</v>
       </c>
       <c r="E135" t="s">
         <v>253</v>
       </c>
       <c r="F135">
-        <v>3001</v>
+        <v>4000</v>
       </c>
       <c r="G135">
         <v>2</v>
       </c>
       <c r="H135">
-        <v>7016</v>
+        <v>9004</v>
       </c>
       <c r="I135">
         <v>9999</v>
@@ -6946,28 +6972,28 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A136">
-        <v>7017</v>
+        <v>4005</v>
       </c>
       <c r="B136">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C136" t="s">
-        <v>206</v>
+        <v>399</v>
       </c>
       <c r="D136" t="s">
-        <v>202</v>
+        <v>400</v>
       </c>
       <c r="E136" t="s">
         <v>253</v>
       </c>
       <c r="F136">
-        <v>3001</v>
+        <v>4000</v>
       </c>
       <c r="G136">
         <v>2</v>
       </c>
       <c r="H136">
-        <v>7017</v>
+        <v>9005</v>
       </c>
       <c r="I136">
         <v>9999</v>
@@ -6978,28 +7004,28 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A137">
-        <v>7018</v>
+        <v>4006</v>
       </c>
       <c r="B137">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C137" t="s">
-        <v>175</v>
+        <v>401</v>
       </c>
       <c r="D137" t="s">
-        <v>176</v>
+        <v>402</v>
       </c>
       <c r="E137" t="s">
         <v>253</v>
       </c>
       <c r="F137">
-        <v>3001</v>
+        <v>4000</v>
       </c>
       <c r="G137">
         <v>2</v>
       </c>
       <c r="H137">
-        <v>7018</v>
+        <v>9006</v>
       </c>
       <c r="I137">
         <v>9999</v>
@@ -7010,28 +7036,22 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A138">
-        <v>7019</v>
+        <v>5000</v>
       </c>
       <c r="B138">
-        <v>132</v>
+        <v>9999</v>
       </c>
       <c r="C138" t="s">
-        <v>177</v>
+        <v>385</v>
       </c>
       <c r="D138" t="s">
-        <v>178</v>
+        <v>386</v>
       </c>
       <c r="E138" t="s">
         <v>253</v>
       </c>
       <c r="F138">
-        <v>3001</v>
-      </c>
-      <c r="G138">
-        <v>2</v>
-      </c>
-      <c r="H138">
-        <v>7019</v>
+        <v>4100</v>
       </c>
       <c r="I138">
         <v>9999</v>
@@ -7042,16 +7062,16 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A139">
-        <v>7020</v>
+        <v>7016</v>
       </c>
       <c r="B139">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C139" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="D139" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="E139" t="s">
         <v>253</v>
@@ -7063,7 +7083,7 @@
         <v>2</v>
       </c>
       <c r="H139">
-        <v>7020</v>
+        <v>7016</v>
       </c>
       <c r="I139">
         <v>9999</v>
@@ -7074,16 +7094,16 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A140">
-        <v>7021</v>
+        <v>7017</v>
       </c>
       <c r="B140">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C140" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="D140" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="E140" t="s">
         <v>253</v>
@@ -7095,7 +7115,7 @@
         <v>2</v>
       </c>
       <c r="H140">
-        <v>7021</v>
+        <v>7017</v>
       </c>
       <c r="I140">
         <v>9999</v>
@@ -7106,16 +7126,16 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A141">
-        <v>7022</v>
+        <v>7018</v>
       </c>
       <c r="B141">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C141" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D141" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E141" t="s">
         <v>253</v>
@@ -7127,7 +7147,7 @@
         <v>2</v>
       </c>
       <c r="H141">
-        <v>7022</v>
+        <v>7018</v>
       </c>
       <c r="I141">
         <v>9999</v>
@@ -7138,16 +7158,16 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A142">
-        <v>7023</v>
+        <v>7019</v>
       </c>
       <c r="B142">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C142" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D142" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E142" t="s">
         <v>253</v>
@@ -7159,7 +7179,7 @@
         <v>2</v>
       </c>
       <c r="H142">
-        <v>7023</v>
+        <v>7019</v>
       </c>
       <c r="I142">
         <v>9999</v>
@@ -7170,16 +7190,16 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A143">
-        <v>7024</v>
+        <v>7020</v>
       </c>
       <c r="B143">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C143" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D143" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E143" t="s">
         <v>253</v>
@@ -7191,7 +7211,7 @@
         <v>2</v>
       </c>
       <c r="H143">
-        <v>7024</v>
+        <v>7020</v>
       </c>
       <c r="I143">
         <v>9999</v>
@@ -7202,16 +7222,16 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A144">
-        <v>7025</v>
+        <v>7021</v>
       </c>
       <c r="B144">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C144" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D144" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E144" t="s">
         <v>253</v>
@@ -7223,7 +7243,7 @@
         <v>2</v>
       </c>
       <c r="H144">
-        <v>7025</v>
+        <v>7021</v>
       </c>
       <c r="I144">
         <v>9999</v>
@@ -7234,16 +7254,16 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A145">
-        <v>7026</v>
+        <v>7022</v>
       </c>
       <c r="B145">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C145" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D145" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="E145" t="s">
         <v>253</v>
@@ -7255,7 +7275,7 @@
         <v>2</v>
       </c>
       <c r="H145">
-        <v>7026</v>
+        <v>7022</v>
       </c>
       <c r="I145">
         <v>9999</v>
@@ -7266,16 +7286,16 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A146">
-        <v>7027</v>
+        <v>7023</v>
       </c>
       <c r="B146">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C146" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D146" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="E146" t="s">
         <v>253</v>
@@ -7287,7 +7307,7 @@
         <v>2</v>
       </c>
       <c r="H146">
-        <v>7027</v>
+        <v>7023</v>
       </c>
       <c r="I146">
         <v>9999</v>
@@ -7298,16 +7318,16 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A147">
-        <v>7028</v>
+        <v>7024</v>
       </c>
       <c r="B147">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C147" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D147" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="E147" t="s">
         <v>253</v>
@@ -7319,7 +7339,7 @@
         <v>2</v>
       </c>
       <c r="H147">
-        <v>7028</v>
+        <v>7024</v>
       </c>
       <c r="I147">
         <v>9999</v>
@@ -7330,16 +7350,16 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A148">
-        <v>7029</v>
+        <v>7025</v>
       </c>
       <c r="B148">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C148" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D148" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="E148" t="s">
         <v>253</v>
@@ -7351,7 +7371,7 @@
         <v>2</v>
       </c>
       <c r="H148">
-        <v>7029</v>
+        <v>7025</v>
       </c>
       <c r="I148">
         <v>9999</v>
@@ -7362,16 +7382,16 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A149">
-        <v>7030</v>
+        <v>7026</v>
       </c>
       <c r="B149">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C149" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D149" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E149" t="s">
         <v>253</v>
@@ -7383,7 +7403,7 @@
         <v>2</v>
       </c>
       <c r="H149">
-        <v>7030</v>
+        <v>7026</v>
       </c>
       <c r="I149">
         <v>9999</v>
@@ -7394,299 +7414,311 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A150">
-        <v>9000</v>
+        <v>7027</v>
       </c>
       <c r="B150">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C150" t="s">
-        <v>68</v>
+        <v>192</v>
       </c>
       <c r="D150" t="s">
-        <v>66</v>
+        <v>197</v>
       </c>
       <c r="E150" t="s">
         <v>253</v>
       </c>
       <c r="F150">
-        <v>90</v>
+        <v>3001</v>
+      </c>
+      <c r="G150">
+        <v>2</v>
+      </c>
+      <c r="H150">
+        <v>7027</v>
       </c>
       <c r="I150">
-        <v>9999999</v>
+        <v>9999</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A151">
-        <v>9001</v>
+        <v>7028</v>
       </c>
       <c r="B151">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C151" t="s">
-        <v>69</v>
+        <v>193</v>
       </c>
       <c r="D151" t="s">
-        <v>67</v>
+        <v>198</v>
       </c>
       <c r="E151" t="s">
         <v>253</v>
       </c>
       <c r="F151">
-        <v>91</v>
+        <v>3001</v>
+      </c>
+      <c r="G151">
+        <v>2</v>
+      </c>
+      <c r="H151">
+        <v>7028</v>
       </c>
       <c r="I151">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" ht="75" x14ac:dyDescent="0.4">
+        <v>9999</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A152">
-        <v>9002</v>
+        <v>7029</v>
       </c>
       <c r="B152">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C152" t="s">
-        <v>70</v>
+        <v>194</v>
       </c>
       <c r="D152" t="s">
-        <v>72</v>
-      </c>
-      <c r="E152" s="14" t="s">
-        <v>283</v>
+        <v>199</v>
+      </c>
+      <c r="E152" t="s">
+        <v>253</v>
       </c>
       <c r="F152">
-        <v>92</v>
+        <v>3001</v>
+      </c>
+      <c r="G152">
+        <v>2</v>
+      </c>
+      <c r="H152">
+        <v>7029</v>
       </c>
       <c r="I152">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" ht="75" x14ac:dyDescent="0.4">
+        <v>9999</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A153">
-        <v>9003</v>
+        <v>7030</v>
       </c>
       <c r="B153">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C153" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="D153" t="s">
-        <v>207</v>
-      </c>
-      <c r="E153" s="14" t="s">
-        <v>281</v>
+        <v>200</v>
+      </c>
+      <c r="E153" t="s">
+        <v>253</v>
       </c>
       <c r="F153">
-        <v>93</v>
+        <v>3001</v>
+      </c>
+      <c r="G153">
+        <v>2</v>
+      </c>
+      <c r="H153">
+        <v>7030</v>
       </c>
       <c r="I153">
-        <v>9999999</v>
+        <v>9999</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A154">
-        <v>9004</v>
+        <v>9000</v>
       </c>
       <c r="B154">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C154" t="s">
-        <v>208</v>
+        <v>68</v>
       </c>
       <c r="D154" t="s">
-        <v>209</v>
+        <v>66</v>
       </c>
       <c r="E154" t="s">
         <v>253</v>
       </c>
       <c r="F154">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I154">
         <v>9999999</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="75" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A155">
-        <v>9005</v>
+        <v>9001</v>
       </c>
       <c r="B155">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C155" t="s">
-        <v>210</v>
+        <v>69</v>
       </c>
       <c r="D155" t="s">
-        <v>211</v>
-      </c>
-      <c r="E155" s="14" t="s">
-        <v>282</v>
+        <v>67</v>
+      </c>
+      <c r="E155" t="s">
+        <v>253</v>
       </c>
       <c r="F155">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I155">
         <v>9999999</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A156" s="9">
-        <v>10001</v>
+    <row r="156" spans="1:11" ht="75" x14ac:dyDescent="0.4">
+      <c r="A156">
+        <v>9002</v>
       </c>
       <c r="B156">
-        <v>150</v>
-      </c>
-      <c r="C156" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="D156" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="E156" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="F156" s="10">
-        <v>5001</v>
-      </c>
-      <c r="G156" s="10">
-        <v>5</v>
-      </c>
-      <c r="H156" s="10">
-        <v>1</v>
-      </c>
-      <c r="I156" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A157" s="9">
-        <v>10002</v>
+        <v>146</v>
+      </c>
+      <c r="C156" t="s">
+        <v>70</v>
+      </c>
+      <c r="D156" t="s">
+        <v>72</v>
+      </c>
+      <c r="E156" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="F156">
+        <v>92</v>
+      </c>
+      <c r="I156">
+        <v>9999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" ht="75" x14ac:dyDescent="0.4">
+      <c r="A157">
+        <v>9003</v>
       </c>
       <c r="B157">
-        <v>151</v>
-      </c>
-      <c r="C157" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="D157" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="E157" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="F157" s="12">
-        <v>5001</v>
-      </c>
-      <c r="G157" s="12">
-        <v>5</v>
-      </c>
-      <c r="H157" s="12">
-        <v>2</v>
-      </c>
-      <c r="I157" s="12">
-        <v>1</v>
+        <v>147</v>
+      </c>
+      <c r="C157" t="s">
+        <v>212</v>
+      </c>
+      <c r="D157" t="s">
+        <v>207</v>
+      </c>
+      <c r="E157" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="F157">
+        <v>93</v>
+      </c>
+      <c r="I157">
+        <v>9999999</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A158" s="9">
-        <v>10003</v>
+      <c r="A158">
+        <v>9004</v>
       </c>
       <c r="B158">
-        <v>152</v>
-      </c>
-      <c r="C158" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="D158" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="E158" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="F158" s="12">
-        <v>5001</v>
-      </c>
-      <c r="G158" s="12">
-        <v>5</v>
-      </c>
-      <c r="H158" s="12">
-        <v>3</v>
-      </c>
-      <c r="I158" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A159" s="9">
-        <v>10004</v>
+        <v>148</v>
+      </c>
+      <c r="C158" t="s">
+        <v>208</v>
+      </c>
+      <c r="D158" t="s">
+        <v>209</v>
+      </c>
+      <c r="E158" t="s">
+        <v>253</v>
+      </c>
+      <c r="F158">
+        <v>94</v>
+      </c>
+      <c r="I158">
+        <v>9999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" ht="75" x14ac:dyDescent="0.4">
+      <c r="A159">
+        <v>9005</v>
       </c>
       <c r="B159">
-        <v>153</v>
-      </c>
-      <c r="C159" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="D159" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="E159" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="F159" s="12">
-        <v>5001</v>
-      </c>
-      <c r="G159" s="12">
-        <v>5</v>
-      </c>
-      <c r="H159" s="12">
-        <v>4</v>
-      </c>
-      <c r="I159" s="12">
-        <v>1</v>
+        <v>149</v>
+      </c>
+      <c r="C159" t="s">
+        <v>210</v>
+      </c>
+      <c r="D159" t="s">
+        <v>211</v>
+      </c>
+      <c r="E159" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="F159">
+        <v>95</v>
+      </c>
+      <c r="I159">
+        <v>9999999</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A160" s="9">
-        <v>10005</v>
+        <v>10001</v>
       </c>
       <c r="B160">
-        <v>154</v>
-      </c>
-      <c r="C160" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="D160" s="12" t="s">
-        <v>216</v>
+        <v>150</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D160" s="10" t="s">
+        <v>220</v>
       </c>
       <c r="E160" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="F160" s="12">
+      <c r="F160" s="10">
         <v>5001</v>
       </c>
-      <c r="G160" s="12">
+      <c r="G160" s="10">
         <v>5</v>
       </c>
-      <c r="H160" s="12">
-        <v>5</v>
-      </c>
-      <c r="I160" s="12">
+      <c r="H160" s="10">
+        <v>1</v>
+      </c>
+      <c r="I160" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A161" s="9">
-        <v>10006</v>
+        <v>10002</v>
       </c>
       <c r="B161">
-        <v>155</v>
-      </c>
-      <c r="C161" s="12" t="s">
-        <v>241</v>
+        <v>151</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>214</v>
       </c>
       <c r="D161" s="12" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E161" s="11" t="s">
         <v>253</v>
@@ -7698,7 +7730,7 @@
         <v>5</v>
       </c>
       <c r="H161" s="12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I161" s="12">
         <v>1</v>
@@ -7706,16 +7738,16 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A162" s="9">
-        <v>10007</v>
+        <v>10003</v>
       </c>
       <c r="B162">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="D162" s="12" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E162" s="11" t="s">
         <v>253</v>
@@ -7727,7 +7759,7 @@
         <v>5</v>
       </c>
       <c r="H162" s="12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I162" s="12">
         <v>1</v>
@@ -7735,16 +7767,16 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A163" s="9">
-        <v>10008</v>
+        <v>10004</v>
       </c>
       <c r="B163">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D163" s="12" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E163" s="11" t="s">
         <v>253</v>
@@ -7756,7 +7788,7 @@
         <v>5</v>
       </c>
       <c r="H163" s="12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I163" s="12">
         <v>1</v>
@@ -7764,16 +7796,16 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A164" s="9">
-        <v>10009</v>
+        <v>10005</v>
       </c>
       <c r="B164">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D164" s="12" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E164" s="11" t="s">
         <v>253</v>
@@ -7785,7 +7817,7 @@
         <v>5</v>
       </c>
       <c r="H164" s="12">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I164" s="12">
         <v>1</v>
@@ -7793,16 +7825,16 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A165" s="9">
-        <v>10010</v>
+        <v>10006</v>
       </c>
       <c r="B165">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D165" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E165" s="11" t="s">
         <v>253</v>
@@ -7814,7 +7846,7 @@
         <v>5</v>
       </c>
       <c r="H165" s="12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I165" s="12">
         <v>1</v>
@@ -7822,203 +7854,195 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A166" s="9">
-        <v>10011</v>
+        <v>10007</v>
       </c>
       <c r="B166">
-        <v>160</v>
-      </c>
-      <c r="C166" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="D166" s="13" t="s">
-        <v>219</v>
+        <v>156</v>
+      </c>
+      <c r="C166" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="D166" s="12" t="s">
+        <v>224</v>
       </c>
       <c r="E166" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="F166" s="13">
+      <c r="F166" s="12">
         <v>5001</v>
       </c>
-      <c r="G166" s="13">
+      <c r="G166" s="12">
         <v>5</v>
       </c>
-      <c r="H166" s="13">
-        <v>11</v>
-      </c>
-      <c r="I166" s="13">
+      <c r="H166" s="12">
+        <v>7</v>
+      </c>
+      <c r="I166" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A167" s="9">
+        <v>10008</v>
+      </c>
+      <c r="B167">
+        <v>157</v>
+      </c>
+      <c r="C167" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D167" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="E167" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F167" s="12">
+        <v>5001</v>
+      </c>
+      <c r="G167" s="12">
+        <v>5</v>
+      </c>
+      <c r="H167" s="12">
+        <v>8</v>
+      </c>
+      <c r="I167" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A168" s="9">
+        <v>10009</v>
+      </c>
+      <c r="B168">
+        <v>158</v>
+      </c>
+      <c r="C168" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="D168" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="E168" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F168" s="12">
+        <v>5001</v>
+      </c>
+      <c r="G168" s="12">
+        <v>5</v>
+      </c>
+      <c r="H168" s="12">
+        <v>9</v>
+      </c>
+      <c r="I168" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A169" s="9">
+        <v>10010</v>
+      </c>
+      <c r="B169">
+        <v>159</v>
+      </c>
+      <c r="C169" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="D169" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E169" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F169" s="12">
+        <v>5001</v>
+      </c>
+      <c r="G169" s="12">
+        <v>5</v>
+      </c>
+      <c r="H169" s="12">
+        <v>10</v>
+      </c>
+      <c r="I169" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A170" s="9">
+        <v>10011</v>
+      </c>
+      <c r="B170">
+        <v>160</v>
+      </c>
+      <c r="C170" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D170" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="E170" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F170" s="13">
+        <v>5001</v>
+      </c>
+      <c r="G170" s="13">
+        <v>5</v>
+      </c>
+      <c r="H170" s="13">
+        <v>11</v>
+      </c>
+      <c r="I170" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A171" s="9">
         <v>10012</v>
       </c>
-      <c r="B167">
+      <c r="B171">
         <v>161</v>
       </c>
-      <c r="C167" s="13" t="s">
+      <c r="C171" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="D167" s="13" t="s">
+      <c r="D171" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="E167" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="F167" s="13">
+      <c r="E171" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F171" s="13">
         <v>5001</v>
       </c>
-      <c r="G167" s="13">
+      <c r="G171" s="13">
         <v>5</v>
       </c>
-      <c r="H167" s="13">
+      <c r="H171" s="13">
         <v>12</v>
       </c>
-      <c r="I167" s="13">
-        <v>1</v>
-      </c>
-      <c r="J167" s="11"/>
-      <c r="K167" s="11"/>
-    </row>
-    <row r="168" spans="1:11" ht="75" x14ac:dyDescent="0.4">
-      <c r="A168" s="11">
-        <v>10013</v>
-      </c>
-      <c r="B168">
-        <v>162</v>
-      </c>
-      <c r="C168" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="D168" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="E168" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="F168" s="10">
-        <v>5001</v>
-      </c>
-      <c r="G168" s="10">
-        <v>5</v>
-      </c>
-      <c r="H168" s="10">
-        <v>22</v>
-      </c>
-      <c r="I168" s="10">
-        <v>1</v>
-      </c>
-      <c r="J168" s="11"/>
-      <c r="K168" s="11"/>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A169" s="11">
-        <v>10014</v>
-      </c>
-      <c r="B169">
-        <v>163</v>
-      </c>
-      <c r="C169" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="D169" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="E169" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="F169" s="10">
-        <v>5001</v>
-      </c>
-      <c r="G169" s="10">
-        <v>5</v>
-      </c>
-      <c r="H169" s="10">
-        <v>23</v>
-      </c>
-      <c r="I169" s="10">
-        <v>1</v>
-      </c>
-      <c r="J169" s="11"/>
-      <c r="K169" s="11"/>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A170" s="11">
-        <v>10015</v>
-      </c>
-      <c r="B170">
-        <v>164</v>
-      </c>
-      <c r="C170" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="D170" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="E170" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="F170" s="10">
-        <v>5001</v>
-      </c>
-      <c r="G170" s="10">
-        <v>5</v>
-      </c>
-      <c r="H170" s="10">
-        <v>24</v>
-      </c>
-      <c r="I170" s="10">
-        <v>1</v>
-      </c>
-      <c r="J170" s="11"/>
-      <c r="K170" s="11"/>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A171" s="11">
-        <v>10016</v>
-      </c>
-      <c r="B171">
-        <v>165</v>
-      </c>
-      <c r="C171" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="D171" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="E171" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="F171" s="10">
-        <v>5001</v>
-      </c>
-      <c r="G171" s="10">
-        <v>5</v>
-      </c>
-      <c r="H171" s="10">
-        <v>19</v>
-      </c>
-      <c r="I171" s="10">
+      <c r="I171" s="13">
         <v>1</v>
       </c>
       <c r="J171" s="11"/>
       <c r="K171" s="11"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:11" ht="75" x14ac:dyDescent="0.4">
       <c r="A172" s="11">
-        <v>10017</v>
+        <v>10013</v>
       </c>
       <c r="B172">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="D172" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="E172" s="11" t="s">
-        <v>253</v>
+        <v>255</v>
+      </c>
+      <c r="D172" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E172" s="15" t="s">
+        <v>279</v>
       </c>
       <c r="F172" s="10">
         <v>5001</v>
@@ -8027,7 +8051,7 @@
         <v>5</v>
       </c>
       <c r="H172" s="10">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I172" s="10">
         <v>1</v>
@@ -8037,16 +8061,16 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A173" s="11">
-        <v>10018</v>
+        <v>10014</v>
       </c>
       <c r="B173">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D173" s="12" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E173" s="11" t="s">
         <v>253</v>
@@ -8058,7 +8082,7 @@
         <v>5</v>
       </c>
       <c r="H173" s="10">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I173" s="10">
         <v>1</v>
@@ -8066,21 +8090,21 @@
       <c r="J173" s="11"/>
       <c r="K173" s="11"/>
     </row>
-    <row r="174" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A174" s="11">
-        <v>10019</v>
+        <v>10015</v>
       </c>
       <c r="B174">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="D174" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="E174" s="15" t="s">
-        <v>280</v>
+        <v>256</v>
+      </c>
+      <c r="D174" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="E174" s="11" t="s">
+        <v>253</v>
       </c>
       <c r="F174" s="10">
         <v>5001</v>
@@ -8089,7 +8113,7 @@
         <v>5</v>
       </c>
       <c r="H174" s="10">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I174" s="10">
         <v>1</v>
@@ -8099,16 +8123,16 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A175" s="11">
-        <v>10020</v>
+        <v>10016</v>
       </c>
       <c r="B175">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="D175" s="12" t="s">
-        <v>271</v>
+        <v>258</v>
+      </c>
+      <c r="D175" s="10" t="s">
+        <v>273</v>
       </c>
       <c r="E175" s="11" t="s">
         <v>253</v>
@@ -8120,7 +8144,7 @@
         <v>5</v>
       </c>
       <c r="H175" s="10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I175" s="10">
         <v>1</v>
@@ -8130,16 +8154,16 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A176" s="11">
-        <v>10021</v>
+        <v>10017</v>
       </c>
       <c r="B176">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D176" s="12" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E176" s="11" t="s">
         <v>253</v>
@@ -8151,7 +8175,7 @@
         <v>5</v>
       </c>
       <c r="H176" s="10">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I176" s="10">
         <v>1</v>
@@ -8161,16 +8185,16 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A177" s="11">
-        <v>10022</v>
+        <v>10018</v>
       </c>
       <c r="B177">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="D177" s="10" t="s">
-        <v>269</v>
+        <v>259</v>
+      </c>
+      <c r="D177" s="12" t="s">
+        <v>275</v>
       </c>
       <c r="E177" s="11" t="s">
         <v>253</v>
@@ -8182,7 +8206,7 @@
         <v>5</v>
       </c>
       <c r="H177" s="10">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I177" s="10">
         <v>1</v>
@@ -8190,21 +8214,21 @@
       <c r="J177" s="11"/>
       <c r="K177" s="11"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A178" s="11">
-        <v>10023</v>
+        <v>10019</v>
       </c>
       <c r="B178">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="D178" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="E178" s="11" t="s">
-        <v>253</v>
+        <v>261</v>
+      </c>
+      <c r="D178" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="E178" s="15" t="s">
+        <v>280</v>
       </c>
       <c r="F178" s="10">
         <v>5001</v>
@@ -8213,7 +8237,7 @@
         <v>5</v>
       </c>
       <c r="H178" s="10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I178" s="10">
         <v>1</v>
@@ -8223,16 +8247,16 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A179" s="11">
-        <v>10024</v>
+        <v>10020</v>
       </c>
       <c r="B179">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D179" s="12" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E179" s="11" t="s">
         <v>253</v>
@@ -8244,7 +8268,7 @@
         <v>5</v>
       </c>
       <c r="H179" s="10">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I179" s="10">
         <v>1</v>
@@ -8253,31 +8277,155 @@
       <c r="K179" s="11"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A180">
+      <c r="A180" s="11">
+        <v>10021</v>
+      </c>
+      <c r="B180">
+        <v>170</v>
+      </c>
+      <c r="C180" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D180" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="E180" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F180" s="10">
+        <v>5001</v>
+      </c>
+      <c r="G180" s="10">
+        <v>5</v>
+      </c>
+      <c r="H180" s="10">
+        <v>18</v>
+      </c>
+      <c r="I180" s="10">
+        <v>1</v>
+      </c>
+      <c r="J180" s="11"/>
+      <c r="K180" s="11"/>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A181" s="11">
+        <v>10022</v>
+      </c>
+      <c r="B181">
+        <v>171</v>
+      </c>
+      <c r="C181" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D181" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="E181" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F181" s="10">
+        <v>5001</v>
+      </c>
+      <c r="G181" s="10">
+        <v>5</v>
+      </c>
+      <c r="H181" s="10">
+        <v>13</v>
+      </c>
+      <c r="I181" s="10">
+        <v>1</v>
+      </c>
+      <c r="J181" s="11"/>
+      <c r="K181" s="11"/>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A182" s="11">
+        <v>10023</v>
+      </c>
+      <c r="B182">
+        <v>172</v>
+      </c>
+      <c r="C182" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D182" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="E182" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F182" s="10">
+        <v>5001</v>
+      </c>
+      <c r="G182" s="10">
+        <v>5</v>
+      </c>
+      <c r="H182" s="10">
+        <v>14</v>
+      </c>
+      <c r="I182" s="10">
+        <v>1</v>
+      </c>
+      <c r="J182" s="11"/>
+      <c r="K182" s="11"/>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A183" s="11">
+        <v>10024</v>
+      </c>
+      <c r="B183">
+        <v>173</v>
+      </c>
+      <c r="C183" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="D183" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="E183" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F183" s="10">
+        <v>5001</v>
+      </c>
+      <c r="G183" s="10">
+        <v>5</v>
+      </c>
+      <c r="H183" s="10">
+        <v>15</v>
+      </c>
+      <c r="I183" s="10">
+        <v>1</v>
+      </c>
+      <c r="J183" s="11"/>
+      <c r="K183" s="11"/>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A184">
         <v>11001</v>
       </c>
-      <c r="B180">
+      <c r="B184">
         <v>174</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C184" t="s">
         <v>237</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D184" t="s">
         <v>211</v>
       </c>
-      <c r="E180" t="s">
-        <v>253</v>
-      </c>
-      <c r="F180">
+      <c r="E184" t="s">
+        <v>253</v>
+      </c>
+      <c r="F184">
         <v>5002</v>
       </c>
-      <c r="G180">
+      <c r="G184">
         <v>5</v>
       </c>
-      <c r="H180">
+      <c r="H184">
         <v>100</v>
       </c>
-      <c r="I180">
+      <c r="I184">
         <v>1</v>
       </c>
     </row>
@@ -8820,7 +8968,7 @@
         <v>4000</v>
       </c>
       <c r="B13" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -8828,7 +8976,7 @@
         <v>4100</v>
       </c>
       <c r="B14" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">

--- a/Config/Excel/Item.xlsx
+++ b/Config/Excel/Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE33477-C623-4337-B3E9-DE3FA55606A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A217AFF-B12C-4C30-9EEE-721DD7F81C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F38E36-9C6F-4B25-9F46-D5DEF68FC08D}"/>
   </bookViews>
@@ -18,6 +18,12 @@
     <sheet name="説明" sheetId="2" r:id="rId3"/>
     <sheet name="Type" sheetId="3" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="範囲">[1]作業用一覧!$A$2:$C$25</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="412">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1653,9 +1659,6 @@
     <t>Textures/matter_2d_028</t>
   </si>
   <si>
-    <t>Textures/matter_2d_029</t>
-  </si>
-  <si>
     <t>Textures/matter_2d_030</t>
   </si>
   <si>
@@ -1894,6 +1897,73 @@
   <si>
     <t>Textures/block_2d_040</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/matter_2d_029</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/matter_2d_033</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/matter_2d_034</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/matter_2d_035</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/matter_2d_036</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/matter_2d_037</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/matter_2d_038</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/matter_2d_039</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/matter_2d_040</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/matter_2d_041</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぴーちゃんの心</t>
+  </si>
+  <si>
+    <t>スッピーの心</t>
+  </si>
+  <si>
+    <t>モッピーの心</t>
+  </si>
+  <si>
+    <t>テッピーの心</t>
+  </si>
+  <si>
+    <t>インテリアの心得</t>
+  </si>
+  <si>
+    <t>かがやく光</t>
+  </si>
+  <si>
+    <t>雪玉</t>
+  </si>
+  <si>
+    <t>サンタのプレゼント</t>
+  </si>
+  <si>
+    <t>かがやく星</t>
   </si>
 </sst>
 </file>
@@ -2107,7 +2177,22 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2437,14 +2522,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2458,12 +2535,277 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="リスト"/>
+      <sheetName val="作業用一覧"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>block</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>block_Texture_</v>
+          </cell>
+          <cell r="C2">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>object</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>object_Texture_</v>
+          </cell>
+          <cell r="C3">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>matter</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>matter_2d_</v>
+          </cell>
+          <cell r="C4">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>button</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>button_2d_</v>
+          </cell>
+          <cell r="C5">
+            <v>36</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>category</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>info_category_</v>
+          </cell>
+          <cell r="C6">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>shop</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>shop_2d_</v>
+          </cell>
+          <cell r="C7">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>effect</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>effect_2d_</v>
+          </cell>
+          <cell r="C8">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>icon</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>icon_2d_</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>texture</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>texture_2d_</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>mission</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>mission_2d_</v>
+          </cell>
+          <cell r="C11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>menu</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>menu_2d_</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>infomation</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>infomation_2d_</v>
+          </cell>
+          <cell r="C13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>character</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>character_2d_</v>
+          </cell>
+          <cell r="C14">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>itemcoin</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>itemcoin_2d_</v>
+          </cell>
+          <cell r="C15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>EnemyObject</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>EnemyObject_Texture_</v>
+          </cell>
+          <cell r="C16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>SwordObject</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>SwordObject_Texture_</v>
+          </cell>
+          <cell r="C17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>BowObject</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>BowObject_Texture_</v>
+          </cell>
+          <cell r="C18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>WandObject</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>WandObject_Texture_</v>
+          </cell>
+          <cell r="C19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>brave</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>brave_2d_</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>skill</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>skill_2d_</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>tutorial</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>tutorial_2d_</v>
+          </cell>
+          <cell r="C22">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>NPC</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>NPC_Texture_</v>
+          </cell>
+          <cell r="C23">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Loginbonus</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>Loginbonus_Texture_</v>
+          </cell>
+          <cell r="C24">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>item</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>item_2d_</v>
+          </cell>
+          <cell r="C25">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:K180" totalsRowShown="0">
-  <autoFilter ref="A1:K180" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}" name="テーブル1" displayName="テーブル1" ref="A1:K189" totalsRowShown="0">
+  <autoFilter ref="A1:K189" xr:uid="{C81B2E4C-C476-4FC7-8C26-5F379BF55930}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{806D4A3C-0914-426C-B787-C9B2B04BC6D5}" name="ID"/>
-    <tableColumn id="11" xr3:uid="{BE058DD4-72CB-455C-A822-19DA100C86EF}" name="Sort" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{BE058DD4-72CB-455C-A822-19DA100C86EF}" name="Sort" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{27BD1368-D6DB-4AC4-A4DB-EC33EFC38964}" name="Name"/>
     <tableColumn id="3" xr3:uid="{E73967F7-5D00-455D-9AEC-4ABDD41A14F5}" name="IconResourcesPath"/>
     <tableColumn id="10" xr3:uid="{B69A039D-08C8-46F6-B28C-2EE5EA2782F8}" name="Explanatory"/>
@@ -2479,19 +2821,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0C7E9A28-2173-4BF1-8AB7-F8C134FC1E3E}" name="テーブル2" displayName="テーブル2" ref="A1:G13" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0C7E9A28-2173-4BF1-8AB7-F8C134FC1E3E}" name="テーブル2" displayName="テーブル2" ref="A1:G13" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
   <autoFilter ref="A1:G13" xr:uid="{0C7E9A28-2173-4BF1-8AB7-F8C134FC1E3E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
     <sortCondition ref="F1:F13"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{7799492D-CC63-4F76-87DC-E337C1061300}" name="10001" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{1F72F1EC-0212-4145-8F64-C43BFC5CEBBA}" name="木の剣" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{3C5513F2-DB12-4448-B9FA-3050FF42DE1A}" name="Textures/SwordObject_2d_001" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{A2E6C594-2057-4D30-BD29-A921FA9A62D8}" name="5001" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{A7A34E46-33F4-4F3D-A7BC-3F1342AE5B36}" name="5" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{41722DF1-B171-4F21-98B3-23A6EB2693BA}" name="1" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{09C82A1F-9964-4699-842D-07338319F805}" name="12" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{7799492D-CC63-4F76-87DC-E337C1061300}" name="10001" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{1F72F1EC-0212-4145-8F64-C43BFC5CEBBA}" name="木の剣" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{3C5513F2-DB12-4448-B9FA-3050FF42DE1A}" name="Textures/SwordObject_2d_001" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{A2E6C594-2057-4D30-BD29-A921FA9A62D8}" name="5001" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{A7A34E46-33F4-4F3D-A7BC-3F1342AE5B36}" name="5" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{41722DF1-B171-4F21-98B3-23A6EB2693BA}" name="1" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{09C82A1F-9964-4699-842D-07338319F805}" name="12" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2794,13 +3136,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256273A0-4325-45BA-9CCF-D0CC71974C12}">
-  <dimension ref="A1:K180"/>
+  <dimension ref="A1:K189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D122" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D95" sqref="D95"/>
+      <selection pane="bottomRight" activeCell="I129" sqref="I129:I135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2818,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -4444,7 +4786,7 @@
         <v>50</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D52" t="s">
         <v>291</v>
@@ -4476,7 +4818,7 @@
         <v>51</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D53" t="s">
         <v>292</v>
@@ -4508,7 +4850,7 @@
         <v>52</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D54" t="s">
         <v>284</v>
@@ -4540,7 +4882,7 @@
         <v>53</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D55" t="s">
         <v>285</v>
@@ -4572,7 +4914,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D56" t="s">
         <v>286</v>
@@ -4604,7 +4946,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D57" t="s">
         <v>287</v>
@@ -4636,7 +4978,7 @@
         <v>56</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D58" t="s">
         <v>288</v>
@@ -4668,7 +5010,7 @@
         <v>57</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D59" t="s">
         <v>289</v>
@@ -4700,7 +5042,7 @@
         <v>58</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D60" t="s">
         <v>290</v>
@@ -4732,7 +5074,7 @@
         <v>59</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D61" t="s">
         <v>293</v>
@@ -4764,10 +5106,10 @@
         <v>60</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D62" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E62" t="s">
         <v>253</v>
@@ -4796,10 +5138,10 @@
         <v>61</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D63" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E63" t="s">
         <v>253</v>
@@ -4828,10 +5170,10 @@
         <v>62</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D64" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E64" t="s">
         <v>253</v>
@@ -4860,10 +5202,10 @@
         <v>63</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D65" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E65" t="s">
         <v>253</v>
@@ -4892,10 +5234,10 @@
         <v>64</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D66" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E66" t="s">
         <v>253</v>
@@ -4924,10 +5266,10 @@
         <v>65</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D67" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E67" t="s">
         <v>253</v>
@@ -4956,10 +5298,10 @@
         <v>66</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D68" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E68" t="s">
         <v>253</v>
@@ -4988,10 +5330,10 @@
         <v>67</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D69" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E69" t="s">
         <v>253</v>
@@ -5020,10 +5362,10 @@
         <v>68</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D70" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E70" t="s">
         <v>253</v>
@@ -5052,10 +5394,10 @@
         <v>69</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D71" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E71" t="s">
         <v>253</v>
@@ -5084,10 +5426,10 @@
         <v>70</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D72" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E72" t="s">
         <v>253</v>
@@ -5116,10 +5458,10 @@
         <v>71</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D73" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E73" t="s">
         <v>253</v>
@@ -5148,10 +5490,10 @@
         <v>72</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D74" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E74" t="s">
         <v>253</v>
@@ -5180,10 +5522,10 @@
         <v>73</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D75" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="